--- a/controller/src/main/resources/jxls_templates/juecaishu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/juecaishu_shoutuo.xlsx
@@ -16,7 +16,7 @@
     <sheet name="決裁願" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">記入!$A$1:$I$68</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">記入!$A$1:$I$71</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">決裁願!$A$1:$P$61</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -58,7 +58,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="D50" authorId="1" shapeId="0">
+    <comment ref="A44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:each(items="alist", var="t", lastCell="F41")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D53" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F67" authorId="1" shapeId="0">
+    <comment ref="F70" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +146,7 @@
             <rFont val="ＭＳ Ｐゴシック"/>
             <family val="2"/>
           </rPr>
-          <t>jx:area(lastCell="P61")</t>
+          <t>jx:area(lastCell="P62")</t>
         </r>
       </text>
     </comment>
@@ -141,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="161">
   <si>
     <t>委託元（和文）</t>
     <rPh sb="4" eb="6">
@@ -1204,12 +1218,28 @@
     <t>${aw.user_id}</t>
   </si>
   <si>
+    <t>${aw.user_id}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${statime}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${endtime}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>${aw.currencyposition}</t>
   </si>
   <si>
     <t>${aw.claimamount}</t>
   </si>
   <si>
+    <t>${r.deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>${r.completiondate}</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1222,10 +1252,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${r.deliverydate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>${r.claimamount}</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1250,19 +1276,43 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>${aw.total}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>${aw.numbermoth}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${aw.total}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>${aw.price}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>${aw.rate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t.budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t.depart}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t.outsource}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t.outcommunity}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t.member}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t.community}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1270,12 +1320,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="178" formatCode="0_ "/>
     <numFmt numFmtId="179" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    <numFmt numFmtId="180" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="181" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1498,7 +1549,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1716,6 +1767,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1738,7 +1811,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1895,6 +1968,10 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="40" fontId="6" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1907,6 +1984,14 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="31" fontId="5" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1966,10 +2051,18 @@
     <xf numFmtId="10" fontId="5" fillId="7" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1984,10 +2077,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1999,6 +2095,12 @@
     <xf numFmtId="40" fontId="6" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2033,6 +2135,12 @@
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2057,7 +2165,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2644,7 +2752,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -2663,14 +2771,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="G1" s="94" t="s">
+      <c r="B1" s="100"/>
+      <c r="G1" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="95"/>
+      <c r="H1" s="103"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" s="29" t="s">
@@ -2683,8 +2791,8 @@
         <v>15</v>
       </c>
       <c r="D2" s="30"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="97"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="105"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" s="31" t="s">
@@ -2694,8 +2802,8 @@
       <c r="C3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="96"/>
-      <c r="H3" s="97"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="105"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="29" t="s">
@@ -2707,8 +2815,8 @@
       <c r="C4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="96"/>
-      <c r="H4" s="97"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="105"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
       <c r="A5" s="29" t="s">
@@ -2718,34 +2826,34 @@
       <c r="C5" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="96"/>
-      <c r="H5" s="97"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="105"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="A6" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="87" t="s">
         <v>129</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="96"/>
-      <c r="H6" s="97"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="105"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="A7" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="87" t="s">
         <v>130</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="96"/>
-      <c r="H7" s="97"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="105"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8" s="29" t="s">
@@ -2755,8 +2863,8 @@
       <c r="C8" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="96"/>
-      <c r="H8" s="97"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="105"/>
     </row>
     <row r="9" spans="1:8" s="34" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="31" t="s">
@@ -2768,47 +2876,47 @@
       <c r="C9" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="96"/>
-      <c r="H9" s="97"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="105"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="A10" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="87" t="s">
         <v>132</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="96"/>
-      <c r="H10" s="97"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="105"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
       <c r="A11" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="87" t="s">
         <v>133</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="96"/>
-      <c r="H11" s="97"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="105"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
       <c r="A12" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="81" t="s">
-        <v>134</v>
+      <c r="B12" s="87" t="s">
+        <v>135</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="96"/>
-      <c r="H12" s="97"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="105"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="A13" s="29" t="s">
@@ -2818,30 +2926,34 @@
       <c r="C13" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="96"/>
-      <c r="H13" s="97"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="105"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
       <c r="A14" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="53"/>
+      <c r="B14" s="53" t="s">
+        <v>136</v>
+      </c>
       <c r="C14" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="96"/>
-      <c r="H14" s="97"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="105"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="53"/>
+      <c r="B15" s="53" t="s">
+        <v>137</v>
+      </c>
       <c r="C15" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="96"/>
-      <c r="H15" s="97"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="105"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
       <c r="A16" s="29" t="s">
@@ -2851,8 +2963,8 @@
       <c r="C16" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="96"/>
-      <c r="H16" s="97"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="105"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
       <c r="A17" s="29" t="s">
@@ -2862,8 +2974,8 @@
       <c r="C17" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="96"/>
-      <c r="H17" s="97"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="105"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
       <c r="A18" s="29" t="s">
@@ -2873,34 +2985,34 @@
       <c r="C18" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="96"/>
-      <c r="H18" s="97"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="105"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="81" t="s">
-        <v>135</v>
+      <c r="B19" s="87" t="s">
+        <v>138</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="96"/>
-      <c r="H19" s="97"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="105"/>
     </row>
     <row r="20" spans="1:8" s="34" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="82" t="s">
-        <v>136</v>
+      <c r="B20" s="88" t="s">
+        <v>139</v>
       </c>
       <c r="C20" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="96"/>
-      <c r="H20" s="97"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="105"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1">
       <c r="A21" s="29" t="s">
@@ -2910,8 +3022,8 @@
       <c r="C21" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="96"/>
-      <c r="H21" s="97"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="105"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1">
       <c r="A22" s="29" t="s">
@@ -2921,19 +3033,19 @@
       <c r="C22" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="96"/>
-      <c r="H22" s="97"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="105"/>
     </row>
     <row r="23" spans="1:8" s="34" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="54"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="96"/>
-      <c r="H23" s="97"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="105"/>
     </row>
     <row r="24" spans="1:8" s="34" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="31" t="s">
@@ -2943,21 +3055,21 @@
       <c r="C24" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="96"/>
-      <c r="H24" s="97"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="105"/>
     </row>
     <row r="25" spans="1:8" s="34" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="56" t="s">
         <v>94</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="96"/>
-      <c r="H25" s="97"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="105"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1">
       <c r="A26" s="31" t="s">
@@ -2969,14 +3081,14 @@
       <c r="C26" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="96"/>
-      <c r="H26" s="97"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="105"/>
     </row>
     <row r="27" spans="1:8" ht="3" customHeight="1">
       <c r="A27" s="35"/>
       <c r="B27" s="28"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="97"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="105"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1">
       <c r="A28" s="36" t="s">
@@ -2997,543 +3109,597 @@
       <c r="F28" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="G28" s="96"/>
-      <c r="H28" s="97"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="105"/>
     </row>
     <row r="29" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A29" s="56" t="str">
+      <c r="A29" s="57" t="str">
         <f>IF(B29="","","第一回")</f>
         <v>第一回</v>
       </c>
-      <c r="B29" s="83" t="s">
+      <c r="B29" s="89" t="s">
         <v>140</v>
       </c>
-      <c r="C29" s="83" t="s">
-        <v>137</v>
-      </c>
-      <c r="D29" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="E29" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="F29" s="85" t="s">
+      <c r="C29" s="89" t="s">
         <v>141</v>
       </c>
-      <c r="G29" s="96"/>
-      <c r="H29" s="97"/>
-    </row>
-    <row r="30" spans="1:8" ht="6.75" customHeight="1">
-      <c r="A30" s="38"/>
-    </row>
-    <row r="31" spans="1:8" ht="14.25">
-      <c r="A31" s="40" t="s">
+      <c r="D29" s="90" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29" s="90" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="91" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" s="104"/>
+      <c r="H29" s="105"/>
+    </row>
+    <row r="30" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A30" s="57" t="str">
+        <f>IF(B30="","","第二回")</f>
+        <v/>
+      </c>
+      <c r="B30" s="58"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="105"/>
+    </row>
+    <row r="31" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A31" s="57" t="str">
+        <f>IF(B31="","","第三回")</f>
+        <v/>
+      </c>
+      <c r="B31" s="58"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="105"/>
+    </row>
+    <row r="32" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A32" s="57" t="str">
+        <f>IF(B32="","","第四回")</f>
+        <v/>
+      </c>
+      <c r="B32" s="58"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="107"/>
+    </row>
+    <row r="33" spans="1:8" ht="6.75" customHeight="1">
+      <c r="A33" s="38"/>
+    </row>
+    <row r="34" spans="1:8" ht="14.25">
+      <c r="A34" s="40" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="41" t="s">
+    <row r="35" spans="1:8">
+      <c r="A35" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="81" t="s">
+      <c r="B35" s="87" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="98" t="s">
+      <c r="C35" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="99"/>
-      <c r="E32" s="104" t="s">
+      <c r="D35" s="109"/>
+      <c r="E35" s="114" t="s">
+        <v>149</v>
+      </c>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="115"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="110"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="117"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="117"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="60">
+        <f ca="1">TODAY()</f>
+        <v>43896</v>
+      </c>
+      <c r="C37" s="112"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="119"/>
+      <c r="G37" s="119"/>
+      <c r="H37" s="119"/>
+    </row>
+    <row r="38" spans="1:8" ht="13.5">
+      <c r="A38" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="60">
+        <f ca="1">B37+2</f>
+        <v>43898</v>
+      </c>
+      <c r="C38" s="30"/>
+    </row>
+    <row r="39" spans="1:8" s="39" customFormat="1" ht="13.5">
+      <c r="A39" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="81" t="s">
-        <v>142</v>
-      </c>
-      <c r="C33" s="100"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="106"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="57">
-        <f ca="1">TODAY()</f>
-        <v>43895</v>
-      </c>
-      <c r="C34" s="102"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="109"/>
-    </row>
-    <row r="35" spans="1:8" ht="13.5">
-      <c r="A35" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="57">
-        <f ca="1">B34+2</f>
-        <v>43897</v>
-      </c>
-      <c r="C35" s="30"/>
-    </row>
-    <row r="36" spans="1:8" s="39" customFormat="1" ht="13.5">
-      <c r="A36" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="81" t="s">
-        <v>143</v>
-      </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-    </row>
-    <row r="37" spans="1:8" s="39" customFormat="1" ht="13.5">
-      <c r="A37" s="42" t="s">
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+    </row>
+    <row r="40" spans="1:8" s="39" customFormat="1" ht="13.5">
+      <c r="A40" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="81" t="s">
-        <v>144</v>
-      </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-    </row>
-    <row r="38" spans="1:8" s="39" customFormat="1" ht="13.5">
-      <c r="A38" s="42" t="s">
+      <c r="B40" s="87" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+    </row>
+    <row r="41" spans="1:8" s="39" customFormat="1" ht="13.5">
+      <c r="A41" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="81" t="s">
-        <v>145</v>
-      </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-    </row>
-    <row r="39" spans="1:8" s="39" customFormat="1" ht="14.25">
-      <c r="A39" s="91" t="s">
+      <c r="B41" s="87" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+    </row>
+    <row r="42" spans="1:8" s="39" customFormat="1" ht="14.25">
+      <c r="A42" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="91" t="s">
+      <c r="B42" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="88" t="s">
+      <c r="C42" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="93" t="s">
+      <c r="D42" s="97"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="98"/>
+      <c r="G42" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="H39" s="91" t="s">
+      <c r="H42" s="99" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="14.25">
-      <c r="A40" s="91"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="43" t="s">
+    <row r="43" spans="1:8" ht="14.25">
+      <c r="A43" s="99"/>
+      <c r="B43" s="99"/>
+      <c r="C43" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="43" t="s">
+      <c r="D43" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="E40" s="43" t="s">
+      <c r="E43" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F40" s="43" t="s">
+      <c r="F43" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="G40" s="91"/>
-      <c r="H40" s="91"/>
-    </row>
-    <row r="41" spans="1:8" ht="14.25">
-      <c r="A41" s="58"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="44">
-        <f>C41+E41</f>
+      <c r="G43" s="99"/>
+      <c r="H43" s="99"/>
+    </row>
+    <row r="44" spans="1:8" ht="14.25">
+      <c r="A44" s="86" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" s="93" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44" s="93" t="s">
+        <v>160</v>
+      </c>
+      <c r="E44" s="93" t="s">
+        <v>157</v>
+      </c>
+      <c r="F44" s="93" t="s">
+        <v>158</v>
+      </c>
+      <c r="G44" s="44" t="e">
+        <f>C44+E44</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H44" s="45" t="e">
+        <f>C44*D44+E44*F44</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="14.25">
+      <c r="A45" s="61"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="44">
+        <f>C45+E45</f>
         <v>0</v>
       </c>
-      <c r="H41" s="45">
-        <f>C41*D41+E41*F41</f>
+      <c r="H45" s="45">
+        <f>C45*D45+E45*F45</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="14.25">
-      <c r="A42" s="58"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="44">
-        <f>C42+E42</f>
+    <row r="46" spans="1:8" ht="14.25">
+      <c r="A46" s="61"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="44">
+        <f>C46+E46</f>
         <v>0</v>
       </c>
-      <c r="H42" s="45">
-        <f>C42*D42+E42*F42</f>
+      <c r="H46" s="45">
+        <f>C46*D46+E46*F46</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="14.25">
-      <c r="A43" s="58"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="44">
-        <f>C43+E43</f>
+    <row r="47" spans="1:8" ht="14.25">
+      <c r="A47" s="61"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="44">
+        <f>C47+E47</f>
         <v>0</v>
       </c>
-      <c r="H43" s="45">
-        <f>C43*D43+E43*F43</f>
+      <c r="H47" s="45">
+        <f>C47*D47+E47*F47</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="14.25">
-      <c r="A44" s="58"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="44">
-        <f>C44+E44</f>
+    <row r="48" spans="1:8" ht="14.25">
+      <c r="A48" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="G48" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="H48" s="63"/>
+    </row>
+    <row r="49" spans="1:8" ht="15">
+      <c r="A49" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="95"/>
+      <c r="C49" s="46">
+        <f>SUM(C44:C48)</f>
         <v>0</v>
       </c>
-      <c r="H44" s="45">
-        <f>C44*D44+E44*F44</f>
+      <c r="D49" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" s="46">
+        <f>SUM(E44:E48)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="14.25">
-      <c r="A45" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="F45" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="G45" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="H45" s="60"/>
-    </row>
-    <row r="46" spans="1:8" ht="15">
-      <c r="A46" s="86" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" s="87"/>
-      <c r="C46" s="46">
-        <f>SUM(C41:C45)</f>
+      <c r="F49" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="G49" s="46" t="e">
+        <f>SUM(G44:G48)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H49" s="47" t="e">
+        <f>SUM(H44:H48)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="C51" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="E51" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="F51" s="69" t="e">
+        <f>IF(B19="US$",H49*D51,H49)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G51" s="70"/>
+      <c r="H51" s="70"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="C52" s="70"/>
+      <c r="D52" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="70"/>
+    </row>
+    <row r="53" spans="1:8" ht="24">
+      <c r="C53" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="E53" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="70"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="C54" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="78"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="70"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="C55" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" s="79"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="70"/>
+      <c r="H55" s="70"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="C56" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" s="79"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="70"/>
+      <c r="H56" s="70"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="C57" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="79"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="70"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="C58" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" s="79"/>
+      <c r="E58" s="68"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="70"/>
+      <c r="H58" s="70"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="C59" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" s="79"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="70"/>
+      <c r="G59" s="70"/>
+      <c r="H59" s="70"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="C60" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" s="79"/>
+      <c r="E60" s="68"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="70"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="C61" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" s="79"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="70"/>
+      <c r="H61" s="70"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="C62" s="121" t="s">
+        <v>105</v>
+      </c>
+      <c r="D62" s="121"/>
+      <c r="E62" s="73">
+        <f>SUM(E54:E61)</f>
         <v>0</v>
       </c>
-      <c r="D46" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="E46" s="46">
-        <f>SUM(E41:E45)</f>
+      <c r="F62" s="70"/>
+      <c r="G62" s="70"/>
+      <c r="H62" s="70"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="C63" s="120" t="s">
+        <v>109</v>
+      </c>
+      <c r="D63" s="122"/>
+      <c r="E63" s="74">
+        <f>D55*E55+D56*E56+D57*E57+D58*E58+D59*E59+D60*E60+D61*E61</f>
         <v>0</v>
       </c>
-      <c r="F46" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="G46" s="46">
-        <f>SUM(G41:G45)</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="47">
-        <f>SUM(H41:H45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="C48" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="D48" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="E48" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="F48" s="66">
-        <f>IF(B19="US$",H46*D48,H46)</f>
-        <v>0</v>
-      </c>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-    </row>
-    <row r="49" spans="3:8">
-      <c r="C49" s="67"/>
-      <c r="D49" s="80" t="s">
-        <v>126</v>
-      </c>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
-    </row>
-    <row r="50" spans="3:8" ht="24">
-      <c r="C50" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="D50" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="E50" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="F50" s="67"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
-    </row>
-    <row r="51" spans="3:8">
-      <c r="C51" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="D51" s="82"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="67"/>
-    </row>
-    <row r="52" spans="3:8">
-      <c r="C52" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="D52" s="82"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="67"/>
-    </row>
-    <row r="53" spans="3:8">
-      <c r="C53" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="D53" s="82"/>
-      <c r="E53" s="82"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
-    </row>
-    <row r="54" spans="3:8">
-      <c r="C54" s="68" t="s">
-        <v>117</v>
-      </c>
-      <c r="D54" s="82"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-    </row>
-    <row r="55" spans="3:8">
-      <c r="C55" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="D55" s="82"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="67"/>
-    </row>
-    <row r="56" spans="3:8">
-      <c r="C56" s="69" t="s">
-        <v>119</v>
-      </c>
-      <c r="D56" s="82"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
-    </row>
-    <row r="57" spans="3:8">
-      <c r="C57" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="D57" s="82"/>
-      <c r="E57" s="82"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-    </row>
-    <row r="58" spans="3:8">
-      <c r="C58" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="D58" s="82"/>
-      <c r="E58" s="82"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-    </row>
-    <row r="59" spans="3:8">
-      <c r="C59" s="111" t="s">
-        <v>105</v>
-      </c>
-      <c r="D59" s="111"/>
-      <c r="E59" s="70">
-        <f>SUM(E51:E58)</f>
-        <v>0</v>
-      </c>
-      <c r="F59" s="67"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="67"/>
-    </row>
-    <row r="60" spans="3:8">
-      <c r="C60" s="110" t="s">
-        <v>109</v>
-      </c>
-      <c r="D60" s="112"/>
-      <c r="E60" s="71">
-        <f>D52*E52+D53*E53+D54*E54+D55*E55+D56*E56+D57*E57+D58*E58</f>
-        <v>0</v>
-      </c>
-      <c r="F60" s="67"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
-    </row>
-    <row r="61" spans="3:8">
-      <c r="C61" s="64"/>
-      <c r="D61" s="72"/>
-      <c r="E61" s="73"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="67"/>
-    </row>
-    <row r="62" spans="3:8" ht="14.25" customHeight="1">
-      <c r="C62" s="111" t="s">
+      <c r="F63" s="70"/>
+      <c r="G63" s="70"/>
+      <c r="H63" s="70"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="C64" s="67"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="70"/>
+      <c r="H64" s="70"/>
+    </row>
+    <row r="65" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C65" s="121" t="s">
         <v>113</v>
       </c>
-      <c r="D62" s="111"/>
-      <c r="E62" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="F62" s="67"/>
-      <c r="G62" s="67"/>
-      <c r="H62" s="67"/>
-    </row>
-    <row r="63" spans="3:8" ht="14.25" customHeight="1">
-      <c r="C63" s="111" t="s">
+      <c r="D65" s="121"/>
+      <c r="E65" s="88" t="s">
+        <v>151</v>
+      </c>
+      <c r="F65" s="70"/>
+      <c r="G65" s="70"/>
+      <c r="H65" s="70"/>
+    </row>
+    <row r="66" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C66" s="121" t="s">
         <v>110</v>
       </c>
-      <c r="D63" s="111"/>
-      <c r="E63" s="82" t="s">
-        <v>148</v>
-      </c>
-      <c r="F63" s="67"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="67"/>
-    </row>
-    <row r="64" spans="3:8" ht="14.25" customHeight="1">
-      <c r="C64" s="111" t="s">
+      <c r="D66" s="121"/>
+      <c r="E66" s="88" t="s">
+        <v>152</v>
+      </c>
+      <c r="F66" s="70"/>
+      <c r="G66" s="70"/>
+      <c r="H66" s="70"/>
+    </row>
+    <row r="67" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C67" s="121" t="s">
         <v>112</v>
       </c>
-      <c r="D64" s="111"/>
-      <c r="E64" s="82" t="s">
-        <v>150</v>
-      </c>
-      <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
-    </row>
-    <row r="65" spans="3:8">
-      <c r="C65" s="111" t="s">
+      <c r="D67" s="121"/>
+      <c r="E67" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="F67" s="70"/>
+      <c r="G67" s="70"/>
+      <c r="H67" s="70"/>
+    </row>
+    <row r="68" spans="3:8">
+      <c r="C68" s="121" t="s">
         <v>111</v>
       </c>
-      <c r="D65" s="111"/>
-      <c r="E65" s="70" t="e">
-        <f>E62/E63</f>
+      <c r="D68" s="121"/>
+      <c r="E68" s="73" t="e">
+        <f>E65/E66</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F65" s="67"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="67"/>
-    </row>
-    <row r="66" spans="3:8">
-      <c r="C66" s="64"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="79" t="s">
+      <c r="F68" s="70"/>
+      <c r="G68" s="70"/>
+      <c r="H68" s="70"/>
+    </row>
+    <row r="69" spans="3:8">
+      <c r="C69" s="67"/>
+      <c r="D69" s="75"/>
+      <c r="E69" s="76"/>
+      <c r="F69" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="G66" s="67"/>
-      <c r="H66" s="67"/>
-    </row>
-    <row r="67" spans="3:8" ht="13.5" customHeight="1">
-      <c r="C67" s="110" t="s">
+      <c r="G69" s="70"/>
+      <c r="H69" s="70"/>
+    </row>
+    <row r="70" spans="3:8" ht="13.5" customHeight="1">
+      <c r="C70" s="120" t="s">
         <v>108</v>
       </c>
-      <c r="D67" s="112"/>
-      <c r="E67" s="74" t="e">
-        <f>(F48-E60-E62)/F48</f>
+      <c r="D70" s="122"/>
+      <c r="E70" s="77" t="e">
+        <f>(F51-E63-E65)/F51</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F67" s="110" t="s">
+      <c r="F70" s="120" t="s">
         <v>107</v>
       </c>
-      <c r="G67" s="110"/>
-      <c r="H67" s="66" t="s">
-        <v>151</v>
+      <c r="G70" s="120"/>
+      <c r="H70" s="69" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A41:F44" name="範囲3"/>
-    <protectedRange sqref="H45" name="範囲4"/>
+    <protectedRange sqref="A45:F47" name="範囲3"/>
+    <protectedRange sqref="H48" name="範囲4"/>
+    <protectedRange sqref="A44" name="範囲3_1"/>
+    <protectedRange sqref="E44:F44" name="範囲3_2"/>
+    <protectedRange sqref="C44:D44" name="範囲3_3"/>
   </protectedRanges>
   <mergeCells count="18">
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="F70:G70"/>
     <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C62:D62"/>
     <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C68:D68"/>
     <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:H43"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="G1:H29"/>
-    <mergeCell ref="C32:D34"/>
-    <mergeCell ref="E32:H34"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="G1:H32"/>
+    <mergeCell ref="C35:D37"/>
+    <mergeCell ref="E35:H37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
       <formula1>"内,外"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37:B38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40:B41">
       <formula1>"和文1通,無し"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3596,12 +3762,12 @@
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="1"/>
-      <c r="C3" s="179" t="s">
+      <c r="C3" s="189" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="184" t="s">
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="194" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="21" t="s">
@@ -3611,104 +3777,104 @@
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
       <c r="K3" s="17"/>
-      <c r="L3" s="120" t="s">
+      <c r="L3" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="122"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="132"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="1"/>
-      <c r="C4" s="180"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="174"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="175"/>
-      <c r="J4" s="175"/>
-      <c r="K4" s="176"/>
-      <c r="L4" s="193">
-        <f ca="1">記入!B34</f>
-        <v>43895</v>
-      </c>
-      <c r="M4" s="194"/>
-      <c r="N4" s="194"/>
-      <c r="O4" s="195"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="186"/>
+      <c r="L4" s="203">
+        <f ca="1">記入!B37</f>
+        <v>43896</v>
+      </c>
+      <c r="M4" s="204"/>
+      <c r="N4" s="204"/>
+      <c r="O4" s="205"/>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="1"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="183"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="174"/>
-      <c r="H5" s="175"/>
-      <c r="I5" s="175"/>
-      <c r="J5" s="175"/>
-      <c r="K5" s="176"/>
-      <c r="L5" s="120" t="s">
+      <c r="C5" s="190"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="190"/>
+      <c r="G5" s="184"/>
+      <c r="H5" s="185"/>
+      <c r="I5" s="185"/>
+      <c r="J5" s="185"/>
+      <c r="K5" s="186"/>
+      <c r="L5" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="122"/>
+      <c r="M5" s="131"/>
+      <c r="N5" s="131"/>
+      <c r="O5" s="132"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="1"/>
-      <c r="C6" s="180"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="183"/>
-      <c r="F6" s="184" t="s">
+      <c r="C6" s="190"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="194" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="174"/>
-      <c r="H6" s="175"/>
-      <c r="I6" s="175"/>
-      <c r="J6" s="175"/>
-      <c r="K6" s="176"/>
-      <c r="L6" s="185">
-        <f ca="1">記入!B35</f>
-        <v>43897</v>
-      </c>
-      <c r="M6" s="186"/>
-      <c r="N6" s="186"/>
-      <c r="O6" s="187"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="185"/>
+      <c r="I6" s="185"/>
+      <c r="J6" s="185"/>
+      <c r="K6" s="186"/>
+      <c r="L6" s="195">
+        <f ca="1">記入!B38</f>
+        <v>43898</v>
+      </c>
+      <c r="M6" s="196"/>
+      <c r="N6" s="196"/>
+      <c r="O6" s="197"/>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="1"/>
-      <c r="C7" s="180"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="174"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="175"/>
-      <c r="J7" s="175"/>
-      <c r="K7" s="176"/>
-      <c r="L7" s="188" t="s">
+      <c r="C7" s="190"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="185"/>
+      <c r="I7" s="185"/>
+      <c r="J7" s="185"/>
+      <c r="K7" s="186"/>
+      <c r="L7" s="198" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="170"/>
-      <c r="N7" s="170"/>
-      <c r="O7" s="189"/>
+      <c r="M7" s="180"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="199"/>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="1"/>
-      <c r="C8" s="181"/>
-      <c r="D8" s="183"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="181"/>
-      <c r="G8" s="174"/>
-      <c r="H8" s="177"/>
-      <c r="I8" s="177"/>
-      <c r="J8" s="177"/>
-      <c r="K8" s="178"/>
-      <c r="L8" s="190"/>
-      <c r="M8" s="191"/>
-      <c r="N8" s="191"/>
-      <c r="O8" s="192"/>
+      <c r="C8" s="191"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="191"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="187"/>
+      <c r="I8" s="187"/>
+      <c r="J8" s="187"/>
+      <c r="K8" s="188"/>
+      <c r="L8" s="200"/>
+      <c r="M8" s="201"/>
+      <c r="N8" s="201"/>
+      <c r="O8" s="202"/>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="1"/>
@@ -3719,76 +3885,76 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="113" t="s">
+      <c r="H9" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="113" t="s">
+      <c r="I9" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="113" t="s">
+      <c r="J9" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="114" t="s">
+      <c r="K9" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="120" t="s">
+      <c r="L9" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="121"/>
-      <c r="N9" s="118" t="str">
-        <f>記入!B36</f>
+      <c r="M9" s="131"/>
+      <c r="N9" s="128" t="str">
+        <f>記入!B39</f>
         <v>${aw.plan}</v>
       </c>
-      <c r="O9" s="119"/>
+      <c r="O9" s="129"/>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="1"/>
-      <c r="C10" s="161" t="str">
+      <c r="C10" s="171" t="str">
         <f>記入!B9</f>
         <v>${aw.deployment}</v>
       </c>
-      <c r="D10" s="162"/>
-      <c r="E10" s="162"/>
-      <c r="F10" s="162"/>
-      <c r="G10" s="163"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="120" t="s">
+      <c r="D10" s="172"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="172"/>
+      <c r="G10" s="173"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="121"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="122"/>
+      <c r="M10" s="131"/>
+      <c r="N10" s="131"/>
+      <c r="O10" s="132"/>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="1"/>
-      <c r="C11" s="164"/>
-      <c r="D11" s="165"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="165"/>
-      <c r="G11" s="166"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="113" t="str">
-        <f>記入!B32</f>
+      <c r="C11" s="174"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="175"/>
+      <c r="F11" s="175"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123" t="str">
+        <f>記入!B35</f>
         <v>${aw.user_id}</v>
       </c>
-      <c r="K11" s="117" t="str">
-        <f>記入!B33</f>
+      <c r="K11" s="127" t="str">
+        <f>記入!B36</f>
         <v>${aw.telephone}</v>
       </c>
-      <c r="L11" s="115" t="str">
+      <c r="L11" s="125" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M11" s="116"/>
-      <c r="N11" s="123" t="str">
+      <c r="M11" s="126"/>
+      <c r="N11" s="133" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O11" s="124"/>
+      <c r="O11" s="134"/>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="1"/>
@@ -3799,44 +3965,44 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="125" t="s">
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="127"/>
+      <c r="L12" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="126"/>
-      <c r="N12" s="126"/>
-      <c r="O12" s="127"/>
+      <c r="M12" s="136"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="137"/>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="1"/>
-      <c r="C13" s="167" t="str">
+      <c r="C13" s="177" t="str">
         <f>記入!B10</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="D13" s="168"/>
-      <c r="E13" s="168"/>
-      <c r="F13" s="168"/>
-      <c r="G13" s="169"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="115" t="str">
+      <c r="D13" s="178"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="179"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="127"/>
+      <c r="L13" s="125" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M13" s="116"/>
-      <c r="N13" s="123" t="str">
+      <c r="M13" s="126"/>
+      <c r="N13" s="133" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O13" s="124"/>
+      <c r="O13" s="134"/>
     </row>
     <row r="14" spans="1:15" ht="9" customHeight="1">
-      <c r="B14" s="160" t="s">
+      <c r="B14" s="170" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="9"/>
@@ -3854,7 +4020,7 @@
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="160"/>
+      <c r="B15" s="170"/>
       <c r="C15" s="9"/>
       <c r="D15" s="12" t="s">
         <v>53</v>
@@ -3872,7 +4038,7 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="160"/>
+      <c r="B16" s="170"/>
       <c r="C16" s="9"/>
       <c r="D16" s="12"/>
       <c r="E16" s="10" t="str">
@@ -3891,7 +4057,7 @@
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="160"/>
+      <c r="B17" s="170"/>
       <c r="C17" s="9"/>
       <c r="D17" s="12"/>
       <c r="E17" s="10" t="str">
@@ -3910,7 +4076,7 @@
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="160"/>
+      <c r="B18" s="170"/>
       <c r="C18" s="9"/>
       <c r="D18" s="1"/>
       <c r="E18" s="10" t="s">
@@ -3928,7 +4094,7 @@
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="2:15" ht="9" customHeight="1">
-      <c r="B19" s="160"/>
+      <c r="B19" s="170"/>
       <c r="C19" s="9"/>
       <c r="D19" s="1"/>
       <c r="E19" s="12"/>
@@ -3944,7 +4110,7 @@
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="160"/>
+      <c r="B20" s="170"/>
       <c r="C20" s="9"/>
       <c r="D20" s="12" t="s">
         <v>35</v>
@@ -3962,389 +4128,389 @@
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="2:15" ht="15" customHeight="1">
-      <c r="B21" s="160"/>
+      <c r="B21" s="170"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="145" t="s">
+      <c r="D21" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="145"/>
-      <c r="F21" s="128" t="str">
+      <c r="E21" s="155"/>
+      <c r="F21" s="138" t="str">
         <f>記入!B2</f>
         <v>${aw.custojapanese}</v>
       </c>
-      <c r="G21" s="128"/>
-      <c r="H21" s="128"/>
-      <c r="I21" s="128"/>
-      <c r="J21" s="128"/>
-      <c r="K21" s="128"/>
-      <c r="L21" s="128"/>
-      <c r="M21" s="128"/>
-      <c r="N21" s="128"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="138"/>
+      <c r="M21" s="138"/>
+      <c r="N21" s="138"/>
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="2:15" ht="15" customHeight="1">
-      <c r="B22" s="160"/>
+      <c r="B22" s="170"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="145"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="128"/>
-      <c r="K22" s="128"/>
-      <c r="L22" s="128"/>
-      <c r="M22" s="128"/>
-      <c r="N22" s="128"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="138"/>
+      <c r="K22" s="138"/>
+      <c r="L22" s="138"/>
+      <c r="M22" s="138"/>
+      <c r="N22" s="138"/>
       <c r="O22" s="4"/>
     </row>
     <row r="23" spans="2:15" ht="15" customHeight="1">
-      <c r="B23" s="160"/>
+      <c r="B23" s="170"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="145" t="s">
+      <c r="D23" s="155" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="145"/>
-      <c r="F23" s="128" t="str">
+      <c r="E23" s="155"/>
+      <c r="F23" s="138" t="str">
         <f>C13</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="G23" s="128"/>
-      <c r="H23" s="128"/>
-      <c r="I23" s="128"/>
-      <c r="J23" s="128"/>
-      <c r="K23" s="128"/>
-      <c r="L23" s="128"/>
-      <c r="M23" s="128"/>
-      <c r="N23" s="128"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="138"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="138"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="138"/>
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="2:15" ht="15" customHeight="1">
-      <c r="B24" s="160"/>
+      <c r="B24" s="170"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="145"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="128"/>
-      <c r="K24" s="128"/>
-      <c r="L24" s="128"/>
-      <c r="M24" s="128"/>
-      <c r="N24" s="128"/>
+      <c r="D24" s="155"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="138"/>
+      <c r="K24" s="138"/>
+      <c r="L24" s="138"/>
+      <c r="M24" s="138"/>
+      <c r="N24" s="138"/>
       <c r="O24" s="4"/>
     </row>
     <row r="25" spans="2:15" ht="15" customHeight="1">
-      <c r="B25" s="160"/>
+      <c r="B25" s="170"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="145" t="s">
+      <c r="D25" s="155" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="145"/>
-      <c r="F25" s="128" t="str">
+      <c r="E25" s="155"/>
+      <c r="F25" s="138" t="str">
         <f>記入!B12</f>
         <v>${aw.user_id}</v>
       </c>
-      <c r="G25" s="128"/>
-      <c r="H25" s="128"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="128"/>
-      <c r="K25" s="128"/>
-      <c r="L25" s="128"/>
-      <c r="M25" s="128"/>
-      <c r="N25" s="128"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="138"/>
+      <c r="J25" s="138"/>
+      <c r="K25" s="138"/>
+      <c r="L25" s="138"/>
+      <c r="M25" s="138"/>
+      <c r="N25" s="138"/>
       <c r="O25" s="4"/>
     </row>
     <row r="26" spans="2:15" ht="15" customHeight="1">
-      <c r="B26" s="160"/>
+      <c r="B26" s="170"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="145"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="128"/>
-      <c r="K26" s="128"/>
-      <c r="L26" s="128"/>
-      <c r="M26" s="128"/>
-      <c r="N26" s="128"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
       <c r="O26" s="4"/>
     </row>
     <row r="27" spans="2:15" ht="15" customHeight="1">
-      <c r="B27" s="160"/>
+      <c r="B27" s="170"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="147" t="s">
+      <c r="D27" s="157" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="147"/>
-      <c r="F27" s="129">
+      <c r="E27" s="157"/>
+      <c r="F27" s="139" t="str">
         <f>記入!B14</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="130"/>
-      <c r="H27" s="130"/>
-      <c r="I27" s="171" t="s">
+        <v>${statime}</v>
+      </c>
+      <c r="G27" s="140"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="181" t="s">
         <v>62</v>
       </c>
-      <c r="J27" s="131">
+      <c r="J27" s="141" t="str">
         <f>記入!B15</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="131"/>
-      <c r="L27" s="131"/>
-      <c r="M27" s="131"/>
-      <c r="N27" s="132"/>
+        <v>${endtime}</v>
+      </c>
+      <c r="K27" s="141"/>
+      <c r="L27" s="141"/>
+      <c r="M27" s="141"/>
+      <c r="N27" s="142"/>
       <c r="O27" s="4"/>
     </row>
     <row r="28" spans="2:15" ht="15" customHeight="1">
-      <c r="B28" s="160"/>
+      <c r="B28" s="170"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="130"/>
-      <c r="H28" s="130"/>
-      <c r="I28" s="171"/>
-      <c r="J28" s="131"/>
-      <c r="K28" s="131"/>
-      <c r="L28" s="131"/>
-      <c r="M28" s="131"/>
-      <c r="N28" s="132"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="157"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="181"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="141"/>
+      <c r="L28" s="141"/>
+      <c r="M28" s="141"/>
+      <c r="N28" s="142"/>
       <c r="O28" s="4"/>
     </row>
     <row r="29" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B29" s="160"/>
+      <c r="B29" s="170"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="138" t="s">
+      <c r="D29" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="135"/>
-      <c r="F29" s="138" t="s">
+      <c r="E29" s="145"/>
+      <c r="F29" s="148" t="s">
         <v>60</v>
       </c>
-      <c r="G29" s="135"/>
-      <c r="H29" s="139" t="s">
+      <c r="G29" s="145"/>
+      <c r="H29" s="149" t="s">
         <v>61</v>
       </c>
-      <c r="I29" s="141" t="s">
+      <c r="I29" s="151" t="s">
         <v>68</v>
       </c>
-      <c r="J29" s="142"/>
-      <c r="K29" s="134" t="s">
+      <c r="J29" s="152"/>
+      <c r="K29" s="144" t="s">
         <v>67</v>
       </c>
-      <c r="L29" s="135"/>
-      <c r="M29" s="138" t="s">
+      <c r="L29" s="145"/>
+      <c r="M29" s="148" t="s">
         <v>58</v>
       </c>
-      <c r="N29" s="135"/>
+      <c r="N29" s="145"/>
       <c r="O29" s="4"/>
     </row>
     <row r="30" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B30" s="160"/>
+      <c r="B30" s="170"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="172"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="136"/>
-      <c r="G30" s="137"/>
-      <c r="H30" s="140"/>
+      <c r="D30" s="182"/>
+      <c r="E30" s="183"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="150"/>
       <c r="I30" s="22" t="s">
         <v>65</v>
       </c>
       <c r="J30" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="K30" s="136"/>
-      <c r="L30" s="137"/>
-      <c r="M30" s="143" t="str">
+      <c r="K30" s="146"/>
+      <c r="L30" s="147"/>
+      <c r="M30" s="153" t="str">
         <f>"(" &amp; 記入!B19 &amp; ")"</f>
         <v>(${aw.currencyposition})</v>
       </c>
-      <c r="N30" s="144"/>
+      <c r="N30" s="154"/>
       <c r="O30" s="4"/>
     </row>
     <row r="31" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B31" s="160"/>
+      <c r="B31" s="170"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="172"/>
-      <c r="E31" s="173"/>
-      <c r="F31" s="128">
-        <f>記入!A41</f>
+      <c r="D31" s="182"/>
+      <c r="E31" s="183"/>
+      <c r="F31" s="138" t="str">
+        <f>記入!A44</f>
+        <v>${t.budgetcode}</v>
+      </c>
+      <c r="G31" s="138"/>
+      <c r="H31" s="24" t="str">
+        <f>記入!B44</f>
+        <v>${t.depart}</v>
+      </c>
+      <c r="I31" s="24" t="str">
+        <f>記入!C44</f>
+        <v>${t.member}</v>
+      </c>
+      <c r="J31" s="24" t="str">
+        <f>記入!E44</f>
+        <v>${t.outsource}</v>
+      </c>
+      <c r="K31" s="138" t="e">
+        <f>記入!G44</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L31" s="138"/>
+      <c r="M31" s="143" t="e">
+        <f>記入!H44</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N31" s="143"/>
+      <c r="O31" s="4"/>
+    </row>
+    <row r="32" spans="2:15" ht="24.95" customHeight="1">
+      <c r="B32" s="170"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="182"/>
+      <c r="E32" s="183"/>
+      <c r="F32" s="138">
+        <f>記入!A45</f>
         <v>0</v>
       </c>
-      <c r="G31" s="128"/>
-      <c r="H31" s="24">
-        <f>記入!B41</f>
+      <c r="G32" s="138"/>
+      <c r="H32" s="24">
+        <f>記入!B45</f>
         <v>0</v>
       </c>
-      <c r="I31" s="24">
-        <f>記入!C41</f>
+      <c r="I32" s="24">
+        <f>記入!C45</f>
         <v>0</v>
       </c>
-      <c r="J31" s="24">
-        <f>記入!E41</f>
+      <c r="J32" s="24">
+        <f>記入!E45</f>
         <v>0</v>
       </c>
-      <c r="K31" s="128">
-        <f>記入!G41</f>
+      <c r="K32" s="138">
+        <f>記入!G45</f>
         <v>0</v>
       </c>
-      <c r="L31" s="128"/>
-      <c r="M31" s="133">
-        <f>記入!H41</f>
-        <v>0</v>
-      </c>
-      <c r="N31" s="133"/>
-      <c r="O31" s="4"/>
-    </row>
-    <row r="32" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B32" s="160"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="172"/>
-      <c r="E32" s="173"/>
-      <c r="F32" s="128">
-        <f>記入!A42</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="128"/>
-      <c r="H32" s="24">
-        <f>記入!B42</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="24">
-        <f>記入!C42</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="24">
-        <f>記入!E42</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="128">
-        <f>記入!G42</f>
-        <v>0</v>
-      </c>
-      <c r="L32" s="128"/>
-      <c r="M32" s="133">
-        <f>記入!H42</f>
-        <v>0</v>
-      </c>
-      <c r="N32" s="133"/>
-      <c r="O32" s="4"/>
-    </row>
-    <row r="33" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B33" s="160"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="172"/>
-      <c r="E33" s="173"/>
-      <c r="F33" s="128">
-        <f>記入!A43</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="128"/>
-      <c r="H33" s="24">
-        <f>記入!B43</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="24">
-        <f>記入!C43</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="24">
-        <f>記入!E43</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="128">
-        <f>記入!G43</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="128"/>
-      <c r="M33" s="133">
-        <f>記入!H43</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="133"/>
-      <c r="O33" s="4"/>
-    </row>
-    <row r="34" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B34" s="160"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="172"/>
-      <c r="E34" s="173"/>
-      <c r="F34" s="128">
-        <f>記入!A44</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="128"/>
-      <c r="H34" s="24">
-        <f>記入!B44</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="24">
-        <f>記入!C44</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="24">
-        <f>記入!E44</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="128">
-        <f>記入!G44</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="128"/>
-      <c r="M34" s="133">
-        <f>記入!H44</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="133"/>
-      <c r="O34" s="4"/>
-    </row>
-    <row r="35" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B35" s="160"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="172"/>
-      <c r="E35" s="173"/>
-      <c r="F35" s="128" t="str">
-        <f>記入!A45</f>
-        <v>経費</v>
-      </c>
-      <c r="G35" s="128"/>
-      <c r="H35" s="24" t="str">
-        <f>記入!B45</f>
-        <v>-</v>
-      </c>
-      <c r="I35" s="24" t="str">
-        <f>記入!C45</f>
-        <v>-</v>
-      </c>
-      <c r="J35" s="24" t="str">
-        <f>記入!E45</f>
-        <v>-</v>
-      </c>
-      <c r="K35" s="128" t="str">
-        <f>記入!G45</f>
-        <v>-</v>
-      </c>
-      <c r="L35" s="128"/>
-      <c r="M35" s="133">
+      <c r="L32" s="138"/>
+      <c r="M32" s="143">
         <f>記入!H45</f>
         <v>0</v>
       </c>
-      <c r="N35" s="133"/>
+      <c r="N32" s="143"/>
+      <c r="O32" s="4"/>
+    </row>
+    <row r="33" spans="2:15" ht="24.95" customHeight="1">
+      <c r="B33" s="170"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="182"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="138">
+        <f>記入!A46</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="138"/>
+      <c r="H33" s="24">
+        <f>記入!B46</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="24">
+        <f>記入!C46</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="24">
+        <f>記入!E46</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="138">
+        <f>記入!G46</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="138"/>
+      <c r="M33" s="143">
+        <f>記入!H46</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="143"/>
+      <c r="O33" s="4"/>
+    </row>
+    <row r="34" spans="2:15" ht="24.95" customHeight="1">
+      <c r="B34" s="170"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="182"/>
+      <c r="E34" s="183"/>
+      <c r="F34" s="138">
+        <f>記入!A47</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="138"/>
+      <c r="H34" s="24">
+        <f>記入!B47</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="24">
+        <f>記入!C47</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="24">
+        <f>記入!E47</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="138">
+        <f>記入!G47</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="138"/>
+      <c r="M34" s="143">
+        <f>記入!H47</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="143"/>
+      <c r="O34" s="4"/>
+    </row>
+    <row r="35" spans="2:15" ht="24.95" customHeight="1">
+      <c r="B35" s="170"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="182"/>
+      <c r="E35" s="183"/>
+      <c r="F35" s="138" t="str">
+        <f>記入!A48</f>
+        <v>経費</v>
+      </c>
+      <c r="G35" s="138"/>
+      <c r="H35" s="24" t="str">
+        <f>記入!B48</f>
+        <v>-</v>
+      </c>
+      <c r="I35" s="24" t="str">
+        <f>記入!C48</f>
+        <v>-</v>
+      </c>
+      <c r="J35" s="24" t="str">
+        <f>記入!E48</f>
+        <v>-</v>
+      </c>
+      <c r="K35" s="138" t="str">
+        <f>記入!G48</f>
+        <v>-</v>
+      </c>
+      <c r="L35" s="138"/>
+      <c r="M35" s="143">
+        <f>記入!H48</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="143"/>
       <c r="O35" s="4"/>
     </row>
     <row r="36" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B36" s="160"/>
+      <c r="B36" s="170"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="136"/>
-      <c r="E36" s="137"/>
-      <c r="F36" s="145" t="s">
+      <c r="D36" s="146"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="145"/>
-      <c r="H36" s="145"/>
+      <c r="G36" s="155"/>
+      <c r="H36" s="155"/>
       <c r="I36" s="22">
         <f>SUM(I31:I35)</f>
         <v>0</v>
@@ -4353,199 +4519,199 @@
         <f>SUM(J31:J35)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="145">
+      <c r="K36" s="155" t="e">
         <f>SUM(K31:L35)</f>
-        <v>0</v>
-      </c>
-      <c r="L36" s="145"/>
-      <c r="M36" s="146">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L36" s="155"/>
+      <c r="M36" s="156" t="e">
         <f>SUM(M31:N35)</f>
-        <v>0</v>
-      </c>
-      <c r="N36" s="146"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N36" s="156"/>
       <c r="O36" s="4"/>
     </row>
     <row r="37" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B37" s="160"/>
+      <c r="B37" s="170"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="148" t="s">
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="158" t="s">
         <v>123</v>
       </c>
-      <c r="L37" s="148"/>
-      <c r="M37" s="149" t="e">
-        <f>記入!E67</f>
+      <c r="L37" s="158"/>
+      <c r="M37" s="159" t="e">
+        <f>記入!E70</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N37" s="149"/>
+      <c r="N37" s="159"/>
       <c r="O37" s="4"/>
     </row>
     <row r="38" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B38" s="160"/>
+      <c r="B38" s="170"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="148" t="s">
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="82"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="158" t="s">
         <v>122</v>
       </c>
-      <c r="L38" s="148"/>
-      <c r="M38" s="149" t="str">
-        <f>記入!H67</f>
+      <c r="L38" s="158"/>
+      <c r="M38" s="159" t="str">
+        <f>記入!H70</f>
         <v>${aw.rate}</v>
       </c>
-      <c r="N38" s="149"/>
+      <c r="N38" s="159"/>
       <c r="O38" s="4"/>
     </row>
     <row r="39" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B39" s="160"/>
+      <c r="B39" s="170"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="147" t="s">
+      <c r="D39" s="157" t="s">
         <v>63</v>
       </c>
-      <c r="E39" s="147"/>
-      <c r="F39" s="141" t="s">
+      <c r="E39" s="157"/>
+      <c r="F39" s="151" t="s">
         <v>86</v>
       </c>
-      <c r="G39" s="142"/>
-      <c r="H39" s="150" t="s">
+      <c r="G39" s="152"/>
+      <c r="H39" s="160" t="s">
         <v>124</v>
       </c>
-      <c r="I39" s="142"/>
-      <c r="J39" s="147" t="str">
+      <c r="I39" s="152"/>
+      <c r="J39" s="157" t="str">
         <f>"請求金額"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>請求金額(${aw.currencyposition})</v>
       </c>
-      <c r="K39" s="147"/>
-      <c r="L39" s="147"/>
-      <c r="M39" s="147"/>
-      <c r="N39" s="147"/>
+      <c r="K39" s="157"/>
+      <c r="L39" s="157"/>
+      <c r="M39" s="157"/>
+      <c r="N39" s="157"/>
       <c r="O39" s="4"/>
     </row>
     <row r="40" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B40" s="160"/>
+      <c r="B40" s="170"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="145" t="str">
+      <c r="D40" s="155" t="str">
         <f>記入!A29</f>
         <v>第一回</v>
       </c>
-      <c r="E40" s="145"/>
-      <c r="F40" s="158" t="str">
+      <c r="E40" s="155"/>
+      <c r="F40" s="168" t="str">
         <f>IF(記入!B29="","",記入!B29)</f>
         <v>${r.deliverydate}</v>
       </c>
-      <c r="G40" s="159"/>
-      <c r="H40" s="158" t="str">
+      <c r="G40" s="169"/>
+      <c r="H40" s="168" t="str">
         <f>IF(記入!D29="","",記入!D29)</f>
         <v>${r.claimdate}</v>
       </c>
-      <c r="I40" s="159"/>
-      <c r="J40" s="133" t="str">
+      <c r="I40" s="169"/>
+      <c r="J40" s="143" t="str">
         <f>IF(記入!F29="","",記入!F29)</f>
         <v>${r.claimamount}</v>
       </c>
-      <c r="K40" s="133"/>
-      <c r="L40" s="133"/>
-      <c r="M40" s="133"/>
-      <c r="N40" s="133"/>
+      <c r="K40" s="143"/>
+      <c r="L40" s="143"/>
+      <c r="M40" s="143"/>
+      <c r="N40" s="143"/>
       <c r="O40" s="4"/>
     </row>
     <row r="41" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B41" s="160"/>
+      <c r="B41" s="170"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="145" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E41" s="145"/>
-      <c r="F41" s="158" t="e">
-        <f>IF(記入!#REF!="","",記入!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G41" s="159"/>
-      <c r="H41" s="158" t="e">
-        <f>IF(記入!#REF!="","",記入!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I41" s="159"/>
-      <c r="J41" s="133" t="e">
-        <f>IF(記入!#REF!="","",記入!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K41" s="133"/>
-      <c r="L41" s="133"/>
-      <c r="M41" s="133"/>
-      <c r="N41" s="133"/>
+      <c r="D41" s="155" t="str">
+        <f>記入!A30</f>
+        <v/>
+      </c>
+      <c r="E41" s="155"/>
+      <c r="F41" s="168" t="str">
+        <f>IF(記入!B30="","",記入!B30)</f>
+        <v/>
+      </c>
+      <c r="G41" s="169"/>
+      <c r="H41" s="168" t="str">
+        <f>IF(記入!D30="","",記入!D30)</f>
+        <v/>
+      </c>
+      <c r="I41" s="169"/>
+      <c r="J41" s="143" t="str">
+        <f>IF(記入!F30="","",記入!F30)</f>
+        <v/>
+      </c>
+      <c r="K41" s="143"/>
+      <c r="L41" s="143"/>
+      <c r="M41" s="143"/>
+      <c r="N41" s="143"/>
       <c r="O41" s="4"/>
     </row>
     <row r="42" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B42" s="160"/>
+      <c r="B42" s="170"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="145" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E42" s="145"/>
-      <c r="F42" s="158" t="e">
-        <f>IF(記入!#REF!="","",記入!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G42" s="159"/>
-      <c r="H42" s="158" t="e">
-        <f>IF(記入!#REF!="","",記入!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I42" s="159"/>
-      <c r="J42" s="133" t="e">
-        <f>IF(記入!#REF!="","",記入!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K42" s="133"/>
-      <c r="L42" s="133"/>
-      <c r="M42" s="133"/>
-      <c r="N42" s="133"/>
+      <c r="D42" s="155" t="str">
+        <f>記入!A31</f>
+        <v/>
+      </c>
+      <c r="E42" s="155"/>
+      <c r="F42" s="168" t="str">
+        <f>IF(記入!B31="","",記入!B31)</f>
+        <v/>
+      </c>
+      <c r="G42" s="169"/>
+      <c r="H42" s="168" t="str">
+        <f>IF(記入!D31="","",記入!D31)</f>
+        <v/>
+      </c>
+      <c r="I42" s="169"/>
+      <c r="J42" s="143" t="str">
+        <f>IF(記入!F31="","",記入!F31)</f>
+        <v/>
+      </c>
+      <c r="K42" s="143"/>
+      <c r="L42" s="143"/>
+      <c r="M42" s="143"/>
+      <c r="N42" s="143"/>
       <c r="O42" s="4"/>
     </row>
     <row r="43" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B43" s="160"/>
+      <c r="B43" s="170"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="145" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E43" s="145"/>
-      <c r="F43" s="158" t="e">
-        <f>IF(記入!#REF!="","",記入!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G43" s="159"/>
-      <c r="H43" s="158" t="e">
-        <f>IF(記入!#REF!="","",記入!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I43" s="159"/>
-      <c r="J43" s="133" t="e">
-        <f>IF(記入!#REF!="","",記入!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K43" s="133"/>
-      <c r="L43" s="133"/>
-      <c r="M43" s="133"/>
-      <c r="N43" s="133"/>
+      <c r="D43" s="155" t="str">
+        <f>記入!A32</f>
+        <v/>
+      </c>
+      <c r="E43" s="155"/>
+      <c r="F43" s="168" t="str">
+        <f>IF(記入!B32="","",記入!B32)</f>
+        <v/>
+      </c>
+      <c r="G43" s="169"/>
+      <c r="H43" s="168" t="str">
+        <f>IF(記入!D32="","",記入!D32)</f>
+        <v/>
+      </c>
+      <c r="I43" s="169"/>
+      <c r="J43" s="143" t="str">
+        <f>IF(記入!F32="","",記入!F32)</f>
+        <v/>
+      </c>
+      <c r="K43" s="143"/>
+      <c r="L43" s="143"/>
+      <c r="M43" s="143"/>
+      <c r="N43" s="143"/>
       <c r="O43" s="4"/>
     </row>
     <row r="44" spans="2:15" ht="21.75" customHeight="1">
-      <c r="B44" s="160"/>
+      <c r="B44" s="170"/>
       <c r="C44" s="9"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -4553,18 +4719,18 @@
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
-      <c r="J44" s="153" t="e">
+      <c r="J44" s="163">
         <f>SUM(J40:N43)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K44" s="154"/>
-      <c r="L44" s="154"/>
-      <c r="M44" s="154"/>
-      <c r="N44" s="155"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="164"/>
+      <c r="L44" s="164"/>
+      <c r="M44" s="164"/>
+      <c r="N44" s="165"/>
       <c r="O44" s="4"/>
     </row>
     <row r="45" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B45" s="160"/>
+      <c r="B45" s="170"/>
       <c r="C45" s="9"/>
       <c r="D45" s="13" t="s">
         <v>36</v>
@@ -4582,15 +4748,15 @@
       <c r="O45" s="4"/>
     </row>
     <row r="46" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B46" s="160"/>
+      <c r="B46" s="170"/>
       <c r="C46" s="9"/>
       <c r="D46" s="13"/>
-      <c r="E46" s="170" t="s">
+      <c r="E46" s="180" t="s">
         <v>51</v>
       </c>
-      <c r="F46" s="170"/>
+      <c r="F46" s="180"/>
       <c r="G46" s="27" t="str">
-        <f>記入!B37</f>
+        <f>記入!B40</f>
         <v>${aw.valuation}</v>
       </c>
       <c r="H46" s="12"/>
@@ -4603,15 +4769,15 @@
       <c r="O46" s="4"/>
     </row>
     <row r="47" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="160"/>
+      <c r="B47" s="170"/>
       <c r="C47" s="9"/>
       <c r="D47" s="13"/>
-      <c r="E47" s="170" t="s">
+      <c r="E47" s="180" t="s">
         <v>52</v>
       </c>
-      <c r="F47" s="170"/>
+      <c r="F47" s="180"/>
       <c r="G47" s="27" t="str">
-        <f>記入!B38</f>
+        <f>記入!B41</f>
         <v>${aw.individual}</v>
       </c>
       <c r="H47" s="12"/>
@@ -4624,7 +4790,7 @@
       <c r="O47" s="4"/>
     </row>
     <row r="48" spans="2:15" ht="9.75" customHeight="1">
-      <c r="B48" s="160"/>
+      <c r="B48" s="170"/>
       <c r="C48" s="9"/>
       <c r="D48" s="13"/>
       <c r="E48" s="25"/>
@@ -4640,211 +4806,211 @@
       <c r="O48" s="4"/>
     </row>
     <row r="49" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="160"/>
+      <c r="B49" s="170"/>
       <c r="C49" s="9"/>
       <c r="D49" s="13" t="s">
         <v>100</v>
       </c>
       <c r="E49" s="25"/>
-      <c r="F49" s="151" t="str">
-        <f>記入!E32</f>
+      <c r="F49" s="161" t="str">
+        <f>記入!E35</f>
         <v>${aw.remarks}</v>
       </c>
-      <c r="G49" s="151"/>
-      <c r="H49" s="151"/>
-      <c r="I49" s="151"/>
-      <c r="J49" s="151"/>
-      <c r="K49" s="151"/>
-      <c r="L49" s="151"/>
-      <c r="M49" s="151"/>
-      <c r="N49" s="151"/>
+      <c r="G49" s="161"/>
+      <c r="H49" s="161"/>
+      <c r="I49" s="161"/>
+      <c r="J49" s="161"/>
+      <c r="K49" s="161"/>
+      <c r="L49" s="161"/>
+      <c r="M49" s="161"/>
+      <c r="N49" s="161"/>
       <c r="O49" s="4"/>
     </row>
     <row r="50" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="160"/>
+      <c r="B50" s="170"/>
       <c r="C50" s="9"/>
       <c r="D50" s="13"/>
       <c r="E50" s="26"/>
-      <c r="F50" s="152"/>
-      <c r="G50" s="152"/>
-      <c r="H50" s="152"/>
-      <c r="I50" s="152"/>
-      <c r="J50" s="152"/>
-      <c r="K50" s="152"/>
-      <c r="L50" s="152"/>
-      <c r="M50" s="152"/>
-      <c r="N50" s="152"/>
+      <c r="F50" s="162"/>
+      <c r="G50" s="162"/>
+      <c r="H50" s="162"/>
+      <c r="I50" s="162"/>
+      <c r="J50" s="162"/>
+      <c r="K50" s="162"/>
+      <c r="L50" s="162"/>
+      <c r="M50" s="162"/>
+      <c r="N50" s="162"/>
       <c r="O50" s="4"/>
     </row>
     <row r="51" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="160"/>
-      <c r="C51" s="157" t="s">
+      <c r="B51" s="170"/>
+      <c r="C51" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="D51" s="157"/>
-      <c r="E51" s="157"/>
-      <c r="F51" s="157" t="s">
+      <c r="D51" s="167"/>
+      <c r="E51" s="167"/>
+      <c r="F51" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="G51" s="157"/>
-      <c r="H51" s="157" t="s">
+      <c r="G51" s="167"/>
+      <c r="H51" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="I51" s="157"/>
-      <c r="J51" s="157" t="s">
+      <c r="I51" s="167"/>
+      <c r="J51" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="K51" s="157"/>
-      <c r="L51" s="157"/>
-      <c r="M51" s="157" t="s">
+      <c r="K51" s="167"/>
+      <c r="L51" s="167"/>
+      <c r="M51" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="N51" s="157"/>
-      <c r="O51" s="157"/>
+      <c r="N51" s="167"/>
+      <c r="O51" s="167"/>
     </row>
     <row r="52" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B52" s="160"/>
-      <c r="C52" s="157"/>
-      <c r="D52" s="157"/>
-      <c r="E52" s="157"/>
-      <c r="F52" s="156"/>
-      <c r="G52" s="156"/>
-      <c r="H52" s="156"/>
-      <c r="I52" s="156"/>
-      <c r="J52" s="156"/>
-      <c r="K52" s="156"/>
-      <c r="L52" s="156"/>
-      <c r="M52" s="156"/>
-      <c r="N52" s="156"/>
-      <c r="O52" s="156"/>
+      <c r="B52" s="170"/>
+      <c r="C52" s="167"/>
+      <c r="D52" s="167"/>
+      <c r="E52" s="167"/>
+      <c r="F52" s="166"/>
+      <c r="G52" s="166"/>
+      <c r="H52" s="166"/>
+      <c r="I52" s="166"/>
+      <c r="J52" s="166"/>
+      <c r="K52" s="166"/>
+      <c r="L52" s="166"/>
+      <c r="M52" s="166"/>
+      <c r="N52" s="166"/>
+      <c r="O52" s="166"/>
     </row>
     <row r="53" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B53" s="160"/>
-      <c r="C53" s="157"/>
-      <c r="D53" s="157"/>
-      <c r="E53" s="157"/>
-      <c r="F53" s="156"/>
-      <c r="G53" s="156"/>
-      <c r="H53" s="156"/>
-      <c r="I53" s="156"/>
-      <c r="J53" s="156"/>
-      <c r="K53" s="156"/>
-      <c r="L53" s="156"/>
-      <c r="M53" s="156"/>
-      <c r="N53" s="156"/>
-      <c r="O53" s="156"/>
+      <c r="B53" s="170"/>
+      <c r="C53" s="167"/>
+      <c r="D53" s="167"/>
+      <c r="E53" s="167"/>
+      <c r="F53" s="166"/>
+      <c r="G53" s="166"/>
+      <c r="H53" s="166"/>
+      <c r="I53" s="166"/>
+      <c r="J53" s="166"/>
+      <c r="K53" s="166"/>
+      <c r="L53" s="166"/>
+      <c r="M53" s="166"/>
+      <c r="N53" s="166"/>
+      <c r="O53" s="166"/>
     </row>
     <row r="54" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B54" s="160"/>
-      <c r="C54" s="157"/>
-      <c r="D54" s="157"/>
-      <c r="E54" s="157"/>
-      <c r="F54" s="156"/>
-      <c r="G54" s="156"/>
-      <c r="H54" s="156"/>
-      <c r="I54" s="156"/>
-      <c r="J54" s="156"/>
-      <c r="K54" s="156"/>
-      <c r="L54" s="156"/>
-      <c r="M54" s="156"/>
-      <c r="N54" s="156"/>
-      <c r="O54" s="156"/>
+      <c r="B54" s="170"/>
+      <c r="C54" s="167"/>
+      <c r="D54" s="167"/>
+      <c r="E54" s="167"/>
+      <c r="F54" s="166"/>
+      <c r="G54" s="166"/>
+      <c r="H54" s="166"/>
+      <c r="I54" s="166"/>
+      <c r="J54" s="166"/>
+      <c r="K54" s="166"/>
+      <c r="L54" s="166"/>
+      <c r="M54" s="166"/>
+      <c r="N54" s="166"/>
+      <c r="O54" s="166"/>
     </row>
     <row r="55" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="160"/>
-      <c r="C55" s="157"/>
-      <c r="D55" s="157"/>
-      <c r="E55" s="157"/>
-      <c r="F55" s="156"/>
-      <c r="G55" s="156"/>
-      <c r="H55" s="156"/>
-      <c r="I55" s="156"/>
-      <c r="J55" s="156"/>
-      <c r="K55" s="156"/>
-      <c r="L55" s="156"/>
-      <c r="M55" s="156"/>
-      <c r="N55" s="156"/>
-      <c r="O55" s="156"/>
+      <c r="B55" s="170"/>
+      <c r="C55" s="167"/>
+      <c r="D55" s="167"/>
+      <c r="E55" s="167"/>
+      <c r="F55" s="166"/>
+      <c r="G55" s="166"/>
+      <c r="H55" s="166"/>
+      <c r="I55" s="166"/>
+      <c r="J55" s="166"/>
+      <c r="K55" s="166"/>
+      <c r="L55" s="166"/>
+      <c r="M55" s="166"/>
+      <c r="N55" s="166"/>
+      <c r="O55" s="166"/>
     </row>
     <row r="56" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B56" s="160"/>
-      <c r="C56" s="157"/>
-      <c r="D56" s="157"/>
-      <c r="E56" s="157"/>
-      <c r="F56" s="156"/>
-      <c r="G56" s="156"/>
-      <c r="H56" s="156"/>
-      <c r="I56" s="156"/>
-      <c r="J56" s="156"/>
-      <c r="K56" s="156"/>
-      <c r="L56" s="156"/>
-      <c r="M56" s="156"/>
-      <c r="N56" s="156"/>
-      <c r="O56" s="156"/>
+      <c r="B56" s="170"/>
+      <c r="C56" s="167"/>
+      <c r="D56" s="167"/>
+      <c r="E56" s="167"/>
+      <c r="F56" s="166"/>
+      <c r="G56" s="166"/>
+      <c r="H56" s="166"/>
+      <c r="I56" s="166"/>
+      <c r="J56" s="166"/>
+      <c r="K56" s="166"/>
+      <c r="L56" s="166"/>
+      <c r="M56" s="166"/>
+      <c r="N56" s="166"/>
+      <c r="O56" s="166"/>
     </row>
     <row r="57" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="160"/>
-      <c r="C57" s="157"/>
-      <c r="D57" s="157"/>
-      <c r="E57" s="157"/>
-      <c r="F57" s="156"/>
-      <c r="G57" s="156"/>
-      <c r="H57" s="156"/>
-      <c r="I57" s="156"/>
-      <c r="J57" s="156"/>
-      <c r="K57" s="156"/>
-      <c r="L57" s="156"/>
-      <c r="M57" s="156"/>
-      <c r="N57" s="156"/>
-      <c r="O57" s="156"/>
+      <c r="B57" s="170"/>
+      <c r="C57" s="167"/>
+      <c r="D57" s="167"/>
+      <c r="E57" s="167"/>
+      <c r="F57" s="166"/>
+      <c r="G57" s="166"/>
+      <c r="H57" s="166"/>
+      <c r="I57" s="166"/>
+      <c r="J57" s="166"/>
+      <c r="K57" s="166"/>
+      <c r="L57" s="166"/>
+      <c r="M57" s="166"/>
+      <c r="N57" s="166"/>
+      <c r="O57" s="166"/>
     </row>
     <row r="58" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B58" s="160"/>
-      <c r="C58" s="157"/>
-      <c r="D58" s="157"/>
-      <c r="E58" s="157"/>
-      <c r="F58" s="156"/>
-      <c r="G58" s="156"/>
-      <c r="H58" s="156"/>
-      <c r="I58" s="156"/>
-      <c r="J58" s="156"/>
-      <c r="K58" s="156"/>
-      <c r="L58" s="156"/>
-      <c r="M58" s="156"/>
-      <c r="N58" s="156"/>
-      <c r="O58" s="156"/>
+      <c r="B58" s="170"/>
+      <c r="C58" s="167"/>
+      <c r="D58" s="167"/>
+      <c r="E58" s="167"/>
+      <c r="F58" s="166"/>
+      <c r="G58" s="166"/>
+      <c r="H58" s="166"/>
+      <c r="I58" s="166"/>
+      <c r="J58" s="166"/>
+      <c r="K58" s="166"/>
+      <c r="L58" s="166"/>
+      <c r="M58" s="166"/>
+      <c r="N58" s="166"/>
+      <c r="O58" s="166"/>
     </row>
     <row r="59" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B59" s="160"/>
-      <c r="C59" s="157"/>
-      <c r="D59" s="157"/>
-      <c r="E59" s="157"/>
-      <c r="F59" s="156"/>
-      <c r="G59" s="156"/>
-      <c r="H59" s="156"/>
-      <c r="I59" s="156"/>
-      <c r="J59" s="156"/>
-      <c r="K59" s="156"/>
-      <c r="L59" s="156"/>
-      <c r="M59" s="156"/>
-      <c r="N59" s="156"/>
-      <c r="O59" s="156"/>
+      <c r="B59" s="170"/>
+      <c r="C59" s="167"/>
+      <c r="D59" s="167"/>
+      <c r="E59" s="167"/>
+      <c r="F59" s="166"/>
+      <c r="G59" s="166"/>
+      <c r="H59" s="166"/>
+      <c r="I59" s="166"/>
+      <c r="J59" s="166"/>
+      <c r="K59" s="166"/>
+      <c r="L59" s="166"/>
+      <c r="M59" s="166"/>
+      <c r="N59" s="166"/>
+      <c r="O59" s="166"/>
     </row>
     <row r="60" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B60" s="160"/>
-      <c r="C60" s="157"/>
-      <c r="D60" s="157"/>
-      <c r="E60" s="157"/>
-      <c r="F60" s="156"/>
-      <c r="G60" s="156"/>
-      <c r="H60" s="156"/>
-      <c r="I60" s="156"/>
-      <c r="J60" s="156"/>
-      <c r="K60" s="156"/>
-      <c r="L60" s="156"/>
-      <c r="M60" s="156"/>
-      <c r="N60" s="156"/>
-      <c r="O60" s="156"/>
+      <c r="B60" s="170"/>
+      <c r="C60" s="167"/>
+      <c r="D60" s="167"/>
+      <c r="E60" s="167"/>
+      <c r="F60" s="166"/>
+      <c r="G60" s="166"/>
+      <c r="H60" s="166"/>
+      <c r="I60" s="166"/>
+      <c r="J60" s="166"/>
+      <c r="K60" s="166"/>
+      <c r="L60" s="166"/>
+      <c r="M60" s="166"/>
+      <c r="N60" s="166"/>
+      <c r="O60" s="166"/>
     </row>
     <row r="61" spans="2:15" ht="14.25">
       <c r="C61" s="16" t="s">

--- a/controller/src/main/resources/jxls_templates/juecaishu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/juecaishu_shoutuo.xlsx
@@ -16,7 +16,7 @@
     <sheet name="決裁願" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">記入!$A$1:$I$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">記入!$A$1:$I$68</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">決裁願!$A$1:$P$61</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -44,20 +44,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="A29" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-          </rPr>
-          <t>jx:each(items="num", var="r", lastCell="F29")</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A44" authorId="0" shapeId="0">
       <text>
         <r>
@@ -68,11 +54,11 @@
             <rFont val="ＭＳ Ｐゴシック"/>
             <family val="2"/>
           </rPr>
-          <t>jx:each(items="alist", var="t", lastCell="F41")</t>
+          <t>jx:each(items="alist", var="t", lastCell="F44")</t>
         </r>
       </text>
     </comment>
-    <comment ref="D53" authorId="1" shapeId="0">
+    <comment ref="D50" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F70" authorId="1" shapeId="0">
+    <comment ref="F67" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="176">
   <si>
     <t>委託元（和文）</t>
     <rPh sb="4" eb="6">
@@ -1222,40 +1208,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${statime}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${endtime}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>${aw.currencyposition}</t>
   </si>
   <si>
     <t>${aw.claimamount}</t>
   </si>
   <si>
-    <t>${r.deliverydate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${r.completiondate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${r.claimdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${r.supportdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${r.claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>${aw.telephone}</t>
   </si>
   <si>
@@ -1313,6 +1271,94 @@
   </si>
   <si>
     <t>${t.community}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${statime[0]}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${statime[1]}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].claimamount}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1811,7 +1857,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1968,10 +2014,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="40" fontId="6" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1984,10 +2026,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2101,6 +2139,15 @@
     <xf numFmtId="181" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2185,16 +2232,220 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2215,15 +2466,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2238,210 +2480,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2752,7 +2790,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -2771,14 +2809,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="G1" s="102" t="s">
+      <c r="B1" s="101"/>
+      <c r="G1" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="103"/>
+      <c r="H1" s="104"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" s="29" t="s">
@@ -2791,8 +2829,8 @@
         <v>15</v>
       </c>
       <c r="D2" s="30"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="106"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" s="31" t="s">
@@ -2802,8 +2840,8 @@
       <c r="C3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="104"/>
-      <c r="H3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="106"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="29" t="s">
@@ -2815,8 +2853,8 @@
       <c r="C4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="104"/>
-      <c r="H4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="106"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
       <c r="A5" s="29" t="s">
@@ -2826,34 +2864,34 @@
       <c r="C5" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="104"/>
-      <c r="H5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="106"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="A6" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="85" t="s">
         <v>129</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="104"/>
-      <c r="H6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="106"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="A7" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="85" t="s">
         <v>130</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="104"/>
-      <c r="H7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="106"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8" s="29" t="s">
@@ -2863,8 +2901,8 @@
       <c r="C8" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="104"/>
-      <c r="H8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="106"/>
     </row>
     <row r="9" spans="1:8" s="34" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="31" t="s">
@@ -2876,47 +2914,47 @@
       <c r="C9" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="104"/>
-      <c r="H9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="106"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="A10" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="85" t="s">
         <v>132</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="104"/>
-      <c r="H10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="106"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
       <c r="A11" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="85" t="s">
         <v>133</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="104"/>
-      <c r="H11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="106"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
       <c r="A12" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="85" t="s">
         <v>135</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="104"/>
-      <c r="H12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="106"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="A13" s="29" t="s">
@@ -2926,34 +2964,34 @@
       <c r="C13" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="104"/>
-      <c r="H13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="106"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
       <c r="A14" s="29" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="104"/>
-      <c r="H14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="106"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="104"/>
-      <c r="H15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="106"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
       <c r="A16" s="29" t="s">
@@ -2963,8 +3001,8 @@
       <c r="C16" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="104"/>
-      <c r="H16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="106"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
       <c r="A17" s="29" t="s">
@@ -2974,8 +3012,8 @@
       <c r="C17" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="104"/>
-      <c r="H17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="106"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
       <c r="A18" s="29" t="s">
@@ -2985,34 +3023,34 @@
       <c r="C18" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="104"/>
-      <c r="H18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="106"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="87" t="s">
-        <v>138</v>
+      <c r="B19" s="85" t="s">
+        <v>136</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="104"/>
-      <c r="H19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="106"/>
     </row>
     <row r="20" spans="1:8" s="34" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="88" t="s">
-        <v>139</v>
+      <c r="B20" s="86" t="s">
+        <v>137</v>
       </c>
       <c r="C20" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="104"/>
-      <c r="H20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="106"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1">
       <c r="A21" s="29" t="s">
@@ -3022,8 +3060,8 @@
       <c r="C21" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="104"/>
-      <c r="H21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="106"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1">
       <c r="A22" s="29" t="s">
@@ -3033,19 +3071,19 @@
       <c r="C22" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="104"/>
-      <c r="H22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="106"/>
     </row>
     <row r="23" spans="1:8" s="34" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="55"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="104"/>
-      <c r="H23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="106"/>
     </row>
     <row r="24" spans="1:8" s="34" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="31" t="s">
@@ -3055,21 +3093,21 @@
       <c r="C24" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="104"/>
-      <c r="H24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="106"/>
     </row>
     <row r="25" spans="1:8" s="34" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="55" t="s">
         <v>94</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="104"/>
-      <c r="H25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="106"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1">
       <c r="A26" s="31" t="s">
@@ -3081,14 +3119,14 @@
       <c r="C26" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="104"/>
-      <c r="H26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="106"/>
     </row>
     <row r="27" spans="1:8" ht="3" customHeight="1">
       <c r="A27" s="35"/>
       <c r="B27" s="28"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="106"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1">
       <c r="A28" s="36" t="s">
@@ -3109,70 +3147,100 @@
       <c r="F28" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="G28" s="104"/>
-      <c r="H28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="106"/>
     </row>
     <row r="29" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A29" s="57" t="str">
+      <c r="A29" s="56" t="str">
         <f>IF(B29="","","第一回")</f>
         <v>第一回</v>
       </c>
-      <c r="B29" s="89" t="s">
-        <v>140</v>
-      </c>
-      <c r="C29" s="89" t="s">
-        <v>141</v>
-      </c>
-      <c r="D29" s="90" t="s">
-        <v>142</v>
-      </c>
-      <c r="E29" s="90" t="s">
-        <v>143</v>
-      </c>
-      <c r="F29" s="91" t="s">
-        <v>144</v>
-      </c>
-      <c r="G29" s="104"/>
-      <c r="H29" s="105"/>
+      <c r="B29" s="87" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="87" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" s="88" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" s="88" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="G29" s="105"/>
+      <c r="H29" s="106"/>
     </row>
     <row r="30" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A30" s="57" t="str">
+      <c r="A30" s="56" t="str">
         <f>IF(B30="","","第二回")</f>
-        <v/>
-      </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="105"/>
+        <v>第二回</v>
+      </c>
+      <c r="B30" s="87" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="87" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30" s="88" t="s">
+        <v>161</v>
+      </c>
+      <c r="E30" s="88" t="s">
+        <v>162</v>
+      </c>
+      <c r="F30" s="89" t="s">
+        <v>163</v>
+      </c>
+      <c r="G30" s="105"/>
+      <c r="H30" s="106"/>
     </row>
     <row r="31" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A31" s="57" t="str">
+      <c r="A31" s="56" t="str">
         <f>IF(B31="","","第三回")</f>
-        <v/>
-      </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="105"/>
+        <v>第三回</v>
+      </c>
+      <c r="B31" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" s="88" t="s">
+        <v>169</v>
+      </c>
+      <c r="E31" s="88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F31" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="G31" s="105"/>
+      <c r="H31" s="106"/>
     </row>
     <row r="32" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A32" s="57" t="str">
+      <c r="A32" s="56" t="str">
         <f>IF(B32="","","第四回")</f>
-        <v/>
-      </c>
-      <c r="B32" s="58"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="107"/>
+        <v>第四回</v>
+      </c>
+      <c r="B32" s="87" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="88" t="s">
+        <v>173</v>
+      </c>
+      <c r="E32" s="88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F32" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="G32" s="107"/>
+      <c r="H32" s="108"/>
     </row>
     <row r="33" spans="1:8" ht="6.75" customHeight="1">
       <c r="A33" s="38"/>
@@ -3186,54 +3254,54 @@
       <c r="A35" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="87" t="s">
+      <c r="B35" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="C35" s="108" t="s">
+      <c r="C35" s="109" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="109"/>
-      <c r="E35" s="114" t="s">
-        <v>149</v>
-      </c>
-      <c r="F35" s="115"/>
-      <c r="G35" s="115"/>
-      <c r="H35" s="115"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="115" t="s">
+        <v>142</v>
+      </c>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="C36" s="110"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="117"/>
-      <c r="G36" s="117"/>
-      <c r="H36" s="117"/>
+      <c r="B36" s="85" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="111"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="118"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="118"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="60">
+      <c r="B37" s="58">
         <f ca="1">TODAY()</f>
         <v>43896</v>
       </c>
-      <c r="C37" s="112"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="118"/>
-      <c r="F37" s="119"/>
-      <c r="G37" s="119"/>
-      <c r="H37" s="119"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="119"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="120"/>
+      <c r="H37" s="120"/>
     </row>
     <row r="38" spans="1:8" ht="13.5">
       <c r="A38" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="60">
+      <c r="B38" s="58">
         <f ca="1">B37+2</f>
         <v>43898</v>
       </c>
@@ -3243,8 +3311,8 @@
       <c r="A39" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="87" t="s">
-        <v>146</v>
+      <c r="B39" s="85" t="s">
+        <v>139</v>
       </c>
       <c r="C39" s="28"/>
       <c r="D39" s="28"/>
@@ -3253,8 +3321,8 @@
       <c r="A40" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="87" t="s">
-        <v>147</v>
+      <c r="B40" s="85" t="s">
+        <v>140</v>
       </c>
       <c r="C40" s="28"/>
       <c r="D40" s="28"/>
@@ -3263,35 +3331,35 @@
       <c r="A41" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="87" t="s">
-        <v>148</v>
+      <c r="B41" s="85" t="s">
+        <v>141</v>
       </c>
       <c r="C41" s="28"/>
       <c r="D41" s="28"/>
     </row>
     <row r="42" spans="1:8" s="39" customFormat="1" ht="14.25">
-      <c r="A42" s="99" t="s">
+      <c r="A42" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="99" t="s">
+      <c r="B42" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="96" t="s">
+      <c r="C42" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="98"/>
-      <c r="G42" s="101" t="s">
+      <c r="D42" s="98"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="H42" s="99" t="s">
+      <c r="H42" s="100" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.25">
-      <c r="A43" s="99"/>
-      <c r="B43" s="99"/>
+      <c r="A43" s="100"/>
+      <c r="B43" s="100"/>
       <c r="C43" s="43" t="s">
         <v>65</v>
       </c>
@@ -3304,27 +3372,27 @@
       <c r="F43" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="G43" s="99"/>
-      <c r="H43" s="99"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
     </row>
     <row r="44" spans="1:8" ht="14.25">
-      <c r="A44" s="86" t="s">
-        <v>155</v>
-      </c>
-      <c r="B44" s="92" t="s">
-        <v>156</v>
-      </c>
-      <c r="C44" s="93" t="s">
-        <v>159</v>
-      </c>
-      <c r="D44" s="93" t="s">
-        <v>160</v>
-      </c>
-      <c r="E44" s="93" t="s">
-        <v>157</v>
-      </c>
-      <c r="F44" s="93" t="s">
-        <v>158</v>
+      <c r="A44" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="91" t="s">
+        <v>153</v>
+      </c>
+      <c r="E44" s="91" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" s="91" t="s">
+        <v>151</v>
       </c>
       <c r="G44" s="44" t="e">
         <f>C44+E44</f>
@@ -3336,354 +3404,297 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="14.25">
-      <c r="A45" s="61"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="44">
-        <f>C45+E45</f>
+      <c r="A45" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="G45" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="H45" s="61"/>
+    </row>
+    <row r="46" spans="1:8" ht="15">
+      <c r="A46" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="96"/>
+      <c r="C46" s="46">
+        <f>SUM(C44:C45)</f>
         <v>0</v>
       </c>
-      <c r="H45" s="45">
-        <f>C45*D45+E45*F45</f>
+      <c r="D46" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="46">
+        <f>SUM(E44:E45)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="14.25">
-      <c r="A46" s="61"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="44">
-        <f>C46+E46</f>
+      <c r="F46" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="G46" s="46" t="e">
+        <f>SUM(G44:G45)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H46" s="47" t="e">
+        <f>SUM(H44:H45)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="C48" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" s="67" t="e">
+        <f>IF(B19="US$",H46*D48,H46)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G48" s="68"/>
+      <c r="H48" s="68"/>
+    </row>
+    <row r="49" spans="3:8">
+      <c r="C49" s="68"/>
+      <c r="D49" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+    </row>
+    <row r="50" spans="3:8" ht="24">
+      <c r="C50" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="E50" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
+    </row>
+    <row r="51" spans="3:8">
+      <c r="C51" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" s="76"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68"/>
+    </row>
+    <row r="52" spans="3:8">
+      <c r="C52" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" s="77"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="68"/>
+    </row>
+    <row r="53" spans="3:8">
+      <c r="C53" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" s="77"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="68"/>
+    </row>
+    <row r="54" spans="3:8">
+      <c r="C54" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54" s="77"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="68"/>
+    </row>
+    <row r="55" spans="3:8">
+      <c r="C55" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" s="77"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="68"/>
+    </row>
+    <row r="56" spans="3:8">
+      <c r="C56" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="77"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+    </row>
+    <row r="57" spans="3:8">
+      <c r="C57" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="77"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+    </row>
+    <row r="58" spans="3:8">
+      <c r="C58" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="D58" s="77"/>
+      <c r="E58" s="66"/>
+      <c r="F58" s="68"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="68"/>
+    </row>
+    <row r="59" spans="3:8">
+      <c r="C59" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" s="93"/>
+      <c r="E59" s="71">
+        <f>SUM(E51:E58)</f>
         <v>0</v>
       </c>
-      <c r="H46" s="45">
-        <f>C46*D46+E46*F46</f>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
+    </row>
+    <row r="60" spans="3:8">
+      <c r="C60" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" s="94"/>
+      <c r="E60" s="72">
+        <f>D52*E52+D53*E53+D54*E54+D55*E55+D56*E56+D57*E57+D58*E58</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="14.25">
-      <c r="A47" s="61"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="44">
-        <f>C47+E47</f>
-        <v>0</v>
-      </c>
-      <c r="H47" s="45">
-        <f>C47*D47+E47*F47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="14.25">
-      <c r="A48" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="B48" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="F48" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="G48" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="H48" s="63"/>
-    </row>
-    <row r="49" spans="1:8" ht="15">
-      <c r="A49" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="B49" s="95"/>
-      <c r="C49" s="46">
-        <f>SUM(C44:C48)</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="E49" s="46">
-        <f>SUM(E44:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="F49" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="G49" s="46" t="e">
-        <f>SUM(G44:G48)</f>
+      <c r="F60" s="68"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="68"/>
+    </row>
+    <row r="61" spans="3:8">
+      <c r="C61" s="65"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="68"/>
+    </row>
+    <row r="62" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C62" s="93" t="s">
+        <v>113</v>
+      </c>
+      <c r="D62" s="93"/>
+      <c r="E62" s="86" t="s">
+        <v>144</v>
+      </c>
+      <c r="F62" s="68"/>
+      <c r="G62" s="68"/>
+      <c r="H62" s="68"/>
+    </row>
+    <row r="63" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C63" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63" s="93"/>
+      <c r="E63" s="86" t="s">
+        <v>145</v>
+      </c>
+      <c r="F63" s="68"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="68"/>
+    </row>
+    <row r="64" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C64" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="D64" s="93"/>
+      <c r="E64" s="86" t="s">
+        <v>146</v>
+      </c>
+      <c r="F64" s="68"/>
+      <c r="G64" s="68"/>
+      <c r="H64" s="68"/>
+    </row>
+    <row r="65" spans="3:8">
+      <c r="C65" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="D65" s="93"/>
+      <c r="E65" s="71" t="e">
+        <f>E62/E63</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H49" s="47" t="e">
-        <f>SUM(H44:H48)</f>
+      <c r="F65" s="68"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="68"/>
+    </row>
+    <row r="66" spans="3:8">
+      <c r="C66" s="65"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="G66" s="68"/>
+      <c r="H66" s="68"/>
+    </row>
+    <row r="67" spans="3:8" ht="13.5" customHeight="1">
+      <c r="C67" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="D67" s="94"/>
+      <c r="E67" s="75" t="e">
+        <f>(F48-E60-E62)/F48</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="C51" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="D51" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="E51" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="F51" s="69" t="e">
-        <f>IF(B19="US$",H49*D51,H49)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G51" s="70"/>
-      <c r="H51" s="70"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="C52" s="70"/>
-      <c r="D52" s="85" t="s">
-        <v>126</v>
-      </c>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="70"/>
-    </row>
-    <row r="53" spans="1:8" ht="24">
-      <c r="C53" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="D53" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="E53" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="C54" s="64" t="s">
-        <v>114</v>
-      </c>
-      <c r="D54" s="78"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="70"/>
-      <c r="H54" s="70"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="C55" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="D55" s="79"/>
-      <c r="E55" s="68"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="70"/>
-      <c r="H55" s="70"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="C56" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="D56" s="79"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="70"/>
-      <c r="H56" s="70"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="C57" s="71" t="s">
-        <v>117</v>
-      </c>
-      <c r="D57" s="79"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="70"/>
-      <c r="H57" s="70"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="C58" s="71" t="s">
-        <v>118</v>
-      </c>
-      <c r="D58" s="79"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="70"/>
-      <c r="H58" s="70"/>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="C59" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="D59" s="79"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="70"/>
-      <c r="H59" s="70"/>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="C60" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="D60" s="79"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="70"/>
-      <c r="H60" s="70"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="C61" s="72" t="s">
-        <v>121</v>
-      </c>
-      <c r="D61" s="79"/>
-      <c r="E61" s="68"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="70"/>
-      <c r="H61" s="70"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="C62" s="121" t="s">
-        <v>105</v>
-      </c>
-      <c r="D62" s="121"/>
-      <c r="E62" s="73">
-        <f>SUM(E54:E61)</f>
-        <v>0</v>
-      </c>
-      <c r="F62" s="70"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="70"/>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="C63" s="120" t="s">
-        <v>109</v>
-      </c>
-      <c r="D63" s="122"/>
-      <c r="E63" s="74">
-        <f>D55*E55+D56*E56+D57*E57+D58*E58+D59*E59+D60*E60+D61*E61</f>
-        <v>0</v>
-      </c>
-      <c r="F63" s="70"/>
-      <c r="G63" s="70"/>
-      <c r="H63" s="70"/>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="C64" s="67"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="70"/>
-      <c r="H64" s="70"/>
-    </row>
-    <row r="65" spans="3:8" ht="14.25" customHeight="1">
-      <c r="C65" s="121" t="s">
-        <v>113</v>
-      </c>
-      <c r="D65" s="121"/>
-      <c r="E65" s="88" t="s">
-        <v>151</v>
-      </c>
-      <c r="F65" s="70"/>
-      <c r="G65" s="70"/>
-      <c r="H65" s="70"/>
-    </row>
-    <row r="66" spans="3:8" ht="14.25" customHeight="1">
-      <c r="C66" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="D66" s="121"/>
-      <c r="E66" s="88" t="s">
-        <v>152</v>
-      </c>
-      <c r="F66" s="70"/>
-      <c r="G66" s="70"/>
-      <c r="H66" s="70"/>
-    </row>
-    <row r="67" spans="3:8" ht="14.25" customHeight="1">
-      <c r="C67" s="121" t="s">
-        <v>112</v>
-      </c>
-      <c r="D67" s="121"/>
-      <c r="E67" s="88" t="s">
-        <v>153</v>
-      </c>
-      <c r="F67" s="70"/>
-      <c r="G67" s="70"/>
-      <c r="H67" s="70"/>
-    </row>
-    <row r="68" spans="3:8">
-      <c r="C68" s="121" t="s">
-        <v>111</v>
-      </c>
-      <c r="D68" s="121"/>
-      <c r="E68" s="73" t="e">
-        <f>E65/E66</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F68" s="70"/>
-      <c r="G68" s="70"/>
-      <c r="H68" s="70"/>
-    </row>
-    <row r="69" spans="3:8">
-      <c r="C69" s="67"/>
-      <c r="D69" s="75"/>
-      <c r="E69" s="76"/>
-      <c r="F69" s="84" t="s">
-        <v>125</v>
-      </c>
-      <c r="G69" s="70"/>
-      <c r="H69" s="70"/>
-    </row>
-    <row r="70" spans="3:8" ht="13.5" customHeight="1">
-      <c r="C70" s="120" t="s">
-        <v>108</v>
-      </c>
-      <c r="D70" s="122"/>
-      <c r="E70" s="77" t="e">
-        <f>(F51-E63-E65)/F51</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F70" s="120" t="s">
+      <c r="F67" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="G70" s="120"/>
-      <c r="H70" s="69" t="s">
-        <v>154</v>
+      <c r="G67" s="92"/>
+      <c r="H67" s="67" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A45:F47" name="範囲3"/>
-    <protectedRange sqref="H48" name="範囲4"/>
+    <protectedRange sqref="H45" name="範囲4"/>
     <protectedRange sqref="A44" name="範囲3_1"/>
     <protectedRange sqref="E44:F44" name="範囲3_2"/>
     <protectedRange sqref="C44:D44" name="範囲3_3"/>
   </protectedRanges>
   <mergeCells count="18">
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A46:B46"/>
     <mergeCell ref="C42:F42"/>
     <mergeCell ref="H42:H43"/>
     <mergeCell ref="A1:B1"/>
@@ -3693,6 +3704,14 @@
     <mergeCell ref="G1:H32"/>
     <mergeCell ref="C35:D37"/>
     <mergeCell ref="E35:H37"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C62:D62"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
@@ -3762,12 +3781,12 @@
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="1"/>
-      <c r="C3" s="189" t="s">
+      <c r="C3" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="194" t="s">
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="134" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="21" t="s">
@@ -3777,104 +3796,104 @@
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
       <c r="K3" s="17"/>
-      <c r="L3" s="130" t="s">
+      <c r="L3" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="132"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="122"/>
+      <c r="O3" s="123"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="1"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="185"/>
-      <c r="I4" s="185"/>
-      <c r="J4" s="185"/>
-      <c r="K4" s="186"/>
-      <c r="L4" s="203">
+      <c r="C4" s="130"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="144">
         <f ca="1">記入!B37</f>
         <v>43896</v>
       </c>
-      <c r="M4" s="204"/>
-      <c r="N4" s="204"/>
-      <c r="O4" s="205"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="145"/>
+      <c r="O4" s="146"/>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="1"/>
-      <c r="C5" s="190"/>
-      <c r="D5" s="193"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="190"/>
-      <c r="G5" s="184"/>
-      <c r="H5" s="185"/>
-      <c r="I5" s="185"/>
-      <c r="J5" s="185"/>
-      <c r="K5" s="186"/>
-      <c r="L5" s="130" t="s">
+      <c r="C5" s="130"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="131"/>
-      <c r="N5" s="131"/>
-      <c r="O5" s="132"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="123"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="1"/>
-      <c r="C6" s="190"/>
-      <c r="D6" s="193"/>
-      <c r="E6" s="193"/>
-      <c r="F6" s="194" t="s">
+      <c r="C6" s="130"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="184"/>
-      <c r="H6" s="185"/>
-      <c r="I6" s="185"/>
-      <c r="J6" s="185"/>
-      <c r="K6" s="186"/>
-      <c r="L6" s="195">
+      <c r="G6" s="124"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="135">
         <f ca="1">記入!B38</f>
         <v>43898</v>
       </c>
-      <c r="M6" s="196"/>
-      <c r="N6" s="196"/>
-      <c r="O6" s="197"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
+      <c r="O6" s="137"/>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="1"/>
-      <c r="C7" s="190"/>
-      <c r="D7" s="193"/>
-      <c r="E7" s="193"/>
-      <c r="F7" s="190"/>
-      <c r="G7" s="184"/>
-      <c r="H7" s="185"/>
-      <c r="I7" s="185"/>
-      <c r="J7" s="185"/>
-      <c r="K7" s="186"/>
-      <c r="L7" s="198" t="s">
+      <c r="C7" s="130"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="180"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="199"/>
+      <c r="M7" s="139"/>
+      <c r="N7" s="139"/>
+      <c r="O7" s="140"/>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="1"/>
-      <c r="C8" s="191"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="193"/>
-      <c r="F8" s="191"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="187"/>
-      <c r="I8" s="187"/>
-      <c r="J8" s="187"/>
-      <c r="K8" s="188"/>
-      <c r="L8" s="200"/>
-      <c r="M8" s="201"/>
-      <c r="N8" s="201"/>
-      <c r="O8" s="202"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="141"/>
+      <c r="M8" s="142"/>
+      <c r="N8" s="142"/>
+      <c r="O8" s="143"/>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="1"/>
@@ -3885,76 +3904,76 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="123" t="s">
+      <c r="H9" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="123" t="s">
+      <c r="I9" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="123" t="s">
+      <c r="J9" s="157" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="124" t="s">
+      <c r="K9" s="193" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="130" t="s">
+      <c r="L9" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="131"/>
-      <c r="N9" s="128" t="str">
+      <c r="M9" s="122"/>
+      <c r="N9" s="197" t="str">
         <f>記入!B39</f>
         <v>${aw.plan}</v>
       </c>
-      <c r="O9" s="129"/>
+      <c r="O9" s="198"/>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="1"/>
-      <c r="C10" s="171" t="str">
+      <c r="C10" s="148" t="str">
         <f>記入!B9</f>
         <v>${aw.deployment}</v>
       </c>
-      <c r="D10" s="172"/>
-      <c r="E10" s="172"/>
-      <c r="F10" s="172"/>
-      <c r="G10" s="173"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="130" t="s">
+      <c r="D10" s="149"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="157"/>
+      <c r="I10" s="157"/>
+      <c r="J10" s="157"/>
+      <c r="K10" s="193"/>
+      <c r="L10" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="131"/>
-      <c r="N10" s="131"/>
-      <c r="O10" s="132"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="123"/>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="1"/>
-      <c r="C11" s="174"/>
-      <c r="D11" s="175"/>
-      <c r="E11" s="175"/>
-      <c r="F11" s="175"/>
-      <c r="G11" s="176"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="123" t="str">
+      <c r="C11" s="151"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="157"/>
+      <c r="J11" s="157" t="str">
         <f>記入!B35</f>
         <v>${aw.user_id}</v>
       </c>
-      <c r="K11" s="127" t="str">
+      <c r="K11" s="196" t="str">
         <f>記入!B36</f>
         <v>${aw.telephone}</v>
       </c>
-      <c r="L11" s="125" t="str">
+      <c r="L11" s="194" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M11" s="126"/>
-      <c r="N11" s="133" t="str">
+      <c r="M11" s="195"/>
+      <c r="N11" s="199" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O11" s="134"/>
+      <c r="O11" s="200"/>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="1"/>
@@ -3965,44 +3984,44 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="127"/>
-      <c r="L12" s="135" t="s">
+      <c r="H12" s="157"/>
+      <c r="I12" s="157"/>
+      <c r="J12" s="157"/>
+      <c r="K12" s="196"/>
+      <c r="L12" s="201" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="136"/>
-      <c r="N12" s="136"/>
-      <c r="O12" s="137"/>
+      <c r="M12" s="202"/>
+      <c r="N12" s="202"/>
+      <c r="O12" s="203"/>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="1"/>
-      <c r="C13" s="177" t="str">
+      <c r="C13" s="154" t="str">
         <f>記入!B10</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="D13" s="178"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="179"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="127"/>
-      <c r="L13" s="125" t="str">
+      <c r="D13" s="155"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="157"/>
+      <c r="I13" s="157"/>
+      <c r="J13" s="157"/>
+      <c r="K13" s="196"/>
+      <c r="L13" s="194" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M13" s="126"/>
-      <c r="N13" s="133" t="str">
+      <c r="M13" s="195"/>
+      <c r="N13" s="199" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O13" s="134"/>
+      <c r="O13" s="200"/>
     </row>
     <row r="14" spans="1:15" ht="9" customHeight="1">
-      <c r="B14" s="170" t="s">
+      <c r="B14" s="147" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="9"/>
@@ -4020,7 +4039,7 @@
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="170"/>
+      <c r="B15" s="147"/>
       <c r="C15" s="9"/>
       <c r="D15" s="12" t="s">
         <v>53</v>
@@ -4038,7 +4057,7 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="170"/>
+      <c r="B16" s="147"/>
       <c r="C16" s="9"/>
       <c r="D16" s="12"/>
       <c r="E16" s="10" t="str">
@@ -4057,7 +4076,7 @@
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="170"/>
+      <c r="B17" s="147"/>
       <c r="C17" s="9"/>
       <c r="D17" s="12"/>
       <c r="E17" s="10" t="str">
@@ -4076,7 +4095,7 @@
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="170"/>
+      <c r="B18" s="147"/>
       <c r="C18" s="9"/>
       <c r="D18" s="1"/>
       <c r="E18" s="10" t="s">
@@ -4094,7 +4113,7 @@
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="2:15" ht="9" customHeight="1">
-      <c r="B19" s="170"/>
+      <c r="B19" s="147"/>
       <c r="C19" s="9"/>
       <c r="D19" s="1"/>
       <c r="E19" s="12"/>
@@ -4110,7 +4129,7 @@
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="170"/>
+      <c r="B20" s="147"/>
       <c r="C20" s="9"/>
       <c r="D20" s="12" t="s">
         <v>35</v>
@@ -4128,219 +4147,219 @@
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="2:15" ht="15" customHeight="1">
-      <c r="B21" s="170"/>
+      <c r="B21" s="147"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="155" t="s">
+      <c r="D21" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="155"/>
-      <c r="F21" s="138" t="str">
+      <c r="E21" s="161"/>
+      <c r="F21" s="177" t="str">
         <f>記入!B2</f>
         <v>${aw.custojapanese}</v>
       </c>
-      <c r="G21" s="138"/>
-      <c r="H21" s="138"/>
-      <c r="I21" s="138"/>
-      <c r="J21" s="138"/>
-      <c r="K21" s="138"/>
-      <c r="L21" s="138"/>
-      <c r="M21" s="138"/>
-      <c r="N21" s="138"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="177"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="177"/>
+      <c r="L21" s="177"/>
+      <c r="M21" s="177"/>
+      <c r="N21" s="177"/>
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="2:15" ht="15" customHeight="1">
-      <c r="B22" s="170"/>
+      <c r="B22" s="147"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="138"/>
-      <c r="J22" s="138"/>
-      <c r="K22" s="138"/>
-      <c r="L22" s="138"/>
-      <c r="M22" s="138"/>
-      <c r="N22" s="138"/>
+      <c r="D22" s="161"/>
+      <c r="E22" s="161"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="177"/>
+      <c r="I22" s="177"/>
+      <c r="J22" s="177"/>
+      <c r="K22" s="177"/>
+      <c r="L22" s="177"/>
+      <c r="M22" s="177"/>
+      <c r="N22" s="177"/>
       <c r="O22" s="4"/>
     </row>
     <row r="23" spans="2:15" ht="15" customHeight="1">
-      <c r="B23" s="170"/>
+      <c r="B23" s="147"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="155" t="s">
+      <c r="D23" s="161" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="155"/>
-      <c r="F23" s="138" t="str">
+      <c r="E23" s="161"/>
+      <c r="F23" s="177" t="str">
         <f>C13</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="G23" s="138"/>
-      <c r="H23" s="138"/>
-      <c r="I23" s="138"/>
-      <c r="J23" s="138"/>
-      <c r="K23" s="138"/>
-      <c r="L23" s="138"/>
-      <c r="M23" s="138"/>
-      <c r="N23" s="138"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="177"/>
+      <c r="I23" s="177"/>
+      <c r="J23" s="177"/>
+      <c r="K23" s="177"/>
+      <c r="L23" s="177"/>
+      <c r="M23" s="177"/>
+      <c r="N23" s="177"/>
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="2:15" ht="15" customHeight="1">
-      <c r="B24" s="170"/>
+      <c r="B24" s="147"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="138"/>
-      <c r="I24" s="138"/>
-      <c r="J24" s="138"/>
-      <c r="K24" s="138"/>
-      <c r="L24" s="138"/>
-      <c r="M24" s="138"/>
-      <c r="N24" s="138"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="177"/>
+      <c r="I24" s="177"/>
+      <c r="J24" s="177"/>
+      <c r="K24" s="177"/>
+      <c r="L24" s="177"/>
+      <c r="M24" s="177"/>
+      <c r="N24" s="177"/>
       <c r="O24" s="4"/>
     </row>
     <row r="25" spans="2:15" ht="15" customHeight="1">
-      <c r="B25" s="170"/>
+      <c r="B25" s="147"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="155" t="s">
+      <c r="D25" s="161" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="155"/>
-      <c r="F25" s="138" t="str">
+      <c r="E25" s="161"/>
+      <c r="F25" s="177" t="str">
         <f>記入!B12</f>
         <v>${aw.user_id}</v>
       </c>
-      <c r="G25" s="138"/>
-      <c r="H25" s="138"/>
-      <c r="I25" s="138"/>
-      <c r="J25" s="138"/>
-      <c r="K25" s="138"/>
-      <c r="L25" s="138"/>
-      <c r="M25" s="138"/>
-      <c r="N25" s="138"/>
+      <c r="G25" s="177"/>
+      <c r="H25" s="177"/>
+      <c r="I25" s="177"/>
+      <c r="J25" s="177"/>
+      <c r="K25" s="177"/>
+      <c r="L25" s="177"/>
+      <c r="M25" s="177"/>
+      <c r="N25" s="177"/>
       <c r="O25" s="4"/>
     </row>
     <row r="26" spans="2:15" ht="15" customHeight="1">
-      <c r="B26" s="170"/>
+      <c r="B26" s="147"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="138"/>
-      <c r="I26" s="138"/>
-      <c r="J26" s="138"/>
-      <c r="K26" s="138"/>
-      <c r="L26" s="138"/>
-      <c r="M26" s="138"/>
-      <c r="N26" s="138"/>
+      <c r="D26" s="161"/>
+      <c r="E26" s="161"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="177"/>
+      <c r="J26" s="177"/>
+      <c r="K26" s="177"/>
+      <c r="L26" s="177"/>
+      <c r="M26" s="177"/>
+      <c r="N26" s="177"/>
       <c r="O26" s="4"/>
     </row>
     <row r="27" spans="2:15" ht="15" customHeight="1">
-      <c r="B27" s="170"/>
+      <c r="B27" s="147"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="157" t="s">
+      <c r="D27" s="162" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="157"/>
-      <c r="F27" s="139" t="str">
+      <c r="E27" s="162"/>
+      <c r="F27" s="184" t="str">
         <f>記入!B14</f>
-        <v>${statime}</v>
-      </c>
-      <c r="G27" s="140"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="181" t="s">
+        <v>${statime[0]}</v>
+      </c>
+      <c r="G27" s="185"/>
+      <c r="H27" s="185"/>
+      <c r="I27" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="J27" s="141" t="str">
+      <c r="J27" s="186" t="str">
         <f>記入!B15</f>
-        <v>${endtime}</v>
-      </c>
-      <c r="K27" s="141"/>
-      <c r="L27" s="141"/>
-      <c r="M27" s="141"/>
-      <c r="N27" s="142"/>
+        <v>${statime[1]}</v>
+      </c>
+      <c r="K27" s="186"/>
+      <c r="L27" s="186"/>
+      <c r="M27" s="186"/>
+      <c r="N27" s="187"/>
       <c r="O27" s="4"/>
     </row>
     <row r="28" spans="2:15" ht="15" customHeight="1">
-      <c r="B28" s="170"/>
+      <c r="B28" s="147"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="181"/>
-      <c r="J28" s="141"/>
-      <c r="K28" s="141"/>
-      <c r="L28" s="141"/>
-      <c r="M28" s="141"/>
-      <c r="N28" s="142"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="185"/>
+      <c r="H28" s="185"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="186"/>
+      <c r="K28" s="186"/>
+      <c r="L28" s="186"/>
+      <c r="M28" s="186"/>
+      <c r="N28" s="187"/>
       <c r="O28" s="4"/>
     </row>
     <row r="29" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B29" s="170"/>
+      <c r="B29" s="147"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="148" t="s">
+      <c r="D29" s="163" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="145"/>
-      <c r="F29" s="148" t="s">
+      <c r="E29" s="164"/>
+      <c r="F29" s="163" t="s">
         <v>60</v>
       </c>
-      <c r="G29" s="145"/>
-      <c r="H29" s="149" t="s">
+      <c r="G29" s="164"/>
+      <c r="H29" s="189" t="s">
         <v>61</v>
       </c>
-      <c r="I29" s="151" t="s">
+      <c r="I29" s="181" t="s">
         <v>68</v>
       </c>
-      <c r="J29" s="152"/>
-      <c r="K29" s="144" t="s">
+      <c r="J29" s="182"/>
+      <c r="K29" s="188" t="s">
         <v>67</v>
       </c>
-      <c r="L29" s="145"/>
-      <c r="M29" s="148" t="s">
+      <c r="L29" s="164"/>
+      <c r="M29" s="163" t="s">
         <v>58</v>
       </c>
-      <c r="N29" s="145"/>
+      <c r="N29" s="164"/>
       <c r="O29" s="4"/>
     </row>
     <row r="30" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B30" s="170"/>
+      <c r="B30" s="147"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="182"/>
-      <c r="E30" s="183"/>
-      <c r="F30" s="146"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="150"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="166"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="190"/>
       <c r="I30" s="22" t="s">
         <v>65</v>
       </c>
       <c r="J30" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="K30" s="146"/>
-      <c r="L30" s="147"/>
-      <c r="M30" s="153" t="str">
+      <c r="K30" s="167"/>
+      <c r="L30" s="168"/>
+      <c r="M30" s="191" t="str">
         <f>"(" &amp; 記入!B19 &amp; ")"</f>
         <v>(${aw.currencyposition})</v>
       </c>
-      <c r="N30" s="154"/>
+      <c r="N30" s="192"/>
       <c r="O30" s="4"/>
     </row>
     <row r="31" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B31" s="170"/>
+      <c r="B31" s="147"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="182"/>
-      <c r="E31" s="183"/>
-      <c r="F31" s="138" t="str">
+      <c r="D31" s="165"/>
+      <c r="E31" s="166"/>
+      <c r="F31" s="177" t="str">
         <f>記入!A44</f>
         <v>${t.budgetcode}</v>
       </c>
-      <c r="G31" s="138"/>
+      <c r="G31" s="177"/>
       <c r="H31" s="24" t="str">
         <f>記入!B44</f>
         <v>${t.depart}</v>
@@ -4353,365 +4372,365 @@
         <f>記入!E44</f>
         <v>${t.outsource}</v>
       </c>
-      <c r="K31" s="138" t="e">
+      <c r="K31" s="177" t="e">
         <f>記入!G44</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L31" s="138"/>
-      <c r="M31" s="143" t="e">
+      <c r="L31" s="177"/>
+      <c r="M31" s="176" t="e">
         <f>記入!H44</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N31" s="143"/>
+      <c r="N31" s="176"/>
       <c r="O31" s="4"/>
     </row>
     <row r="32" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B32" s="170"/>
+      <c r="B32" s="147"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="182"/>
-      <c r="E32" s="183"/>
-      <c r="F32" s="138">
+      <c r="D32" s="165"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="177" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G32" s="177"/>
+      <c r="H32" s="24" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I32" s="24" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J32" s="24" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K32" s="177" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L32" s="177"/>
+      <c r="M32" s="176" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N32" s="176"/>
+      <c r="O32" s="4"/>
+    </row>
+    <row r="33" spans="2:15" ht="24.95" customHeight="1">
+      <c r="B33" s="147"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="165"/>
+      <c r="E33" s="166"/>
+      <c r="F33" s="177" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G33" s="177"/>
+      <c r="H33" s="24" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I33" s="24" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J33" s="24" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K33" s="177" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L33" s="177"/>
+      <c r="M33" s="176" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N33" s="176"/>
+      <c r="O33" s="4"/>
+    </row>
+    <row r="34" spans="2:15" ht="24.95" customHeight="1">
+      <c r="B34" s="147"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="165"/>
+      <c r="E34" s="166"/>
+      <c r="F34" s="177" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G34" s="177"/>
+      <c r="H34" s="24" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I34" s="24" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J34" s="24" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K34" s="177" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L34" s="177"/>
+      <c r="M34" s="176" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N34" s="176"/>
+      <c r="O34" s="4"/>
+    </row>
+    <row r="35" spans="2:15" ht="24.95" customHeight="1">
+      <c r="B35" s="147"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="165"/>
+      <c r="E35" s="166"/>
+      <c r="F35" s="177" t="str">
         <f>記入!A45</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="138"/>
-      <c r="H32" s="24">
+        <v>経費</v>
+      </c>
+      <c r="G35" s="177"/>
+      <c r="H35" s="24" t="str">
         <f>記入!B45</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="24">
+        <v>-</v>
+      </c>
+      <c r="I35" s="24" t="str">
         <f>記入!C45</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="24">
+        <v>-</v>
+      </c>
+      <c r="J35" s="24" t="str">
         <f>記入!E45</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="138">
+        <v>-</v>
+      </c>
+      <c r="K35" s="177" t="str">
         <f>記入!G45</f>
-        <v>0</v>
-      </c>
-      <c r="L32" s="138"/>
-      <c r="M32" s="143">
+        <v>-</v>
+      </c>
+      <c r="L35" s="177"/>
+      <c r="M35" s="176">
         <f>記入!H45</f>
         <v>0</v>
       </c>
-      <c r="N32" s="143"/>
-      <c r="O32" s="4"/>
-    </row>
-    <row r="33" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B33" s="170"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="182"/>
-      <c r="E33" s="183"/>
-      <c r="F33" s="138">
-        <f>記入!A46</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="138"/>
-      <c r="H33" s="24">
-        <f>記入!B46</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="24">
-        <f>記入!C46</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="24">
-        <f>記入!E46</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="138">
-        <f>記入!G46</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="138"/>
-      <c r="M33" s="143">
-        <f>記入!H46</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="143"/>
-      <c r="O33" s="4"/>
-    </row>
-    <row r="34" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B34" s="170"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="182"/>
-      <c r="E34" s="183"/>
-      <c r="F34" s="138">
-        <f>記入!A47</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="138"/>
-      <c r="H34" s="24">
-        <f>記入!B47</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="24">
-        <f>記入!C47</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="24">
-        <f>記入!E47</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="138">
-        <f>記入!G47</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="138"/>
-      <c r="M34" s="143">
-        <f>記入!H47</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="143"/>
-      <c r="O34" s="4"/>
-    </row>
-    <row r="35" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B35" s="170"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="182"/>
-      <c r="E35" s="183"/>
-      <c r="F35" s="138" t="str">
-        <f>記入!A48</f>
-        <v>経費</v>
-      </c>
-      <c r="G35" s="138"/>
-      <c r="H35" s="24" t="str">
-        <f>記入!B48</f>
-        <v>-</v>
-      </c>
-      <c r="I35" s="24" t="str">
-        <f>記入!C48</f>
-        <v>-</v>
-      </c>
-      <c r="J35" s="24" t="str">
-        <f>記入!E48</f>
-        <v>-</v>
-      </c>
-      <c r="K35" s="138" t="str">
-        <f>記入!G48</f>
-        <v>-</v>
-      </c>
-      <c r="L35" s="138"/>
-      <c r="M35" s="143">
-        <f>記入!H48</f>
-        <v>0</v>
-      </c>
-      <c r="N35" s="143"/>
+      <c r="N35" s="176"/>
       <c r="O35" s="4"/>
     </row>
     <row r="36" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B36" s="170"/>
+      <c r="B36" s="147"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="146"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="155" t="s">
+      <c r="D36" s="167"/>
+      <c r="E36" s="168"/>
+      <c r="F36" s="161" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="155"/>
-      <c r="H36" s="155"/>
-      <c r="I36" s="22">
+      <c r="G36" s="161"/>
+      <c r="H36" s="161"/>
+      <c r="I36" s="22" t="e">
         <f>SUM(I31:I35)</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="22">
+        <v>#REF!</v>
+      </c>
+      <c r="J36" s="22" t="e">
         <f>SUM(J31:J35)</f>
-        <v>0</v>
-      </c>
-      <c r="K36" s="155" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="K36" s="161" t="e">
         <f>SUM(K31:L35)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L36" s="155"/>
-      <c r="M36" s="156" t="e">
+      <c r="L36" s="161"/>
+      <c r="M36" s="178" t="e">
         <f>SUM(M31:N35)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N36" s="156"/>
+      <c r="N36" s="178"/>
       <c r="O36" s="4"/>
     </row>
     <row r="37" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B37" s="170"/>
+      <c r="B37" s="147"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="158" t="s">
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="179" t="s">
         <v>123</v>
       </c>
-      <c r="L37" s="158"/>
-      <c r="M37" s="159" t="e">
-        <f>記入!E70</f>
+      <c r="L37" s="179"/>
+      <c r="M37" s="180" t="e">
+        <f>記入!E67</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N37" s="159"/>
+      <c r="N37" s="180"/>
       <c r="O37" s="4"/>
     </row>
     <row r="38" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B38" s="170"/>
+      <c r="B38" s="147"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="158" t="s">
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="179" t="s">
         <v>122</v>
       </c>
-      <c r="L38" s="158"/>
-      <c r="M38" s="159" t="str">
-        <f>記入!H70</f>
+      <c r="L38" s="179"/>
+      <c r="M38" s="180" t="str">
+        <f>記入!H67</f>
         <v>${aw.rate}</v>
       </c>
-      <c r="N38" s="159"/>
+      <c r="N38" s="180"/>
       <c r="O38" s="4"/>
     </row>
     <row r="39" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B39" s="170"/>
+      <c r="B39" s="147"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="157" t="s">
+      <c r="D39" s="162" t="s">
         <v>63</v>
       </c>
-      <c r="E39" s="157"/>
-      <c r="F39" s="151" t="s">
+      <c r="E39" s="162"/>
+      <c r="F39" s="181" t="s">
         <v>86</v>
       </c>
-      <c r="G39" s="152"/>
-      <c r="H39" s="160" t="s">
+      <c r="G39" s="182"/>
+      <c r="H39" s="183" t="s">
         <v>124</v>
       </c>
-      <c r="I39" s="152"/>
-      <c r="J39" s="157" t="str">
+      <c r="I39" s="182"/>
+      <c r="J39" s="162" t="str">
         <f>"請求金額"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>請求金額(${aw.currencyposition})</v>
       </c>
-      <c r="K39" s="157"/>
-      <c r="L39" s="157"/>
-      <c r="M39" s="157"/>
-      <c r="N39" s="157"/>
+      <c r="K39" s="162"/>
+      <c r="L39" s="162"/>
+      <c r="M39" s="162"/>
+      <c r="N39" s="162"/>
       <c r="O39" s="4"/>
     </row>
     <row r="40" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B40" s="170"/>
+      <c r="B40" s="147"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="155" t="str">
+      <c r="D40" s="161" t="str">
         <f>記入!A29</f>
         <v>第一回</v>
       </c>
-      <c r="E40" s="155"/>
-      <c r="F40" s="168" t="str">
+      <c r="E40" s="161"/>
+      <c r="F40" s="174" t="str">
         <f>IF(記入!B29="","",記入!B29)</f>
-        <v>${r.deliverydate}</v>
-      </c>
-      <c r="G40" s="169"/>
-      <c r="H40" s="168" t="str">
+        <v>${num[0].deliverydate}</v>
+      </c>
+      <c r="G40" s="175"/>
+      <c r="H40" s="174" t="str">
         <f>IF(記入!D29="","",記入!D29)</f>
-        <v>${r.claimdate}</v>
-      </c>
-      <c r="I40" s="169"/>
-      <c r="J40" s="143" t="str">
+        <v>${num[0].claimdate}</v>
+      </c>
+      <c r="I40" s="175"/>
+      <c r="J40" s="176" t="str">
         <f>IF(記入!F29="","",記入!F29)</f>
-        <v>${r.claimamount}</v>
-      </c>
-      <c r="K40" s="143"/>
-      <c r="L40" s="143"/>
-      <c r="M40" s="143"/>
-      <c r="N40" s="143"/>
+        <v>${num[0].claimamount}</v>
+      </c>
+      <c r="K40" s="176"/>
+      <c r="L40" s="176"/>
+      <c r="M40" s="176"/>
+      <c r="N40" s="176"/>
       <c r="O40" s="4"/>
     </row>
     <row r="41" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B41" s="170"/>
+      <c r="B41" s="147"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="155" t="str">
+      <c r="D41" s="161" t="str">
         <f>記入!A30</f>
-        <v/>
-      </c>
-      <c r="E41" s="155"/>
-      <c r="F41" s="168" t="str">
+        <v>第二回</v>
+      </c>
+      <c r="E41" s="161"/>
+      <c r="F41" s="174" t="str">
         <f>IF(記入!B30="","",記入!B30)</f>
-        <v/>
-      </c>
-      <c r="G41" s="169"/>
-      <c r="H41" s="168" t="str">
+        <v>${num[1].deliverydate}</v>
+      </c>
+      <c r="G41" s="175"/>
+      <c r="H41" s="174" t="str">
         <f>IF(記入!D30="","",記入!D30)</f>
-        <v/>
-      </c>
-      <c r="I41" s="169"/>
-      <c r="J41" s="143" t="str">
+        <v>${num[1].claimdate}</v>
+      </c>
+      <c r="I41" s="175"/>
+      <c r="J41" s="176" t="str">
         <f>IF(記入!F30="","",記入!F30)</f>
-        <v/>
-      </c>
-      <c r="K41" s="143"/>
-      <c r="L41" s="143"/>
-      <c r="M41" s="143"/>
-      <c r="N41" s="143"/>
+        <v>${num[1].claimamount}</v>
+      </c>
+      <c r="K41" s="176"/>
+      <c r="L41" s="176"/>
+      <c r="M41" s="176"/>
+      <c r="N41" s="176"/>
       <c r="O41" s="4"/>
     </row>
     <row r="42" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B42" s="170"/>
+      <c r="B42" s="147"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="155" t="str">
+      <c r="D42" s="161" t="str">
         <f>記入!A31</f>
-        <v/>
-      </c>
-      <c r="E42" s="155"/>
-      <c r="F42" s="168" t="str">
+        <v>第三回</v>
+      </c>
+      <c r="E42" s="161"/>
+      <c r="F42" s="174" t="str">
         <f>IF(記入!B31="","",記入!B31)</f>
-        <v/>
-      </c>
-      <c r="G42" s="169"/>
-      <c r="H42" s="168" t="str">
+        <v>${num[2].deliverydate}</v>
+      </c>
+      <c r="G42" s="175"/>
+      <c r="H42" s="174" t="str">
         <f>IF(記入!D31="","",記入!D31)</f>
-        <v/>
-      </c>
-      <c r="I42" s="169"/>
-      <c r="J42" s="143" t="str">
+        <v>${num[2].claimdate}</v>
+      </c>
+      <c r="I42" s="175"/>
+      <c r="J42" s="176" t="str">
         <f>IF(記入!F31="","",記入!F31)</f>
-        <v/>
-      </c>
-      <c r="K42" s="143"/>
-      <c r="L42" s="143"/>
-      <c r="M42" s="143"/>
-      <c r="N42" s="143"/>
+        <v>${num[2].claimamount}</v>
+      </c>
+      <c r="K42" s="176"/>
+      <c r="L42" s="176"/>
+      <c r="M42" s="176"/>
+      <c r="N42" s="176"/>
       <c r="O42" s="4"/>
     </row>
     <row r="43" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B43" s="170"/>
+      <c r="B43" s="147"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="155" t="str">
+      <c r="D43" s="161" t="str">
         <f>記入!A32</f>
-        <v/>
-      </c>
-      <c r="E43" s="155"/>
-      <c r="F43" s="168" t="str">
+        <v>第四回</v>
+      </c>
+      <c r="E43" s="161"/>
+      <c r="F43" s="174" t="str">
         <f>IF(記入!B32="","",記入!B32)</f>
-        <v/>
-      </c>
-      <c r="G43" s="169"/>
-      <c r="H43" s="168" t="str">
+        <v>${num[3].deliverydate}</v>
+      </c>
+      <c r="G43" s="175"/>
+      <c r="H43" s="174" t="str">
         <f>IF(記入!D32="","",記入!D32)</f>
-        <v/>
-      </c>
-      <c r="I43" s="169"/>
-      <c r="J43" s="143" t="str">
+        <v>${num[3].claimdate}</v>
+      </c>
+      <c r="I43" s="175"/>
+      <c r="J43" s="176" t="str">
         <f>IF(記入!F32="","",記入!F32)</f>
-        <v/>
-      </c>
-      <c r="K43" s="143"/>
-      <c r="L43" s="143"/>
-      <c r="M43" s="143"/>
-      <c r="N43" s="143"/>
+        <v>${num[3].claimamount}</v>
+      </c>
+      <c r="K43" s="176"/>
+      <c r="L43" s="176"/>
+      <c r="M43" s="176"/>
+      <c r="N43" s="176"/>
       <c r="O43" s="4"/>
     </row>
     <row r="44" spans="2:15" ht="21.75" customHeight="1">
-      <c r="B44" s="170"/>
+      <c r="B44" s="147"/>
       <c r="C44" s="9"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -4719,18 +4738,18 @@
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
-      <c r="J44" s="163">
+      <c r="J44" s="171">
         <f>SUM(J40:N43)</f>
         <v>0</v>
       </c>
-      <c r="K44" s="164"/>
-      <c r="L44" s="164"/>
-      <c r="M44" s="164"/>
-      <c r="N44" s="165"/>
+      <c r="K44" s="172"/>
+      <c r="L44" s="172"/>
+      <c r="M44" s="172"/>
+      <c r="N44" s="173"/>
       <c r="O44" s="4"/>
     </row>
     <row r="45" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B45" s="170"/>
+      <c r="B45" s="147"/>
       <c r="C45" s="9"/>
       <c r="D45" s="13" t="s">
         <v>36</v>
@@ -4748,13 +4767,13 @@
       <c r="O45" s="4"/>
     </row>
     <row r="46" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B46" s="170"/>
+      <c r="B46" s="147"/>
       <c r="C46" s="9"/>
       <c r="D46" s="13"/>
-      <c r="E46" s="180" t="s">
+      <c r="E46" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="F46" s="180"/>
+      <c r="F46" s="139"/>
       <c r="G46" s="27" t="str">
         <f>記入!B40</f>
         <v>${aw.valuation}</v>
@@ -4769,13 +4788,13 @@
       <c r="O46" s="4"/>
     </row>
     <row r="47" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="170"/>
+      <c r="B47" s="147"/>
       <c r="C47" s="9"/>
       <c r="D47" s="13"/>
-      <c r="E47" s="180" t="s">
+      <c r="E47" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="F47" s="180"/>
+      <c r="F47" s="139"/>
       <c r="G47" s="27" t="str">
         <f>記入!B41</f>
         <v>${aw.individual}</v>
@@ -4790,7 +4809,7 @@
       <c r="O47" s="4"/>
     </row>
     <row r="48" spans="2:15" ht="9.75" customHeight="1">
-      <c r="B48" s="170"/>
+      <c r="B48" s="147"/>
       <c r="C48" s="9"/>
       <c r="D48" s="13"/>
       <c r="E48" s="25"/>
@@ -4806,211 +4825,211 @@
       <c r="O48" s="4"/>
     </row>
     <row r="49" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="170"/>
+      <c r="B49" s="147"/>
       <c r="C49" s="9"/>
       <c r="D49" s="13" t="s">
         <v>100</v>
       </c>
       <c r="E49" s="25"/>
-      <c r="F49" s="161" t="str">
+      <c r="F49" s="169" t="str">
         <f>記入!E35</f>
         <v>${aw.remarks}</v>
       </c>
-      <c r="G49" s="161"/>
-      <c r="H49" s="161"/>
-      <c r="I49" s="161"/>
-      <c r="J49" s="161"/>
-      <c r="K49" s="161"/>
-      <c r="L49" s="161"/>
-      <c r="M49" s="161"/>
-      <c r="N49" s="161"/>
+      <c r="G49" s="169"/>
+      <c r="H49" s="169"/>
+      <c r="I49" s="169"/>
+      <c r="J49" s="169"/>
+      <c r="K49" s="169"/>
+      <c r="L49" s="169"/>
+      <c r="M49" s="169"/>
+      <c r="N49" s="169"/>
       <c r="O49" s="4"/>
     </row>
     <row r="50" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="170"/>
+      <c r="B50" s="147"/>
       <c r="C50" s="9"/>
       <c r="D50" s="13"/>
       <c r="E50" s="26"/>
-      <c r="F50" s="162"/>
-      <c r="G50" s="162"/>
-      <c r="H50" s="162"/>
-      <c r="I50" s="162"/>
-      <c r="J50" s="162"/>
-      <c r="K50" s="162"/>
-      <c r="L50" s="162"/>
-      <c r="M50" s="162"/>
-      <c r="N50" s="162"/>
+      <c r="F50" s="170"/>
+      <c r="G50" s="170"/>
+      <c r="H50" s="170"/>
+      <c r="I50" s="170"/>
+      <c r="J50" s="170"/>
+      <c r="K50" s="170"/>
+      <c r="L50" s="170"/>
+      <c r="M50" s="170"/>
+      <c r="N50" s="170"/>
       <c r="O50" s="4"/>
     </row>
     <row r="51" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="170"/>
-      <c r="C51" s="167" t="s">
+      <c r="B51" s="147"/>
+      <c r="C51" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="D51" s="167"/>
-      <c r="E51" s="167"/>
-      <c r="F51" s="167" t="s">
+      <c r="D51" s="159"/>
+      <c r="E51" s="159"/>
+      <c r="F51" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="G51" s="167"/>
-      <c r="H51" s="167" t="s">
+      <c r="G51" s="159"/>
+      <c r="H51" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="I51" s="167"/>
-      <c r="J51" s="167" t="s">
+      <c r="I51" s="159"/>
+      <c r="J51" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="K51" s="167"/>
-      <c r="L51" s="167"/>
-      <c r="M51" s="167" t="s">
+      <c r="K51" s="159"/>
+      <c r="L51" s="159"/>
+      <c r="M51" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="N51" s="167"/>
-      <c r="O51" s="167"/>
+      <c r="N51" s="159"/>
+      <c r="O51" s="159"/>
     </row>
     <row r="52" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B52" s="170"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
-      <c r="E52" s="167"/>
-      <c r="F52" s="166"/>
-      <c r="G52" s="166"/>
-      <c r="H52" s="166"/>
-      <c r="I52" s="166"/>
-      <c r="J52" s="166"/>
-      <c r="K52" s="166"/>
-      <c r="L52" s="166"/>
-      <c r="M52" s="166"/>
-      <c r="N52" s="166"/>
-      <c r="O52" s="166"/>
+      <c r="B52" s="147"/>
+      <c r="C52" s="159"/>
+      <c r="D52" s="159"/>
+      <c r="E52" s="159"/>
+      <c r="F52" s="158"/>
+      <c r="G52" s="158"/>
+      <c r="H52" s="158"/>
+      <c r="I52" s="158"/>
+      <c r="J52" s="158"/>
+      <c r="K52" s="158"/>
+      <c r="L52" s="158"/>
+      <c r="M52" s="158"/>
+      <c r="N52" s="158"/>
+      <c r="O52" s="158"/>
     </row>
     <row r="53" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B53" s="170"/>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
-      <c r="E53" s="167"/>
-      <c r="F53" s="166"/>
-      <c r="G53" s="166"/>
-      <c r="H53" s="166"/>
-      <c r="I53" s="166"/>
-      <c r="J53" s="166"/>
-      <c r="K53" s="166"/>
-      <c r="L53" s="166"/>
-      <c r="M53" s="166"/>
-      <c r="N53" s="166"/>
-      <c r="O53" s="166"/>
+      <c r="B53" s="147"/>
+      <c r="C53" s="159"/>
+      <c r="D53" s="159"/>
+      <c r="E53" s="159"/>
+      <c r="F53" s="158"/>
+      <c r="G53" s="158"/>
+      <c r="H53" s="158"/>
+      <c r="I53" s="158"/>
+      <c r="J53" s="158"/>
+      <c r="K53" s="158"/>
+      <c r="L53" s="158"/>
+      <c r="M53" s="158"/>
+      <c r="N53" s="158"/>
+      <c r="O53" s="158"/>
     </row>
     <row r="54" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B54" s="170"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
-      <c r="E54" s="167"/>
-      <c r="F54" s="166"/>
-      <c r="G54" s="166"/>
-      <c r="H54" s="166"/>
-      <c r="I54" s="166"/>
-      <c r="J54" s="166"/>
-      <c r="K54" s="166"/>
-      <c r="L54" s="166"/>
-      <c r="M54" s="166"/>
-      <c r="N54" s="166"/>
-      <c r="O54" s="166"/>
+      <c r="B54" s="147"/>
+      <c r="C54" s="159"/>
+      <c r="D54" s="159"/>
+      <c r="E54" s="159"/>
+      <c r="F54" s="158"/>
+      <c r="G54" s="158"/>
+      <c r="H54" s="158"/>
+      <c r="I54" s="158"/>
+      <c r="J54" s="158"/>
+      <c r="K54" s="158"/>
+      <c r="L54" s="158"/>
+      <c r="M54" s="158"/>
+      <c r="N54" s="158"/>
+      <c r="O54" s="158"/>
     </row>
     <row r="55" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="170"/>
-      <c r="C55" s="167"/>
-      <c r="D55" s="167"/>
-      <c r="E55" s="167"/>
-      <c r="F55" s="166"/>
-      <c r="G55" s="166"/>
-      <c r="H55" s="166"/>
-      <c r="I55" s="166"/>
-      <c r="J55" s="166"/>
-      <c r="K55" s="166"/>
-      <c r="L55" s="166"/>
-      <c r="M55" s="166"/>
-      <c r="N55" s="166"/>
-      <c r="O55" s="166"/>
+      <c r="B55" s="147"/>
+      <c r="C55" s="159"/>
+      <c r="D55" s="159"/>
+      <c r="E55" s="159"/>
+      <c r="F55" s="158"/>
+      <c r="G55" s="158"/>
+      <c r="H55" s="158"/>
+      <c r="I55" s="158"/>
+      <c r="J55" s="158"/>
+      <c r="K55" s="158"/>
+      <c r="L55" s="158"/>
+      <c r="M55" s="158"/>
+      <c r="N55" s="158"/>
+      <c r="O55" s="158"/>
     </row>
     <row r="56" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B56" s="170"/>
-      <c r="C56" s="167"/>
-      <c r="D56" s="167"/>
-      <c r="E56" s="167"/>
-      <c r="F56" s="166"/>
-      <c r="G56" s="166"/>
-      <c r="H56" s="166"/>
-      <c r="I56" s="166"/>
-      <c r="J56" s="166"/>
-      <c r="K56" s="166"/>
-      <c r="L56" s="166"/>
-      <c r="M56" s="166"/>
-      <c r="N56" s="166"/>
-      <c r="O56" s="166"/>
+      <c r="B56" s="147"/>
+      <c r="C56" s="159"/>
+      <c r="D56" s="159"/>
+      <c r="E56" s="159"/>
+      <c r="F56" s="158"/>
+      <c r="G56" s="158"/>
+      <c r="H56" s="158"/>
+      <c r="I56" s="158"/>
+      <c r="J56" s="158"/>
+      <c r="K56" s="158"/>
+      <c r="L56" s="158"/>
+      <c r="M56" s="158"/>
+      <c r="N56" s="158"/>
+      <c r="O56" s="158"/>
     </row>
     <row r="57" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="170"/>
-      <c r="C57" s="167"/>
-      <c r="D57" s="167"/>
-      <c r="E57" s="167"/>
-      <c r="F57" s="166"/>
-      <c r="G57" s="166"/>
-      <c r="H57" s="166"/>
-      <c r="I57" s="166"/>
-      <c r="J57" s="166"/>
-      <c r="K57" s="166"/>
-      <c r="L57" s="166"/>
-      <c r="M57" s="166"/>
-      <c r="N57" s="166"/>
-      <c r="O57" s="166"/>
+      <c r="B57" s="147"/>
+      <c r="C57" s="159"/>
+      <c r="D57" s="159"/>
+      <c r="E57" s="159"/>
+      <c r="F57" s="158"/>
+      <c r="G57" s="158"/>
+      <c r="H57" s="158"/>
+      <c r="I57" s="158"/>
+      <c r="J57" s="158"/>
+      <c r="K57" s="158"/>
+      <c r="L57" s="158"/>
+      <c r="M57" s="158"/>
+      <c r="N57" s="158"/>
+      <c r="O57" s="158"/>
     </row>
     <row r="58" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B58" s="170"/>
-      <c r="C58" s="167"/>
-      <c r="D58" s="167"/>
-      <c r="E58" s="167"/>
-      <c r="F58" s="166"/>
-      <c r="G58" s="166"/>
-      <c r="H58" s="166"/>
-      <c r="I58" s="166"/>
-      <c r="J58" s="166"/>
-      <c r="K58" s="166"/>
-      <c r="L58" s="166"/>
-      <c r="M58" s="166"/>
-      <c r="N58" s="166"/>
-      <c r="O58" s="166"/>
+      <c r="B58" s="147"/>
+      <c r="C58" s="159"/>
+      <c r="D58" s="159"/>
+      <c r="E58" s="159"/>
+      <c r="F58" s="158"/>
+      <c r="G58" s="158"/>
+      <c r="H58" s="158"/>
+      <c r="I58" s="158"/>
+      <c r="J58" s="158"/>
+      <c r="K58" s="158"/>
+      <c r="L58" s="158"/>
+      <c r="M58" s="158"/>
+      <c r="N58" s="158"/>
+      <c r="O58" s="158"/>
     </row>
     <row r="59" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B59" s="170"/>
-      <c r="C59" s="167"/>
-      <c r="D59" s="167"/>
-      <c r="E59" s="167"/>
-      <c r="F59" s="166"/>
-      <c r="G59" s="166"/>
-      <c r="H59" s="166"/>
-      <c r="I59" s="166"/>
-      <c r="J59" s="166"/>
-      <c r="K59" s="166"/>
-      <c r="L59" s="166"/>
-      <c r="M59" s="166"/>
-      <c r="N59" s="166"/>
-      <c r="O59" s="166"/>
+      <c r="B59" s="147"/>
+      <c r="C59" s="159"/>
+      <c r="D59" s="159"/>
+      <c r="E59" s="159"/>
+      <c r="F59" s="158"/>
+      <c r="G59" s="158"/>
+      <c r="H59" s="158"/>
+      <c r="I59" s="158"/>
+      <c r="J59" s="158"/>
+      <c r="K59" s="158"/>
+      <c r="L59" s="158"/>
+      <c r="M59" s="158"/>
+      <c r="N59" s="158"/>
+      <c r="O59" s="158"/>
     </row>
     <row r="60" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B60" s="170"/>
-      <c r="C60" s="167"/>
-      <c r="D60" s="167"/>
-      <c r="E60" s="167"/>
-      <c r="F60" s="166"/>
-      <c r="G60" s="166"/>
-      <c r="H60" s="166"/>
-      <c r="I60" s="166"/>
-      <c r="J60" s="166"/>
-      <c r="K60" s="166"/>
-      <c r="L60" s="166"/>
-      <c r="M60" s="166"/>
-      <c r="N60" s="166"/>
-      <c r="O60" s="166"/>
+      <c r="B60" s="147"/>
+      <c r="C60" s="159"/>
+      <c r="D60" s="159"/>
+      <c r="E60" s="159"/>
+      <c r="F60" s="158"/>
+      <c r="G60" s="158"/>
+      <c r="H60" s="158"/>
+      <c r="I60" s="158"/>
+      <c r="J60" s="158"/>
+      <c r="K60" s="158"/>
+      <c r="L60" s="158"/>
+      <c r="M60" s="158"/>
+      <c r="N60" s="158"/>
+      <c r="O60" s="158"/>
     </row>
     <row r="61" spans="2:15" ht="14.25">
       <c r="C61" s="16" t="s">
@@ -5019,17 +5038,81 @@
     </row>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="G4:K8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:E8"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="F21:N22"/>
+    <mergeCell ref="F23:N24"/>
+    <mergeCell ref="F25:N26"/>
+    <mergeCell ref="F27:H28"/>
+    <mergeCell ref="J27:N28"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="K29:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="J43:N43"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="J40:N40"/>
+    <mergeCell ref="J41:N41"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="J39:N39"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="F49:N50"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="J44:N44"/>
+    <mergeCell ref="M58:O60"/>
+    <mergeCell ref="C51:E60"/>
+    <mergeCell ref="J52:L54"/>
+    <mergeCell ref="J55:L57"/>
+    <mergeCell ref="J58:L60"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="M52:O54"/>
+    <mergeCell ref="M55:O57"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J42:N42"/>
     <mergeCell ref="B14:B60"/>
     <mergeCell ref="C10:G11"/>
     <mergeCell ref="C13:G13"/>
@@ -5054,81 +5137,17 @@
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D29:E36"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F49:N50"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="J44:N44"/>
-    <mergeCell ref="M58:O60"/>
-    <mergeCell ref="C51:E60"/>
-    <mergeCell ref="J52:L54"/>
-    <mergeCell ref="J55:L57"/>
-    <mergeCell ref="J58:L60"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="M52:O54"/>
-    <mergeCell ref="M55:O57"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="J43:N43"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="J40:N40"/>
-    <mergeCell ref="J41:N41"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="J39:N39"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="F21:N22"/>
-    <mergeCell ref="F23:N24"/>
-    <mergeCell ref="F25:N26"/>
-    <mergeCell ref="F27:H28"/>
-    <mergeCell ref="J27:N28"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="K29:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="G4:K8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:E8"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="L4:O4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/controller/src/main/resources/jxls_templates/juecaishu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/juecaishu_shoutuo.xlsx
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="178">
   <si>
     <t>委託元（和文）</t>
     <rPh sb="4" eb="6">
@@ -1202,163 +1202,172 @@
   </si>
   <si>
     <t>${aw.user_id}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${aw.currencyposition}</t>
+  </si>
+  <si>
+    <t>${aw.claimamount}</t>
+  </si>
+  <si>
+    <t>${aw.telephone}</t>
+  </si>
+  <si>
+    <t>${aw.plan}</t>
+  </si>
+  <si>
+    <t>${aw.valuation}</t>
+  </si>
+  <si>
+    <t>${aw.individual}</t>
+  </si>
+  <si>
+    <t>${aw.remarks}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${aw.exchangerate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${aw.total}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${aw.numbermoth}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${aw.price}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${aw.rate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t.budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t.depart}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t.outsource}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t.outcommunity}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t.member}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t.community}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${statime[0]}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${statime[1]}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].claimamount}</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>${aw.user_id}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${aw.currencyposition}</t>
-  </si>
-  <si>
-    <t>${aw.claimamount}</t>
-  </si>
-  <si>
-    <t>${aw.telephone}</t>
-  </si>
-  <si>
-    <t>${aw.plan}</t>
-  </si>
-  <si>
-    <t>${aw.valuation}</t>
-  </si>
-  <si>
-    <t>${aw.individual}</t>
-  </si>
-  <si>
-    <t>${aw.remarks}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${aw.exchangerate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${aw.total}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${aw.numbermoth}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${aw.price}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${aw.rate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${t.budgetcode}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${t.depart}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${t.outsource}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${t.outcommunity}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${t.member}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${t.community}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${statime[0]}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${statime[1]}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[0].deliverydate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[2].deliverydate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[3].deliverydate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[1].deliverydate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[1].completiondate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[1].claimdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[1].supportdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[1].claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[0].completiondate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[0].claimdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[0].supportdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[0].claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[2].completiondate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[2].claimdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[2].supportdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[2].claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[3].completiondate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[3].claimdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[3].supportdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[3].claimamount}</t>
+    <t>${aw.draftingdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${aw.scheduleddate}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2139,15 +2148,6 @@
     <xf numFmtId="181" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2232,6 +2232,36 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2241,6 +2271,159 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2286,9 +2469,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2309,177 +2489,6 @@
     </xf>
     <xf numFmtId="31" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2793,7 +2802,7 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2809,14 +2818,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="G1" s="103" t="s">
+      <c r="B1" s="98"/>
+      <c r="G1" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="104"/>
+      <c r="H1" s="101"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" s="29" t="s">
@@ -2829,8 +2838,8 @@
         <v>15</v>
       </c>
       <c r="D2" s="30"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="106"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" s="31" t="s">
@@ -2840,8 +2849,8 @@
       <c r="C3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="105"/>
-      <c r="H3" s="106"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="103"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="29" t="s">
@@ -2853,8 +2862,8 @@
       <c r="C4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="105"/>
-      <c r="H4" s="106"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="103"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
       <c r="A5" s="29" t="s">
@@ -2864,8 +2873,8 @@
       <c r="C5" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="105"/>
-      <c r="H5" s="106"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="103"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="A6" s="33" t="s">
@@ -2877,8 +2886,8 @@
       <c r="C6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="105"/>
-      <c r="H6" s="106"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="103"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="A7" s="33" t="s">
@@ -2890,8 +2899,8 @@
       <c r="C7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="105"/>
-      <c r="H7" s="106"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="103"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8" s="29" t="s">
@@ -2901,8 +2910,8 @@
       <c r="C8" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="105"/>
-      <c r="H8" s="106"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="103"/>
     </row>
     <row r="9" spans="1:8" s="34" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="31" t="s">
@@ -2914,8 +2923,8 @@
       <c r="C9" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="105"/>
-      <c r="H9" s="106"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="103"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="A10" s="29" t="s">
@@ -2927,8 +2936,8 @@
       <c r="C10" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="105"/>
-      <c r="H10" s="106"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="103"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
       <c r="A11" s="29" t="s">
@@ -2940,21 +2949,21 @@
       <c r="C11" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="105"/>
-      <c r="H11" s="106"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="103"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
       <c r="A12" s="29" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="85" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="105"/>
-      <c r="H12" s="106"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="103"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="A13" s="29" t="s">
@@ -2964,34 +2973,34 @@
       <c r="C13" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="105"/>
-      <c r="H13" s="106"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="103"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
       <c r="A14" s="29" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="105"/>
-      <c r="H14" s="106"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="103"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="105"/>
-      <c r="H15" s="106"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="103"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
       <c r="A16" s="29" t="s">
@@ -3001,8 +3010,8 @@
       <c r="C16" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="105"/>
-      <c r="H16" s="106"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="103"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
       <c r="A17" s="29" t="s">
@@ -3012,8 +3021,8 @@
       <c r="C17" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="105"/>
-      <c r="H17" s="106"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="103"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
       <c r="A18" s="29" t="s">
@@ -3023,34 +3032,34 @@
       <c r="C18" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="105"/>
-      <c r="H18" s="106"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="103"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="85" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="105"/>
-      <c r="H19" s="106"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="103"/>
     </row>
     <row r="20" spans="1:8" s="34" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="86" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="105"/>
-      <c r="H20" s="106"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="103"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1">
       <c r="A21" s="29" t="s">
@@ -3060,8 +3069,8 @@
       <c r="C21" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="105"/>
-      <c r="H21" s="106"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="103"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1">
       <c r="A22" s="29" t="s">
@@ -3071,8 +3080,8 @@
       <c r="C22" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="105"/>
-      <c r="H22" s="106"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="103"/>
     </row>
     <row r="23" spans="1:8" s="34" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="31" t="s">
@@ -3082,8 +3091,8 @@
       <c r="C23" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="105"/>
-      <c r="H23" s="106"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="103"/>
     </row>
     <row r="24" spans="1:8" s="34" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="31" t="s">
@@ -3093,8 +3102,8 @@
       <c r="C24" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="105"/>
-      <c r="H24" s="106"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="103"/>
     </row>
     <row r="25" spans="1:8" s="34" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="31" t="s">
@@ -3106,8 +3115,8 @@
       <c r="C25" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="105"/>
-      <c r="H25" s="106"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="103"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1">
       <c r="A26" s="31" t="s">
@@ -3119,14 +3128,14 @@
       <c r="C26" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="105"/>
-      <c r="H26" s="106"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="103"/>
     </row>
     <row r="27" spans="1:8" ht="3" customHeight="1">
       <c r="A27" s="35"/>
       <c r="B27" s="28"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="106"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="103"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1">
       <c r="A28" s="36" t="s">
@@ -3147,8 +3156,8 @@
       <c r="F28" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="G28" s="105"/>
-      <c r="H28" s="106"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="103"/>
     </row>
     <row r="29" spans="1:8" ht="13.5" customHeight="1">
       <c r="A29" s="56" t="str">
@@ -3156,22 +3165,22 @@
         <v>第一回</v>
       </c>
       <c r="B29" s="87" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C29" s="87" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="88" t="s">
         <v>164</v>
       </c>
-      <c r="D29" s="88" t="s">
+      <c r="E29" s="88" t="s">
         <v>165</v>
       </c>
-      <c r="E29" s="88" t="s">
+      <c r="F29" s="89" t="s">
         <v>166</v>
       </c>
-      <c r="F29" s="89" t="s">
-        <v>167</v>
-      </c>
-      <c r="G29" s="105"/>
-      <c r="H29" s="106"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="103"/>
     </row>
     <row r="30" spans="1:8" ht="13.5" customHeight="1">
       <c r="A30" s="56" t="str">
@@ -3179,22 +3188,22 @@
         <v>第二回</v>
       </c>
       <c r="B30" s="87" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="C30" s="87" t="s">
+      <c r="D30" s="88" t="s">
         <v>160</v>
       </c>
-      <c r="D30" s="88" t="s">
+      <c r="E30" s="88" t="s">
         <v>161</v>
       </c>
-      <c r="E30" s="88" t="s">
+      <c r="F30" s="89" t="s">
         <v>162</v>
       </c>
-      <c r="F30" s="89" t="s">
-        <v>163</v>
-      </c>
-      <c r="G30" s="105"/>
-      <c r="H30" s="106"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="103"/>
     </row>
     <row r="31" spans="1:8" ht="13.5" customHeight="1">
       <c r="A31" s="56" t="str">
@@ -3202,22 +3211,22 @@
         <v>第三回</v>
       </c>
       <c r="B31" s="87" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C31" s="87" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" s="88" t="s">
         <v>168</v>
       </c>
-      <c r="D31" s="88" t="s">
+      <c r="E31" s="88" t="s">
         <v>169</v>
       </c>
-      <c r="E31" s="88" t="s">
+      <c r="F31" s="89" t="s">
         <v>170</v>
       </c>
-      <c r="F31" s="89" t="s">
-        <v>171</v>
-      </c>
-      <c r="G31" s="105"/>
-      <c r="H31" s="106"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="103"/>
     </row>
     <row r="32" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
       <c r="A32" s="56" t="str">
@@ -3225,22 +3234,22 @@
         <v>第四回</v>
       </c>
       <c r="B32" s="87" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C32" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="D32" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="D32" s="88" t="s">
+      <c r="E32" s="88" t="s">
         <v>173</v>
       </c>
-      <c r="E32" s="88" t="s">
+      <c r="F32" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="F32" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="G32" s="107"/>
-      <c r="H32" s="108"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="105"/>
     </row>
     <row r="33" spans="1:8" ht="6.75" customHeight="1">
       <c r="A33" s="38"/>
@@ -3255,55 +3264,53 @@
         <v>44</v>
       </c>
       <c r="B35" s="85" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="109" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" s="106" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="110"/>
-      <c r="E35" s="115" t="s">
-        <v>142</v>
-      </c>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="116"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="112" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" s="113"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="113"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="41" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="85" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" s="111"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="117"/>
-      <c r="F36" s="118"/>
-      <c r="G36" s="118"/>
-      <c r="H36" s="118"/>
+        <v>137</v>
+      </c>
+      <c r="C36" s="108"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="115"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="58">
-        <f ca="1">TODAY()</f>
-        <v>43896</v>
-      </c>
-      <c r="C37" s="113"/>
-      <c r="D37" s="114"/>
-      <c r="E37" s="119"/>
-      <c r="F37" s="120"/>
-      <c r="G37" s="120"/>
-      <c r="H37" s="120"/>
+      <c r="B37" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" s="110"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="117"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="117"/>
     </row>
     <row r="38" spans="1:8" ht="13.5">
       <c r="A38" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="58">
-        <f ca="1">B37+2</f>
-        <v>43898</v>
+      <c r="B38" s="58" t="s">
+        <v>177</v>
       </c>
       <c r="C38" s="30"/>
     </row>
@@ -3312,7 +3319,7 @@
         <v>50</v>
       </c>
       <c r="B39" s="85" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C39" s="28"/>
       <c r="D39" s="28"/>
@@ -3322,7 +3329,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="85" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C40" s="28"/>
       <c r="D40" s="28"/>
@@ -3332,34 +3339,34 @@
         <v>40</v>
       </c>
       <c r="B41" s="85" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C41" s="28"/>
       <c r="D41" s="28"/>
     </row>
     <row r="42" spans="1:8" s="39" customFormat="1" ht="14.25">
-      <c r="A42" s="100" t="s">
+      <c r="A42" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="100" t="s">
+      <c r="B42" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="97" t="s">
+      <c r="C42" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="98"/>
-      <c r="E42" s="98"/>
-      <c r="F42" s="99"/>
-      <c r="G42" s="102" t="s">
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="H42" s="100" t="s">
+      <c r="H42" s="97" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.25">
-      <c r="A43" s="100"/>
-      <c r="B43" s="100"/>
+      <c r="A43" s="97"/>
+      <c r="B43" s="97"/>
       <c r="C43" s="43" t="s">
         <v>65</v>
       </c>
@@ -3372,27 +3379,27 @@
       <c r="F43" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="G43" s="100"/>
-      <c r="H43" s="100"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="97"/>
     </row>
     <row r="44" spans="1:8" ht="14.25">
       <c r="A44" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="B44" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="B44" s="90" t="s">
+      <c r="C44" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="D44" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="E44" s="91" t="s">
         <v>149</v>
       </c>
-      <c r="C44" s="91" t="s">
-        <v>152</v>
-      </c>
-      <c r="D44" s="91" t="s">
-        <v>153</v>
-      </c>
-      <c r="E44" s="91" t="s">
+      <c r="F44" s="91" t="s">
         <v>150</v>
-      </c>
-      <c r="F44" s="91" t="s">
-        <v>151</v>
       </c>
       <c r="G44" s="44" t="e">
         <f>C44+E44</f>
@@ -3428,10 +3435,10 @@
       <c r="H45" s="61"/>
     </row>
     <row r="46" spans="1:8" ht="15">
-      <c r="A46" s="95" t="s">
+      <c r="A46" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="96"/>
+      <c r="B46" s="93"/>
       <c r="C46" s="46">
         <f>SUM(C44:C45)</f>
         <v>0</v>
@@ -3460,7 +3467,7 @@
         <v>101</v>
       </c>
       <c r="D48" s="66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E48" s="62" t="s">
         <v>102</v>
@@ -3577,10 +3584,10 @@
       <c r="H58" s="68"/>
     </row>
     <row r="59" spans="3:8">
-      <c r="C59" s="93" t="s">
+      <c r="C59" s="119" t="s">
         <v>105</v>
       </c>
-      <c r="D59" s="93"/>
+      <c r="D59" s="119"/>
       <c r="E59" s="71">
         <f>SUM(E51:E58)</f>
         <v>0</v>
@@ -3590,10 +3597,10 @@
       <c r="H59" s="68"/>
     </row>
     <row r="60" spans="3:8">
-      <c r="C60" s="92" t="s">
+      <c r="C60" s="118" t="s">
         <v>109</v>
       </c>
-      <c r="D60" s="94"/>
+      <c r="D60" s="120"/>
       <c r="E60" s="72">
         <f>D52*E52+D53*E53+D54*E54+D55*E55+D56*E56+D57*E57+D58*E58</f>
         <v>0</v>
@@ -3611,46 +3618,46 @@
       <c r="H61" s="68"/>
     </row>
     <row r="62" spans="3:8" ht="14.25" customHeight="1">
-      <c r="C62" s="93" t="s">
+      <c r="C62" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="D62" s="93"/>
+      <c r="D62" s="119"/>
       <c r="E62" s="86" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F62" s="68"/>
       <c r="G62" s="68"/>
       <c r="H62" s="68"/>
     </row>
     <row r="63" spans="3:8" ht="14.25" customHeight="1">
-      <c r="C63" s="93" t="s">
+      <c r="C63" s="119" t="s">
         <v>110</v>
       </c>
-      <c r="D63" s="93"/>
+      <c r="D63" s="119"/>
       <c r="E63" s="86" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F63" s="68"/>
       <c r="G63" s="68"/>
       <c r="H63" s="68"/>
     </row>
     <row r="64" spans="3:8" ht="14.25" customHeight="1">
-      <c r="C64" s="93" t="s">
+      <c r="C64" s="119" t="s">
         <v>112</v>
       </c>
-      <c r="D64" s="93"/>
+      <c r="D64" s="119"/>
       <c r="E64" s="86" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F64" s="68"/>
       <c r="G64" s="68"/>
       <c r="H64" s="68"/>
     </row>
     <row r="65" spans="3:8">
-      <c r="C65" s="93" t="s">
+      <c r="C65" s="119" t="s">
         <v>111</v>
       </c>
-      <c r="D65" s="93"/>
+      <c r="D65" s="119"/>
       <c r="E65" s="71" t="e">
         <f>E62/E63</f>
         <v>#VALUE!</v>
@@ -3670,20 +3677,20 @@
       <c r="H66" s="68"/>
     </row>
     <row r="67" spans="3:8" ht="13.5" customHeight="1">
-      <c r="C67" s="92" t="s">
+      <c r="C67" s="118" t="s">
         <v>108</v>
       </c>
-      <c r="D67" s="94"/>
+      <c r="D67" s="120"/>
       <c r="E67" s="75" t="e">
         <f>(F48-E60-E62)/F48</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F67" s="92" t="s">
+      <c r="F67" s="118" t="s">
         <v>107</v>
       </c>
-      <c r="G67" s="92"/>
+      <c r="G67" s="118"/>
       <c r="H67" s="67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3694,6 +3701,14 @@
     <protectedRange sqref="C44:D44" name="範囲3_3"/>
   </protectedRanges>
   <mergeCells count="18">
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C62:D62"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="C42:F42"/>
     <mergeCell ref="H42:H43"/>
@@ -3704,14 +3719,6 @@
     <mergeCell ref="G1:H32"/>
     <mergeCell ref="C35:D37"/>
     <mergeCell ref="E35:H37"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C62:D62"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
@@ -3781,12 +3788,12 @@
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="1"/>
-      <c r="C3" s="129" t="s">
+      <c r="C3" s="187" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="134" t="s">
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="192" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="21" t="s">
@@ -3796,104 +3803,104 @@
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
       <c r="K3" s="17"/>
-      <c r="L3" s="121" t="s">
+      <c r="L3" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="122"/>
-      <c r="N3" s="122"/>
-      <c r="O3" s="123"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="130"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="1"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="144">
-        <f ca="1">記入!B37</f>
-        <v>43896</v>
-      </c>
-      <c r="M4" s="145"/>
-      <c r="N4" s="145"/>
-      <c r="O4" s="146"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="182"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="183"/>
+      <c r="K4" s="184"/>
+      <c r="L4" s="201" t="str">
+        <f>記入!B37</f>
+        <v>${aw.draftingdate}</v>
+      </c>
+      <c r="M4" s="202"/>
+      <c r="N4" s="202"/>
+      <c r="O4" s="203"/>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="1"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="121" t="s">
+      <c r="C5" s="188"/>
+      <c r="D5" s="191"/>
+      <c r="E5" s="191"/>
+      <c r="F5" s="188"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="183"/>
+      <c r="I5" s="183"/>
+      <c r="J5" s="183"/>
+      <c r="K5" s="184"/>
+      <c r="L5" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="123"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="130"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="1"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="134" t="s">
+      <c r="C6" s="188"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="191"/>
+      <c r="F6" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="124"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="135">
-        <f ca="1">記入!B38</f>
-        <v>43898</v>
-      </c>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
-      <c r="O6" s="137"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="183"/>
+      <c r="I6" s="183"/>
+      <c r="J6" s="183"/>
+      <c r="K6" s="184"/>
+      <c r="L6" s="193" t="str">
+        <f>記入!B38</f>
+        <v>${aw.scheduleddate}</v>
+      </c>
+      <c r="M6" s="194"/>
+      <c r="N6" s="194"/>
+      <c r="O6" s="195"/>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="1"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="125"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="138" t="s">
+      <c r="C7" s="188"/>
+      <c r="D7" s="191"/>
+      <c r="E7" s="191"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
+      <c r="J7" s="183"/>
+      <c r="K7" s="184"/>
+      <c r="L7" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="139"/>
-      <c r="N7" s="139"/>
-      <c r="O7" s="140"/>
+      <c r="M7" s="178"/>
+      <c r="N7" s="178"/>
+      <c r="O7" s="197"/>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="1"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="127"/>
-      <c r="J8" s="127"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="141"/>
-      <c r="M8" s="142"/>
-      <c r="N8" s="142"/>
-      <c r="O8" s="143"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="191"/>
+      <c r="E8" s="191"/>
+      <c r="F8" s="189"/>
+      <c r="G8" s="182"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="185"/>
+      <c r="J8" s="185"/>
+      <c r="K8" s="186"/>
+      <c r="L8" s="198"/>
+      <c r="M8" s="199"/>
+      <c r="N8" s="199"/>
+      <c r="O8" s="200"/>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="1"/>
@@ -3904,76 +3911,76 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="157" t="s">
+      <c r="H9" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="157" t="s">
+      <c r="I9" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="157" t="s">
+      <c r="J9" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="193" t="s">
+      <c r="K9" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="121" t="s">
+      <c r="L9" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="122"/>
-      <c r="N9" s="197" t="str">
+      <c r="M9" s="129"/>
+      <c r="N9" s="126" t="str">
         <f>記入!B39</f>
         <v>${aw.plan}</v>
       </c>
-      <c r="O9" s="198"/>
+      <c r="O9" s="127"/>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="1"/>
-      <c r="C10" s="148" t="str">
+      <c r="C10" s="169" t="str">
         <f>記入!B9</f>
         <v>${aw.deployment}</v>
       </c>
-      <c r="D10" s="149"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="150"/>
-      <c r="H10" s="157"/>
-      <c r="I10" s="157"/>
-      <c r="J10" s="157"/>
-      <c r="K10" s="193"/>
-      <c r="L10" s="121" t="s">
+      <c r="D10" s="170"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="171"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="122"/>
-      <c r="N10" s="122"/>
-      <c r="O10" s="123"/>
+      <c r="M10" s="129"/>
+      <c r="N10" s="129"/>
+      <c r="O10" s="130"/>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="1"/>
-      <c r="C11" s="151"/>
-      <c r="D11" s="152"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="152"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="157"/>
-      <c r="I11" s="157"/>
-      <c r="J11" s="157" t="str">
+      <c r="C11" s="172"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="173"/>
+      <c r="F11" s="173"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121" t="str">
         <f>記入!B35</f>
         <v>${aw.user_id}</v>
       </c>
-      <c r="K11" s="196" t="str">
+      <c r="K11" s="125" t="str">
         <f>記入!B36</f>
         <v>${aw.telephone}</v>
       </c>
-      <c r="L11" s="194" t="str">
+      <c r="L11" s="123" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M11" s="195"/>
-      <c r="N11" s="199" t="str">
+      <c r="M11" s="124"/>
+      <c r="N11" s="131" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O11" s="200"/>
+      <c r="O11" s="132"/>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="1"/>
@@ -3984,44 +3991,44 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="157"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="157"/>
-      <c r="K12" s="196"/>
-      <c r="L12" s="201" t="s">
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="125"/>
+      <c r="L12" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="202"/>
-      <c r="N12" s="202"/>
-      <c r="O12" s="203"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="134"/>
+      <c r="O12" s="135"/>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="1"/>
-      <c r="C13" s="154" t="str">
+      <c r="C13" s="175" t="str">
         <f>記入!B10</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="D13" s="155"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="156"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="157"/>
-      <c r="K13" s="196"/>
-      <c r="L13" s="194" t="str">
+      <c r="D13" s="176"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="125"/>
+      <c r="L13" s="123" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M13" s="195"/>
-      <c r="N13" s="199" t="str">
+      <c r="M13" s="124"/>
+      <c r="N13" s="131" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O13" s="200"/>
+      <c r="O13" s="132"/>
     </row>
     <row r="14" spans="1:15" ht="9" customHeight="1">
-      <c r="B14" s="147" t="s">
+      <c r="B14" s="168" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="9"/>
@@ -4039,7 +4046,7 @@
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="147"/>
+      <c r="B15" s="168"/>
       <c r="C15" s="9"/>
       <c r="D15" s="12" t="s">
         <v>53</v>
@@ -4057,7 +4064,7 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="147"/>
+      <c r="B16" s="168"/>
       <c r="C16" s="9"/>
       <c r="D16" s="12"/>
       <c r="E16" s="10" t="str">
@@ -4076,7 +4083,7 @@
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="147"/>
+      <c r="B17" s="168"/>
       <c r="C17" s="9"/>
       <c r="D17" s="12"/>
       <c r="E17" s="10" t="str">
@@ -4095,7 +4102,7 @@
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="147"/>
+      <c r="B18" s="168"/>
       <c r="C18" s="9"/>
       <c r="D18" s="1"/>
       <c r="E18" s="10" t="s">
@@ -4113,7 +4120,7 @@
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="2:15" ht="9" customHeight="1">
-      <c r="B19" s="147"/>
+      <c r="B19" s="168"/>
       <c r="C19" s="9"/>
       <c r="D19" s="1"/>
       <c r="E19" s="12"/>
@@ -4129,7 +4136,7 @@
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="147"/>
+      <c r="B20" s="168"/>
       <c r="C20" s="9"/>
       <c r="D20" s="12" t="s">
         <v>35</v>
@@ -4147,219 +4154,219 @@
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="2:15" ht="15" customHeight="1">
-      <c r="B21" s="147"/>
+      <c r="B21" s="168"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="161" t="s">
+      <c r="D21" s="153" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="161"/>
-      <c r="F21" s="177" t="str">
+      <c r="E21" s="153"/>
+      <c r="F21" s="136" t="str">
         <f>記入!B2</f>
         <v>${aw.custojapanese}</v>
       </c>
-      <c r="G21" s="177"/>
-      <c r="H21" s="177"/>
-      <c r="I21" s="177"/>
-      <c r="J21" s="177"/>
-      <c r="K21" s="177"/>
-      <c r="L21" s="177"/>
-      <c r="M21" s="177"/>
-      <c r="N21" s="177"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="136"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="136"/>
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="2:15" ht="15" customHeight="1">
-      <c r="B22" s="147"/>
+      <c r="B22" s="168"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="177"/>
-      <c r="G22" s="177"/>
-      <c r="H22" s="177"/>
-      <c r="I22" s="177"/>
-      <c r="J22" s="177"/>
-      <c r="K22" s="177"/>
-      <c r="L22" s="177"/>
-      <c r="M22" s="177"/>
-      <c r="N22" s="177"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="136"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="136"/>
+      <c r="N22" s="136"/>
       <c r="O22" s="4"/>
     </row>
     <row r="23" spans="2:15" ht="15" customHeight="1">
-      <c r="B23" s="147"/>
+      <c r="B23" s="168"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="161" t="s">
+      <c r="D23" s="153" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="161"/>
-      <c r="F23" s="177" t="str">
+      <c r="E23" s="153"/>
+      <c r="F23" s="136" t="str">
         <f>C13</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="G23" s="177"/>
-      <c r="H23" s="177"/>
-      <c r="I23" s="177"/>
-      <c r="J23" s="177"/>
-      <c r="K23" s="177"/>
-      <c r="L23" s="177"/>
-      <c r="M23" s="177"/>
-      <c r="N23" s="177"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="136"/>
+      <c r="J23" s="136"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="136"/>
+      <c r="N23" s="136"/>
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="2:15" ht="15" customHeight="1">
-      <c r="B24" s="147"/>
+      <c r="B24" s="168"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="177"/>
-      <c r="G24" s="177"/>
-      <c r="H24" s="177"/>
-      <c r="I24" s="177"/>
-      <c r="J24" s="177"/>
-      <c r="K24" s="177"/>
-      <c r="L24" s="177"/>
-      <c r="M24" s="177"/>
-      <c r="N24" s="177"/>
+      <c r="D24" s="153"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="136"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="136"/>
+      <c r="M24" s="136"/>
+      <c r="N24" s="136"/>
       <c r="O24" s="4"/>
     </row>
     <row r="25" spans="2:15" ht="15" customHeight="1">
-      <c r="B25" s="147"/>
+      <c r="B25" s="168"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="161" t="s">
+      <c r="D25" s="153" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="161"/>
-      <c r="F25" s="177" t="str">
+      <c r="E25" s="153"/>
+      <c r="F25" s="136" t="str">
         <f>記入!B12</f>
         <v>${aw.user_id}</v>
       </c>
-      <c r="G25" s="177"/>
-      <c r="H25" s="177"/>
-      <c r="I25" s="177"/>
-      <c r="J25" s="177"/>
-      <c r="K25" s="177"/>
-      <c r="L25" s="177"/>
-      <c r="M25" s="177"/>
-      <c r="N25" s="177"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="136"/>
+      <c r="I25" s="136"/>
+      <c r="J25" s="136"/>
+      <c r="K25" s="136"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="136"/>
+      <c r="N25" s="136"/>
       <c r="O25" s="4"/>
     </row>
     <row r="26" spans="2:15" ht="15" customHeight="1">
-      <c r="B26" s="147"/>
+      <c r="B26" s="168"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="161"/>
-      <c r="E26" s="161"/>
-      <c r="F26" s="177"/>
-      <c r="G26" s="177"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="177"/>
-      <c r="J26" s="177"/>
-      <c r="K26" s="177"/>
-      <c r="L26" s="177"/>
-      <c r="M26" s="177"/>
-      <c r="N26" s="177"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="136"/>
+      <c r="G26" s="136"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="136"/>
+      <c r="J26" s="136"/>
+      <c r="K26" s="136"/>
+      <c r="L26" s="136"/>
+      <c r="M26" s="136"/>
+      <c r="N26" s="136"/>
       <c r="O26" s="4"/>
     </row>
     <row r="27" spans="2:15" ht="15" customHeight="1">
-      <c r="B27" s="147"/>
+      <c r="B27" s="168"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="162" t="s">
+      <c r="D27" s="155" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="162"/>
-      <c r="F27" s="184" t="str">
+      <c r="E27" s="155"/>
+      <c r="F27" s="137" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="G27" s="185"/>
-      <c r="H27" s="185"/>
-      <c r="I27" s="160" t="s">
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="179" t="s">
         <v>62</v>
       </c>
-      <c r="J27" s="186" t="str">
+      <c r="J27" s="139" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="K27" s="186"/>
-      <c r="L27" s="186"/>
-      <c r="M27" s="186"/>
-      <c r="N27" s="187"/>
+      <c r="K27" s="139"/>
+      <c r="L27" s="139"/>
+      <c r="M27" s="139"/>
+      <c r="N27" s="140"/>
       <c r="O27" s="4"/>
     </row>
     <row r="28" spans="2:15" ht="15" customHeight="1">
-      <c r="B28" s="147"/>
+      <c r="B28" s="168"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="184"/>
-      <c r="G28" s="185"/>
-      <c r="H28" s="185"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="186"/>
-      <c r="K28" s="186"/>
-      <c r="L28" s="186"/>
-      <c r="M28" s="186"/>
-      <c r="N28" s="187"/>
+      <c r="D28" s="155"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="179"/>
+      <c r="J28" s="139"/>
+      <c r="K28" s="139"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="139"/>
+      <c r="N28" s="140"/>
       <c r="O28" s="4"/>
     </row>
     <row r="29" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B29" s="147"/>
+      <c r="B29" s="168"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="163" t="s">
+      <c r="D29" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="164"/>
-      <c r="F29" s="163" t="s">
+      <c r="E29" s="143"/>
+      <c r="F29" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="G29" s="164"/>
-      <c r="H29" s="189" t="s">
+      <c r="G29" s="143"/>
+      <c r="H29" s="147" t="s">
         <v>61</v>
       </c>
-      <c r="I29" s="181" t="s">
+      <c r="I29" s="149" t="s">
         <v>68</v>
       </c>
-      <c r="J29" s="182"/>
-      <c r="K29" s="188" t="s">
+      <c r="J29" s="150"/>
+      <c r="K29" s="142" t="s">
         <v>67</v>
       </c>
-      <c r="L29" s="164"/>
-      <c r="M29" s="163" t="s">
+      <c r="L29" s="143"/>
+      <c r="M29" s="146" t="s">
         <v>58</v>
       </c>
-      <c r="N29" s="164"/>
+      <c r="N29" s="143"/>
       <c r="O29" s="4"/>
     </row>
     <row r="30" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B30" s="147"/>
+      <c r="B30" s="168"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="165"/>
-      <c r="E30" s="166"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="168"/>
-      <c r="H30" s="190"/>
+      <c r="D30" s="180"/>
+      <c r="E30" s="181"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="148"/>
       <c r="I30" s="22" t="s">
         <v>65</v>
       </c>
       <c r="J30" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="K30" s="167"/>
-      <c r="L30" s="168"/>
-      <c r="M30" s="191" t="str">
+      <c r="K30" s="144"/>
+      <c r="L30" s="145"/>
+      <c r="M30" s="151" t="str">
         <f>"(" &amp; 記入!B19 &amp; ")"</f>
         <v>(${aw.currencyposition})</v>
       </c>
-      <c r="N30" s="192"/>
+      <c r="N30" s="152"/>
       <c r="O30" s="4"/>
     </row>
     <row r="31" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B31" s="147"/>
+      <c r="B31" s="168"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="165"/>
-      <c r="E31" s="166"/>
-      <c r="F31" s="177" t="str">
+      <c r="D31" s="180"/>
+      <c r="E31" s="181"/>
+      <c r="F31" s="136" t="str">
         <f>記入!A44</f>
         <v>${t.budgetcode}</v>
       </c>
-      <c r="G31" s="177"/>
+      <c r="G31" s="136"/>
       <c r="H31" s="24" t="str">
         <f>記入!B44</f>
         <v>${t.depart}</v>
@@ -4372,28 +4379,28 @@
         <f>記入!E44</f>
         <v>${t.outsource}</v>
       </c>
-      <c r="K31" s="177" t="e">
+      <c r="K31" s="136" t="e">
         <f>記入!G44</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L31" s="177"/>
-      <c r="M31" s="176" t="e">
+      <c r="L31" s="136"/>
+      <c r="M31" s="141" t="e">
         <f>記入!H44</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N31" s="176"/>
+      <c r="N31" s="141"/>
       <c r="O31" s="4"/>
     </row>
     <row r="32" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B32" s="147"/>
+      <c r="B32" s="168"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="165"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="177" t="e">
+      <c r="D32" s="180"/>
+      <c r="E32" s="181"/>
+      <c r="F32" s="136" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G32" s="177"/>
+      <c r="G32" s="136"/>
       <c r="H32" s="24" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
@@ -4406,28 +4413,28 @@
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K32" s="177" t="e">
+      <c r="K32" s="136" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L32" s="177"/>
-      <c r="M32" s="176" t="e">
+      <c r="L32" s="136"/>
+      <c r="M32" s="141" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="N32" s="176"/>
+      <c r="N32" s="141"/>
       <c r="O32" s="4"/>
     </row>
     <row r="33" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B33" s="147"/>
+      <c r="B33" s="168"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="165"/>
-      <c r="E33" s="166"/>
-      <c r="F33" s="177" t="e">
+      <c r="D33" s="180"/>
+      <c r="E33" s="181"/>
+      <c r="F33" s="136" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G33" s="177"/>
+      <c r="G33" s="136"/>
       <c r="H33" s="24" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
@@ -4440,28 +4447,28 @@
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K33" s="177" t="e">
+      <c r="K33" s="136" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L33" s="177"/>
-      <c r="M33" s="176" t="e">
+      <c r="L33" s="136"/>
+      <c r="M33" s="141" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="N33" s="176"/>
+      <c r="N33" s="141"/>
       <c r="O33" s="4"/>
     </row>
     <row r="34" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B34" s="147"/>
+      <c r="B34" s="168"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="165"/>
-      <c r="E34" s="166"/>
-      <c r="F34" s="177" t="e">
+      <c r="D34" s="180"/>
+      <c r="E34" s="181"/>
+      <c r="F34" s="136" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G34" s="177"/>
+      <c r="G34" s="136"/>
       <c r="H34" s="24" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
@@ -4474,28 +4481,28 @@
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K34" s="177" t="e">
+      <c r="K34" s="136" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L34" s="177"/>
-      <c r="M34" s="176" t="e">
+      <c r="L34" s="136"/>
+      <c r="M34" s="141" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="N34" s="176"/>
+      <c r="N34" s="141"/>
       <c r="O34" s="4"/>
     </row>
     <row r="35" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B35" s="147"/>
+      <c r="B35" s="168"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="165"/>
-      <c r="E35" s="166"/>
-      <c r="F35" s="177" t="str">
+      <c r="D35" s="180"/>
+      <c r="E35" s="181"/>
+      <c r="F35" s="136" t="str">
         <f>記入!A45</f>
         <v>経費</v>
       </c>
-      <c r="G35" s="177"/>
+      <c r="G35" s="136"/>
       <c r="H35" s="24" t="str">
         <f>記入!B45</f>
         <v>-</v>
@@ -4508,28 +4515,28 @@
         <f>記入!E45</f>
         <v>-</v>
       </c>
-      <c r="K35" s="177" t="str">
+      <c r="K35" s="136" t="str">
         <f>記入!G45</f>
         <v>-</v>
       </c>
-      <c r="L35" s="177"/>
-      <c r="M35" s="176">
+      <c r="L35" s="136"/>
+      <c r="M35" s="141">
         <f>記入!H45</f>
         <v>0</v>
       </c>
-      <c r="N35" s="176"/>
+      <c r="N35" s="141"/>
       <c r="O35" s="4"/>
     </row>
     <row r="36" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B36" s="147"/>
+      <c r="B36" s="168"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="167"/>
-      <c r="E36" s="168"/>
-      <c r="F36" s="161" t="s">
+      <c r="D36" s="144"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="161"/>
-      <c r="H36" s="161"/>
+      <c r="G36" s="153"/>
+      <c r="H36" s="153"/>
       <c r="I36" s="22" t="e">
         <f>SUM(I31:I35)</f>
         <v>#REF!</v>
@@ -4538,20 +4545,20 @@
         <f>SUM(J31:J35)</f>
         <v>#REF!</v>
       </c>
-      <c r="K36" s="161" t="e">
+      <c r="K36" s="153" t="e">
         <f>SUM(K31:L35)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L36" s="161"/>
-      <c r="M36" s="178" t="e">
+      <c r="L36" s="153"/>
+      <c r="M36" s="154" t="e">
         <f>SUM(M31:N35)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N36" s="178"/>
+      <c r="N36" s="154"/>
       <c r="O36" s="4"/>
     </row>
     <row r="37" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B37" s="147"/>
+      <c r="B37" s="168"/>
       <c r="C37" s="9"/>
       <c r="D37" s="78"/>
       <c r="E37" s="78"/>
@@ -4560,19 +4567,19 @@
       <c r="H37" s="79"/>
       <c r="I37" s="78"/>
       <c r="J37" s="78"/>
-      <c r="K37" s="179" t="s">
+      <c r="K37" s="156" t="s">
         <v>123</v>
       </c>
-      <c r="L37" s="179"/>
-      <c r="M37" s="180" t="e">
+      <c r="L37" s="156"/>
+      <c r="M37" s="157" t="e">
         <f>記入!E67</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N37" s="180"/>
+      <c r="N37" s="157"/>
       <c r="O37" s="4"/>
     </row>
     <row r="38" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B38" s="147"/>
+      <c r="B38" s="168"/>
       <c r="C38" s="9"/>
       <c r="D38" s="80"/>
       <c r="E38" s="80"/>
@@ -4581,156 +4588,156 @@
       <c r="H38" s="81"/>
       <c r="I38" s="80"/>
       <c r="J38" s="80"/>
-      <c r="K38" s="179" t="s">
+      <c r="K38" s="156" t="s">
         <v>122</v>
       </c>
-      <c r="L38" s="179"/>
-      <c r="M38" s="180" t="str">
+      <c r="L38" s="156"/>
+      <c r="M38" s="157" t="str">
         <f>記入!H67</f>
         <v>${aw.rate}</v>
       </c>
-      <c r="N38" s="180"/>
+      <c r="N38" s="157"/>
       <c r="O38" s="4"/>
     </row>
     <row r="39" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B39" s="147"/>
+      <c r="B39" s="168"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="162" t="s">
+      <c r="D39" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="E39" s="162"/>
-      <c r="F39" s="181" t="s">
+      <c r="E39" s="155"/>
+      <c r="F39" s="149" t="s">
         <v>86</v>
       </c>
-      <c r="G39" s="182"/>
-      <c r="H39" s="183" t="s">
+      <c r="G39" s="150"/>
+      <c r="H39" s="158" t="s">
         <v>124</v>
       </c>
-      <c r="I39" s="182"/>
-      <c r="J39" s="162" t="str">
+      <c r="I39" s="150"/>
+      <c r="J39" s="155" t="str">
         <f>"請求金額"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>請求金額(${aw.currencyposition})</v>
       </c>
-      <c r="K39" s="162"/>
-      <c r="L39" s="162"/>
-      <c r="M39" s="162"/>
-      <c r="N39" s="162"/>
+      <c r="K39" s="155"/>
+      <c r="L39" s="155"/>
+      <c r="M39" s="155"/>
+      <c r="N39" s="155"/>
       <c r="O39" s="4"/>
     </row>
     <row r="40" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B40" s="147"/>
+      <c r="B40" s="168"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="161" t="str">
+      <c r="D40" s="153" t="str">
         <f>記入!A29</f>
         <v>第一回</v>
       </c>
-      <c r="E40" s="161"/>
-      <c r="F40" s="174" t="str">
+      <c r="E40" s="153"/>
+      <c r="F40" s="166" t="str">
         <f>IF(記入!B29="","",記入!B29)</f>
         <v>${num[0].deliverydate}</v>
       </c>
-      <c r="G40" s="175"/>
-      <c r="H40" s="174" t="str">
+      <c r="G40" s="167"/>
+      <c r="H40" s="166" t="str">
         <f>IF(記入!D29="","",記入!D29)</f>
         <v>${num[0].claimdate}</v>
       </c>
-      <c r="I40" s="175"/>
-      <c r="J40" s="176" t="str">
+      <c r="I40" s="167"/>
+      <c r="J40" s="141" t="str">
         <f>IF(記入!F29="","",記入!F29)</f>
         <v>${num[0].claimamount}</v>
       </c>
-      <c r="K40" s="176"/>
-      <c r="L40" s="176"/>
-      <c r="M40" s="176"/>
-      <c r="N40" s="176"/>
+      <c r="K40" s="141"/>
+      <c r="L40" s="141"/>
+      <c r="M40" s="141"/>
+      <c r="N40" s="141"/>
       <c r="O40" s="4"/>
     </row>
     <row r="41" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B41" s="147"/>
+      <c r="B41" s="168"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="161" t="str">
+      <c r="D41" s="153" t="str">
         <f>記入!A30</f>
         <v>第二回</v>
       </c>
-      <c r="E41" s="161"/>
-      <c r="F41" s="174" t="str">
+      <c r="E41" s="153"/>
+      <c r="F41" s="166" t="str">
         <f>IF(記入!B30="","",記入!B30)</f>
         <v>${num[1].deliverydate}</v>
       </c>
-      <c r="G41" s="175"/>
-      <c r="H41" s="174" t="str">
+      <c r="G41" s="167"/>
+      <c r="H41" s="166" t="str">
         <f>IF(記入!D30="","",記入!D30)</f>
         <v>${num[1].claimdate}</v>
       </c>
-      <c r="I41" s="175"/>
-      <c r="J41" s="176" t="str">
+      <c r="I41" s="167"/>
+      <c r="J41" s="141" t="str">
         <f>IF(記入!F30="","",記入!F30)</f>
         <v>${num[1].claimamount}</v>
       </c>
-      <c r="K41" s="176"/>
-      <c r="L41" s="176"/>
-      <c r="M41" s="176"/>
-      <c r="N41" s="176"/>
+      <c r="K41" s="141"/>
+      <c r="L41" s="141"/>
+      <c r="M41" s="141"/>
+      <c r="N41" s="141"/>
       <c r="O41" s="4"/>
     </row>
     <row r="42" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B42" s="147"/>
+      <c r="B42" s="168"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="161" t="str">
+      <c r="D42" s="153" t="str">
         <f>記入!A31</f>
         <v>第三回</v>
       </c>
-      <c r="E42" s="161"/>
-      <c r="F42" s="174" t="str">
+      <c r="E42" s="153"/>
+      <c r="F42" s="166" t="str">
         <f>IF(記入!B31="","",記入!B31)</f>
         <v>${num[2].deliverydate}</v>
       </c>
-      <c r="G42" s="175"/>
-      <c r="H42" s="174" t="str">
+      <c r="G42" s="167"/>
+      <c r="H42" s="166" t="str">
         <f>IF(記入!D31="","",記入!D31)</f>
         <v>${num[2].claimdate}</v>
       </c>
-      <c r="I42" s="175"/>
-      <c r="J42" s="176" t="str">
+      <c r="I42" s="167"/>
+      <c r="J42" s="141" t="str">
         <f>IF(記入!F31="","",記入!F31)</f>
         <v>${num[2].claimamount}</v>
       </c>
-      <c r="K42" s="176"/>
-      <c r="L42" s="176"/>
-      <c r="M42" s="176"/>
-      <c r="N42" s="176"/>
+      <c r="K42" s="141"/>
+      <c r="L42" s="141"/>
+      <c r="M42" s="141"/>
+      <c r="N42" s="141"/>
       <c r="O42" s="4"/>
     </row>
     <row r="43" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B43" s="147"/>
+      <c r="B43" s="168"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="161" t="str">
+      <c r="D43" s="153" t="str">
         <f>記入!A32</f>
         <v>第四回</v>
       </c>
-      <c r="E43" s="161"/>
-      <c r="F43" s="174" t="str">
+      <c r="E43" s="153"/>
+      <c r="F43" s="166" t="str">
         <f>IF(記入!B32="","",記入!B32)</f>
         <v>${num[3].deliverydate}</v>
       </c>
-      <c r="G43" s="175"/>
-      <c r="H43" s="174" t="str">
+      <c r="G43" s="167"/>
+      <c r="H43" s="166" t="str">
         <f>IF(記入!D32="","",記入!D32)</f>
         <v>${num[3].claimdate}</v>
       </c>
-      <c r="I43" s="175"/>
-      <c r="J43" s="176" t="str">
+      <c r="I43" s="167"/>
+      <c r="J43" s="141" t="str">
         <f>IF(記入!F32="","",記入!F32)</f>
         <v>${num[3].claimamount}</v>
       </c>
-      <c r="K43" s="176"/>
-      <c r="L43" s="176"/>
-      <c r="M43" s="176"/>
-      <c r="N43" s="176"/>
+      <c r="K43" s="141"/>
+      <c r="L43" s="141"/>
+      <c r="M43" s="141"/>
+      <c r="N43" s="141"/>
       <c r="O43" s="4"/>
     </row>
     <row r="44" spans="2:15" ht="21.75" customHeight="1">
-      <c r="B44" s="147"/>
+      <c r="B44" s="168"/>
       <c r="C44" s="9"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -4738,18 +4745,18 @@
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
-      <c r="J44" s="171">
+      <c r="J44" s="161">
         <f>SUM(J40:N43)</f>
         <v>0</v>
       </c>
-      <c r="K44" s="172"/>
-      <c r="L44" s="172"/>
-      <c r="M44" s="172"/>
-      <c r="N44" s="173"/>
+      <c r="K44" s="162"/>
+      <c r="L44" s="162"/>
+      <c r="M44" s="162"/>
+      <c r="N44" s="163"/>
       <c r="O44" s="4"/>
     </row>
     <row r="45" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B45" s="147"/>
+      <c r="B45" s="168"/>
       <c r="C45" s="9"/>
       <c r="D45" s="13" t="s">
         <v>36</v>
@@ -4767,13 +4774,13 @@
       <c r="O45" s="4"/>
     </row>
     <row r="46" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B46" s="147"/>
+      <c r="B46" s="168"/>
       <c r="C46" s="9"/>
       <c r="D46" s="13"/>
-      <c r="E46" s="139" t="s">
+      <c r="E46" s="178" t="s">
         <v>51</v>
       </c>
-      <c r="F46" s="139"/>
+      <c r="F46" s="178"/>
       <c r="G46" s="27" t="str">
         <f>記入!B40</f>
         <v>${aw.valuation}</v>
@@ -4788,13 +4795,13 @@
       <c r="O46" s="4"/>
     </row>
     <row r="47" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="147"/>
+      <c r="B47" s="168"/>
       <c r="C47" s="9"/>
       <c r="D47" s="13"/>
-      <c r="E47" s="139" t="s">
+      <c r="E47" s="178" t="s">
         <v>52</v>
       </c>
-      <c r="F47" s="139"/>
+      <c r="F47" s="178"/>
       <c r="G47" s="27" t="str">
         <f>記入!B41</f>
         <v>${aw.individual}</v>
@@ -4809,7 +4816,7 @@
       <c r="O47" s="4"/>
     </row>
     <row r="48" spans="2:15" ht="9.75" customHeight="1">
-      <c r="B48" s="147"/>
+      <c r="B48" s="168"/>
       <c r="C48" s="9"/>
       <c r="D48" s="13"/>
       <c r="E48" s="25"/>
@@ -4825,211 +4832,211 @@
       <c r="O48" s="4"/>
     </row>
     <row r="49" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="147"/>
+      <c r="B49" s="168"/>
       <c r="C49" s="9"/>
       <c r="D49" s="13" t="s">
         <v>100</v>
       </c>
       <c r="E49" s="25"/>
-      <c r="F49" s="169" t="str">
+      <c r="F49" s="159" t="str">
         <f>記入!E35</f>
         <v>${aw.remarks}</v>
       </c>
-      <c r="G49" s="169"/>
-      <c r="H49" s="169"/>
-      <c r="I49" s="169"/>
-      <c r="J49" s="169"/>
-      <c r="K49" s="169"/>
-      <c r="L49" s="169"/>
-      <c r="M49" s="169"/>
-      <c r="N49" s="169"/>
+      <c r="G49" s="159"/>
+      <c r="H49" s="159"/>
+      <c r="I49" s="159"/>
+      <c r="J49" s="159"/>
+      <c r="K49" s="159"/>
+      <c r="L49" s="159"/>
+      <c r="M49" s="159"/>
+      <c r="N49" s="159"/>
       <c r="O49" s="4"/>
     </row>
     <row r="50" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="147"/>
+      <c r="B50" s="168"/>
       <c r="C50" s="9"/>
       <c r="D50" s="13"/>
       <c r="E50" s="26"/>
-      <c r="F50" s="170"/>
-      <c r="G50" s="170"/>
-      <c r="H50" s="170"/>
-      <c r="I50" s="170"/>
-      <c r="J50" s="170"/>
-      <c r="K50" s="170"/>
-      <c r="L50" s="170"/>
-      <c r="M50" s="170"/>
-      <c r="N50" s="170"/>
+      <c r="F50" s="160"/>
+      <c r="G50" s="160"/>
+      <c r="H50" s="160"/>
+      <c r="I50" s="160"/>
+      <c r="J50" s="160"/>
+      <c r="K50" s="160"/>
+      <c r="L50" s="160"/>
+      <c r="M50" s="160"/>
+      <c r="N50" s="160"/>
       <c r="O50" s="4"/>
     </row>
     <row r="51" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="147"/>
-      <c r="C51" s="159" t="s">
+      <c r="B51" s="168"/>
+      <c r="C51" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="D51" s="159"/>
-      <c r="E51" s="159"/>
-      <c r="F51" s="159" t="s">
+      <c r="D51" s="165"/>
+      <c r="E51" s="165"/>
+      <c r="F51" s="165" t="s">
         <v>37</v>
       </c>
-      <c r="G51" s="159"/>
-      <c r="H51" s="159" t="s">
+      <c r="G51" s="165"/>
+      <c r="H51" s="165" t="s">
         <v>38</v>
       </c>
-      <c r="I51" s="159"/>
-      <c r="J51" s="159" t="s">
+      <c r="I51" s="165"/>
+      <c r="J51" s="165" t="s">
         <v>37</v>
       </c>
-      <c r="K51" s="159"/>
-      <c r="L51" s="159"/>
-      <c r="M51" s="159" t="s">
+      <c r="K51" s="165"/>
+      <c r="L51" s="165"/>
+      <c r="M51" s="165" t="s">
         <v>38</v>
       </c>
-      <c r="N51" s="159"/>
-      <c r="O51" s="159"/>
+      <c r="N51" s="165"/>
+      <c r="O51" s="165"/>
     </row>
     <row r="52" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B52" s="147"/>
-      <c r="C52" s="159"/>
-      <c r="D52" s="159"/>
-      <c r="E52" s="159"/>
-      <c r="F52" s="158"/>
-      <c r="G52" s="158"/>
-      <c r="H52" s="158"/>
-      <c r="I52" s="158"/>
-      <c r="J52" s="158"/>
-      <c r="K52" s="158"/>
-      <c r="L52" s="158"/>
-      <c r="M52" s="158"/>
-      <c r="N52" s="158"/>
-      <c r="O52" s="158"/>
+      <c r="B52" s="168"/>
+      <c r="C52" s="165"/>
+      <c r="D52" s="165"/>
+      <c r="E52" s="165"/>
+      <c r="F52" s="164"/>
+      <c r="G52" s="164"/>
+      <c r="H52" s="164"/>
+      <c r="I52" s="164"/>
+      <c r="J52" s="164"/>
+      <c r="K52" s="164"/>
+      <c r="L52" s="164"/>
+      <c r="M52" s="164"/>
+      <c r="N52" s="164"/>
+      <c r="O52" s="164"/>
     </row>
     <row r="53" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B53" s="147"/>
-      <c r="C53" s="159"/>
-      <c r="D53" s="159"/>
-      <c r="E53" s="159"/>
-      <c r="F53" s="158"/>
-      <c r="G53" s="158"/>
-      <c r="H53" s="158"/>
-      <c r="I53" s="158"/>
-      <c r="J53" s="158"/>
-      <c r="K53" s="158"/>
-      <c r="L53" s="158"/>
-      <c r="M53" s="158"/>
-      <c r="N53" s="158"/>
-      <c r="O53" s="158"/>
+      <c r="B53" s="168"/>
+      <c r="C53" s="165"/>
+      <c r="D53" s="165"/>
+      <c r="E53" s="165"/>
+      <c r="F53" s="164"/>
+      <c r="G53" s="164"/>
+      <c r="H53" s="164"/>
+      <c r="I53" s="164"/>
+      <c r="J53" s="164"/>
+      <c r="K53" s="164"/>
+      <c r="L53" s="164"/>
+      <c r="M53" s="164"/>
+      <c r="N53" s="164"/>
+      <c r="O53" s="164"/>
     </row>
     <row r="54" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B54" s="147"/>
-      <c r="C54" s="159"/>
-      <c r="D54" s="159"/>
-      <c r="E54" s="159"/>
-      <c r="F54" s="158"/>
-      <c r="G54" s="158"/>
-      <c r="H54" s="158"/>
-      <c r="I54" s="158"/>
-      <c r="J54" s="158"/>
-      <c r="K54" s="158"/>
-      <c r="L54" s="158"/>
-      <c r="M54" s="158"/>
-      <c r="N54" s="158"/>
-      <c r="O54" s="158"/>
+      <c r="B54" s="168"/>
+      <c r="C54" s="165"/>
+      <c r="D54" s="165"/>
+      <c r="E54" s="165"/>
+      <c r="F54" s="164"/>
+      <c r="G54" s="164"/>
+      <c r="H54" s="164"/>
+      <c r="I54" s="164"/>
+      <c r="J54" s="164"/>
+      <c r="K54" s="164"/>
+      <c r="L54" s="164"/>
+      <c r="M54" s="164"/>
+      <c r="N54" s="164"/>
+      <c r="O54" s="164"/>
     </row>
     <row r="55" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="147"/>
-      <c r="C55" s="159"/>
-      <c r="D55" s="159"/>
-      <c r="E55" s="159"/>
-      <c r="F55" s="158"/>
-      <c r="G55" s="158"/>
-      <c r="H55" s="158"/>
-      <c r="I55" s="158"/>
-      <c r="J55" s="158"/>
-      <c r="K55" s="158"/>
-      <c r="L55" s="158"/>
-      <c r="M55" s="158"/>
-      <c r="N55" s="158"/>
-      <c r="O55" s="158"/>
+      <c r="B55" s="168"/>
+      <c r="C55" s="165"/>
+      <c r="D55" s="165"/>
+      <c r="E55" s="165"/>
+      <c r="F55" s="164"/>
+      <c r="G55" s="164"/>
+      <c r="H55" s="164"/>
+      <c r="I55" s="164"/>
+      <c r="J55" s="164"/>
+      <c r="K55" s="164"/>
+      <c r="L55" s="164"/>
+      <c r="M55" s="164"/>
+      <c r="N55" s="164"/>
+      <c r="O55" s="164"/>
     </row>
     <row r="56" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B56" s="147"/>
-      <c r="C56" s="159"/>
-      <c r="D56" s="159"/>
-      <c r="E56" s="159"/>
-      <c r="F56" s="158"/>
-      <c r="G56" s="158"/>
-      <c r="H56" s="158"/>
-      <c r="I56" s="158"/>
-      <c r="J56" s="158"/>
-      <c r="K56" s="158"/>
-      <c r="L56" s="158"/>
-      <c r="M56" s="158"/>
-      <c r="N56" s="158"/>
-      <c r="O56" s="158"/>
+      <c r="B56" s="168"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
+      <c r="E56" s="165"/>
+      <c r="F56" s="164"/>
+      <c r="G56" s="164"/>
+      <c r="H56" s="164"/>
+      <c r="I56" s="164"/>
+      <c r="J56" s="164"/>
+      <c r="K56" s="164"/>
+      <c r="L56" s="164"/>
+      <c r="M56" s="164"/>
+      <c r="N56" s="164"/>
+      <c r="O56" s="164"/>
     </row>
     <row r="57" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="147"/>
-      <c r="C57" s="159"/>
-      <c r="D57" s="159"/>
-      <c r="E57" s="159"/>
-      <c r="F57" s="158"/>
-      <c r="G57" s="158"/>
-      <c r="H57" s="158"/>
-      <c r="I57" s="158"/>
-      <c r="J57" s="158"/>
-      <c r="K57" s="158"/>
-      <c r="L57" s="158"/>
-      <c r="M57" s="158"/>
-      <c r="N57" s="158"/>
-      <c r="O57" s="158"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="165"/>
+      <c r="D57" s="165"/>
+      <c r="E57" s="165"/>
+      <c r="F57" s="164"/>
+      <c r="G57" s="164"/>
+      <c r="H57" s="164"/>
+      <c r="I57" s="164"/>
+      <c r="J57" s="164"/>
+      <c r="K57" s="164"/>
+      <c r="L57" s="164"/>
+      <c r="M57" s="164"/>
+      <c r="N57" s="164"/>
+      <c r="O57" s="164"/>
     </row>
     <row r="58" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B58" s="147"/>
-      <c r="C58" s="159"/>
-      <c r="D58" s="159"/>
-      <c r="E58" s="159"/>
-      <c r="F58" s="158"/>
-      <c r="G58" s="158"/>
-      <c r="H58" s="158"/>
-      <c r="I58" s="158"/>
-      <c r="J58" s="158"/>
-      <c r="K58" s="158"/>
-      <c r="L58" s="158"/>
-      <c r="M58" s="158"/>
-      <c r="N58" s="158"/>
-      <c r="O58" s="158"/>
+      <c r="B58" s="168"/>
+      <c r="C58" s="165"/>
+      <c r="D58" s="165"/>
+      <c r="E58" s="165"/>
+      <c r="F58" s="164"/>
+      <c r="G58" s="164"/>
+      <c r="H58" s="164"/>
+      <c r="I58" s="164"/>
+      <c r="J58" s="164"/>
+      <c r="K58" s="164"/>
+      <c r="L58" s="164"/>
+      <c r="M58" s="164"/>
+      <c r="N58" s="164"/>
+      <c r="O58" s="164"/>
     </row>
     <row r="59" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B59" s="147"/>
-      <c r="C59" s="159"/>
-      <c r="D59" s="159"/>
-      <c r="E59" s="159"/>
-      <c r="F59" s="158"/>
-      <c r="G59" s="158"/>
-      <c r="H59" s="158"/>
-      <c r="I59" s="158"/>
-      <c r="J59" s="158"/>
-      <c r="K59" s="158"/>
-      <c r="L59" s="158"/>
-      <c r="M59" s="158"/>
-      <c r="N59" s="158"/>
-      <c r="O59" s="158"/>
+      <c r="B59" s="168"/>
+      <c r="C59" s="165"/>
+      <c r="D59" s="165"/>
+      <c r="E59" s="165"/>
+      <c r="F59" s="164"/>
+      <c r="G59" s="164"/>
+      <c r="H59" s="164"/>
+      <c r="I59" s="164"/>
+      <c r="J59" s="164"/>
+      <c r="K59" s="164"/>
+      <c r="L59" s="164"/>
+      <c r="M59" s="164"/>
+      <c r="N59" s="164"/>
+      <c r="O59" s="164"/>
     </row>
     <row r="60" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B60" s="147"/>
-      <c r="C60" s="159"/>
-      <c r="D60" s="159"/>
-      <c r="E60" s="159"/>
-      <c r="F60" s="158"/>
-      <c r="G60" s="158"/>
-      <c r="H60" s="158"/>
-      <c r="I60" s="158"/>
-      <c r="J60" s="158"/>
-      <c r="K60" s="158"/>
-      <c r="L60" s="158"/>
-      <c r="M60" s="158"/>
-      <c r="N60" s="158"/>
-      <c r="O60" s="158"/>
+      <c r="B60" s="168"/>
+      <c r="C60" s="165"/>
+      <c r="D60" s="165"/>
+      <c r="E60" s="165"/>
+      <c r="F60" s="164"/>
+      <c r="G60" s="164"/>
+      <c r="H60" s="164"/>
+      <c r="I60" s="164"/>
+      <c r="J60" s="164"/>
+      <c r="K60" s="164"/>
+      <c r="L60" s="164"/>
+      <c r="M60" s="164"/>
+      <c r="N60" s="164"/>
+      <c r="O60" s="164"/>
     </row>
     <row r="61" spans="2:15" ht="14.25">
       <c r="C61" s="16" t="s">
@@ -5038,57 +5045,41 @@
     </row>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="F21:N22"/>
-    <mergeCell ref="F23:N24"/>
-    <mergeCell ref="F25:N26"/>
-    <mergeCell ref="F27:H28"/>
-    <mergeCell ref="J27:N28"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="K29:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="J43:N43"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="J40:N40"/>
-    <mergeCell ref="J41:N41"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="J39:N39"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="G4:K8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:E8"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="B14:B60"/>
+    <mergeCell ref="C10:G11"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="F55:G57"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H55:I57"/>
+    <mergeCell ref="F58:G60"/>
+    <mergeCell ref="H58:I60"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="F52:G54"/>
+    <mergeCell ref="H52:I54"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="D27:E28"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D29:E36"/>
+    <mergeCell ref="I9:I10"/>
     <mergeCell ref="F49:N50"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D43:E43"/>
@@ -5113,41 +5104,57 @@
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="J42:N42"/>
-    <mergeCell ref="B14:B60"/>
-    <mergeCell ref="C10:G11"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="F55:G57"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H55:I57"/>
-    <mergeCell ref="F58:G60"/>
-    <mergeCell ref="H58:I60"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="F52:G54"/>
-    <mergeCell ref="H52:I54"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="D27:E28"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D29:E36"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="G4:K8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:E8"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="J43:N43"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="J40:N40"/>
+    <mergeCell ref="J41:N41"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="J39:N39"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="F21:N22"/>
+    <mergeCell ref="F23:N24"/>
+    <mergeCell ref="F25:N26"/>
+    <mergeCell ref="F27:H28"/>
+    <mergeCell ref="J27:N28"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="K29:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L12:O12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/controller/src/main/resources/jxls_templates/juecaishu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/juecaishu_shoutuo.xlsx
@@ -16,7 +16,7 @@
     <sheet name="決裁願" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">記入!$A$1:$I$68</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">記入!$A$1:$I$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">決裁願!$A$1:$P$61</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -54,11 +54,11 @@
             <rFont val="ＭＳ Ｐゴシック"/>
             <family val="2"/>
           </rPr>
-          <t>jx:each(items="alist", var="t", lastCell="F44")</t>
+          <t>jx:each(items="alist", var="t", lastCell="H44")</t>
         </r>
       </text>
     </comment>
-    <comment ref="D50" authorId="1" shapeId="0">
+    <comment ref="D49" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F67" authorId="1" shapeId="0">
+    <comment ref="F66" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="189">
   <si>
     <t>委託元（和文）</t>
     <rPh sb="4" eb="6">
@@ -612,22 +612,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>合計</t>
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
@@ -651,13 +635,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>タンカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>経費</t>
-    <rPh sb="0" eb="2">
-      <t>ケイヒ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1368,6 +1345,70 @@
   </si>
   <si>
     <t>${aw.scheduleddate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[0].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[1].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[2].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[3].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[4].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[5].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[6].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[7].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[0].depart}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[1].depart}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[2].depart}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[3].depart}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[4].depart}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[5].depart}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[6].depart}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[7].depart}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1866,7 +1907,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2043,18 +2084,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2102,10 +2131,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2141,9 +2166,6 @@
     </xf>
     <xf numFmtId="40" fontId="6" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="181" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -2489,6 +2511,9 @@
     </xf>
     <xf numFmtId="31" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2799,10 +2824,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2818,28 +2843,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="98" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="98"/>
-      <c r="G1" s="100" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" s="101"/>
+      <c r="A1" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="G1" s="95" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="96"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="30"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="98"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" s="31" t="s">
@@ -2849,58 +2874,58 @@
       <c r="C3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="102"/>
-      <c r="H3" s="103"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="98"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="102"/>
-      <c r="H4" s="103"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="98"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
       <c r="A5" s="29" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B5" s="51"/>
       <c r="C5" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="102"/>
-      <c r="H5" s="103"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="98"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="A6" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="85" t="s">
-        <v>129</v>
+        <v>87</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>124</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="102"/>
-      <c r="H6" s="103"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="98"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="A7" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="85" t="s">
-        <v>130</v>
+        <v>88</v>
+      </c>
+      <c r="B7" s="81" t="s">
+        <v>125</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="102"/>
-      <c r="H7" s="103"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="98"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8" s="29" t="s">
@@ -2910,60 +2935,60 @@
       <c r="C8" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="102"/>
-      <c r="H8" s="103"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="98"/>
     </row>
     <row r="9" spans="1:8" s="34" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="31" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C9" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="102"/>
-      <c r="H9" s="103"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="98"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="A10" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="85" t="s">
-        <v>132</v>
+      <c r="B10" s="81" t="s">
+        <v>127</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="102"/>
-      <c r="H10" s="103"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="98"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
       <c r="A11" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="85" t="s">
-        <v>133</v>
+      <c r="B11" s="81" t="s">
+        <v>128</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="102"/>
-      <c r="H11" s="103"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="98"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
       <c r="A12" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="85" t="s">
-        <v>134</v>
+      <c r="B12" s="81" t="s">
+        <v>129</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="102"/>
-      <c r="H12" s="103"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="98"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="A13" s="29" t="s">
@@ -2973,34 +2998,34 @@
       <c r="C13" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="102"/>
-      <c r="H13" s="103"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="98"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
       <c r="A14" s="29" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="102"/>
-      <c r="H14" s="103"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="98"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="102"/>
-      <c r="H15" s="103"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="98"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
       <c r="A16" s="29" t="s">
@@ -3010,8 +3035,8 @@
       <c r="C16" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="102"/>
-      <c r="H16" s="103"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="98"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
       <c r="A17" s="29" t="s">
@@ -3021,102 +3046,102 @@
       <c r="C17" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="102"/>
-      <c r="H17" s="103"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="98"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
       <c r="A18" s="29" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B18" s="52"/>
       <c r="C18" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="102"/>
-      <c r="H18" s="103"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="98"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="85" t="s">
-        <v>135</v>
+      <c r="B19" s="81" t="s">
+        <v>130</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="102"/>
-      <c r="H19" s="103"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="98"/>
     </row>
     <row r="20" spans="1:8" s="34" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="86" t="s">
-        <v>136</v>
+      <c r="B20" s="82" t="s">
+        <v>131</v>
       </c>
       <c r="C20" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="102"/>
-      <c r="H20" s="103"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="98"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1">
       <c r="A21" s="29" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B21" s="52"/>
       <c r="C21" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="102"/>
-      <c r="H21" s="103"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="98"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1">
       <c r="A22" s="29" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B22" s="52"/>
       <c r="C22" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="102"/>
-      <c r="H22" s="103"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="98"/>
     </row>
     <row r="23" spans="1:8" s="34" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="31" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B23" s="54"/>
       <c r="C23" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="102"/>
-      <c r="H23" s="103"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="98"/>
     </row>
     <row r="24" spans="1:8" s="34" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="31" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B24" s="49"/>
       <c r="C24" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="102"/>
-      <c r="H24" s="103"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="98"/>
     </row>
     <row r="25" spans="1:8" s="34" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="31" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="102"/>
-      <c r="H25" s="103"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="98"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1">
       <c r="A26" s="31" t="s">
@@ -3128,128 +3153,128 @@
       <c r="C26" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="102"/>
-      <c r="H26" s="103"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="98"/>
     </row>
     <row r="27" spans="1:8" ht="3" customHeight="1">
       <c r="A27" s="35"/>
       <c r="B27" s="28"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="103"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="98"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="G28" s="102"/>
-      <c r="H28" s="103"/>
+        <v>77</v>
+      </c>
+      <c r="G28" s="97"/>
+      <c r="H28" s="98"/>
     </row>
     <row r="29" spans="1:8" ht="13.5" customHeight="1">
       <c r="A29" s="56" t="str">
         <f>IF(B29="","","第一回")</f>
         <v>第一回</v>
       </c>
-      <c r="B29" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="C29" s="87" t="s">
-        <v>163</v>
-      </c>
-      <c r="D29" s="88" t="s">
-        <v>164</v>
-      </c>
-      <c r="E29" s="88" t="s">
-        <v>165</v>
-      </c>
-      <c r="F29" s="89" t="s">
-        <v>166</v>
-      </c>
-      <c r="G29" s="102"/>
-      <c r="H29" s="103"/>
+      <c r="B29" s="83" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="84" t="s">
+        <v>159</v>
+      </c>
+      <c r="E29" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="F29" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" s="97"/>
+      <c r="H29" s="98"/>
     </row>
     <row r="30" spans="1:8" ht="13.5" customHeight="1">
       <c r="A30" s="56" t="str">
         <f>IF(B30="","","第二回")</f>
         <v>第二回</v>
       </c>
-      <c r="B30" s="87" t="s">
-        <v>158</v>
-      </c>
-      <c r="C30" s="87" t="s">
-        <v>159</v>
-      </c>
-      <c r="D30" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="E30" s="88" t="s">
-        <v>161</v>
-      </c>
-      <c r="F30" s="89" t="s">
-        <v>162</v>
-      </c>
-      <c r="G30" s="102"/>
-      <c r="H30" s="103"/>
+      <c r="B30" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" s="84" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30" s="84" t="s">
+        <v>156</v>
+      </c>
+      <c r="F30" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="G30" s="97"/>
+      <c r="H30" s="98"/>
     </row>
     <row r="31" spans="1:8" ht="13.5" customHeight="1">
       <c r="A31" s="56" t="str">
         <f>IF(B31="","","第三回")</f>
         <v>第三回</v>
       </c>
-      <c r="B31" s="87" t="s">
-        <v>156</v>
-      </c>
-      <c r="C31" s="87" t="s">
-        <v>167</v>
-      </c>
-      <c r="D31" s="88" t="s">
-        <v>168</v>
-      </c>
-      <c r="E31" s="88" t="s">
-        <v>169</v>
-      </c>
-      <c r="F31" s="89" t="s">
-        <v>170</v>
-      </c>
-      <c r="G31" s="102"/>
-      <c r="H31" s="103"/>
+      <c r="B31" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="83" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="84" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F31" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="G31" s="97"/>
+      <c r="H31" s="98"/>
     </row>
     <row r="32" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
       <c r="A32" s="56" t="str">
         <f>IF(B32="","","第四回")</f>
         <v>第四回</v>
       </c>
-      <c r="B32" s="87" t="s">
-        <v>157</v>
-      </c>
-      <c r="C32" s="87" t="s">
-        <v>171</v>
-      </c>
-      <c r="D32" s="88" t="s">
-        <v>172</v>
-      </c>
-      <c r="E32" s="88" t="s">
-        <v>173</v>
-      </c>
-      <c r="F32" s="89" t="s">
-        <v>174</v>
-      </c>
-      <c r="G32" s="104"/>
-      <c r="H32" s="105"/>
+      <c r="B32" s="83" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="83" t="s">
+        <v>166</v>
+      </c>
+      <c r="D32" s="84" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32" s="84" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="G32" s="99"/>
+      <c r="H32" s="100"/>
     </row>
     <row r="33" spans="1:8" ht="6.75" customHeight="1">
       <c r="A33" s="38"/>
@@ -3263,54 +3288,54 @@
       <c r="A35" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="85" t="s">
-        <v>175</v>
-      </c>
-      <c r="C35" s="106" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="107"/>
-      <c r="E35" s="112" t="s">
-        <v>141</v>
-      </c>
-      <c r="F35" s="113"/>
-      <c r="G35" s="113"/>
-      <c r="H35" s="113"/>
+      <c r="B35" s="81" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="101" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="102"/>
+      <c r="E35" s="107" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" s="108"/>
+      <c r="G35" s="108"/>
+      <c r="H35" s="108"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="85" t="s">
-        <v>137</v>
-      </c>
-      <c r="C36" s="108"/>
-      <c r="D36" s="109"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="115"/>
-      <c r="H36" s="115"/>
+      <c r="B36" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="103"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="109"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="110"/>
+      <c r="H36" s="110"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="41" t="s">
         <v>46</v>
       </c>
       <c r="B37" s="58" t="s">
-        <v>176</v>
-      </c>
-      <c r="C37" s="110"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="117"/>
-      <c r="G37" s="117"/>
-      <c r="H37" s="117"/>
+        <v>171</v>
+      </c>
+      <c r="C37" s="105"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="112"/>
+      <c r="H37" s="112"/>
     </row>
     <row r="38" spans="1:8" ht="13.5">
       <c r="A38" s="42" t="s">
         <v>48</v>
       </c>
       <c r="B38" s="58" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C38" s="30"/>
     </row>
@@ -3318,8 +3343,8 @@
       <c r="A39" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="85" t="s">
-        <v>138</v>
+      <c r="B39" s="81" t="s">
+        <v>133</v>
       </c>
       <c r="C39" s="28"/>
       <c r="D39" s="28"/>
@@ -3328,8 +3353,8 @@
       <c r="A40" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="85" t="s">
-        <v>139</v>
+      <c r="B40" s="81" t="s">
+        <v>134</v>
       </c>
       <c r="C40" s="28"/>
       <c r="D40" s="28"/>
@@ -3338,68 +3363,68 @@
       <c r="A41" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="85" t="s">
-        <v>140</v>
+      <c r="B41" s="81" t="s">
+        <v>135</v>
       </c>
       <c r="C41" s="28"/>
       <c r="D41" s="28"/>
     </row>
     <row r="42" spans="1:8" s="39" customFormat="1" ht="14.25">
-      <c r="A42" s="97" t="s">
+      <c r="A42" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="97" t="s">
+      <c r="B42" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="94" t="s">
+      <c r="C42" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="99" t="s">
+      <c r="D42" s="90"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="91"/>
+      <c r="G42" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="H42" s="97" t="s">
+      <c r="H42" s="92" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.25">
-      <c r="A43" s="97"/>
-      <c r="B43" s="97"/>
+      <c r="A43" s="92"/>
+      <c r="B43" s="92"/>
       <c r="C43" s="43" t="s">
         <v>65</v>
       </c>
       <c r="D43" s="43" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E43" s="43" t="s">
         <v>66</v>
       </c>
       <c r="F43" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="G43" s="97"/>
-      <c r="H43" s="97"/>
+        <v>71</v>
+      </c>
+      <c r="G43" s="92"/>
+      <c r="H43" s="92"/>
     </row>
     <row r="44" spans="1:8" ht="14.25">
-      <c r="A44" s="84" t="s">
+      <c r="A44" s="80" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="199" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="86" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="B44" s="90" t="s">
-        <v>148</v>
-      </c>
-      <c r="C44" s="91" t="s">
-        <v>151</v>
-      </c>
-      <c r="D44" s="91" t="s">
-        <v>152</v>
-      </c>
-      <c r="E44" s="91" t="s">
-        <v>149</v>
-      </c>
-      <c r="F44" s="91" t="s">
-        <v>150</v>
+      <c r="E44" s="86" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44" s="86" t="s">
+        <v>145</v>
       </c>
       <c r="G44" s="44" t="e">
         <f>C44+E44</f>
@@ -3410,306 +3435,313 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="14.25">
-      <c r="A45" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" s="60" t="s">
+    <row r="45" spans="1:8" ht="15">
+      <c r="A45" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="F45" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="G45" s="44" t="s">
+      <c r="B45" s="88"/>
+      <c r="C45" s="46">
+        <f>SUM(C44:C44)</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="H45" s="61"/>
-    </row>
-    <row r="46" spans="1:8" ht="15">
-      <c r="A46" s="92" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" s="93"/>
-      <c r="C46" s="46">
-        <f>SUM(C44:C45)</f>
+      <c r="E45" s="46">
+        <f>SUM(E44:E44)</f>
         <v>0</v>
       </c>
-      <c r="D46" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="E46" s="46">
-        <f>SUM(E44:E45)</f>
+      <c r="F45" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="G45" s="46" t="e">
+        <f>SUM(G44:G44)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H45" s="47" t="e">
+        <f>SUM(H44:H44)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="C47" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" s="64" t="e">
+        <f>IF(B19="US$",H45*D47,H45)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="C48" s="65"/>
+      <c r="D48" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+    </row>
+    <row r="49" spans="3:8" ht="24">
+      <c r="C49" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+    </row>
+    <row r="50" spans="3:8">
+      <c r="C50" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="E50" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+    </row>
+    <row r="51" spans="3:8">
+      <c r="C51" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="E51" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
+    </row>
+    <row r="52" spans="3:8">
+      <c r="C52" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="73" t="s">
+        <v>175</v>
+      </c>
+      <c r="E52" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="65"/>
+    </row>
+    <row r="53" spans="3:8">
+      <c r="C53" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" s="73" t="s">
+        <v>176</v>
+      </c>
+      <c r="E53" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="F53" s="65"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="65"/>
+    </row>
+    <row r="54" spans="3:8">
+      <c r="C54" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54" s="73" t="s">
+        <v>177</v>
+      </c>
+      <c r="E54" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="F54" s="65"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="65"/>
+    </row>
+    <row r="55" spans="3:8">
+      <c r="C55" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" s="73" t="s">
+        <v>178</v>
+      </c>
+      <c r="E55" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+    </row>
+    <row r="56" spans="3:8">
+      <c r="C56" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="73" t="s">
+        <v>179</v>
+      </c>
+      <c r="E56" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="F56" s="65"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
+    </row>
+    <row r="57" spans="3:8">
+      <c r="C57" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="73" t="s">
+        <v>180</v>
+      </c>
+      <c r="E57" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+    </row>
+    <row r="58" spans="3:8">
+      <c r="C58" s="114" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" s="114"/>
+      <c r="E58" s="68">
+        <f>SUM(E50:E57)</f>
         <v>0</v>
       </c>
-      <c r="F46" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="G46" s="46" t="e">
-        <f>SUM(G44:G45)</f>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="65"/>
+    </row>
+    <row r="59" spans="3:8">
+      <c r="C59" s="113" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="115"/>
+      <c r="E59" s="69" t="e">
+        <f>D51*E51+D52*E52+D53*E53+D54*E54+D55*E55+D56*E56+D57*E57</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H46" s="47" t="e">
-        <f>SUM(H44:H45)</f>
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+    </row>
+    <row r="60" spans="3:8">
+      <c r="C60" s="62"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="71"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="65"/>
+    </row>
+    <row r="61" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C61" s="114" t="s">
+        <v>108</v>
+      </c>
+      <c r="D61" s="114"/>
+      <c r="E61" s="82" t="s">
+        <v>138</v>
+      </c>
+      <c r="F61" s="65"/>
+      <c r="G61" s="65"/>
+      <c r="H61" s="65"/>
+    </row>
+    <row r="62" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C62" s="114" t="s">
+        <v>105</v>
+      </c>
+      <c r="D62" s="114"/>
+      <c r="E62" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="F62" s="65"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="65"/>
+    </row>
+    <row r="63" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C63" s="114" t="s">
+        <v>107</v>
+      </c>
+      <c r="D63" s="114"/>
+      <c r="E63" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="F63" s="65"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="65"/>
+    </row>
+    <row r="64" spans="3:8">
+      <c r="C64" s="114" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64" s="114"/>
+      <c r="E64" s="68" t="e">
+        <f>E61/E62</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="C48" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="D48" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="E48" s="62" t="s">
+      <c r="F64" s="65"/>
+      <c r="G64" s="65"/>
+      <c r="H64" s="65"/>
+    </row>
+    <row r="65" spans="3:8">
+      <c r="C65" s="62"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="71"/>
+      <c r="F65" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="G65" s="65"/>
+      <c r="H65" s="65"/>
+    </row>
+    <row r="66" spans="3:8" ht="13.5" customHeight="1">
+      <c r="C66" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="D66" s="115"/>
+      <c r="E66" s="72" t="e">
+        <f>(F47-E59-E61)/F47</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F66" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="F48" s="67" t="e">
-        <f>IF(B19="US$",H46*D48,H46)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G48" s="68"/>
-      <c r="H48" s="68"/>
-    </row>
-    <row r="49" spans="3:8">
-      <c r="C49" s="68"/>
-      <c r="D49" s="83" t="s">
-        <v>126</v>
-      </c>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-    </row>
-    <row r="50" spans="3:8" ht="24">
-      <c r="C50" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="D50" s="64" t="s">
-        <v>106</v>
-      </c>
-      <c r="E50" s="63" t="s">
-        <v>104</v>
-      </c>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-    </row>
-    <row r="51" spans="3:8">
-      <c r="C51" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="D51" s="76"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="68"/>
-      <c r="H51" s="68"/>
-    </row>
-    <row r="52" spans="3:8">
-      <c r="C52" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="D52" s="77"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="68"/>
-    </row>
-    <row r="53" spans="3:8">
-      <c r="C53" s="69" t="s">
-        <v>116</v>
-      </c>
-      <c r="D53" s="77"/>
-      <c r="E53" s="66"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="68"/>
-      <c r="H53" s="68"/>
-    </row>
-    <row r="54" spans="3:8">
-      <c r="C54" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="D54" s="77"/>
-      <c r="E54" s="66"/>
-      <c r="F54" s="68"/>
-      <c r="G54" s="68"/>
-      <c r="H54" s="68"/>
-    </row>
-    <row r="55" spans="3:8">
-      <c r="C55" s="69" t="s">
-        <v>118</v>
-      </c>
-      <c r="D55" s="77"/>
-      <c r="E55" s="66"/>
-      <c r="F55" s="68"/>
-      <c r="G55" s="68"/>
-      <c r="H55" s="68"/>
-    </row>
-    <row r="56" spans="3:8">
-      <c r="C56" s="70" t="s">
-        <v>119</v>
-      </c>
-      <c r="D56" s="77"/>
-      <c r="E56" s="66"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="68"/>
-      <c r="H56" s="68"/>
-    </row>
-    <row r="57" spans="3:8">
-      <c r="C57" s="69" t="s">
-        <v>120</v>
-      </c>
-      <c r="D57" s="77"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="68"/>
-    </row>
-    <row r="58" spans="3:8">
-      <c r="C58" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="D58" s="77"/>
-      <c r="E58" s="66"/>
-      <c r="F58" s="68"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="68"/>
-    </row>
-    <row r="59" spans="3:8">
-      <c r="C59" s="119" t="s">
-        <v>105</v>
-      </c>
-      <c r="D59" s="119"/>
-      <c r="E59" s="71">
-        <f>SUM(E51:E58)</f>
-        <v>0</v>
-      </c>
-      <c r="F59" s="68"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="68"/>
-    </row>
-    <row r="60" spans="3:8">
-      <c r="C60" s="118" t="s">
-        <v>109</v>
-      </c>
-      <c r="D60" s="120"/>
-      <c r="E60" s="72">
-        <f>D52*E52+D53*E53+D54*E54+D55*E55+D56*E56+D57*E57+D58*E58</f>
-        <v>0</v>
-      </c>
-      <c r="F60" s="68"/>
-      <c r="G60" s="68"/>
-      <c r="H60" s="68"/>
-    </row>
-    <row r="61" spans="3:8">
-      <c r="C61" s="65"/>
-      <c r="D61" s="73"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="68"/>
-      <c r="G61" s="68"/>
-      <c r="H61" s="68"/>
-    </row>
-    <row r="62" spans="3:8" ht="14.25" customHeight="1">
-      <c r="C62" s="119" t="s">
-        <v>113</v>
-      </c>
-      <c r="D62" s="119"/>
-      <c r="E62" s="86" t="s">
-        <v>143</v>
-      </c>
-      <c r="F62" s="68"/>
-      <c r="G62" s="68"/>
-      <c r="H62" s="68"/>
-    </row>
-    <row r="63" spans="3:8" ht="14.25" customHeight="1">
-      <c r="C63" s="119" t="s">
-        <v>110</v>
-      </c>
-      <c r="D63" s="119"/>
-      <c r="E63" s="86" t="s">
-        <v>144</v>
-      </c>
-      <c r="F63" s="68"/>
-      <c r="G63" s="68"/>
-      <c r="H63" s="68"/>
-    </row>
-    <row r="64" spans="3:8" ht="14.25" customHeight="1">
-      <c r="C64" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="D64" s="119"/>
-      <c r="E64" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="F64" s="68"/>
-      <c r="G64" s="68"/>
-      <c r="H64" s="68"/>
-    </row>
-    <row r="65" spans="3:8">
-      <c r="C65" s="119" t="s">
-        <v>111</v>
-      </c>
-      <c r="D65" s="119"/>
-      <c r="E65" s="71" t="e">
-        <f>E62/E63</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F65" s="68"/>
-      <c r="G65" s="68"/>
-      <c r="H65" s="68"/>
-    </row>
-    <row r="66" spans="3:8">
-      <c r="C66" s="65"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="G66" s="68"/>
-      <c r="H66" s="68"/>
-    </row>
-    <row r="67" spans="3:8" ht="13.5" customHeight="1">
-      <c r="C67" s="118" t="s">
-        <v>108</v>
-      </c>
-      <c r="D67" s="120"/>
-      <c r="E67" s="75" t="e">
-        <f>(F48-E60-E62)/F48</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F67" s="118" t="s">
-        <v>107</v>
-      </c>
-      <c r="G67" s="118"/>
-      <c r="H67" s="67" t="s">
-        <v>146</v>
+      <c r="G66" s="113"/>
+      <c r="H66" s="64" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="H45" name="範囲4"/>
     <protectedRange sqref="A44" name="範囲3_1"/>
     <protectedRange sqref="E44:F44" name="範囲3_2"/>
     <protectedRange sqref="C44:D44" name="範囲3_3"/>
   </protectedRanges>
   <mergeCells count="18">
-    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C62:D62"/>
     <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="A45:B45"/>
     <mergeCell ref="C42:F42"/>
     <mergeCell ref="H42:H43"/>
     <mergeCell ref="A1:B1"/>
@@ -3741,8 +3773,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:K8"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38:N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3774,7 +3806,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="23" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -3788,12 +3820,12 @@
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="1"/>
-      <c r="C3" s="187" t="s">
+      <c r="C3" s="182" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="192" t="s">
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="187" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="21" t="s">
@@ -3803,104 +3835,104 @@
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
       <c r="K3" s="17"/>
-      <c r="L3" s="128" t="s">
+      <c r="L3" s="123" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="129"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="130"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="125"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="1"/>
-      <c r="C4" s="188"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="188"/>
-      <c r="G4" s="182"/>
-      <c r="H4" s="183"/>
-      <c r="I4" s="183"/>
-      <c r="J4" s="183"/>
-      <c r="K4" s="184"/>
-      <c r="L4" s="201" t="str">
+      <c r="C4" s="183"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="186"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="178"/>
+      <c r="J4" s="178"/>
+      <c r="K4" s="179"/>
+      <c r="L4" s="196" t="str">
         <f>記入!B37</f>
         <v>${aw.draftingdate}</v>
       </c>
-      <c r="M4" s="202"/>
-      <c r="N4" s="202"/>
-      <c r="O4" s="203"/>
+      <c r="M4" s="197"/>
+      <c r="N4" s="197"/>
+      <c r="O4" s="198"/>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="1"/>
-      <c r="C5" s="188"/>
-      <c r="D5" s="191"/>
-      <c r="E5" s="191"/>
-      <c r="F5" s="188"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="183"/>
-      <c r="I5" s="183"/>
-      <c r="J5" s="183"/>
-      <c r="K5" s="184"/>
-      <c r="L5" s="128" t="s">
+      <c r="C5" s="183"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
+      <c r="J5" s="178"/>
+      <c r="K5" s="179"/>
+      <c r="L5" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="129"/>
-      <c r="N5" s="129"/>
-      <c r="O5" s="130"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="125"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="1"/>
-      <c r="C6" s="188"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="191"/>
-      <c r="F6" s="192" t="s">
+      <c r="C6" s="183"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="186"/>
+      <c r="F6" s="187" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="182"/>
-      <c r="H6" s="183"/>
-      <c r="I6" s="183"/>
-      <c r="J6" s="183"/>
-      <c r="K6" s="184"/>
-      <c r="L6" s="193" t="str">
+      <c r="G6" s="177"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="178"/>
+      <c r="K6" s="179"/>
+      <c r="L6" s="188" t="str">
         <f>記入!B38</f>
         <v>${aw.scheduleddate}</v>
       </c>
-      <c r="M6" s="194"/>
-      <c r="N6" s="194"/>
-      <c r="O6" s="195"/>
+      <c r="M6" s="189"/>
+      <c r="N6" s="189"/>
+      <c r="O6" s="190"/>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="1"/>
-      <c r="C7" s="188"/>
-      <c r="D7" s="191"/>
-      <c r="E7" s="191"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
-      <c r="J7" s="183"/>
-      <c r="K7" s="184"/>
-      <c r="L7" s="196" t="s">
+      <c r="C7" s="183"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="186"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="178"/>
+      <c r="I7" s="178"/>
+      <c r="J7" s="178"/>
+      <c r="K7" s="179"/>
+      <c r="L7" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="178"/>
-      <c r="N7" s="178"/>
-      <c r="O7" s="197"/>
+      <c r="M7" s="173"/>
+      <c r="N7" s="173"/>
+      <c r="O7" s="192"/>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="1"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="191"/>
-      <c r="E8" s="191"/>
-      <c r="F8" s="189"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="185"/>
-      <c r="J8" s="185"/>
-      <c r="K8" s="186"/>
-      <c r="L8" s="198"/>
-      <c r="M8" s="199"/>
-      <c r="N8" s="199"/>
-      <c r="O8" s="200"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="186"/>
+      <c r="E8" s="186"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="180"/>
+      <c r="I8" s="180"/>
+      <c r="J8" s="180"/>
+      <c r="K8" s="181"/>
+      <c r="L8" s="193"/>
+      <c r="M8" s="194"/>
+      <c r="N8" s="194"/>
+      <c r="O8" s="195"/>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="1"/>
@@ -3911,76 +3943,76 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="121" t="s">
+      <c r="H9" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="121" t="s">
+      <c r="I9" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="121" t="s">
+      <c r="J9" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="122" t="s">
+      <c r="K9" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="128" t="s">
+      <c r="L9" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="129"/>
-      <c r="N9" s="126" t="str">
+      <c r="M9" s="124"/>
+      <c r="N9" s="121" t="str">
         <f>記入!B39</f>
         <v>${aw.plan}</v>
       </c>
-      <c r="O9" s="127"/>
+      <c r="O9" s="122"/>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="1"/>
-      <c r="C10" s="169" t="str">
+      <c r="C10" s="164" t="str">
         <f>記入!B9</f>
         <v>${aw.deployment}</v>
       </c>
-      <c r="D10" s="170"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="170"/>
-      <c r="G10" s="171"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="128" t="s">
+      <c r="D10" s="165"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="165"/>
+      <c r="G10" s="166"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="129"/>
-      <c r="N10" s="129"/>
-      <c r="O10" s="130"/>
+      <c r="M10" s="124"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="125"/>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="1"/>
-      <c r="C11" s="172"/>
-      <c r="D11" s="173"/>
-      <c r="E11" s="173"/>
-      <c r="F11" s="173"/>
-      <c r="G11" s="174"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121" t="str">
+      <c r="C11" s="167"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="168"/>
+      <c r="F11" s="168"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116" t="str">
         <f>記入!B35</f>
         <v>${aw.user_id}</v>
       </c>
-      <c r="K11" s="125" t="str">
+      <c r="K11" s="120" t="str">
         <f>記入!B36</f>
         <v>${aw.telephone}</v>
       </c>
-      <c r="L11" s="123" t="str">
+      <c r="L11" s="118" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M11" s="124"/>
-      <c r="N11" s="131" t="str">
+      <c r="M11" s="119"/>
+      <c r="N11" s="126" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O11" s="132"/>
+      <c r="O11" s="127"/>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="1"/>
@@ -3991,44 +4023,44 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="133" t="s">
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="134"/>
-      <c r="N12" s="134"/>
-      <c r="O12" s="135"/>
+      <c r="M12" s="129"/>
+      <c r="N12" s="129"/>
+      <c r="O12" s="130"/>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="1"/>
-      <c r="C13" s="175" t="str">
+      <c r="C13" s="170" t="str">
         <f>記入!B10</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="D13" s="176"/>
-      <c r="E13" s="176"/>
-      <c r="F13" s="176"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="123" t="str">
+      <c r="D13" s="171"/>
+      <c r="E13" s="171"/>
+      <c r="F13" s="171"/>
+      <c r="G13" s="172"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="118" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M13" s="124"/>
-      <c r="N13" s="131" t="str">
+      <c r="M13" s="119"/>
+      <c r="N13" s="126" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O13" s="132"/>
+      <c r="O13" s="127"/>
     </row>
     <row r="14" spans="1:15" ht="9" customHeight="1">
-      <c r="B14" s="168" t="s">
+      <c r="B14" s="163" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="9"/>
@@ -4046,7 +4078,7 @@
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="168"/>
+      <c r="B15" s="163"/>
       <c r="C15" s="9"/>
       <c r="D15" s="12" t="s">
         <v>53</v>
@@ -4064,7 +4096,7 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="168"/>
+      <c r="B16" s="163"/>
       <c r="C16" s="9"/>
       <c r="D16" s="12"/>
       <c r="E16" s="10" t="str">
@@ -4083,7 +4115,7 @@
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="168"/>
+      <c r="B17" s="163"/>
       <c r="C17" s="9"/>
       <c r="D17" s="12"/>
       <c r="E17" s="10" t="str">
@@ -4102,11 +4134,11 @@
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="168"/>
+      <c r="B18" s="163"/>
       <c r="C18" s="9"/>
       <c r="D18" s="1"/>
       <c r="E18" s="10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -4120,7 +4152,7 @@
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="2:15" ht="9" customHeight="1">
-      <c r="B19" s="168"/>
+      <c r="B19" s="163"/>
       <c r="C19" s="9"/>
       <c r="D19" s="1"/>
       <c r="E19" s="12"/>
@@ -4136,7 +4168,7 @@
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="168"/>
+      <c r="B20" s="163"/>
       <c r="C20" s="9"/>
       <c r="D20" s="12" t="s">
         <v>35</v>
@@ -4154,219 +4186,219 @@
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="2:15" ht="15" customHeight="1">
-      <c r="B21" s="168"/>
+      <c r="B21" s="163"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="153" t="s">
+      <c r="D21" s="148" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="153"/>
-      <c r="F21" s="136" t="str">
+      <c r="E21" s="148"/>
+      <c r="F21" s="131" t="str">
         <f>記入!B2</f>
         <v>${aw.custojapanese}</v>
       </c>
-      <c r="G21" s="136"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="136"/>
-      <c r="J21" s="136"/>
-      <c r="K21" s="136"/>
-      <c r="L21" s="136"/>
-      <c r="M21" s="136"/>
-      <c r="N21" s="136"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="131"/>
+      <c r="K21" s="131"/>
+      <c r="L21" s="131"/>
+      <c r="M21" s="131"/>
+      <c r="N21" s="131"/>
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="2:15" ht="15" customHeight="1">
-      <c r="B22" s="168"/>
+      <c r="B22" s="163"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="136"/>
-      <c r="K22" s="136"/>
-      <c r="L22" s="136"/>
-      <c r="M22" s="136"/>
-      <c r="N22" s="136"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="131"/>
+      <c r="L22" s="131"/>
+      <c r="M22" s="131"/>
+      <c r="N22" s="131"/>
       <c r="O22" s="4"/>
     </row>
     <row r="23" spans="2:15" ht="15" customHeight="1">
-      <c r="B23" s="168"/>
+      <c r="B23" s="163"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="153" t="s">
+      <c r="D23" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="153"/>
-      <c r="F23" s="136" t="str">
+      <c r="E23" s="148"/>
+      <c r="F23" s="131" t="str">
         <f>C13</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="136"/>
-      <c r="J23" s="136"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="136"/>
-      <c r="M23" s="136"/>
-      <c r="N23" s="136"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="131"/>
+      <c r="K23" s="131"/>
+      <c r="L23" s="131"/>
+      <c r="M23" s="131"/>
+      <c r="N23" s="131"/>
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="2:15" ht="15" customHeight="1">
-      <c r="B24" s="168"/>
+      <c r="B24" s="163"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="136"/>
-      <c r="H24" s="136"/>
-      <c r="I24" s="136"/>
-      <c r="J24" s="136"/>
-      <c r="K24" s="136"/>
-      <c r="L24" s="136"/>
-      <c r="M24" s="136"/>
-      <c r="N24" s="136"/>
+      <c r="D24" s="148"/>
+      <c r="E24" s="148"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
+      <c r="K24" s="131"/>
+      <c r="L24" s="131"/>
+      <c r="M24" s="131"/>
+      <c r="N24" s="131"/>
       <c r="O24" s="4"/>
     </row>
     <row r="25" spans="2:15" ht="15" customHeight="1">
-      <c r="B25" s="168"/>
+      <c r="B25" s="163"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="153" t="s">
+      <c r="D25" s="148" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="153"/>
-      <c r="F25" s="136" t="str">
+      <c r="E25" s="148"/>
+      <c r="F25" s="131" t="str">
         <f>記入!B12</f>
         <v>${aw.user_id}</v>
       </c>
-      <c r="G25" s="136"/>
-      <c r="H25" s="136"/>
-      <c r="I25" s="136"/>
-      <c r="J25" s="136"/>
-      <c r="K25" s="136"/>
-      <c r="L25" s="136"/>
-      <c r="M25" s="136"/>
-      <c r="N25" s="136"/>
+      <c r="G25" s="131"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="131"/>
+      <c r="K25" s="131"/>
+      <c r="L25" s="131"/>
+      <c r="M25" s="131"/>
+      <c r="N25" s="131"/>
       <c r="O25" s="4"/>
     </row>
     <row r="26" spans="2:15" ht="15" customHeight="1">
-      <c r="B26" s="168"/>
+      <c r="B26" s="163"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="136"/>
-      <c r="G26" s="136"/>
-      <c r="H26" s="136"/>
-      <c r="I26" s="136"/>
-      <c r="J26" s="136"/>
-      <c r="K26" s="136"/>
-      <c r="L26" s="136"/>
-      <c r="M26" s="136"/>
-      <c r="N26" s="136"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="131"/>
+      <c r="J26" s="131"/>
+      <c r="K26" s="131"/>
+      <c r="L26" s="131"/>
+      <c r="M26" s="131"/>
+      <c r="N26" s="131"/>
       <c r="O26" s="4"/>
     </row>
     <row r="27" spans="2:15" ht="15" customHeight="1">
-      <c r="B27" s="168"/>
+      <c r="B27" s="163"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="155" t="s">
+      <c r="D27" s="150" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="155"/>
-      <c r="F27" s="137" t="str">
+      <c r="E27" s="150"/>
+      <c r="F27" s="132" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="G27" s="138"/>
-      <c r="H27" s="138"/>
-      <c r="I27" s="179" t="s">
+      <c r="G27" s="133"/>
+      <c r="H27" s="133"/>
+      <c r="I27" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="J27" s="139" t="str">
+      <c r="J27" s="134" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="K27" s="139"/>
-      <c r="L27" s="139"/>
-      <c r="M27" s="139"/>
-      <c r="N27" s="140"/>
+      <c r="K27" s="134"/>
+      <c r="L27" s="134"/>
+      <c r="M27" s="134"/>
+      <c r="N27" s="135"/>
       <c r="O27" s="4"/>
     </row>
     <row r="28" spans="2:15" ht="15" customHeight="1">
-      <c r="B28" s="168"/>
+      <c r="B28" s="163"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="137"/>
-      <c r="G28" s="138"/>
-      <c r="H28" s="138"/>
-      <c r="I28" s="179"/>
-      <c r="J28" s="139"/>
-      <c r="K28" s="139"/>
-      <c r="L28" s="139"/>
-      <c r="M28" s="139"/>
-      <c r="N28" s="140"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="133"/>
+      <c r="H28" s="133"/>
+      <c r="I28" s="174"/>
+      <c r="J28" s="134"/>
+      <c r="K28" s="134"/>
+      <c r="L28" s="134"/>
+      <c r="M28" s="134"/>
+      <c r="N28" s="135"/>
       <c r="O28" s="4"/>
     </row>
     <row r="29" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B29" s="168"/>
+      <c r="B29" s="163"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="146" t="s">
+      <c r="D29" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="143"/>
-      <c r="F29" s="146" t="s">
+      <c r="E29" s="138"/>
+      <c r="F29" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="G29" s="143"/>
-      <c r="H29" s="147" t="s">
+      <c r="G29" s="138"/>
+      <c r="H29" s="142" t="s">
         <v>61</v>
       </c>
-      <c r="I29" s="149" t="s">
+      <c r="I29" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="J29" s="150"/>
-      <c r="K29" s="142" t="s">
+      <c r="J29" s="145"/>
+      <c r="K29" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="L29" s="143"/>
-      <c r="M29" s="146" t="s">
+      <c r="L29" s="138"/>
+      <c r="M29" s="141" t="s">
         <v>58</v>
       </c>
-      <c r="N29" s="143"/>
+      <c r="N29" s="138"/>
       <c r="O29" s="4"/>
     </row>
     <row r="30" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B30" s="168"/>
+      <c r="B30" s="163"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="180"/>
-      <c r="E30" s="181"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="148"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="176"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="140"/>
+      <c r="H30" s="143"/>
       <c r="I30" s="22" t="s">
         <v>65</v>
       </c>
       <c r="J30" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="K30" s="144"/>
-      <c r="L30" s="145"/>
-      <c r="M30" s="151" t="str">
+      <c r="K30" s="139"/>
+      <c r="L30" s="140"/>
+      <c r="M30" s="146" t="str">
         <f>"(" &amp; 記入!B19 &amp; ")"</f>
         <v>(${aw.currencyposition})</v>
       </c>
-      <c r="N30" s="152"/>
+      <c r="N30" s="147"/>
       <c r="O30" s="4"/>
     </row>
     <row r="31" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B31" s="168"/>
+      <c r="B31" s="163"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="180"/>
-      <c r="E31" s="181"/>
-      <c r="F31" s="136" t="str">
+      <c r="D31" s="175"/>
+      <c r="E31" s="176"/>
+      <c r="F31" s="131" t="str">
         <f>記入!A44</f>
         <v>${t.budgetcode}</v>
       </c>
-      <c r="G31" s="136"/>
+      <c r="G31" s="131"/>
       <c r="H31" s="24" t="str">
         <f>記入!B44</f>
         <v>${t.depart}</v>
@@ -4379,28 +4411,28 @@
         <f>記入!E44</f>
         <v>${t.outsource}</v>
       </c>
-      <c r="K31" s="136" t="e">
+      <c r="K31" s="131" t="e">
         <f>記入!G44</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L31" s="136"/>
-      <c r="M31" s="141" t="e">
+      <c r="L31" s="131"/>
+      <c r="M31" s="136" t="e">
         <f>記入!H44</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N31" s="141"/>
+      <c r="N31" s="136"/>
       <c r="O31" s="4"/>
     </row>
     <row r="32" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B32" s="168"/>
+      <c r="B32" s="163"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="180"/>
-      <c r="E32" s="181"/>
-      <c r="F32" s="136" t="e">
+      <c r="D32" s="175"/>
+      <c r="E32" s="176"/>
+      <c r="F32" s="131" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G32" s="136"/>
+      <c r="G32" s="131"/>
       <c r="H32" s="24" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
@@ -4413,28 +4445,28 @@
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K32" s="136" t="e">
+      <c r="K32" s="131" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L32" s="136"/>
-      <c r="M32" s="141" t="e">
+      <c r="L32" s="131"/>
+      <c r="M32" s="136" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="N32" s="141"/>
+      <c r="N32" s="136"/>
       <c r="O32" s="4"/>
     </row>
     <row r="33" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B33" s="168"/>
+      <c r="B33" s="163"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="180"/>
-      <c r="E33" s="181"/>
-      <c r="F33" s="136" t="e">
+      <c r="D33" s="175"/>
+      <c r="E33" s="176"/>
+      <c r="F33" s="131" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G33" s="136"/>
+      <c r="G33" s="131"/>
       <c r="H33" s="24" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
@@ -4447,28 +4479,28 @@
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K33" s="136" t="e">
+      <c r="K33" s="131" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L33" s="136"/>
-      <c r="M33" s="141" t="e">
+      <c r="L33" s="131"/>
+      <c r="M33" s="136" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="N33" s="141"/>
+      <c r="N33" s="136"/>
       <c r="O33" s="4"/>
     </row>
     <row r="34" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B34" s="168"/>
+      <c r="B34" s="163"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="180"/>
-      <c r="E34" s="181"/>
-      <c r="F34" s="136" t="e">
+      <c r="D34" s="175"/>
+      <c r="E34" s="176"/>
+      <c r="F34" s="131" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G34" s="136"/>
+      <c r="G34" s="131"/>
       <c r="H34" s="24" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
@@ -4481,62 +4513,62 @@
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K34" s="136" t="e">
+      <c r="K34" s="131" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L34" s="136"/>
-      <c r="M34" s="141" t="e">
+      <c r="L34" s="131"/>
+      <c r="M34" s="136" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="N34" s="141"/>
+      <c r="N34" s="136"/>
       <c r="O34" s="4"/>
     </row>
     <row r="35" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B35" s="168"/>
+      <c r="B35" s="163"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="180"/>
-      <c r="E35" s="181"/>
-      <c r="F35" s="136" t="str">
-        <f>記入!A45</f>
-        <v>経費</v>
-      </c>
-      <c r="G35" s="136"/>
-      <c r="H35" s="24" t="str">
-        <f>記入!B45</f>
-        <v>-</v>
-      </c>
-      <c r="I35" s="24" t="str">
-        <f>記入!C45</f>
-        <v>-</v>
-      </c>
-      <c r="J35" s="24" t="str">
-        <f>記入!E45</f>
-        <v>-</v>
-      </c>
-      <c r="K35" s="136" t="str">
-        <f>記入!G45</f>
-        <v>-</v>
-      </c>
-      <c r="L35" s="136"/>
-      <c r="M35" s="141">
-        <f>記入!H45</f>
-        <v>0</v>
-      </c>
-      <c r="N35" s="141"/>
+      <c r="D35" s="175"/>
+      <c r="E35" s="176"/>
+      <c r="F35" s="131" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G35" s="131"/>
+      <c r="H35" s="24" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I35" s="24" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J35" s="24" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K35" s="131" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L35" s="131"/>
+      <c r="M35" s="136" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N35" s="136"/>
       <c r="O35" s="4"/>
     </row>
     <row r="36" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B36" s="168"/>
+      <c r="B36" s="163"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="144"/>
-      <c r="E36" s="145"/>
-      <c r="F36" s="153" t="s">
+      <c r="D36" s="139"/>
+      <c r="E36" s="140"/>
+      <c r="F36" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="153"/>
-      <c r="H36" s="153"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
       <c r="I36" s="22" t="e">
         <f>SUM(I31:I35)</f>
         <v>#REF!</v>
@@ -4545,199 +4577,199 @@
         <f>SUM(J31:J35)</f>
         <v>#REF!</v>
       </c>
-      <c r="K36" s="153" t="e">
+      <c r="K36" s="148" t="e">
         <f>SUM(K31:L35)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L36" s="153"/>
-      <c r="M36" s="154" t="e">
+      <c r="L36" s="148"/>
+      <c r="M36" s="149" t="e">
         <f>SUM(M31:N35)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N36" s="154"/>
+      <c r="N36" s="149"/>
       <c r="O36" s="4"/>
     </row>
     <row r="37" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B37" s="168"/>
+      <c r="B37" s="163"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="156" t="s">
-        <v>123</v>
-      </c>
-      <c r="L37" s="156"/>
-      <c r="M37" s="157" t="e">
-        <f>記入!E67</f>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="151" t="s">
+        <v>118</v>
+      </c>
+      <c r="L37" s="151"/>
+      <c r="M37" s="152" t="e">
+        <f>記入!E66</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N37" s="157"/>
+      <c r="N37" s="152"/>
       <c r="O37" s="4"/>
     </row>
     <row r="38" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B38" s="168"/>
+      <c r="B38" s="163"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="80"/>
-      <c r="K38" s="156" t="s">
-        <v>122</v>
-      </c>
-      <c r="L38" s="156"/>
-      <c r="M38" s="157" t="str">
-        <f>記入!H67</f>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="151" t="s">
+        <v>117</v>
+      </c>
+      <c r="L38" s="151"/>
+      <c r="M38" s="152" t="str">
+        <f>記入!H66</f>
         <v>${aw.rate}</v>
       </c>
-      <c r="N38" s="157"/>
+      <c r="N38" s="152"/>
       <c r="O38" s="4"/>
     </row>
     <row r="39" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B39" s="168"/>
+      <c r="B39" s="163"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="155" t="s">
+      <c r="D39" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="E39" s="155"/>
-      <c r="F39" s="149" t="s">
-        <v>86</v>
-      </c>
-      <c r="G39" s="150"/>
-      <c r="H39" s="158" t="s">
-        <v>124</v>
-      </c>
-      <c r="I39" s="150"/>
-      <c r="J39" s="155" t="str">
+      <c r="E39" s="150"/>
+      <c r="F39" s="144" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39" s="145"/>
+      <c r="H39" s="153" t="s">
+        <v>119</v>
+      </c>
+      <c r="I39" s="145"/>
+      <c r="J39" s="150" t="str">
         <f>"請求金額"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>請求金額(${aw.currencyposition})</v>
       </c>
-      <c r="K39" s="155"/>
-      <c r="L39" s="155"/>
-      <c r="M39" s="155"/>
-      <c r="N39" s="155"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
+      <c r="N39" s="150"/>
       <c r="O39" s="4"/>
     </row>
     <row r="40" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B40" s="168"/>
+      <c r="B40" s="163"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="153" t="str">
+      <c r="D40" s="148" t="str">
         <f>記入!A29</f>
         <v>第一回</v>
       </c>
-      <c r="E40" s="153"/>
-      <c r="F40" s="166" t="str">
+      <c r="E40" s="148"/>
+      <c r="F40" s="161" t="str">
         <f>IF(記入!B29="","",記入!B29)</f>
         <v>${num[0].deliverydate}</v>
       </c>
-      <c r="G40" s="167"/>
-      <c r="H40" s="166" t="str">
+      <c r="G40" s="162"/>
+      <c r="H40" s="161" t="str">
         <f>IF(記入!D29="","",記入!D29)</f>
         <v>${num[0].claimdate}</v>
       </c>
-      <c r="I40" s="167"/>
-      <c r="J40" s="141" t="str">
+      <c r="I40" s="162"/>
+      <c r="J40" s="136" t="str">
         <f>IF(記入!F29="","",記入!F29)</f>
         <v>${num[0].claimamount}</v>
       </c>
-      <c r="K40" s="141"/>
-      <c r="L40" s="141"/>
-      <c r="M40" s="141"/>
-      <c r="N40" s="141"/>
+      <c r="K40" s="136"/>
+      <c r="L40" s="136"/>
+      <c r="M40" s="136"/>
+      <c r="N40" s="136"/>
       <c r="O40" s="4"/>
     </row>
     <row r="41" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B41" s="168"/>
+      <c r="B41" s="163"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="153" t="str">
+      <c r="D41" s="148" t="str">
         <f>記入!A30</f>
         <v>第二回</v>
       </c>
-      <c r="E41" s="153"/>
-      <c r="F41" s="166" t="str">
+      <c r="E41" s="148"/>
+      <c r="F41" s="161" t="str">
         <f>IF(記入!B30="","",記入!B30)</f>
         <v>${num[1].deliverydate}</v>
       </c>
-      <c r="G41" s="167"/>
-      <c r="H41" s="166" t="str">
+      <c r="G41" s="162"/>
+      <c r="H41" s="161" t="str">
         <f>IF(記入!D30="","",記入!D30)</f>
         <v>${num[1].claimdate}</v>
       </c>
-      <c r="I41" s="167"/>
-      <c r="J41" s="141" t="str">
+      <c r="I41" s="162"/>
+      <c r="J41" s="136" t="str">
         <f>IF(記入!F30="","",記入!F30)</f>
         <v>${num[1].claimamount}</v>
       </c>
-      <c r="K41" s="141"/>
-      <c r="L41" s="141"/>
-      <c r="M41" s="141"/>
-      <c r="N41" s="141"/>
+      <c r="K41" s="136"/>
+      <c r="L41" s="136"/>
+      <c r="M41" s="136"/>
+      <c r="N41" s="136"/>
       <c r="O41" s="4"/>
     </row>
     <row r="42" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B42" s="168"/>
+      <c r="B42" s="163"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="153" t="str">
+      <c r="D42" s="148" t="str">
         <f>記入!A31</f>
         <v>第三回</v>
       </c>
-      <c r="E42" s="153"/>
-      <c r="F42" s="166" t="str">
+      <c r="E42" s="148"/>
+      <c r="F42" s="161" t="str">
         <f>IF(記入!B31="","",記入!B31)</f>
         <v>${num[2].deliverydate}</v>
       </c>
-      <c r="G42" s="167"/>
-      <c r="H42" s="166" t="str">
+      <c r="G42" s="162"/>
+      <c r="H42" s="161" t="str">
         <f>IF(記入!D31="","",記入!D31)</f>
         <v>${num[2].claimdate}</v>
       </c>
-      <c r="I42" s="167"/>
-      <c r="J42" s="141" t="str">
+      <c r="I42" s="162"/>
+      <c r="J42" s="136" t="str">
         <f>IF(記入!F31="","",記入!F31)</f>
         <v>${num[2].claimamount}</v>
       </c>
-      <c r="K42" s="141"/>
-      <c r="L42" s="141"/>
-      <c r="M42" s="141"/>
-      <c r="N42" s="141"/>
+      <c r="K42" s="136"/>
+      <c r="L42" s="136"/>
+      <c r="M42" s="136"/>
+      <c r="N42" s="136"/>
       <c r="O42" s="4"/>
     </row>
     <row r="43" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B43" s="168"/>
+      <c r="B43" s="163"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="153" t="str">
+      <c r="D43" s="148" t="str">
         <f>記入!A32</f>
         <v>第四回</v>
       </c>
-      <c r="E43" s="153"/>
-      <c r="F43" s="166" t="str">
+      <c r="E43" s="148"/>
+      <c r="F43" s="161" t="str">
         <f>IF(記入!B32="","",記入!B32)</f>
         <v>${num[3].deliverydate}</v>
       </c>
-      <c r="G43" s="167"/>
-      <c r="H43" s="166" t="str">
+      <c r="G43" s="162"/>
+      <c r="H43" s="161" t="str">
         <f>IF(記入!D32="","",記入!D32)</f>
         <v>${num[3].claimdate}</v>
       </c>
-      <c r="I43" s="167"/>
-      <c r="J43" s="141" t="str">
+      <c r="I43" s="162"/>
+      <c r="J43" s="136" t="str">
         <f>IF(記入!F32="","",記入!F32)</f>
         <v>${num[3].claimamount}</v>
       </c>
-      <c r="K43" s="141"/>
-      <c r="L43" s="141"/>
-      <c r="M43" s="141"/>
-      <c r="N43" s="141"/>
+      <c r="K43" s="136"/>
+      <c r="L43" s="136"/>
+      <c r="M43" s="136"/>
+      <c r="N43" s="136"/>
       <c r="O43" s="4"/>
     </row>
     <row r="44" spans="2:15" ht="21.75" customHeight="1">
-      <c r="B44" s="168"/>
+      <c r="B44" s="163"/>
       <c r="C44" s="9"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -4745,18 +4777,18 @@
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
-      <c r="J44" s="161">
+      <c r="J44" s="156">
         <f>SUM(J40:N43)</f>
         <v>0</v>
       </c>
-      <c r="K44" s="162"/>
-      <c r="L44" s="162"/>
-      <c r="M44" s="162"/>
-      <c r="N44" s="163"/>
+      <c r="K44" s="157"/>
+      <c r="L44" s="157"/>
+      <c r="M44" s="157"/>
+      <c r="N44" s="158"/>
       <c r="O44" s="4"/>
     </row>
     <row r="45" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B45" s="168"/>
+      <c r="B45" s="163"/>
       <c r="C45" s="9"/>
       <c r="D45" s="13" t="s">
         <v>36</v>
@@ -4774,13 +4806,13 @@
       <c r="O45" s="4"/>
     </row>
     <row r="46" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B46" s="168"/>
+      <c r="B46" s="163"/>
       <c r="C46" s="9"/>
       <c r="D46" s="13"/>
-      <c r="E46" s="178" t="s">
+      <c r="E46" s="173" t="s">
         <v>51</v>
       </c>
-      <c r="F46" s="178"/>
+      <c r="F46" s="173"/>
       <c r="G46" s="27" t="str">
         <f>記入!B40</f>
         <v>${aw.valuation}</v>
@@ -4795,13 +4827,13 @@
       <c r="O46" s="4"/>
     </row>
     <row r="47" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="168"/>
+      <c r="B47" s="163"/>
       <c r="C47" s="9"/>
       <c r="D47" s="13"/>
-      <c r="E47" s="178" t="s">
+      <c r="E47" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="F47" s="178"/>
+      <c r="F47" s="173"/>
       <c r="G47" s="27" t="str">
         <f>記入!B41</f>
         <v>${aw.individual}</v>
@@ -4816,7 +4848,7 @@
       <c r="O47" s="4"/>
     </row>
     <row r="48" spans="2:15" ht="9.75" customHeight="1">
-      <c r="B48" s="168"/>
+      <c r="B48" s="163"/>
       <c r="C48" s="9"/>
       <c r="D48" s="13"/>
       <c r="E48" s="25"/>
@@ -4832,211 +4864,211 @@
       <c r="O48" s="4"/>
     </row>
     <row r="49" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="168"/>
+      <c r="B49" s="163"/>
       <c r="C49" s="9"/>
       <c r="D49" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E49" s="25"/>
-      <c r="F49" s="159" t="str">
+      <c r="F49" s="154" t="str">
         <f>記入!E35</f>
         <v>${aw.remarks}</v>
       </c>
-      <c r="G49" s="159"/>
-      <c r="H49" s="159"/>
-      <c r="I49" s="159"/>
-      <c r="J49" s="159"/>
-      <c r="K49" s="159"/>
-      <c r="L49" s="159"/>
-      <c r="M49" s="159"/>
-      <c r="N49" s="159"/>
+      <c r="G49" s="154"/>
+      <c r="H49" s="154"/>
+      <c r="I49" s="154"/>
+      <c r="J49" s="154"/>
+      <c r="K49" s="154"/>
+      <c r="L49" s="154"/>
+      <c r="M49" s="154"/>
+      <c r="N49" s="154"/>
       <c r="O49" s="4"/>
     </row>
     <row r="50" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="168"/>
+      <c r="B50" s="163"/>
       <c r="C50" s="9"/>
       <c r="D50" s="13"/>
       <c r="E50" s="26"/>
-      <c r="F50" s="160"/>
-      <c r="G50" s="160"/>
-      <c r="H50" s="160"/>
-      <c r="I50" s="160"/>
-      <c r="J50" s="160"/>
-      <c r="K50" s="160"/>
-      <c r="L50" s="160"/>
-      <c r="M50" s="160"/>
-      <c r="N50" s="160"/>
+      <c r="F50" s="155"/>
+      <c r="G50" s="155"/>
+      <c r="H50" s="155"/>
+      <c r="I50" s="155"/>
+      <c r="J50" s="155"/>
+      <c r="K50" s="155"/>
+      <c r="L50" s="155"/>
+      <c r="M50" s="155"/>
+      <c r="N50" s="155"/>
       <c r="O50" s="4"/>
     </row>
     <row r="51" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="168"/>
-      <c r="C51" s="165" t="s">
+      <c r="B51" s="163"/>
+      <c r="C51" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="D51" s="165"/>
-      <c r="E51" s="165"/>
-      <c r="F51" s="165" t="s">
+      <c r="D51" s="160"/>
+      <c r="E51" s="160"/>
+      <c r="F51" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="G51" s="165"/>
-      <c r="H51" s="165" t="s">
+      <c r="G51" s="160"/>
+      <c r="H51" s="160" t="s">
         <v>38</v>
       </c>
-      <c r="I51" s="165"/>
-      <c r="J51" s="165" t="s">
+      <c r="I51" s="160"/>
+      <c r="J51" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="K51" s="165"/>
-      <c r="L51" s="165"/>
-      <c r="M51" s="165" t="s">
+      <c r="K51" s="160"/>
+      <c r="L51" s="160"/>
+      <c r="M51" s="160" t="s">
         <v>38</v>
       </c>
-      <c r="N51" s="165"/>
-      <c r="O51" s="165"/>
+      <c r="N51" s="160"/>
+      <c r="O51" s="160"/>
     </row>
     <row r="52" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B52" s="168"/>
-      <c r="C52" s="165"/>
-      <c r="D52" s="165"/>
-      <c r="E52" s="165"/>
-      <c r="F52" s="164"/>
-      <c r="G52" s="164"/>
-      <c r="H52" s="164"/>
-      <c r="I52" s="164"/>
-      <c r="J52" s="164"/>
-      <c r="K52" s="164"/>
-      <c r="L52" s="164"/>
-      <c r="M52" s="164"/>
-      <c r="N52" s="164"/>
-      <c r="O52" s="164"/>
+      <c r="B52" s="163"/>
+      <c r="C52" s="160"/>
+      <c r="D52" s="160"/>
+      <c r="E52" s="160"/>
+      <c r="F52" s="159"/>
+      <c r="G52" s="159"/>
+      <c r="H52" s="159"/>
+      <c r="I52" s="159"/>
+      <c r="J52" s="159"/>
+      <c r="K52" s="159"/>
+      <c r="L52" s="159"/>
+      <c r="M52" s="159"/>
+      <c r="N52" s="159"/>
+      <c r="O52" s="159"/>
     </row>
     <row r="53" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B53" s="168"/>
-      <c r="C53" s="165"/>
-      <c r="D53" s="165"/>
-      <c r="E53" s="165"/>
-      <c r="F53" s="164"/>
-      <c r="G53" s="164"/>
-      <c r="H53" s="164"/>
-      <c r="I53" s="164"/>
-      <c r="J53" s="164"/>
-      <c r="K53" s="164"/>
-      <c r="L53" s="164"/>
-      <c r="M53" s="164"/>
-      <c r="N53" s="164"/>
-      <c r="O53" s="164"/>
+      <c r="B53" s="163"/>
+      <c r="C53" s="160"/>
+      <c r="D53" s="160"/>
+      <c r="E53" s="160"/>
+      <c r="F53" s="159"/>
+      <c r="G53" s="159"/>
+      <c r="H53" s="159"/>
+      <c r="I53" s="159"/>
+      <c r="J53" s="159"/>
+      <c r="K53" s="159"/>
+      <c r="L53" s="159"/>
+      <c r="M53" s="159"/>
+      <c r="N53" s="159"/>
+      <c r="O53" s="159"/>
     </row>
     <row r="54" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B54" s="168"/>
-      <c r="C54" s="165"/>
-      <c r="D54" s="165"/>
-      <c r="E54" s="165"/>
-      <c r="F54" s="164"/>
-      <c r="G54" s="164"/>
-      <c r="H54" s="164"/>
-      <c r="I54" s="164"/>
-      <c r="J54" s="164"/>
-      <c r="K54" s="164"/>
-      <c r="L54" s="164"/>
-      <c r="M54" s="164"/>
-      <c r="N54" s="164"/>
-      <c r="O54" s="164"/>
+      <c r="B54" s="163"/>
+      <c r="C54" s="160"/>
+      <c r="D54" s="160"/>
+      <c r="E54" s="160"/>
+      <c r="F54" s="159"/>
+      <c r="G54" s="159"/>
+      <c r="H54" s="159"/>
+      <c r="I54" s="159"/>
+      <c r="J54" s="159"/>
+      <c r="K54" s="159"/>
+      <c r="L54" s="159"/>
+      <c r="M54" s="159"/>
+      <c r="N54" s="159"/>
+      <c r="O54" s="159"/>
     </row>
     <row r="55" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="168"/>
-      <c r="C55" s="165"/>
-      <c r="D55" s="165"/>
-      <c r="E55" s="165"/>
-      <c r="F55" s="164"/>
-      <c r="G55" s="164"/>
-      <c r="H55" s="164"/>
-      <c r="I55" s="164"/>
-      <c r="J55" s="164"/>
-      <c r="K55" s="164"/>
-      <c r="L55" s="164"/>
-      <c r="M55" s="164"/>
-      <c r="N55" s="164"/>
-      <c r="O55" s="164"/>
+      <c r="B55" s="163"/>
+      <c r="C55" s="160"/>
+      <c r="D55" s="160"/>
+      <c r="E55" s="160"/>
+      <c r="F55" s="159"/>
+      <c r="G55" s="159"/>
+      <c r="H55" s="159"/>
+      <c r="I55" s="159"/>
+      <c r="J55" s="159"/>
+      <c r="K55" s="159"/>
+      <c r="L55" s="159"/>
+      <c r="M55" s="159"/>
+      <c r="N55" s="159"/>
+      <c r="O55" s="159"/>
     </row>
     <row r="56" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B56" s="168"/>
-      <c r="C56" s="165"/>
-      <c r="D56" s="165"/>
-      <c r="E56" s="165"/>
-      <c r="F56" s="164"/>
-      <c r="G56" s="164"/>
-      <c r="H56" s="164"/>
-      <c r="I56" s="164"/>
-      <c r="J56" s="164"/>
-      <c r="K56" s="164"/>
-      <c r="L56" s="164"/>
-      <c r="M56" s="164"/>
-      <c r="N56" s="164"/>
-      <c r="O56" s="164"/>
+      <c r="B56" s="163"/>
+      <c r="C56" s="160"/>
+      <c r="D56" s="160"/>
+      <c r="E56" s="160"/>
+      <c r="F56" s="159"/>
+      <c r="G56" s="159"/>
+      <c r="H56" s="159"/>
+      <c r="I56" s="159"/>
+      <c r="J56" s="159"/>
+      <c r="K56" s="159"/>
+      <c r="L56" s="159"/>
+      <c r="M56" s="159"/>
+      <c r="N56" s="159"/>
+      <c r="O56" s="159"/>
     </row>
     <row r="57" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="168"/>
-      <c r="C57" s="165"/>
-      <c r="D57" s="165"/>
-      <c r="E57" s="165"/>
-      <c r="F57" s="164"/>
-      <c r="G57" s="164"/>
-      <c r="H57" s="164"/>
-      <c r="I57" s="164"/>
-      <c r="J57" s="164"/>
-      <c r="K57" s="164"/>
-      <c r="L57" s="164"/>
-      <c r="M57" s="164"/>
-      <c r="N57" s="164"/>
-      <c r="O57" s="164"/>
+      <c r="B57" s="163"/>
+      <c r="C57" s="160"/>
+      <c r="D57" s="160"/>
+      <c r="E57" s="160"/>
+      <c r="F57" s="159"/>
+      <c r="G57" s="159"/>
+      <c r="H57" s="159"/>
+      <c r="I57" s="159"/>
+      <c r="J57" s="159"/>
+      <c r="K57" s="159"/>
+      <c r="L57" s="159"/>
+      <c r="M57" s="159"/>
+      <c r="N57" s="159"/>
+      <c r="O57" s="159"/>
     </row>
     <row r="58" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B58" s="168"/>
-      <c r="C58" s="165"/>
-      <c r="D58" s="165"/>
-      <c r="E58" s="165"/>
-      <c r="F58" s="164"/>
-      <c r="G58" s="164"/>
-      <c r="H58" s="164"/>
-      <c r="I58" s="164"/>
-      <c r="J58" s="164"/>
-      <c r="K58" s="164"/>
-      <c r="L58" s="164"/>
-      <c r="M58" s="164"/>
-      <c r="N58" s="164"/>
-      <c r="O58" s="164"/>
+      <c r="B58" s="163"/>
+      <c r="C58" s="160"/>
+      <c r="D58" s="160"/>
+      <c r="E58" s="160"/>
+      <c r="F58" s="159"/>
+      <c r="G58" s="159"/>
+      <c r="H58" s="159"/>
+      <c r="I58" s="159"/>
+      <c r="J58" s="159"/>
+      <c r="K58" s="159"/>
+      <c r="L58" s="159"/>
+      <c r="M58" s="159"/>
+      <c r="N58" s="159"/>
+      <c r="O58" s="159"/>
     </row>
     <row r="59" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B59" s="168"/>
-      <c r="C59" s="165"/>
-      <c r="D59" s="165"/>
-      <c r="E59" s="165"/>
-      <c r="F59" s="164"/>
-      <c r="G59" s="164"/>
-      <c r="H59" s="164"/>
-      <c r="I59" s="164"/>
-      <c r="J59" s="164"/>
-      <c r="K59" s="164"/>
-      <c r="L59" s="164"/>
-      <c r="M59" s="164"/>
-      <c r="N59" s="164"/>
-      <c r="O59" s="164"/>
+      <c r="B59" s="163"/>
+      <c r="C59" s="160"/>
+      <c r="D59" s="160"/>
+      <c r="E59" s="160"/>
+      <c r="F59" s="159"/>
+      <c r="G59" s="159"/>
+      <c r="H59" s="159"/>
+      <c r="I59" s="159"/>
+      <c r="J59" s="159"/>
+      <c r="K59" s="159"/>
+      <c r="L59" s="159"/>
+      <c r="M59" s="159"/>
+      <c r="N59" s="159"/>
+      <c r="O59" s="159"/>
     </row>
     <row r="60" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B60" s="168"/>
-      <c r="C60" s="165"/>
-      <c r="D60" s="165"/>
-      <c r="E60" s="165"/>
-      <c r="F60" s="164"/>
-      <c r="G60" s="164"/>
-      <c r="H60" s="164"/>
-      <c r="I60" s="164"/>
-      <c r="J60" s="164"/>
-      <c r="K60" s="164"/>
-      <c r="L60" s="164"/>
-      <c r="M60" s="164"/>
-      <c r="N60" s="164"/>
-      <c r="O60" s="164"/>
+      <c r="B60" s="163"/>
+      <c r="C60" s="160"/>
+      <c r="D60" s="160"/>
+      <c r="E60" s="160"/>
+      <c r="F60" s="159"/>
+      <c r="G60" s="159"/>
+      <c r="H60" s="159"/>
+      <c r="I60" s="159"/>
+      <c r="J60" s="159"/>
+      <c r="K60" s="159"/>
+      <c r="L60" s="159"/>
+      <c r="M60" s="159"/>
+      <c r="N60" s="159"/>
+      <c r="O60" s="159"/>
     </row>
     <row r="61" spans="2:15" ht="14.25">
       <c r="C61" s="16" t="s">

--- a/controller/src/main/resources/jxls_templates/juecaishu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/juecaishu_shoutuo.xlsx
@@ -44,6 +44,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="F39" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>張 建波:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+自分で入力してください。（収支データを参考）</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A44" authorId="0" shapeId="0">
       <text>
         <r>
@@ -83,32 +109,6 @@
 月平均人件費+残業費
 (元/人・月)
 事業計画フォームを参考してください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F66" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>張 建波:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-自分で入力してください。（収支データを参考）</t>
         </r>
       </text>
     </comment>
@@ -2170,6 +2170,9 @@
     <xf numFmtId="181" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2511,9 +2514,6 @@
     </xf>
     <xf numFmtId="31" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2843,14 +2843,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="G1" s="95" t="s">
+      <c r="B1" s="94"/>
+      <c r="G1" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="96"/>
+      <c r="H1" s="97"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" s="29" t="s">
@@ -2863,8 +2863,8 @@
         <v>15</v>
       </c>
       <c r="D2" s="30"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="99"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" s="31" t="s">
@@ -2874,8 +2874,8 @@
       <c r="C3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="97"/>
-      <c r="H3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="99"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="29" t="s">
@@ -2887,8 +2887,8 @@
       <c r="C4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="97"/>
-      <c r="H4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="99"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
       <c r="A5" s="29" t="s">
@@ -2898,8 +2898,8 @@
       <c r="C5" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="97"/>
-      <c r="H5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="99"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="A6" s="33" t="s">
@@ -2911,8 +2911,8 @@
       <c r="C6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="97"/>
-      <c r="H6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="99"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="A7" s="33" t="s">
@@ -2924,8 +2924,8 @@
       <c r="C7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="97"/>
-      <c r="H7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="99"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8" s="29" t="s">
@@ -2935,8 +2935,8 @@
       <c r="C8" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="97"/>
-      <c r="H8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="99"/>
     </row>
     <row r="9" spans="1:8" s="34" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="31" t="s">
@@ -2948,8 +2948,8 @@
       <c r="C9" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="97"/>
-      <c r="H9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="99"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="A10" s="29" t="s">
@@ -2961,8 +2961,8 @@
       <c r="C10" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="97"/>
-      <c r="H10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="99"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
       <c r="A11" s="29" t="s">
@@ -2974,8 +2974,8 @@
       <c r="C11" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="97"/>
-      <c r="H11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="99"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
       <c r="A12" s="29" t="s">
@@ -2987,8 +2987,8 @@
       <c r="C12" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="97"/>
-      <c r="H12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="99"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="A13" s="29" t="s">
@@ -2998,8 +2998,8 @@
       <c r="C13" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="97"/>
-      <c r="H13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="99"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
       <c r="A14" s="29" t="s">
@@ -3011,8 +3011,8 @@
       <c r="C14" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="97"/>
-      <c r="H14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="99"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="A15" s="29" t="s">
@@ -3024,8 +3024,8 @@
       <c r="C15" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="97"/>
-      <c r="H15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="99"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
       <c r="A16" s="29" t="s">
@@ -3035,8 +3035,8 @@
       <c r="C16" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="97"/>
-      <c r="H16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="99"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
       <c r="A17" s="29" t="s">
@@ -3046,8 +3046,8 @@
       <c r="C17" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="97"/>
-      <c r="H17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="99"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
       <c r="A18" s="29" t="s">
@@ -3057,8 +3057,8 @@
       <c r="C18" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="97"/>
-      <c r="H18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="99"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="29" t="s">
@@ -3070,8 +3070,8 @@
       <c r="C19" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="97"/>
-      <c r="H19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="99"/>
     </row>
     <row r="20" spans="1:8" s="34" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="29" t="s">
@@ -3083,8 +3083,8 @@
       <c r="C20" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="97"/>
-      <c r="H20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="99"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1">
       <c r="A21" s="29" t="s">
@@ -3094,8 +3094,8 @@
       <c r="C21" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="97"/>
-      <c r="H21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="99"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1">
       <c r="A22" s="29" t="s">
@@ -3105,8 +3105,8 @@
       <c r="C22" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="97"/>
-      <c r="H22" s="98"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="99"/>
     </row>
     <row r="23" spans="1:8" s="34" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="31" t="s">
@@ -3116,8 +3116,8 @@
       <c r="C23" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="97"/>
-      <c r="H23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="99"/>
     </row>
     <row r="24" spans="1:8" s="34" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="31" t="s">
@@ -3127,8 +3127,8 @@
       <c r="C24" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="97"/>
-      <c r="H24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="99"/>
     </row>
     <row r="25" spans="1:8" s="34" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="31" t="s">
@@ -3140,8 +3140,8 @@
       <c r="C25" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="97"/>
-      <c r="H25" s="98"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="99"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1">
       <c r="A26" s="31" t="s">
@@ -3153,14 +3153,14 @@
       <c r="C26" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="97"/>
-      <c r="H26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="99"/>
     </row>
     <row r="27" spans="1:8" ht="3" customHeight="1">
       <c r="A27" s="35"/>
       <c r="B27" s="28"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="98"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="99"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1">
       <c r="A28" s="36" t="s">
@@ -3181,8 +3181,8 @@
       <c r="F28" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="G28" s="97"/>
-      <c r="H28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="99"/>
     </row>
     <row r="29" spans="1:8" ht="13.5" customHeight="1">
       <c r="A29" s="56" t="str">
@@ -3204,8 +3204,8 @@
       <c r="F29" s="85" t="s">
         <v>161</v>
       </c>
-      <c r="G29" s="97"/>
-      <c r="H29" s="98"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="99"/>
     </row>
     <row r="30" spans="1:8" ht="13.5" customHeight="1">
       <c r="A30" s="56" t="str">
@@ -3227,8 +3227,8 @@
       <c r="F30" s="85" t="s">
         <v>157</v>
       </c>
-      <c r="G30" s="97"/>
-      <c r="H30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="99"/>
     </row>
     <row r="31" spans="1:8" ht="13.5" customHeight="1">
       <c r="A31" s="56" t="str">
@@ -3250,8 +3250,8 @@
       <c r="F31" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="G31" s="97"/>
-      <c r="H31" s="98"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="99"/>
     </row>
     <row r="32" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
       <c r="A32" s="56" t="str">
@@ -3273,8 +3273,8 @@
       <c r="F32" s="85" t="s">
         <v>169</v>
       </c>
-      <c r="G32" s="99"/>
-      <c r="H32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="101"/>
     </row>
     <row r="33" spans="1:8" ht="6.75" customHeight="1">
       <c r="A33" s="38"/>
@@ -3291,16 +3291,16 @@
       <c r="B35" s="81" t="s">
         <v>170</v>
       </c>
-      <c r="C35" s="101" t="s">
+      <c r="C35" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="102"/>
-      <c r="E35" s="107" t="s">
+      <c r="D35" s="103"/>
+      <c r="E35" s="108" t="s">
         <v>136</v>
       </c>
-      <c r="F35" s="108"/>
-      <c r="G35" s="108"/>
-      <c r="H35" s="108"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="109"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="41" t="s">
@@ -3309,12 +3309,12 @@
       <c r="B36" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="C36" s="103"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="110"/>
-      <c r="H36" s="110"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="111"/>
+      <c r="G36" s="111"/>
+      <c r="H36" s="111"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="41" t="s">
@@ -3323,12 +3323,12 @@
       <c r="B37" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="C37" s="105"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="112"/>
-      <c r="H37" s="112"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="113"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="113"/>
     </row>
     <row r="38" spans="1:8" ht="13.5">
       <c r="A38" s="42" t="s">
@@ -3338,6 +3338,9 @@
         <v>172</v>
       </c>
       <c r="C38" s="30"/>
+      <c r="F38" s="78" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="39" spans="1:8" s="39" customFormat="1" ht="13.5">
       <c r="A39" s="42" t="s">
@@ -3346,8 +3349,21 @@
       <c r="B39" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
+      <c r="C39" s="114" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="116"/>
+      <c r="E39" s="72" t="e">
+        <f>(F47-E59-E61)/F47</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F39" s="114" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39" s="114"/>
+      <c r="H39" s="64" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="40" spans="1:8" s="39" customFormat="1" ht="13.5">
       <c r="A40" s="42" t="s">
@@ -3370,28 +3386,28 @@
       <c r="D41" s="28"/>
     </row>
     <row r="42" spans="1:8" s="39" customFormat="1" ht="14.25">
-      <c r="A42" s="92" t="s">
+      <c r="A42" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="92" t="s">
+      <c r="B42" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="89" t="s">
+      <c r="C42" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="91"/>
-      <c r="G42" s="94" t="s">
+      <c r="D42" s="91"/>
+      <c r="E42" s="91"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="H42" s="92" t="s">
+      <c r="H42" s="93" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.25">
-      <c r="A43" s="92"/>
-      <c r="B43" s="92"/>
+      <c r="A43" s="93"/>
+      <c r="B43" s="93"/>
       <c r="C43" s="43" t="s">
         <v>65</v>
       </c>
@@ -3404,14 +3420,14 @@
       <c r="F43" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="G43" s="92"/>
-      <c r="H43" s="92"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="93"/>
     </row>
     <row r="44" spans="1:8" ht="14.25">
       <c r="A44" s="80" t="s">
         <v>142</v>
       </c>
-      <c r="B44" s="199" t="s">
+      <c r="B44" s="87" t="s">
         <v>143</v>
       </c>
       <c r="C44" s="86" t="s">
@@ -3436,10 +3452,10 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="15">
-      <c r="A45" s="87" t="s">
+      <c r="A45" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="88"/>
+      <c r="B45" s="89"/>
       <c r="C45" s="46">
         <f>SUM(C44:C44)</f>
         <v>0</v>
@@ -3617,10 +3633,10 @@
       <c r="H57" s="65"/>
     </row>
     <row r="58" spans="3:8">
-      <c r="C58" s="114" t="s">
+      <c r="C58" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="D58" s="114"/>
+      <c r="D58" s="115"/>
       <c r="E58" s="68">
         <f>SUM(E50:E57)</f>
         <v>0</v>
@@ -3630,10 +3646,10 @@
       <c r="H58" s="65"/>
     </row>
     <row r="59" spans="3:8">
-      <c r="C59" s="113" t="s">
+      <c r="C59" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="D59" s="115"/>
+      <c r="D59" s="116"/>
       <c r="E59" s="69" t="e">
         <f>D51*E51+D52*E52+D53*E53+D54*E54+D55*E55+D56*E56+D57*E57</f>
         <v>#VALUE!</v>
@@ -3651,10 +3667,10 @@
       <c r="H60" s="65"/>
     </row>
     <row r="61" spans="3:8" ht="14.25" customHeight="1">
-      <c r="C61" s="114" t="s">
+      <c r="C61" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="D61" s="114"/>
+      <c r="D61" s="115"/>
       <c r="E61" s="82" t="s">
         <v>138</v>
       </c>
@@ -3663,10 +3679,10 @@
       <c r="H61" s="65"/>
     </row>
     <row r="62" spans="3:8" ht="14.25" customHeight="1">
-      <c r="C62" s="114" t="s">
+      <c r="C62" s="115" t="s">
         <v>105</v>
       </c>
-      <c r="D62" s="114"/>
+      <c r="D62" s="115"/>
       <c r="E62" s="82" t="s">
         <v>139</v>
       </c>
@@ -3675,10 +3691,10 @@
       <c r="H62" s="65"/>
     </row>
     <row r="63" spans="3:8" ht="14.25" customHeight="1">
-      <c r="C63" s="114" t="s">
+      <c r="C63" s="115" t="s">
         <v>107</v>
       </c>
-      <c r="D63" s="114"/>
+      <c r="D63" s="115"/>
       <c r="E63" s="82" t="s">
         <v>140</v>
       </c>
@@ -3687,10 +3703,10 @@
       <c r="H63" s="65"/>
     </row>
     <row r="64" spans="3:8">
-      <c r="C64" s="114" t="s">
+      <c r="C64" s="115" t="s">
         <v>106</v>
       </c>
-      <c r="D64" s="114"/>
+      <c r="D64" s="115"/>
       <c r="E64" s="68" t="e">
         <f>E61/E62</f>
         <v>#VALUE!</v>
@@ -3703,29 +3719,10 @@
       <c r="C65" s="62"/>
       <c r="D65" s="70"/>
       <c r="E65" s="71"/>
-      <c r="F65" s="78" t="s">
-        <v>120</v>
-      </c>
       <c r="G65" s="65"/>
       <c r="H65" s="65"/>
     </row>
-    <row r="66" spans="3:8" ht="13.5" customHeight="1">
-      <c r="C66" s="113" t="s">
-        <v>103</v>
-      </c>
-      <c r="D66" s="115"/>
-      <c r="E66" s="72" t="e">
-        <f>(F47-E59-E61)/F47</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F66" s="113" t="s">
-        <v>102</v>
-      </c>
-      <c r="G66" s="113"/>
-      <c r="H66" s="64" t="s">
-        <v>141</v>
-      </c>
-    </row>
+    <row r="66" spans="3:8" ht="13.5" customHeight="1"/>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="A44" name="範囲3_1"/>
@@ -3733,14 +3730,13 @@
     <protectedRange sqref="C44:D44" name="範囲3_3"/>
   </protectedRanges>
   <mergeCells count="18">
-    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C61:D61"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C39:D39"/>
     <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C61:D61"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="C42:F42"/>
     <mergeCell ref="H42:H43"/>
@@ -3751,6 +3747,7 @@
     <mergeCell ref="G1:H32"/>
     <mergeCell ref="C35:D37"/>
     <mergeCell ref="E35:H37"/>
+    <mergeCell ref="F39:G39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
@@ -3820,12 +3817,12 @@
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="1"/>
-      <c r="C3" s="182" t="s">
+      <c r="C3" s="183" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="187" t="s">
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="188" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="21" t="s">
@@ -3835,104 +3832,104 @@
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
       <c r="K3" s="17"/>
-      <c r="L3" s="123" t="s">
+      <c r="L3" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="124"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="126"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="1"/>
-      <c r="C4" s="183"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="186"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="178"/>
-      <c r="I4" s="178"/>
-      <c r="J4" s="178"/>
-      <c r="K4" s="179"/>
-      <c r="L4" s="196" t="str">
+      <c r="C4" s="184"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="179"/>
+      <c r="I4" s="179"/>
+      <c r="J4" s="179"/>
+      <c r="K4" s="180"/>
+      <c r="L4" s="197" t="str">
         <f>記入!B37</f>
         <v>${aw.draftingdate}</v>
       </c>
-      <c r="M4" s="197"/>
-      <c r="N4" s="197"/>
-      <c r="O4" s="198"/>
+      <c r="M4" s="198"/>
+      <c r="N4" s="198"/>
+      <c r="O4" s="199"/>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="1"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="186"/>
-      <c r="E5" s="186"/>
-      <c r="F5" s="183"/>
-      <c r="G5" s="177"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
-      <c r="J5" s="178"/>
-      <c r="K5" s="179"/>
-      <c r="L5" s="123" t="s">
+      <c r="C5" s="184"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="184"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="179"/>
+      <c r="I5" s="179"/>
+      <c r="J5" s="179"/>
+      <c r="K5" s="180"/>
+      <c r="L5" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="125"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
+      <c r="O5" s="126"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="1"/>
-      <c r="C6" s="183"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="186"/>
-      <c r="F6" s="187" t="s">
+      <c r="C6" s="184"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="177"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="178"/>
-      <c r="K6" s="179"/>
-      <c r="L6" s="188" t="str">
+      <c r="G6" s="178"/>
+      <c r="H6" s="179"/>
+      <c r="I6" s="179"/>
+      <c r="J6" s="179"/>
+      <c r="K6" s="180"/>
+      <c r="L6" s="189" t="str">
         <f>記入!B38</f>
         <v>${aw.scheduleddate}</v>
       </c>
-      <c r="M6" s="189"/>
-      <c r="N6" s="189"/>
-      <c r="O6" s="190"/>
+      <c r="M6" s="190"/>
+      <c r="N6" s="190"/>
+      <c r="O6" s="191"/>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="1"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="186"/>
-      <c r="E7" s="186"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="178"/>
-      <c r="I7" s="178"/>
-      <c r="J7" s="178"/>
-      <c r="K7" s="179"/>
-      <c r="L7" s="191" t="s">
+      <c r="C7" s="184"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="178"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="179"/>
+      <c r="K7" s="180"/>
+      <c r="L7" s="192" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="173"/>
-      <c r="N7" s="173"/>
-      <c r="O7" s="192"/>
+      <c r="M7" s="174"/>
+      <c r="N7" s="174"/>
+      <c r="O7" s="193"/>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="1"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="186"/>
-      <c r="E8" s="186"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="177"/>
-      <c r="H8" s="180"/>
-      <c r="I8" s="180"/>
-      <c r="J8" s="180"/>
-      <c r="K8" s="181"/>
-      <c r="L8" s="193"/>
-      <c r="M8" s="194"/>
-      <c r="N8" s="194"/>
-      <c r="O8" s="195"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="187"/>
+      <c r="E8" s="187"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="181"/>
+      <c r="I8" s="181"/>
+      <c r="J8" s="181"/>
+      <c r="K8" s="182"/>
+      <c r="L8" s="194"/>
+      <c r="M8" s="195"/>
+      <c r="N8" s="195"/>
+      <c r="O8" s="196"/>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="1"/>
@@ -3943,76 +3940,76 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="116" t="s">
+      <c r="H9" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="116" t="s">
+      <c r="I9" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="116" t="s">
+      <c r="J9" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="117" t="s">
+      <c r="K9" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="123" t="s">
+      <c r="L9" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="124"/>
-      <c r="N9" s="121" t="str">
+      <c r="M9" s="125"/>
+      <c r="N9" s="122" t="str">
         <f>記入!B39</f>
         <v>${aw.plan}</v>
       </c>
-      <c r="O9" s="122"/>
+      <c r="O9" s="123"/>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="1"/>
-      <c r="C10" s="164" t="str">
+      <c r="C10" s="165" t="str">
         <f>記入!B9</f>
         <v>${aw.deployment}</v>
       </c>
-      <c r="D10" s="165"/>
-      <c r="E10" s="165"/>
-      <c r="F10" s="165"/>
-      <c r="G10" s="166"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="123" t="s">
+      <c r="D10" s="166"/>
+      <c r="E10" s="166"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="124"/>
-      <c r="N10" s="124"/>
-      <c r="O10" s="125"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="126"/>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="1"/>
-      <c r="C11" s="167"/>
-      <c r="D11" s="168"/>
-      <c r="E11" s="168"/>
-      <c r="F11" s="168"/>
-      <c r="G11" s="169"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116" t="str">
+      <c r="C11" s="168"/>
+      <c r="D11" s="169"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117" t="str">
         <f>記入!B35</f>
         <v>${aw.user_id}</v>
       </c>
-      <c r="K11" s="120" t="str">
+      <c r="K11" s="121" t="str">
         <f>記入!B36</f>
         <v>${aw.telephone}</v>
       </c>
-      <c r="L11" s="118" t="str">
+      <c r="L11" s="119" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M11" s="119"/>
-      <c r="N11" s="126" t="str">
+      <c r="M11" s="120"/>
+      <c r="N11" s="127" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O11" s="127"/>
+      <c r="O11" s="128"/>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="1"/>
@@ -4023,44 +4020,44 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="128" t="s">
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="129"/>
-      <c r="N12" s="129"/>
-      <c r="O12" s="130"/>
+      <c r="M12" s="130"/>
+      <c r="N12" s="130"/>
+      <c r="O12" s="131"/>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="1"/>
-      <c r="C13" s="170" t="str">
+      <c r="C13" s="171" t="str">
         <f>記入!B10</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="D13" s="171"/>
-      <c r="E13" s="171"/>
-      <c r="F13" s="171"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="118" t="str">
+      <c r="D13" s="172"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="119" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M13" s="119"/>
-      <c r="N13" s="126" t="str">
+      <c r="M13" s="120"/>
+      <c r="N13" s="127" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O13" s="127"/>
+      <c r="O13" s="128"/>
     </row>
     <row r="14" spans="1:15" ht="9" customHeight="1">
-      <c r="B14" s="163" t="s">
+      <c r="B14" s="164" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="9"/>
@@ -4078,7 +4075,7 @@
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="163"/>
+      <c r="B15" s="164"/>
       <c r="C15" s="9"/>
       <c r="D15" s="12" t="s">
         <v>53</v>
@@ -4096,7 +4093,7 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="163"/>
+      <c r="B16" s="164"/>
       <c r="C16" s="9"/>
       <c r="D16" s="12"/>
       <c r="E16" s="10" t="str">
@@ -4115,7 +4112,7 @@
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="163"/>
+      <c r="B17" s="164"/>
       <c r="C17" s="9"/>
       <c r="D17" s="12"/>
       <c r="E17" s="10" t="str">
@@ -4134,7 +4131,7 @@
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="163"/>
+      <c r="B18" s="164"/>
       <c r="C18" s="9"/>
       <c r="D18" s="1"/>
       <c r="E18" s="10" t="s">
@@ -4152,7 +4149,7 @@
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="2:15" ht="9" customHeight="1">
-      <c r="B19" s="163"/>
+      <c r="B19" s="164"/>
       <c r="C19" s="9"/>
       <c r="D19" s="1"/>
       <c r="E19" s="12"/>
@@ -4168,7 +4165,7 @@
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="163"/>
+      <c r="B20" s="164"/>
       <c r="C20" s="9"/>
       <c r="D20" s="12" t="s">
         <v>35</v>
@@ -4186,219 +4183,219 @@
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="2:15" ht="15" customHeight="1">
-      <c r="B21" s="163"/>
+      <c r="B21" s="164"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="148" t="s">
+      <c r="D21" s="149" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="148"/>
-      <c r="F21" s="131" t="str">
+      <c r="E21" s="149"/>
+      <c r="F21" s="132" t="str">
         <f>記入!B2</f>
         <v>${aw.custojapanese}</v>
       </c>
-      <c r="G21" s="131"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="131"/>
-      <c r="L21" s="131"/>
-      <c r="M21" s="131"/>
-      <c r="N21" s="131"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="132"/>
+      <c r="K21" s="132"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="132"/>
+      <c r="N21" s="132"/>
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="2:15" ht="15" customHeight="1">
-      <c r="B22" s="163"/>
+      <c r="B22" s="164"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="148"/>
-      <c r="E22" s="148"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="131"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="131"/>
-      <c r="M22" s="131"/>
-      <c r="N22" s="131"/>
+      <c r="D22" s="149"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="132"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="132"/>
+      <c r="N22" s="132"/>
       <c r="O22" s="4"/>
     </row>
     <row r="23" spans="2:15" ht="15" customHeight="1">
-      <c r="B23" s="163"/>
+      <c r="B23" s="164"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="148" t="s">
+      <c r="D23" s="149" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="148"/>
-      <c r="F23" s="131" t="str">
+      <c r="E23" s="149"/>
+      <c r="F23" s="132" t="str">
         <f>C13</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="G23" s="131"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="131"/>
-      <c r="J23" s="131"/>
-      <c r="K23" s="131"/>
-      <c r="L23" s="131"/>
-      <c r="M23" s="131"/>
-      <c r="N23" s="131"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="132"/>
+      <c r="K23" s="132"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="132"/>
+      <c r="N23" s="132"/>
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="2:15" ht="15" customHeight="1">
-      <c r="B24" s="163"/>
+      <c r="B24" s="164"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="148"/>
-      <c r="E24" s="148"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="131"/>
-      <c r="J24" s="131"/>
-      <c r="K24" s="131"/>
-      <c r="L24" s="131"/>
-      <c r="M24" s="131"/>
-      <c r="N24" s="131"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="132"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="132"/>
+      <c r="K24" s="132"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="132"/>
       <c r="O24" s="4"/>
     </row>
     <row r="25" spans="2:15" ht="15" customHeight="1">
-      <c r="B25" s="163"/>
+      <c r="B25" s="164"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="148" t="s">
+      <c r="D25" s="149" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="148"/>
-      <c r="F25" s="131" t="str">
+      <c r="E25" s="149"/>
+      <c r="F25" s="132" t="str">
         <f>記入!B12</f>
         <v>${aw.user_id}</v>
       </c>
-      <c r="G25" s="131"/>
-      <c r="H25" s="131"/>
-      <c r="I25" s="131"/>
-      <c r="J25" s="131"/>
-      <c r="K25" s="131"/>
-      <c r="L25" s="131"/>
-      <c r="M25" s="131"/>
-      <c r="N25" s="131"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="132"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="132"/>
       <c r="O25" s="4"/>
     </row>
     <row r="26" spans="2:15" ht="15" customHeight="1">
-      <c r="B26" s="163"/>
+      <c r="B26" s="164"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="148"/>
-      <c r="E26" s="148"/>
-      <c r="F26" s="131"/>
-      <c r="G26" s="131"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="131"/>
-      <c r="J26" s="131"/>
-      <c r="K26" s="131"/>
-      <c r="L26" s="131"/>
-      <c r="M26" s="131"/>
-      <c r="N26" s="131"/>
+      <c r="D26" s="149"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="132"/>
+      <c r="K26" s="132"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="132"/>
+      <c r="N26" s="132"/>
       <c r="O26" s="4"/>
     </row>
     <row r="27" spans="2:15" ht="15" customHeight="1">
-      <c r="B27" s="163"/>
+      <c r="B27" s="164"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="150" t="s">
+      <c r="D27" s="151" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="132" t="str">
+      <c r="E27" s="151"/>
+      <c r="F27" s="133" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="G27" s="133"/>
-      <c r="H27" s="133"/>
-      <c r="I27" s="174" t="s">
+      <c r="G27" s="134"/>
+      <c r="H27" s="134"/>
+      <c r="I27" s="175" t="s">
         <v>62</v>
       </c>
-      <c r="J27" s="134" t="str">
+      <c r="J27" s="135" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="K27" s="134"/>
-      <c r="L27" s="134"/>
-      <c r="M27" s="134"/>
-      <c r="N27" s="135"/>
+      <c r="K27" s="135"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="135"/>
+      <c r="N27" s="136"/>
       <c r="O27" s="4"/>
     </row>
     <row r="28" spans="2:15" ht="15" customHeight="1">
-      <c r="B28" s="163"/>
+      <c r="B28" s="164"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="133"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="134"/>
-      <c r="K28" s="134"/>
-      <c r="L28" s="134"/>
-      <c r="M28" s="134"/>
-      <c r="N28" s="135"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="134"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="175"/>
+      <c r="J28" s="135"/>
+      <c r="K28" s="135"/>
+      <c r="L28" s="135"/>
+      <c r="M28" s="135"/>
+      <c r="N28" s="136"/>
       <c r="O28" s="4"/>
     </row>
     <row r="29" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B29" s="163"/>
+      <c r="B29" s="164"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="141" t="s">
+      <c r="D29" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="138"/>
-      <c r="F29" s="141" t="s">
+      <c r="E29" s="139"/>
+      <c r="F29" s="142" t="s">
         <v>60</v>
       </c>
-      <c r="G29" s="138"/>
-      <c r="H29" s="142" t="s">
+      <c r="G29" s="139"/>
+      <c r="H29" s="143" t="s">
         <v>61</v>
       </c>
-      <c r="I29" s="144" t="s">
+      <c r="I29" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="J29" s="145"/>
-      <c r="K29" s="137" t="s">
+      <c r="J29" s="146"/>
+      <c r="K29" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="L29" s="138"/>
-      <c r="M29" s="141" t="s">
+      <c r="L29" s="139"/>
+      <c r="M29" s="142" t="s">
         <v>58</v>
       </c>
-      <c r="N29" s="138"/>
+      <c r="N29" s="139"/>
       <c r="O29" s="4"/>
     </row>
     <row r="30" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B30" s="163"/>
+      <c r="B30" s="164"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="176"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="140"/>
-      <c r="H30" s="143"/>
+      <c r="D30" s="176"/>
+      <c r="E30" s="177"/>
+      <c r="F30" s="140"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="144"/>
       <c r="I30" s="22" t="s">
         <v>65</v>
       </c>
       <c r="J30" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="K30" s="139"/>
-      <c r="L30" s="140"/>
-      <c r="M30" s="146" t="str">
+      <c r="K30" s="140"/>
+      <c r="L30" s="141"/>
+      <c r="M30" s="147" t="str">
         <f>"(" &amp; 記入!B19 &amp; ")"</f>
         <v>(${aw.currencyposition})</v>
       </c>
-      <c r="N30" s="147"/>
+      <c r="N30" s="148"/>
       <c r="O30" s="4"/>
     </row>
     <row r="31" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B31" s="163"/>
+      <c r="B31" s="164"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="176"/>
-      <c r="F31" s="131" t="str">
+      <c r="D31" s="176"/>
+      <c r="E31" s="177"/>
+      <c r="F31" s="132" t="str">
         <f>記入!A44</f>
         <v>${t.budgetcode}</v>
       </c>
-      <c r="G31" s="131"/>
+      <c r="G31" s="132"/>
       <c r="H31" s="24" t="str">
         <f>記入!B44</f>
         <v>${t.depart}</v>
@@ -4411,28 +4408,28 @@
         <f>記入!E44</f>
         <v>${t.outsource}</v>
       </c>
-      <c r="K31" s="131" t="e">
+      <c r="K31" s="132" t="e">
         <f>記入!G44</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L31" s="131"/>
-      <c r="M31" s="136" t="e">
+      <c r="L31" s="132"/>
+      <c r="M31" s="137" t="e">
         <f>記入!H44</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N31" s="136"/>
+      <c r="N31" s="137"/>
       <c r="O31" s="4"/>
     </row>
     <row r="32" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B32" s="163"/>
+      <c r="B32" s="164"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="175"/>
-      <c r="E32" s="176"/>
-      <c r="F32" s="131" t="e">
+      <c r="D32" s="176"/>
+      <c r="E32" s="177"/>
+      <c r="F32" s="132" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G32" s="131"/>
+      <c r="G32" s="132"/>
       <c r="H32" s="24" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
@@ -4445,28 +4442,28 @@
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K32" s="131" t="e">
+      <c r="K32" s="132" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L32" s="131"/>
-      <c r="M32" s="136" t="e">
+      <c r="L32" s="132"/>
+      <c r="M32" s="137" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="N32" s="136"/>
+      <c r="N32" s="137"/>
       <c r="O32" s="4"/>
     </row>
     <row r="33" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B33" s="163"/>
+      <c r="B33" s="164"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="175"/>
-      <c r="E33" s="176"/>
-      <c r="F33" s="131" t="e">
+      <c r="D33" s="176"/>
+      <c r="E33" s="177"/>
+      <c r="F33" s="132" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G33" s="131"/>
+      <c r="G33" s="132"/>
       <c r="H33" s="24" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
@@ -4479,28 +4476,28 @@
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K33" s="131" t="e">
+      <c r="K33" s="132" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L33" s="131"/>
-      <c r="M33" s="136" t="e">
+      <c r="L33" s="132"/>
+      <c r="M33" s="137" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="N33" s="136"/>
+      <c r="N33" s="137"/>
       <c r="O33" s="4"/>
     </row>
     <row r="34" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B34" s="163"/>
+      <c r="B34" s="164"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="175"/>
-      <c r="E34" s="176"/>
-      <c r="F34" s="131" t="e">
+      <c r="D34" s="176"/>
+      <c r="E34" s="177"/>
+      <c r="F34" s="132" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G34" s="131"/>
+      <c r="G34" s="132"/>
       <c r="H34" s="24" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
@@ -4513,28 +4510,28 @@
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K34" s="131" t="e">
+      <c r="K34" s="132" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L34" s="131"/>
-      <c r="M34" s="136" t="e">
+      <c r="L34" s="132"/>
+      <c r="M34" s="137" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="N34" s="136"/>
+      <c r="N34" s="137"/>
       <c r="O34" s="4"/>
     </row>
     <row r="35" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B35" s="163"/>
+      <c r="B35" s="164"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="175"/>
-      <c r="E35" s="176"/>
-      <c r="F35" s="131" t="e">
+      <c r="D35" s="176"/>
+      <c r="E35" s="177"/>
+      <c r="F35" s="132" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G35" s="131"/>
+      <c r="G35" s="132"/>
       <c r="H35" s="24" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
@@ -4547,28 +4544,28 @@
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K35" s="131" t="e">
+      <c r="K35" s="132" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L35" s="131"/>
-      <c r="M35" s="136" t="e">
+      <c r="L35" s="132"/>
+      <c r="M35" s="137" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="N35" s="136"/>
+      <c r="N35" s="137"/>
       <c r="O35" s="4"/>
     </row>
     <row r="36" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B36" s="163"/>
+      <c r="B36" s="164"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="139"/>
-      <c r="E36" s="140"/>
-      <c r="F36" s="148" t="s">
+      <c r="D36" s="140"/>
+      <c r="E36" s="141"/>
+      <c r="F36" s="149" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="148"/>
-      <c r="H36" s="148"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
       <c r="I36" s="22" t="e">
         <f>SUM(I31:I35)</f>
         <v>#REF!</v>
@@ -4577,20 +4574,20 @@
         <f>SUM(J31:J35)</f>
         <v>#REF!</v>
       </c>
-      <c r="K36" s="148" t="e">
+      <c r="K36" s="149" t="e">
         <f>SUM(K31:L35)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L36" s="148"/>
-      <c r="M36" s="149" t="e">
+      <c r="L36" s="149"/>
+      <c r="M36" s="150" t="e">
         <f>SUM(M31:N35)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N36" s="149"/>
+      <c r="N36" s="150"/>
       <c r="O36" s="4"/>
     </row>
     <row r="37" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B37" s="163"/>
+      <c r="B37" s="164"/>
       <c r="C37" s="9"/>
       <c r="D37" s="74"/>
       <c r="E37" s="74"/>
@@ -4599,19 +4596,19 @@
       <c r="H37" s="75"/>
       <c r="I37" s="74"/>
       <c r="J37" s="74"/>
-      <c r="K37" s="151" t="s">
+      <c r="K37" s="152" t="s">
         <v>118</v>
       </c>
-      <c r="L37" s="151"/>
-      <c r="M37" s="152" t="e">
-        <f>記入!E66</f>
+      <c r="L37" s="152"/>
+      <c r="M37" s="153" t="e">
+        <f>記入!E39</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N37" s="152"/>
+      <c r="N37" s="153"/>
       <c r="O37" s="4"/>
     </row>
     <row r="38" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B38" s="163"/>
+      <c r="B38" s="164"/>
       <c r="C38" s="9"/>
       <c r="D38" s="76"/>
       <c r="E38" s="76"/>
@@ -4620,156 +4617,156 @@
       <c r="H38" s="77"/>
       <c r="I38" s="76"/>
       <c r="J38" s="76"/>
-      <c r="K38" s="151" t="s">
+      <c r="K38" s="152" t="s">
         <v>117</v>
       </c>
-      <c r="L38" s="151"/>
-      <c r="M38" s="152" t="str">
-        <f>記入!H66</f>
+      <c r="L38" s="152"/>
+      <c r="M38" s="153" t="str">
+        <f>記入!H39</f>
         <v>${aw.rate}</v>
       </c>
-      <c r="N38" s="152"/>
+      <c r="N38" s="153"/>
       <c r="O38" s="4"/>
     </row>
     <row r="39" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B39" s="163"/>
+      <c r="B39" s="164"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="150" t="s">
+      <c r="D39" s="151" t="s">
         <v>63</v>
       </c>
-      <c r="E39" s="150"/>
-      <c r="F39" s="144" t="s">
+      <c r="E39" s="151"/>
+      <c r="F39" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="G39" s="145"/>
-      <c r="H39" s="153" t="s">
+      <c r="G39" s="146"/>
+      <c r="H39" s="154" t="s">
         <v>119</v>
       </c>
-      <c r="I39" s="145"/>
-      <c r="J39" s="150" t="str">
+      <c r="I39" s="146"/>
+      <c r="J39" s="151" t="str">
         <f>"請求金額"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>請求金額(${aw.currencyposition})</v>
       </c>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
-      <c r="N39" s="150"/>
+      <c r="K39" s="151"/>
+      <c r="L39" s="151"/>
+      <c r="M39" s="151"/>
+      <c r="N39" s="151"/>
       <c r="O39" s="4"/>
     </row>
     <row r="40" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B40" s="163"/>
+      <c r="B40" s="164"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="148" t="str">
+      <c r="D40" s="149" t="str">
         <f>記入!A29</f>
         <v>第一回</v>
       </c>
-      <c r="E40" s="148"/>
-      <c r="F40" s="161" t="str">
+      <c r="E40" s="149"/>
+      <c r="F40" s="162" t="str">
         <f>IF(記入!B29="","",記入!B29)</f>
         <v>${num[0].deliverydate}</v>
       </c>
-      <c r="G40" s="162"/>
-      <c r="H40" s="161" t="str">
+      <c r="G40" s="163"/>
+      <c r="H40" s="162" t="str">
         <f>IF(記入!D29="","",記入!D29)</f>
         <v>${num[0].claimdate}</v>
       </c>
-      <c r="I40" s="162"/>
-      <c r="J40" s="136" t="str">
+      <c r="I40" s="163"/>
+      <c r="J40" s="137" t="str">
         <f>IF(記入!F29="","",記入!F29)</f>
         <v>${num[0].claimamount}</v>
       </c>
-      <c r="K40" s="136"/>
-      <c r="L40" s="136"/>
-      <c r="M40" s="136"/>
-      <c r="N40" s="136"/>
+      <c r="K40" s="137"/>
+      <c r="L40" s="137"/>
+      <c r="M40" s="137"/>
+      <c r="N40" s="137"/>
       <c r="O40" s="4"/>
     </row>
     <row r="41" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B41" s="163"/>
+      <c r="B41" s="164"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="148" t="str">
+      <c r="D41" s="149" t="str">
         <f>記入!A30</f>
         <v>第二回</v>
       </c>
-      <c r="E41" s="148"/>
-      <c r="F41" s="161" t="str">
+      <c r="E41" s="149"/>
+      <c r="F41" s="162" t="str">
         <f>IF(記入!B30="","",記入!B30)</f>
         <v>${num[1].deliverydate}</v>
       </c>
-      <c r="G41" s="162"/>
-      <c r="H41" s="161" t="str">
+      <c r="G41" s="163"/>
+      <c r="H41" s="162" t="str">
         <f>IF(記入!D30="","",記入!D30)</f>
         <v>${num[1].claimdate}</v>
       </c>
-      <c r="I41" s="162"/>
-      <c r="J41" s="136" t="str">
+      <c r="I41" s="163"/>
+      <c r="J41" s="137" t="str">
         <f>IF(記入!F30="","",記入!F30)</f>
         <v>${num[1].claimamount}</v>
       </c>
-      <c r="K41" s="136"/>
-      <c r="L41" s="136"/>
-      <c r="M41" s="136"/>
-      <c r="N41" s="136"/>
+      <c r="K41" s="137"/>
+      <c r="L41" s="137"/>
+      <c r="M41" s="137"/>
+      <c r="N41" s="137"/>
       <c r="O41" s="4"/>
     </row>
     <row r="42" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B42" s="163"/>
+      <c r="B42" s="164"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="148" t="str">
+      <c r="D42" s="149" t="str">
         <f>記入!A31</f>
         <v>第三回</v>
       </c>
-      <c r="E42" s="148"/>
-      <c r="F42" s="161" t="str">
+      <c r="E42" s="149"/>
+      <c r="F42" s="162" t="str">
         <f>IF(記入!B31="","",記入!B31)</f>
         <v>${num[2].deliverydate}</v>
       </c>
-      <c r="G42" s="162"/>
-      <c r="H42" s="161" t="str">
+      <c r="G42" s="163"/>
+      <c r="H42" s="162" t="str">
         <f>IF(記入!D31="","",記入!D31)</f>
         <v>${num[2].claimdate}</v>
       </c>
-      <c r="I42" s="162"/>
-      <c r="J42" s="136" t="str">
+      <c r="I42" s="163"/>
+      <c r="J42" s="137" t="str">
         <f>IF(記入!F31="","",記入!F31)</f>
         <v>${num[2].claimamount}</v>
       </c>
-      <c r="K42" s="136"/>
-      <c r="L42" s="136"/>
-      <c r="M42" s="136"/>
-      <c r="N42" s="136"/>
+      <c r="K42" s="137"/>
+      <c r="L42" s="137"/>
+      <c r="M42" s="137"/>
+      <c r="N42" s="137"/>
       <c r="O42" s="4"/>
     </row>
     <row r="43" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B43" s="163"/>
+      <c r="B43" s="164"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="148" t="str">
+      <c r="D43" s="149" t="str">
         <f>記入!A32</f>
         <v>第四回</v>
       </c>
-      <c r="E43" s="148"/>
-      <c r="F43" s="161" t="str">
+      <c r="E43" s="149"/>
+      <c r="F43" s="162" t="str">
         <f>IF(記入!B32="","",記入!B32)</f>
         <v>${num[3].deliverydate}</v>
       </c>
-      <c r="G43" s="162"/>
-      <c r="H43" s="161" t="str">
+      <c r="G43" s="163"/>
+      <c r="H43" s="162" t="str">
         <f>IF(記入!D32="","",記入!D32)</f>
         <v>${num[3].claimdate}</v>
       </c>
-      <c r="I43" s="162"/>
-      <c r="J43" s="136" t="str">
+      <c r="I43" s="163"/>
+      <c r="J43" s="137" t="str">
         <f>IF(記入!F32="","",記入!F32)</f>
         <v>${num[3].claimamount}</v>
       </c>
-      <c r="K43" s="136"/>
-      <c r="L43" s="136"/>
-      <c r="M43" s="136"/>
-      <c r="N43" s="136"/>
+      <c r="K43" s="137"/>
+      <c r="L43" s="137"/>
+      <c r="M43" s="137"/>
+      <c r="N43" s="137"/>
       <c r="O43" s="4"/>
     </row>
     <row r="44" spans="2:15" ht="21.75" customHeight="1">
-      <c r="B44" s="163"/>
+      <c r="B44" s="164"/>
       <c r="C44" s="9"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -4777,18 +4774,18 @@
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
-      <c r="J44" s="156">
+      <c r="J44" s="157">
         <f>SUM(J40:N43)</f>
         <v>0</v>
       </c>
-      <c r="K44" s="157"/>
-      <c r="L44" s="157"/>
-      <c r="M44" s="157"/>
-      <c r="N44" s="158"/>
+      <c r="K44" s="158"/>
+      <c r="L44" s="158"/>
+      <c r="M44" s="158"/>
+      <c r="N44" s="159"/>
       <c r="O44" s="4"/>
     </row>
     <row r="45" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B45" s="163"/>
+      <c r="B45" s="164"/>
       <c r="C45" s="9"/>
       <c r="D45" s="13" t="s">
         <v>36</v>
@@ -4806,13 +4803,13 @@
       <c r="O45" s="4"/>
     </row>
     <row r="46" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B46" s="163"/>
+      <c r="B46" s="164"/>
       <c r="C46" s="9"/>
       <c r="D46" s="13"/>
-      <c r="E46" s="173" t="s">
+      <c r="E46" s="174" t="s">
         <v>51</v>
       </c>
-      <c r="F46" s="173"/>
+      <c r="F46" s="174"/>
       <c r="G46" s="27" t="str">
         <f>記入!B40</f>
         <v>${aw.valuation}</v>
@@ -4827,13 +4824,13 @@
       <c r="O46" s="4"/>
     </row>
     <row r="47" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="163"/>
+      <c r="B47" s="164"/>
       <c r="C47" s="9"/>
       <c r="D47" s="13"/>
-      <c r="E47" s="173" t="s">
+      <c r="E47" s="174" t="s">
         <v>52</v>
       </c>
-      <c r="F47" s="173"/>
+      <c r="F47" s="174"/>
       <c r="G47" s="27" t="str">
         <f>記入!B41</f>
         <v>${aw.individual}</v>
@@ -4848,7 +4845,7 @@
       <c r="O47" s="4"/>
     </row>
     <row r="48" spans="2:15" ht="9.75" customHeight="1">
-      <c r="B48" s="163"/>
+      <c r="B48" s="164"/>
       <c r="C48" s="9"/>
       <c r="D48" s="13"/>
       <c r="E48" s="25"/>
@@ -4864,211 +4861,211 @@
       <c r="O48" s="4"/>
     </row>
     <row r="49" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="163"/>
+      <c r="B49" s="164"/>
       <c r="C49" s="9"/>
       <c r="D49" s="13" t="s">
         <v>95</v>
       </c>
       <c r="E49" s="25"/>
-      <c r="F49" s="154" t="str">
+      <c r="F49" s="155" t="str">
         <f>記入!E35</f>
         <v>${aw.remarks}</v>
       </c>
-      <c r="G49" s="154"/>
-      <c r="H49" s="154"/>
-      <c r="I49" s="154"/>
-      <c r="J49" s="154"/>
-      <c r="K49" s="154"/>
-      <c r="L49" s="154"/>
-      <c r="M49" s="154"/>
-      <c r="N49" s="154"/>
+      <c r="G49" s="155"/>
+      <c r="H49" s="155"/>
+      <c r="I49" s="155"/>
+      <c r="J49" s="155"/>
+      <c r="K49" s="155"/>
+      <c r="L49" s="155"/>
+      <c r="M49" s="155"/>
+      <c r="N49" s="155"/>
       <c r="O49" s="4"/>
     </row>
     <row r="50" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="163"/>
+      <c r="B50" s="164"/>
       <c r="C50" s="9"/>
       <c r="D50" s="13"/>
       <c r="E50" s="26"/>
-      <c r="F50" s="155"/>
-      <c r="G50" s="155"/>
-      <c r="H50" s="155"/>
-      <c r="I50" s="155"/>
-      <c r="J50" s="155"/>
-      <c r="K50" s="155"/>
-      <c r="L50" s="155"/>
-      <c r="M50" s="155"/>
-      <c r="N50" s="155"/>
+      <c r="F50" s="156"/>
+      <c r="G50" s="156"/>
+      <c r="H50" s="156"/>
+      <c r="I50" s="156"/>
+      <c r="J50" s="156"/>
+      <c r="K50" s="156"/>
+      <c r="L50" s="156"/>
+      <c r="M50" s="156"/>
+      <c r="N50" s="156"/>
       <c r="O50" s="4"/>
     </row>
     <row r="51" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="163"/>
-      <c r="C51" s="160" t="s">
+      <c r="B51" s="164"/>
+      <c r="C51" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="D51" s="160"/>
-      <c r="E51" s="160"/>
-      <c r="F51" s="160" t="s">
+      <c r="D51" s="161"/>
+      <c r="E51" s="161"/>
+      <c r="F51" s="161" t="s">
         <v>37</v>
       </c>
-      <c r="G51" s="160"/>
-      <c r="H51" s="160" t="s">
+      <c r="G51" s="161"/>
+      <c r="H51" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="I51" s="160"/>
-      <c r="J51" s="160" t="s">
+      <c r="I51" s="161"/>
+      <c r="J51" s="161" t="s">
         <v>37</v>
       </c>
-      <c r="K51" s="160"/>
-      <c r="L51" s="160"/>
-      <c r="M51" s="160" t="s">
+      <c r="K51" s="161"/>
+      <c r="L51" s="161"/>
+      <c r="M51" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="N51" s="160"/>
-      <c r="O51" s="160"/>
+      <c r="N51" s="161"/>
+      <c r="O51" s="161"/>
     </row>
     <row r="52" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B52" s="163"/>
-      <c r="C52" s="160"/>
-      <c r="D52" s="160"/>
-      <c r="E52" s="160"/>
-      <c r="F52" s="159"/>
-      <c r="G52" s="159"/>
-      <c r="H52" s="159"/>
-      <c r="I52" s="159"/>
-      <c r="J52" s="159"/>
-      <c r="K52" s="159"/>
-      <c r="L52" s="159"/>
-      <c r="M52" s="159"/>
-      <c r="N52" s="159"/>
-      <c r="O52" s="159"/>
+      <c r="B52" s="164"/>
+      <c r="C52" s="161"/>
+      <c r="D52" s="161"/>
+      <c r="E52" s="161"/>
+      <c r="F52" s="160"/>
+      <c r="G52" s="160"/>
+      <c r="H52" s="160"/>
+      <c r="I52" s="160"/>
+      <c r="J52" s="160"/>
+      <c r="K52" s="160"/>
+      <c r="L52" s="160"/>
+      <c r="M52" s="160"/>
+      <c r="N52" s="160"/>
+      <c r="O52" s="160"/>
     </row>
     <row r="53" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B53" s="163"/>
-      <c r="C53" s="160"/>
-      <c r="D53" s="160"/>
-      <c r="E53" s="160"/>
-      <c r="F53" s="159"/>
-      <c r="G53" s="159"/>
-      <c r="H53" s="159"/>
-      <c r="I53" s="159"/>
-      <c r="J53" s="159"/>
-      <c r="K53" s="159"/>
-      <c r="L53" s="159"/>
-      <c r="M53" s="159"/>
-      <c r="N53" s="159"/>
-      <c r="O53" s="159"/>
+      <c r="B53" s="164"/>
+      <c r="C53" s="161"/>
+      <c r="D53" s="161"/>
+      <c r="E53" s="161"/>
+      <c r="F53" s="160"/>
+      <c r="G53" s="160"/>
+      <c r="H53" s="160"/>
+      <c r="I53" s="160"/>
+      <c r="J53" s="160"/>
+      <c r="K53" s="160"/>
+      <c r="L53" s="160"/>
+      <c r="M53" s="160"/>
+      <c r="N53" s="160"/>
+      <c r="O53" s="160"/>
     </row>
     <row r="54" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B54" s="163"/>
-      <c r="C54" s="160"/>
-      <c r="D54" s="160"/>
-      <c r="E54" s="160"/>
-      <c r="F54" s="159"/>
-      <c r="G54" s="159"/>
-      <c r="H54" s="159"/>
-      <c r="I54" s="159"/>
-      <c r="J54" s="159"/>
-      <c r="K54" s="159"/>
-      <c r="L54" s="159"/>
-      <c r="M54" s="159"/>
-      <c r="N54" s="159"/>
-      <c r="O54" s="159"/>
+      <c r="B54" s="164"/>
+      <c r="C54" s="161"/>
+      <c r="D54" s="161"/>
+      <c r="E54" s="161"/>
+      <c r="F54" s="160"/>
+      <c r="G54" s="160"/>
+      <c r="H54" s="160"/>
+      <c r="I54" s="160"/>
+      <c r="J54" s="160"/>
+      <c r="K54" s="160"/>
+      <c r="L54" s="160"/>
+      <c r="M54" s="160"/>
+      <c r="N54" s="160"/>
+      <c r="O54" s="160"/>
     </row>
     <row r="55" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="163"/>
-      <c r="C55" s="160"/>
-      <c r="D55" s="160"/>
-      <c r="E55" s="160"/>
-      <c r="F55" s="159"/>
-      <c r="G55" s="159"/>
-      <c r="H55" s="159"/>
-      <c r="I55" s="159"/>
-      <c r="J55" s="159"/>
-      <c r="K55" s="159"/>
-      <c r="L55" s="159"/>
-      <c r="M55" s="159"/>
-      <c r="N55" s="159"/>
-      <c r="O55" s="159"/>
+      <c r="B55" s="164"/>
+      <c r="C55" s="161"/>
+      <c r="D55" s="161"/>
+      <c r="E55" s="161"/>
+      <c r="F55" s="160"/>
+      <c r="G55" s="160"/>
+      <c r="H55" s="160"/>
+      <c r="I55" s="160"/>
+      <c r="J55" s="160"/>
+      <c r="K55" s="160"/>
+      <c r="L55" s="160"/>
+      <c r="M55" s="160"/>
+      <c r="N55" s="160"/>
+      <c r="O55" s="160"/>
     </row>
     <row r="56" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B56" s="163"/>
-      <c r="C56" s="160"/>
-      <c r="D56" s="160"/>
-      <c r="E56" s="160"/>
-      <c r="F56" s="159"/>
-      <c r="G56" s="159"/>
-      <c r="H56" s="159"/>
-      <c r="I56" s="159"/>
-      <c r="J56" s="159"/>
-      <c r="K56" s="159"/>
-      <c r="L56" s="159"/>
-      <c r="M56" s="159"/>
-      <c r="N56" s="159"/>
-      <c r="O56" s="159"/>
+      <c r="B56" s="164"/>
+      <c r="C56" s="161"/>
+      <c r="D56" s="161"/>
+      <c r="E56" s="161"/>
+      <c r="F56" s="160"/>
+      <c r="G56" s="160"/>
+      <c r="H56" s="160"/>
+      <c r="I56" s="160"/>
+      <c r="J56" s="160"/>
+      <c r="K56" s="160"/>
+      <c r="L56" s="160"/>
+      <c r="M56" s="160"/>
+      <c r="N56" s="160"/>
+      <c r="O56" s="160"/>
     </row>
     <row r="57" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="163"/>
-      <c r="C57" s="160"/>
-      <c r="D57" s="160"/>
-      <c r="E57" s="160"/>
-      <c r="F57" s="159"/>
-      <c r="G57" s="159"/>
-      <c r="H57" s="159"/>
-      <c r="I57" s="159"/>
-      <c r="J57" s="159"/>
-      <c r="K57" s="159"/>
-      <c r="L57" s="159"/>
-      <c r="M57" s="159"/>
-      <c r="N57" s="159"/>
-      <c r="O57" s="159"/>
+      <c r="B57" s="164"/>
+      <c r="C57" s="161"/>
+      <c r="D57" s="161"/>
+      <c r="E57" s="161"/>
+      <c r="F57" s="160"/>
+      <c r="G57" s="160"/>
+      <c r="H57" s="160"/>
+      <c r="I57" s="160"/>
+      <c r="J57" s="160"/>
+      <c r="K57" s="160"/>
+      <c r="L57" s="160"/>
+      <c r="M57" s="160"/>
+      <c r="N57" s="160"/>
+      <c r="O57" s="160"/>
     </row>
     <row r="58" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B58" s="163"/>
-      <c r="C58" s="160"/>
-      <c r="D58" s="160"/>
-      <c r="E58" s="160"/>
-      <c r="F58" s="159"/>
-      <c r="G58" s="159"/>
-      <c r="H58" s="159"/>
-      <c r="I58" s="159"/>
-      <c r="J58" s="159"/>
-      <c r="K58" s="159"/>
-      <c r="L58" s="159"/>
-      <c r="M58" s="159"/>
-      <c r="N58" s="159"/>
-      <c r="O58" s="159"/>
+      <c r="B58" s="164"/>
+      <c r="C58" s="161"/>
+      <c r="D58" s="161"/>
+      <c r="E58" s="161"/>
+      <c r="F58" s="160"/>
+      <c r="G58" s="160"/>
+      <c r="H58" s="160"/>
+      <c r="I58" s="160"/>
+      <c r="J58" s="160"/>
+      <c r="K58" s="160"/>
+      <c r="L58" s="160"/>
+      <c r="M58" s="160"/>
+      <c r="N58" s="160"/>
+      <c r="O58" s="160"/>
     </row>
     <row r="59" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B59" s="163"/>
-      <c r="C59" s="160"/>
-      <c r="D59" s="160"/>
-      <c r="E59" s="160"/>
-      <c r="F59" s="159"/>
-      <c r="G59" s="159"/>
-      <c r="H59" s="159"/>
-      <c r="I59" s="159"/>
-      <c r="J59" s="159"/>
-      <c r="K59" s="159"/>
-      <c r="L59" s="159"/>
-      <c r="M59" s="159"/>
-      <c r="N59" s="159"/>
-      <c r="O59" s="159"/>
+      <c r="B59" s="164"/>
+      <c r="C59" s="161"/>
+      <c r="D59" s="161"/>
+      <c r="E59" s="161"/>
+      <c r="F59" s="160"/>
+      <c r="G59" s="160"/>
+      <c r="H59" s="160"/>
+      <c r="I59" s="160"/>
+      <c r="J59" s="160"/>
+      <c r="K59" s="160"/>
+      <c r="L59" s="160"/>
+      <c r="M59" s="160"/>
+      <c r="N59" s="160"/>
+      <c r="O59" s="160"/>
     </row>
     <row r="60" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B60" s="163"/>
-      <c r="C60" s="160"/>
-      <c r="D60" s="160"/>
-      <c r="E60" s="160"/>
-      <c r="F60" s="159"/>
-      <c r="G60" s="159"/>
-      <c r="H60" s="159"/>
-      <c r="I60" s="159"/>
-      <c r="J60" s="159"/>
-      <c r="K60" s="159"/>
-      <c r="L60" s="159"/>
-      <c r="M60" s="159"/>
-      <c r="N60" s="159"/>
-      <c r="O60" s="159"/>
+      <c r="B60" s="164"/>
+      <c r="C60" s="161"/>
+      <c r="D60" s="161"/>
+      <c r="E60" s="161"/>
+      <c r="F60" s="160"/>
+      <c r="G60" s="160"/>
+      <c r="H60" s="160"/>
+      <c r="I60" s="160"/>
+      <c r="J60" s="160"/>
+      <c r="K60" s="160"/>
+      <c r="L60" s="160"/>
+      <c r="M60" s="160"/>
+      <c r="N60" s="160"/>
+      <c r="O60" s="160"/>
     </row>
     <row r="61" spans="2:15" ht="14.25">
       <c r="C61" s="16" t="s">

--- a/controller/src/main/resources/jxls_templates/juecaishu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/juecaishu_shoutuo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\newparkcloudNew\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12750" yWindow="45" windowWidth="15900" windowHeight="12420" tabRatio="570"/>
+    <workbookView xWindow="12750" yWindow="45" windowWidth="15900" windowHeight="12420" tabRatio="570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="190">
   <si>
     <t>委託元（和文）</t>
     <rPh sb="4" eb="6">
@@ -1175,240 +1175,245 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>${aw.currencyposition}</t>
+  </si>
+  <si>
+    <t>${aw.claimamount}</t>
+  </si>
+  <si>
+    <t>${aw.telephone}</t>
+  </si>
+  <si>
+    <t>${aw.plan}</t>
+  </si>
+  <si>
+    <t>${aw.valuation}</t>
+  </si>
+  <si>
+    <t>${aw.individual}</t>
+  </si>
+  <si>
+    <t>${aw.remarks}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${aw.exchangerate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${aw.total}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${aw.price}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${aw.rate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t.depart}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t.outsource}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t.outcommunity}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t.member}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t.community}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${statime[0]}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${statime[1]}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${aw.user_id}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${aw.draftingdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${aw.scheduleddate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[0].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[1].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[2].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[3].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[4].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[5].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[6].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[7].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[0].depart}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[1].depart}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[2].depart}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[3].depart}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[4].depart}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[5].depart}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[6].depart}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[7].depart}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>${aw.pjnamechinese}</t>
-  </si>
-  <si>
-    <t>${aw.user_id}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${aw.currencyposition}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${aw.contractnumber}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${aw.number}</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>${aw.claimamount}</t>
-  </si>
-  <si>
-    <t>${aw.telephone}</t>
-  </si>
-  <si>
-    <t>${aw.plan}</t>
-  </si>
-  <si>
-    <t>${aw.valuation}</t>
-  </si>
-  <si>
-    <t>${aw.individual}</t>
-  </si>
-  <si>
-    <t>${aw.remarks}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${aw.exchangerate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${aw.total}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${aw.numbermoth}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${aw.price}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${aw.rate}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>${t.budgetcode}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${t.depart}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${t.outsource}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${t.outcommunity}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${t.member}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${t.community}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${statime[0]}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${statime[1]}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[0].deliverydate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[2].deliverydate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[3].deliverydate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[1].deliverydate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[1].completiondate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[1].claimdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[1].supportdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[1].claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[0].completiondate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[0].claimdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[0].supportdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[0].claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[2].completiondate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[2].claimdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[2].supportdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[2].claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[3].completiondate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[3].claimdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[3].supportdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[3].claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${aw.user_id}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${aw.draftingdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${aw.scheduleddate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${sta[0].budgetcode}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${sta[1].budgetcode}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${sta[2].budgetcode}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${sta[3].budgetcode}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${sta[4].budgetcode}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${sta[5].budgetcode}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${sta[6].budgetcode}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${sta[7].budgetcode}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${sta[0].depart}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${sta[1].depart}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${sta[2].depart}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${sta[3].depart}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${sta[4].depart}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${sta[5].depart}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${sta[6].depart}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${sta[7].depart}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2173,26 +2178,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2260,11 +2250,26 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2826,8 +2831,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2843,14 +2848,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="G1" s="96" t="s">
+      <c r="B1" s="88"/>
+      <c r="G1" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="97"/>
+      <c r="H1" s="92"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" s="29" t="s">
@@ -2863,8 +2868,8 @@
         <v>15</v>
       </c>
       <c r="D2" s="30"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="99"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" s="31" t="s">
@@ -2874,8 +2879,8 @@
       <c r="C3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="99"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="94"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="29" t="s">
@@ -2887,8 +2892,8 @@
       <c r="C4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="98"/>
-      <c r="H4" s="99"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="94"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
       <c r="A5" s="29" t="s">
@@ -2898,8 +2903,8 @@
       <c r="C5" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="98"/>
-      <c r="H5" s="99"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="94"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="A6" s="33" t="s">
@@ -2911,8 +2916,8 @@
       <c r="C6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="98"/>
-      <c r="H6" s="99"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="94"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="A7" s="33" t="s">
@@ -2924,8 +2929,8 @@
       <c r="C7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="98"/>
-      <c r="H7" s="99"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="94"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8" s="29" t="s">
@@ -2935,8 +2940,8 @@
       <c r="C8" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="98"/>
-      <c r="H8" s="99"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="94"/>
     </row>
     <row r="9" spans="1:8" s="34" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="31" t="s">
@@ -2948,8 +2953,8 @@
       <c r="C9" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="98"/>
-      <c r="H9" s="99"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="94"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="A10" s="29" t="s">
@@ -2961,34 +2966,34 @@
       <c r="C10" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="98"/>
-      <c r="H10" s="99"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="94"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
       <c r="A11" s="29" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="81" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="98"/>
-      <c r="H11" s="99"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="94"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
       <c r="A12" s="29" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="81" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="98"/>
-      <c r="H12" s="99"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="94"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="A13" s="29" t="s">
@@ -2998,34 +3003,34 @@
       <c r="C13" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="98"/>
-      <c r="H13" s="99"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="94"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
       <c r="A14" s="29" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="98"/>
-      <c r="H14" s="99"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="94"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="98"/>
-      <c r="H15" s="99"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="94"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
       <c r="A16" s="29" t="s">
@@ -3035,8 +3040,8 @@
       <c r="C16" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="98"/>
-      <c r="H16" s="99"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="94"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
       <c r="A17" s="29" t="s">
@@ -3046,8 +3051,8 @@
       <c r="C17" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="98"/>
-      <c r="H17" s="99"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="94"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
       <c r="A18" s="29" t="s">
@@ -3057,34 +3062,34 @@
       <c r="C18" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="98"/>
-      <c r="H18" s="99"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="94"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="81" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="98"/>
-      <c r="H19" s="99"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="94"/>
     </row>
     <row r="20" spans="1:8" s="34" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="82" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C20" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="98"/>
-      <c r="H20" s="99"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="94"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1">
       <c r="A21" s="29" t="s">
@@ -3094,8 +3099,8 @@
       <c r="C21" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="98"/>
-      <c r="H21" s="99"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="94"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1">
       <c r="A22" s="29" t="s">
@@ -3105,8 +3110,8 @@
       <c r="C22" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="98"/>
-      <c r="H22" s="99"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="94"/>
     </row>
     <row r="23" spans="1:8" s="34" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="31" t="s">
@@ -3116,8 +3121,8 @@
       <c r="C23" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="98"/>
-      <c r="H23" s="99"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="94"/>
     </row>
     <row r="24" spans="1:8" s="34" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="31" t="s">
@@ -3127,8 +3132,8 @@
       <c r="C24" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="98"/>
-      <c r="H24" s="99"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="94"/>
     </row>
     <row r="25" spans="1:8" s="34" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="31" t="s">
@@ -3140,8 +3145,8 @@
       <c r="C25" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="98"/>
-      <c r="H25" s="99"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="94"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1">
       <c r="A26" s="31" t="s">
@@ -3153,14 +3158,14 @@
       <c r="C26" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="98"/>
-      <c r="H26" s="99"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="94"/>
     </row>
     <row r="27" spans="1:8" ht="3" customHeight="1">
       <c r="A27" s="35"/>
       <c r="B27" s="28"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="99"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="94"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1">
       <c r="A28" s="36" t="s">
@@ -3181,8 +3186,8 @@
       <c r="F28" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="G28" s="98"/>
-      <c r="H28" s="99"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="94"/>
     </row>
     <row r="29" spans="1:8" ht="13.5" customHeight="1">
       <c r="A29" s="56" t="str">
@@ -3190,22 +3195,22 @@
         <v>第一回</v>
       </c>
       <c r="B29" s="83" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C29" s="83" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D29" s="84" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E29" s="84" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F29" s="85" t="s">
-        <v>161</v>
-      </c>
-      <c r="G29" s="98"/>
-      <c r="H29" s="99"/>
+        <v>157</v>
+      </c>
+      <c r="G29" s="93"/>
+      <c r="H29" s="94"/>
     </row>
     <row r="30" spans="1:8" ht="13.5" customHeight="1">
       <c r="A30" s="56" t="str">
@@ -3213,22 +3218,22 @@
         <v>第二回</v>
       </c>
       <c r="B30" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="83" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="84" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="84" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="83" t="s">
-        <v>154</v>
-      </c>
-      <c r="D30" s="84" t="s">
-        <v>155</v>
-      </c>
-      <c r="E30" s="84" t="s">
-        <v>156</v>
-      </c>
-      <c r="F30" s="85" t="s">
-        <v>157</v>
-      </c>
-      <c r="G30" s="98"/>
-      <c r="H30" s="99"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="94"/>
     </row>
     <row r="31" spans="1:8" ht="13.5" customHeight="1">
       <c r="A31" s="56" t="str">
@@ -3236,22 +3241,22 @@
         <v>第三回</v>
       </c>
       <c r="B31" s="83" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C31" s="83" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D31" s="84" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E31" s="84" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F31" s="85" t="s">
-        <v>165</v>
-      </c>
-      <c r="G31" s="98"/>
-      <c r="H31" s="99"/>
+        <v>161</v>
+      </c>
+      <c r="G31" s="93"/>
+      <c r="H31" s="94"/>
     </row>
     <row r="32" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
       <c r="A32" s="56" t="str">
@@ -3259,22 +3264,22 @@
         <v>第四回</v>
       </c>
       <c r="B32" s="83" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C32" s="83" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D32" s="84" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E32" s="84" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F32" s="85" t="s">
-        <v>169</v>
-      </c>
-      <c r="G32" s="100"/>
-      <c r="H32" s="101"/>
+        <v>165</v>
+      </c>
+      <c r="G32" s="95"/>
+      <c r="H32" s="96"/>
     </row>
     <row r="33" spans="1:8" ht="6.75" customHeight="1">
       <c r="A33" s="38"/>
@@ -3289,53 +3294,53 @@
         <v>44</v>
       </c>
       <c r="B35" s="81" t="s">
-        <v>170</v>
-      </c>
-      <c r="C35" s="102" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="103"/>
-      <c r="E35" s="108" t="s">
-        <v>136</v>
-      </c>
-      <c r="F35" s="109"/>
-      <c r="G35" s="109"/>
-      <c r="H35" s="109"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="103" t="s">
+        <v>134</v>
+      </c>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="104"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="41" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="81" t="s">
-        <v>132</v>
-      </c>
-      <c r="C36" s="104"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="111"/>
-      <c r="G36" s="111"/>
-      <c r="H36" s="111"/>
+        <v>130</v>
+      </c>
+      <c r="C36" s="99"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="106"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="41" t="s">
         <v>46</v>
       </c>
       <c r="B37" s="58" t="s">
-        <v>171</v>
-      </c>
-      <c r="C37" s="106"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="113"/>
-      <c r="G37" s="113"/>
-      <c r="H37" s="113"/>
+        <v>167</v>
+      </c>
+      <c r="C37" s="101"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="108"/>
+      <c r="H37" s="108"/>
     </row>
     <row r="38" spans="1:8" ht="13.5">
       <c r="A38" s="42" t="s">
         <v>48</v>
       </c>
       <c r="B38" s="58" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C38" s="30"/>
       <c r="F38" s="78" t="s">
@@ -3347,22 +3352,22 @@
         <v>50</v>
       </c>
       <c r="B39" s="81" t="s">
-        <v>133</v>
-      </c>
-      <c r="C39" s="114" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="109" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="116"/>
+      <c r="D39" s="110"/>
       <c r="E39" s="72" t="e">
         <f>(F47-E59-E61)/F47</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F39" s="114" t="s">
+      <c r="F39" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="G39" s="114"/>
+      <c r="G39" s="109"/>
       <c r="H39" s="64" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="39" customFormat="1" ht="13.5">
@@ -3370,7 +3375,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="81" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C40" s="28"/>
       <c r="D40" s="28"/>
@@ -3380,34 +3385,34 @@
         <v>40</v>
       </c>
       <c r="B41" s="81" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C41" s="28"/>
       <c r="D41" s="28"/>
     </row>
     <row r="42" spans="1:8" s="39" customFormat="1" ht="14.25">
-      <c r="A42" s="93" t="s">
+      <c r="A42" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="93" t="s">
+      <c r="B42" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="90" t="s">
+      <c r="C42" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="91"/>
-      <c r="E42" s="91"/>
-      <c r="F42" s="92"/>
-      <c r="G42" s="95" t="s">
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="116"/>
+      <c r="G42" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="H42" s="93" t="s">
+      <c r="H42" s="89" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.25">
-      <c r="A43" s="93"/>
-      <c r="B43" s="93"/>
+      <c r="A43" s="89"/>
+      <c r="B43" s="89"/>
       <c r="C43" s="43" t="s">
         <v>65</v>
       </c>
@@ -3420,27 +3425,27 @@
       <c r="F43" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="G43" s="93"/>
-      <c r="H43" s="93"/>
+      <c r="G43" s="89"/>
+      <c r="H43" s="89"/>
     </row>
     <row r="44" spans="1:8" ht="14.25">
       <c r="A44" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="B44" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="B44" s="87" t="s">
+      <c r="D44" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="C44" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="D44" s="86" t="s">
-        <v>147</v>
-      </c>
       <c r="E44" s="86" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F44" s="86" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G44" s="44" t="e">
         <f>C44+E44</f>
@@ -3452,10 +3457,10 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="15">
-      <c r="A45" s="88" t="s">
+      <c r="A45" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="89"/>
+      <c r="B45" s="113"/>
       <c r="C45" s="46">
         <f>SUM(C44:C44)</f>
         <v>0</v>
@@ -3484,7 +3489,7 @@
         <v>96</v>
       </c>
       <c r="D47" s="63" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E47" s="59" t="s">
         <v>97</v>
@@ -3525,10 +3530,10 @@
         <v>109</v>
       </c>
       <c r="D50" s="73" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E50" s="57" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F50" s="65"/>
       <c r="G50" s="65"/>
@@ -3539,10 +3544,10 @@
         <v>110</v>
       </c>
       <c r="D51" s="73" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E51" s="57" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F51" s="65"/>
       <c r="G51" s="65"/>
@@ -3553,10 +3558,10 @@
         <v>111</v>
       </c>
       <c r="D52" s="73" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E52" s="57" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F52" s="65"/>
       <c r="G52" s="65"/>
@@ -3567,10 +3572,10 @@
         <v>112</v>
       </c>
       <c r="D53" s="73" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E53" s="57" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F53" s="65"/>
       <c r="G53" s="65"/>
@@ -3581,10 +3586,10 @@
         <v>113</v>
       </c>
       <c r="D54" s="73" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E54" s="57" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F54" s="65"/>
       <c r="G54" s="65"/>
@@ -3595,10 +3600,10 @@
         <v>114</v>
       </c>
       <c r="D55" s="73" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E55" s="57" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F55" s="65"/>
       <c r="G55" s="65"/>
@@ -3609,10 +3614,10 @@
         <v>115</v>
       </c>
       <c r="D56" s="73" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E56" s="57" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F56" s="65"/>
       <c r="G56" s="65"/>
@@ -3623,20 +3628,20 @@
         <v>116</v>
       </c>
       <c r="D57" s="73" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E57" s="57" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F57" s="65"/>
       <c r="G57" s="65"/>
       <c r="H57" s="65"/>
     </row>
     <row r="58" spans="3:8">
-      <c r="C58" s="115" t="s">
+      <c r="C58" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="D58" s="115"/>
+      <c r="D58" s="111"/>
       <c r="E58" s="68">
         <f>SUM(E50:E57)</f>
         <v>0</v>
@@ -3646,10 +3651,10 @@
       <c r="H58" s="65"/>
     </row>
     <row r="59" spans="3:8">
-      <c r="C59" s="114" t="s">
+      <c r="C59" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="D59" s="116"/>
+      <c r="D59" s="110"/>
       <c r="E59" s="69" t="e">
         <f>D51*E51+D52*E52+D53*E53+D54*E54+D55*E55+D56*E56+D57*E57</f>
         <v>#VALUE!</v>
@@ -3667,46 +3672,46 @@
       <c r="H60" s="65"/>
     </row>
     <row r="61" spans="3:8" ht="14.25" customHeight="1">
-      <c r="C61" s="115" t="s">
+      <c r="C61" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="D61" s="115"/>
+      <c r="D61" s="111"/>
       <c r="E61" s="82" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F61" s="65"/>
       <c r="G61" s="65"/>
       <c r="H61" s="65"/>
     </row>
     <row r="62" spans="3:8" ht="14.25" customHeight="1">
-      <c r="C62" s="115" t="s">
+      <c r="C62" s="111" t="s">
         <v>105</v>
       </c>
-      <c r="D62" s="115"/>
+      <c r="D62" s="111"/>
       <c r="E62" s="82" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="F62" s="65"/>
       <c r="G62" s="65"/>
       <c r="H62" s="65"/>
     </row>
     <row r="63" spans="3:8" ht="14.25" customHeight="1">
-      <c r="C63" s="115" t="s">
+      <c r="C63" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="D63" s="115"/>
+      <c r="D63" s="111"/>
       <c r="E63" s="82" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F63" s="65"/>
       <c r="G63" s="65"/>
       <c r="H63" s="65"/>
     </row>
     <row r="64" spans="3:8">
-      <c r="C64" s="115" t="s">
+      <c r="C64" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="D64" s="115"/>
+      <c r="D64" s="111"/>
       <c r="E64" s="68" t="e">
         <f>E61/E62</f>
         <v>#VALUE!</v>
@@ -3730,16 +3735,15 @@
     <protectedRange sqref="C44:D44" name="範囲3_3"/>
   </protectedRanges>
   <mergeCells count="18">
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:H43"/>
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:H43"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="G42:G43"/>
@@ -3748,6 +3752,7 @@
     <mergeCell ref="C35:D37"/>
     <mergeCell ref="E35:H37"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="C39:D39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
@@ -3770,8 +3775,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38:N38"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31:L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4265,7 +4270,7 @@
       <c r="E25" s="149"/>
       <c r="F25" s="132" t="str">
         <f>記入!B12</f>
-        <v>${aw.user_id}</v>
+        <v>${aw.contractnumber}</v>
       </c>
       <c r="G25" s="132"/>
       <c r="H25" s="132"/>
@@ -4391,9 +4396,8 @@
       <c r="C31" s="9"/>
       <c r="D31" s="176"/>
       <c r="E31" s="177"/>
-      <c r="F31" s="132" t="str">
-        <f>記入!A44</f>
-        <v>${t.budgetcode}</v>
+      <c r="F31" s="132" t="s">
+        <v>189</v>
       </c>
       <c r="G31" s="132"/>
       <c r="H31" s="24" t="str">
@@ -4657,7 +4661,7 @@
       <c r="B40" s="164"/>
       <c r="C40" s="9"/>
       <c r="D40" s="149" t="str">
-        <f>記入!A29</f>
+        <f>IF(F40="","","第一回")</f>
         <v>第一回</v>
       </c>
       <c r="E40" s="149"/>
@@ -4685,7 +4689,7 @@
       <c r="B41" s="164"/>
       <c r="C41" s="9"/>
       <c r="D41" s="149" t="str">
-        <f>記入!A30</f>
+        <f>IF(F41="","","第二回")</f>
         <v>第二回</v>
       </c>
       <c r="E41" s="149"/>
@@ -4713,7 +4717,7 @@
       <c r="B42" s="164"/>
       <c r="C42" s="9"/>
       <c r="D42" s="149" t="str">
-        <f>記入!A31</f>
+        <f>IF(F42="","","第三回")</f>
         <v>第三回</v>
       </c>
       <c r="E42" s="149"/>
@@ -4741,7 +4745,7 @@
       <c r="B43" s="164"/>
       <c r="C43" s="9"/>
       <c r="D43" s="149" t="str">
-        <f>記入!A32</f>
+        <f>IF(F43="","","第四回")</f>
         <v>第四回</v>
       </c>
       <c r="E43" s="149"/>
@@ -4774,9 +4778,8 @@
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
-      <c r="J44" s="157">
-        <f>SUM(J40:N43)</f>
-        <v>0</v>
+      <c r="J44" s="157" t="s">
+        <v>188</v>
       </c>
       <c r="K44" s="158"/>
       <c r="L44" s="158"/>

--- a/controller/src/main/resources/jxls_templates/juecaishu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/juecaishu_shoutuo.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12750" yWindow="45" windowWidth="15900" windowHeight="12420" tabRatio="570" activeTab="1"/>
+    <workbookView xWindow="12750" yWindow="45" windowWidth="15900" windowHeight="12420" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
     <sheet name="決裁願" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">記入!$A$1:$I$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">決裁願!$A$1:$P$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">記入!$A$1:$J$82</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">決裁願!$A$1:$P$63</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -70,21 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A44" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-          </rPr>
-          <t>jx:each(items="alist", var="t", lastCell="H44")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D49" authorId="1" shapeId="0">
+    <comment ref="D55" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="244">
   <si>
     <t>委託元（和文）</t>
     <rPh sb="4" eb="6">
@@ -1213,26 +1199,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${t.depart}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${t.outsource}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${t.outcommunity}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${t.member}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${t.community}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>${statime[0]}</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1413,8 +1379,195 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${t.budgetcode}</t>
-    <phoneticPr fontId="1"/>
+    <t>R9A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R11A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R11B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[8].budgetcode}</t>
+  </si>
+  <si>
+    <t>${sta[9].budgetcode}</t>
+  </si>
+  <si>
+    <t>${sta[10].budgetcode}</t>
+  </si>
+  <si>
+    <t>${sta[11].budgetcode}</t>
+  </si>
+  <si>
+    <t>${sta[12].budgetcode}</t>
+  </si>
+  <si>
+    <t>${sta[8].depart}</t>
+  </si>
+  <si>
+    <t>${sta[9].depart}</t>
+  </si>
+  <si>
+    <t>${sta[10].depart}</t>
+  </si>
+  <si>
+    <t>${sta[11].depart}</t>
+  </si>
+  <si>
+    <t>${sta[12].depart}</t>
+  </si>
+  <si>
+    <t>R3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[0].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[1].budgetcode}</t>
+  </si>
+  <si>
+    <t>${t[2].budgetcode}</t>
+  </si>
+  <si>
+    <t>${t[3].budgetcode}</t>
+  </si>
+  <si>
+    <t>${t[4].budgetcode}</t>
+  </si>
+  <si>
+    <t>${t[5].budgetcode}</t>
+  </si>
+  <si>
+    <t>${t[6].budgetcode}</t>
+  </si>
+  <si>
+    <t>${t[0].depart}</t>
+  </si>
+  <si>
+    <t>${t[0].depart}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[1].depart}</t>
+  </si>
+  <si>
+    <t>${t[2].depart}</t>
+  </si>
+  <si>
+    <t>${t[3].depart}</t>
+  </si>
+  <si>
+    <t>${t[4].depart}</t>
+  </si>
+  <si>
+    <t>${t[5].depart}</t>
+  </si>
+  <si>
+    <t>${t[6].depart}</t>
+  </si>
+  <si>
+    <t>${t[0].member}</t>
+  </si>
+  <si>
+    <t>${t[0].member}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[1].member}</t>
+  </si>
+  <si>
+    <t>${t[2].member}</t>
+  </si>
+  <si>
+    <t>${t[3].member}</t>
+  </si>
+  <si>
+    <t>${t[4].member}</t>
+  </si>
+  <si>
+    <t>${t[5].member}</t>
+  </si>
+  <si>
+    <t>${t[6].member}</t>
+  </si>
+  <si>
+    <t>${t[0].community}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[1].community}</t>
+  </si>
+  <si>
+    <t>${t[2].community}</t>
+  </si>
+  <si>
+    <t>${t[3].community}</t>
+  </si>
+  <si>
+    <t>${t[4].community}</t>
+  </si>
+  <si>
+    <t>${t[5].community}</t>
+  </si>
+  <si>
+    <t>${t[6].community}</t>
+  </si>
+  <si>
+    <t>${t[0].outsource}</t>
+  </si>
+  <si>
+    <t>${t[0].outsource}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[1].outsource}</t>
+  </si>
+  <si>
+    <t>${t[2].outsource}</t>
+  </si>
+  <si>
+    <t>${t[3].outsource}</t>
+  </si>
+  <si>
+    <t>${t[4].outsource}</t>
+  </si>
+  <si>
+    <t>${t[5].outsource}</t>
+  </si>
+  <si>
+    <t>${t[6].outsource}</t>
+  </si>
+  <si>
+    <t>${t[0].outcommunity}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${t[1].outcommunity}</t>
+  </si>
+  <si>
+    <t>${t[2].outcommunity}</t>
+  </si>
+  <si>
+    <t>${t[3].outcommunity}</t>
+  </si>
+  <si>
+    <t>${t[4].outcommunity}</t>
+  </si>
+  <si>
+    <t>${t[5].outcommunity}</t>
+  </si>
+  <si>
+    <t>${t[6].outcommunity}</t>
   </si>
 </sst>
 </file>
@@ -1912,7 +2065,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1984,9 +2137,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2081,10 +2231,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="31" fontId="5" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2114,9 +2260,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2132,57 +2275,97 @@
     <xf numFmtId="10" fontId="5" fillId="7" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="6" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="40" fontId="6" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2247,32 +2430,248 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2285,240 +2684,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2829,921 +2994,1152 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A55" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14" style="28" customWidth="1"/>
-    <col min="2" max="2" width="45.125" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9" style="28"/>
-    <col min="8" max="8" width="10.125" style="28" customWidth="1"/>
-    <col min="9" max="9" width="2.375" style="28" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="28"/>
+    <col min="1" max="1" width="14" style="27" customWidth="1"/>
+    <col min="2" max="2" width="45.125" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="10.125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="2.375" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="G1" s="91" t="s">
+      <c r="B1" s="99"/>
+      <c r="G1" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="92"/>
+      <c r="H1" s="102"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
+      <c r="D2" s="29"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="32" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="93"/>
-      <c r="H3" s="94"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="104"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="93"/>
-      <c r="H4" s="94"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="104"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="32" t="s">
+      <c r="B5" s="50"/>
+      <c r="C5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="93"/>
-      <c r="H5" s="94"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="104"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="93"/>
-      <c r="H6" s="94"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="104"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="93"/>
-      <c r="H7" s="94"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="104"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="32" t="s">
+      <c r="B8" s="51"/>
+      <c r="C8" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="93"/>
-      <c r="H8" s="94"/>
-    </row>
-    <row r="9" spans="1:8" s="34" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="31" t="s">
+      <c r="G8" s="103"/>
+      <c r="H8" s="104"/>
+    </row>
+    <row r="9" spans="1:8" s="33" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A9" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="93"/>
-      <c r="H9" s="94"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="104"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="93"/>
-      <c r="H10" s="94"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="104"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="81" t="s">
-        <v>185</v>
-      </c>
-      <c r="C11" s="30" t="s">
+      <c r="B11" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="93"/>
-      <c r="H11" s="94"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="104"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="81" t="s">
-        <v>186</v>
-      </c>
-      <c r="C12" s="30" t="s">
+      <c r="B12" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="93"/>
-      <c r="H12" s="94"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="104"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="32" t="s">
+      <c r="B13" s="50"/>
+      <c r="C13" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="93"/>
-      <c r="H13" s="94"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="104"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" s="30" t="s">
+      <c r="B14" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="93"/>
-      <c r="H14" s="94"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="104"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="30" t="s">
+      <c r="B15" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="93"/>
-      <c r="H15" s="94"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="104"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="32" t="s">
+      <c r="B16" s="51"/>
+      <c r="C16" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="93"/>
-      <c r="H16" s="94"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="104"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="32" t="s">
+      <c r="B17" s="51"/>
+      <c r="C17" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="93"/>
-      <c r="H17" s="94"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="104"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="32" t="s">
+      <c r="B18" s="51"/>
+      <c r="C18" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="93"/>
-      <c r="H18" s="94"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="104"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="93"/>
-      <c r="H19" s="94"/>
-    </row>
-    <row r="20" spans="1:8" s="34" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A20" s="29" t="s">
+      <c r="G19" s="103"/>
+      <c r="H19" s="104"/>
+    </row>
+    <row r="20" spans="1:8" s="33" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A20" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="82" t="s">
+      <c r="B20" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="93"/>
-      <c r="H20" s="94"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="104"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="32" t="s">
+      <c r="B21" s="51"/>
+      <c r="C21" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="93"/>
-      <c r="H21" s="94"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="104"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="32" t="s">
+      <c r="B22" s="51"/>
+      <c r="C22" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="93"/>
-      <c r="H22" s="94"/>
-    </row>
-    <row r="23" spans="1:8" s="34" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A23" s="31" t="s">
+      <c r="G22" s="103"/>
+      <c r="H22" s="104"/>
+    </row>
+    <row r="23" spans="1:8" s="33" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A23" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="32" t="s">
+      <c r="B23" s="53"/>
+      <c r="C23" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="93"/>
-      <c r="H23" s="94"/>
-    </row>
-    <row r="24" spans="1:8" s="34" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A24" s="31" t="s">
+      <c r="G23" s="103"/>
+      <c r="H23" s="104"/>
+    </row>
+    <row r="24" spans="1:8" s="33" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A24" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="32" t="s">
+      <c r="B24" s="48"/>
+      <c r="C24" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="93"/>
-      <c r="H24" s="94"/>
-    </row>
-    <row r="25" spans="1:8" s="34" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A25" s="31" t="s">
+      <c r="G24" s="103"/>
+      <c r="H24" s="104"/>
+    </row>
+    <row r="25" spans="1:8" s="33" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A25" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="93"/>
-      <c r="H25" s="94"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="104"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="93"/>
-      <c r="H26" s="94"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="104"/>
     </row>
     <row r="27" spans="1:8" ht="3" customHeight="1">
-      <c r="A27" s="35"/>
-      <c r="B27" s="28"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="94"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="27"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="104"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="E28" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="F28" s="37" t="s">
+      <c r="F28" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="G28" s="93"/>
-      <c r="H28" s="94"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="104"/>
     </row>
     <row r="29" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A29" s="56" t="str">
+      <c r="A29" s="55" t="str">
         <f>IF(B29="","","第一回")</f>
         <v>第一回</v>
       </c>
-      <c r="B29" s="83" t="s">
-        <v>146</v>
-      </c>
-      <c r="C29" s="83" t="s">
-        <v>154</v>
-      </c>
-      <c r="D29" s="84" t="s">
-        <v>155</v>
-      </c>
-      <c r="E29" s="84" t="s">
-        <v>156</v>
-      </c>
-      <c r="F29" s="85" t="s">
-        <v>157</v>
-      </c>
-      <c r="G29" s="93"/>
-      <c r="H29" s="94"/>
+      <c r="B29" s="78" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="78" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" s="80" t="s">
+        <v>152</v>
+      </c>
+      <c r="G29" s="103"/>
+      <c r="H29" s="104"/>
     </row>
     <row r="30" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A30" s="56" t="str">
+      <c r="A30" s="55" t="str">
         <f>IF(B30="","","第二回")</f>
         <v>第二回</v>
       </c>
-      <c r="B30" s="83" t="s">
-        <v>149</v>
-      </c>
-      <c r="C30" s="83" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E30" s="84" t="s">
-        <v>152</v>
-      </c>
-      <c r="F30" s="85" t="s">
-        <v>153</v>
-      </c>
-      <c r="G30" s="93"/>
-      <c r="H30" s="94"/>
+      <c r="B30" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="79" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="79" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" s="80" t="s">
+        <v>148</v>
+      </c>
+      <c r="G30" s="103"/>
+      <c r="H30" s="104"/>
     </row>
     <row r="31" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A31" s="56" t="str">
+      <c r="A31" s="55" t="str">
         <f>IF(B31="","","第三回")</f>
         <v>第三回</v>
       </c>
-      <c r="B31" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="C31" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="D31" s="84" t="s">
-        <v>159</v>
-      </c>
-      <c r="E31" s="84" t="s">
-        <v>160</v>
-      </c>
-      <c r="F31" s="85" t="s">
-        <v>161</v>
-      </c>
-      <c r="G31" s="93"/>
-      <c r="H31" s="94"/>
+      <c r="B31" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="78" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="79" t="s">
+        <v>154</v>
+      </c>
+      <c r="E31" s="79" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="G31" s="103"/>
+      <c r="H31" s="104"/>
     </row>
     <row r="32" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A32" s="56" t="str">
+      <c r="A32" s="55" t="str">
         <f>IF(B32="","","第四回")</f>
         <v>第四回</v>
       </c>
-      <c r="B32" s="83" t="s">
-        <v>148</v>
-      </c>
-      <c r="C32" s="83" t="s">
+      <c r="B32" s="78" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" s="79" t="s">
+        <v>159</v>
+      </c>
+      <c r="F32" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="G32" s="105"/>
+      <c r="H32" s="106"/>
+    </row>
+    <row r="33" spans="1:8" ht="6.75" customHeight="1">
+      <c r="A33" s="37"/>
+    </row>
+    <row r="34" spans="1:8" ht="14.25">
+      <c r="A34" s="39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="107" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="108"/>
+      <c r="E35" s="113" t="s">
+        <v>134</v>
+      </c>
+      <c r="F35" s="114"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="114"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="109"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="116"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="D32" s="84" t="s">
+      <c r="C37" s="111"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="118"/>
+      <c r="G37" s="118"/>
+      <c r="H37" s="118"/>
+    </row>
+    <row r="38" spans="1:8" ht="13.5">
+      <c r="A38" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="E32" s="84" t="s">
+      <c r="C38" s="29"/>
+      <c r="F38" s="74" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="38" customFormat="1" ht="13.5">
+      <c r="A39" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="97" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="98"/>
+      <c r="E39" s="69" t="e">
+        <f>(F53-E70-E72)/F53</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F39" s="97" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39" s="97"/>
+      <c r="H39" s="62" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="38" customFormat="1" ht="13.5">
+      <c r="A40" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+    </row>
+    <row r="41" spans="1:8" s="38" customFormat="1" ht="13.5">
+      <c r="A41" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+    </row>
+    <row r="42" spans="1:8" s="38" customFormat="1" ht="14.25">
+      <c r="A42" s="96" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="96" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="94"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="H42" s="96" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="14.25">
+      <c r="A43" s="96"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+    </row>
+    <row r="44" spans="1:8" ht="14.25">
+      <c r="A44" s="89" t="s">
+        <v>199</v>
+      </c>
+      <c r="B44" s="82" t="s">
+        <v>207</v>
+      </c>
+      <c r="C44" s="81" t="s">
+        <v>215</v>
+      </c>
+      <c r="D44" s="81" t="s">
+        <v>222</v>
+      </c>
+      <c r="E44" s="81" t="s">
+        <v>230</v>
+      </c>
+      <c r="F44" s="81" t="s">
+        <v>237</v>
+      </c>
+      <c r="G44" s="43" t="e">
+        <f t="shared" ref="G44:G49" si="0">C44+E44</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H44" s="44" t="e">
+        <f t="shared" ref="H44:H50" si="1">C44*D44+E44*F44</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="14.25">
+      <c r="A45" s="89" t="s">
+        <v>200</v>
+      </c>
+      <c r="B45" s="82" t="s">
+        <v>208</v>
+      </c>
+      <c r="C45" s="81" t="s">
+        <v>216</v>
+      </c>
+      <c r="D45" s="81" t="s">
+        <v>223</v>
+      </c>
+      <c r="E45" s="81" t="s">
+        <v>231</v>
+      </c>
+      <c r="F45" s="81" t="s">
+        <v>238</v>
+      </c>
+      <c r="G45" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H45" s="44" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="14.25">
+      <c r="A46" s="89" t="s">
+        <v>201</v>
+      </c>
+      <c r="B46" s="82" t="s">
+        <v>209</v>
+      </c>
+      <c r="C46" s="81" t="s">
+        <v>217</v>
+      </c>
+      <c r="D46" s="81" t="s">
+        <v>224</v>
+      </c>
+      <c r="E46" s="81" t="s">
+        <v>232</v>
+      </c>
+      <c r="F46" s="81" t="s">
+        <v>239</v>
+      </c>
+      <c r="G46" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H46" s="44" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="14.25">
+      <c r="A47" s="89" t="s">
+        <v>202</v>
+      </c>
+      <c r="B47" s="82" t="s">
+        <v>210</v>
+      </c>
+      <c r="C47" s="81" t="s">
+        <v>218</v>
+      </c>
+      <c r="D47" s="81" t="s">
+        <v>225</v>
+      </c>
+      <c r="E47" s="81" t="s">
+        <v>233</v>
+      </c>
+      <c r="F47" s="81" t="s">
+        <v>240</v>
+      </c>
+      <c r="G47" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H47" s="44" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="14.25">
+      <c r="A48" s="89" t="s">
+        <v>203</v>
+      </c>
+      <c r="B48" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="C48" s="81" t="s">
+        <v>219</v>
+      </c>
+      <c r="D48" s="81" t="s">
+        <v>226</v>
+      </c>
+      <c r="E48" s="81" t="s">
+        <v>234</v>
+      </c>
+      <c r="F48" s="81" t="s">
+        <v>241</v>
+      </c>
+      <c r="G48" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H48" s="44" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="14.25">
+      <c r="A49" s="89" t="s">
+        <v>204</v>
+      </c>
+      <c r="B49" s="82" t="s">
+        <v>212</v>
+      </c>
+      <c r="C49" s="81" t="s">
+        <v>220</v>
+      </c>
+      <c r="D49" s="81" t="s">
+        <v>227</v>
+      </c>
+      <c r="E49" s="81" t="s">
+        <v>235</v>
+      </c>
+      <c r="F49" s="81" t="s">
+        <v>242</v>
+      </c>
+      <c r="G49" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H49" s="44" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="14.25">
+      <c r="A50" s="89" t="s">
+        <v>205</v>
+      </c>
+      <c r="B50" s="82" t="s">
+        <v>213</v>
+      </c>
+      <c r="C50" s="81" t="s">
+        <v>221</v>
+      </c>
+      <c r="D50" s="81" t="s">
+        <v>228</v>
+      </c>
+      <c r="E50" s="81" t="s">
+        <v>236</v>
+      </c>
+      <c r="F50" s="81" t="s">
+        <v>243</v>
+      </c>
+      <c r="G50" s="43" t="e">
+        <f>C50+E50</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H50" s="44" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15">
+      <c r="A51" s="91" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="92"/>
+      <c r="C51" s="45">
+        <f>SUM(C44:C50)</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" s="45">
+        <f>SUM(E44:E50)</f>
+        <v>0</v>
+      </c>
+      <c r="F51" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="G51" s="45" t="e">
+        <f>SUM(G44:G50)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H51" s="46" t="e">
+        <f>SUM(H44:H50)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="C53" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="E53" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="F53" s="62" t="e">
+        <f>IF(B19="US$",H51*D53,H51)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="C54" s="63"/>
+      <c r="D54" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+    </row>
+    <row r="55" spans="1:8" ht="24">
+      <c r="C55" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="C56" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="D56" s="84" t="s">
         <v>164</v>
       </c>
-      <c r="F32" s="85" t="s">
+      <c r="E56" s="85" t="s">
+        <v>172</v>
+      </c>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="C57" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="D57" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="G32" s="95"/>
-      <c r="H32" s="96"/>
-    </row>
-    <row r="33" spans="1:8" ht="6.75" customHeight="1">
-      <c r="A33" s="38"/>
-    </row>
-    <row r="34" spans="1:8" ht="14.25">
-      <c r="A34" s="40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="81" t="s">
+      <c r="E57" s="85" t="s">
+        <v>173</v>
+      </c>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="63"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="C58" s="58" t="s">
+        <v>185</v>
+      </c>
+      <c r="D58" s="84" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="97" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="98"/>
-      <c r="E35" s="103" t="s">
-        <v>134</v>
-      </c>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="C36" s="99"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="106"/>
-      <c r="H36" s="106"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="58" t="s">
+      <c r="E58" s="85" t="s">
+        <v>174</v>
+      </c>
+      <c r="F58" s="63"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="C59" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" s="84" t="s">
         <v>167</v>
       </c>
-      <c r="C37" s="101"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="108"/>
-      <c r="G37" s="108"/>
-      <c r="H37" s="108"/>
-    </row>
-    <row r="38" spans="1:8" ht="13.5">
-      <c r="A38" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="58" t="s">
+      <c r="E59" s="85" t="s">
+        <v>175</v>
+      </c>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="63"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="C60" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="D60" s="84" t="s">
         <v>168</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="F38" s="78" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="39" customFormat="1" ht="13.5">
-      <c r="A39" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="81" t="s">
-        <v>131</v>
-      </c>
-      <c r="C39" s="109" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="110"/>
-      <c r="E39" s="72" t="e">
-        <f>(F47-E59-E61)/F47</f>
+      <c r="E60" s="85" t="s">
+        <v>176</v>
+      </c>
+      <c r="F60" s="63"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="63"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="C61" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="E61" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="63"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="C62" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="E62" s="85" t="s">
+        <v>178</v>
+      </c>
+      <c r="F62" s="63"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="63"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="C63" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="E63" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="F63" s="63"/>
+      <c r="G63" s="63"/>
+      <c r="H63" s="63"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="C64" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="D64" s="84" t="s">
+        <v>188</v>
+      </c>
+      <c r="E64" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="F64" s="63"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+    </row>
+    <row r="65" spans="3:8">
+      <c r="C65" s="83" t="s">
+        <v>114</v>
+      </c>
+      <c r="D65" s="84" t="s">
+        <v>189</v>
+      </c>
+      <c r="E65" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="F65" s="63"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="63"/>
+    </row>
+    <row r="66" spans="3:8">
+      <c r="C66" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" s="84" t="s">
+        <v>190</v>
+      </c>
+      <c r="E66" s="85" t="s">
+        <v>195</v>
+      </c>
+      <c r="F66" s="63"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+    </row>
+    <row r="67" spans="3:8">
+      <c r="C67" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="D67" s="84" t="s">
+        <v>191</v>
+      </c>
+      <c r="E67" s="85" t="s">
+        <v>196</v>
+      </c>
+      <c r="F67" s="63"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="63"/>
+    </row>
+    <row r="68" spans="3:8">
+      <c r="C68" s="86" t="s">
+        <v>198</v>
+      </c>
+      <c r="D68" s="84" t="s">
+        <v>192</v>
+      </c>
+      <c r="E68" s="85" t="s">
+        <v>197</v>
+      </c>
+      <c r="F68" s="63"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+    </row>
+    <row r="69" spans="3:8">
+      <c r="C69" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="D69" s="90"/>
+      <c r="E69" s="65">
+        <f>SUM(E56:E68)</f>
+        <v>0</v>
+      </c>
+      <c r="F69" s="63"/>
+      <c r="G69" s="63"/>
+      <c r="H69" s="63"/>
+    </row>
+    <row r="70" spans="3:8">
+      <c r="C70" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="D70" s="98"/>
+      <c r="E70" s="66" t="e">
+        <f>D57*E57+D58*E58+D59*E59+D60*E60+D61*E61+D62*E62+D63*E63+D64*E64+D65*E65+D66*E66+D67*E67+D68*E68</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F39" s="109" t="s">
-        <v>102</v>
-      </c>
-      <c r="G39" s="109"/>
-      <c r="H39" s="64" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="39" customFormat="1" ht="13.5">
-      <c r="A40" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="81" t="s">
-        <v>132</v>
-      </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-    </row>
-    <row r="41" spans="1:8" s="39" customFormat="1" ht="13.5">
-      <c r="A41" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="81" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-    </row>
-    <row r="42" spans="1:8" s="39" customFormat="1" ht="14.25">
-      <c r="A42" s="89" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="89" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="114" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="116"/>
-      <c r="G42" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="H42" s="89" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="14.25">
-      <c r="A43" s="89"/>
-      <c r="B43" s="89"/>
-      <c r="C43" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="D43" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="E43" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="F43" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="G43" s="89"/>
-      <c r="H43" s="89"/>
-    </row>
-    <row r="44" spans="1:8" ht="14.25">
-      <c r="A44" s="80" t="s">
-        <v>189</v>
-      </c>
-      <c r="B44" s="87" t="s">
-        <v>139</v>
-      </c>
-      <c r="C44" s="86" t="s">
-        <v>142</v>
-      </c>
-      <c r="D44" s="86" t="s">
-        <v>143</v>
-      </c>
-      <c r="E44" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="F44" s="86" t="s">
-        <v>141</v>
-      </c>
-      <c r="G44" s="44" t="e">
-        <f>C44+E44</f>
+      <c r="F70" s="63"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="63"/>
+    </row>
+    <row r="71" spans="3:8">
+      <c r="C71" s="60"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="63"/>
+      <c r="H71" s="63"/>
+    </row>
+    <row r="72" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C72" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="D72" s="90"/>
+      <c r="E72" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" s="63"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
+    </row>
+    <row r="73" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C73" s="90" t="s">
+        <v>105</v>
+      </c>
+      <c r="D73" s="90"/>
+      <c r="E73" s="77" t="s">
+        <v>182</v>
+      </c>
+      <c r="F73" s="63"/>
+      <c r="G73" s="63"/>
+      <c r="H73" s="63"/>
+    </row>
+    <row r="74" spans="3:8" ht="14.25" customHeight="1">
+      <c r="C74" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="D74" s="90"/>
+      <c r="E74" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="F74" s="63"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
+    </row>
+    <row r="75" spans="3:8">
+      <c r="C75" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="D75" s="90"/>
+      <c r="E75" s="65" t="e">
+        <f>E72/E73</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H44" s="45" t="e">
-        <f>C44*D44+E44*F44</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="15">
-      <c r="A45" s="112" t="s">
-        <v>69</v>
-      </c>
-      <c r="B45" s="113"/>
-      <c r="C45" s="46">
-        <f>SUM(C44:C44)</f>
-        <v>0</v>
-      </c>
-      <c r="D45" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="E45" s="46">
-        <f>SUM(E44:E44)</f>
-        <v>0</v>
-      </c>
-      <c r="F45" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="G45" s="46" t="e">
-        <f>SUM(G44:G44)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H45" s="47" t="e">
-        <f>SUM(H44:H44)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="C47" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="D47" s="63" t="s">
-        <v>135</v>
-      </c>
-      <c r="E47" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="F47" s="64" t="e">
-        <f>IF(B19="US$",H45*D47,H45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="C48" s="65"/>
-      <c r="D48" s="79" t="s">
-        <v>121</v>
-      </c>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-    </row>
-    <row r="49" spans="3:8" ht="24">
-      <c r="C49" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="D49" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="E49" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-    </row>
-    <row r="50" spans="3:8">
-      <c r="C50" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="D50" s="73" t="s">
-        <v>169</v>
-      </c>
-      <c r="E50" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="65"/>
-    </row>
-    <row r="51" spans="3:8">
-      <c r="C51" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="D51" s="73" t="s">
-        <v>170</v>
-      </c>
-      <c r="E51" s="57" t="s">
-        <v>178</v>
-      </c>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-    </row>
-    <row r="52" spans="3:8">
-      <c r="C52" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="D52" s="73" t="s">
-        <v>171</v>
-      </c>
-      <c r="E52" s="57" t="s">
-        <v>179</v>
-      </c>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-    </row>
-    <row r="53" spans="3:8">
-      <c r="C53" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="D53" s="73" t="s">
-        <v>172</v>
-      </c>
-      <c r="E53" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
-    </row>
-    <row r="54" spans="3:8">
-      <c r="C54" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="D54" s="73" t="s">
-        <v>173</v>
-      </c>
-      <c r="E54" s="57" t="s">
-        <v>181</v>
-      </c>
-      <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-    </row>
-    <row r="55" spans="3:8">
-      <c r="C55" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="D55" s="73" t="s">
-        <v>174</v>
-      </c>
-      <c r="E55" s="57" t="s">
-        <v>182</v>
-      </c>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-    </row>
-    <row r="56" spans="3:8">
-      <c r="C56" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="D56" s="73" t="s">
-        <v>175</v>
-      </c>
-      <c r="E56" s="57" t="s">
-        <v>183</v>
-      </c>
-      <c r="F56" s="65"/>
-      <c r="G56" s="65"/>
-      <c r="H56" s="65"/>
-    </row>
-    <row r="57" spans="3:8">
-      <c r="C57" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="D57" s="73" t="s">
-        <v>176</v>
-      </c>
-      <c r="E57" s="57" t="s">
-        <v>184</v>
-      </c>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-    </row>
-    <row r="58" spans="3:8">
-      <c r="C58" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="D58" s="111"/>
-      <c r="E58" s="68">
-        <f>SUM(E50:E57)</f>
-        <v>0</v>
-      </c>
-      <c r="F58" s="65"/>
-      <c r="G58" s="65"/>
-      <c r="H58" s="65"/>
-    </row>
-    <row r="59" spans="3:8">
-      <c r="C59" s="109" t="s">
-        <v>104</v>
-      </c>
-      <c r="D59" s="110"/>
-      <c r="E59" s="69" t="e">
-        <f>D51*E51+D52*E52+D53*E53+D54*E54+D55*E55+D56*E56+D57*E57</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F59" s="65"/>
-      <c r="G59" s="65"/>
-      <c r="H59" s="65"/>
-    </row>
-    <row r="60" spans="3:8">
-      <c r="C60" s="62"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="65"/>
-      <c r="H60" s="65"/>
-    </row>
-    <row r="61" spans="3:8" ht="14.25" customHeight="1">
-      <c r="C61" s="111" t="s">
-        <v>108</v>
-      </c>
-      <c r="D61" s="111"/>
-      <c r="E61" s="82" t="s">
-        <v>136</v>
-      </c>
-      <c r="F61" s="65"/>
-      <c r="G61" s="65"/>
-      <c r="H61" s="65"/>
-    </row>
-    <row r="62" spans="3:8" ht="14.25" customHeight="1">
-      <c r="C62" s="111" t="s">
-        <v>105</v>
-      </c>
-      <c r="D62" s="111"/>
-      <c r="E62" s="82" t="s">
-        <v>187</v>
-      </c>
-      <c r="F62" s="65"/>
-      <c r="G62" s="65"/>
-      <c r="H62" s="65"/>
-    </row>
-    <row r="63" spans="3:8" ht="14.25" customHeight="1">
-      <c r="C63" s="111" t="s">
-        <v>107</v>
-      </c>
-      <c r="D63" s="111"/>
-      <c r="E63" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="F63" s="65"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="65"/>
-    </row>
-    <row r="64" spans="3:8">
-      <c r="C64" s="111" t="s">
-        <v>106</v>
-      </c>
-      <c r="D64" s="111"/>
-      <c r="E64" s="68" t="e">
-        <f>E61/E62</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F64" s="65"/>
-      <c r="G64" s="65"/>
-      <c r="H64" s="65"/>
-    </row>
-    <row r="65" spans="3:8">
-      <c r="C65" s="62"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="71"/>
-      <c r="G65" s="65"/>
-      <c r="H65" s="65"/>
-    </row>
-    <row r="66" spans="3:8" ht="13.5" customHeight="1"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="63"/>
+      <c r="H75" s="63"/>
+    </row>
+    <row r="76" spans="3:8">
+      <c r="C76" s="60"/>
+      <c r="D76" s="67"/>
+      <c r="E76" s="68"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="63"/>
+    </row>
+    <row r="77" spans="3:8" ht="13.5" customHeight="1"/>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A44" name="範囲3_1"/>
-    <protectedRange sqref="E44:F44" name="範囲3_2"/>
-    <protectedRange sqref="C44:D44" name="範囲3_3"/>
+    <protectedRange sqref="A44:A50" name="範囲3_1"/>
+    <protectedRange sqref="E44:F50" name="範囲3_2"/>
+    <protectedRange sqref="C44:D50" name="範囲3_3"/>
   </protectedRanges>
   <mergeCells count="18">
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="G42:G43"/>
@@ -3753,6 +4149,15 @@
     <mergeCell ref="E35:H37"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
@@ -3764,8 +4169,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="3" max="81" man="1"/>
+  </colBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3773,10 +4181,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31:L31"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39:N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3822,12 +4230,12 @@
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="1"/>
-      <c r="C3" s="183" t="s">
+      <c r="C3" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="188" t="s">
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="132" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="21" t="s">
@@ -3837,104 +4245,104 @@
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
       <c r="K3" s="17"/>
-      <c r="L3" s="124" t="s">
+      <c r="L3" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="126"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="121"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="1"/>
-      <c r="C4" s="184"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="178"/>
-      <c r="H4" s="179"/>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
-      <c r="K4" s="180"/>
-      <c r="L4" s="197" t="str">
+      <c r="C4" s="128"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="142" t="str">
         <f>記入!B37</f>
         <v>${aw.draftingdate}</v>
       </c>
-      <c r="M4" s="198"/>
-      <c r="N4" s="198"/>
-      <c r="O4" s="199"/>
+      <c r="M4" s="143"/>
+      <c r="N4" s="143"/>
+      <c r="O4" s="144"/>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="1"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="184"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="179"/>
-      <c r="I5" s="179"/>
-      <c r="J5" s="179"/>
-      <c r="K5" s="180"/>
-      <c r="L5" s="124" t="s">
+      <c r="C5" s="128"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
-      <c r="O5" s="126"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="121"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="1"/>
-      <c r="C6" s="184"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="188" t="s">
+      <c r="C6" s="128"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="178"/>
-      <c r="H6" s="179"/>
-      <c r="I6" s="179"/>
-      <c r="J6" s="179"/>
-      <c r="K6" s="180"/>
-      <c r="L6" s="189" t="str">
+      <c r="G6" s="122"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="133" t="str">
         <f>記入!B38</f>
         <v>${aw.scheduleddate}</v>
       </c>
-      <c r="M6" s="190"/>
-      <c r="N6" s="190"/>
-      <c r="O6" s="191"/>
+      <c r="M6" s="134"/>
+      <c r="N6" s="134"/>
+      <c r="O6" s="135"/>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="1"/>
-      <c r="C7" s="184"/>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="184"/>
-      <c r="G7" s="178"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="179"/>
-      <c r="K7" s="180"/>
-      <c r="L7" s="192" t="s">
+      <c r="C7" s="128"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="174"/>
-      <c r="N7" s="174"/>
-      <c r="O7" s="193"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="138"/>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="1"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="187"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="185"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="181"/>
-      <c r="I8" s="181"/>
-      <c r="J8" s="181"/>
-      <c r="K8" s="182"/>
-      <c r="L8" s="194"/>
-      <c r="M8" s="195"/>
-      <c r="N8" s="195"/>
-      <c r="O8" s="196"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="140"/>
+      <c r="N8" s="140"/>
+      <c r="O8" s="141"/>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="1"/>
@@ -3945,76 +4353,76 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="117" t="s">
+      <c r="H9" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="117" t="s">
+      <c r="I9" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="117" t="s">
+      <c r="J9" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="118" t="s">
+      <c r="K9" s="200" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="124" t="s">
+      <c r="L9" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="125"/>
-      <c r="N9" s="122" t="str">
+      <c r="M9" s="120"/>
+      <c r="N9" s="193" t="str">
         <f>記入!B39</f>
         <v>${aw.plan}</v>
       </c>
-      <c r="O9" s="123"/>
+      <c r="O9" s="194"/>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="1"/>
-      <c r="C10" s="165" t="str">
+      <c r="C10" s="146" t="str">
         <f>記入!B9</f>
         <v>${aw.deployment}</v>
       </c>
-      <c r="D10" s="166"/>
-      <c r="E10" s="166"/>
-      <c r="F10" s="166"/>
-      <c r="G10" s="167"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="124" t="s">
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="155"/>
+      <c r="K10" s="200"/>
+      <c r="L10" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="126"/>
+      <c r="M10" s="120"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="121"/>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="1"/>
-      <c r="C11" s="168"/>
-      <c r="D11" s="169"/>
-      <c r="E11" s="169"/>
-      <c r="F11" s="169"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117" t="str">
+      <c r="C11" s="149"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="151"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="155" t="str">
         <f>記入!B35</f>
         <v>${aw.user_id}</v>
       </c>
-      <c r="K11" s="121" t="str">
+      <c r="K11" s="203" t="str">
         <f>記入!B36</f>
         <v>${aw.telephone}</v>
       </c>
-      <c r="L11" s="119" t="str">
+      <c r="L11" s="201" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M11" s="120"/>
-      <c r="N11" s="127" t="str">
+      <c r="M11" s="202"/>
+      <c r="N11" s="195" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O11" s="128"/>
+      <c r="O11" s="196"/>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="1"/>
@@ -4025,44 +4433,44 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="129" t="s">
+      <c r="H12" s="155"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="155"/>
+      <c r="K12" s="203"/>
+      <c r="L12" s="197" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="130"/>
-      <c r="N12" s="130"/>
-      <c r="O12" s="131"/>
+      <c r="M12" s="198"/>
+      <c r="N12" s="198"/>
+      <c r="O12" s="199"/>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="1"/>
-      <c r="C13" s="171" t="str">
+      <c r="C13" s="152" t="str">
         <f>記入!B10</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="D13" s="172"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="119" t="str">
+      <c r="D13" s="153"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="155"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="155"/>
+      <c r="K13" s="203"/>
+      <c r="L13" s="201" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M13" s="120"/>
-      <c r="N13" s="127" t="str">
+      <c r="M13" s="202"/>
+      <c r="N13" s="195" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O13" s="128"/>
+      <c r="O13" s="196"/>
     </row>
     <row r="14" spans="1:15" ht="9" customHeight="1">
-      <c r="B14" s="164" t="s">
+      <c r="B14" s="145" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="9"/>
@@ -4080,7 +4488,7 @@
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="164"/>
+      <c r="B15" s="145"/>
       <c r="C15" s="9"/>
       <c r="D15" s="12" t="s">
         <v>53</v>
@@ -4098,7 +4506,7 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="164"/>
+      <c r="B16" s="145"/>
       <c r="C16" s="9"/>
       <c r="D16" s="12"/>
       <c r="E16" s="10" t="str">
@@ -4117,7 +4525,7 @@
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="164"/>
+      <c r="B17" s="145"/>
       <c r="C17" s="9"/>
       <c r="D17" s="12"/>
       <c r="E17" s="10" t="str">
@@ -4136,7 +4544,7 @@
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="164"/>
+      <c r="B18" s="145"/>
       <c r="C18" s="9"/>
       <c r="D18" s="1"/>
       <c r="E18" s="10" t="s">
@@ -4154,7 +4562,7 @@
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="2:15" ht="9" customHeight="1">
-      <c r="B19" s="164"/>
+      <c r="B19" s="145"/>
       <c r="C19" s="9"/>
       <c r="D19" s="1"/>
       <c r="E19" s="12"/>
@@ -4170,7 +4578,7 @@
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="164"/>
+      <c r="B20" s="145"/>
       <c r="C20" s="9"/>
       <c r="D20" s="12" t="s">
         <v>35</v>
@@ -4188,656 +4596,655 @@
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="2:15" ht="15" customHeight="1">
-      <c r="B21" s="164"/>
+      <c r="B21" s="145"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="149" t="s">
+      <c r="D21" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="149"/>
-      <c r="F21" s="132" t="str">
+      <c r="E21" s="159"/>
+      <c r="F21" s="183" t="str">
         <f>記入!B2</f>
         <v>${aw.custojapanese}</v>
       </c>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="132"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="132"/>
-      <c r="M21" s="132"/>
-      <c r="N21" s="132"/>
+      <c r="G21" s="183"/>
+      <c r="H21" s="183"/>
+      <c r="I21" s="183"/>
+      <c r="J21" s="183"/>
+      <c r="K21" s="183"/>
+      <c r="L21" s="183"/>
+      <c r="M21" s="183"/>
+      <c r="N21" s="183"/>
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="2:15" ht="15" customHeight="1">
-      <c r="B22" s="164"/>
+      <c r="B22" s="145"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="149"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="132"/>
-      <c r="L22" s="132"/>
-      <c r="M22" s="132"/>
-      <c r="N22" s="132"/>
+      <c r="D22" s="159"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="183"/>
+      <c r="G22" s="183"/>
+      <c r="H22" s="183"/>
+      <c r="I22" s="183"/>
+      <c r="J22" s="183"/>
+      <c r="K22" s="183"/>
+      <c r="L22" s="183"/>
+      <c r="M22" s="183"/>
+      <c r="N22" s="183"/>
       <c r="O22" s="4"/>
     </row>
     <row r="23" spans="2:15" ht="15" customHeight="1">
-      <c r="B23" s="164"/>
+      <c r="B23" s="145"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="149" t="s">
+      <c r="D23" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="149"/>
-      <c r="F23" s="132" t="str">
+      <c r="E23" s="159"/>
+      <c r="F23" s="183" t="str">
         <f>C13</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="G23" s="132"/>
-      <c r="H23" s="132"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="132"/>
-      <c r="K23" s="132"/>
-      <c r="L23" s="132"/>
-      <c r="M23" s="132"/>
-      <c r="N23" s="132"/>
+      <c r="G23" s="183"/>
+      <c r="H23" s="183"/>
+      <c r="I23" s="183"/>
+      <c r="J23" s="183"/>
+      <c r="K23" s="183"/>
+      <c r="L23" s="183"/>
+      <c r="M23" s="183"/>
+      <c r="N23" s="183"/>
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="2:15" ht="15" customHeight="1">
-      <c r="B24" s="164"/>
+      <c r="B24" s="145"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="149"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="132"/>
-      <c r="G24" s="132"/>
-      <c r="H24" s="132"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="132"/>
-      <c r="K24" s="132"/>
-      <c r="L24" s="132"/>
-      <c r="M24" s="132"/>
-      <c r="N24" s="132"/>
+      <c r="D24" s="159"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="183"/>
+      <c r="I24" s="183"/>
+      <c r="J24" s="183"/>
+      <c r="K24" s="183"/>
+      <c r="L24" s="183"/>
+      <c r="M24" s="183"/>
+      <c r="N24" s="183"/>
       <c r="O24" s="4"/>
     </row>
     <row r="25" spans="2:15" ht="15" customHeight="1">
-      <c r="B25" s="164"/>
+      <c r="B25" s="145"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="149" t="s">
+      <c r="D25" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="149"/>
-      <c r="F25" s="132" t="str">
+      <c r="E25" s="159"/>
+      <c r="F25" s="183" t="str">
         <f>記入!B12</f>
         <v>${aw.contractnumber}</v>
       </c>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="132"/>
-      <c r="K25" s="132"/>
-      <c r="L25" s="132"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="132"/>
+      <c r="G25" s="183"/>
+      <c r="H25" s="183"/>
+      <c r="I25" s="183"/>
+      <c r="J25" s="183"/>
+      <c r="K25" s="183"/>
+      <c r="L25" s="183"/>
+      <c r="M25" s="183"/>
+      <c r="N25" s="183"/>
       <c r="O25" s="4"/>
     </row>
     <row r="26" spans="2:15" ht="15" customHeight="1">
-      <c r="B26" s="164"/>
+      <c r="B26" s="145"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="149"/>
-      <c r="E26" s="149"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="132"/>
-      <c r="K26" s="132"/>
-      <c r="L26" s="132"/>
-      <c r="M26" s="132"/>
-      <c r="N26" s="132"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="183"/>
+      <c r="G26" s="183"/>
+      <c r="H26" s="183"/>
+      <c r="I26" s="183"/>
+      <c r="J26" s="183"/>
+      <c r="K26" s="183"/>
+      <c r="L26" s="183"/>
+      <c r="M26" s="183"/>
+      <c r="N26" s="183"/>
       <c r="O26" s="4"/>
     </row>
     <row r="27" spans="2:15" ht="15" customHeight="1">
-      <c r="B27" s="164"/>
+      <c r="B27" s="145"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="151" t="s">
+      <c r="D27" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="151"/>
-      <c r="F27" s="133" t="str">
+      <c r="E27" s="160"/>
+      <c r="F27" s="184" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="G27" s="134"/>
-      <c r="H27" s="134"/>
-      <c r="I27" s="175" t="s">
+      <c r="G27" s="185"/>
+      <c r="H27" s="185"/>
+      <c r="I27" s="158" t="s">
         <v>62</v>
       </c>
-      <c r="J27" s="135" t="str">
+      <c r="J27" s="186" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="K27" s="135"/>
-      <c r="L27" s="135"/>
-      <c r="M27" s="135"/>
-      <c r="N27" s="136"/>
+      <c r="K27" s="186"/>
+      <c r="L27" s="186"/>
+      <c r="M27" s="186"/>
+      <c r="N27" s="187"/>
       <c r="O27" s="4"/>
     </row>
     <row r="28" spans="2:15" ht="15" customHeight="1">
-      <c r="B28" s="164"/>
+      <c r="B28" s="145"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="134"/>
-      <c r="H28" s="134"/>
-      <c r="I28" s="175"/>
-      <c r="J28" s="135"/>
-      <c r="K28" s="135"/>
-      <c r="L28" s="135"/>
-      <c r="M28" s="135"/>
-      <c r="N28" s="136"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="185"/>
+      <c r="H28" s="185"/>
+      <c r="I28" s="158"/>
+      <c r="J28" s="186"/>
+      <c r="K28" s="186"/>
+      <c r="L28" s="186"/>
+      <c r="M28" s="186"/>
+      <c r="N28" s="187"/>
       <c r="O28" s="4"/>
     </row>
     <row r="29" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B29" s="164"/>
+      <c r="B29" s="145"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="142" t="s">
+      <c r="D29" s="161" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="139"/>
-      <c r="F29" s="142" t="s">
+      <c r="E29" s="162"/>
+      <c r="F29" s="161" t="s">
         <v>60</v>
       </c>
-      <c r="G29" s="139"/>
-      <c r="H29" s="143" t="s">
+      <c r="G29" s="162"/>
+      <c r="H29" s="189" t="s">
         <v>61</v>
       </c>
-      <c r="I29" s="145" t="s">
+      <c r="I29" s="179" t="s">
         <v>68</v>
       </c>
-      <c r="J29" s="146"/>
-      <c r="K29" s="138" t="s">
+      <c r="J29" s="180"/>
+      <c r="K29" s="188" t="s">
         <v>67</v>
       </c>
-      <c r="L29" s="139"/>
-      <c r="M29" s="142" t="s">
+      <c r="L29" s="162"/>
+      <c r="M29" s="161" t="s">
         <v>58</v>
       </c>
-      <c r="N29" s="139"/>
+      <c r="N29" s="162"/>
       <c r="O29" s="4"/>
     </row>
     <row r="30" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B30" s="164"/>
+      <c r="B30" s="145"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="176"/>
-      <c r="E30" s="177"/>
-      <c r="F30" s="140"/>
-      <c r="G30" s="141"/>
-      <c r="H30" s="144"/>
+      <c r="D30" s="163"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="166"/>
+      <c r="H30" s="190"/>
       <c r="I30" s="22" t="s">
         <v>65</v>
       </c>
       <c r="J30" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="K30" s="140"/>
-      <c r="L30" s="141"/>
-      <c r="M30" s="147" t="str">
+      <c r="K30" s="165"/>
+      <c r="L30" s="166"/>
+      <c r="M30" s="191" t="str">
         <f>"(" &amp; 記入!B19 &amp; ")"</f>
         <v>(${aw.currencyposition})</v>
       </c>
-      <c r="N30" s="148"/>
+      <c r="N30" s="192"/>
       <c r="O30" s="4"/>
     </row>
     <row r="31" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B31" s="164"/>
+      <c r="B31" s="145"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="176"/>
-      <c r="E31" s="177"/>
-      <c r="F31" s="132" t="s">
-        <v>189</v>
-      </c>
-      <c r="G31" s="132"/>
-      <c r="H31" s="24" t="str">
-        <f>記入!B44</f>
-        <v>${t.depart}</v>
-      </c>
-      <c r="I31" s="24" t="str">
-        <f>記入!C44</f>
-        <v>${t.member}</v>
-      </c>
-      <c r="J31" s="24" t="str">
-        <f>記入!E44</f>
-        <v>${t.outsource}</v>
-      </c>
-      <c r="K31" s="132" t="e">
-        <f>記入!G44</f>
+      <c r="D31" s="163"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="167" t="s">
+        <v>199</v>
+      </c>
+      <c r="G31" s="168"/>
+      <c r="H31" s="88" t="s">
+        <v>206</v>
+      </c>
+      <c r="I31" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="J31" s="81" t="s">
+        <v>229</v>
+      </c>
+      <c r="K31" s="182" t="e">
+        <f>I31+H31</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L31" s="132"/>
-      <c r="M31" s="137" t="e">
+      <c r="L31" s="183"/>
+      <c r="M31" s="176" t="e">
         <f>記入!H44</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N31" s="137"/>
+      <c r="N31" s="176"/>
       <c r="O31" s="4"/>
     </row>
     <row r="32" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B32" s="164"/>
+      <c r="B32" s="145"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="176"/>
-      <c r="E32" s="177"/>
-      <c r="F32" s="132" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G32" s="132"/>
-      <c r="H32" s="24" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I32" s="24" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J32" s="24" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K32" s="132" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L32" s="132"/>
-      <c r="M32" s="137" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N32" s="137"/>
+      <c r="D32" s="163"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="167" t="s">
+        <v>200</v>
+      </c>
+      <c r="G32" s="168"/>
+      <c r="H32" s="88" t="s">
+        <v>208</v>
+      </c>
+      <c r="I32" s="81" t="s">
+        <v>216</v>
+      </c>
+      <c r="J32" s="81" t="s">
+        <v>231</v>
+      </c>
+      <c r="K32" s="182" t="e">
+        <f t="shared" ref="K32:K37" si="0">I32+H32</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L32" s="183"/>
+      <c r="M32" s="176" t="e">
+        <f>記入!H45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N32" s="176"/>
       <c r="O32" s="4"/>
     </row>
     <row r="33" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B33" s="164"/>
+      <c r="B33" s="145"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="176"/>
-      <c r="E33" s="177"/>
-      <c r="F33" s="132" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G33" s="132"/>
-      <c r="H33" s="24" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I33" s="24" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J33" s="24" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K33" s="132" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L33" s="132"/>
-      <c r="M33" s="137" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N33" s="137"/>
+      <c r="D33" s="163"/>
+      <c r="E33" s="164"/>
+      <c r="F33" s="167" t="s">
+        <v>201</v>
+      </c>
+      <c r="G33" s="168"/>
+      <c r="H33" s="88" t="s">
+        <v>209</v>
+      </c>
+      <c r="I33" s="81" t="s">
+        <v>217</v>
+      </c>
+      <c r="J33" s="81" t="s">
+        <v>232</v>
+      </c>
+      <c r="K33" s="182" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L33" s="183"/>
+      <c r="M33" s="176" t="e">
+        <f>記入!H46</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N33" s="176"/>
       <c r="O33" s="4"/>
     </row>
     <row r="34" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B34" s="164"/>
+      <c r="B34" s="145"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="176"/>
-      <c r="E34" s="177"/>
-      <c r="F34" s="132" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G34" s="132"/>
-      <c r="H34" s="24" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I34" s="24" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J34" s="24" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K34" s="132" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L34" s="132"/>
-      <c r="M34" s="137" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N34" s="137"/>
+      <c r="D34" s="163"/>
+      <c r="E34" s="164"/>
+      <c r="F34" s="167" t="s">
+        <v>202</v>
+      </c>
+      <c r="G34" s="168"/>
+      <c r="H34" s="88" t="s">
+        <v>210</v>
+      </c>
+      <c r="I34" s="81" t="s">
+        <v>218</v>
+      </c>
+      <c r="J34" s="81" t="s">
+        <v>233</v>
+      </c>
+      <c r="K34" s="182" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L34" s="183"/>
+      <c r="M34" s="176" t="e">
+        <f>記入!H47</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N34" s="176"/>
       <c r="O34" s="4"/>
     </row>
     <row r="35" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B35" s="164"/>
+      <c r="B35" s="145"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="176"/>
-      <c r="E35" s="177"/>
-      <c r="F35" s="132" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G35" s="132"/>
-      <c r="H35" s="24" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I35" s="24" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J35" s="24" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K35" s="132" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L35" s="132"/>
-      <c r="M35" s="137" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N35" s="137"/>
+      <c r="D35" s="163"/>
+      <c r="E35" s="164"/>
+      <c r="F35" s="167" t="s">
+        <v>203</v>
+      </c>
+      <c r="G35" s="168"/>
+      <c r="H35" s="88" t="s">
+        <v>211</v>
+      </c>
+      <c r="I35" s="81" t="s">
+        <v>219</v>
+      </c>
+      <c r="J35" s="81" t="s">
+        <v>234</v>
+      </c>
+      <c r="K35" s="182" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L35" s="183"/>
+      <c r="M35" s="176" t="e">
+        <f>記入!H48</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N35" s="176"/>
       <c r="O35" s="4"/>
     </row>
     <row r="36" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B36" s="164"/>
+      <c r="B36" s="145"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="140"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="149" t="s">
+      <c r="D36" s="163"/>
+      <c r="E36" s="164"/>
+      <c r="F36" s="167" t="s">
+        <v>204</v>
+      </c>
+      <c r="G36" s="168"/>
+      <c r="H36" s="88" t="s">
+        <v>212</v>
+      </c>
+      <c r="I36" s="81" t="s">
+        <v>220</v>
+      </c>
+      <c r="J36" s="81" t="s">
+        <v>235</v>
+      </c>
+      <c r="K36" s="182" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L36" s="183"/>
+      <c r="M36" s="176" t="e">
+        <f>記入!H49</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N36" s="176"/>
+      <c r="O36" s="4"/>
+    </row>
+    <row r="37" spans="2:15" ht="24.95" customHeight="1">
+      <c r="B37" s="145"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="163"/>
+      <c r="E37" s="164"/>
+      <c r="F37" s="167" t="s">
+        <v>205</v>
+      </c>
+      <c r="G37" s="168"/>
+      <c r="H37" s="88" t="s">
+        <v>213</v>
+      </c>
+      <c r="I37" s="81" t="s">
+        <v>221</v>
+      </c>
+      <c r="J37" s="81" t="s">
+        <v>236</v>
+      </c>
+      <c r="K37" s="182" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L37" s="183"/>
+      <c r="M37" s="176" t="e">
+        <f>記入!H50</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N37" s="176"/>
+      <c r="O37" s="4"/>
+    </row>
+    <row r="38" spans="2:15" ht="24.95" customHeight="1">
+      <c r="B38" s="145"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="165"/>
+      <c r="E38" s="166"/>
+      <c r="F38" s="159" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="22" t="e">
-        <f>SUM(I31:I35)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J36" s="22" t="e">
-        <f>SUM(J31:J35)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K36" s="149" t="e">
-        <f>SUM(K31:L35)</f>
+      <c r="G38" s="159"/>
+      <c r="H38" s="159"/>
+      <c r="I38" s="22">
+        <f>記入!C51</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="87">
+        <f>記入!E51</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="159">
+        <f>記入!G55</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="159"/>
+      <c r="M38" s="159" t="e">
+        <f>記入!H51</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L36" s="149"/>
-      <c r="M36" s="150" t="e">
-        <f>SUM(M31:N35)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N36" s="150"/>
-      <c r="O36" s="4"/>
-    </row>
-    <row r="37" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B37" s="164"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="152" t="s">
+      <c r="N38" s="159"/>
+      <c r="O38" s="4"/>
+    </row>
+    <row r="39" spans="2:15" ht="24.95" customHeight="1">
+      <c r="B39" s="145"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="177" t="s">
         <v>118</v>
       </c>
-      <c r="L37" s="152"/>
-      <c r="M37" s="153" t="e">
+      <c r="L39" s="177"/>
+      <c r="M39" s="178" t="e">
         <f>記入!E39</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N37" s="153"/>
-      <c r="O37" s="4"/>
-    </row>
-    <row r="38" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B38" s="164"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="76"/>
-      <c r="K38" s="152" t="s">
+      <c r="N39" s="178"/>
+      <c r="O39" s="4"/>
+    </row>
+    <row r="40" spans="2:15" ht="24.95" customHeight="1">
+      <c r="B40" s="145"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="177" t="s">
         <v>117</v>
       </c>
-      <c r="L38" s="152"/>
-      <c r="M38" s="153" t="str">
+      <c r="L40" s="177"/>
+      <c r="M40" s="178" t="str">
         <f>記入!H39</f>
         <v>${aw.rate}</v>
       </c>
-      <c r="N38" s="153"/>
-      <c r="O38" s="4"/>
-    </row>
-    <row r="39" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B39" s="164"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="151" t="s">
+      <c r="N40" s="178"/>
+      <c r="O40" s="4"/>
+    </row>
+    <row r="41" spans="2:15" ht="24.95" customHeight="1">
+      <c r="B41" s="145"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="160" t="s">
         <v>63</v>
       </c>
-      <c r="E39" s="151"/>
-      <c r="F39" s="145" t="s">
+      <c r="E41" s="160"/>
+      <c r="F41" s="179" t="s">
         <v>81</v>
       </c>
-      <c r="G39" s="146"/>
-      <c r="H39" s="154" t="s">
+      <c r="G41" s="180"/>
+      <c r="H41" s="181" t="s">
         <v>119</v>
       </c>
-      <c r="I39" s="146"/>
-      <c r="J39" s="151" t="str">
+      <c r="I41" s="180"/>
+      <c r="J41" s="160" t="str">
         <f>"請求金額"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>請求金額(${aw.currencyposition})</v>
       </c>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
-      <c r="N39" s="151"/>
-      <c r="O39" s="4"/>
-    </row>
-    <row r="40" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B40" s="164"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="149" t="str">
-        <f>IF(F40="","","第一回")</f>
+      <c r="K41" s="160"/>
+      <c r="L41" s="160"/>
+      <c r="M41" s="160"/>
+      <c r="N41" s="160"/>
+      <c r="O41" s="4"/>
+    </row>
+    <row r="42" spans="2:15" ht="23.1" customHeight="1">
+      <c r="B42" s="145"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="159" t="str">
+        <f>IF(F42="","","第一回")</f>
         <v>第一回</v>
       </c>
-      <c r="E40" s="149"/>
-      <c r="F40" s="162" t="str">
+      <c r="E42" s="159"/>
+      <c r="F42" s="174" t="str">
         <f>IF(記入!B29="","",記入!B29)</f>
         <v>${num[0].deliverydate}</v>
       </c>
-      <c r="G40" s="163"/>
-      <c r="H40" s="162" t="str">
+      <c r="G42" s="175"/>
+      <c r="H42" s="174" t="str">
         <f>IF(記入!D29="","",記入!D29)</f>
         <v>${num[0].claimdate}</v>
       </c>
-      <c r="I40" s="163"/>
-      <c r="J40" s="137" t="str">
+      <c r="I42" s="175"/>
+      <c r="J42" s="176" t="str">
         <f>IF(記入!F29="","",記入!F29)</f>
         <v>${num[0].claimamount}</v>
       </c>
-      <c r="K40" s="137"/>
-      <c r="L40" s="137"/>
-      <c r="M40" s="137"/>
-      <c r="N40" s="137"/>
-      <c r="O40" s="4"/>
-    </row>
-    <row r="41" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B41" s="164"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="149" t="str">
-        <f>IF(F41="","","第二回")</f>
+      <c r="K42" s="176"/>
+      <c r="L42" s="176"/>
+      <c r="M42" s="176"/>
+      <c r="N42" s="176"/>
+      <c r="O42" s="4"/>
+    </row>
+    <row r="43" spans="2:15" ht="23.1" customHeight="1">
+      <c r="B43" s="145"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="159" t="str">
+        <f>IF(F43="","","第二回")</f>
         <v>第二回</v>
       </c>
-      <c r="E41" s="149"/>
-      <c r="F41" s="162" t="str">
+      <c r="E43" s="159"/>
+      <c r="F43" s="174" t="str">
         <f>IF(記入!B30="","",記入!B30)</f>
         <v>${num[1].deliverydate}</v>
       </c>
-      <c r="G41" s="163"/>
-      <c r="H41" s="162" t="str">
+      <c r="G43" s="175"/>
+      <c r="H43" s="174" t="str">
         <f>IF(記入!D30="","",記入!D30)</f>
         <v>${num[1].claimdate}</v>
       </c>
-      <c r="I41" s="163"/>
-      <c r="J41" s="137" t="str">
+      <c r="I43" s="175"/>
+      <c r="J43" s="176" t="str">
         <f>IF(記入!F30="","",記入!F30)</f>
         <v>${num[1].claimamount}</v>
       </c>
-      <c r="K41" s="137"/>
-      <c r="L41" s="137"/>
-      <c r="M41" s="137"/>
-      <c r="N41" s="137"/>
-      <c r="O41" s="4"/>
-    </row>
-    <row r="42" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B42" s="164"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="149" t="str">
-        <f>IF(F42="","","第三回")</f>
+      <c r="K43" s="176"/>
+      <c r="L43" s="176"/>
+      <c r="M43" s="176"/>
+      <c r="N43" s="176"/>
+      <c r="O43" s="4"/>
+    </row>
+    <row r="44" spans="2:15" ht="23.1" customHeight="1">
+      <c r="B44" s="145"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="159" t="str">
+        <f>IF(F44="","","第三回")</f>
         <v>第三回</v>
       </c>
-      <c r="E42" s="149"/>
-      <c r="F42" s="162" t="str">
+      <c r="E44" s="159"/>
+      <c r="F44" s="174" t="str">
         <f>IF(記入!B31="","",記入!B31)</f>
         <v>${num[2].deliverydate}</v>
       </c>
-      <c r="G42" s="163"/>
-      <c r="H42" s="162" t="str">
+      <c r="G44" s="175"/>
+      <c r="H44" s="174" t="str">
         <f>IF(記入!D31="","",記入!D31)</f>
         <v>${num[2].claimdate}</v>
       </c>
-      <c r="I42" s="163"/>
-      <c r="J42" s="137" t="str">
+      <c r="I44" s="175"/>
+      <c r="J44" s="176" t="str">
         <f>IF(記入!F31="","",記入!F31)</f>
         <v>${num[2].claimamount}</v>
       </c>
-      <c r="K42" s="137"/>
-      <c r="L42" s="137"/>
-      <c r="M42" s="137"/>
-      <c r="N42" s="137"/>
-      <c r="O42" s="4"/>
-    </row>
-    <row r="43" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B43" s="164"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="149" t="str">
-        <f>IF(F43="","","第四回")</f>
+      <c r="K44" s="176"/>
+      <c r="L44" s="176"/>
+      <c r="M44" s="176"/>
+      <c r="N44" s="176"/>
+      <c r="O44" s="4"/>
+    </row>
+    <row r="45" spans="2:15" ht="23.1" customHeight="1">
+      <c r="B45" s="145"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="159" t="str">
+        <f>IF(F45="","","第四回")</f>
         <v>第四回</v>
       </c>
-      <c r="E43" s="149"/>
-      <c r="F43" s="162" t="str">
+      <c r="E45" s="159"/>
+      <c r="F45" s="174" t="str">
         <f>IF(記入!B32="","",記入!B32)</f>
         <v>${num[3].deliverydate}</v>
       </c>
-      <c r="G43" s="163"/>
-      <c r="H43" s="162" t="str">
+      <c r="G45" s="175"/>
+      <c r="H45" s="174" t="str">
         <f>IF(記入!D32="","",記入!D32)</f>
         <v>${num[3].claimdate}</v>
       </c>
-      <c r="I43" s="163"/>
-      <c r="J43" s="137" t="str">
+      <c r="I45" s="175"/>
+      <c r="J45" s="176" t="str">
         <f>IF(記入!F32="","",記入!F32)</f>
         <v>${num[3].claimamount}</v>
       </c>
-      <c r="K43" s="137"/>
-      <c r="L43" s="137"/>
-      <c r="M43" s="137"/>
-      <c r="N43" s="137"/>
-      <c r="O43" s="4"/>
-    </row>
-    <row r="44" spans="2:15" ht="21.75" customHeight="1">
-      <c r="B44" s="164"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="157" t="s">
-        <v>188</v>
-      </c>
-      <c r="K44" s="158"/>
-      <c r="L44" s="158"/>
-      <c r="M44" s="158"/>
-      <c r="N44" s="159"/>
-      <c r="O44" s="4"/>
-    </row>
-    <row r="45" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B45" s="164"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="13"/>
+      <c r="K45" s="176"/>
+      <c r="L45" s="176"/>
+      <c r="M45" s="176"/>
+      <c r="N45" s="176"/>
       <c r="O45" s="4"/>
     </row>
-    <row r="46" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B46" s="164"/>
+    <row r="46" spans="2:15" ht="21.75" customHeight="1">
+      <c r="B46" s="145"/>
       <c r="C46" s="9"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="174" t="s">
-        <v>51</v>
-      </c>
-      <c r="F46" s="174"/>
-      <c r="G46" s="27" t="str">
-        <f>記入!B40</f>
-        <v>${aw.valuation}</v>
-      </c>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="13"/>
+      <c r="J46" s="171" t="s">
+        <v>183</v>
+      </c>
+      <c r="K46" s="172"/>
+      <c r="L46" s="172"/>
+      <c r="M46" s="172"/>
+      <c r="N46" s="173"/>
       <c r="O46" s="4"/>
     </row>
     <row r="47" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="164"/>
+      <c r="B47" s="145"/>
       <c r="C47" s="9"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="174" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47" s="174"/>
-      <c r="G47" s="27" t="str">
-        <f>記入!B41</f>
-        <v>${aw.individual}</v>
-      </c>
+      <c r="D47" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
       <c r="J47" s="12"/>
@@ -4847,13 +5254,18 @@
       <c r="N47" s="13"/>
       <c r="O47" s="4"/>
     </row>
-    <row r="48" spans="2:15" ht="9.75" customHeight="1">
-      <c r="B48" s="164"/>
+    <row r="48" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B48" s="145"/>
       <c r="C48" s="9"/>
       <c r="D48" s="13"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="14"/>
+      <c r="E48" s="137" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" s="137"/>
+      <c r="G48" s="26" t="str">
+        <f>記入!B40</f>
+        <v>${aw.valuation}</v>
+      </c>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
@@ -4864,219 +5276,361 @@
       <c r="O48" s="4"/>
     </row>
     <row r="49" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="164"/>
+      <c r="B49" s="145"/>
       <c r="C49" s="9"/>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="13"/>
+      <c r="E49" s="137" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" s="137"/>
+      <c r="G49" s="26" t="str">
+        <f>記入!B41</f>
+        <v>${aw.individual}</v>
+      </c>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="4"/>
+    </row>
+    <row r="50" spans="2:15" ht="9.75" customHeight="1">
+      <c r="B50" s="145"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="4"/>
+    </row>
+    <row r="51" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B51" s="145"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="E49" s="25"/>
-      <c r="F49" s="155" t="str">
+      <c r="E51" s="24"/>
+      <c r="F51" s="169" t="str">
         <f>記入!E35</f>
         <v>${aw.remarks}</v>
       </c>
-      <c r="G49" s="155"/>
-      <c r="H49" s="155"/>
-      <c r="I49" s="155"/>
-      <c r="J49" s="155"/>
-      <c r="K49" s="155"/>
-      <c r="L49" s="155"/>
-      <c r="M49" s="155"/>
-      <c r="N49" s="155"/>
-      <c r="O49" s="4"/>
-    </row>
-    <row r="50" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="164"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="156"/>
-      <c r="G50" s="156"/>
-      <c r="H50" s="156"/>
-      <c r="I50" s="156"/>
-      <c r="J50" s="156"/>
-      <c r="K50" s="156"/>
-      <c r="L50" s="156"/>
-      <c r="M50" s="156"/>
-      <c r="N50" s="156"/>
-      <c r="O50" s="4"/>
-    </row>
-    <row r="51" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="164"/>
-      <c r="C51" s="161" t="s">
+      <c r="G51" s="169"/>
+      <c r="H51" s="169"/>
+      <c r="I51" s="169"/>
+      <c r="J51" s="169"/>
+      <c r="K51" s="169"/>
+      <c r="L51" s="169"/>
+      <c r="M51" s="169"/>
+      <c r="N51" s="169"/>
+      <c r="O51" s="4"/>
+    </row>
+    <row r="52" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B52" s="145"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="170"/>
+      <c r="G52" s="170"/>
+      <c r="H52" s="170"/>
+      <c r="I52" s="170"/>
+      <c r="J52" s="170"/>
+      <c r="K52" s="170"/>
+      <c r="L52" s="170"/>
+      <c r="M52" s="170"/>
+      <c r="N52" s="170"/>
+      <c r="O52" s="4"/>
+    </row>
+    <row r="53" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B53" s="145"/>
+      <c r="C53" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="D51" s="161"/>
-      <c r="E51" s="161"/>
-      <c r="F51" s="161" t="s">
+      <c r="D53" s="157"/>
+      <c r="E53" s="157"/>
+      <c r="F53" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="G51" s="161"/>
-      <c r="H51" s="161" t="s">
+      <c r="G53" s="157"/>
+      <c r="H53" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="I51" s="161"/>
-      <c r="J51" s="161" t="s">
+      <c r="I53" s="157"/>
+      <c r="J53" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="K51" s="161"/>
-      <c r="L51" s="161"/>
-      <c r="M51" s="161" t="s">
+      <c r="K53" s="157"/>
+      <c r="L53" s="157"/>
+      <c r="M53" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="N51" s="161"/>
-      <c r="O51" s="161"/>
-    </row>
-    <row r="52" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B52" s="164"/>
-      <c r="C52" s="161"/>
-      <c r="D52" s="161"/>
-      <c r="E52" s="161"/>
-      <c r="F52" s="160"/>
-      <c r="G52" s="160"/>
-      <c r="H52" s="160"/>
-      <c r="I52" s="160"/>
-      <c r="J52" s="160"/>
-      <c r="K52" s="160"/>
-      <c r="L52" s="160"/>
-      <c r="M52" s="160"/>
-      <c r="N52" s="160"/>
-      <c r="O52" s="160"/>
-    </row>
-    <row r="53" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B53" s="164"/>
-      <c r="C53" s="161"/>
-      <c r="D53" s="161"/>
-      <c r="E53" s="161"/>
-      <c r="F53" s="160"/>
-      <c r="G53" s="160"/>
-      <c r="H53" s="160"/>
-      <c r="I53" s="160"/>
-      <c r="J53" s="160"/>
-      <c r="K53" s="160"/>
-      <c r="L53" s="160"/>
-      <c r="M53" s="160"/>
-      <c r="N53" s="160"/>
-      <c r="O53" s="160"/>
+      <c r="N53" s="157"/>
+      <c r="O53" s="157"/>
     </row>
     <row r="54" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B54" s="164"/>
-      <c r="C54" s="161"/>
-      <c r="D54" s="161"/>
-      <c r="E54" s="161"/>
-      <c r="F54" s="160"/>
-      <c r="G54" s="160"/>
-      <c r="H54" s="160"/>
-      <c r="I54" s="160"/>
-      <c r="J54" s="160"/>
-      <c r="K54" s="160"/>
-      <c r="L54" s="160"/>
-      <c r="M54" s="160"/>
-      <c r="N54" s="160"/>
-      <c r="O54" s="160"/>
+      <c r="B54" s="145"/>
+      <c r="C54" s="157"/>
+      <c r="D54" s="157"/>
+      <c r="E54" s="157"/>
+      <c r="F54" s="156"/>
+      <c r="G54" s="156"/>
+      <c r="H54" s="156"/>
+      <c r="I54" s="156"/>
+      <c r="J54" s="156"/>
+      <c r="K54" s="156"/>
+      <c r="L54" s="156"/>
+      <c r="M54" s="156"/>
+      <c r="N54" s="156"/>
+      <c r="O54" s="156"/>
     </row>
     <row r="55" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="164"/>
-      <c r="C55" s="161"/>
-      <c r="D55" s="161"/>
-      <c r="E55" s="161"/>
-      <c r="F55" s="160"/>
-      <c r="G55" s="160"/>
-      <c r="H55" s="160"/>
-      <c r="I55" s="160"/>
-      <c r="J55" s="160"/>
-      <c r="K55" s="160"/>
-      <c r="L55" s="160"/>
-      <c r="M55" s="160"/>
-      <c r="N55" s="160"/>
-      <c r="O55" s="160"/>
+      <c r="B55" s="145"/>
+      <c r="C55" s="157"/>
+      <c r="D55" s="157"/>
+      <c r="E55" s="157"/>
+      <c r="F55" s="156"/>
+      <c r="G55" s="156"/>
+      <c r="H55" s="156"/>
+      <c r="I55" s="156"/>
+      <c r="J55" s="156"/>
+      <c r="K55" s="156"/>
+      <c r="L55" s="156"/>
+      <c r="M55" s="156"/>
+      <c r="N55" s="156"/>
+      <c r="O55" s="156"/>
     </row>
     <row r="56" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B56" s="164"/>
-      <c r="C56" s="161"/>
-      <c r="D56" s="161"/>
-      <c r="E56" s="161"/>
-      <c r="F56" s="160"/>
-      <c r="G56" s="160"/>
-      <c r="H56" s="160"/>
-      <c r="I56" s="160"/>
-      <c r="J56" s="160"/>
-      <c r="K56" s="160"/>
-      <c r="L56" s="160"/>
-      <c r="M56" s="160"/>
-      <c r="N56" s="160"/>
-      <c r="O56" s="160"/>
+      <c r="B56" s="145"/>
+      <c r="C56" s="157"/>
+      <c r="D56" s="157"/>
+      <c r="E56" s="157"/>
+      <c r="F56" s="156"/>
+      <c r="G56" s="156"/>
+      <c r="H56" s="156"/>
+      <c r="I56" s="156"/>
+      <c r="J56" s="156"/>
+      <c r="K56" s="156"/>
+      <c r="L56" s="156"/>
+      <c r="M56" s="156"/>
+      <c r="N56" s="156"/>
+      <c r="O56" s="156"/>
     </row>
     <row r="57" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="164"/>
-      <c r="C57" s="161"/>
-      <c r="D57" s="161"/>
-      <c r="E57" s="161"/>
-      <c r="F57" s="160"/>
-      <c r="G57" s="160"/>
-      <c r="H57" s="160"/>
-      <c r="I57" s="160"/>
-      <c r="J57" s="160"/>
-      <c r="K57" s="160"/>
-      <c r="L57" s="160"/>
-      <c r="M57" s="160"/>
-      <c r="N57" s="160"/>
-      <c r="O57" s="160"/>
+      <c r="B57" s="145"/>
+      <c r="C57" s="157"/>
+      <c r="D57" s="157"/>
+      <c r="E57" s="157"/>
+      <c r="F57" s="156"/>
+      <c r="G57" s="156"/>
+      <c r="H57" s="156"/>
+      <c r="I57" s="156"/>
+      <c r="J57" s="156"/>
+      <c r="K57" s="156"/>
+      <c r="L57" s="156"/>
+      <c r="M57" s="156"/>
+      <c r="N57" s="156"/>
+      <c r="O57" s="156"/>
     </row>
     <row r="58" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B58" s="164"/>
-      <c r="C58" s="161"/>
-      <c r="D58" s="161"/>
-      <c r="E58" s="161"/>
-      <c r="F58" s="160"/>
-      <c r="G58" s="160"/>
-      <c r="H58" s="160"/>
-      <c r="I58" s="160"/>
-      <c r="J58" s="160"/>
-      <c r="K58" s="160"/>
-      <c r="L58" s="160"/>
-      <c r="M58" s="160"/>
-      <c r="N58" s="160"/>
-      <c r="O58" s="160"/>
+      <c r="B58" s="145"/>
+      <c r="C58" s="157"/>
+      <c r="D58" s="157"/>
+      <c r="E58" s="157"/>
+      <c r="F58" s="156"/>
+      <c r="G58" s="156"/>
+      <c r="H58" s="156"/>
+      <c r="I58" s="156"/>
+      <c r="J58" s="156"/>
+      <c r="K58" s="156"/>
+      <c r="L58" s="156"/>
+      <c r="M58" s="156"/>
+      <c r="N58" s="156"/>
+      <c r="O58" s="156"/>
     </row>
     <row r="59" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B59" s="164"/>
-      <c r="C59" s="161"/>
-      <c r="D59" s="161"/>
-      <c r="E59" s="161"/>
-      <c r="F59" s="160"/>
-      <c r="G59" s="160"/>
-      <c r="H59" s="160"/>
-      <c r="I59" s="160"/>
-      <c r="J59" s="160"/>
-      <c r="K59" s="160"/>
-      <c r="L59" s="160"/>
-      <c r="M59" s="160"/>
-      <c r="N59" s="160"/>
-      <c r="O59" s="160"/>
+      <c r="B59" s="145"/>
+      <c r="C59" s="157"/>
+      <c r="D59" s="157"/>
+      <c r="E59" s="157"/>
+      <c r="F59" s="156"/>
+      <c r="G59" s="156"/>
+      <c r="H59" s="156"/>
+      <c r="I59" s="156"/>
+      <c r="J59" s="156"/>
+      <c r="K59" s="156"/>
+      <c r="L59" s="156"/>
+      <c r="M59" s="156"/>
+      <c r="N59" s="156"/>
+      <c r="O59" s="156"/>
     </row>
     <row r="60" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B60" s="164"/>
-      <c r="C60" s="161"/>
-      <c r="D60" s="161"/>
-      <c r="E60" s="161"/>
-      <c r="F60" s="160"/>
-      <c r="G60" s="160"/>
-      <c r="H60" s="160"/>
-      <c r="I60" s="160"/>
-      <c r="J60" s="160"/>
-      <c r="K60" s="160"/>
-      <c r="L60" s="160"/>
-      <c r="M60" s="160"/>
-      <c r="N60" s="160"/>
-      <c r="O60" s="160"/>
-    </row>
-    <row r="61" spans="2:15" ht="14.25">
-      <c r="C61" s="16" t="s">
+      <c r="B60" s="145"/>
+      <c r="C60" s="157"/>
+      <c r="D60" s="157"/>
+      <c r="E60" s="157"/>
+      <c r="F60" s="156"/>
+      <c r="G60" s="156"/>
+      <c r="H60" s="156"/>
+      <c r="I60" s="156"/>
+      <c r="J60" s="156"/>
+      <c r="K60" s="156"/>
+      <c r="L60" s="156"/>
+      <c r="M60" s="156"/>
+      <c r="N60" s="156"/>
+      <c r="O60" s="156"/>
+    </row>
+    <row r="61" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B61" s="145"/>
+      <c r="C61" s="157"/>
+      <c r="D61" s="157"/>
+      <c r="E61" s="157"/>
+      <c r="F61" s="156"/>
+      <c r="G61" s="156"/>
+      <c r="H61" s="156"/>
+      <c r="I61" s="156"/>
+      <c r="J61" s="156"/>
+      <c r="K61" s="156"/>
+      <c r="L61" s="156"/>
+      <c r="M61" s="156"/>
+      <c r="N61" s="156"/>
+      <c r="O61" s="156"/>
+    </row>
+    <row r="62" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B62" s="145"/>
+      <c r="C62" s="157"/>
+      <c r="D62" s="157"/>
+      <c r="E62" s="157"/>
+      <c r="F62" s="156"/>
+      <c r="G62" s="156"/>
+      <c r="H62" s="156"/>
+      <c r="I62" s="156"/>
+      <c r="J62" s="156"/>
+      <c r="K62" s="156"/>
+      <c r="L62" s="156"/>
+      <c r="M62" s="156"/>
+      <c r="N62" s="156"/>
+      <c r="O62" s="156"/>
+    </row>
+    <row r="63" spans="2:15" ht="14.25">
+      <c r="C63" s="16" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="110">
+  <mergeCells count="116">
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="F21:N22"/>
+    <mergeCell ref="F23:N24"/>
+    <mergeCell ref="F25:N26"/>
+    <mergeCell ref="F27:H28"/>
+    <mergeCell ref="J27:N28"/>
+    <mergeCell ref="K29:L30"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="J41:N41"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="F51:N52"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="J46:N46"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J44:N44"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="J45:N45"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="J43:N43"/>
+    <mergeCell ref="M60:O62"/>
+    <mergeCell ref="C53:E62"/>
+    <mergeCell ref="J54:L56"/>
+    <mergeCell ref="J57:L59"/>
+    <mergeCell ref="J60:L62"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="M54:O56"/>
+    <mergeCell ref="M57:O59"/>
+    <mergeCell ref="B14:B62"/>
+    <mergeCell ref="C10:G11"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="F57:G59"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H57:I59"/>
+    <mergeCell ref="F60:G62"/>
+    <mergeCell ref="H60:I62"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="F54:G56"/>
+    <mergeCell ref="H54:I56"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="D27:E28"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D29:E38"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="G4:K8"/>
     <mergeCell ref="C3:C8"/>
@@ -5088,105 +5642,6 @@
     <mergeCell ref="L7:O7"/>
     <mergeCell ref="L8:O8"/>
     <mergeCell ref="L4:O4"/>
-    <mergeCell ref="B14:B60"/>
-    <mergeCell ref="C10:G11"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="F55:G57"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H55:I57"/>
-    <mergeCell ref="F58:G60"/>
-    <mergeCell ref="H58:I60"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="F52:G54"/>
-    <mergeCell ref="H52:I54"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="D27:E28"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D29:E36"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F49:N50"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="J44:N44"/>
-    <mergeCell ref="M58:O60"/>
-    <mergeCell ref="C51:E60"/>
-    <mergeCell ref="J52:L54"/>
-    <mergeCell ref="J55:L57"/>
-    <mergeCell ref="J58:L60"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="M52:O54"/>
-    <mergeCell ref="M55:O57"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="J43:N43"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="J40:N40"/>
-    <mergeCell ref="J41:N41"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="J39:N39"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="F21:N22"/>
-    <mergeCell ref="F23:N24"/>
-    <mergeCell ref="F25:N26"/>
-    <mergeCell ref="F27:H28"/>
-    <mergeCell ref="J27:N28"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="K29:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L12:O12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/controller/src/main/resources/jxls_templates/juecaishu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/juecaishu_shoutuo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12750" yWindow="45" windowWidth="15900" windowHeight="12420" tabRatio="570"/>
+    <workbookView xWindow="12750" yWindow="45" windowWidth="15900" windowHeight="12420" tabRatio="570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="244">
   <si>
     <t>委託元（和文）</t>
     <rPh sb="4" eb="6">
@@ -1187,387 +1187,391 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>${aw.rate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${statime[0]}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${statime[1]}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[1].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[0].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[2].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${num[3].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${aw.draftingdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${aw.scheduleddate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[0].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[1].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[2].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[3].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[4].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[5].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[6].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[7].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[0].depart}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[1].depart}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[2].depart}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[3].depart}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[4].depart}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[5].depart}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[6].depart}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[7].depart}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${aw.pjnamechinese}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${aw.contractnumber}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${aw.claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R9A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R11A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R11B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sta[8].budgetcode}</t>
+  </si>
+  <si>
+    <t>${sta[9].budgetcode}</t>
+  </si>
+  <si>
+    <t>${sta[10].budgetcode}</t>
+  </si>
+  <si>
+    <t>${sta[11].budgetcode}</t>
+  </si>
+  <si>
+    <t>${sta[12].budgetcode}</t>
+  </si>
+  <si>
+    <t>${sta[8].depart}</t>
+  </si>
+  <si>
+    <t>${sta[9].depart}</t>
+  </si>
+  <si>
+    <t>${sta[10].depart}</t>
+  </si>
+  <si>
+    <t>${sta[11].depart}</t>
+  </si>
+  <si>
+    <t>${sta[12].depart}</t>
+  </si>
+  <si>
+    <t>R3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${alist[0].depart}</t>
+  </si>
+  <si>
+    <t>${alist[0].member}</t>
+  </si>
+  <si>
+    <t>${alist[0].community}</t>
+  </si>
+  <si>
+    <t>${alist[0].outsource}</t>
+  </si>
+  <si>
+    <t>${alist[0].outcommunity}</t>
+  </si>
+  <si>
+    <t>${alist[1].depart}</t>
+  </si>
+  <si>
+    <t>${alist[1].member}</t>
+  </si>
+  <si>
+    <t>${alist[1].community}</t>
+  </si>
+  <si>
+    <t>${alist[1].outsource}</t>
+  </si>
+  <si>
+    <t>${alist[1].outcommunity}</t>
+  </si>
+  <si>
+    <t>${alist[2].depart}</t>
+  </si>
+  <si>
+    <t>${alist[2].member}</t>
+  </si>
+  <si>
+    <t>${alist[2].community}</t>
+  </si>
+  <si>
+    <t>${alist[2].outsource}</t>
+  </si>
+  <si>
+    <t>${alist[2].outcommunity}</t>
+  </si>
+  <si>
+    <t>${alist[3].depart}</t>
+  </si>
+  <si>
+    <t>${alist[3].member}</t>
+  </si>
+  <si>
+    <t>${alist[3].community}</t>
+  </si>
+  <si>
+    <t>${alist[3].outsource}</t>
+  </si>
+  <si>
+    <t>${alist[3].outcommunity}</t>
+  </si>
+  <si>
+    <t>${alist[4].depart}</t>
+  </si>
+  <si>
+    <t>${alist[4].member}</t>
+  </si>
+  <si>
+    <t>${alist[4].community}</t>
+  </si>
+  <si>
+    <t>${alist[4].outsource}</t>
+  </si>
+  <si>
+    <t>${alist[4].outcommunity}</t>
+  </si>
+  <si>
+    <t>${alist[5].depart}</t>
+  </si>
+  <si>
+    <t>${alist[5].member}</t>
+  </si>
+  <si>
+    <t>${alist[5].community}</t>
+  </si>
+  <si>
+    <t>${alist[5].outsource}</t>
+  </si>
+  <si>
+    <t>${alist[5].outcommunity}</t>
+  </si>
+  <si>
+    <t>${alist[6].depart}</t>
+  </si>
+  <si>
+    <t>${alist[6].member}</t>
+  </si>
+  <si>
+    <t>${alist[6].community}</t>
+  </si>
+  <si>
+    <t>${alist[6].outsource}</t>
+  </si>
+  <si>
+    <t>${alist[6].outcommunity}</t>
+  </si>
+  <si>
+    <t>${aw.user_id}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>${aw.total}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>${aw.number}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>${aw.price}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${aw.rate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${statime[0]}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${statime[1]}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[0].deliverydate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[2].deliverydate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[3].deliverydate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[1].deliverydate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[1].completiondate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[1].claimdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[1].supportdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[1].claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[0].completiondate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[0].claimdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[0].supportdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[0].claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[2].completiondate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[2].claimdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[2].supportdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[2].claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[3].completiondate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[3].claimdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[3].supportdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${num[3].claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${aw.user_id}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${aw.draftingdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${aw.scheduleddate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${sta[0].budgetcode}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${sta[1].budgetcode}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${sta[2].budgetcode}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${sta[3].budgetcode}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${sta[4].budgetcode}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${sta[5].budgetcode}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${sta[6].budgetcode}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${sta[7].budgetcode}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${sta[0].depart}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${sta[1].depart}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${sta[2].depart}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${sta[3].depart}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${sta[4].depart}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${sta[5].depart}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${sta[6].depart}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${sta[7].depart}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${aw.pjnamechinese}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${aw.contractnumber}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${aw.number}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${aw.claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R9A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R11A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R11B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${sta[8].budgetcode}</t>
-  </si>
-  <si>
-    <t>${sta[9].budgetcode}</t>
-  </si>
-  <si>
-    <t>${sta[10].budgetcode}</t>
-  </si>
-  <si>
-    <t>${sta[11].budgetcode}</t>
-  </si>
-  <si>
-    <t>${sta[12].budgetcode}</t>
-  </si>
-  <si>
-    <t>${sta[8].depart}</t>
-  </si>
-  <si>
-    <t>${sta[9].depart}</t>
-  </si>
-  <si>
-    <t>${sta[10].depart}</t>
-  </si>
-  <si>
-    <t>${sta[11].depart}</t>
-  </si>
-  <si>
-    <t>${sta[12].depart}</t>
-  </si>
-  <si>
-    <t>R3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${t[0].budgetcode}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${t[1].budgetcode}</t>
-  </si>
-  <si>
-    <t>${t[2].budgetcode}</t>
-  </si>
-  <si>
-    <t>${t[3].budgetcode}</t>
-  </si>
-  <si>
-    <t>${t[4].budgetcode}</t>
-  </si>
-  <si>
-    <t>${t[5].budgetcode}</t>
-  </si>
-  <si>
-    <t>${t[6].budgetcode}</t>
-  </si>
-  <si>
-    <t>${t[0].depart}</t>
-  </si>
-  <si>
-    <t>${t[0].depart}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${t[1].depart}</t>
-  </si>
-  <si>
-    <t>${t[2].depart}</t>
-  </si>
-  <si>
-    <t>${t[3].depart}</t>
-  </si>
-  <si>
-    <t>${t[4].depart}</t>
-  </si>
-  <si>
-    <t>${t[5].depart}</t>
-  </si>
-  <si>
-    <t>${t[6].depart}</t>
-  </si>
-  <si>
-    <t>${t[0].member}</t>
-  </si>
-  <si>
-    <t>${t[0].member}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${t[1].member}</t>
-  </si>
-  <si>
-    <t>${t[2].member}</t>
-  </si>
-  <si>
-    <t>${t[3].member}</t>
-  </si>
-  <si>
-    <t>${t[4].member}</t>
-  </si>
-  <si>
-    <t>${t[5].member}</t>
-  </si>
-  <si>
-    <t>${t[6].member}</t>
-  </si>
-  <si>
-    <t>${t[0].community}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${t[1].community}</t>
-  </si>
-  <si>
-    <t>${t[2].community}</t>
-  </si>
-  <si>
-    <t>${t[3].community}</t>
-  </si>
-  <si>
-    <t>${t[4].community}</t>
-  </si>
-  <si>
-    <t>${t[5].community}</t>
-  </si>
-  <si>
-    <t>${t[6].community}</t>
-  </si>
-  <si>
-    <t>${t[0].outsource}</t>
-  </si>
-  <si>
-    <t>${t[0].outsource}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${t[1].outsource}</t>
-  </si>
-  <si>
-    <t>${t[2].outsource}</t>
-  </si>
-  <si>
-    <t>${t[3].outsource}</t>
-  </si>
-  <si>
-    <t>${t[4].outsource}</t>
-  </si>
-  <si>
-    <t>${t[5].outsource}</t>
-  </si>
-  <si>
-    <t>${t[6].outsource}</t>
-  </si>
-  <si>
-    <t>${t[0].outcommunity}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${t[1].outcommunity}</t>
-  </si>
-  <si>
-    <t>${t[2].outcommunity}</t>
-  </si>
-  <si>
-    <t>${t[3].outcommunity}</t>
-  </si>
-  <si>
-    <t>${t[4].outcommunity}</t>
-  </si>
-  <si>
-    <t>${t[5].outcommunity}</t>
-  </si>
-  <si>
-    <t>${t[6].outcommunity}</t>
+    <t>${alist[0].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${alist[0].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${alist[1].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${alist[2].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${alist[3].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${alist[4].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${alist[4].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${alist[5].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${alist[6].budgetcode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${aw.telephone}</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2065,7 +2069,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2331,41 +2335,20 @@
     <xf numFmtId="177" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2430,6 +2413,48 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2439,6 +2464,168 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2484,9 +2671,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2507,183 +2691,6 @@
     </xf>
     <xf numFmtId="31" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2996,14 +3003,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A55" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A26" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14" style="27" customWidth="1"/>
-    <col min="2" max="2" width="45.125" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.125" style="38" customWidth="1"/>
     <col min="3" max="3" width="14" style="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56" style="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.625" style="27" bestFit="1" customWidth="1"/>
@@ -3015,14 +3022,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="G1" s="101" t="s">
+      <c r="B1" s="91"/>
+      <c r="G1" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="102"/>
+      <c r="H1" s="95"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" s="28" t="s">
@@ -3035,8 +3042,8 @@
         <v>15</v>
       </c>
       <c r="D2" s="29"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="97"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" s="30" t="s">
@@ -3046,8 +3053,8 @@
       <c r="C3" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="103"/>
-      <c r="H3" s="104"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="97"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="28" t="s">
@@ -3059,8 +3066,8 @@
       <c r="C4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="103"/>
-      <c r="H4" s="104"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="97"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
       <c r="A5" s="28" t="s">
@@ -3070,8 +3077,8 @@
       <c r="C5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="103"/>
-      <c r="H5" s="104"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="97"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="A6" s="32" t="s">
@@ -3083,8 +3090,8 @@
       <c r="C6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="103"/>
-      <c r="H6" s="104"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="97"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="A7" s="32" t="s">
@@ -3096,8 +3103,8 @@
       <c r="C7" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="103"/>
-      <c r="H7" s="104"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="97"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8" s="28" t="s">
@@ -3107,8 +3114,8 @@
       <c r="C8" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="103"/>
-      <c r="H8" s="104"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="97"/>
     </row>
     <row r="9" spans="1:8" s="33" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="30" t="s">
@@ -3120,8 +3127,8 @@
       <c r="C9" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="103"/>
-      <c r="H9" s="104"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="97"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="A10" s="28" t="s">
@@ -3133,34 +3140,34 @@
       <c r="C10" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="103"/>
-      <c r="H10" s="104"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="97"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
       <c r="A11" s="28" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="76" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="103"/>
-      <c r="H11" s="104"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="97"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
       <c r="A12" s="28" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="103"/>
-      <c r="H12" s="104"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="97"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="A13" s="28" t="s">
@@ -3170,34 +3177,34 @@
       <c r="C13" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="103"/>
-      <c r="H13" s="104"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="97"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
       <c r="A14" s="28" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="103"/>
-      <c r="H14" s="104"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="97"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="A15" s="28" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C15" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="103"/>
-      <c r="H15" s="104"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="97"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
       <c r="A16" s="28" t="s">
@@ -3207,8 +3214,8 @@
       <c r="C16" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="103"/>
-      <c r="H16" s="104"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="97"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
       <c r="A17" s="28" t="s">
@@ -3218,8 +3225,8 @@
       <c r="C17" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="103"/>
-      <c r="H17" s="104"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="97"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
       <c r="A18" s="28" t="s">
@@ -3229,8 +3236,8 @@
       <c r="C18" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="103"/>
-      <c r="H18" s="104"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="97"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="28" t="s">
@@ -3242,8 +3249,8 @@
       <c r="C19" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="103"/>
-      <c r="H19" s="104"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="97"/>
     </row>
     <row r="20" spans="1:8" s="33" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="28" t="s">
@@ -3255,8 +3262,8 @@
       <c r="C20" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="103"/>
-      <c r="H20" s="104"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="97"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1">
       <c r="A21" s="28" t="s">
@@ -3266,8 +3273,8 @@
       <c r="C21" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="103"/>
-      <c r="H21" s="104"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="97"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1">
       <c r="A22" s="28" t="s">
@@ -3277,8 +3284,8 @@
       <c r="C22" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="103"/>
-      <c r="H22" s="104"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="97"/>
     </row>
     <row r="23" spans="1:8" s="33" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="30" t="s">
@@ -3288,8 +3295,8 @@
       <c r="C23" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="103"/>
-      <c r="H23" s="104"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="97"/>
     </row>
     <row r="24" spans="1:8" s="33" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="30" t="s">
@@ -3299,8 +3306,8 @@
       <c r="C24" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="103"/>
-      <c r="H24" s="104"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="97"/>
     </row>
     <row r="25" spans="1:8" s="33" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="30" t="s">
@@ -3312,8 +3319,8 @@
       <c r="C25" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="103"/>
-      <c r="H25" s="104"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="97"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1">
       <c r="A26" s="30" t="s">
@@ -3325,14 +3332,14 @@
       <c r="C26" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="103"/>
-      <c r="H26" s="104"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="97"/>
     </row>
     <row r="27" spans="1:8" ht="3" customHeight="1">
       <c r="A27" s="34"/>
       <c r="B27" s="27"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="104"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="97"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1">
       <c r="A28" s="35" t="s">
@@ -3353,8 +3360,8 @@
       <c r="F28" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="G28" s="103"/>
-      <c r="H28" s="104"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="97"/>
     </row>
     <row r="29" spans="1:8" ht="13.5" customHeight="1">
       <c r="A29" s="55" t="str">
@@ -3362,22 +3369,22 @@
         <v>第一回</v>
       </c>
       <c r="B29" s="78" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C29" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="D29" s="79" t="s">
+      <c r="F29" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="E29" s="79" t="s">
-        <v>151</v>
-      </c>
-      <c r="F29" s="80" t="s">
-        <v>152</v>
-      </c>
-      <c r="G29" s="103"/>
-      <c r="H29" s="104"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="97"/>
     </row>
     <row r="30" spans="1:8" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="str">
@@ -3385,22 +3392,22 @@
         <v>第二回</v>
       </c>
       <c r="B30" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="78" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="79" t="s">
         <v>144</v>
       </c>
-      <c r="C30" s="78" t="s">
+      <c r="E30" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="D30" s="79" t="s">
+      <c r="F30" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="E30" s="79" t="s">
-        <v>147</v>
-      </c>
-      <c r="F30" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="G30" s="103"/>
-      <c r="H30" s="104"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="97"/>
     </row>
     <row r="31" spans="1:8" ht="13.5" customHeight="1">
       <c r="A31" s="55" t="str">
@@ -3408,22 +3415,22 @@
         <v>第三回</v>
       </c>
       <c r="B31" s="78" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C31" s="78" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="79" t="s">
+        <v>152</v>
+      </c>
+      <c r="E31" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="79" t="s">
+      <c r="F31" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="E31" s="79" t="s">
-        <v>155</v>
-      </c>
-      <c r="F31" s="80" t="s">
-        <v>156</v>
-      </c>
-      <c r="G31" s="103"/>
-      <c r="H31" s="104"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="97"/>
     </row>
     <row r="32" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
       <c r="A32" s="55" t="str">
@@ -3431,22 +3438,22 @@
         <v>第四回</v>
       </c>
       <c r="B32" s="78" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C32" s="78" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="79" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" s="79" t="s">
         <v>157</v>
       </c>
-      <c r="D32" s="79" t="s">
+      <c r="F32" s="80" t="s">
         <v>158</v>
       </c>
-      <c r="E32" s="79" t="s">
-        <v>159</v>
-      </c>
-      <c r="F32" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="G32" s="105"/>
-      <c r="H32" s="106"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="99"/>
     </row>
     <row r="33" spans="1:8" ht="6.75" customHeight="1">
       <c r="A33" s="37"/>
@@ -3461,18 +3468,18 @@
         <v>44</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="C35" s="107" t="s">
+        <v>230</v>
+      </c>
+      <c r="C35" s="100" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="108"/>
-      <c r="E35" s="113" t="s">
+      <c r="D35" s="101"/>
+      <c r="E35" s="106" t="s">
         <v>134</v>
       </c>
-      <c r="F35" s="114"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="114"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="107"/>
+      <c r="H35" s="107"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="40" t="s">
@@ -3481,33 +3488,33 @@
       <c r="B36" s="76" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="109"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="116"/>
-      <c r="H36" s="116"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="109"/>
+      <c r="G36" s="109"/>
+      <c r="H36" s="109"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="40" t="s">
         <v>46</v>
       </c>
       <c r="B37" s="56" t="s">
-        <v>162</v>
-      </c>
-      <c r="C37" s="111"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="117"/>
-      <c r="F37" s="118"/>
-      <c r="G37" s="118"/>
-      <c r="H37" s="118"/>
+        <v>159</v>
+      </c>
+      <c r="C37" s="104"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="111"/>
     </row>
     <row r="38" spans="1:8" ht="13.5">
       <c r="A38" s="41" t="s">
         <v>48</v>
       </c>
       <c r="B38" s="56" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C38" s="29"/>
       <c r="F38" s="74" t="s">
@@ -3521,20 +3528,20 @@
       <c r="B39" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="97" t="s">
+      <c r="C39" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="98"/>
+      <c r="D39" s="113"/>
       <c r="E39" s="69" t="e">
         <f>(F53-E70-E72)/F53</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F39" s="97" t="s">
+      <c r="F39" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="G39" s="97"/>
+      <c r="G39" s="112"/>
       <c r="H39" s="62" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="38" customFormat="1" ht="13.5">
@@ -3558,28 +3565,28 @@
       <c r="D41" s="27"/>
     </row>
     <row r="42" spans="1:8" s="38" customFormat="1" ht="14.25">
-      <c r="A42" s="96" t="s">
+      <c r="A42" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="96" t="s">
+      <c r="B42" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="93" t="s">
+      <c r="C42" s="117" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="94"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="100" t="s">
+      <c r="D42" s="118"/>
+      <c r="E42" s="118"/>
+      <c r="F42" s="119"/>
+      <c r="G42" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="H42" s="96" t="s">
+      <c r="H42" s="92" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.25">
-      <c r="A43" s="96"/>
-      <c r="B43" s="96"/>
+      <c r="A43" s="92"/>
+      <c r="B43" s="92"/>
       <c r="C43" s="42" t="s">
         <v>65</v>
       </c>
@@ -3592,27 +3599,27 @@
       <c r="F43" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
+      <c r="G43" s="92"/>
+      <c r="H43" s="92"/>
     </row>
     <row r="44" spans="1:8" ht="14.25">
-      <c r="A44" s="89" t="s">
+      <c r="A44" s="88" t="s">
+        <v>234</v>
+      </c>
+      <c r="B44" s="82" t="s">
+        <v>195</v>
+      </c>
+      <c r="C44" s="81" t="s">
+        <v>196</v>
+      </c>
+      <c r="D44" s="81" t="s">
+        <v>197</v>
+      </c>
+      <c r="E44" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="F44" s="81" t="s">
         <v>199</v>
-      </c>
-      <c r="B44" s="82" t="s">
-        <v>207</v>
-      </c>
-      <c r="C44" s="81" t="s">
-        <v>215</v>
-      </c>
-      <c r="D44" s="81" t="s">
-        <v>222</v>
-      </c>
-      <c r="E44" s="81" t="s">
-        <v>230</v>
-      </c>
-      <c r="F44" s="81" t="s">
-        <v>237</v>
       </c>
       <c r="G44" s="43" t="e">
         <f t="shared" ref="G44:G49" si="0">C44+E44</f>
@@ -3624,23 +3631,23 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="14.25">
-      <c r="A45" s="89" t="s">
+      <c r="A45" s="88" t="s">
+        <v>236</v>
+      </c>
+      <c r="B45" s="82" t="s">
         <v>200</v>
       </c>
-      <c r="B45" s="82" t="s">
-        <v>208</v>
-      </c>
       <c r="C45" s="81" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="D45" s="81" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="E45" s="81" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="F45" s="81" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="G45" s="43" t="e">
         <f t="shared" si="0"/>
@@ -3652,23 +3659,23 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="14.25">
-      <c r="A46" s="89" t="s">
-        <v>201</v>
+      <c r="A46" s="88" t="s">
+        <v>237</v>
       </c>
       <c r="B46" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="C46" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="D46" s="81" t="s">
+        <v>207</v>
+      </c>
+      <c r="E46" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="F46" s="81" t="s">
         <v>209</v>
-      </c>
-      <c r="C46" s="81" t="s">
-        <v>217</v>
-      </c>
-      <c r="D46" s="81" t="s">
-        <v>224</v>
-      </c>
-      <c r="E46" s="81" t="s">
-        <v>232</v>
-      </c>
-      <c r="F46" s="81" t="s">
-        <v>239</v>
       </c>
       <c r="G46" s="43" t="e">
         <f t="shared" si="0"/>
@@ -3680,23 +3687,23 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="14.25">
-      <c r="A47" s="89" t="s">
-        <v>202</v>
+      <c r="A47" s="88" t="s">
+        <v>238</v>
       </c>
       <c r="B47" s="82" t="s">
         <v>210</v>
       </c>
       <c r="C47" s="81" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D47" s="81" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="E47" s="81" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="F47" s="81" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="G47" s="43" t="e">
         <f t="shared" si="0"/>
@@ -3708,23 +3715,23 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="14.25">
-      <c r="A48" s="89" t="s">
-        <v>203</v>
+      <c r="A48" s="88" t="s">
+        <v>239</v>
       </c>
       <c r="B48" s="82" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C48" s="81" t="s">
+        <v>216</v>
+      </c>
+      <c r="D48" s="81" t="s">
+        <v>217</v>
+      </c>
+      <c r="E48" s="81" t="s">
+        <v>218</v>
+      </c>
+      <c r="F48" s="81" t="s">
         <v>219</v>
-      </c>
-      <c r="D48" s="81" t="s">
-        <v>226</v>
-      </c>
-      <c r="E48" s="81" t="s">
-        <v>234</v>
-      </c>
-      <c r="F48" s="81" t="s">
-        <v>241</v>
       </c>
       <c r="G48" s="43" t="e">
         <f t="shared" si="0"/>
@@ -3736,23 +3743,23 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="14.25">
-      <c r="A49" s="89" t="s">
-        <v>204</v>
+      <c r="A49" s="88" t="s">
+        <v>241</v>
       </c>
       <c r="B49" s="82" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C49" s="81" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D49" s="81" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E49" s="81" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="F49" s="81" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="G49" s="43" t="e">
         <f t="shared" si="0"/>
@@ -3764,23 +3771,23 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="14.25">
-      <c r="A50" s="89" t="s">
-        <v>205</v>
+      <c r="A50" s="88" t="s">
+        <v>242</v>
       </c>
       <c r="B50" s="82" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="C50" s="81" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D50" s="81" t="s">
+        <v>227</v>
+      </c>
+      <c r="E50" s="81" t="s">
         <v>228</v>
       </c>
-      <c r="E50" s="81" t="s">
-        <v>236</v>
-      </c>
       <c r="F50" s="81" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="G50" s="43" t="e">
         <f>C50+E50</f>
@@ -3792,10 +3799,10 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="15">
-      <c r="A51" s="91" t="s">
+      <c r="A51" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="92"/>
+      <c r="B51" s="116"/>
       <c r="C51" s="45">
         <f>SUM(C44:C50)</f>
         <v>0</v>
@@ -3862,13 +3869,13 @@
     </row>
     <row r="56" spans="1:8">
       <c r="C56" s="58" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D56" s="84" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E56" s="85" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F56" s="63"/>
       <c r="G56" s="63"/>
@@ -3876,13 +3883,13 @@
     </row>
     <row r="57" spans="1:8">
       <c r="C57" s="58" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D57" s="84" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E57" s="85" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F57" s="63"/>
       <c r="G57" s="63"/>
@@ -3890,13 +3897,13 @@
     </row>
     <row r="58" spans="1:8">
       <c r="C58" s="58" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D58" s="84" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E58" s="85" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F58" s="63"/>
       <c r="G58" s="63"/>
@@ -3907,10 +3914,10 @@
         <v>109</v>
       </c>
       <c r="D59" s="84" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E59" s="85" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F59" s="63"/>
       <c r="G59" s="63"/>
@@ -3918,13 +3925,13 @@
     </row>
     <row r="60" spans="1:8">
       <c r="C60" s="58" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D60" s="84" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E60" s="85" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F60" s="63"/>
       <c r="G60" s="63"/>
@@ -3935,10 +3942,10 @@
         <v>112</v>
       </c>
       <c r="D61" s="84" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E61" s="85" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F61" s="63"/>
       <c r="G61" s="63"/>
@@ -3949,10 +3956,10 @@
         <v>111</v>
       </c>
       <c r="D62" s="84" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E62" s="85" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F62" s="63"/>
       <c r="G62" s="63"/>
@@ -3963,10 +3970,10 @@
         <v>110</v>
       </c>
       <c r="D63" s="84" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E63" s="85" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F63" s="63"/>
       <c r="G63" s="63"/>
@@ -3977,10 +3984,10 @@
         <v>113</v>
       </c>
       <c r="D64" s="84" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E64" s="85" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F64" s="63"/>
       <c r="G64" s="63"/>
@@ -3991,10 +3998,10 @@
         <v>114</v>
       </c>
       <c r="D65" s="84" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E65" s="85" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F65" s="63"/>
       <c r="G65" s="63"/>
@@ -4005,10 +4012,10 @@
         <v>115</v>
       </c>
       <c r="D66" s="84" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E66" s="85" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F66" s="63"/>
       <c r="G66" s="63"/>
@@ -4019,10 +4026,10 @@
         <v>116</v>
       </c>
       <c r="D67" s="84" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E67" s="85" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F67" s="63"/>
       <c r="G67" s="63"/>
@@ -4030,23 +4037,23 @@
     </row>
     <row r="68" spans="3:8">
       <c r="C68" s="86" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D68" s="84" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E68" s="85" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F68" s="63"/>
       <c r="G68" s="63"/>
       <c r="H68" s="63"/>
     </row>
     <row r="69" spans="3:8">
-      <c r="C69" s="90" t="s">
+      <c r="C69" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="D69" s="90"/>
+      <c r="D69" s="114"/>
       <c r="E69" s="65">
         <f>SUM(E56:E68)</f>
         <v>0</v>
@@ -4056,10 +4063,10 @@
       <c r="H69" s="63"/>
     </row>
     <row r="70" spans="3:8">
-      <c r="C70" s="97" t="s">
+      <c r="C70" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="D70" s="98"/>
+      <c r="D70" s="113"/>
       <c r="E70" s="66" t="e">
         <f>D57*E57+D58*E58+D59*E59+D60*E60+D61*E61+D62*E62+D63*E63+D64*E64+D65*E65+D66*E66+D67*E67+D68*E68</f>
         <v>#VALUE!</v>
@@ -4077,46 +4084,46 @@
       <c r="H71" s="63"/>
     </row>
     <row r="72" spans="3:8" ht="14.25" customHeight="1">
-      <c r="C72" s="90" t="s">
+      <c r="C72" s="114" t="s">
         <v>108</v>
       </c>
-      <c r="D72" s="90"/>
-      <c r="E72" s="77" t="s">
-        <v>136</v>
+      <c r="D72" s="114"/>
+      <c r="E72" s="89" t="s">
+        <v>231</v>
       </c>
       <c r="F72" s="63"/>
       <c r="G72" s="63"/>
       <c r="H72" s="63"/>
     </row>
     <row r="73" spans="3:8" ht="14.25" customHeight="1">
-      <c r="C73" s="90" t="s">
+      <c r="C73" s="114" t="s">
         <v>105</v>
       </c>
-      <c r="D73" s="90"/>
-      <c r="E73" s="77" t="s">
-        <v>182</v>
+      <c r="D73" s="114"/>
+      <c r="E73" s="90" t="s">
+        <v>232</v>
       </c>
       <c r="F73" s="63"/>
       <c r="G73" s="63"/>
       <c r="H73" s="63"/>
     </row>
     <row r="74" spans="3:8" ht="14.25" customHeight="1">
-      <c r="C74" s="90" t="s">
+      <c r="C74" s="114" t="s">
         <v>107</v>
       </c>
-      <c r="D74" s="90"/>
-      <c r="E74" s="77" t="s">
-        <v>137</v>
+      <c r="D74" s="114"/>
+      <c r="E74" s="90" t="s">
+        <v>233</v>
       </c>
       <c r="F74" s="63"/>
       <c r="G74" s="63"/>
       <c r="H74" s="63"/>
     </row>
     <row r="75" spans="3:8">
-      <c r="C75" s="90" t="s">
+      <c r="C75" s="114" t="s">
         <v>106</v>
       </c>
-      <c r="D75" s="90"/>
+      <c r="D75" s="114"/>
       <c r="E75" s="65" t="e">
         <f>E72/E73</f>
         <v>#VALUE!</v>
@@ -4140,6 +4147,15 @@
     <protectedRange sqref="C44:D50" name="範囲3_3"/>
   </protectedRanges>
   <mergeCells count="18">
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="G42:G43"/>
@@ -4149,15 +4165,6 @@
     <mergeCell ref="E35:H37"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
@@ -4183,8 +4190,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39:N39"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4230,12 +4237,12 @@
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="1"/>
-      <c r="C3" s="127" t="s">
+      <c r="C3" s="188" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="132" t="s">
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="193" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="21" t="s">
@@ -4245,104 +4252,104 @@
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
       <c r="K3" s="17"/>
-      <c r="L3" s="119" t="s">
+      <c r="L3" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="121"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="128"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="1"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="142" t="str">
+      <c r="C4" s="189"/>
+      <c r="D4" s="192"/>
+      <c r="E4" s="192"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="184"/>
+      <c r="I4" s="184"/>
+      <c r="J4" s="184"/>
+      <c r="K4" s="185"/>
+      <c r="L4" s="202" t="str">
         <f>記入!B37</f>
         <v>${aw.draftingdate}</v>
       </c>
-      <c r="M4" s="143"/>
-      <c r="N4" s="143"/>
-      <c r="O4" s="144"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="203"/>
+      <c r="O4" s="204"/>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="1"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="119" t="s">
+      <c r="C5" s="189"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="192"/>
+      <c r="F5" s="189"/>
+      <c r="G5" s="183"/>
+      <c r="H5" s="184"/>
+      <c r="I5" s="184"/>
+      <c r="J5" s="184"/>
+      <c r="K5" s="185"/>
+      <c r="L5" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="120"/>
-      <c r="N5" s="120"/>
-      <c r="O5" s="121"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="128"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="1"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="132" t="s">
+      <c r="C6" s="189"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="193" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="122"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="133" t="str">
+      <c r="G6" s="183"/>
+      <c r="H6" s="184"/>
+      <c r="I6" s="184"/>
+      <c r="J6" s="184"/>
+      <c r="K6" s="185"/>
+      <c r="L6" s="194" t="str">
         <f>記入!B38</f>
         <v>${aw.scheduleddate}</v>
       </c>
-      <c r="M6" s="134"/>
-      <c r="N6" s="134"/>
-      <c r="O6" s="135"/>
+      <c r="M6" s="195"/>
+      <c r="N6" s="195"/>
+      <c r="O6" s="196"/>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="1"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="136" t="s">
+      <c r="C7" s="189"/>
+      <c r="D7" s="192"/>
+      <c r="E7" s="192"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="184"/>
+      <c r="I7" s="184"/>
+      <c r="J7" s="184"/>
+      <c r="K7" s="185"/>
+      <c r="L7" s="197" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="137"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="138"/>
+      <c r="M7" s="167"/>
+      <c r="N7" s="167"/>
+      <c r="O7" s="198"/>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="1"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="140"/>
-      <c r="N8" s="140"/>
-      <c r="O8" s="141"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="192"/>
+      <c r="E8" s="192"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="183"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="186"/>
+      <c r="K8" s="187"/>
+      <c r="L8" s="199"/>
+      <c r="M8" s="200"/>
+      <c r="N8" s="200"/>
+      <c r="O8" s="201"/>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="1"/>
@@ -4353,76 +4360,75 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="155" t="s">
+      <c r="H9" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="155" t="s">
+      <c r="I9" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="155" t="s">
+      <c r="J9" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="200" t="s">
+      <c r="K9" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="119" t="s">
+      <c r="L9" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="120"/>
-      <c r="N9" s="193" t="str">
+      <c r="M9" s="127"/>
+      <c r="N9" s="124" t="str">
         <f>記入!B39</f>
         <v>${aw.plan}</v>
       </c>
-      <c r="O9" s="194"/>
+      <c r="O9" s="125"/>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="1"/>
-      <c r="C10" s="146" t="str">
+      <c r="C10" s="171" t="str">
         <f>記入!B9</f>
         <v>${aw.deployment}</v>
       </c>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="155"/>
-      <c r="J10" s="155"/>
-      <c r="K10" s="200"/>
-      <c r="L10" s="119" t="s">
+      <c r="D10" s="172"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="172"/>
+      <c r="G10" s="173"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="134"/>
+      <c r="L10" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="121"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="127"/>
+      <c r="O10" s="128"/>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="1"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="150"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="151"/>
-      <c r="H11" s="155"/>
-      <c r="I11" s="155"/>
-      <c r="J11" s="155" t="str">
+      <c r="C11" s="174"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="175"/>
+      <c r="F11" s="175"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123" t="str">
         <f>記入!B35</f>
         <v>${aw.user_id}</v>
       </c>
-      <c r="K11" s="203" t="str">
-        <f>記入!B36</f>
-        <v>${aw.telephone}</v>
-      </c>
-      <c r="L11" s="201" t="str">
+      <c r="K11" s="137" t="s">
+        <v>243</v>
+      </c>
+      <c r="L11" s="135" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M11" s="202"/>
-      <c r="N11" s="195" t="str">
+      <c r="M11" s="136"/>
+      <c r="N11" s="129" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O11" s="196"/>
+      <c r="O11" s="130"/>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="1"/>
@@ -4433,44 +4439,44 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="155"/>
-      <c r="K12" s="203"/>
-      <c r="L12" s="197" t="s">
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="198"/>
-      <c r="N12" s="198"/>
-      <c r="O12" s="199"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="132"/>
+      <c r="O12" s="133"/>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="1"/>
-      <c r="C13" s="152" t="str">
+      <c r="C13" s="177" t="str">
         <f>記入!B10</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="D13" s="153"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="155"/>
-      <c r="I13" s="155"/>
-      <c r="J13" s="155"/>
-      <c r="K13" s="203"/>
-      <c r="L13" s="201" t="str">
+      <c r="D13" s="178"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="179"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="137"/>
+      <c r="L13" s="135" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M13" s="202"/>
-      <c r="N13" s="195" t="str">
+      <c r="M13" s="136"/>
+      <c r="N13" s="129" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O13" s="196"/>
+      <c r="O13" s="130"/>
     </row>
     <row r="14" spans="1:15" ht="9" customHeight="1">
-      <c r="B14" s="145" t="s">
+      <c r="B14" s="170" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="9"/>
@@ -4488,7 +4494,7 @@
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="145"/>
+      <c r="B15" s="170"/>
       <c r="C15" s="9"/>
       <c r="D15" s="12" t="s">
         <v>53</v>
@@ -4506,7 +4512,7 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="145"/>
+      <c r="B16" s="170"/>
       <c r="C16" s="9"/>
       <c r="D16" s="12"/>
       <c r="E16" s="10" t="str">
@@ -4525,7 +4531,7 @@
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="145"/>
+      <c r="B17" s="170"/>
       <c r="C17" s="9"/>
       <c r="D17" s="12"/>
       <c r="E17" s="10" t="str">
@@ -4544,7 +4550,7 @@
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="145"/>
+      <c r="B18" s="170"/>
       <c r="C18" s="9"/>
       <c r="D18" s="1"/>
       <c r="E18" s="10" t="s">
@@ -4562,7 +4568,7 @@
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="2:15" ht="9" customHeight="1">
-      <c r="B19" s="145"/>
+      <c r="B19" s="170"/>
       <c r="C19" s="9"/>
       <c r="D19" s="1"/>
       <c r="E19" s="12"/>
@@ -4578,7 +4584,7 @@
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="145"/>
+      <c r="B20" s="170"/>
       <c r="C20" s="9"/>
       <c r="D20" s="12" t="s">
         <v>35</v>
@@ -4596,429 +4602,429 @@
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="2:15" ht="15" customHeight="1">
-      <c r="B21" s="145"/>
+      <c r="B21" s="170"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="159" t="s">
+      <c r="D21" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="159"/>
-      <c r="F21" s="183" t="str">
+      <c r="E21" s="155"/>
+      <c r="F21" s="120" t="str">
         <f>記入!B2</f>
         <v>${aw.custojapanese}</v>
       </c>
-      <c r="G21" s="183"/>
-      <c r="H21" s="183"/>
-      <c r="I21" s="183"/>
-      <c r="J21" s="183"/>
-      <c r="K21" s="183"/>
-      <c r="L21" s="183"/>
-      <c r="M21" s="183"/>
-      <c r="N21" s="183"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="120"/>
+      <c r="N21" s="120"/>
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="2:15" ht="15" customHeight="1">
-      <c r="B22" s="145"/>
+      <c r="B22" s="170"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="159"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="183"/>
-      <c r="G22" s="183"/>
-      <c r="H22" s="183"/>
-      <c r="I22" s="183"/>
-      <c r="J22" s="183"/>
-      <c r="K22" s="183"/>
-      <c r="L22" s="183"/>
-      <c r="M22" s="183"/>
-      <c r="N22" s="183"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="120"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="120"/>
+      <c r="N22" s="120"/>
       <c r="O22" s="4"/>
     </row>
     <row r="23" spans="2:15" ht="15" customHeight="1">
-      <c r="B23" s="145"/>
+      <c r="B23" s="170"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="159" t="s">
+      <c r="D23" s="155" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="159"/>
-      <c r="F23" s="183" t="str">
+      <c r="E23" s="155"/>
+      <c r="F23" s="120" t="str">
         <f>C13</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="G23" s="183"/>
-      <c r="H23" s="183"/>
-      <c r="I23" s="183"/>
-      <c r="J23" s="183"/>
-      <c r="K23" s="183"/>
-      <c r="L23" s="183"/>
-      <c r="M23" s="183"/>
-      <c r="N23" s="183"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="120"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="120"/>
+      <c r="L23" s="120"/>
+      <c r="M23" s="120"/>
+      <c r="N23" s="120"/>
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="2:15" ht="15" customHeight="1">
-      <c r="B24" s="145"/>
+      <c r="B24" s="170"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="159"/>
-      <c r="E24" s="159"/>
-      <c r="F24" s="183"/>
-      <c r="G24" s="183"/>
-      <c r="H24" s="183"/>
-      <c r="I24" s="183"/>
-      <c r="J24" s="183"/>
-      <c r="K24" s="183"/>
-      <c r="L24" s="183"/>
-      <c r="M24" s="183"/>
-      <c r="N24" s="183"/>
+      <c r="D24" s="155"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="120"/>
+      <c r="N24" s="120"/>
       <c r="O24" s="4"/>
     </row>
     <row r="25" spans="2:15" ht="15" customHeight="1">
-      <c r="B25" s="145"/>
+      <c r="B25" s="170"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="159" t="s">
+      <c r="D25" s="155" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="159"/>
-      <c r="F25" s="183" t="str">
+      <c r="E25" s="155"/>
+      <c r="F25" s="120" t="str">
         <f>記入!B12</f>
         <v>${aw.contractnumber}</v>
       </c>
-      <c r="G25" s="183"/>
-      <c r="H25" s="183"/>
-      <c r="I25" s="183"/>
-      <c r="J25" s="183"/>
-      <c r="K25" s="183"/>
-      <c r="L25" s="183"/>
-      <c r="M25" s="183"/>
-      <c r="N25" s="183"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="120"/>
+      <c r="K25" s="120"/>
+      <c r="L25" s="120"/>
+      <c r="M25" s="120"/>
+      <c r="N25" s="120"/>
       <c r="O25" s="4"/>
     </row>
     <row r="26" spans="2:15" ht="15" customHeight="1">
-      <c r="B26" s="145"/>
+      <c r="B26" s="170"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="183"/>
-      <c r="G26" s="183"/>
-      <c r="H26" s="183"/>
-      <c r="I26" s="183"/>
-      <c r="J26" s="183"/>
-      <c r="K26" s="183"/>
-      <c r="L26" s="183"/>
-      <c r="M26" s="183"/>
-      <c r="N26" s="183"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="120"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="120"/>
+      <c r="K26" s="120"/>
+      <c r="L26" s="120"/>
+      <c r="M26" s="120"/>
+      <c r="N26" s="120"/>
       <c r="O26" s="4"/>
     </row>
     <row r="27" spans="2:15" ht="15" customHeight="1">
-      <c r="B27" s="145"/>
+      <c r="B27" s="170"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="160" t="s">
+      <c r="D27" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="160"/>
-      <c r="F27" s="184" t="str">
+      <c r="E27" s="156"/>
+      <c r="F27" s="121" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="G27" s="185"/>
-      <c r="H27" s="185"/>
-      <c r="I27" s="158" t="s">
+      <c r="G27" s="122"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="180" t="s">
         <v>62</v>
       </c>
-      <c r="J27" s="186" t="str">
+      <c r="J27" s="138" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="K27" s="186"/>
-      <c r="L27" s="186"/>
-      <c r="M27" s="186"/>
-      <c r="N27" s="187"/>
+      <c r="K27" s="138"/>
+      <c r="L27" s="138"/>
+      <c r="M27" s="138"/>
+      <c r="N27" s="139"/>
       <c r="O27" s="4"/>
     </row>
     <row r="28" spans="2:15" ht="15" customHeight="1">
-      <c r="B28" s="145"/>
+      <c r="B28" s="170"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="160"/>
-      <c r="E28" s="160"/>
-      <c r="F28" s="184"/>
-      <c r="G28" s="185"/>
-      <c r="H28" s="185"/>
-      <c r="I28" s="158"/>
-      <c r="J28" s="186"/>
-      <c r="K28" s="186"/>
-      <c r="L28" s="186"/>
-      <c r="M28" s="186"/>
-      <c r="N28" s="187"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="180"/>
+      <c r="J28" s="138"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="138"/>
+      <c r="N28" s="139"/>
       <c r="O28" s="4"/>
     </row>
     <row r="29" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B29" s="145"/>
+      <c r="B29" s="170"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="161" t="s">
+      <c r="D29" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="162"/>
-      <c r="F29" s="161" t="s">
+      <c r="E29" s="141"/>
+      <c r="F29" s="144" t="s">
         <v>60</v>
       </c>
-      <c r="G29" s="162"/>
-      <c r="H29" s="189" t="s">
+      <c r="G29" s="141"/>
+      <c r="H29" s="145" t="s">
         <v>61</v>
       </c>
-      <c r="I29" s="179" t="s">
+      <c r="I29" s="147" t="s">
         <v>68</v>
       </c>
-      <c r="J29" s="180"/>
-      <c r="K29" s="188" t="s">
+      <c r="J29" s="148"/>
+      <c r="K29" s="140" t="s">
         <v>67</v>
       </c>
-      <c r="L29" s="162"/>
-      <c r="M29" s="161" t="s">
+      <c r="L29" s="141"/>
+      <c r="M29" s="144" t="s">
         <v>58</v>
       </c>
-      <c r="N29" s="162"/>
+      <c r="N29" s="141"/>
       <c r="O29" s="4"/>
     </row>
     <row r="30" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B30" s="145"/>
+      <c r="B30" s="170"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="163"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="165"/>
-      <c r="G30" s="166"/>
-      <c r="H30" s="190"/>
+      <c r="D30" s="181"/>
+      <c r="E30" s="182"/>
+      <c r="F30" s="142"/>
+      <c r="G30" s="143"/>
+      <c r="H30" s="146"/>
       <c r="I30" s="22" t="s">
         <v>65</v>
       </c>
       <c r="J30" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="K30" s="165"/>
-      <c r="L30" s="166"/>
-      <c r="M30" s="191" t="str">
+      <c r="K30" s="142"/>
+      <c r="L30" s="143"/>
+      <c r="M30" s="149" t="str">
         <f>"(" &amp; 記入!B19 &amp; ")"</f>
         <v>(${aw.currencyposition})</v>
       </c>
-      <c r="N30" s="192"/>
+      <c r="N30" s="150"/>
       <c r="O30" s="4"/>
     </row>
     <row r="31" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B31" s="145"/>
+      <c r="B31" s="170"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="163"/>
-      <c r="E31" s="164"/>
-      <c r="F31" s="167" t="s">
-        <v>199</v>
-      </c>
-      <c r="G31" s="168"/>
-      <c r="H31" s="88" t="s">
-        <v>206</v>
+      <c r="D31" s="181"/>
+      <c r="E31" s="182"/>
+      <c r="F31" s="151" t="s">
+        <v>235</v>
+      </c>
+      <c r="G31" s="152"/>
+      <c r="H31" s="82" t="s">
+        <v>195</v>
       </c>
       <c r="I31" s="81" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="J31" s="81" t="s">
-        <v>229</v>
-      </c>
-      <c r="K31" s="182" t="e">
-        <f>I31+H31</f>
+        <v>198</v>
+      </c>
+      <c r="K31" s="153" t="e">
+        <f>I31+J31</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L31" s="183"/>
-      <c r="M31" s="176" t="e">
+      <c r="L31" s="120"/>
+      <c r="M31" s="154" t="e">
         <f>記入!H44</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N31" s="176"/>
+      <c r="N31" s="154"/>
       <c r="O31" s="4"/>
     </row>
     <row r="32" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B32" s="145"/>
+      <c r="B32" s="170"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="163"/>
-      <c r="E32" s="164"/>
-      <c r="F32" s="167" t="s">
+      <c r="D32" s="181"/>
+      <c r="E32" s="182"/>
+      <c r="F32" s="151" t="s">
+        <v>236</v>
+      </c>
+      <c r="G32" s="152"/>
+      <c r="H32" s="82" t="s">
         <v>200</v>
       </c>
-      <c r="G32" s="168"/>
-      <c r="H32" s="88" t="s">
-        <v>208</v>
-      </c>
       <c r="I32" s="81" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="J32" s="81" t="s">
-        <v>231</v>
-      </c>
-      <c r="K32" s="182" t="e">
-        <f t="shared" ref="K32:K37" si="0">I32+H32</f>
+        <v>203</v>
+      </c>
+      <c r="K32" s="153" t="e">
+        <f t="shared" ref="K32:K37" si="0">I32+J32</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L32" s="183"/>
-      <c r="M32" s="176" t="e">
+      <c r="L32" s="120"/>
+      <c r="M32" s="154" t="e">
         <f>記入!H45</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N32" s="176"/>
+      <c r="N32" s="154"/>
       <c r="O32" s="4"/>
     </row>
     <row r="33" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B33" s="145"/>
+      <c r="B33" s="170"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="163"/>
-      <c r="E33" s="164"/>
-      <c r="F33" s="167" t="s">
-        <v>201</v>
-      </c>
-      <c r="G33" s="168"/>
-      <c r="H33" s="88" t="s">
-        <v>209</v>
+      <c r="D33" s="181"/>
+      <c r="E33" s="182"/>
+      <c r="F33" s="151" t="s">
+        <v>237</v>
+      </c>
+      <c r="G33" s="152"/>
+      <c r="H33" s="82" t="s">
+        <v>205</v>
       </c>
       <c r="I33" s="81" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="J33" s="81" t="s">
-        <v>232</v>
-      </c>
-      <c r="K33" s="182" t="e">
+        <v>208</v>
+      </c>
+      <c r="K33" s="153" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L33" s="183"/>
-      <c r="M33" s="176" t="e">
+      <c r="L33" s="120"/>
+      <c r="M33" s="154" t="e">
         <f>記入!H46</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N33" s="176"/>
+      <c r="N33" s="154"/>
       <c r="O33" s="4"/>
     </row>
     <row r="34" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B34" s="145"/>
+      <c r="B34" s="170"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="163"/>
-      <c r="E34" s="164"/>
-      <c r="F34" s="167" t="s">
-        <v>202</v>
-      </c>
-      <c r="G34" s="168"/>
-      <c r="H34" s="88" t="s">
+      <c r="D34" s="181"/>
+      <c r="E34" s="182"/>
+      <c r="F34" s="151" t="s">
+        <v>238</v>
+      </c>
+      <c r="G34" s="152"/>
+      <c r="H34" s="82" t="s">
         <v>210</v>
       </c>
       <c r="I34" s="81" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="J34" s="81" t="s">
-        <v>233</v>
-      </c>
-      <c r="K34" s="182" t="e">
+        <v>213</v>
+      </c>
+      <c r="K34" s="153" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L34" s="183"/>
-      <c r="M34" s="176" t="e">
+      <c r="L34" s="120"/>
+      <c r="M34" s="154" t="e">
         <f>記入!H47</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N34" s="176"/>
+      <c r="N34" s="154"/>
       <c r="O34" s="4"/>
     </row>
     <row r="35" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B35" s="145"/>
+      <c r="B35" s="170"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="163"/>
-      <c r="E35" s="164"/>
-      <c r="F35" s="167" t="s">
-        <v>203</v>
-      </c>
-      <c r="G35" s="168"/>
-      <c r="H35" s="88" t="s">
-        <v>211</v>
+      <c r="D35" s="181"/>
+      <c r="E35" s="182"/>
+      <c r="F35" s="151" t="s">
+        <v>240</v>
+      </c>
+      <c r="G35" s="152"/>
+      <c r="H35" s="82" t="s">
+        <v>215</v>
       </c>
       <c r="I35" s="81" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J35" s="81" t="s">
-        <v>234</v>
-      </c>
-      <c r="K35" s="182" t="e">
+        <v>218</v>
+      </c>
+      <c r="K35" s="153" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L35" s="183"/>
-      <c r="M35" s="176" t="e">
+      <c r="L35" s="120"/>
+      <c r="M35" s="154" t="e">
         <f>記入!H48</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N35" s="176"/>
+      <c r="N35" s="154"/>
       <c r="O35" s="4"/>
     </row>
     <row r="36" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B36" s="145"/>
+      <c r="B36" s="170"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="163"/>
-      <c r="E36" s="164"/>
-      <c r="F36" s="167" t="s">
-        <v>204</v>
-      </c>
-      <c r="G36" s="168"/>
-      <c r="H36" s="88" t="s">
-        <v>212</v>
+      <c r="D36" s="181"/>
+      <c r="E36" s="182"/>
+      <c r="F36" s="151" t="s">
+        <v>241</v>
+      </c>
+      <c r="G36" s="152"/>
+      <c r="H36" s="82" t="s">
+        <v>220</v>
       </c>
       <c r="I36" s="81" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J36" s="81" t="s">
-        <v>235</v>
-      </c>
-      <c r="K36" s="182" t="e">
+        <v>223</v>
+      </c>
+      <c r="K36" s="153" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L36" s="183"/>
-      <c r="M36" s="176" t="e">
+      <c r="L36" s="120"/>
+      <c r="M36" s="154" t="e">
         <f>記入!H49</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N36" s="176"/>
+      <c r="N36" s="154"/>
       <c r="O36" s="4"/>
     </row>
     <row r="37" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B37" s="145"/>
+      <c r="B37" s="170"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="163"/>
-      <c r="E37" s="164"/>
-      <c r="F37" s="167" t="s">
-        <v>205</v>
-      </c>
-      <c r="G37" s="168"/>
-      <c r="H37" s="88" t="s">
-        <v>213</v>
+      <c r="D37" s="181"/>
+      <c r="E37" s="182"/>
+      <c r="F37" s="151" t="s">
+        <v>242</v>
+      </c>
+      <c r="G37" s="152"/>
+      <c r="H37" s="82" t="s">
+        <v>225</v>
       </c>
       <c r="I37" s="81" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="J37" s="81" t="s">
-        <v>236</v>
-      </c>
-      <c r="K37" s="182" t="e">
+        <v>228</v>
+      </c>
+      <c r="K37" s="153" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L37" s="183"/>
-      <c r="M37" s="176" t="e">
+      <c r="L37" s="120"/>
+      <c r="M37" s="154" t="e">
         <f>記入!H50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N37" s="176"/>
+      <c r="N37" s="154"/>
       <c r="O37" s="4"/>
     </row>
     <row r="38" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B38" s="145"/>
+      <c r="B38" s="170"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="165"/>
-      <c r="E38" s="166"/>
-      <c r="F38" s="159" t="s">
+      <c r="D38" s="142"/>
+      <c r="E38" s="143"/>
+      <c r="F38" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="G38" s="159"/>
-      <c r="H38" s="159"/>
+      <c r="G38" s="155"/>
+      <c r="H38" s="155"/>
       <c r="I38" s="22">
         <f>記入!C51</f>
         <v>0</v>
@@ -5027,20 +5033,20 @@
         <f>記入!E51</f>
         <v>0</v>
       </c>
-      <c r="K38" s="159">
+      <c r="K38" s="155">
         <f>記入!G55</f>
         <v>0</v>
       </c>
-      <c r="L38" s="159"/>
-      <c r="M38" s="159" t="e">
+      <c r="L38" s="155"/>
+      <c r="M38" s="155" t="e">
         <f>記入!H51</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N38" s="159"/>
+      <c r="N38" s="155"/>
       <c r="O38" s="4"/>
     </row>
     <row r="39" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B39" s="145"/>
+      <c r="B39" s="170"/>
       <c r="C39" s="9"/>
       <c r="D39" s="70"/>
       <c r="E39" s="70"/>
@@ -5049,19 +5055,19 @@
       <c r="H39" s="71"/>
       <c r="I39" s="70"/>
       <c r="J39" s="70"/>
-      <c r="K39" s="177" t="s">
+      <c r="K39" s="157" t="s">
         <v>118</v>
       </c>
-      <c r="L39" s="177"/>
-      <c r="M39" s="178" t="e">
+      <c r="L39" s="157"/>
+      <c r="M39" s="158" t="e">
         <f>記入!E39</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N39" s="178"/>
+      <c r="N39" s="158"/>
       <c r="O39" s="4"/>
     </row>
     <row r="40" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B40" s="145"/>
+      <c r="B40" s="170"/>
       <c r="C40" s="9"/>
       <c r="D40" s="72"/>
       <c r="E40" s="72"/>
@@ -5070,156 +5076,156 @@
       <c r="H40" s="73"/>
       <c r="I40" s="72"/>
       <c r="J40" s="72"/>
-      <c r="K40" s="177" t="s">
+      <c r="K40" s="157" t="s">
         <v>117</v>
       </c>
-      <c r="L40" s="177"/>
-      <c r="M40" s="178" t="str">
+      <c r="L40" s="157"/>
+      <c r="M40" s="158" t="str">
         <f>記入!H39</f>
         <v>${aw.rate}</v>
       </c>
-      <c r="N40" s="178"/>
+      <c r="N40" s="158"/>
       <c r="O40" s="4"/>
     </row>
     <row r="41" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B41" s="145"/>
+      <c r="B41" s="170"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="160" t="s">
+      <c r="D41" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="E41" s="160"/>
-      <c r="F41" s="179" t="s">
+      <c r="E41" s="156"/>
+      <c r="F41" s="147" t="s">
         <v>81</v>
       </c>
-      <c r="G41" s="180"/>
-      <c r="H41" s="181" t="s">
+      <c r="G41" s="148"/>
+      <c r="H41" s="159" t="s">
         <v>119</v>
       </c>
-      <c r="I41" s="180"/>
-      <c r="J41" s="160" t="str">
+      <c r="I41" s="148"/>
+      <c r="J41" s="156" t="str">
         <f>"請求金額"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>請求金額(${aw.currencyposition})</v>
       </c>
-      <c r="K41" s="160"/>
-      <c r="L41" s="160"/>
-      <c r="M41" s="160"/>
-      <c r="N41" s="160"/>
+      <c r="K41" s="156"/>
+      <c r="L41" s="156"/>
+      <c r="M41" s="156"/>
+      <c r="N41" s="156"/>
       <c r="O41" s="4"/>
     </row>
     <row r="42" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B42" s="145"/>
+      <c r="B42" s="170"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="159" t="str">
+      <c r="D42" s="155" t="str">
         <f>IF(F42="","","第一回")</f>
         <v>第一回</v>
       </c>
-      <c r="E42" s="159"/>
-      <c r="F42" s="174" t="str">
+      <c r="E42" s="155"/>
+      <c r="F42" s="165" t="str">
         <f>IF(記入!B29="","",記入!B29)</f>
         <v>${num[0].deliverydate}</v>
       </c>
-      <c r="G42" s="175"/>
-      <c r="H42" s="174" t="str">
+      <c r="G42" s="166"/>
+      <c r="H42" s="165" t="str">
         <f>IF(記入!D29="","",記入!D29)</f>
         <v>${num[0].claimdate}</v>
       </c>
-      <c r="I42" s="175"/>
-      <c r="J42" s="176" t="str">
+      <c r="I42" s="166"/>
+      <c r="J42" s="154" t="str">
         <f>IF(記入!F29="","",記入!F29)</f>
         <v>${num[0].claimamount}</v>
       </c>
-      <c r="K42" s="176"/>
-      <c r="L42" s="176"/>
-      <c r="M42" s="176"/>
-      <c r="N42" s="176"/>
+      <c r="K42" s="154"/>
+      <c r="L42" s="154"/>
+      <c r="M42" s="154"/>
+      <c r="N42" s="154"/>
       <c r="O42" s="4"/>
     </row>
     <row r="43" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B43" s="145"/>
+      <c r="B43" s="170"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="159" t="str">
+      <c r="D43" s="155" t="str">
         <f>IF(F43="","","第二回")</f>
         <v>第二回</v>
       </c>
-      <c r="E43" s="159"/>
-      <c r="F43" s="174" t="str">
+      <c r="E43" s="155"/>
+      <c r="F43" s="165" t="str">
         <f>IF(記入!B30="","",記入!B30)</f>
         <v>${num[1].deliverydate}</v>
       </c>
-      <c r="G43" s="175"/>
-      <c r="H43" s="174" t="str">
+      <c r="G43" s="166"/>
+      <c r="H43" s="165" t="str">
         <f>IF(記入!D30="","",記入!D30)</f>
         <v>${num[1].claimdate}</v>
       </c>
-      <c r="I43" s="175"/>
-      <c r="J43" s="176" t="str">
+      <c r="I43" s="166"/>
+      <c r="J43" s="154" t="str">
         <f>IF(記入!F30="","",記入!F30)</f>
         <v>${num[1].claimamount}</v>
       </c>
-      <c r="K43" s="176"/>
-      <c r="L43" s="176"/>
-      <c r="M43" s="176"/>
-      <c r="N43" s="176"/>
+      <c r="K43" s="154"/>
+      <c r="L43" s="154"/>
+      <c r="M43" s="154"/>
+      <c r="N43" s="154"/>
       <c r="O43" s="4"/>
     </row>
     <row r="44" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B44" s="145"/>
+      <c r="B44" s="170"/>
       <c r="C44" s="9"/>
-      <c r="D44" s="159" t="str">
+      <c r="D44" s="155" t="str">
         <f>IF(F44="","","第三回")</f>
         <v>第三回</v>
       </c>
-      <c r="E44" s="159"/>
-      <c r="F44" s="174" t="str">
+      <c r="E44" s="155"/>
+      <c r="F44" s="165" t="str">
         <f>IF(記入!B31="","",記入!B31)</f>
         <v>${num[2].deliverydate}</v>
       </c>
-      <c r="G44" s="175"/>
-      <c r="H44" s="174" t="str">
+      <c r="G44" s="166"/>
+      <c r="H44" s="165" t="str">
         <f>IF(記入!D31="","",記入!D31)</f>
         <v>${num[2].claimdate}</v>
       </c>
-      <c r="I44" s="175"/>
-      <c r="J44" s="176" t="str">
+      <c r="I44" s="166"/>
+      <c r="J44" s="154" t="str">
         <f>IF(記入!F31="","",記入!F31)</f>
         <v>${num[2].claimamount}</v>
       </c>
-      <c r="K44" s="176"/>
-      <c r="L44" s="176"/>
-      <c r="M44" s="176"/>
-      <c r="N44" s="176"/>
+      <c r="K44" s="154"/>
+      <c r="L44" s="154"/>
+      <c r="M44" s="154"/>
+      <c r="N44" s="154"/>
       <c r="O44" s="4"/>
     </row>
     <row r="45" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B45" s="145"/>
+      <c r="B45" s="170"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="159" t="str">
+      <c r="D45" s="155" t="str">
         <f>IF(F45="","","第四回")</f>
         <v>第四回</v>
       </c>
-      <c r="E45" s="159"/>
-      <c r="F45" s="174" t="str">
+      <c r="E45" s="155"/>
+      <c r="F45" s="165" t="str">
         <f>IF(記入!B32="","",記入!B32)</f>
         <v>${num[3].deliverydate}</v>
       </c>
-      <c r="G45" s="175"/>
-      <c r="H45" s="174" t="str">
+      <c r="G45" s="166"/>
+      <c r="H45" s="165" t="str">
         <f>IF(記入!D32="","",記入!D32)</f>
         <v>${num[3].claimdate}</v>
       </c>
-      <c r="I45" s="175"/>
-      <c r="J45" s="176" t="str">
+      <c r="I45" s="166"/>
+      <c r="J45" s="154" t="str">
         <f>IF(記入!F32="","",記入!F32)</f>
         <v>${num[3].claimamount}</v>
       </c>
-      <c r="K45" s="176"/>
-      <c r="L45" s="176"/>
-      <c r="M45" s="176"/>
-      <c r="N45" s="176"/>
+      <c r="K45" s="154"/>
+      <c r="L45" s="154"/>
+      <c r="M45" s="154"/>
+      <c r="N45" s="154"/>
       <c r="O45" s="4"/>
     </row>
     <row r="46" spans="2:15" ht="21.75" customHeight="1">
-      <c r="B46" s="145"/>
+      <c r="B46" s="170"/>
       <c r="C46" s="9"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
@@ -5227,17 +5233,17 @@
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
-      <c r="J46" s="171" t="s">
-        <v>183</v>
-      </c>
-      <c r="K46" s="172"/>
-      <c r="L46" s="172"/>
-      <c r="M46" s="172"/>
-      <c r="N46" s="173"/>
+      <c r="J46" s="162" t="s">
+        <v>179</v>
+      </c>
+      <c r="K46" s="163"/>
+      <c r="L46" s="163"/>
+      <c r="M46" s="163"/>
+      <c r="N46" s="164"/>
       <c r="O46" s="4"/>
     </row>
     <row r="47" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="145"/>
+      <c r="B47" s="170"/>
       <c r="C47" s="9"/>
       <c r="D47" s="13" t="s">
         <v>36</v>
@@ -5255,13 +5261,13 @@
       <c r="O47" s="4"/>
     </row>
     <row r="48" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B48" s="145"/>
+      <c r="B48" s="170"/>
       <c r="C48" s="9"/>
       <c r="D48" s="13"/>
-      <c r="E48" s="137" t="s">
+      <c r="E48" s="167" t="s">
         <v>51</v>
       </c>
-      <c r="F48" s="137"/>
+      <c r="F48" s="167"/>
       <c r="G48" s="26" t="str">
         <f>記入!B40</f>
         <v>${aw.valuation}</v>
@@ -5276,13 +5282,13 @@
       <c r="O48" s="4"/>
     </row>
     <row r="49" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="145"/>
+      <c r="B49" s="170"/>
       <c r="C49" s="9"/>
       <c r="D49" s="13"/>
-      <c r="E49" s="137" t="s">
+      <c r="E49" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="F49" s="137"/>
+      <c r="F49" s="167"/>
       <c r="G49" s="26" t="str">
         <f>記入!B41</f>
         <v>${aw.individual}</v>
@@ -5297,7 +5303,7 @@
       <c r="O49" s="4"/>
     </row>
     <row r="50" spans="2:15" ht="9.75" customHeight="1">
-      <c r="B50" s="145"/>
+      <c r="B50" s="170"/>
       <c r="C50" s="9"/>
       <c r="D50" s="13"/>
       <c r="E50" s="24"/>
@@ -5313,211 +5319,211 @@
       <c r="O50" s="4"/>
     </row>
     <row r="51" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="145"/>
+      <c r="B51" s="170"/>
       <c r="C51" s="9"/>
       <c r="D51" s="13" t="s">
         <v>95</v>
       </c>
       <c r="E51" s="24"/>
-      <c r="F51" s="169" t="str">
+      <c r="F51" s="160" t="str">
         <f>記入!E35</f>
         <v>${aw.remarks}</v>
       </c>
-      <c r="G51" s="169"/>
-      <c r="H51" s="169"/>
-      <c r="I51" s="169"/>
-      <c r="J51" s="169"/>
-      <c r="K51" s="169"/>
-      <c r="L51" s="169"/>
-      <c r="M51" s="169"/>
-      <c r="N51" s="169"/>
+      <c r="G51" s="160"/>
+      <c r="H51" s="160"/>
+      <c r="I51" s="160"/>
+      <c r="J51" s="160"/>
+      <c r="K51" s="160"/>
+      <c r="L51" s="160"/>
+      <c r="M51" s="160"/>
+      <c r="N51" s="160"/>
       <c r="O51" s="4"/>
     </row>
     <row r="52" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B52" s="145"/>
+      <c r="B52" s="170"/>
       <c r="C52" s="9"/>
       <c r="D52" s="13"/>
       <c r="E52" s="25"/>
-      <c r="F52" s="170"/>
-      <c r="G52" s="170"/>
-      <c r="H52" s="170"/>
-      <c r="I52" s="170"/>
-      <c r="J52" s="170"/>
-      <c r="K52" s="170"/>
-      <c r="L52" s="170"/>
-      <c r="M52" s="170"/>
-      <c r="N52" s="170"/>
+      <c r="F52" s="161"/>
+      <c r="G52" s="161"/>
+      <c r="H52" s="161"/>
+      <c r="I52" s="161"/>
+      <c r="J52" s="161"/>
+      <c r="K52" s="161"/>
+      <c r="L52" s="161"/>
+      <c r="M52" s="161"/>
+      <c r="N52" s="161"/>
       <c r="O52" s="4"/>
     </row>
     <row r="53" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B53" s="145"/>
-      <c r="C53" s="157" t="s">
+      <c r="B53" s="170"/>
+      <c r="C53" s="169" t="s">
         <v>39</v>
       </c>
-      <c r="D53" s="157"/>
-      <c r="E53" s="157"/>
-      <c r="F53" s="157" t="s">
+      <c r="D53" s="169"/>
+      <c r="E53" s="169"/>
+      <c r="F53" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="G53" s="157"/>
-      <c r="H53" s="157" t="s">
+      <c r="G53" s="169"/>
+      <c r="H53" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="I53" s="157"/>
-      <c r="J53" s="157" t="s">
+      <c r="I53" s="169"/>
+      <c r="J53" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="K53" s="157"/>
-      <c r="L53" s="157"/>
-      <c r="M53" s="157" t="s">
+      <c r="K53" s="169"/>
+      <c r="L53" s="169"/>
+      <c r="M53" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="N53" s="157"/>
-      <c r="O53" s="157"/>
+      <c r="N53" s="169"/>
+      <c r="O53" s="169"/>
     </row>
     <row r="54" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B54" s="145"/>
-      <c r="C54" s="157"/>
-      <c r="D54" s="157"/>
-      <c r="E54" s="157"/>
-      <c r="F54" s="156"/>
-      <c r="G54" s="156"/>
-      <c r="H54" s="156"/>
-      <c r="I54" s="156"/>
-      <c r="J54" s="156"/>
-      <c r="K54" s="156"/>
-      <c r="L54" s="156"/>
-      <c r="M54" s="156"/>
-      <c r="N54" s="156"/>
-      <c r="O54" s="156"/>
+      <c r="B54" s="170"/>
+      <c r="C54" s="169"/>
+      <c r="D54" s="169"/>
+      <c r="E54" s="169"/>
+      <c r="F54" s="168"/>
+      <c r="G54" s="168"/>
+      <c r="H54" s="168"/>
+      <c r="I54" s="168"/>
+      <c r="J54" s="168"/>
+      <c r="K54" s="168"/>
+      <c r="L54" s="168"/>
+      <c r="M54" s="168"/>
+      <c r="N54" s="168"/>
+      <c r="O54" s="168"/>
     </row>
     <row r="55" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="145"/>
-      <c r="C55" s="157"/>
-      <c r="D55" s="157"/>
-      <c r="E55" s="157"/>
-      <c r="F55" s="156"/>
-      <c r="G55" s="156"/>
-      <c r="H55" s="156"/>
-      <c r="I55" s="156"/>
-      <c r="J55" s="156"/>
-      <c r="K55" s="156"/>
-      <c r="L55" s="156"/>
-      <c r="M55" s="156"/>
-      <c r="N55" s="156"/>
-      <c r="O55" s="156"/>
+      <c r="B55" s="170"/>
+      <c r="C55" s="169"/>
+      <c r="D55" s="169"/>
+      <c r="E55" s="169"/>
+      <c r="F55" s="168"/>
+      <c r="G55" s="168"/>
+      <c r="H55" s="168"/>
+      <c r="I55" s="168"/>
+      <c r="J55" s="168"/>
+      <c r="K55" s="168"/>
+      <c r="L55" s="168"/>
+      <c r="M55" s="168"/>
+      <c r="N55" s="168"/>
+      <c r="O55" s="168"/>
     </row>
     <row r="56" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B56" s="145"/>
-      <c r="C56" s="157"/>
-      <c r="D56" s="157"/>
-      <c r="E56" s="157"/>
-      <c r="F56" s="156"/>
-      <c r="G56" s="156"/>
-      <c r="H56" s="156"/>
-      <c r="I56" s="156"/>
-      <c r="J56" s="156"/>
-      <c r="K56" s="156"/>
-      <c r="L56" s="156"/>
-      <c r="M56" s="156"/>
-      <c r="N56" s="156"/>
-      <c r="O56" s="156"/>
+      <c r="B56" s="170"/>
+      <c r="C56" s="169"/>
+      <c r="D56" s="169"/>
+      <c r="E56" s="169"/>
+      <c r="F56" s="168"/>
+      <c r="G56" s="168"/>
+      <c r="H56" s="168"/>
+      <c r="I56" s="168"/>
+      <c r="J56" s="168"/>
+      <c r="K56" s="168"/>
+      <c r="L56" s="168"/>
+      <c r="M56" s="168"/>
+      <c r="N56" s="168"/>
+      <c r="O56" s="168"/>
     </row>
     <row r="57" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="145"/>
-      <c r="C57" s="157"/>
-      <c r="D57" s="157"/>
-      <c r="E57" s="157"/>
-      <c r="F57" s="156"/>
-      <c r="G57" s="156"/>
-      <c r="H57" s="156"/>
-      <c r="I57" s="156"/>
-      <c r="J57" s="156"/>
-      <c r="K57" s="156"/>
-      <c r="L57" s="156"/>
-      <c r="M57" s="156"/>
-      <c r="N57" s="156"/>
-      <c r="O57" s="156"/>
+      <c r="B57" s="170"/>
+      <c r="C57" s="169"/>
+      <c r="D57" s="169"/>
+      <c r="E57" s="169"/>
+      <c r="F57" s="168"/>
+      <c r="G57" s="168"/>
+      <c r="H57" s="168"/>
+      <c r="I57" s="168"/>
+      <c r="J57" s="168"/>
+      <c r="K57" s="168"/>
+      <c r="L57" s="168"/>
+      <c r="M57" s="168"/>
+      <c r="N57" s="168"/>
+      <c r="O57" s="168"/>
     </row>
     <row r="58" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B58" s="145"/>
-      <c r="C58" s="157"/>
-      <c r="D58" s="157"/>
-      <c r="E58" s="157"/>
-      <c r="F58" s="156"/>
-      <c r="G58" s="156"/>
-      <c r="H58" s="156"/>
-      <c r="I58" s="156"/>
-      <c r="J58" s="156"/>
-      <c r="K58" s="156"/>
-      <c r="L58" s="156"/>
-      <c r="M58" s="156"/>
-      <c r="N58" s="156"/>
-      <c r="O58" s="156"/>
+      <c r="B58" s="170"/>
+      <c r="C58" s="169"/>
+      <c r="D58" s="169"/>
+      <c r="E58" s="169"/>
+      <c r="F58" s="168"/>
+      <c r="G58" s="168"/>
+      <c r="H58" s="168"/>
+      <c r="I58" s="168"/>
+      <c r="J58" s="168"/>
+      <c r="K58" s="168"/>
+      <c r="L58" s="168"/>
+      <c r="M58" s="168"/>
+      <c r="N58" s="168"/>
+      <c r="O58" s="168"/>
     </row>
     <row r="59" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B59" s="145"/>
-      <c r="C59" s="157"/>
-      <c r="D59" s="157"/>
-      <c r="E59" s="157"/>
-      <c r="F59" s="156"/>
-      <c r="G59" s="156"/>
-      <c r="H59" s="156"/>
-      <c r="I59" s="156"/>
-      <c r="J59" s="156"/>
-      <c r="K59" s="156"/>
-      <c r="L59" s="156"/>
-      <c r="M59" s="156"/>
-      <c r="N59" s="156"/>
-      <c r="O59" s="156"/>
+      <c r="B59" s="170"/>
+      <c r="C59" s="169"/>
+      <c r="D59" s="169"/>
+      <c r="E59" s="169"/>
+      <c r="F59" s="168"/>
+      <c r="G59" s="168"/>
+      <c r="H59" s="168"/>
+      <c r="I59" s="168"/>
+      <c r="J59" s="168"/>
+      <c r="K59" s="168"/>
+      <c r="L59" s="168"/>
+      <c r="M59" s="168"/>
+      <c r="N59" s="168"/>
+      <c r="O59" s="168"/>
     </row>
     <row r="60" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B60" s="145"/>
-      <c r="C60" s="157"/>
-      <c r="D60" s="157"/>
-      <c r="E60" s="157"/>
-      <c r="F60" s="156"/>
-      <c r="G60" s="156"/>
-      <c r="H60" s="156"/>
-      <c r="I60" s="156"/>
-      <c r="J60" s="156"/>
-      <c r="K60" s="156"/>
-      <c r="L60" s="156"/>
-      <c r="M60" s="156"/>
-      <c r="N60" s="156"/>
-      <c r="O60" s="156"/>
+      <c r="B60" s="170"/>
+      <c r="C60" s="169"/>
+      <c r="D60" s="169"/>
+      <c r="E60" s="169"/>
+      <c r="F60" s="168"/>
+      <c r="G60" s="168"/>
+      <c r="H60" s="168"/>
+      <c r="I60" s="168"/>
+      <c r="J60" s="168"/>
+      <c r="K60" s="168"/>
+      <c r="L60" s="168"/>
+      <c r="M60" s="168"/>
+      <c r="N60" s="168"/>
+      <c r="O60" s="168"/>
     </row>
     <row r="61" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B61" s="145"/>
-      <c r="C61" s="157"/>
-      <c r="D61" s="157"/>
-      <c r="E61" s="157"/>
-      <c r="F61" s="156"/>
-      <c r="G61" s="156"/>
-      <c r="H61" s="156"/>
-      <c r="I61" s="156"/>
-      <c r="J61" s="156"/>
-      <c r="K61" s="156"/>
-      <c r="L61" s="156"/>
-      <c r="M61" s="156"/>
-      <c r="N61" s="156"/>
-      <c r="O61" s="156"/>
+      <c r="B61" s="170"/>
+      <c r="C61" s="169"/>
+      <c r="D61" s="169"/>
+      <c r="E61" s="169"/>
+      <c r="F61" s="168"/>
+      <c r="G61" s="168"/>
+      <c r="H61" s="168"/>
+      <c r="I61" s="168"/>
+      <c r="J61" s="168"/>
+      <c r="K61" s="168"/>
+      <c r="L61" s="168"/>
+      <c r="M61" s="168"/>
+      <c r="N61" s="168"/>
+      <c r="O61" s="168"/>
     </row>
     <row r="62" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B62" s="145"/>
-      <c r="C62" s="157"/>
-      <c r="D62" s="157"/>
-      <c r="E62" s="157"/>
-      <c r="F62" s="156"/>
-      <c r="G62" s="156"/>
-      <c r="H62" s="156"/>
-      <c r="I62" s="156"/>
-      <c r="J62" s="156"/>
-      <c r="K62" s="156"/>
-      <c r="L62" s="156"/>
-      <c r="M62" s="156"/>
-      <c r="N62" s="156"/>
-      <c r="O62" s="156"/>
+      <c r="B62" s="170"/>
+      <c r="C62" s="169"/>
+      <c r="D62" s="169"/>
+      <c r="E62" s="169"/>
+      <c r="F62" s="168"/>
+      <c r="G62" s="168"/>
+      <c r="H62" s="168"/>
+      <c r="I62" s="168"/>
+      <c r="J62" s="168"/>
+      <c r="K62" s="168"/>
+      <c r="L62" s="168"/>
+      <c r="M62" s="168"/>
+      <c r="N62" s="168"/>
+      <c r="O62" s="168"/>
     </row>
     <row r="63" spans="2:15" ht="14.25">
       <c r="C63" s="16" t="s">
@@ -5525,88 +5531,22 @@
       </c>
     </row>
   </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="I31:I37" name="範囲3_3"/>
+    <protectedRange sqref="J31:J37" name="範囲3_2"/>
+  </protectedRanges>
   <mergeCells count="116">
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="F21:N22"/>
-    <mergeCell ref="F23:N24"/>
-    <mergeCell ref="F25:N26"/>
-    <mergeCell ref="F27:H28"/>
-    <mergeCell ref="J27:N28"/>
-    <mergeCell ref="K29:L30"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="J41:N41"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="F51:N52"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="J46:N46"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J44:N44"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="J45:N45"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="J43:N43"/>
-    <mergeCell ref="M60:O62"/>
-    <mergeCell ref="C53:E62"/>
-    <mergeCell ref="J54:L56"/>
-    <mergeCell ref="J57:L59"/>
-    <mergeCell ref="J60:L62"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="M54:O56"/>
-    <mergeCell ref="M57:O59"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="G4:K8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:E8"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="L4:O4"/>
     <mergeCell ref="B14:B62"/>
     <mergeCell ref="C10:G11"/>
     <mergeCell ref="C13:G13"/>
@@ -5631,17 +5571,87 @@
     <mergeCell ref="D29:E38"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="F34:G34"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="G4:K8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:E8"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="M60:O62"/>
+    <mergeCell ref="C53:E62"/>
+    <mergeCell ref="J54:L56"/>
+    <mergeCell ref="J57:L59"/>
+    <mergeCell ref="J60:L62"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="M54:O56"/>
+    <mergeCell ref="M57:O59"/>
+    <mergeCell ref="F51:N52"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="J46:N46"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J44:N44"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="J45:N45"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="J43:N43"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="J41:N41"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="K29:L30"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="F21:N22"/>
+    <mergeCell ref="F23:N24"/>
+    <mergeCell ref="F25:N26"/>
+    <mergeCell ref="F27:H28"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="J27:N28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/controller/src/main/resources/jxls_templates/juecaishu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/juecaishu_shoutuo.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" tabRatio="570"/>
+    <workbookView windowWidth="18600" windowHeight="6870" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
     <sheet name="決裁願" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">記入!$A$1:$J$82</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">記入!$A$1:$J$84</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">決裁願!$A$1:$P$63</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="232">
   <si>
     <t>■以下の内容は契約管理ツールで自動生成</t>
   </si>
@@ -622,121 +622,139 @@
     <t>投入人数</t>
   </si>
   <si>
+    <t>参事以上</t>
+  </si>
+  <si>
+    <t>${sta[0].budgetcode}</t>
+  </si>
+  <si>
+    <t>${sta[0].depart}</t>
+  </si>
+  <si>
+    <t>主事以下</t>
+  </si>
+  <si>
+    <t>${sta[1].budgetcode}</t>
+  </si>
+  <si>
+    <t>${sta[1].depart}</t>
+  </si>
+  <si>
     <t>R11B</t>
   </si>
   <si>
-    <t>${sta[0].budgetcode}</t>
-  </si>
-  <si>
-    <t>${sta[0].depart}</t>
+    <t>${sta[2].budgetcode}</t>
+  </si>
+  <si>
+    <t>${sta[2].depart}</t>
   </si>
   <si>
     <t>R11A</t>
   </si>
   <si>
-    <t>${sta[1].budgetcode}</t>
-  </si>
-  <si>
-    <t>${sta[1].depart}</t>
+    <t>${sta[3].budgetcode}</t>
+  </si>
+  <si>
+    <t>${sta[3].depart}</t>
   </si>
   <si>
     <t>R10</t>
   </si>
   <si>
-    <t>${sta[2].budgetcode}</t>
-  </si>
-  <si>
-    <t>${sta[2].depart}</t>
+    <t>${sta[4].budgetcode}</t>
+  </si>
+  <si>
+    <t>${sta[4].depart}</t>
   </si>
   <si>
     <t>R9B</t>
   </si>
   <si>
-    <t>${sta[3].budgetcode}</t>
-  </si>
-  <si>
-    <t>${sta[3].depart}</t>
+    <t>${sta[5].budgetcode}</t>
+  </si>
+  <si>
+    <t>${sta[5].depart}</t>
   </si>
   <si>
     <t>R9A</t>
   </si>
   <si>
-    <t>${sta[4].budgetcode}</t>
-  </si>
-  <si>
-    <t>${sta[4].depart}</t>
+    <t>${sta[6].budgetcode}</t>
+  </si>
+  <si>
+    <t>${sta[6].depart}</t>
+  </si>
+  <si>
+    <t>R8A</t>
+  </si>
+  <si>
+    <t>${sta[7].budgetcode}</t>
+  </si>
+  <si>
+    <t>${sta[7].depart}</t>
+  </si>
+  <si>
+    <t>R8B</t>
+  </si>
+  <si>
+    <t>${sta[8].budgetcode}</t>
+  </si>
+  <si>
+    <t>${sta[8].depart}</t>
   </si>
   <si>
     <t>R8C</t>
   </si>
   <si>
-    <t>${sta[5].budgetcode}</t>
-  </si>
-  <si>
-    <t>${sta[5].depart}</t>
-  </si>
-  <si>
-    <t>R8B</t>
-  </si>
-  <si>
-    <t>${sta[6].budgetcode}</t>
-  </si>
-  <si>
-    <t>${sta[6].depart}</t>
-  </si>
-  <si>
-    <t>R8A</t>
-  </si>
-  <si>
-    <t>${sta[7].budgetcode}</t>
-  </si>
-  <si>
-    <t>${sta[7].depart}</t>
+    <t>${sta[9].budgetcode}</t>
+  </si>
+  <si>
+    <t>${sta[9].depart}</t>
   </si>
   <si>
     <t>R7</t>
   </si>
   <si>
-    <t>${sta[8].budgetcode}</t>
-  </si>
-  <si>
-    <t>${sta[8].depart}</t>
+    <t>${sta[10].budgetcode}</t>
+  </si>
+  <si>
+    <t>${sta[10].depart}</t>
   </si>
   <si>
     <t xml:space="preserve">R6 </t>
   </si>
   <si>
-    <t>${sta[9].budgetcode}</t>
-  </si>
-  <si>
-    <t>${sta[9].depart}</t>
+    <t>${sta[11].budgetcode}</t>
+  </si>
+  <si>
+    <t>${sta[11].depart}</t>
   </si>
   <si>
     <t>R5</t>
   </si>
   <si>
-    <t>${sta[10].budgetcode}</t>
-  </si>
-  <si>
-    <t>${sta[10].depart}</t>
+    <t>${sta[12].budgetcode}</t>
+  </si>
+  <si>
+    <t>${sta[12].depart}</t>
   </si>
   <si>
     <t>R4</t>
   </si>
   <si>
-    <t>${sta[11].budgetcode}</t>
-  </si>
-  <si>
-    <t>${sta[11].depart}</t>
+    <t>${sta[13].budgetcode}</t>
+  </si>
+  <si>
+    <t>${sta[13].depart}</t>
   </si>
   <si>
     <t>R3</t>
   </si>
   <si>
-    <t>${sta[12].budgetcode}</t>
-  </si>
-  <si>
-    <t>${sta[12].depart}</t>
+    <t>${sta[14].budgetcode}</t>
+  </si>
+  <si>
+    <t>${sta[14].depart}</t>
   </si>
   <si>
     <t>社員合計人数</t>
@@ -872,17 +890,17 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
-    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="180" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -906,13 +924,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -921,13 +932,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="128"/>
@@ -990,16 +994,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1019,19 +1039,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1042,38 +1053,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1088,17 +1083,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1108,7 +1099,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1123,40 +1143,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1222,7 +1212,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1234,7 +1230,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1246,49 +1320,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1306,43 +1368,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,55 +1392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1647,6 +1637,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1674,30 +1703,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1715,8 +1720,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1724,23 +1729,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1749,160 +1739,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1918,82 +1908,79 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2002,506 +1989,488 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="47" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="47" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="47" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="47" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="47" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="47" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="47" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="47" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="9" xfId="47" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="47" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="40" fontId="12" fillId="2" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="40" fontId="10" fillId="2" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="47" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="47" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="47" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="47" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="47" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="47" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="47" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="47" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="47" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="47" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="47" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="47" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="47" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="47" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="47" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="47" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="47" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="47" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="31" fontId="7" fillId="5" borderId="9" xfId="47" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="31" fontId="5" fillId="5" borderId="9" xfId="47" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="47" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="47" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="47" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="47" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="47" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="47" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="47" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="47" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="47" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="47" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="7" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="14" fillId="6" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="14" fillId="6" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="16" fillId="6" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="6" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="47" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="47" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="47" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="47" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="12" fillId="2" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="10" fillId="2" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="47" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="47" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="7" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="5" fillId="7" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="2" borderId="14" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="14" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2856,7 +2825,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:B1"/>
@@ -2864,1137 +2833,1165 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="27.1272727272727" style="119" customWidth="1"/>
-    <col min="2" max="2" width="44.1272727272727" style="118" customWidth="1"/>
-    <col min="3" max="3" width="14" style="119" customWidth="1"/>
-    <col min="4" max="4" width="56" style="119" customWidth="1"/>
-    <col min="5" max="5" width="18.6272727272727" style="119" customWidth="1"/>
-    <col min="6" max="6" width="35.7545454545455" style="119" customWidth="1"/>
-    <col min="7" max="7" width="9" style="119"/>
-    <col min="8" max="8" width="10.1272727272727" style="119" customWidth="1"/>
-    <col min="9" max="9" width="2.37272727272727" style="119" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="119"/>
+    <col min="1" max="1" width="27.1272727272727" style="112" customWidth="1"/>
+    <col min="2" max="2" width="44.1272727272727" style="111" customWidth="1"/>
+    <col min="3" max="3" width="14" style="112" customWidth="1"/>
+    <col min="4" max="4" width="56" style="112" customWidth="1"/>
+    <col min="5" max="5" width="18.6272727272727" style="112" customWidth="1"/>
+    <col min="6" max="6" width="35.7545454545455" style="112" customWidth="1"/>
+    <col min="7" max="7" width="9" style="112"/>
+    <col min="8" max="8" width="10.1272727272727" style="112" customWidth="1"/>
+    <col min="9" max="9" width="2.37272727272727" style="112" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="112"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="G1" s="121" t="s">
+      <c r="B1" s="113"/>
+      <c r="G1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="122"/>
+      <c r="H1" s="115"/>
     </row>
     <row r="2" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="125" t="s">
+      <c r="C2" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="125"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="127"/>
+      <c r="D2" s="118"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="120"/>
     </row>
     <row r="3" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="129"/>
-      <c r="C3" s="130" t="s">
+      <c r="B3" s="122"/>
+      <c r="C3" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="126"/>
-      <c r="H3" s="127"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="120"/>
     </row>
     <row r="4" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A4" s="123" t="s">
+      <c r="A4" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="125" t="s">
+      <c r="C4" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="126"/>
-      <c r="H4" s="127"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="120"/>
     </row>
     <row r="5" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A5" s="123" t="s">
+      <c r="A5" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="132"/>
-      <c r="C5" s="130" t="s">
+      <c r="B5" s="125"/>
+      <c r="C5" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="126"/>
-      <c r="H5" s="127"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="120"/>
     </row>
     <row r="6" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="134" t="s">
+      <c r="B6" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="126"/>
-      <c r="H6" s="127"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="120"/>
     </row>
     <row r="7" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A7" s="133" t="s">
+      <c r="A7" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="126"/>
-      <c r="H7" s="127"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="120"/>
     </row>
     <row r="8" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="135"/>
-      <c r="C8" s="130" t="s">
+      <c r="B8" s="128"/>
+      <c r="C8" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="126"/>
-      <c r="H8" s="127"/>
-    </row>
-    <row r="9" s="117" customFormat="1" ht="13.5" customHeight="1" spans="1:8">
-      <c r="A9" s="128" t="s">
+      <c r="G8" s="119"/>
+      <c r="H8" s="120"/>
+    </row>
+    <row r="9" s="110" customFormat="1" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A9" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="125" t="s">
+      <c r="C9" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="126"/>
-      <c r="H9" s="127"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="120"/>
     </row>
     <row r="10" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="134" t="s">
+      <c r="B10" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="125" t="s">
+      <c r="C10" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="126"/>
-      <c r="H10" s="127"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="120"/>
     </row>
     <row r="11" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="134" t="s">
+      <c r="B11" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="125" t="s">
+      <c r="C11" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="126"/>
-      <c r="H11" s="127"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="120"/>
     </row>
     <row r="12" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A12" s="123" t="s">
+      <c r="A12" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="134" t="s">
+      <c r="B12" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="125" t="s">
+      <c r="C12" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="126"/>
-      <c r="H12" s="127"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="120"/>
     </row>
     <row r="13" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A13" s="123" t="s">
+      <c r="A13" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="132"/>
-      <c r="C13" s="130" t="s">
+      <c r="B13" s="125"/>
+      <c r="C13" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="126"/>
-      <c r="H13" s="127"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="120"/>
     </row>
     <row r="14" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A14" s="123" t="s">
+      <c r="A14" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="136" t="s">
+      <c r="B14" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="125" t="s">
+      <c r="C14" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="126"/>
-      <c r="H14" s="127"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="120"/>
     </row>
     <row r="15" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A15" s="123" t="s">
+      <c r="A15" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="136" t="s">
+      <c r="B15" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="125" t="s">
+      <c r="C15" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="126"/>
-      <c r="H15" s="127"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="120"/>
     </row>
     <row r="16" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A16" s="123" t="s">
+      <c r="A16" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="135"/>
-      <c r="C16" s="130" t="s">
+      <c r="B16" s="128"/>
+      <c r="C16" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="126"/>
-      <c r="H16" s="127"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="120"/>
     </row>
     <row r="17" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A17" s="123" t="s">
+      <c r="A17" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="135"/>
-      <c r="C17" s="130" t="s">
+      <c r="B17" s="128"/>
+      <c r="C17" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="120"/>
     </row>
     <row r="18" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A18" s="123" t="s">
+      <c r="A18" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="135"/>
-      <c r="C18" s="130" t="s">
+      <c r="B18" s="128"/>
+      <c r="C18" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="126"/>
-      <c r="H18" s="127"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="120"/>
     </row>
     <row r="19" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A19" s="123" t="s">
+      <c r="A19" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="134" t="s">
+      <c r="B19" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="125" t="s">
+      <c r="C19" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="126"/>
-      <c r="H19" s="127"/>
-    </row>
-    <row r="20" s="117" customFormat="1" ht="13.5" customHeight="1" spans="1:8">
-      <c r="A20" s="123" t="s">
+      <c r="G19" s="119"/>
+      <c r="H19" s="120"/>
+    </row>
+    <row r="20" s="110" customFormat="1" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A20" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="137" t="s">
+      <c r="B20" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="125" t="s">
+      <c r="C20" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="126"/>
-      <c r="H20" s="127"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="120"/>
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A21" s="123" t="s">
+      <c r="A21" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="135"/>
-      <c r="C21" s="130" t="s">
+      <c r="B21" s="128"/>
+      <c r="C21" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="126"/>
-      <c r="H21" s="127"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="120"/>
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A22" s="123" t="s">
+      <c r="A22" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="135"/>
-      <c r="C22" s="130" t="s">
+      <c r="B22" s="128"/>
+      <c r="C22" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="126"/>
-      <c r="H22" s="127"/>
-    </row>
-    <row r="23" s="117" customFormat="1" ht="13.5" customHeight="1" spans="1:8">
-      <c r="A23" s="128" t="s">
+      <c r="G22" s="119"/>
+      <c r="H22" s="120"/>
+    </row>
+    <row r="23" s="110" customFormat="1" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A23" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="138"/>
-      <c r="C23" s="130" t="s">
+      <c r="B23" s="131"/>
+      <c r="C23" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="126"/>
-      <c r="H23" s="127"/>
-    </row>
-    <row r="24" s="117" customFormat="1" ht="13.5" customHeight="1" spans="1:8">
-      <c r="A24" s="128" t="s">
+      <c r="G23" s="119"/>
+      <c r="H23" s="120"/>
+    </row>
+    <row r="24" s="110" customFormat="1" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A24" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="129"/>
-      <c r="C24" s="130" t="s">
+      <c r="B24" s="122"/>
+      <c r="C24" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="126"/>
-      <c r="H24" s="127"/>
-    </row>
-    <row r="25" s="117" customFormat="1" ht="13.5" customHeight="1" spans="1:8">
-      <c r="A25" s="128" t="s">
+      <c r="G24" s="119"/>
+      <c r="H24" s="120"/>
+    </row>
+    <row r="25" s="110" customFormat="1" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A25" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="139" t="s">
+      <c r="B25" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="130" t="s">
+      <c r="C25" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="126"/>
-      <c r="H25" s="127"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="120"/>
     </row>
     <row r="26" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A26" s="128" t="s">
+      <c r="A26" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="129" t="s">
+      <c r="B26" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="130" t="s">
+      <c r="C26" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="126"/>
-      <c r="H26" s="127"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="120"/>
     </row>
     <row r="27" ht="3" customHeight="1" spans="1:8">
-      <c r="A27" s="140"/>
-      <c r="B27" s="119"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="127"/>
+      <c r="A27" s="133"/>
+      <c r="B27" s="112"/>
+      <c r="G27" s="119"/>
+      <c r="H27" s="120"/>
     </row>
     <row r="28" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A28" s="141" t="s">
+      <c r="A28" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="141" t="s">
+      <c r="B28" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="142" t="s">
+      <c r="C28" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="142" t="s">
+      <c r="D28" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="142" t="s">
+      <c r="E28" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="142" t="s">
+      <c r="F28" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="126"/>
-      <c r="H28" s="127"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="120"/>
     </row>
     <row r="29" ht="13.5" customHeight="1" spans="1:8">
-      <c r="A29" s="143" t="str">
+      <c r="A29" s="136" t="str">
         <f>IF(B29="","","第一回")</f>
         <v>第一回</v>
       </c>
-      <c r="B29" s="144" t="s">
+      <c r="B29" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="144" t="s">
+      <c r="C29" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="145" t="s">
+      <c r="D29" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="145" t="s">
+      <c r="E29" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="F29" s="146" t="s">
+      <c r="F29" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="126"/>
-      <c r="H29" s="127"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="120"/>
     </row>
     <row r="30" ht="13.5" customHeight="1" spans="1:8">
-      <c r="A30" s="143" t="str">
+      <c r="A30" s="136" t="str">
         <f>IF(B30="","","第二回")</f>
         <v>第二回</v>
       </c>
-      <c r="B30" s="144" t="s">
+      <c r="B30" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="144" t="s">
+      <c r="C30" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="145" t="s">
+      <c r="D30" s="138" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="145" t="s">
+      <c r="E30" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="146" t="s">
+      <c r="F30" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="126"/>
-      <c r="H30" s="127"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="120"/>
     </row>
     <row r="31" ht="13.5" customHeight="1" spans="1:8">
-      <c r="A31" s="143" t="str">
+      <c r="A31" s="136" t="str">
         <f>IF(B31="","","第三回")</f>
         <v>第三回</v>
       </c>
-      <c r="B31" s="144" t="s">
+      <c r="B31" s="137" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="144" t="s">
+      <c r="C31" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="145" t="s">
+      <c r="D31" s="138" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="145" t="s">
+      <c r="E31" s="138" t="s">
         <v>57</v>
       </c>
-      <c r="F31" s="146" t="s">
+      <c r="F31" s="139" t="s">
         <v>58</v>
       </c>
-      <c r="G31" s="126"/>
-      <c r="H31" s="127"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="120"/>
     </row>
     <row r="32" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A32" s="143" t="str">
+      <c r="A32" s="136" t="str">
         <f>IF(B32="","","第四回")</f>
         <v>第四回</v>
       </c>
-      <c r="B32" s="144" t="s">
+      <c r="B32" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="144" t="s">
+      <c r="C32" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="145" t="s">
+      <c r="D32" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="145" t="s">
+      <c r="E32" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="146" t="s">
+      <c r="F32" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="G32" s="147"/>
-      <c r="H32" s="148"/>
+      <c r="G32" s="140"/>
+      <c r="H32" s="141"/>
     </row>
     <row r="33" ht="6.75" customHeight="1" spans="1:1">
-      <c r="A33" s="149"/>
+      <c r="A33" s="142"/>
     </row>
     <row r="34" ht="13" spans="1:1">
-      <c r="A34" s="150" t="s">
+      <c r="A34" s="143" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="151" t="s">
+      <c r="A35" s="144" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="134" t="s">
+      <c r="B35" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="152" t="s">
+      <c r="C35" s="145" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="153"/>
-      <c r="E35" s="154" t="s">
+      <c r="D35" s="146"/>
+      <c r="E35" s="147" t="s">
         <v>68</v>
       </c>
-      <c r="F35" s="155"/>
-      <c r="G35" s="155"/>
-      <c r="H35" s="155"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="151" t="s">
+      <c r="A36" s="144" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="134" t="s">
+      <c r="B36" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="156"/>
-      <c r="D36" s="157"/>
-      <c r="E36" s="158"/>
-      <c r="F36" s="159"/>
-      <c r="G36" s="159"/>
-      <c r="H36" s="159"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="151"/>
+      <c r="F36" s="152"/>
+      <c r="G36" s="152"/>
+      <c r="H36" s="152"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="151" t="s">
+      <c r="A37" s="144" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="160" t="s">
+      <c r="B37" s="153" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="161"/>
-      <c r="D37" s="162"/>
-      <c r="E37" s="163"/>
-      <c r="F37" s="164"/>
-      <c r="G37" s="164"/>
-      <c r="H37" s="164"/>
+      <c r="C37" s="154"/>
+      <c r="D37" s="155"/>
+      <c r="E37" s="156"/>
+      <c r="F37" s="157"/>
+      <c r="G37" s="157"/>
+      <c r="H37" s="157"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="165" t="s">
+      <c r="A38" s="158" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="160" t="s">
+      <c r="B38" s="153" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="125"/>
-      <c r="F38" s="166" t="s">
+      <c r="C38" s="118"/>
+      <c r="F38" s="159" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" s="118" customFormat="1" spans="1:8">
-      <c r="A39" s="165" t="s">
+    <row r="39" s="111" customFormat="1" spans="1:8">
+      <c r="A39" s="158" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="134" t="s">
+      <c r="B39" s="127" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="167" t="s">
+      <c r="C39" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="168"/>
-      <c r="E39" s="169" t="e">
-        <f>(F53-E70-E72)/F53</f>
+      <c r="D39" s="161"/>
+      <c r="E39" s="162" t="e">
+        <f>(F53-E72-E74)/F53</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F39" s="167" t="s">
+      <c r="F39" s="160" t="s">
         <v>79</v>
       </c>
-      <c r="G39" s="167"/>
-      <c r="H39" s="170" t="s">
+      <c r="G39" s="160"/>
+      <c r="H39" s="163" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="40" s="118" customFormat="1" spans="1:4">
-      <c r="A40" s="165" t="s">
+    <row r="40" s="111" customFormat="1" spans="1:4">
+      <c r="A40" s="158" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="134" t="s">
+      <c r="B40" s="127" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="119"/>
-      <c r="D40" s="119"/>
-    </row>
-    <row r="41" s="118" customFormat="1" spans="1:4">
-      <c r="A41" s="165" t="s">
+      <c r="C40" s="112"/>
+      <c r="D40" s="112"/>
+    </row>
+    <row r="41" s="111" customFormat="1" spans="1:4">
+      <c r="A41" s="158" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="134" t="s">
+      <c r="B41" s="127" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="119"/>
-      <c r="D41" s="119"/>
-    </row>
-    <row r="42" s="118" customFormat="1" ht="15" spans="1:8">
-      <c r="A42" s="171" t="s">
+      <c r="C41" s="112"/>
+      <c r="D41" s="112"/>
+    </row>
+    <row r="42" s="111" customFormat="1" ht="15" spans="1:8">
+      <c r="A42" s="164" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="171" t="s">
+      <c r="B42" s="164" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="172" t="s">
+      <c r="C42" s="165" t="s">
         <v>87</v>
       </c>
-      <c r="D42" s="173"/>
-      <c r="E42" s="173"/>
-      <c r="F42" s="174"/>
-      <c r="G42" s="175" t="s">
+      <c r="D42" s="166"/>
+      <c r="E42" s="166"/>
+      <c r="F42" s="167"/>
+      <c r="G42" s="168" t="s">
         <v>88</v>
       </c>
-      <c r="H42" s="171" t="s">
+      <c r="H42" s="164" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:8">
-      <c r="A43" s="171"/>
-      <c r="B43" s="171"/>
-      <c r="C43" s="171" t="s">
+      <c r="A43" s="164"/>
+      <c r="B43" s="164"/>
+      <c r="C43" s="164" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="171" t="s">
+      <c r="D43" s="164" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="171" t="s">
+      <c r="E43" s="164" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="171" t="s">
+      <c r="F43" s="164" t="s">
         <v>93</v>
       </c>
-      <c r="G43" s="171"/>
-      <c r="H43" s="171"/>
+      <c r="G43" s="164"/>
+      <c r="H43" s="164"/>
     </row>
     <row r="44" ht="15" spans="1:8">
-      <c r="A44" s="37" t="s">
+      <c r="A44" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="108" t="s">
+      <c r="C44" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="D44" s="108" t="s">
+      <c r="D44" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="E44" s="108" t="s">
+      <c r="E44" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="F44" s="108" t="s">
+      <c r="F44" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="G44" s="176" t="e">
+      <c r="G44" s="169" t="e">
         <f t="shared" ref="G44:G50" si="0">C44+E44</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H44" s="177" t="e">
+      <c r="H44" s="170" t="e">
         <f t="shared" ref="H44:H50" si="1">C44*D44+E44*F44</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:8">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="108" t="s">
+      <c r="C45" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="108" t="s">
+      <c r="D45" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="108" t="s">
+      <c r="E45" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="F45" s="108" t="s">
+      <c r="F45" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="G45" s="176" t="e">
+      <c r="G45" s="169" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H45" s="177" t="e">
+      <c r="H45" s="170" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:8">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="B46" s="51" t="s">
+      <c r="B46" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="C46" s="108" t="s">
+      <c r="C46" s="102" t="s">
         <v>108</v>
       </c>
-      <c r="D46" s="108" t="s">
+      <c r="D46" s="102" t="s">
         <v>109</v>
       </c>
-      <c r="E46" s="108" t="s">
+      <c r="E46" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="F46" s="108" t="s">
+      <c r="F46" s="102" t="s">
         <v>111</v>
       </c>
-      <c r="G46" s="176" t="e">
+      <c r="G46" s="169" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H46" s="177" t="e">
+      <c r="H46" s="170" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="47" ht="15" spans="1:8">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="C47" s="108" t="s">
+      <c r="C47" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="D47" s="108" t="s">
+      <c r="D47" s="102" t="s">
         <v>115</v>
       </c>
-      <c r="E47" s="108" t="s">
+      <c r="E47" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="F47" s="108" t="s">
+      <c r="F47" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="G47" s="176" t="e">
+      <c r="G47" s="169" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H47" s="177" t="e">
+      <c r="H47" s="170" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="48" ht="15" spans="1:8">
-      <c r="A48" s="37" t="s">
+      <c r="A48" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="C48" s="108" t="s">
+      <c r="C48" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="D48" s="108" t="s">
+      <c r="D48" s="102" t="s">
         <v>121</v>
       </c>
-      <c r="E48" s="108" t="s">
+      <c r="E48" s="102" t="s">
         <v>122</v>
       </c>
-      <c r="F48" s="108" t="s">
+      <c r="F48" s="102" t="s">
         <v>123</v>
       </c>
-      <c r="G48" s="176" t="e">
+      <c r="G48" s="169" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H48" s="177" t="e">
+      <c r="H48" s="170" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="49" ht="15" spans="1:8">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="B49" s="51" t="s">
+      <c r="B49" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="C49" s="108" t="s">
+      <c r="C49" s="102" t="s">
         <v>126</v>
       </c>
-      <c r="D49" s="108" t="s">
+      <c r="D49" s="102" t="s">
         <v>127</v>
       </c>
-      <c r="E49" s="108" t="s">
+      <c r="E49" s="102" t="s">
         <v>128</v>
       </c>
-      <c r="F49" s="108" t="s">
+      <c r="F49" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="G49" s="176" t="e">
+      <c r="G49" s="169" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H49" s="177" t="e">
+      <c r="H49" s="170" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:8">
-      <c r="A50" s="37" t="s">
+      <c r="A50" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="B50" s="51" t="s">
+      <c r="B50" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="C50" s="108" t="s">
+      <c r="C50" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="D50" s="108" t="s">
+      <c r="D50" s="102" t="s">
         <v>133</v>
       </c>
-      <c r="E50" s="108" t="s">
+      <c r="E50" s="102" t="s">
         <v>134</v>
       </c>
-      <c r="F50" s="108" t="s">
+      <c r="F50" s="102" t="s">
         <v>135</v>
       </c>
-      <c r="G50" s="176" t="e">
+      <c r="G50" s="169" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H50" s="177" t="e">
+      <c r="H50" s="170" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:8">
-      <c r="A51" s="178" t="s">
+      <c r="A51" s="171" t="s">
         <v>136</v>
       </c>
-      <c r="B51" s="179"/>
-      <c r="C51" s="180">
+      <c r="B51" s="172"/>
+      <c r="C51" s="173">
         <f>SUM(C44:C50)</f>
         <v>0</v>
       </c>
-      <c r="D51" s="180" t="s">
+      <c r="D51" s="173" t="s">
         <v>137</v>
       </c>
-      <c r="E51" s="180">
+      <c r="E51" s="173">
         <f>SUM(E44:E50)</f>
         <v>0</v>
       </c>
-      <c r="F51" s="180" t="s">
+      <c r="F51" s="173" t="s">
         <v>137</v>
       </c>
-      <c r="G51" s="180" t="e">
+      <c r="G51" s="173" t="e">
         <f>SUM(G44:G50)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H51" s="181" t="e">
+      <c r="H51" s="174" t="e">
         <f>SUM(H44:H50)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="53" spans="3:8">
-      <c r="C53" s="167" t="s">
+      <c r="C53" s="160" t="s">
         <v>138</v>
       </c>
-      <c r="D53" s="182" t="s">
+      <c r="D53" s="175" t="s">
         <v>139</v>
       </c>
-      <c r="E53" s="167" t="s">
+      <c r="E53" s="160" t="s">
         <v>140</v>
       </c>
-      <c r="F53" s="170" t="e">
+      <c r="F53" s="163" t="e">
         <f>IF(B19="US$",H51*D53,H51)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G53" s="183"/>
-      <c r="H53" s="183"/>
+      <c r="G53" s="176"/>
+      <c r="H53" s="176"/>
     </row>
     <row r="54" spans="3:8">
-      <c r="C54" s="183"/>
-      <c r="D54" s="184" t="s">
+      <c r="C54" s="176"/>
+      <c r="D54" s="177" t="s">
         <v>141</v>
       </c>
-      <c r="E54" s="183"/>
-      <c r="F54" s="183"/>
-      <c r="G54" s="183"/>
-      <c r="H54" s="183"/>
+      <c r="E54" s="176"/>
+      <c r="F54" s="176"/>
+      <c r="G54" s="176"/>
+      <c r="H54" s="176"/>
     </row>
     <row r="55" ht="24" spans="3:8">
-      <c r="C55" s="185" t="s">
+      <c r="C55" s="178" t="s">
         <v>142</v>
       </c>
-      <c r="D55" s="186" t="s">
+      <c r="D55" s="179" t="s">
         <v>143</v>
       </c>
-      <c r="E55" s="185" t="s">
+      <c r="E55" s="178" t="s">
         <v>144</v>
       </c>
-      <c r="F55" s="183"/>
-      <c r="G55" s="183"/>
-      <c r="H55" s="183"/>
+      <c r="F55" s="176"/>
+      <c r="G55" s="176"/>
+      <c r="H55" s="176"/>
     </row>
     <row r="56" spans="3:8">
-      <c r="C56" s="185" t="s">
+      <c r="C56" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="D56" s="187" t="s">
+      <c r="D56" s="180" t="s">
         <v>146</v>
       </c>
-      <c r="E56" s="188" t="s">
+      <c r="E56" s="181" t="s">
         <v>147</v>
       </c>
-      <c r="F56" s="183"/>
-      <c r="G56" s="183"/>
-      <c r="H56" s="183"/>
+      <c r="F56" s="176"/>
+      <c r="G56" s="176"/>
+      <c r="H56" s="176"/>
     </row>
     <row r="57" spans="3:8">
-      <c r="C57" s="185" t="s">
+      <c r="C57" s="178" t="s">
         <v>148</v>
       </c>
-      <c r="D57" s="187" t="s">
+      <c r="D57" s="180" t="s">
         <v>149</v>
       </c>
-      <c r="E57" s="188" t="s">
+      <c r="E57" s="181" t="s">
         <v>150</v>
       </c>
-      <c r="F57" s="183"/>
-      <c r="G57" s="183"/>
-      <c r="H57" s="183"/>
+      <c r="F57" s="176"/>
+      <c r="G57" s="176"/>
+      <c r="H57" s="176"/>
     </row>
     <row r="58" spans="3:8">
-      <c r="C58" s="185" t="s">
+      <c r="C58" s="178" t="s">
         <v>151</v>
       </c>
-      <c r="D58" s="187" t="s">
+      <c r="D58" s="180" t="s">
         <v>152</v>
       </c>
-      <c r="E58" s="188" t="s">
+      <c r="E58" s="181" t="s">
         <v>153</v>
       </c>
-      <c r="F58" s="183"/>
-      <c r="G58" s="183"/>
-      <c r="H58" s="183"/>
+      <c r="F58" s="176"/>
+      <c r="G58" s="176"/>
+      <c r="H58" s="176"/>
     </row>
     <row r="59" spans="3:8">
-      <c r="C59" s="185" t="s">
+      <c r="C59" s="178" t="s">
         <v>154</v>
       </c>
-      <c r="D59" s="187" t="s">
+      <c r="D59" s="180" t="s">
         <v>155</v>
       </c>
-      <c r="E59" s="188" t="s">
+      <c r="E59" s="181" t="s">
         <v>156</v>
       </c>
-      <c r="F59" s="183"/>
-      <c r="G59" s="183"/>
-      <c r="H59" s="183"/>
+      <c r="F59" s="176"/>
+      <c r="G59" s="176"/>
+      <c r="H59" s="176"/>
     </row>
     <row r="60" spans="3:8">
-      <c r="C60" s="185" t="s">
+      <c r="C60" s="178" t="s">
         <v>157</v>
       </c>
-      <c r="D60" s="187" t="s">
+      <c r="D60" s="180" t="s">
         <v>158</v>
       </c>
-      <c r="E60" s="188" t="s">
+      <c r="E60" s="181" t="s">
         <v>159</v>
       </c>
-      <c r="F60" s="183"/>
-      <c r="G60" s="183"/>
-      <c r="H60" s="183"/>
+      <c r="F60" s="176"/>
+      <c r="G60" s="176"/>
+      <c r="H60" s="176"/>
     </row>
     <row r="61" spans="3:8">
-      <c r="C61" s="189" t="s">
+      <c r="C61" s="178" t="s">
         <v>160</v>
       </c>
-      <c r="D61" s="187" t="s">
+      <c r="D61" s="180" t="s">
         <v>161</v>
       </c>
-      <c r="E61" s="188" t="s">
+      <c r="E61" s="181" t="s">
         <v>162</v>
       </c>
-      <c r="F61" s="183"/>
-      <c r="G61" s="183"/>
-      <c r="H61" s="183"/>
+      <c r="F61" s="176"/>
+      <c r="G61" s="176"/>
+      <c r="H61" s="176"/>
     </row>
     <row r="62" spans="3:8">
-      <c r="C62" s="189" t="s">
+      <c r="C62" s="178" t="s">
         <v>163</v>
       </c>
-      <c r="D62" s="187" t="s">
+      <c r="D62" s="180" t="s">
         <v>164</v>
       </c>
-      <c r="E62" s="188" t="s">
+      <c r="E62" s="181" t="s">
         <v>165</v>
       </c>
-      <c r="F62" s="183"/>
-      <c r="G62" s="183"/>
-      <c r="H62" s="183"/>
+      <c r="F62" s="176"/>
+      <c r="G62" s="176"/>
+      <c r="H62" s="176"/>
     </row>
     <row r="63" spans="3:8">
-      <c r="C63" s="189" t="s">
+      <c r="C63" s="182" t="s">
         <v>166</v>
       </c>
-      <c r="D63" s="187" t="s">
+      <c r="D63" s="180" t="s">
         <v>167</v>
       </c>
-      <c r="E63" s="188" t="s">
+      <c r="E63" s="181" t="s">
         <v>168</v>
       </c>
-      <c r="F63" s="183"/>
-      <c r="G63" s="183"/>
-      <c r="H63" s="183"/>
+      <c r="F63" s="176"/>
+      <c r="G63" s="176"/>
+      <c r="H63" s="176"/>
     </row>
     <row r="64" spans="3:8">
-      <c r="C64" s="189" t="s">
+      <c r="C64" s="182" t="s">
         <v>169</v>
       </c>
-      <c r="D64" s="187" t="s">
+      <c r="D64" s="180" t="s">
         <v>170</v>
       </c>
-      <c r="E64" s="188" t="s">
+      <c r="E64" s="181" t="s">
         <v>171</v>
       </c>
-      <c r="F64" s="183"/>
-      <c r="G64" s="183"/>
-      <c r="H64" s="183"/>
+      <c r="F64" s="176"/>
+      <c r="G64" s="176"/>
+      <c r="H64" s="176"/>
     </row>
     <row r="65" spans="3:8">
-      <c r="C65" s="190" t="s">
+      <c r="C65" s="182" t="s">
         <v>172</v>
       </c>
-      <c r="D65" s="187" t="s">
+      <c r="D65" s="180" t="s">
         <v>173</v>
       </c>
-      <c r="E65" s="188" t="s">
+      <c r="E65" s="181" t="s">
         <v>174</v>
       </c>
-      <c r="F65" s="183"/>
-      <c r="G65" s="183"/>
-      <c r="H65" s="183"/>
+      <c r="F65" s="176"/>
+      <c r="G65" s="176"/>
+      <c r="H65" s="176"/>
     </row>
     <row r="66" spans="3:8">
-      <c r="C66" s="189" t="s">
+      <c r="C66" s="182" t="s">
         <v>175</v>
       </c>
-      <c r="D66" s="187" t="s">
+      <c r="D66" s="180" t="s">
         <v>176</v>
       </c>
-      <c r="E66" s="188" t="s">
+      <c r="E66" s="181" t="s">
         <v>177</v>
       </c>
-      <c r="F66" s="183"/>
-      <c r="G66" s="183"/>
-      <c r="H66" s="183"/>
+      <c r="F66" s="176"/>
+      <c r="G66" s="176"/>
+      <c r="H66" s="176"/>
     </row>
     <row r="67" spans="3:8">
-      <c r="C67" s="190" t="s">
+      <c r="C67" s="183" t="s">
         <v>178</v>
       </c>
-      <c r="D67" s="187" t="s">
+      <c r="D67" s="180" t="s">
         <v>179</v>
       </c>
-      <c r="E67" s="188" t="s">
+      <c r="E67" s="181" t="s">
         <v>180</v>
       </c>
-      <c r="F67" s="183"/>
-      <c r="G67" s="183"/>
-      <c r="H67" s="183"/>
+      <c r="F67" s="176"/>
+      <c r="G67" s="176"/>
+      <c r="H67" s="176"/>
     </row>
     <row r="68" spans="3:8">
-      <c r="C68" s="191" t="s">
+      <c r="C68" s="182" t="s">
         <v>181</v>
       </c>
-      <c r="D68" s="187" t="s">
+      <c r="D68" s="180" t="s">
         <v>182</v>
       </c>
-      <c r="E68" s="188" t="s">
+      <c r="E68" s="181" t="s">
         <v>183</v>
       </c>
-      <c r="F68" s="183"/>
-      <c r="G68" s="183"/>
-      <c r="H68" s="183"/>
+      <c r="F68" s="176"/>
+      <c r="G68" s="176"/>
+      <c r="H68" s="176"/>
     </row>
     <row r="69" spans="3:8">
-      <c r="C69" s="190" t="s">
+      <c r="C69" s="183" t="s">
         <v>184</v>
       </c>
-      <c r="D69" s="190"/>
-      <c r="E69" s="192">
-        <f>SUM(E56:E68)</f>
+      <c r="D69" s="180" t="s">
+        <v>185</v>
+      </c>
+      <c r="E69" s="181" t="s">
+        <v>186</v>
+      </c>
+      <c r="F69" s="176"/>
+      <c r="G69" s="176"/>
+      <c r="H69" s="176"/>
+    </row>
+    <row r="70" spans="3:8">
+      <c r="C70" s="184" t="s">
+        <v>187</v>
+      </c>
+      <c r="D70" s="180" t="s">
+        <v>188</v>
+      </c>
+      <c r="E70" s="181" t="s">
+        <v>189</v>
+      </c>
+      <c r="F70" s="176"/>
+      <c r="G70" s="176"/>
+      <c r="H70" s="176"/>
+    </row>
+    <row r="71" spans="3:8">
+      <c r="C71" s="183" t="s">
+        <v>190</v>
+      </c>
+      <c r="D71" s="183"/>
+      <c r="E71" s="185">
+        <f>SUM(E58:E70)</f>
         <v>0</v>
       </c>
-      <c r="F69" s="183"/>
-      <c r="G69" s="183"/>
-      <c r="H69" s="183"/>
-    </row>
-    <row r="70" spans="3:8">
-      <c r="C70" s="167" t="s">
-        <v>185</v>
-      </c>
-      <c r="D70" s="168"/>
-      <c r="E70" s="193" t="e">
-        <f>D57*E57+D58*E58+D59*E59+D60*E60+D61*E61+D62*E62+D63*E63+D64*E64+D65*E65+D66*E66+D67*E67+D68*E68</f>
+      <c r="F71" s="176"/>
+      <c r="G71" s="176"/>
+      <c r="H71" s="176"/>
+    </row>
+    <row r="72" spans="3:8">
+      <c r="C72" s="160" t="s">
+        <v>191</v>
+      </c>
+      <c r="D72" s="161"/>
+      <c r="E72" s="186" t="e">
+        <f>D57*E59+D58*E60+D59*E61+D60*E62+D61*E63+D62*E64+D63*E65+D64*E66+D65*E67+D66*E68+D67*E69+D68*E70</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F70" s="183"/>
-      <c r="G70" s="183"/>
-      <c r="H70" s="183"/>
-    </row>
-    <row r="71" spans="3:8">
-      <c r="C71" s="194"/>
-      <c r="D71" s="195"/>
-      <c r="E71" s="196"/>
-      <c r="F71" s="183"/>
-      <c r="G71" s="183"/>
-      <c r="H71" s="183"/>
-    </row>
-    <row r="72" ht="14.25" customHeight="1" spans="3:8">
-      <c r="C72" s="190" t="s">
-        <v>186</v>
-      </c>
-      <c r="D72" s="190"/>
-      <c r="E72" s="197" t="s">
-        <v>187</v>
-      </c>
-      <c r="F72" s="183"/>
-      <c r="G72" s="183"/>
-      <c r="H72" s="183"/>
-    </row>
-    <row r="73" ht="14.25" customHeight="1" spans="3:8">
-      <c r="C73" s="190" t="s">
-        <v>188</v>
-      </c>
-      <c r="D73" s="190"/>
-      <c r="E73" s="197" t="s">
-        <v>189</v>
-      </c>
-      <c r="F73" s="183"/>
-      <c r="G73" s="183"/>
-      <c r="H73" s="183"/>
+      <c r="F72" s="176"/>
+      <c r="G72" s="176"/>
+      <c r="H72" s="176"/>
+    </row>
+    <row r="73" spans="3:8">
+      <c r="C73" s="187"/>
+      <c r="D73" s="188"/>
+      <c r="E73" s="189"/>
+      <c r="F73" s="176"/>
+      <c r="G73" s="176"/>
+      <c r="H73" s="176"/>
     </row>
     <row r="74" ht="14.25" customHeight="1" spans="3:8">
-      <c r="C74" s="190" t="s">
-        <v>190</v>
-      </c>
-      <c r="D74" s="190"/>
-      <c r="E74" s="197" t="s">
-        <v>191</v>
-      </c>
-      <c r="F74" s="183"/>
-      <c r="G74" s="183"/>
-      <c r="H74" s="183"/>
-    </row>
-    <row r="75" spans="3:8">
-      <c r="C75" s="190" t="s">
+      <c r="C74" s="183" t="s">
         <v>192</v>
       </c>
-      <c r="D75" s="190"/>
-      <c r="E75" s="192" t="e">
-        <f>E72/E73</f>
+      <c r="D74" s="183"/>
+      <c r="E74" s="190" t="s">
+        <v>193</v>
+      </c>
+      <c r="F74" s="176"/>
+      <c r="G74" s="176"/>
+      <c r="H74" s="176"/>
+    </row>
+    <row r="75" ht="14.25" customHeight="1" spans="3:8">
+      <c r="C75" s="183" t="s">
+        <v>194</v>
+      </c>
+      <c r="D75" s="183"/>
+      <c r="E75" s="190" t="s">
+        <v>195</v>
+      </c>
+      <c r="F75" s="176"/>
+      <c r="G75" s="176"/>
+      <c r="H75" s="176"/>
+    </row>
+    <row r="76" ht="14.25" customHeight="1" spans="3:8">
+      <c r="C76" s="183" t="s">
+        <v>196</v>
+      </c>
+      <c r="D76" s="183"/>
+      <c r="E76" s="190" t="s">
+        <v>197</v>
+      </c>
+      <c r="F76" s="176"/>
+      <c r="G76" s="176"/>
+      <c r="H76" s="176"/>
+    </row>
+    <row r="77" spans="3:8">
+      <c r="C77" s="183" t="s">
+        <v>198</v>
+      </c>
+      <c r="D77" s="183"/>
+      <c r="E77" s="185" t="e">
+        <f>E74/E75</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F75" s="183"/>
-      <c r="G75" s="183"/>
-      <c r="H75" s="183"/>
-    </row>
-    <row r="76" spans="3:8">
-      <c r="C76" s="194"/>
-      <c r="D76" s="195"/>
-      <c r="E76" s="196"/>
-      <c r="G76" s="183"/>
-      <c r="H76" s="183"/>
-    </row>
-    <row r="77" ht="13.5" customHeight="1"/>
+      <c r="F77" s="176"/>
+      <c r="G77" s="176"/>
+      <c r="H77" s="176"/>
+    </row>
+    <row r="78" spans="3:8">
+      <c r="C78" s="187"/>
+      <c r="D78" s="188"/>
+      <c r="E78" s="189"/>
+      <c r="G78" s="176"/>
+      <c r="H78" s="176"/>
+    </row>
+    <row r="79" ht="13.5" customHeight="1"/>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="A44:A50" name="範囲3_1"/>
@@ -4007,12 +4004,12 @@
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="C42:F42"/>
     <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
     <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="G42:G43"/>
@@ -4033,7 +4030,7 @@
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="3" max="81" man="1"/>
+    <brk id="3" max="83" man="1"/>
   </colBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -4078,1311 +4075,1311 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="3" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="71" t="s">
-        <v>194</v>
-      </c>
-      <c r="M2" s="71"/>
+      <c r="L2" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="M2" s="65"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="2:15">
       <c r="B3" s="2"/>
       <c r="C3" s="4" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="73" t="s">
+      <c r="F3" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="75"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="69"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="2:15">
       <c r="B4" s="2"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="77" t="str">
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="71" t="str">
         <f>記入!B37</f>
         <v>${aw.draftingdate}</v>
       </c>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="79"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="73"/>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="2:15">
       <c r="B5" s="2"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="73" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="75"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="69"/>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="2:15">
       <c r="B6" s="2"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="80" t="str">
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="74" t="str">
         <f>記入!B38</f>
         <v>${aw.scheduleddate}</v>
       </c>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="82"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="76"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="2:15">
       <c r="B7" s="2"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="83" t="s">
-        <v>199</v>
-      </c>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="84"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="78"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="2:15">
       <c r="B8" s="2"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="88"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="82"/>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="2:15">
       <c r="B9" s="2"/>
-      <c r="C9" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="J9" s="18" t="s">
+      <c r="C9" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="J9" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="K9" s="89" t="s">
-        <v>203</v>
-      </c>
-      <c r="L9" s="73" t="s">
+      <c r="K9" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="L9" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="M9" s="74"/>
-      <c r="N9" s="90" t="str">
+      <c r="M9" s="68"/>
+      <c r="N9" s="84" t="str">
         <f>記入!B39</f>
         <v>${aw.plan}</v>
       </c>
-      <c r="O9" s="91"/>
+      <c r="O9" s="85"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="2:15">
       <c r="B10" s="2"/>
-      <c r="C10" s="19" t="str">
+      <c r="C10" s="18" t="str">
         <f>記入!B9</f>
         <v>${aw.deployment}</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="73" t="s">
-        <v>204</v>
-      </c>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="75"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="69"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="2:15">
       <c r="B11" s="2"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18" t="str">
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17" t="str">
         <f>記入!B35</f>
         <v>${aw.user_id}</v>
       </c>
-      <c r="K11" s="92" t="s">
+      <c r="K11" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="L11" s="93" t="str">
+      <c r="L11" s="87" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M11" s="94"/>
-      <c r="N11" s="95" t="str">
+      <c r="M11" s="88"/>
+      <c r="N11" s="89" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O11" s="96"/>
+      <c r="O11" s="90"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="2:15">
       <c r="B12" s="2"/>
-      <c r="C12" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="97" t="s">
-        <v>206</v>
-      </c>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="99"/>
+      <c r="C12" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="91" t="s">
+        <v>212</v>
+      </c>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="93"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="2:15">
       <c r="B13" s="2"/>
-      <c r="C13" s="28" t="str">
+      <c r="C13" s="27" t="str">
         <f>記入!B10</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="93" t="str">
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="87" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M13" s="94"/>
-      <c r="N13" s="95" t="str">
+      <c r="M13" s="88"/>
+      <c r="N13" s="89" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O13" s="96"/>
+      <c r="O13" s="90"/>
     </row>
     <row r="14" ht="9" customHeight="1" spans="2:15">
-      <c r="B14" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="100"/>
+      <c r="B14" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="94"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="101"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="95"/>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35" t="str">
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33" t="str">
         <f>C10&amp;"は"</f>
         <v>${aw.deployment}は</v>
       </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="101"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="95"/>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35" t="str">
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33" t="str">
         <f>記入!B2&amp;"から"</f>
         <v>${aw.custojapanese}から</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="101"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="95"/>
     </row>
     <row r="18" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="101"/>
+      <c r="E18" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="95"/>
     </row>
     <row r="19" ht="9" customHeight="1" spans="2:15">
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="101"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="95"/>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="101"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="95"/>
     </row>
     <row r="21" ht="15" customHeight="1" spans="2:15">
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37" t="str">
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35" t="str">
         <f>記入!B2</f>
         <v>${aw.custojapanese}</v>
       </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="101"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="95"/>
     </row>
     <row r="22" ht="15" customHeight="1" spans="2:15">
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="101"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="95"/>
     </row>
     <row r="23" ht="15" customHeight="1" spans="2:15">
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37" t="str">
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35" t="str">
         <f>C13</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="101"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="95"/>
     </row>
     <row r="24" ht="15" customHeight="1" spans="2:15">
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="101"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="95"/>
     </row>
     <row r="25" ht="15" customHeight="1" spans="2:15">
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="36" t="s">
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37" t="str">
+      <c r="E25" s="34"/>
+      <c r="F25" s="35" t="str">
         <f>記入!B12</f>
         <v>${aw.contractnumber}</v>
       </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="101"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="95"/>
     </row>
     <row r="26" ht="15" customHeight="1" spans="2:15">
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="101"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="95"/>
     </row>
     <row r="27" ht="15" customHeight="1" spans="2:15">
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="38" t="s">
-        <v>213</v>
-      </c>
-      <c r="E27" s="38"/>
-      <c r="F27" s="39" t="str">
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="36" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="102" t="s">
-        <v>214</v>
-      </c>
-      <c r="J27" s="103" t="str">
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="96" t="s">
+        <v>220</v>
+      </c>
+      <c r="J27" s="97" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="K27" s="103"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="103"/>
-      <c r="N27" s="104"/>
-      <c r="O27" s="101"/>
+      <c r="K27" s="97"/>
+      <c r="L27" s="97"/>
+      <c r="M27" s="97"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="95"/>
     </row>
     <row r="28" ht="15" customHeight="1" spans="2:15">
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="103"/>
-      <c r="L28" s="103"/>
-      <c r="M28" s="103"/>
-      <c r="N28" s="104"/>
-      <c r="O28" s="101"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="97"/>
+      <c r="L28" s="97"/>
+      <c r="M28" s="97"/>
+      <c r="N28" s="98"/>
+      <c r="O28" s="95"/>
     </row>
     <row r="29" ht="24.75" customHeight="1" spans="2:15">
-      <c r="B29" s="31"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="41" t="s">
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="41" t="s">
+      <c r="E29" s="39"/>
+      <c r="F29" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="42"/>
-      <c r="H29" s="43" t="s">
+      <c r="G29" s="39"/>
+      <c r="H29" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="I29" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="J29" s="57"/>
-      <c r="K29" s="105" t="s">
+      <c r="I29" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="J29" s="52"/>
+      <c r="K29" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="L29" s="42"/>
-      <c r="M29" s="41" t="s">
+      <c r="L29" s="39"/>
+      <c r="M29" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="N29" s="42"/>
-      <c r="O29" s="101"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="95"/>
     </row>
     <row r="30" ht="24.75" customHeight="1" spans="2:15">
-      <c r="B30" s="31"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="38" t="s">
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="J30" s="38" t="s">
+      <c r="J30" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="K30" s="46"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="106" t="str">
+      <c r="K30" s="43"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="100" t="str">
         <f>"("&amp;記入!B19&amp;")"</f>
         <v>(${aw.currencyposition})</v>
       </c>
-      <c r="N30" s="107"/>
-      <c r="O30" s="101"/>
+      <c r="N30" s="101"/>
+      <c r="O30" s="95"/>
     </row>
     <row r="31" ht="24.95" customHeight="1" spans="2:15">
-      <c r="B31" s="31"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="49" t="s">
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="G31" s="50"/>
-      <c r="H31" s="51" t="s">
+      <c r="G31" s="47"/>
+      <c r="H31" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="I31" s="108" t="s">
+      <c r="I31" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="J31" s="108" t="s">
+      <c r="J31" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="K31" s="109" t="e">
+      <c r="K31" s="102" t="e">
         <f>I31+J31</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L31" s="37"/>
-      <c r="M31" s="110" t="e">
+      <c r="L31" s="35"/>
+      <c r="M31" s="103" t="e">
         <f>記入!H44</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N31" s="110"/>
-      <c r="O31" s="101"/>
+      <c r="N31" s="103"/>
+      <c r="O31" s="95"/>
     </row>
     <row r="32" ht="24.95" customHeight="1" spans="2:15">
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="49" t="s">
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="G32" s="50"/>
-      <c r="H32" s="51" t="s">
+      <c r="G32" s="47"/>
+      <c r="H32" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="I32" s="108" t="s">
+      <c r="I32" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="J32" s="108" t="s">
+      <c r="J32" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="K32" s="109" t="e">
+      <c r="K32" s="102" t="e">
         <f t="shared" ref="K32:K37" si="0">I32+J32</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L32" s="37"/>
-      <c r="M32" s="110" t="e">
+      <c r="L32" s="35"/>
+      <c r="M32" s="103" t="e">
         <f>記入!H45</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N32" s="110"/>
-      <c r="O32" s="101"/>
+      <c r="N32" s="103"/>
+      <c r="O32" s="95"/>
     </row>
     <row r="33" ht="24.95" customHeight="1" spans="2:15">
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="49" t="s">
+      <c r="B33" s="30"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="G33" s="50"/>
-      <c r="H33" s="51" t="s">
+      <c r="G33" s="47"/>
+      <c r="H33" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="I33" s="108" t="s">
+      <c r="I33" s="102" t="s">
         <v>108</v>
       </c>
-      <c r="J33" s="108" t="s">
+      <c r="J33" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="K33" s="109" t="e">
+      <c r="K33" s="102" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L33" s="37"/>
-      <c r="M33" s="110" t="e">
+      <c r="L33" s="35"/>
+      <c r="M33" s="103" t="e">
         <f>記入!H46</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N33" s="110"/>
-      <c r="O33" s="101"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="95"/>
     </row>
     <row r="34" ht="24.95" customHeight="1" spans="2:15">
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="49" t="s">
+      <c r="B34" s="30"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="G34" s="50"/>
-      <c r="H34" s="51" t="s">
+      <c r="G34" s="47"/>
+      <c r="H34" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="I34" s="108" t="s">
+      <c r="I34" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="J34" s="108" t="s">
+      <c r="J34" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="K34" s="109" t="e">
+      <c r="K34" s="102" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L34" s="37"/>
-      <c r="M34" s="110" t="e">
+      <c r="L34" s="35"/>
+      <c r="M34" s="103" t="e">
         <f>記入!H47</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N34" s="110"/>
-      <c r="O34" s="101"/>
+      <c r="N34" s="103"/>
+      <c r="O34" s="95"/>
     </row>
     <row r="35" ht="24.95" customHeight="1" spans="2:15">
-      <c r="B35" s="31"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="49" t="s">
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="G35" s="50"/>
-      <c r="H35" s="51" t="s">
+      <c r="G35" s="47"/>
+      <c r="H35" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="I35" s="108" t="s">
+      <c r="I35" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="J35" s="108" t="s">
+      <c r="J35" s="102" t="s">
         <v>122</v>
       </c>
-      <c r="K35" s="109" t="e">
+      <c r="K35" s="102" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L35" s="37"/>
-      <c r="M35" s="110" t="e">
+      <c r="L35" s="35"/>
+      <c r="M35" s="103" t="e">
         <f>記入!H48</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N35" s="110"/>
-      <c r="O35" s="101"/>
+      <c r="N35" s="103"/>
+      <c r="O35" s="95"/>
     </row>
     <row r="36" ht="24.95" customHeight="1" spans="2:15">
-      <c r="B36" s="31"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="49" t="s">
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="G36" s="50"/>
-      <c r="H36" s="51" t="s">
+      <c r="G36" s="47"/>
+      <c r="H36" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="I36" s="108" t="s">
+      <c r="I36" s="102" t="s">
         <v>126</v>
       </c>
-      <c r="J36" s="108" t="s">
+      <c r="J36" s="102" t="s">
         <v>128</v>
       </c>
-      <c r="K36" s="109" t="e">
+      <c r="K36" s="102" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L36" s="37"/>
-      <c r="M36" s="110" t="e">
+      <c r="L36" s="35"/>
+      <c r="M36" s="103" t="e">
         <f>記入!H49</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N36" s="110"/>
-      <c r="O36" s="101"/>
+      <c r="N36" s="103"/>
+      <c r="O36" s="95"/>
     </row>
     <row r="37" ht="24.95" customHeight="1" spans="2:15">
-      <c r="B37" s="31"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="49" t="s">
+      <c r="B37" s="30"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="G37" s="50"/>
-      <c r="H37" s="51" t="s">
+      <c r="G37" s="47"/>
+      <c r="H37" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="I37" s="108" t="s">
+      <c r="I37" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="J37" s="108" t="s">
+      <c r="J37" s="102" t="s">
         <v>134</v>
       </c>
-      <c r="K37" s="109" t="e">
+      <c r="K37" s="102" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L37" s="37"/>
-      <c r="M37" s="110" t="e">
+      <c r="L37" s="35"/>
+      <c r="M37" s="103" t="e">
         <f>記入!H50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N37" s="110"/>
-      <c r="O37" s="101"/>
+      <c r="N37" s="103"/>
+      <c r="O37" s="95"/>
     </row>
     <row r="38" ht="24.95" customHeight="1" spans="2:15">
-      <c r="B38" s="31"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="36" t="s">
+      <c r="B38" s="30"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="38">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34">
         <f>記入!C51</f>
         <v>0</v>
       </c>
-      <c r="J38" s="111">
+      <c r="J38" s="104">
         <f>記入!E51</f>
         <v>0</v>
       </c>
-      <c r="K38" s="36">
+      <c r="K38" s="34">
         <f>記入!G55</f>
         <v>0</v>
       </c>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36" t="e">
+      <c r="L38" s="34"/>
+      <c r="M38" s="34" t="e">
         <f>記入!H51</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N38" s="36"/>
-      <c r="O38" s="101"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="95"/>
     </row>
     <row r="39" ht="24.95" customHeight="1" spans="2:15">
-      <c r="B39" s="31"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="112" t="s">
-        <v>216</v>
-      </c>
-      <c r="L39" s="112"/>
-      <c r="M39" s="113" t="e">
+      <c r="B39" s="30"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="105" t="s">
+        <v>222</v>
+      </c>
+      <c r="L39" s="105"/>
+      <c r="M39" s="106" t="e">
         <f>記入!E39</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N39" s="113"/>
-      <c r="O39" s="101"/>
+      <c r="N39" s="106"/>
+      <c r="O39" s="95"/>
     </row>
     <row r="40" ht="24.95" customHeight="1" spans="2:15">
-      <c r="B40" s="31"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="112" t="s">
+      <c r="B40" s="30"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="L40" s="112"/>
-      <c r="M40" s="113" t="str">
+      <c r="L40" s="105"/>
+      <c r="M40" s="106" t="str">
         <f>記入!H39</f>
         <v>${aw.rate}</v>
       </c>
-      <c r="N40" s="113"/>
-      <c r="O40" s="101"/>
+      <c r="N40" s="106"/>
+      <c r="O40" s="95"/>
     </row>
     <row r="41" ht="24.95" customHeight="1" spans="2:15">
-      <c r="B41" s="31"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="E41" s="38"/>
-      <c r="F41" s="56" t="s">
+      <c r="B41" s="30"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="E41" s="34"/>
+      <c r="F41" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="57"/>
-      <c r="H41" s="58" t="s">
+      <c r="G41" s="52"/>
+      <c r="H41" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="I41" s="57"/>
-      <c r="J41" s="38" t="str">
+      <c r="I41" s="52"/>
+      <c r="J41" s="34" t="str">
         <f>"請求金額"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>請求金額(${aw.currencyposition})</v>
       </c>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="101"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="95"/>
     </row>
     <row r="42" ht="23.1" customHeight="1" spans="2:15">
-      <c r="B42" s="31"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="36" t="str">
+      <c r="B42" s="30"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="34" t="str">
         <f>IF(F42="","","第一回")</f>
         <v>第一回</v>
       </c>
-      <c r="E42" s="36"/>
-      <c r="F42" s="59" t="str">
+      <c r="E42" s="34"/>
+      <c r="F42" s="54" t="str">
         <f>IF(記入!B29="","",記入!B29)</f>
         <v>${num[0].deliverydate}</v>
       </c>
-      <c r="G42" s="60"/>
-      <c r="H42" s="59" t="str">
+      <c r="G42" s="55"/>
+      <c r="H42" s="54" t="str">
         <f>IF(記入!D29="","",記入!D29)</f>
         <v>${num[0].claimdate}</v>
       </c>
-      <c r="I42" s="60"/>
-      <c r="J42" s="110" t="str">
+      <c r="I42" s="55"/>
+      <c r="J42" s="103" t="str">
         <f>IF(記入!F29="","",記入!F29)</f>
         <v>${num[0].claimamount}</v>
       </c>
-      <c r="K42" s="110"/>
-      <c r="L42" s="110"/>
-      <c r="M42" s="110"/>
-      <c r="N42" s="110"/>
-      <c r="O42" s="101"/>
+      <c r="K42" s="103"/>
+      <c r="L42" s="103"/>
+      <c r="M42" s="103"/>
+      <c r="N42" s="103"/>
+      <c r="O42" s="95"/>
     </row>
     <row r="43" ht="23.1" customHeight="1" spans="2:15">
-      <c r="B43" s="31"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="36" t="str">
+      <c r="B43" s="30"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="34" t="str">
         <f>IF(F43="","","第二回")</f>
         <v>第二回</v>
       </c>
-      <c r="E43" s="36"/>
-      <c r="F43" s="59" t="str">
+      <c r="E43" s="34"/>
+      <c r="F43" s="54" t="str">
         <f>IF(記入!B30="","",記入!B30)</f>
         <v>${num[1].deliverydate}</v>
       </c>
-      <c r="G43" s="60"/>
-      <c r="H43" s="59" t="str">
+      <c r="G43" s="55"/>
+      <c r="H43" s="54" t="str">
         <f>IF(記入!D30="","",記入!D30)</f>
         <v>${num[1].claimdate}</v>
       </c>
-      <c r="I43" s="60"/>
-      <c r="J43" s="110" t="str">
+      <c r="I43" s="55"/>
+      <c r="J43" s="103" t="str">
         <f>IF(記入!F30="","",記入!F30)</f>
         <v>${num[1].claimamount}</v>
       </c>
-      <c r="K43" s="110"/>
-      <c r="L43" s="110"/>
-      <c r="M43" s="110"/>
-      <c r="N43" s="110"/>
-      <c r="O43" s="101"/>
+      <c r="K43" s="103"/>
+      <c r="L43" s="103"/>
+      <c r="M43" s="103"/>
+      <c r="N43" s="103"/>
+      <c r="O43" s="95"/>
     </row>
     <row r="44" ht="23.1" customHeight="1" spans="2:15">
-      <c r="B44" s="31"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="36" t="str">
+      <c r="B44" s="30"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="34" t="str">
         <f>IF(F44="","","第三回")</f>
         <v>第三回</v>
       </c>
-      <c r="E44" s="36"/>
-      <c r="F44" s="59" t="str">
+      <c r="E44" s="34"/>
+      <c r="F44" s="54" t="str">
         <f>IF(記入!B31="","",記入!B31)</f>
         <v>${num[2].deliverydate}</v>
       </c>
-      <c r="G44" s="60"/>
-      <c r="H44" s="59" t="str">
+      <c r="G44" s="55"/>
+      <c r="H44" s="54" t="str">
         <f>IF(記入!D31="","",記入!D31)</f>
         <v>${num[2].claimdate}</v>
       </c>
-      <c r="I44" s="60"/>
-      <c r="J44" s="110" t="str">
+      <c r="I44" s="55"/>
+      <c r="J44" s="103" t="str">
         <f>IF(記入!F31="","",記入!F31)</f>
         <v>${num[2].claimamount}</v>
       </c>
-      <c r="K44" s="110"/>
-      <c r="L44" s="110"/>
-      <c r="M44" s="110"/>
-      <c r="N44" s="110"/>
-      <c r="O44" s="101"/>
+      <c r="K44" s="103"/>
+      <c r="L44" s="103"/>
+      <c r="M44" s="103"/>
+      <c r="N44" s="103"/>
+      <c r="O44" s="95"/>
     </row>
     <row r="45" ht="23.1" customHeight="1" spans="2:15">
-      <c r="B45" s="31"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="36" t="str">
+      <c r="B45" s="30"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="34" t="str">
         <f>IF(F45="","","第四回")</f>
         <v>第四回</v>
       </c>
-      <c r="E45" s="36"/>
-      <c r="F45" s="59" t="str">
+      <c r="E45" s="34"/>
+      <c r="F45" s="54" t="str">
         <f>IF(記入!B32="","",記入!B32)</f>
         <v>${num[3].deliverydate}</v>
       </c>
-      <c r="G45" s="60"/>
-      <c r="H45" s="59" t="str">
+      <c r="G45" s="55"/>
+      <c r="H45" s="54" t="str">
         <f>IF(記入!D32="","",記入!D32)</f>
         <v>${num[3].claimdate}</v>
       </c>
-      <c r="I45" s="60"/>
-      <c r="J45" s="110" t="str">
+      <c r="I45" s="55"/>
+      <c r="J45" s="103" t="str">
         <f>IF(記入!F32="","",記入!F32)</f>
         <v>${num[3].claimamount}</v>
       </c>
-      <c r="K45" s="110"/>
-      <c r="L45" s="110"/>
-      <c r="M45" s="110"/>
-      <c r="N45" s="110"/>
-      <c r="O45" s="101"/>
+      <c r="K45" s="103"/>
+      <c r="L45" s="103"/>
+      <c r="M45" s="103"/>
+      <c r="N45" s="103"/>
+      <c r="O45" s="95"/>
     </row>
     <row r="46" ht="21.75" customHeight="1" spans="2:15">
-      <c r="B46" s="31"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="114" t="s">
+      <c r="B46" s="30"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="K46" s="115"/>
-      <c r="L46" s="115"/>
-      <c r="M46" s="115"/>
-      <c r="N46" s="116"/>
-      <c r="O46" s="101"/>
+      <c r="K46" s="108"/>
+      <c r="L46" s="108"/>
+      <c r="M46" s="108"/>
+      <c r="N46" s="109"/>
+      <c r="O46" s="95"/>
     </row>
     <row r="47" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B47" s="31"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="61" t="s">
-        <v>218</v>
-      </c>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="61"/>
-      <c r="O47" s="101"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="95"/>
     </row>
     <row r="48" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B48" s="31"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="62" t="s">
-        <v>219</v>
-      </c>
-      <c r="F48" s="62"/>
-      <c r="G48" s="63" t="str">
+      <c r="B48" s="30"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="56" t="s">
+        <v>225</v>
+      </c>
+      <c r="F48" s="56"/>
+      <c r="G48" s="57" t="str">
         <f>記入!B40</f>
         <v>${aw.valuation}</v>
       </c>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="61"/>
-      <c r="O48" s="101"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="95"/>
     </row>
     <row r="49" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B49" s="31"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="62" t="s">
-        <v>220</v>
-      </c>
-      <c r="F49" s="62"/>
-      <c r="G49" s="63" t="str">
+      <c r="B49" s="30"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="F49" s="56"/>
+      <c r="G49" s="57" t="str">
         <f>記入!B41</f>
         <v>${aw.individual}</v>
       </c>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="34"/>
-      <c r="N49" s="61"/>
-      <c r="O49" s="101"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="95"/>
     </row>
     <row r="50" ht="9.75" customHeight="1" spans="2:15">
-      <c r="B50" s="31"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="34"/>
-      <c r="N50" s="61"/>
-      <c r="O50" s="101"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="95"/>
     </row>
     <row r="51" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B51" s="31"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="E51" s="62"/>
-      <c r="F51" s="65" t="str">
+      <c r="B51" s="30"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="E51" s="56"/>
+      <c r="F51" s="59" t="str">
         <f>記入!E35</f>
         <v>${aw.remarks}</v>
       </c>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="65"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="65"/>
-      <c r="M51" s="65"/>
-      <c r="N51" s="65"/>
-      <c r="O51" s="101"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="59"/>
+      <c r="M51" s="59"/>
+      <c r="N51" s="59"/>
+      <c r="O51" s="95"/>
     </row>
     <row r="52" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B52" s="31"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="67"/>
-      <c r="I52" s="67"/>
-      <c r="J52" s="67"/>
-      <c r="K52" s="67"/>
-      <c r="L52" s="67"/>
-      <c r="M52" s="67"/>
-      <c r="N52" s="67"/>
-      <c r="O52" s="101"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="61"/>
+      <c r="I52" s="61"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="61"/>
+      <c r="L52" s="61"/>
+      <c r="M52" s="61"/>
+      <c r="N52" s="61"/>
+      <c r="O52" s="95"/>
     </row>
     <row r="53" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B53" s="31"/>
-      <c r="C53" s="68" t="s">
-        <v>222</v>
-      </c>
-      <c r="D53" s="68"/>
-      <c r="E53" s="68"/>
-      <c r="F53" s="68" t="s">
-        <v>223</v>
-      </c>
-      <c r="G53" s="68"/>
-      <c r="H53" s="68" t="s">
-        <v>224</v>
-      </c>
-      <c r="I53" s="68"/>
-      <c r="J53" s="68" t="s">
-        <v>223</v>
-      </c>
-      <c r="K53" s="68"/>
-      <c r="L53" s="68"/>
-      <c r="M53" s="68" t="s">
-        <v>224</v>
-      </c>
-      <c r="N53" s="68"/>
-      <c r="O53" s="68"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="I53" s="62"/>
+      <c r="J53" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="K53" s="62"/>
+      <c r="L53" s="62"/>
+      <c r="M53" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="N53" s="62"/>
+      <c r="O53" s="62"/>
     </row>
     <row r="54" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B54" s="31"/>
-      <c r="C54" s="68"/>
-      <c r="D54" s="68"/>
-      <c r="E54" s="68"/>
-      <c r="F54" s="69"/>
-      <c r="G54" s="69"/>
-      <c r="H54" s="69"/>
-      <c r="I54" s="69"/>
-      <c r="J54" s="69"/>
-      <c r="K54" s="69"/>
-      <c r="L54" s="69"/>
-      <c r="M54" s="69"/>
-      <c r="N54" s="69"/>
-      <c r="O54" s="69"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="63"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="63"/>
+      <c r="M54" s="63"/>
+      <c r="N54" s="63"/>
+      <c r="O54" s="63"/>
     </row>
     <row r="55" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B55" s="31"/>
-      <c r="C55" s="68"/>
-      <c r="D55" s="68"/>
-      <c r="E55" s="68"/>
-      <c r="F55" s="69"/>
-      <c r="G55" s="69"/>
-      <c r="H55" s="69"/>
-      <c r="I55" s="69"/>
-      <c r="J55" s="69"/>
-      <c r="K55" s="69"/>
-      <c r="L55" s="69"/>
-      <c r="M55" s="69"/>
-      <c r="N55" s="69"/>
-      <c r="O55" s="69"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="63"/>
+      <c r="K55" s="63"/>
+      <c r="L55" s="63"/>
+      <c r="M55" s="63"/>
+      <c r="N55" s="63"/>
+      <c r="O55" s="63"/>
     </row>
     <row r="56" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B56" s="31"/>
-      <c r="C56" s="68"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="69"/>
-      <c r="G56" s="69"/>
-      <c r="H56" s="69"/>
-      <c r="I56" s="69"/>
-      <c r="J56" s="69"/>
-      <c r="K56" s="69"/>
-      <c r="L56" s="69"/>
-      <c r="M56" s="69"/>
-      <c r="N56" s="69"/>
-      <c r="O56" s="69"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="63"/>
+      <c r="K56" s="63"/>
+      <c r="L56" s="63"/>
+      <c r="M56" s="63"/>
+      <c r="N56" s="63"/>
+      <c r="O56" s="63"/>
     </row>
     <row r="57" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B57" s="31"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="69"/>
-      <c r="G57" s="69"/>
-      <c r="H57" s="69"/>
-      <c r="I57" s="69"/>
-      <c r="J57" s="69"/>
-      <c r="K57" s="69"/>
-      <c r="L57" s="69"/>
-      <c r="M57" s="69"/>
-      <c r="N57" s="69"/>
-      <c r="O57" s="69"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="63"/>
+      <c r="J57" s="63"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="63"/>
+      <c r="M57" s="63"/>
+      <c r="N57" s="63"/>
+      <c r="O57" s="63"/>
     </row>
     <row r="58" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B58" s="31"/>
-      <c r="C58" s="68"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="69"/>
-      <c r="G58" s="69"/>
-      <c r="H58" s="69"/>
-      <c r="I58" s="69"/>
-      <c r="J58" s="69"/>
-      <c r="K58" s="69"/>
-      <c r="L58" s="69"/>
-      <c r="M58" s="69"/>
-      <c r="N58" s="69"/>
-      <c r="O58" s="69"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="62"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="63"/>
+      <c r="K58" s="63"/>
+      <c r="L58" s="63"/>
+      <c r="M58" s="63"/>
+      <c r="N58" s="63"/>
+      <c r="O58" s="63"/>
     </row>
     <row r="59" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B59" s="31"/>
-      <c r="C59" s="68"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="69"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="69"/>
-      <c r="I59" s="69"/>
-      <c r="J59" s="69"/>
-      <c r="K59" s="69"/>
-      <c r="L59" s="69"/>
-      <c r="M59" s="69"/>
-      <c r="N59" s="69"/>
-      <c r="O59" s="69"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="62"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="63"/>
+      <c r="J59" s="63"/>
+      <c r="K59" s="63"/>
+      <c r="L59" s="63"/>
+      <c r="M59" s="63"/>
+      <c r="N59" s="63"/>
+      <c r="O59" s="63"/>
     </row>
     <row r="60" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B60" s="31"/>
-      <c r="C60" s="68"/>
-      <c r="D60" s="68"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="69"/>
-      <c r="G60" s="69"/>
-      <c r="H60" s="69"/>
-      <c r="I60" s="69"/>
-      <c r="J60" s="69"/>
-      <c r="K60" s="69"/>
-      <c r="L60" s="69"/>
-      <c r="M60" s="69"/>
-      <c r="N60" s="69"/>
-      <c r="O60" s="69"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="62"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="63"/>
+      <c r="J60" s="63"/>
+      <c r="K60" s="63"/>
+      <c r="L60" s="63"/>
+      <c r="M60" s="63"/>
+      <c r="N60" s="63"/>
+      <c r="O60" s="63"/>
     </row>
     <row r="61" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B61" s="31"/>
-      <c r="C61" s="68"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="68"/>
-      <c r="F61" s="69"/>
-      <c r="G61" s="69"/>
-      <c r="H61" s="69"/>
-      <c r="I61" s="69"/>
-      <c r="J61" s="69"/>
-      <c r="K61" s="69"/>
-      <c r="L61" s="69"/>
-      <c r="M61" s="69"/>
-      <c r="N61" s="69"/>
-      <c r="O61" s="69"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="62"/>
+      <c r="E61" s="62"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="63"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="63"/>
+      <c r="K61" s="63"/>
+      <c r="L61" s="63"/>
+      <c r="M61" s="63"/>
+      <c r="N61" s="63"/>
+      <c r="O61" s="63"/>
     </row>
     <row r="62" ht="20.1" customHeight="1" spans="2:15">
-      <c r="B62" s="31"/>
-      <c r="C62" s="68"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="68"/>
-      <c r="F62" s="69"/>
-      <c r="G62" s="69"/>
-      <c r="H62" s="69"/>
-      <c r="I62" s="69"/>
-      <c r="J62" s="69"/>
-      <c r="K62" s="69"/>
-      <c r="L62" s="69"/>
-      <c r="M62" s="69"/>
-      <c r="N62" s="69"/>
-      <c r="O62" s="69"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="63"/>
+      <c r="K62" s="63"/>
+      <c r="L62" s="63"/>
+      <c r="M62" s="63"/>
+      <c r="N62" s="63"/>
+      <c r="O62" s="63"/>
     </row>
     <row r="63" ht="15" spans="3:3">
-      <c r="C63" s="70" t="s">
-        <v>225</v>
+      <c r="C63" s="64" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/controller/src/main/resources/jxls_templates/juecaishu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/juecaishu_shoutuo.xlsx
@@ -39,7 +39,7 @@
             <rFont val="MS PGothic"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="I71")</t>
+          <t>jx:area(lastCell="I84")</t>
         </r>
       </text>
     </comment>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="239">
   <si>
     <t>■以下の内容は契約管理ツールで自動生成</t>
   </si>
@@ -547,6 +547,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>月平均人件費</t>
@@ -563,6 +564,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>残業費</t>
@@ -579,6 +581,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>元</t>
@@ -595,6 +598,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>人・月</t>
@@ -611,6 +615,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>事業計画フォームを参考してください。</t>
@@ -887,6 +892,34 @@
   </si>
   <si>
     <t>パナソニックソフトウェア開発センター大連（有）</t>
+  </si>
+  <si>
+    <t>${alist[0].companyen}</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>${alist[1].companyend}</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>${alist[2].companyend}</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>${alist[3].companyend}</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>${alist[4].companyend}</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>${alist[5].companyend}</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>${alist[6].companyend}</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -894,12 +927,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="182" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    <numFmt numFmtId="183" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="180" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -951,11 +984,13 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="20"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -966,16 +1001,19 @@
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10.5"/>
       <name val="ＭＳ 明朝"/>
+      <family val="1"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -997,6 +1035,7 @@
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1415,10 +1454,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
@@ -1464,7 +1503,7 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1527,13 +1566,13 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="14" fillId="6" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="14" fillId="6" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="14" fillId="6" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="14" fillId="6" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1552,7 +1591,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="10" fillId="2" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="10" fillId="2" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1572,7 +1611,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="7" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="5" fillId="7" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1581,21 +1620,30 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="2" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1610,15 +1658,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -1680,6 +1719,207 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1710,9 +1950,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1730,204 +1967,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1993,7 +2032,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2028,7 +2067,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2240,7 +2279,7 @@
   <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2257,10 +2296,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86"/>
+      <c r="B1" s="91"/>
       <c r="G1" s="97" t="s">
         <v>1</v>
       </c>
@@ -2763,18 +2802,18 @@
       <c r="B39" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="87" t="s">
+      <c r="C39" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="88"/>
+      <c r="D39" s="90"/>
       <c r="E39" s="63" t="e">
         <f>(F53-E72-E74)/F53</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F39" s="87" t="s">
+      <c r="F39" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="G39" s="87"/>
+      <c r="G39" s="89"/>
       <c r="H39" s="64" t="s">
         <v>80</v>
       </c>
@@ -2800,28 +2839,28 @@
       <c r="D41" s="33"/>
     </row>
     <row r="42" spans="1:8" s="32" customFormat="1" ht="14.25">
-      <c r="A42" s="95" t="s">
+      <c r="A42" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="95" t="s">
+      <c r="B42" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="89" t="s">
+      <c r="C42" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="91"/>
-      <c r="G42" s="96" t="s">
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="H42" s="95" t="s">
+      <c r="H42" s="87" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.25">
-      <c r="A43" s="95"/>
-      <c r="B43" s="95"/>
+      <c r="A43" s="87"/>
+      <c r="B43" s="87"/>
       <c r="C43" s="65" t="s">
         <v>90</v>
       </c>
@@ -2834,8 +2873,8 @@
       <c r="F43" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="G43" s="95"/>
-      <c r="H43" s="95"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="87"/>
     </row>
     <row r="44" spans="1:8" ht="14.25">
       <c r="A44" s="16" t="s">
@@ -3034,10 +3073,10 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="15">
-      <c r="A51" s="92" t="s">
+      <c r="A51" s="95" t="s">
         <v>136</v>
       </c>
-      <c r="B51" s="93"/>
+      <c r="B51" s="96"/>
       <c r="C51" s="68">
         <f>SUM(C44:C50)</f>
         <v>0</v>
@@ -3313,10 +3352,10 @@
       <c r="H70" s="71"/>
     </row>
     <row r="71" spans="3:8">
-      <c r="C71" s="94" t="s">
+      <c r="C71" s="86" t="s">
         <v>190</v>
       </c>
-      <c r="D71" s="94"/>
+      <c r="D71" s="86"/>
       <c r="E71" s="80">
         <f>SUM(E58:E70)</f>
         <v>0</v>
@@ -3326,10 +3365,10 @@
       <c r="H71" s="71"/>
     </row>
     <row r="72" spans="3:8">
-      <c r="C72" s="87" t="s">
+      <c r="C72" s="89" t="s">
         <v>191</v>
       </c>
-      <c r="D72" s="88"/>
+      <c r="D72" s="90"/>
       <c r="E72" s="81" t="e">
         <f>D57*E59+D58*E60+D59*E61+D60*E62+D61*E63+D62*E64+D63*E65+D64*E66+D65*E67+D66*E68+D67*E69+D68*E70</f>
         <v>#VALUE!</v>
@@ -3347,10 +3386,10 @@
       <c r="H73" s="71"/>
     </row>
     <row r="74" spans="3:8" ht="14.25" customHeight="1">
-      <c r="C74" s="94" t="s">
+      <c r="C74" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="D74" s="94"/>
+      <c r="D74" s="86"/>
       <c r="E74" s="85" t="s">
         <v>193</v>
       </c>
@@ -3359,10 +3398,10 @@
       <c r="H74" s="71"/>
     </row>
     <row r="75" spans="3:8" ht="14.25" customHeight="1">
-      <c r="C75" s="94" t="s">
+      <c r="C75" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="D75" s="94"/>
+      <c r="D75" s="86"/>
       <c r="E75" s="85" t="s">
         <v>195</v>
       </c>
@@ -3371,10 +3410,10 @@
       <c r="H75" s="71"/>
     </row>
     <row r="76" spans="3:8" ht="14.25" customHeight="1">
-      <c r="C76" s="94" t="s">
+      <c r="C76" s="86" t="s">
         <v>196</v>
       </c>
-      <c r="D76" s="94"/>
+      <c r="D76" s="86"/>
       <c r="E76" s="85" t="s">
         <v>197</v>
       </c>
@@ -3383,10 +3422,10 @@
       <c r="H76" s="71"/>
     </row>
     <row r="77" spans="3:8">
-      <c r="C77" s="94" t="s">
+      <c r="C77" s="86" t="s">
         <v>198</v>
       </c>
-      <c r="D77" s="94"/>
+      <c r="D77" s="86"/>
       <c r="E77" s="80" t="e">
         <f>E74/E75</f>
         <v>#VALUE!</v>
@@ -3410,6 +3449,14 @@
     <protectedRange sqref="C44:D50" name="範囲3_3"/>
   </protectedRanges>
   <mergeCells count="18">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="G1:H32"/>
+    <mergeCell ref="C35:D37"/>
+    <mergeCell ref="E35:H37"/>
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="B42:B43"/>
@@ -3420,14 +3467,6 @@
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="C75:D75"/>
     <mergeCell ref="C76:D76"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="G1:H32"/>
-    <mergeCell ref="C35:D37"/>
-    <mergeCell ref="E35:H37"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="2">
@@ -3452,8 +3491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3499,12 +3538,12 @@
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="2"/>
-      <c r="C3" s="164" t="s">
+      <c r="C3" s="125" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="164" t="s">
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="125" t="s">
         <v>202</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -3514,104 +3553,104 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="26"/>
-      <c r="L3" s="115" t="s">
+      <c r="L3" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="117"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="184"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="2"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="173"/>
-      <c r="H4" s="174"/>
-      <c r="I4" s="174"/>
-      <c r="J4" s="174"/>
-      <c r="K4" s="175"/>
-      <c r="L4" s="118" t="str">
+      <c r="C4" s="126"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="185" t="str">
         <f>記入!B37</f>
         <v>${aw.draftingdate}</v>
       </c>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="120"/>
+      <c r="M4" s="186"/>
+      <c r="N4" s="186"/>
+      <c r="O4" s="187"/>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="2"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="179"/>
-      <c r="E5" s="179"/>
-      <c r="F5" s="165"/>
-      <c r="G5" s="173"/>
-      <c r="H5" s="174"/>
-      <c r="I5" s="174"/>
-      <c r="J5" s="174"/>
-      <c r="K5" s="175"/>
-      <c r="L5" s="115" t="s">
+      <c r="C5" s="126"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="147"/>
+      <c r="L5" s="182" t="s">
         <v>73</v>
       </c>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="117"/>
+      <c r="M5" s="183"/>
+      <c r="N5" s="183"/>
+      <c r="O5" s="184"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="2"/>
-      <c r="C6" s="165"/>
-      <c r="D6" s="179"/>
-      <c r="E6" s="179"/>
-      <c r="F6" s="164" t="s">
+      <c r="C6" s="126"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="125" t="s">
         <v>204</v>
       </c>
-      <c r="G6" s="173"/>
-      <c r="H6" s="174"/>
-      <c r="I6" s="174"/>
-      <c r="J6" s="174"/>
-      <c r="K6" s="175"/>
-      <c r="L6" s="121" t="str">
+      <c r="G6" s="145"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="188" t="str">
         <f>記入!B38</f>
         <v>${aw.scheduleddate}</v>
       </c>
-      <c r="M6" s="122"/>
-      <c r="N6" s="122"/>
-      <c r="O6" s="123"/>
+      <c r="M6" s="189"/>
+      <c r="N6" s="189"/>
+      <c r="O6" s="190"/>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="2"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="174"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="174"/>
-      <c r="K7" s="175"/>
-      <c r="L7" s="124" t="s">
+      <c r="C7" s="126"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="191" t="s">
         <v>205</v>
       </c>
-      <c r="M7" s="125"/>
-      <c r="N7" s="125"/>
-      <c r="O7" s="126"/>
+      <c r="M7" s="123"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="192"/>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="2"/>
-      <c r="C8" s="166"/>
-      <c r="D8" s="179"/>
-      <c r="E8" s="179"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="173"/>
-      <c r="H8" s="176"/>
-      <c r="I8" s="176"/>
-      <c r="J8" s="176"/>
-      <c r="K8" s="177"/>
-      <c r="L8" s="127"/>
-      <c r="M8" s="128"/>
-      <c r="N8" s="128"/>
-      <c r="O8" s="129"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="148"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="193"/>
+      <c r="M8" s="194"/>
+      <c r="N8" s="194"/>
+      <c r="O8" s="195"/>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="2"/>
@@ -3622,75 +3661,75 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="167" t="s">
+      <c r="H9" s="128" t="s">
         <v>207</v>
       </c>
-      <c r="I9" s="167" t="s">
+      <c r="I9" s="128" t="s">
         <v>208</v>
       </c>
-      <c r="J9" s="167" t="s">
+      <c r="J9" s="128" t="s">
         <v>65</v>
       </c>
-      <c r="K9" s="171" t="s">
+      <c r="K9" s="143" t="s">
         <v>209</v>
       </c>
-      <c r="L9" s="115" t="s">
+      <c r="L9" s="182" t="s">
         <v>76</v>
       </c>
-      <c r="M9" s="116"/>
-      <c r="N9" s="130" t="str">
+      <c r="M9" s="183"/>
+      <c r="N9" s="196" t="str">
         <f>記入!B39</f>
         <v>${aw.plan}</v>
       </c>
-      <c r="O9" s="131"/>
+      <c r="O9" s="197"/>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="2"/>
-      <c r="C10" s="180" t="str">
+      <c r="C10" s="152" t="str">
         <f>記入!B9</f>
         <v>${aw.deployment}</v>
       </c>
-      <c r="D10" s="181"/>
-      <c r="E10" s="181"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="182"/>
-      <c r="H10" s="167"/>
-      <c r="I10" s="167"/>
-      <c r="J10" s="167"/>
-      <c r="K10" s="171"/>
-      <c r="L10" s="115" t="s">
+      <c r="D10" s="153"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="143"/>
+      <c r="L10" s="182" t="s">
         <v>210</v>
       </c>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="117"/>
+      <c r="M10" s="183"/>
+      <c r="N10" s="183"/>
+      <c r="O10" s="184"/>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="2"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="184"/>
-      <c r="E11" s="184"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="185"/>
-      <c r="H11" s="167"/>
-      <c r="I11" s="167"/>
-      <c r="J11" s="167" t="str">
+      <c r="C11" s="155"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="157"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="128" t="str">
         <f>記入!B35</f>
         <v>${aw.user_id}</v>
       </c>
-      <c r="K11" s="172" t="s">
+      <c r="K11" s="144" t="s">
         <v>70</v>
       </c>
-      <c r="L11" s="132" t="str">
+      <c r="L11" s="165" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M11" s="133"/>
-      <c r="N11" s="134" t="str">
+      <c r="M11" s="166"/>
+      <c r="N11" s="167" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O11" s="135"/>
+      <c r="O11" s="168"/>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="2"/>
@@ -3701,44 +3740,44 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="167"/>
-      <c r="I12" s="167"/>
-      <c r="J12" s="167"/>
-      <c r="K12" s="172"/>
-      <c r="L12" s="136" t="s">
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="144"/>
+      <c r="L12" s="169" t="s">
         <v>212</v>
       </c>
-      <c r="M12" s="137"/>
-      <c r="N12" s="137"/>
-      <c r="O12" s="138"/>
+      <c r="M12" s="170"/>
+      <c r="N12" s="170"/>
+      <c r="O12" s="171"/>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="2"/>
-      <c r="C13" s="139" t="str">
+      <c r="C13" s="172" t="str">
         <f>記入!B10</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="172"/>
-      <c r="L13" s="132" t="str">
+      <c r="D13" s="173"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="144"/>
+      <c r="L13" s="165" t="str">
         <f>記入!B20</f>
         <v>${aw.claimamount}</v>
       </c>
-      <c r="M13" s="133"/>
-      <c r="N13" s="134" t="str">
+      <c r="M13" s="166"/>
+      <c r="N13" s="167" t="str">
         <f>記入!B19</f>
         <v>${aw.currencyposition}</v>
       </c>
-      <c r="O13" s="135"/>
+      <c r="O13" s="168"/>
     </row>
     <row r="14" spans="1:15" ht="9" customHeight="1">
-      <c r="B14" s="163" t="s">
+      <c r="B14" s="124" t="s">
         <v>213</v>
       </c>
       <c r="C14" s="12"/>
@@ -3756,7 +3795,7 @@
       <c r="O14" s="27"/>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="163"/>
+      <c r="B15" s="124"/>
       <c r="C15" s="12"/>
       <c r="D15" s="13" t="s">
         <v>214</v>
@@ -3774,7 +3813,7 @@
       <c r="O15" s="28"/>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="163"/>
+      <c r="B16" s="124"/>
       <c r="C16" s="12"/>
       <c r="D16" s="13"/>
       <c r="E16" s="14" t="str">
@@ -3793,7 +3832,7 @@
       <c r="O16" s="28"/>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="163"/>
+      <c r="B17" s="124"/>
       <c r="C17" s="12"/>
       <c r="D17" s="13"/>
       <c r="E17" s="14" t="str">
@@ -3812,7 +3851,7 @@
       <c r="O17" s="28"/>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="163"/>
+      <c r="B18" s="124"/>
       <c r="C18" s="12"/>
       <c r="D18" s="2"/>
       <c r="E18" s="14" t="s">
@@ -3830,7 +3869,7 @@
       <c r="O18" s="28"/>
     </row>
     <row r="19" spans="2:15" ht="9" customHeight="1">
-      <c r="B19" s="163"/>
+      <c r="B19" s="124"/>
       <c r="C19" s="12"/>
       <c r="D19" s="2"/>
       <c r="E19" s="13"/>
@@ -3846,7 +3885,7 @@
       <c r="O19" s="28"/>
     </row>
     <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="163"/>
+      <c r="B20" s="124"/>
       <c r="C20" s="12"/>
       <c r="D20" s="13" t="s">
         <v>216</v>
@@ -3864,220 +3903,220 @@
       <c r="O20" s="28"/>
     </row>
     <row r="21" spans="2:15" ht="15" customHeight="1">
-      <c r="B21" s="163"/>
+      <c r="B21" s="124"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="153" t="s">
+      <c r="D21" s="132" t="s">
         <v>217</v>
       </c>
-      <c r="E21" s="153"/>
-      <c r="F21" s="151" t="str">
+      <c r="E21" s="132"/>
+      <c r="F21" s="119" t="str">
         <f>記入!B2</f>
         <v>${aw.custojapanese}</v>
       </c>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="151"/>
-      <c r="K21" s="151"/>
-      <c r="L21" s="151"/>
-      <c r="M21" s="151"/>
-      <c r="N21" s="151"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="119"/>
+      <c r="N21" s="119"/>
       <c r="O21" s="28"/>
     </row>
     <row r="22" spans="2:15" ht="15" customHeight="1">
-      <c r="B22" s="163"/>
+      <c r="B22" s="124"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="151"/>
-      <c r="K22" s="151"/>
-      <c r="L22" s="151"/>
-      <c r="M22" s="151"/>
-      <c r="N22" s="151"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="119"/>
       <c r="O22" s="28"/>
     </row>
     <row r="23" spans="2:15" ht="15" customHeight="1">
-      <c r="B23" s="163"/>
+      <c r="B23" s="124"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="153" t="s">
+      <c r="D23" s="132" t="s">
         <v>218</v>
       </c>
-      <c r="E23" s="153"/>
-      <c r="F23" s="151" t="str">
+      <c r="E23" s="132"/>
+      <c r="F23" s="119" t="str">
         <f>C13</f>
         <v>${aw.pjnamejapanese}</v>
       </c>
-      <c r="G23" s="151"/>
-      <c r="H23" s="151"/>
-      <c r="I23" s="151"/>
-      <c r="J23" s="151"/>
-      <c r="K23" s="151"/>
-      <c r="L23" s="151"/>
-      <c r="M23" s="151"/>
-      <c r="N23" s="151"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="119"/>
+      <c r="K23" s="119"/>
+      <c r="L23" s="119"/>
+      <c r="M23" s="119"/>
+      <c r="N23" s="119"/>
       <c r="O23" s="28"/>
     </row>
     <row r="24" spans="2:15" ht="15" customHeight="1">
-      <c r="B24" s="163"/>
+      <c r="B24" s="124"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="151"/>
-      <c r="G24" s="151"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="151"/>
-      <c r="K24" s="151"/>
-      <c r="L24" s="151"/>
-      <c r="M24" s="151"/>
-      <c r="N24" s="151"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="119"/>
+      <c r="K24" s="119"/>
+      <c r="L24" s="119"/>
+      <c r="M24" s="119"/>
+      <c r="N24" s="119"/>
       <c r="O24" s="28"/>
     </row>
     <row r="25" spans="2:15" ht="15" customHeight="1">
-      <c r="B25" s="163"/>
+      <c r="B25" s="124"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="153" t="s">
+      <c r="D25" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="153"/>
-      <c r="F25" s="151" t="str">
+      <c r="E25" s="132"/>
+      <c r="F25" s="119" t="str">
         <f>記入!B12</f>
         <v>${aw.contractnumber}</v>
       </c>
-      <c r="G25" s="151"/>
-      <c r="H25" s="151"/>
-      <c r="I25" s="151"/>
-      <c r="J25" s="151"/>
-      <c r="K25" s="151"/>
-      <c r="L25" s="151"/>
-      <c r="M25" s="151"/>
-      <c r="N25" s="151"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="119"/>
+      <c r="K25" s="119"/>
+      <c r="L25" s="119"/>
+      <c r="M25" s="119"/>
+      <c r="N25" s="119"/>
       <c r="O25" s="28"/>
     </row>
     <row r="26" spans="2:15" ht="15" customHeight="1">
-      <c r="B26" s="163"/>
+      <c r="B26" s="124"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
-      <c r="N26" s="151"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="119"/>
+      <c r="J26" s="119"/>
+      <c r="K26" s="119"/>
+      <c r="L26" s="119"/>
+      <c r="M26" s="119"/>
+      <c r="N26" s="119"/>
       <c r="O26" s="28"/>
     </row>
     <row r="27" spans="2:15" ht="15" customHeight="1">
-      <c r="B27" s="163"/>
+      <c r="B27" s="124"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="153" t="s">
+      <c r="D27" s="132" t="s">
         <v>219</v>
       </c>
-      <c r="E27" s="153"/>
-      <c r="F27" s="194" t="str">
+      <c r="E27" s="132"/>
+      <c r="F27" s="177" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="G27" s="195"/>
-      <c r="H27" s="195"/>
-      <c r="I27" s="170" t="s">
+      <c r="G27" s="178"/>
+      <c r="H27" s="178"/>
+      <c r="I27" s="131" t="s">
         <v>220</v>
       </c>
-      <c r="J27" s="196" t="str">
+      <c r="J27" s="179" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="K27" s="196"/>
-      <c r="L27" s="196"/>
-      <c r="M27" s="196"/>
-      <c r="N27" s="197"/>
+      <c r="K27" s="179"/>
+      <c r="L27" s="179"/>
+      <c r="M27" s="179"/>
+      <c r="N27" s="180"/>
       <c r="O27" s="28"/>
     </row>
     <row r="28" spans="2:15" ht="15" customHeight="1">
-      <c r="B28" s="163"/>
+      <c r="B28" s="124"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="194"/>
-      <c r="G28" s="195"/>
-      <c r="H28" s="195"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="196"/>
-      <c r="K28" s="196"/>
-      <c r="L28" s="196"/>
-      <c r="M28" s="196"/>
-      <c r="N28" s="197"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="178"/>
+      <c r="H28" s="178"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="179"/>
+      <c r="K28" s="179"/>
+      <c r="L28" s="179"/>
+      <c r="M28" s="179"/>
+      <c r="N28" s="180"/>
       <c r="O28" s="28"/>
     </row>
     <row r="29" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B29" s="163"/>
+      <c r="B29" s="124"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="144" t="s">
+      <c r="D29" s="137" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="145"/>
-      <c r="F29" s="144" t="s">
+      <c r="E29" s="138"/>
+      <c r="F29" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="145"/>
-      <c r="H29" s="168" t="s">
+      <c r="G29" s="138"/>
+      <c r="H29" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="I29" s="142" t="s">
+      <c r="I29" s="161" t="s">
         <v>221</v>
       </c>
-      <c r="J29" s="143"/>
-      <c r="K29" s="193" t="s">
+      <c r="J29" s="162"/>
+      <c r="K29" s="181" t="s">
         <v>88</v>
       </c>
-      <c r="L29" s="145"/>
-      <c r="M29" s="144" t="s">
+      <c r="L29" s="138"/>
+      <c r="M29" s="137" t="s">
         <v>89</v>
       </c>
-      <c r="N29" s="145"/>
+      <c r="N29" s="138"/>
       <c r="O29" s="28"/>
     </row>
     <row r="30" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B30" s="163"/>
+      <c r="B30" s="124"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="187"/>
-      <c r="E30" s="188"/>
-      <c r="F30" s="189"/>
-      <c r="G30" s="190"/>
-      <c r="H30" s="169"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="140"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="130"/>
       <c r="I30" s="15" t="s">
         <v>90</v>
       </c>
       <c r="J30" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="K30" s="189"/>
-      <c r="L30" s="190"/>
-      <c r="M30" s="146" t="str">
+      <c r="K30" s="141"/>
+      <c r="L30" s="142"/>
+      <c r="M30" s="175" t="str">
         <f>"("&amp;記入!B19&amp;")"</f>
         <v>(${aw.currencyposition})</v>
       </c>
-      <c r="N30" s="147"/>
+      <c r="N30" s="176"/>
       <c r="O30" s="28"/>
     </row>
     <row r="31" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B31" s="163"/>
+      <c r="B31" s="124"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="187"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="148" t="s">
+      <c r="D31" s="139"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="G31" s="149"/>
+      <c r="G31" s="136"/>
       <c r="H31" s="17" t="s">
-        <v>95</v>
+        <v>232</v>
       </c>
       <c r="I31" s="29" t="s">
         <v>96</v>
@@ -4085,29 +4124,29 @@
       <c r="J31" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="K31" s="150" t="e">
+      <c r="K31" s="118" t="e">
         <f>I31+J31</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L31" s="151"/>
-      <c r="M31" s="152" t="e">
+      <c r="L31" s="119"/>
+      <c r="M31" s="116" t="e">
         <f>記入!H44</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N31" s="152"/>
+      <c r="N31" s="116"/>
       <c r="O31" s="28"/>
     </row>
     <row r="32" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B32" s="163"/>
+      <c r="B32" s="124"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="187"/>
-      <c r="E32" s="188"/>
-      <c r="F32" s="148" t="s">
+      <c r="D32" s="139"/>
+      <c r="E32" s="140"/>
+      <c r="F32" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="G32" s="149"/>
+      <c r="G32" s="136"/>
       <c r="H32" s="17" t="s">
-        <v>101</v>
+        <v>233</v>
       </c>
       <c r="I32" s="29" t="s">
         <v>102</v>
@@ -4115,29 +4154,29 @@
       <c r="J32" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="K32" s="150" t="e">
+      <c r="K32" s="118" t="e">
         <f t="shared" ref="K32:K37" si="0">I32+J32</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L32" s="151"/>
-      <c r="M32" s="152" t="e">
+      <c r="L32" s="119"/>
+      <c r="M32" s="116" t="e">
         <f>記入!H45</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N32" s="152"/>
+      <c r="N32" s="116"/>
       <c r="O32" s="28"/>
     </row>
     <row r="33" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B33" s="163"/>
+      <c r="B33" s="124"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="187"/>
-      <c r="E33" s="188"/>
-      <c r="F33" s="148" t="s">
+      <c r="D33" s="139"/>
+      <c r="E33" s="140"/>
+      <c r="F33" s="135" t="s">
         <v>106</v>
       </c>
-      <c r="G33" s="149"/>
+      <c r="G33" s="136"/>
       <c r="H33" s="17" t="s">
-        <v>107</v>
+        <v>234</v>
       </c>
       <c r="I33" s="29" t="s">
         <v>108</v>
@@ -4145,29 +4184,29 @@
       <c r="J33" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="K33" s="150" t="e">
+      <c r="K33" s="118" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L33" s="151"/>
-      <c r="M33" s="152" t="e">
+      <c r="L33" s="119"/>
+      <c r="M33" s="116" t="e">
         <f>記入!H46</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N33" s="152"/>
+      <c r="N33" s="116"/>
       <c r="O33" s="28"/>
     </row>
     <row r="34" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B34" s="163"/>
+      <c r="B34" s="124"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="187"/>
-      <c r="E34" s="188"/>
-      <c r="F34" s="148" t="s">
+      <c r="D34" s="139"/>
+      <c r="E34" s="140"/>
+      <c r="F34" s="135" t="s">
         <v>112</v>
       </c>
-      <c r="G34" s="149"/>
+      <c r="G34" s="136"/>
       <c r="H34" s="17" t="s">
-        <v>113</v>
+        <v>235</v>
       </c>
       <c r="I34" s="29" t="s">
         <v>114</v>
@@ -4175,29 +4214,29 @@
       <c r="J34" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="K34" s="150" t="e">
+      <c r="K34" s="118" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L34" s="151"/>
-      <c r="M34" s="152" t="e">
+      <c r="L34" s="119"/>
+      <c r="M34" s="116" t="e">
         <f>記入!H47</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N34" s="152"/>
+      <c r="N34" s="116"/>
       <c r="O34" s="28"/>
     </row>
     <row r="35" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B35" s="163"/>
+      <c r="B35" s="124"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="187"/>
-      <c r="E35" s="188"/>
-      <c r="F35" s="148" t="s">
+      <c r="D35" s="139"/>
+      <c r="E35" s="140"/>
+      <c r="F35" s="135" t="s">
         <v>118</v>
       </c>
-      <c r="G35" s="149"/>
+      <c r="G35" s="136"/>
       <c r="H35" s="17" t="s">
-        <v>119</v>
+        <v>236</v>
       </c>
       <c r="I35" s="29" t="s">
         <v>120</v>
@@ -4205,29 +4244,29 @@
       <c r="J35" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="K35" s="150" t="e">
+      <c r="K35" s="118" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L35" s="151"/>
-      <c r="M35" s="152" t="e">
+      <c r="L35" s="119"/>
+      <c r="M35" s="116" t="e">
         <f>記入!H48</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N35" s="152"/>
+      <c r="N35" s="116"/>
       <c r="O35" s="28"/>
     </row>
     <row r="36" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B36" s="163"/>
+      <c r="B36" s="124"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="187"/>
-      <c r="E36" s="188"/>
-      <c r="F36" s="148" t="s">
+      <c r="D36" s="139"/>
+      <c r="E36" s="140"/>
+      <c r="F36" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="G36" s="149"/>
+      <c r="G36" s="136"/>
       <c r="H36" s="17" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
       <c r="I36" s="29" t="s">
         <v>126</v>
@@ -4235,29 +4274,29 @@
       <c r="J36" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="K36" s="150" t="e">
+      <c r="K36" s="118" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L36" s="151"/>
-      <c r="M36" s="152" t="e">
+      <c r="L36" s="119"/>
+      <c r="M36" s="116" t="e">
         <f>記入!H49</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N36" s="152"/>
+      <c r="N36" s="116"/>
       <c r="O36" s="28"/>
     </row>
     <row r="37" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B37" s="163"/>
+      <c r="B37" s="124"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="187"/>
-      <c r="E37" s="188"/>
-      <c r="F37" s="148" t="s">
+      <c r="D37" s="139"/>
+      <c r="E37" s="140"/>
+      <c r="F37" s="135" t="s">
         <v>130</v>
       </c>
-      <c r="G37" s="149"/>
+      <c r="G37" s="136"/>
       <c r="H37" s="17" t="s">
-        <v>131</v>
+        <v>238</v>
       </c>
       <c r="I37" s="29" t="s">
         <v>132</v>
@@ -4265,28 +4304,28 @@
       <c r="J37" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="K37" s="150" t="e">
+      <c r="K37" s="118" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L37" s="151"/>
-      <c r="M37" s="152" t="e">
+      <c r="L37" s="119"/>
+      <c r="M37" s="116" t="e">
         <f>記入!H50</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N37" s="152"/>
+      <c r="N37" s="116"/>
       <c r="O37" s="28"/>
     </row>
     <row r="38" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B38" s="163"/>
+      <c r="B38" s="124"/>
       <c r="C38" s="12"/>
-      <c r="D38" s="189"/>
-      <c r="E38" s="190"/>
-      <c r="F38" s="153" t="s">
+      <c r="D38" s="141"/>
+      <c r="E38" s="142"/>
+      <c r="F38" s="132" t="s">
         <v>136</v>
       </c>
-      <c r="G38" s="153"/>
-      <c r="H38" s="153"/>
+      <c r="G38" s="132"/>
+      <c r="H38" s="132"/>
       <c r="I38" s="15">
         <f>記入!C51</f>
         <v>0</v>
@@ -4295,20 +4334,20 @@
         <f>記入!E51</f>
         <v>0</v>
       </c>
-      <c r="K38" s="153">
+      <c r="K38" s="132">
         <f>記入!G55</f>
         <v>0</v>
       </c>
-      <c r="L38" s="153"/>
-      <c r="M38" s="153" t="e">
+      <c r="L38" s="132"/>
+      <c r="M38" s="132" t="e">
         <f>記入!H51</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N38" s="153"/>
+      <c r="N38" s="132"/>
       <c r="O38" s="28"/>
     </row>
     <row r="39" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B39" s="163"/>
+      <c r="B39" s="124"/>
       <c r="C39" s="12"/>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
@@ -4317,19 +4356,19 @@
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
-      <c r="K39" s="154" t="s">
+      <c r="K39" s="117" t="s">
         <v>222</v>
       </c>
-      <c r="L39" s="154"/>
-      <c r="M39" s="155" t="e">
+      <c r="L39" s="117"/>
+      <c r="M39" s="164" t="e">
         <f>記入!E39</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N39" s="155"/>
+      <c r="N39" s="164"/>
       <c r="O39" s="28"/>
     </row>
     <row r="40" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B40" s="163"/>
+      <c r="B40" s="124"/>
       <c r="C40" s="12"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
@@ -4338,156 +4377,156 @@
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="19"/>
-      <c r="K40" s="154" t="s">
+      <c r="K40" s="117" t="s">
         <v>79</v>
       </c>
-      <c r="L40" s="154"/>
-      <c r="M40" s="155" t="str">
+      <c r="L40" s="117"/>
+      <c r="M40" s="164" t="str">
         <f>記入!H39</f>
         <v>${aw.rate}</v>
       </c>
-      <c r="N40" s="155"/>
+      <c r="N40" s="164"/>
       <c r="O40" s="28"/>
     </row>
     <row r="41" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B41" s="163"/>
+      <c r="B41" s="124"/>
       <c r="C41" s="12"/>
-      <c r="D41" s="153" t="s">
+      <c r="D41" s="132" t="s">
         <v>223</v>
       </c>
-      <c r="E41" s="153"/>
-      <c r="F41" s="142" t="s">
+      <c r="E41" s="132"/>
+      <c r="F41" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="143"/>
-      <c r="H41" s="156" t="s">
+      <c r="G41" s="162"/>
+      <c r="H41" s="163" t="s">
         <v>35</v>
       </c>
-      <c r="I41" s="143"/>
-      <c r="J41" s="153" t="str">
+      <c r="I41" s="162"/>
+      <c r="J41" s="132" t="str">
         <f>"請求金額"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>請求金額(${aw.currencyposition})</v>
       </c>
-      <c r="K41" s="153"/>
-      <c r="L41" s="153"/>
-      <c r="M41" s="153"/>
-      <c r="N41" s="153"/>
+      <c r="K41" s="132"/>
+      <c r="L41" s="132"/>
+      <c r="M41" s="132"/>
+      <c r="N41" s="132"/>
       <c r="O41" s="28"/>
     </row>
     <row r="42" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B42" s="163"/>
+      <c r="B42" s="124"/>
       <c r="C42" s="12"/>
-      <c r="D42" s="153" t="str">
+      <c r="D42" s="132" t="str">
         <f>IF(F42="","","第一回")</f>
         <v>第一回</v>
       </c>
-      <c r="E42" s="153"/>
-      <c r="F42" s="157" t="str">
+      <c r="E42" s="132"/>
+      <c r="F42" s="133" t="str">
         <f>IF(記入!B29="","",記入!B29)</f>
         <v>${num[0].deliverydate}</v>
       </c>
-      <c r="G42" s="158"/>
-      <c r="H42" s="157" t="str">
+      <c r="G42" s="134"/>
+      <c r="H42" s="133" t="str">
         <f>IF(記入!D29="","",記入!D29)</f>
         <v>${num[0].claimdate}</v>
       </c>
-      <c r="I42" s="158"/>
-      <c r="J42" s="152" t="str">
+      <c r="I42" s="134"/>
+      <c r="J42" s="116" t="str">
         <f>IF(記入!F29="","",記入!F29)</f>
         <v>${num[0].claimamount}</v>
       </c>
-      <c r="K42" s="152"/>
-      <c r="L42" s="152"/>
-      <c r="M42" s="152"/>
-      <c r="N42" s="152"/>
+      <c r="K42" s="116"/>
+      <c r="L42" s="116"/>
+      <c r="M42" s="116"/>
+      <c r="N42" s="116"/>
       <c r="O42" s="28"/>
     </row>
     <row r="43" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B43" s="163"/>
+      <c r="B43" s="124"/>
       <c r="C43" s="12"/>
-      <c r="D43" s="153" t="str">
+      <c r="D43" s="132" t="str">
         <f>IF(F43="","","第二回")</f>
         <v>第二回</v>
       </c>
-      <c r="E43" s="153"/>
-      <c r="F43" s="157" t="str">
+      <c r="E43" s="132"/>
+      <c r="F43" s="133" t="str">
         <f>IF(記入!B30="","",記入!B30)</f>
         <v>${num[1].deliverydate}</v>
       </c>
-      <c r="G43" s="158"/>
-      <c r="H43" s="157" t="str">
+      <c r="G43" s="134"/>
+      <c r="H43" s="133" t="str">
         <f>IF(記入!D30="","",記入!D30)</f>
         <v>${num[1].claimdate}</v>
       </c>
-      <c r="I43" s="158"/>
-      <c r="J43" s="152" t="str">
+      <c r="I43" s="134"/>
+      <c r="J43" s="116" t="str">
         <f>IF(記入!F30="","",記入!F30)</f>
         <v>${num[1].claimamount}</v>
       </c>
-      <c r="K43" s="152"/>
-      <c r="L43" s="152"/>
-      <c r="M43" s="152"/>
-      <c r="N43" s="152"/>
+      <c r="K43" s="116"/>
+      <c r="L43" s="116"/>
+      <c r="M43" s="116"/>
+      <c r="N43" s="116"/>
       <c r="O43" s="28"/>
     </row>
     <row r="44" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B44" s="163"/>
+      <c r="B44" s="124"/>
       <c r="C44" s="12"/>
-      <c r="D44" s="153" t="str">
+      <c r="D44" s="132" t="str">
         <f>IF(F44="","","第三回")</f>
         <v>第三回</v>
       </c>
-      <c r="E44" s="153"/>
-      <c r="F44" s="157" t="str">
+      <c r="E44" s="132"/>
+      <c r="F44" s="133" t="str">
         <f>IF(記入!B31="","",記入!B31)</f>
         <v>${num[2].deliverydate}</v>
       </c>
-      <c r="G44" s="158"/>
-      <c r="H44" s="157" t="str">
+      <c r="G44" s="134"/>
+      <c r="H44" s="133" t="str">
         <f>IF(記入!D31="","",記入!D31)</f>
         <v>${num[2].claimdate}</v>
       </c>
-      <c r="I44" s="158"/>
-      <c r="J44" s="152" t="str">
+      <c r="I44" s="134"/>
+      <c r="J44" s="116" t="str">
         <f>IF(記入!F31="","",記入!F31)</f>
         <v>${num[2].claimamount}</v>
       </c>
-      <c r="K44" s="152"/>
-      <c r="L44" s="152"/>
-      <c r="M44" s="152"/>
-      <c r="N44" s="152"/>
+      <c r="K44" s="116"/>
+      <c r="L44" s="116"/>
+      <c r="M44" s="116"/>
+      <c r="N44" s="116"/>
       <c r="O44" s="28"/>
     </row>
     <row r="45" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B45" s="163"/>
+      <c r="B45" s="124"/>
       <c r="C45" s="12"/>
-      <c r="D45" s="153" t="str">
+      <c r="D45" s="132" t="str">
         <f>IF(F45="","","第四回")</f>
         <v>第四回</v>
       </c>
-      <c r="E45" s="153"/>
-      <c r="F45" s="157" t="str">
+      <c r="E45" s="132"/>
+      <c r="F45" s="133" t="str">
         <f>IF(記入!B32="","",記入!B32)</f>
         <v>${num[3].deliverydate}</v>
       </c>
-      <c r="G45" s="158"/>
-      <c r="H45" s="157" t="str">
+      <c r="G45" s="134"/>
+      <c r="H45" s="133" t="str">
         <f>IF(記入!D32="","",記入!D32)</f>
         <v>${num[3].claimdate}</v>
       </c>
-      <c r="I45" s="158"/>
-      <c r="J45" s="152" t="str">
+      <c r="I45" s="134"/>
+      <c r="J45" s="116" t="str">
         <f>IF(記入!F32="","",記入!F32)</f>
         <v>${num[3].claimamount}</v>
       </c>
-      <c r="K45" s="152"/>
-      <c r="L45" s="152"/>
-      <c r="M45" s="152"/>
-      <c r="N45" s="152"/>
+      <c r="K45" s="116"/>
+      <c r="L45" s="116"/>
+      <c r="M45" s="116"/>
+      <c r="N45" s="116"/>
       <c r="O45" s="28"/>
     </row>
     <row r="46" spans="2:15" ht="21.75" customHeight="1">
-      <c r="B46" s="163"/>
+      <c r="B46" s="124"/>
       <c r="C46" s="12"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
@@ -4495,17 +4534,17 @@
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
-      <c r="J46" s="159" t="s">
+      <c r="J46" s="158" t="s">
         <v>34</v>
       </c>
-      <c r="K46" s="160"/>
-      <c r="L46" s="160"/>
-      <c r="M46" s="160"/>
-      <c r="N46" s="161"/>
+      <c r="K46" s="159"/>
+      <c r="L46" s="159"/>
+      <c r="M46" s="159"/>
+      <c r="N46" s="160"/>
       <c r="O46" s="28"/>
     </row>
     <row r="47" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="163"/>
+      <c r="B47" s="124"/>
       <c r="C47" s="12"/>
       <c r="D47" s="13" t="s">
         <v>224</v>
@@ -4523,13 +4562,13 @@
       <c r="O47" s="28"/>
     </row>
     <row r="48" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B48" s="163"/>
+      <c r="B48" s="124"/>
       <c r="C48" s="12"/>
       <c r="D48" s="13"/>
-      <c r="E48" s="125" t="s">
+      <c r="E48" s="123" t="s">
         <v>225</v>
       </c>
-      <c r="F48" s="125"/>
+      <c r="F48" s="123"/>
       <c r="G48" s="21" t="str">
         <f>記入!B40</f>
         <v>${aw.valuation}</v>
@@ -4544,13 +4583,13 @@
       <c r="O48" s="28"/>
     </row>
     <row r="49" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="163"/>
+      <c r="B49" s="124"/>
       <c r="C49" s="12"/>
       <c r="D49" s="13"/>
-      <c r="E49" s="125" t="s">
+      <c r="E49" s="123" t="s">
         <v>226</v>
       </c>
-      <c r="F49" s="125"/>
+      <c r="F49" s="123"/>
       <c r="G49" s="21" t="str">
         <f>記入!B41</f>
         <v>${aw.individual}</v>
@@ -4565,7 +4604,7 @@
       <c r="O49" s="28"/>
     </row>
     <row r="50" spans="2:15" ht="9.75" customHeight="1">
-      <c r="B50" s="163"/>
+      <c r="B50" s="124"/>
       <c r="C50" s="12"/>
       <c r="D50" s="13"/>
       <c r="E50" s="20"/>
@@ -4581,211 +4620,211 @@
       <c r="O50" s="28"/>
     </row>
     <row r="51" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="163"/>
+      <c r="B51" s="124"/>
       <c r="C51" s="12"/>
       <c r="D51" s="13" t="s">
         <v>227</v>
       </c>
       <c r="E51" s="20"/>
-      <c r="F51" s="191" t="str">
+      <c r="F51" s="121" t="str">
         <f>記入!E35</f>
         <v>${aw.remarks}</v>
       </c>
-      <c r="G51" s="191"/>
-      <c r="H51" s="191"/>
-      <c r="I51" s="191"/>
-      <c r="J51" s="191"/>
-      <c r="K51" s="191"/>
-      <c r="L51" s="191"/>
-      <c r="M51" s="191"/>
-      <c r="N51" s="191"/>
+      <c r="G51" s="121"/>
+      <c r="H51" s="121"/>
+      <c r="I51" s="121"/>
+      <c r="J51" s="121"/>
+      <c r="K51" s="121"/>
+      <c r="L51" s="121"/>
+      <c r="M51" s="121"/>
+      <c r="N51" s="121"/>
       <c r="O51" s="28"/>
     </row>
     <row r="52" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B52" s="163"/>
+      <c r="B52" s="124"/>
       <c r="C52" s="12"/>
       <c r="D52" s="13"/>
       <c r="E52" s="23"/>
-      <c r="F52" s="192"/>
-      <c r="G52" s="192"/>
-      <c r="H52" s="192"/>
-      <c r="I52" s="192"/>
-      <c r="J52" s="192"/>
-      <c r="K52" s="192"/>
-      <c r="L52" s="192"/>
-      <c r="M52" s="192"/>
-      <c r="N52" s="192"/>
+      <c r="F52" s="122"/>
+      <c r="G52" s="122"/>
+      <c r="H52" s="122"/>
+      <c r="I52" s="122"/>
+      <c r="J52" s="122"/>
+      <c r="K52" s="122"/>
+      <c r="L52" s="122"/>
+      <c r="M52" s="122"/>
+      <c r="N52" s="122"/>
       <c r="O52" s="28"/>
     </row>
     <row r="53" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B53" s="163"/>
-      <c r="C53" s="162" t="s">
+      <c r="B53" s="124"/>
+      <c r="C53" s="115" t="s">
         <v>228</v>
       </c>
-      <c r="D53" s="162"/>
-      <c r="E53" s="162"/>
-      <c r="F53" s="162" t="s">
+      <c r="D53" s="115"/>
+      <c r="E53" s="115"/>
+      <c r="F53" s="115" t="s">
         <v>229</v>
       </c>
-      <c r="G53" s="162"/>
-      <c r="H53" s="162" t="s">
+      <c r="G53" s="115"/>
+      <c r="H53" s="115" t="s">
         <v>230</v>
       </c>
-      <c r="I53" s="162"/>
-      <c r="J53" s="162" t="s">
+      <c r="I53" s="115"/>
+      <c r="J53" s="115" t="s">
         <v>229</v>
       </c>
-      <c r="K53" s="162"/>
-      <c r="L53" s="162"/>
-      <c r="M53" s="162" t="s">
+      <c r="K53" s="115"/>
+      <c r="L53" s="115"/>
+      <c r="M53" s="115" t="s">
         <v>230</v>
       </c>
-      <c r="N53" s="162"/>
-      <c r="O53" s="162"/>
+      <c r="N53" s="115"/>
+      <c r="O53" s="115"/>
     </row>
     <row r="54" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B54" s="163"/>
-      <c r="C54" s="162"/>
-      <c r="D54" s="162"/>
-      <c r="E54" s="162"/>
-      <c r="F54" s="186"/>
-      <c r="G54" s="186"/>
-      <c r="H54" s="186"/>
-      <c r="I54" s="186"/>
-      <c r="J54" s="186"/>
-      <c r="K54" s="186"/>
-      <c r="L54" s="186"/>
-      <c r="M54" s="186"/>
-      <c r="N54" s="186"/>
-      <c r="O54" s="186"/>
+      <c r="B54" s="124"/>
+      <c r="C54" s="115"/>
+      <c r="D54" s="115"/>
+      <c r="E54" s="115"/>
+      <c r="F54" s="120"/>
+      <c r="G54" s="120"/>
+      <c r="H54" s="120"/>
+      <c r="I54" s="120"/>
+      <c r="J54" s="120"/>
+      <c r="K54" s="120"/>
+      <c r="L54" s="120"/>
+      <c r="M54" s="120"/>
+      <c r="N54" s="120"/>
+      <c r="O54" s="120"/>
     </row>
     <row r="55" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="163"/>
-      <c r="C55" s="162"/>
-      <c r="D55" s="162"/>
-      <c r="E55" s="162"/>
-      <c r="F55" s="186"/>
-      <c r="G55" s="186"/>
-      <c r="H55" s="186"/>
-      <c r="I55" s="186"/>
-      <c r="J55" s="186"/>
-      <c r="K55" s="186"/>
-      <c r="L55" s="186"/>
-      <c r="M55" s="186"/>
-      <c r="N55" s="186"/>
-      <c r="O55" s="186"/>
+      <c r="B55" s="124"/>
+      <c r="C55" s="115"/>
+      <c r="D55" s="115"/>
+      <c r="E55" s="115"/>
+      <c r="F55" s="120"/>
+      <c r="G55" s="120"/>
+      <c r="H55" s="120"/>
+      <c r="I55" s="120"/>
+      <c r="J55" s="120"/>
+      <c r="K55" s="120"/>
+      <c r="L55" s="120"/>
+      <c r="M55" s="120"/>
+      <c r="N55" s="120"/>
+      <c r="O55" s="120"/>
     </row>
     <row r="56" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B56" s="163"/>
-      <c r="C56" s="162"/>
-      <c r="D56" s="162"/>
-      <c r="E56" s="162"/>
-      <c r="F56" s="186"/>
-      <c r="G56" s="186"/>
-      <c r="H56" s="186"/>
-      <c r="I56" s="186"/>
-      <c r="J56" s="186"/>
-      <c r="K56" s="186"/>
-      <c r="L56" s="186"/>
-      <c r="M56" s="186"/>
-      <c r="N56" s="186"/>
-      <c r="O56" s="186"/>
+      <c r="B56" s="124"/>
+      <c r="C56" s="115"/>
+      <c r="D56" s="115"/>
+      <c r="E56" s="115"/>
+      <c r="F56" s="120"/>
+      <c r="G56" s="120"/>
+      <c r="H56" s="120"/>
+      <c r="I56" s="120"/>
+      <c r="J56" s="120"/>
+      <c r="K56" s="120"/>
+      <c r="L56" s="120"/>
+      <c r="M56" s="120"/>
+      <c r="N56" s="120"/>
+      <c r="O56" s="120"/>
     </row>
     <row r="57" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="163"/>
-      <c r="C57" s="162"/>
-      <c r="D57" s="162"/>
-      <c r="E57" s="162"/>
-      <c r="F57" s="186"/>
-      <c r="G57" s="186"/>
-      <c r="H57" s="186"/>
-      <c r="I57" s="186"/>
-      <c r="J57" s="186"/>
-      <c r="K57" s="186"/>
-      <c r="L57" s="186"/>
-      <c r="M57" s="186"/>
-      <c r="N57" s="186"/>
-      <c r="O57" s="186"/>
+      <c r="B57" s="124"/>
+      <c r="C57" s="115"/>
+      <c r="D57" s="115"/>
+      <c r="E57" s="115"/>
+      <c r="F57" s="120"/>
+      <c r="G57" s="120"/>
+      <c r="H57" s="120"/>
+      <c r="I57" s="120"/>
+      <c r="J57" s="120"/>
+      <c r="K57" s="120"/>
+      <c r="L57" s="120"/>
+      <c r="M57" s="120"/>
+      <c r="N57" s="120"/>
+      <c r="O57" s="120"/>
     </row>
     <row r="58" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B58" s="163"/>
-      <c r="C58" s="162"/>
-      <c r="D58" s="162"/>
-      <c r="E58" s="162"/>
-      <c r="F58" s="186"/>
-      <c r="G58" s="186"/>
-      <c r="H58" s="186"/>
-      <c r="I58" s="186"/>
-      <c r="J58" s="186"/>
-      <c r="K58" s="186"/>
-      <c r="L58" s="186"/>
-      <c r="M58" s="186"/>
-      <c r="N58" s="186"/>
-      <c r="O58" s="186"/>
+      <c r="B58" s="124"/>
+      <c r="C58" s="115"/>
+      <c r="D58" s="115"/>
+      <c r="E58" s="115"/>
+      <c r="F58" s="120"/>
+      <c r="G58" s="120"/>
+      <c r="H58" s="120"/>
+      <c r="I58" s="120"/>
+      <c r="J58" s="120"/>
+      <c r="K58" s="120"/>
+      <c r="L58" s="120"/>
+      <c r="M58" s="120"/>
+      <c r="N58" s="120"/>
+      <c r="O58" s="120"/>
     </row>
     <row r="59" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B59" s="163"/>
-      <c r="C59" s="162"/>
-      <c r="D59" s="162"/>
-      <c r="E59" s="162"/>
-      <c r="F59" s="186"/>
-      <c r="G59" s="186"/>
-      <c r="H59" s="186"/>
-      <c r="I59" s="186"/>
-      <c r="J59" s="186"/>
-      <c r="K59" s="186"/>
-      <c r="L59" s="186"/>
-      <c r="M59" s="186"/>
-      <c r="N59" s="186"/>
-      <c r="O59" s="186"/>
+      <c r="B59" s="124"/>
+      <c r="C59" s="115"/>
+      <c r="D59" s="115"/>
+      <c r="E59" s="115"/>
+      <c r="F59" s="120"/>
+      <c r="G59" s="120"/>
+      <c r="H59" s="120"/>
+      <c r="I59" s="120"/>
+      <c r="J59" s="120"/>
+      <c r="K59" s="120"/>
+      <c r="L59" s="120"/>
+      <c r="M59" s="120"/>
+      <c r="N59" s="120"/>
+      <c r="O59" s="120"/>
     </row>
     <row r="60" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B60" s="163"/>
-      <c r="C60" s="162"/>
-      <c r="D60" s="162"/>
-      <c r="E60" s="162"/>
-      <c r="F60" s="186"/>
-      <c r="G60" s="186"/>
-      <c r="H60" s="186"/>
-      <c r="I60" s="186"/>
-      <c r="J60" s="186"/>
-      <c r="K60" s="186"/>
-      <c r="L60" s="186"/>
-      <c r="M60" s="186"/>
-      <c r="N60" s="186"/>
-      <c r="O60" s="186"/>
+      <c r="B60" s="124"/>
+      <c r="C60" s="115"/>
+      <c r="D60" s="115"/>
+      <c r="E60" s="115"/>
+      <c r="F60" s="120"/>
+      <c r="G60" s="120"/>
+      <c r="H60" s="120"/>
+      <c r="I60" s="120"/>
+      <c r="J60" s="120"/>
+      <c r="K60" s="120"/>
+      <c r="L60" s="120"/>
+      <c r="M60" s="120"/>
+      <c r="N60" s="120"/>
+      <c r="O60" s="120"/>
     </row>
     <row r="61" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B61" s="163"/>
-      <c r="C61" s="162"/>
-      <c r="D61" s="162"/>
-      <c r="E61" s="162"/>
-      <c r="F61" s="186"/>
-      <c r="G61" s="186"/>
-      <c r="H61" s="186"/>
-      <c r="I61" s="186"/>
-      <c r="J61" s="186"/>
-      <c r="K61" s="186"/>
-      <c r="L61" s="186"/>
-      <c r="M61" s="186"/>
-      <c r="N61" s="186"/>
-      <c r="O61" s="186"/>
+      <c r="B61" s="124"/>
+      <c r="C61" s="115"/>
+      <c r="D61" s="115"/>
+      <c r="E61" s="115"/>
+      <c r="F61" s="120"/>
+      <c r="G61" s="120"/>
+      <c r="H61" s="120"/>
+      <c r="I61" s="120"/>
+      <c r="J61" s="120"/>
+      <c r="K61" s="120"/>
+      <c r="L61" s="120"/>
+      <c r="M61" s="120"/>
+      <c r="N61" s="120"/>
+      <c r="O61" s="120"/>
     </row>
     <row r="62" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B62" s="163"/>
-      <c r="C62" s="162"/>
-      <c r="D62" s="162"/>
-      <c r="E62" s="162"/>
-      <c r="F62" s="186"/>
-      <c r="G62" s="186"/>
-      <c r="H62" s="186"/>
-      <c r="I62" s="186"/>
-      <c r="J62" s="186"/>
-      <c r="K62" s="186"/>
-      <c r="L62" s="186"/>
-      <c r="M62" s="186"/>
-      <c r="N62" s="186"/>
-      <c r="O62" s="186"/>
+      <c r="B62" s="124"/>
+      <c r="C62" s="115"/>
+      <c r="D62" s="115"/>
+      <c r="E62" s="115"/>
+      <c r="F62" s="120"/>
+      <c r="G62" s="120"/>
+      <c r="H62" s="120"/>
+      <c r="I62" s="120"/>
+      <c r="J62" s="120"/>
+      <c r="K62" s="120"/>
+      <c r="L62" s="120"/>
+      <c r="M62" s="120"/>
+      <c r="N62" s="120"/>
+      <c r="O62" s="120"/>
     </row>
     <row r="63" spans="2:15" ht="14.25">
       <c r="C63" s="24" t="s">
@@ -4798,51 +4837,27 @@
     <protectedRange sqref="J31:J37" name="範囲3_2"/>
   </protectedRanges>
   <mergeCells count="116">
-    <mergeCell ref="J60:L62"/>
-    <mergeCell ref="M60:O62"/>
-    <mergeCell ref="C53:E62"/>
-    <mergeCell ref="J54:L56"/>
-    <mergeCell ref="M54:O56"/>
-    <mergeCell ref="J57:L59"/>
-    <mergeCell ref="M57:O59"/>
-    <mergeCell ref="F51:N52"/>
-    <mergeCell ref="K29:L30"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="H57:I59"/>
-    <mergeCell ref="F60:G62"/>
-    <mergeCell ref="H60:I62"/>
-    <mergeCell ref="F54:G56"/>
-    <mergeCell ref="H54:I56"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="D27:E28"/>
-    <mergeCell ref="D29:E38"/>
-    <mergeCell ref="F21:N22"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
     <mergeCell ref="F23:N24"/>
     <mergeCell ref="F25:N26"/>
     <mergeCell ref="F27:H28"/>
     <mergeCell ref="J27:N28"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="B14:B62"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="K29:L30"/>
+    <mergeCell ref="F29:G30"/>
     <mergeCell ref="G4:K8"/>
     <mergeCell ref="D3:E8"/>
     <mergeCell ref="C10:G11"/>
@@ -4863,22 +4878,19 @@
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:N43"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="K39:L39"/>
     <mergeCell ref="M39:N39"/>
     <mergeCell ref="K40:L40"/>
     <mergeCell ref="M40:N40"/>
     <mergeCell ref="F34:G34"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="D27:E28"/>
+    <mergeCell ref="D29:E38"/>
+    <mergeCell ref="F21:N22"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K11:K13"/>
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="F35:G35"/>
@@ -4887,33 +4899,60 @@
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="K36:L36"/>
     <mergeCell ref="M36:N36"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="L12:O12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="B14:B62"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="J60:L62"/>
+    <mergeCell ref="M60:O62"/>
+    <mergeCell ref="C53:E62"/>
+    <mergeCell ref="J54:L56"/>
+    <mergeCell ref="M54:O56"/>
+    <mergeCell ref="J57:L59"/>
+    <mergeCell ref="M57:O59"/>
+    <mergeCell ref="F51:N52"/>
+    <mergeCell ref="H57:I59"/>
+    <mergeCell ref="F60:G62"/>
+    <mergeCell ref="H60:I62"/>
+    <mergeCell ref="F54:G56"/>
+    <mergeCell ref="H54:I56"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="J43:N43"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/controller/src/main/resources/jxls_templates/juecaishu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/juecaishu_shoutuo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19420" windowHeight="7430" tabRatio="570"/>
+    <workbookView windowWidth="19200" windowHeight="7140" tabRatio="570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="265">
   <si>
     <t>■以下の内容は契約管理ツールで自動生成</t>
   </si>
@@ -415,22 +415,7 @@
     <t>${alist[0].budgetcode}</t>
   </si>
   <si>
-    <t>${alist[0].depart}</t>
-  </si>
-  <si>
-    <t>${alist[0].member}</t>
-  </si>
-  <si>
-    <t>${alist[0].community}</t>
-  </si>
-  <si>
-    <t>${alist[0].outsource}</t>
-  </si>
-  <si>
-    <t>${alist[0].outcommunity}</t>
-  </si>
-  <si>
-    <t>${alist[0].worknumber}</t>
+    <t>-</t>
   </si>
   <si>
     <t>${alist[0].awardmoney}</t>
@@ -454,7 +439,7 @@
     <t>${alist[1].outcommunity}</t>
   </si>
   <si>
-    <t>${alist[1].worknumber}</t>
+    <t>${aw.commdepartment}</t>
   </si>
   <si>
     <t>${alist[1].awardmoney}</t>
@@ -478,9 +463,6 @@
     <t>${alist[2].outcommunity}</t>
   </si>
   <si>
-    <t>${alist[2].worknumber}</t>
-  </si>
-  <si>
     <t>${alist[2].awardmoney}</t>
   </si>
   <si>
@@ -502,9 +484,6 @@
     <t>${alist[3].outcommunity}</t>
   </si>
   <si>
-    <t>${alist[3].worknumber}</t>
-  </si>
-  <si>
     <t>${alist[3].awardmoney}</t>
   </si>
   <si>
@@ -526,9 +505,6 @@
     <t>${alist[4].outcommunity}</t>
   </si>
   <si>
-    <t>${alist[4].worknumber}</t>
-  </si>
-  <si>
     <t>${alist[4].awardmoney}</t>
   </si>
   <si>
@@ -550,9 +526,6 @@
     <t>${alist[5].outcommunity}</t>
   </si>
   <si>
-    <t>${alist[5].worknumber}</t>
-  </si>
-  <si>
     <t>${alist[5].awardmoney}</t>
   </si>
   <si>
@@ -574,9 +547,6 @@
     <t>${alist[6].outcommunity}</t>
   </si>
   <si>
-    <t>${alist[6].worknumber}</t>
-  </si>
-  <si>
     <t>${alist[6].awardmoney}</t>
   </si>
   <si>
@@ -586,13 +556,7 @@
     <t>${aw.numbermoth}</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>${aw.extrinsic}</t>
-  </si>
-  <si>
-    <t>${aw.commdepartment}</t>
   </si>
   <si>
     <t>${aw.commission}</t>
@@ -914,6 +878,12 @@
     <t>1．目的</t>
   </si>
   <si>
+    <t>${aw.deployment}は</t>
+  </si>
+  <si>
+    <t>${aw.custojapanese}から</t>
+  </si>
+  <si>
     <t>本プロジェクトが受託されるので、以下内容の通り委託個別契約書を締結する。</t>
   </si>
   <si>
@@ -938,22 +908,49 @@
     <t>${alist[0].companyen}</t>
   </si>
   <si>
+    <t>${alist[0].member}</t>
+  </si>
+  <si>
+    <t>${alist[0].outsource}</t>
+  </si>
+  <si>
+    <t>${alist[0].worknumber}</t>
+  </si>
+  <si>
     <t>${alist[1].companyend}</t>
   </si>
   <si>
+    <t>${alist[1].worknumber}</t>
+  </si>
+  <si>
     <t>${alist[2].companyend}</t>
   </si>
   <si>
+    <t>${alist[2].worknumber}</t>
+  </si>
+  <si>
     <t>${alist[3].companyend}</t>
   </si>
   <si>
+    <t>${alist[3].worknumber}</t>
+  </si>
+  <si>
     <t>${alist[4].companyend}</t>
   </si>
   <si>
+    <t>${alist[4].worknumber}</t>
+  </si>
+  <si>
     <t>${alist[5].companyend}</t>
   </si>
   <si>
+    <t>${alist[5].worknumber}</t>
+  </si>
+  <si>
     <t>${alist[6].companyend}</t>
+  </si>
+  <si>
+    <t>${alist[6].worknumber}</t>
   </si>
   <si>
     <t>PJ計画限界利益率</t>
@@ -992,15 +989,15 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
-    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="179" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="181" formatCode="0_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -1103,30 +1100,9 @@
       <charset val="128"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1140,15 +1116,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1157,6 +1154,28 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1171,25 +1190,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1201,43 +1205,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1259,12 +1237,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="MS PGothic"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="MS PGothic"/>
       <charset val="128"/>
@@ -1274,6 +1265,12 @@
       <sz val="9"/>
       <name val="MS PGothic"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="MS PGothic"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="38">
@@ -1315,13 +1312,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1333,85 +1468,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1423,79 +1486,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1740,6 +1737,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1760,45 +1787,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1837,165 +1825,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2305,7 +2302,7 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2314,7 +2311,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2323,13 +2320,13 @@
     <xf numFmtId="10" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
@@ -2506,13 +2503,22 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="14" fillId="6" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="14" fillId="6" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2531,7 +2537,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="10" fillId="2" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="10" fillId="2" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2560,7 +2566,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="2" borderId="14" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="5" fillId="2" borderId="14" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2917,8 +2923,8 @@
   <sheetPr/>
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5" outlineLevelCol="7"/>
@@ -3518,541 +3524,531 @@
         <v>100</v>
       </c>
       <c r="C44" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="G44" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="H44" s="102" t="s">
         <v>101</v>
-      </c>
-      <c r="D44" s="102" t="s">
-        <v>102</v>
-      </c>
-      <c r="E44" s="102" t="s">
-        <v>103</v>
-      </c>
-      <c r="F44" s="102" t="s">
-        <v>104</v>
-      </c>
-      <c r="G44" s="102" t="s">
-        <v>105</v>
-      </c>
-      <c r="H44" s="102" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:8">
       <c r="A45" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="102" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" s="102" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="48" t="s">
+      <c r="G45" s="169" t="s">
         <v>108</v>
       </c>
-      <c r="C45" s="102" t="s">
+      <c r="H45" s="102" t="s">
         <v>109</v>
-      </c>
-      <c r="D45" s="102" t="s">
-        <v>110</v>
-      </c>
-      <c r="E45" s="102" t="s">
-        <v>111</v>
-      </c>
-      <c r="F45" s="102" t="s">
-        <v>112</v>
-      </c>
-      <c r="G45" s="102" t="s">
-        <v>113</v>
-      </c>
-      <c r="H45" s="102" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:8">
       <c r="A46" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="102" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="102" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" s="102" t="s">
+        <v>114</v>
+      </c>
+      <c r="F46" s="102" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="48" t="s">
+      <c r="G46" s="170"/>
+      <c r="H46" s="102" t="s">
         <v>116</v>
-      </c>
-      <c r="C46" s="102" t="s">
-        <v>117</v>
-      </c>
-      <c r="D46" s="102" t="s">
-        <v>118</v>
-      </c>
-      <c r="E46" s="102" t="s">
-        <v>119</v>
-      </c>
-      <c r="F46" s="102" t="s">
-        <v>120</v>
-      </c>
-      <c r="G46" s="102" t="s">
-        <v>121</v>
-      </c>
-      <c r="H46" s="102" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="47" ht="15" spans="1:8">
       <c r="A47" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="102" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" s="102" t="s">
+        <v>120</v>
+      </c>
+      <c r="E47" s="102" t="s">
+        <v>121</v>
+      </c>
+      <c r="F47" s="102" t="s">
+        <v>122</v>
+      </c>
+      <c r="G47" s="170"/>
+      <c r="H47" s="102" t="s">
         <v>123</v>
-      </c>
-      <c r="B47" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47" s="102" t="s">
-        <v>125</v>
-      </c>
-      <c r="D47" s="102" t="s">
-        <v>126</v>
-      </c>
-      <c r="E47" s="102" t="s">
-        <v>127</v>
-      </c>
-      <c r="F47" s="102" t="s">
-        <v>128</v>
-      </c>
-      <c r="G47" s="102" t="s">
-        <v>129</v>
-      </c>
-      <c r="H47" s="102" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="48" ht="15" spans="1:8">
       <c r="A48" s="35" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C48" s="102" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D48" s="102" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E48" s="102" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F48" s="102" t="s">
-        <v>136</v>
-      </c>
-      <c r="G48" s="102" t="s">
-        <v>137</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G48" s="170"/>
       <c r="H48" s="102" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" ht="15" spans="1:8">
       <c r="A49" s="35" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C49" s="102" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D49" s="102" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E49" s="102" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F49" s="102" t="s">
-        <v>144</v>
-      </c>
-      <c r="G49" s="102" t="s">
-        <v>145</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G49" s="170"/>
       <c r="H49" s="102" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:8">
       <c r="A50" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" s="102" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50" s="102" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="F50" s="102" t="s">
+        <v>143</v>
+      </c>
+      <c r="G50" s="171"/>
+      <c r="H50" s="102" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" ht="15" spans="1:8">
+      <c r="A51" s="172" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" s="173"/>
+      <c r="C51" s="174" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="174" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" s="174" t="s">
         <v>147</v>
       </c>
-      <c r="B50" s="48" t="s">
+      <c r="F51" s="174" t="s">
+        <v>100</v>
+      </c>
+      <c r="G51" s="174" t="s">
+        <v>108</v>
+      </c>
+      <c r="H51" s="174" t="s">
         <v>148</v>
-      </c>
-      <c r="C50" s="102" t="s">
-        <v>149</v>
-      </c>
-      <c r="D50" s="102" t="s">
-        <v>150</v>
-      </c>
-      <c r="E50" s="102" t="s">
-        <v>151</v>
-      </c>
-      <c r="F50" s="102" t="s">
-        <v>152</v>
-      </c>
-      <c r="G50" s="102" t="s">
-        <v>153</v>
-      </c>
-      <c r="H50" s="102" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="51" ht="15" spans="1:8">
-      <c r="A51" s="169" t="s">
-        <v>155</v>
-      </c>
-      <c r="B51" s="170"/>
-      <c r="C51" s="171" t="s">
-        <v>156</v>
-      </c>
-      <c r="D51" s="171" t="s">
-        <v>157</v>
-      </c>
-      <c r="E51" s="171" t="s">
-        <v>158</v>
-      </c>
-      <c r="F51" s="171" t="s">
-        <v>157</v>
-      </c>
-      <c r="G51" s="171" t="s">
-        <v>159</v>
-      </c>
-      <c r="H51" s="171" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="53" spans="3:8">
       <c r="C53" s="161" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53" s="175" t="s">
+        <v>150</v>
+      </c>
+      <c r="E53" s="161" t="s">
+        <v>151</v>
+      </c>
+      <c r="F53" s="163" t="s">
+        <v>152</v>
+      </c>
+      <c r="G53" s="176"/>
+      <c r="H53" s="176"/>
+    </row>
+    <row r="54" spans="3:8">
+      <c r="C54" s="176"/>
+      <c r="D54" s="177" t="s">
+        <v>153</v>
+      </c>
+      <c r="E54" s="176"/>
+      <c r="F54" s="176"/>
+      <c r="G54" s="176"/>
+      <c r="H54" s="176"/>
+    </row>
+    <row r="55" ht="24" spans="3:8">
+      <c r="C55" s="178" t="s">
+        <v>154</v>
+      </c>
+      <c r="D55" s="179" t="s">
+        <v>155</v>
+      </c>
+      <c r="E55" s="178" t="s">
+        <v>156</v>
+      </c>
+      <c r="F55" s="176"/>
+      <c r="G55" s="176"/>
+      <c r="H55" s="176"/>
+    </row>
+    <row r="56" spans="3:8">
+      <c r="C56" s="178" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56" s="180" t="s">
+        <v>158</v>
+      </c>
+      <c r="E56" s="181" t="s">
+        <v>159</v>
+      </c>
+      <c r="F56" s="176"/>
+      <c r="G56" s="176"/>
+      <c r="H56" s="176"/>
+    </row>
+    <row r="57" spans="3:8">
+      <c r="C57" s="178" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" s="180" t="s">
         <v>161</v>
       </c>
-      <c r="D53" s="172" t="s">
+      <c r="E57" s="181" t="s">
         <v>162</v>
       </c>
-      <c r="E53" s="161" t="s">
+      <c r="F57" s="176"/>
+      <c r="G57" s="176"/>
+      <c r="H57" s="176"/>
+    </row>
+    <row r="58" spans="3:8">
+      <c r="C58" s="178" t="s">
         <v>163</v>
       </c>
-      <c r="F53" s="163" t="s">
+      <c r="D58" s="180" t="s">
         <v>164</v>
       </c>
-      <c r="G53" s="173"/>
-      <c r="H53" s="173"/>
-    </row>
-    <row r="54" spans="3:8">
-      <c r="C54" s="173"/>
-      <c r="D54" s="174" t="s">
+      <c r="E58" s="181" t="s">
         <v>165</v>
       </c>
-      <c r="E54" s="173"/>
-      <c r="F54" s="173"/>
-      <c r="G54" s="173"/>
-      <c r="H54" s="173"/>
-    </row>
-    <row r="55" ht="24" spans="3:8">
-      <c r="C55" s="175" t="s">
+      <c r="F58" s="176"/>
+      <c r="G58" s="176"/>
+      <c r="H58" s="176"/>
+    </row>
+    <row r="59" spans="3:8">
+      <c r="C59" s="178" t="s">
         <v>166</v>
       </c>
-      <c r="D55" s="176" t="s">
+      <c r="D59" s="180" t="s">
         <v>167</v>
       </c>
-      <c r="E55" s="175" t="s">
+      <c r="E59" s="181" t="s">
         <v>168</v>
       </c>
-      <c r="F55" s="173"/>
-      <c r="G55" s="173"/>
-      <c r="H55" s="173"/>
-    </row>
-    <row r="56" spans="3:8">
-      <c r="C56" s="175" t="s">
+      <c r="F59" s="176"/>
+      <c r="G59" s="176"/>
+      <c r="H59" s="176"/>
+    </row>
+    <row r="60" spans="3:8">
+      <c r="C60" s="178" t="s">
         <v>169</v>
       </c>
-      <c r="D56" s="177" t="s">
+      <c r="D60" s="180" t="s">
         <v>170</v>
       </c>
-      <c r="E56" s="178" t="s">
+      <c r="E60" s="181" t="s">
         <v>171</v>
       </c>
-      <c r="F56" s="173"/>
-      <c r="G56" s="173"/>
-      <c r="H56" s="173"/>
-    </row>
-    <row r="57" spans="3:8">
-      <c r="C57" s="175" t="s">
+      <c r="F60" s="176"/>
+      <c r="G60" s="176"/>
+      <c r="H60" s="176"/>
+    </row>
+    <row r="61" spans="3:8">
+      <c r="C61" s="178" t="s">
         <v>172</v>
       </c>
-      <c r="D57" s="177" t="s">
+      <c r="D61" s="180" t="s">
         <v>173</v>
       </c>
-      <c r="E57" s="178" t="s">
+      <c r="E61" s="181" t="s">
         <v>174</v>
       </c>
-      <c r="F57" s="173"/>
-      <c r="G57" s="173"/>
-      <c r="H57" s="173"/>
-    </row>
-    <row r="58" spans="3:8">
-      <c r="C58" s="175" t="s">
+      <c r="F61" s="176"/>
+      <c r="G61" s="176"/>
+      <c r="H61" s="176"/>
+    </row>
+    <row r="62" spans="3:8">
+      <c r="C62" s="178" t="s">
         <v>175</v>
       </c>
-      <c r="D58" s="177" t="s">
+      <c r="D62" s="180" t="s">
         <v>176</v>
       </c>
-      <c r="E58" s="178" t="s">
+      <c r="E62" s="181" t="s">
         <v>177</v>
       </c>
-      <c r="F58" s="173"/>
-      <c r="G58" s="173"/>
-      <c r="H58" s="173"/>
-    </row>
-    <row r="59" spans="3:8">
-      <c r="C59" s="175" t="s">
+      <c r="F62" s="176"/>
+      <c r="G62" s="176"/>
+      <c r="H62" s="176"/>
+    </row>
+    <row r="63" spans="3:8">
+      <c r="C63" s="182" t="s">
         <v>178</v>
       </c>
-      <c r="D59" s="177" t="s">
+      <c r="D63" s="180" t="s">
         <v>179</v>
       </c>
-      <c r="E59" s="178" t="s">
+      <c r="E63" s="181" t="s">
         <v>180</v>
       </c>
-      <c r="F59" s="173"/>
-      <c r="G59" s="173"/>
-      <c r="H59" s="173"/>
-    </row>
-    <row r="60" spans="3:8">
-      <c r="C60" s="175" t="s">
+      <c r="F63" s="176"/>
+      <c r="G63" s="176"/>
+      <c r="H63" s="176"/>
+    </row>
+    <row r="64" spans="3:8">
+      <c r="C64" s="182" t="s">
         <v>181</v>
       </c>
-      <c r="D60" s="177" t="s">
+      <c r="D64" s="180" t="s">
         <v>182</v>
       </c>
-      <c r="E60" s="178" t="s">
+      <c r="E64" s="181" t="s">
         <v>183</v>
       </c>
-      <c r="F60" s="173"/>
-      <c r="G60" s="173"/>
-      <c r="H60" s="173"/>
-    </row>
-    <row r="61" spans="3:8">
-      <c r="C61" s="175" t="s">
+      <c r="F64" s="176"/>
+      <c r="G64" s="176"/>
+      <c r="H64" s="176"/>
+    </row>
+    <row r="65" spans="3:8">
+      <c r="C65" s="182" t="s">
         <v>184</v>
       </c>
-      <c r="D61" s="177" t="s">
+      <c r="D65" s="180" t="s">
         <v>185</v>
       </c>
-      <c r="E61" s="178" t="s">
+      <c r="E65" s="181" t="s">
         <v>186</v>
       </c>
-      <c r="F61" s="173"/>
-      <c r="G61" s="173"/>
-      <c r="H61" s="173"/>
-    </row>
-    <row r="62" spans="3:8">
-      <c r="C62" s="175" t="s">
+      <c r="F65" s="176"/>
+      <c r="G65" s="176"/>
+      <c r="H65" s="176"/>
+    </row>
+    <row r="66" spans="3:8">
+      <c r="C66" s="182" t="s">
         <v>187</v>
       </c>
-      <c r="D62" s="177" t="s">
+      <c r="D66" s="180" t="s">
         <v>188</v>
       </c>
-      <c r="E62" s="178" t="s">
+      <c r="E66" s="181" t="s">
         <v>189</v>
       </c>
-      <c r="F62" s="173"/>
-      <c r="G62" s="173"/>
-      <c r="H62" s="173"/>
-    </row>
-    <row r="63" spans="3:8">
-      <c r="C63" s="179" t="s">
+      <c r="F66" s="176"/>
+      <c r="G66" s="176"/>
+      <c r="H66" s="176"/>
+    </row>
+    <row r="67" spans="3:8">
+      <c r="C67" s="183" t="s">
         <v>190</v>
       </c>
-      <c r="D63" s="177" t="s">
+      <c r="D67" s="180" t="s">
         <v>191</v>
       </c>
-      <c r="E63" s="178" t="s">
+      <c r="E67" s="181" t="s">
         <v>192</v>
       </c>
-      <c r="F63" s="173"/>
-      <c r="G63" s="173"/>
-      <c r="H63" s="173"/>
-    </row>
-    <row r="64" spans="3:8">
-      <c r="C64" s="179" t="s">
+      <c r="F67" s="176"/>
+      <c r="G67" s="176"/>
+      <c r="H67" s="176"/>
+    </row>
+    <row r="68" spans="3:8">
+      <c r="C68" s="182" t="s">
         <v>193</v>
       </c>
-      <c r="D64" s="177" t="s">
+      <c r="D68" s="180" t="s">
         <v>194</v>
       </c>
-      <c r="E64" s="178" t="s">
+      <c r="E68" s="181" t="s">
         <v>195</v>
       </c>
-      <c r="F64" s="173"/>
-      <c r="G64" s="173"/>
-      <c r="H64" s="173"/>
-    </row>
-    <row r="65" spans="3:8">
-      <c r="C65" s="179" t="s">
+      <c r="F68" s="176"/>
+      <c r="G68" s="176"/>
+      <c r="H68" s="176"/>
+    </row>
+    <row r="69" spans="3:8">
+      <c r="C69" s="183" t="s">
         <v>196</v>
       </c>
-      <c r="D65" s="177" t="s">
+      <c r="D69" s="180" t="s">
         <v>197</v>
       </c>
-      <c r="E65" s="178" t="s">
+      <c r="E69" s="181" t="s">
         <v>198</v>
       </c>
-      <c r="F65" s="173"/>
-      <c r="G65" s="173"/>
-      <c r="H65" s="173"/>
-    </row>
-    <row r="66" spans="3:8">
-      <c r="C66" s="179" t="s">
+      <c r="F69" s="176"/>
+      <c r="G69" s="176"/>
+      <c r="H69" s="176"/>
+    </row>
+    <row r="70" spans="3:8">
+      <c r="C70" s="184" t="s">
         <v>199</v>
       </c>
-      <c r="D66" s="177" t="s">
+      <c r="D70" s="180" t="s">
         <v>200</v>
       </c>
-      <c r="E66" s="178" t="s">
+      <c r="E70" s="181" t="s">
         <v>201</v>
       </c>
-      <c r="F66" s="173"/>
-      <c r="G66" s="173"/>
-      <c r="H66" s="173"/>
-    </row>
-    <row r="67" spans="3:8">
-      <c r="C67" s="180" t="s">
+      <c r="F70" s="176"/>
+      <c r="G70" s="176"/>
+      <c r="H70" s="176"/>
+    </row>
+    <row r="71" spans="3:8">
+      <c r="C71" s="183" t="s">
         <v>202</v>
       </c>
-      <c r="D67" s="177" t="s">
+      <c r="D71" s="183"/>
+      <c r="E71" s="185" t="s">
         <v>203</v>
       </c>
-      <c r="E67" s="178" t="s">
-        <v>204</v>
-      </c>
-      <c r="F67" s="173"/>
-      <c r="G67" s="173"/>
-      <c r="H67" s="173"/>
-    </row>
-    <row r="68" spans="3:8">
-      <c r="C68" s="179" t="s">
-        <v>205</v>
-      </c>
-      <c r="D68" s="177" t="s">
-        <v>206</v>
-      </c>
-      <c r="E68" s="178" t="s">
-        <v>207</v>
-      </c>
-      <c r="F68" s="173"/>
-      <c r="G68" s="173"/>
-      <c r="H68" s="173"/>
-    </row>
-    <row r="69" spans="3:8">
-      <c r="C69" s="180" t="s">
-        <v>208</v>
-      </c>
-      <c r="D69" s="177" t="s">
-        <v>209</v>
-      </c>
-      <c r="E69" s="178" t="s">
-        <v>210</v>
-      </c>
-      <c r="F69" s="173"/>
-      <c r="G69" s="173"/>
-      <c r="H69" s="173"/>
-    </row>
-    <row r="70" spans="3:8">
-      <c r="C70" s="181" t="s">
-        <v>211</v>
-      </c>
-      <c r="D70" s="177" t="s">
-        <v>212</v>
-      </c>
-      <c r="E70" s="178" t="s">
-        <v>213</v>
-      </c>
-      <c r="F70" s="173"/>
-      <c r="G70" s="173"/>
-      <c r="H70" s="173"/>
-    </row>
-    <row r="71" spans="3:8">
-      <c r="C71" s="180" t="s">
-        <v>214</v>
-      </c>
-      <c r="D71" s="180"/>
-      <c r="E71" s="182" t="s">
-        <v>215</v>
-      </c>
-      <c r="F71" s="173"/>
-      <c r="G71" s="173"/>
-      <c r="H71" s="173"/>
+      <c r="F71" s="176"/>
+      <c r="G71" s="176"/>
+      <c r="H71" s="176"/>
     </row>
     <row r="72" spans="3:8">
       <c r="C72" s="161" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D72" s="162"/>
-      <c r="E72" s="182" t="s">
-        <v>217</v>
-      </c>
-      <c r="F72" s="173"/>
-      <c r="G72" s="173"/>
-      <c r="H72" s="173"/>
+      <c r="E72" s="185" t="s">
+        <v>205</v>
+      </c>
+      <c r="F72" s="176"/>
+      <c r="G72" s="176"/>
+      <c r="H72" s="176"/>
     </row>
     <row r="73" ht="13" spans="2:8">
-      <c r="B73" s="183"/>
-      <c r="C73" s="184"/>
-      <c r="D73" s="185"/>
-      <c r="E73" s="186"/>
-      <c r="F73" s="173"/>
-      <c r="G73" s="173"/>
-      <c r="H73" s="173"/>
+      <c r="B73" s="186"/>
+      <c r="C73" s="187"/>
+      <c r="D73" s="188"/>
+      <c r="E73" s="189"/>
+      <c r="F73" s="176"/>
+      <c r="G73" s="176"/>
+      <c r="H73" s="176"/>
     </row>
     <row r="74" ht="14.25" customHeight="1" spans="3:8">
-      <c r="C74" s="180" t="s">
-        <v>218</v>
-      </c>
-      <c r="D74" s="180"/>
-      <c r="E74" s="182" t="s">
-        <v>219</v>
-      </c>
-      <c r="F74" s="173"/>
-      <c r="G74" s="173"/>
-      <c r="H74" s="173"/>
+      <c r="C74" s="183" t="s">
+        <v>206</v>
+      </c>
+      <c r="D74" s="183"/>
+      <c r="E74" s="185" t="s">
+        <v>207</v>
+      </c>
+      <c r="F74" s="176"/>
+      <c r="G74" s="176"/>
+      <c r="H74" s="176"/>
     </row>
     <row r="75" ht="14.25" customHeight="1" spans="3:8">
-      <c r="C75" s="180" t="s">
-        <v>220</v>
-      </c>
-      <c r="D75" s="180"/>
-      <c r="E75" s="182" t="s">
-        <v>221</v>
-      </c>
-      <c r="F75" s="173"/>
-      <c r="G75" s="173"/>
-      <c r="H75" s="173"/>
+      <c r="C75" s="183" t="s">
+        <v>208</v>
+      </c>
+      <c r="D75" s="183"/>
+      <c r="E75" s="185" t="s">
+        <v>209</v>
+      </c>
+      <c r="F75" s="176"/>
+      <c r="G75" s="176"/>
+      <c r="H75" s="176"/>
     </row>
     <row r="76" ht="14.25" customHeight="1" spans="3:8">
-      <c r="C76" s="180" t="s">
-        <v>222</v>
-      </c>
-      <c r="D76" s="180"/>
-      <c r="E76" s="182" t="s">
-        <v>223</v>
-      </c>
-      <c r="F76" s="173"/>
-      <c r="G76" s="173"/>
-      <c r="H76" s="173"/>
+      <c r="C76" s="183" t="s">
+        <v>210</v>
+      </c>
+      <c r="D76" s="183"/>
+      <c r="E76" s="185" t="s">
+        <v>211</v>
+      </c>
+      <c r="F76" s="176"/>
+      <c r="G76" s="176"/>
+      <c r="H76" s="176"/>
     </row>
     <row r="77" spans="3:8">
-      <c r="C77" s="180" t="s">
-        <v>224</v>
-      </c>
-      <c r="D77" s="180"/>
-      <c r="E77" s="182" t="s">
-        <v>225</v>
-      </c>
-      <c r="F77" s="173"/>
-      <c r="G77" s="173"/>
-      <c r="H77" s="173"/>
+      <c r="C77" s="183" t="s">
+        <v>212</v>
+      </c>
+      <c r="D77" s="183"/>
+      <c r="E77" s="185" t="s">
+        <v>213</v>
+      </c>
+      <c r="F77" s="176"/>
+      <c r="G77" s="176"/>
+      <c r="H77" s="176"/>
     </row>
     <row r="78" spans="3:8">
-      <c r="C78" s="184"/>
-      <c r="D78" s="185"/>
-      <c r="E78" s="186"/>
-      <c r="G78" s="173"/>
-      <c r="H78" s="173"/>
+      <c r="C78" s="187"/>
+      <c r="D78" s="188"/>
+      <c r="E78" s="189"/>
+      <c r="G78" s="176"/>
+      <c r="H78" s="176"/>
     </row>
     <row r="79" ht="13.5" customHeight="1"/>
   </sheetData>
@@ -4061,7 +4057,7 @@
     <protectedRange sqref="E44:F50 G44:G50 H44:H50" name="範囲3_2"/>
     <protectedRange sqref="C44:D50" name="範囲3_3"/>
   </protectedRanges>
-  <mergeCells count="18">
+  <mergeCells count="19">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="F39:G39"/>
@@ -4076,6 +4072,7 @@
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G45:G50"/>
     <mergeCell ref="H42:H43"/>
     <mergeCell ref="G1:H32"/>
     <mergeCell ref="C35:D37"/>
@@ -4104,8 +4101,8 @@
   <sheetPr/>
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:K13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4138,13 +4135,13 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="3" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="65" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="M2" s="65"/>
       <c r="N2" s="2"/>
@@ -4153,15 +4150,15 @@
     <row r="3" ht="20.1" customHeight="1" spans="2:15">
       <c r="B3" s="2"/>
       <c r="C3" s="4" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="4" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -4185,9 +4182,8 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="70"/>
-      <c r="L4" s="71" t="str">
-        <f>記入!B37</f>
-        <v>${aw.draftingdate}</v>
+      <c r="L4" s="71" t="s">
+        <v>76</v>
       </c>
       <c r="M4" s="72"/>
       <c r="N4" s="72"/>
@@ -4217,16 +4213,15 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="4" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="70"/>
-      <c r="L6" s="74" t="str">
-        <f>記入!B38</f>
-        <v>${aw.scheduleddate}</v>
+      <c r="L6" s="74" t="s">
+        <v>78</v>
       </c>
       <c r="M6" s="75"/>
       <c r="N6" s="75"/>
@@ -4244,7 +4239,7 @@
       <c r="J7" s="11"/>
       <c r="K7" s="70"/>
       <c r="L7" s="77" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="M7" s="56"/>
       <c r="N7" s="56"/>
@@ -4269,39 +4264,37 @@
     <row r="9" ht="20.1" customHeight="1" spans="2:15">
       <c r="B9" s="2"/>
       <c r="C9" s="14" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="17" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="J9" s="17" t="s">
         <v>69</v>
       </c>
       <c r="K9" s="83" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="L9" s="67" t="s">
         <v>80</v>
       </c>
       <c r="M9" s="68"/>
-      <c r="N9" s="84" t="str">
-        <f>記入!B39</f>
-        <v>${aw.plan}</v>
+      <c r="N9" s="84" t="s">
+        <v>81</v>
       </c>
       <c r="O9" s="85"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="2:15">
       <c r="B10" s="2"/>
-      <c r="C10" s="18" t="str">
-        <f>記入!B9</f>
-        <v>${aw.deployment}</v>
+      <c r="C10" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -4312,7 +4305,7 @@
       <c r="J10" s="17"/>
       <c r="K10" s="83"/>
       <c r="L10" s="67" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="M10" s="68"/>
       <c r="N10" s="68"/>
@@ -4327,28 +4320,25 @@
       <c r="G11" s="23"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
-      <c r="J11" s="17" t="str">
-        <f>記入!B35</f>
-        <v>${aw.user_id}</v>
+      <c r="J11" s="17" t="s">
+        <v>70</v>
       </c>
       <c r="K11" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="L11" s="87" t="str">
-        <f>記入!B20</f>
-        <v>${aw.claimamount}</v>
+      <c r="L11" s="87" t="s">
+        <v>34</v>
       </c>
       <c r="M11" s="88"/>
-      <c r="N11" s="89" t="str">
-        <f>記入!B19</f>
-        <v>${aw.currencyposition}</v>
+      <c r="N11" s="89" t="s">
+        <v>32</v>
       </c>
       <c r="O11" s="90"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="2:15">
       <c r="B12" s="2"/>
       <c r="C12" s="24" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
@@ -4359,7 +4349,7 @@
       <c r="J12" s="17"/>
       <c r="K12" s="86"/>
       <c r="L12" s="91" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="M12" s="92"/>
       <c r="N12" s="92"/>
@@ -4367,9 +4357,8 @@
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="2:15">
       <c r="B13" s="2"/>
-      <c r="C13" s="27" t="str">
-        <f>記入!B10</f>
-        <v>${aw.pjnamejapanese}</v>
+      <c r="C13" s="27" t="s">
+        <v>18</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
@@ -4379,20 +4368,18 @@
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
       <c r="K13" s="86"/>
-      <c r="L13" s="87" t="str">
-        <f>記入!B20</f>
-        <v>${aw.claimamount}</v>
+      <c r="L13" s="87" t="s">
+        <v>34</v>
       </c>
       <c r="M13" s="88"/>
-      <c r="N13" s="89" t="str">
-        <f>記入!B19</f>
-        <v>${aw.currencyposition}</v>
+      <c r="N13" s="89" t="s">
+        <v>32</v>
       </c>
       <c r="O13" s="90"/>
     </row>
     <row r="14" ht="9" customHeight="1" spans="2:15">
       <c r="B14" s="30" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C14" s="31"/>
       <c r="D14" s="7"/>
@@ -4412,7 +4399,7 @@
       <c r="B15" s="30"/>
       <c r="C15" s="31"/>
       <c r="D15" s="32" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
@@ -4430,9 +4417,8 @@
       <c r="B16" s="30"/>
       <c r="C16" s="31"/>
       <c r="D16" s="32"/>
-      <c r="E16" s="33" t="str">
-        <f>C10&amp;"は"</f>
-        <v>${aw.deployment}は</v>
+      <c r="E16" s="33" t="s">
+        <v>230</v>
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
@@ -4449,9 +4435,8 @@
       <c r="B17" s="30"/>
       <c r="C17" s="31"/>
       <c r="D17" s="32"/>
-      <c r="E17" s="33" t="str">
-        <f>記入!B2&amp;"から"</f>
-        <v>${aw.custojapanese}から</v>
+      <c r="E17" s="33" t="s">
+        <v>231</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
@@ -4469,7 +4454,7 @@
       <c r="C18" s="31"/>
       <c r="D18" s="2"/>
       <c r="E18" s="33" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
@@ -4502,7 +4487,7 @@
       <c r="B20" s="30"/>
       <c r="C20" s="31"/>
       <c r="D20" s="32" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
@@ -4520,12 +4505,11 @@
       <c r="B21" s="30"/>
       <c r="C21" s="31"/>
       <c r="D21" s="34" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E21" s="34"/>
-      <c r="F21" s="35" t="str">
-        <f>記入!B2</f>
-        <v>${aw.custojapanese}</v>
+      <c r="F21" s="35" t="s">
+        <v>3</v>
       </c>
       <c r="G21" s="35"/>
       <c r="H21" s="35"/>
@@ -4557,12 +4541,11 @@
       <c r="B23" s="30"/>
       <c r="C23" s="31"/>
       <c r="D23" s="34" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E23" s="34"/>
-      <c r="F23" s="35" t="str">
-        <f>C13</f>
-        <v>${aw.pjnamejapanese}</v>
+      <c r="F23" s="35" t="s">
+        <v>18</v>
       </c>
       <c r="G23" s="35"/>
       <c r="H23" s="35"/>
@@ -4597,9 +4580,8 @@
         <v>21</v>
       </c>
       <c r="E25" s="34"/>
-      <c r="F25" s="35" t="str">
-        <f>記入!B12</f>
-        <v>${aw.contractnumber}</v>
+      <c r="F25" s="35" t="s">
+        <v>22</v>
       </c>
       <c r="G25" s="35"/>
       <c r="H25" s="35"/>
@@ -4631,21 +4613,19 @@
       <c r="B27" s="30"/>
       <c r="C27" s="31"/>
       <c r="D27" s="34" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E27" s="34"/>
-      <c r="F27" s="36" t="str">
-        <f>記入!B14</f>
-        <v>${statime[0]}</v>
+      <c r="F27" s="36" t="s">
+        <v>25</v>
       </c>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
       <c r="I27" s="96" t="s">
-        <v>247</v>
-      </c>
-      <c r="J27" s="97" t="str">
-        <f>記入!B15</f>
-        <v>${statime[1]}</v>
+        <v>237</v>
+      </c>
+      <c r="J27" s="97" t="s">
+        <v>27</v>
       </c>
       <c r="K27" s="97"/>
       <c r="L27" s="97"/>
@@ -4684,7 +4664,7 @@
         <v>91</v>
       </c>
       <c r="I29" s="51" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="J29" s="52"/>
       <c r="K29" s="99" t="s">
@@ -4713,10 +4693,7 @@
       </c>
       <c r="K30" s="43"/>
       <c r="L30" s="44"/>
-      <c r="M30" s="100" t="str">
-        <f>"("&amp;記入!B19&amp;")"</f>
-        <v>(${aw.currencyposition})</v>
-      </c>
+      <c r="M30" s="100"/>
       <c r="N30" s="101"/>
       <c r="O30" s="95"/>
     </row>
@@ -4730,21 +4707,20 @@
       </c>
       <c r="G31" s="47"/>
       <c r="H31" s="48" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="I31" s="102" t="s">
+        <v>240</v>
+      </c>
+      <c r="J31" s="102" t="s">
+        <v>241</v>
+      </c>
+      <c r="K31" s="102" t="s">
+        <v>242</v>
+      </c>
+      <c r="L31" s="35"/>
+      <c r="M31" s="103" t="s">
         <v>101</v>
-      </c>
-      <c r="J31" s="102" t="s">
-        <v>103</v>
-      </c>
-      <c r="K31" s="102" t="s">
-        <v>105</v>
-      </c>
-      <c r="L31" s="35"/>
-      <c r="M31" s="103" t="str">
-        <f>記入!H44</f>
-        <v>${alist[0].awardmoney}</v>
       </c>
       <c r="N31" s="103"/>
       <c r="O31" s="95"/>
@@ -4755,25 +4731,24 @@
       <c r="D32" s="41"/>
       <c r="E32" s="42"/>
       <c r="F32" s="46" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G32" s="47"/>
       <c r="H32" s="48" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I32" s="102" t="s">
+        <v>104</v>
+      </c>
+      <c r="J32" s="102" t="s">
+        <v>106</v>
+      </c>
+      <c r="K32" s="102" t="s">
+        <v>244</v>
+      </c>
+      <c r="L32" s="35"/>
+      <c r="M32" s="103" t="s">
         <v>109</v>
-      </c>
-      <c r="J32" s="102" t="s">
-        <v>111</v>
-      </c>
-      <c r="K32" s="102" t="s">
-        <v>113</v>
-      </c>
-      <c r="L32" s="35"/>
-      <c r="M32" s="103" t="str">
-        <f>記入!H45</f>
-        <v>${alist[1].awardmoney}</v>
       </c>
       <c r="N32" s="103"/>
       <c r="O32" s="95"/>
@@ -4784,25 +4759,24 @@
       <c r="D33" s="41"/>
       <c r="E33" s="42"/>
       <c r="F33" s="46" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G33" s="47"/>
       <c r="H33" s="48" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="I33" s="102" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="J33" s="102" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K33" s="104" t="s">
-        <v>121</v>
+        <v>246</v>
       </c>
       <c r="L33" s="105"/>
-      <c r="M33" s="103" t="str">
-        <f>記入!H46</f>
-        <v>${alist[2].awardmoney}</v>
+      <c r="M33" s="103" t="s">
+        <v>116</v>
       </c>
       <c r="N33" s="103"/>
       <c r="O33" s="95"/>
@@ -4813,25 +4787,24 @@
       <c r="D34" s="41"/>
       <c r="E34" s="42"/>
       <c r="F34" s="46" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G34" s="47"/>
       <c r="H34" s="48" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="I34" s="102" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="J34" s="102" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K34" s="104" t="s">
-        <v>129</v>
+        <v>248</v>
       </c>
       <c r="L34" s="105"/>
-      <c r="M34" s="103" t="str">
-        <f>記入!H47</f>
-        <v>${alist[3].awardmoney}</v>
+      <c r="M34" s="103" t="s">
+        <v>123</v>
       </c>
       <c r="N34" s="103"/>
       <c r="O34" s="95"/>
@@ -4842,25 +4815,24 @@
       <c r="D35" s="41"/>
       <c r="E35" s="42"/>
       <c r="F35" s="46" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G35" s="47"/>
       <c r="H35" s="48" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I35" s="102" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="J35" s="102" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K35" s="104" t="s">
-        <v>137</v>
+        <v>250</v>
       </c>
       <c r="L35" s="105"/>
-      <c r="M35" s="103" t="str">
-        <f>記入!H48</f>
-        <v>${alist[4].awardmoney}</v>
+      <c r="M35" s="103" t="s">
+        <v>130</v>
       </c>
       <c r="N35" s="103"/>
       <c r="O35" s="95"/>
@@ -4871,25 +4843,24 @@
       <c r="D36" s="41"/>
       <c r="E36" s="42"/>
       <c r="F36" s="46" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G36" s="47"/>
       <c r="H36" s="48" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I36" s="102" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J36" s="102" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K36" s="104" t="s">
-        <v>145</v>
+        <v>252</v>
       </c>
       <c r="L36" s="105"/>
-      <c r="M36" s="103" t="str">
-        <f>記入!H49</f>
-        <v>${alist[5].awardmoney}</v>
+      <c r="M36" s="103" t="s">
+        <v>137</v>
       </c>
       <c r="N36" s="103"/>
       <c r="O36" s="95"/>
@@ -4900,25 +4871,24 @@
       <c r="D37" s="41"/>
       <c r="E37" s="42"/>
       <c r="F37" s="46" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G37" s="47"/>
       <c r="H37" s="48" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I37" s="102" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J37" s="102" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="K37" s="104" t="s">
-        <v>153</v>
+        <v>254</v>
       </c>
       <c r="L37" s="105"/>
-      <c r="M37" s="103" t="str">
-        <f>記入!H50</f>
-        <v>${alist[6].awardmoney}</v>
+      <c r="M37" s="103" t="s">
+        <v>144</v>
       </c>
       <c r="N37" s="103"/>
       <c r="O37" s="95"/>
@@ -4929,26 +4899,22 @@
       <c r="D38" s="43"/>
       <c r="E38" s="44"/>
       <c r="F38" s="34" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G38" s="34"/>
       <c r="H38" s="34"/>
-      <c r="I38" s="34" t="str">
-        <f>記入!C51</f>
-        <v>${aw.numbermoth}</v>
-      </c>
-      <c r="J38" s="106" t="str">
-        <f>記入!E51</f>
-        <v>${aw.extrinsic}</v>
-      </c>
-      <c r="K38" s="34">
-        <f>記入!G55</f>
-        <v>0</v>
+      <c r="I38" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="J38" s="106" t="s">
+        <v>147</v>
+      </c>
+      <c r="K38" s="34" t="s">
+        <v>108</v>
       </c>
       <c r="L38" s="34"/>
-      <c r="M38" s="34" t="str">
-        <f>記入!H51</f>
-        <v>${aw.commission}</v>
+      <c r="M38" s="34" t="s">
+        <v>148</v>
       </c>
       <c r="N38" s="34"/>
       <c r="O38" s="95"/>
@@ -4964,12 +4930,11 @@
       <c r="I39" s="49"/>
       <c r="J39" s="49"/>
       <c r="K39" s="107" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L39" s="107"/>
-      <c r="M39" s="108" t="str">
-        <f>記入!E39</f>
-        <v>${aw.pjrate}</v>
+      <c r="M39" s="108" t="s">
+        <v>83</v>
       </c>
       <c r="N39" s="108"/>
       <c r="O39" s="95"/>
@@ -4988,9 +4953,8 @@
         <v>84</v>
       </c>
       <c r="L40" s="107"/>
-      <c r="M40" s="108" t="str">
-        <f>記入!H39</f>
-        <v>${aw.rate}</v>
+      <c r="M40" s="108" t="s">
+        <v>85</v>
       </c>
       <c r="N40" s="108"/>
       <c r="O40" s="95"/>
@@ -4999,7 +4963,7 @@
       <c r="B41" s="30"/>
       <c r="C41" s="31"/>
       <c r="D41" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E41" s="34"/>
       <c r="F41" s="51" t="s">
@@ -5011,8 +4975,8 @@
       </c>
       <c r="I41" s="52"/>
       <c r="J41" s="34" t="str">
-        <f>"請求金額"&amp;"("&amp;記入!B19&amp;")"</f>
-        <v>請求金額(${aw.currencyposition})</v>
+        <f>"請求金額"&amp;"${aw.currencyposition}"</f>
+        <v>請求金額${aw.currencyposition}</v>
       </c>
       <c r="K41" s="34"/>
       <c r="L41" s="34"/>
@@ -5023,24 +4987,20 @@
     <row r="42" ht="23.1" customHeight="1" spans="2:15">
       <c r="B42" s="30"/>
       <c r="C42" s="31"/>
-      <c r="D42" s="34" t="str">
-        <f>IF(F42="","","第一回")</f>
-        <v>第一回</v>
+      <c r="D42" s="34" t="s">
+        <v>44</v>
       </c>
       <c r="E42" s="34"/>
-      <c r="F42" s="54" t="str">
-        <f>IF(記入!B29="","",記入!B29)</f>
-        <v>${num[0].deliverydate}</v>
+      <c r="F42" s="54" t="s">
+        <v>45</v>
       </c>
       <c r="G42" s="55"/>
-      <c r="H42" s="54" t="str">
-        <f>IF(記入!D29="","",記入!D29)</f>
-        <v>${num[0].claimdate}</v>
+      <c r="H42" s="54" t="s">
+        <v>47</v>
       </c>
       <c r="I42" s="55"/>
-      <c r="J42" s="103" t="str">
-        <f>IF(記入!F29="","",記入!F29)</f>
-        <v>${num[0].claimamount}</v>
+      <c r="J42" s="103" t="s">
+        <v>49</v>
       </c>
       <c r="K42" s="103"/>
       <c r="L42" s="103"/>
@@ -5051,24 +5011,20 @@
     <row r="43" ht="23.1" customHeight="1" spans="2:15">
       <c r="B43" s="30"/>
       <c r="C43" s="31"/>
-      <c r="D43" s="34" t="str">
-        <f>IF(F43="","","第二回")</f>
-        <v>第二回</v>
+      <c r="D43" s="34" t="s">
+        <v>50</v>
       </c>
       <c r="E43" s="34"/>
-      <c r="F43" s="54" t="str">
-        <f>IF(記入!B30="","",記入!B30)</f>
-        <v>${num[1].deliverydate}</v>
+      <c r="F43" s="54" t="s">
+        <v>51</v>
       </c>
       <c r="G43" s="55"/>
-      <c r="H43" s="54" t="str">
-        <f>IF(記入!D30="","",記入!D30)</f>
-        <v>${num[1].claimdate}</v>
+      <c r="H43" s="54" t="s">
+        <v>53</v>
       </c>
       <c r="I43" s="55"/>
-      <c r="J43" s="103" t="str">
-        <f>IF(記入!F30="","",記入!F30)</f>
-        <v>${num[1].claimamount}</v>
+      <c r="J43" s="103" t="s">
+        <v>55</v>
       </c>
       <c r="K43" s="103"/>
       <c r="L43" s="103"/>
@@ -5079,24 +5035,20 @@
     <row r="44" ht="23.1" customHeight="1" spans="2:15">
       <c r="B44" s="30"/>
       <c r="C44" s="31"/>
-      <c r="D44" s="34" t="str">
-        <f>IF(F44="","","第三回")</f>
-        <v>第三回</v>
+      <c r="D44" s="34" t="s">
+        <v>56</v>
       </c>
       <c r="E44" s="34"/>
-      <c r="F44" s="54" t="str">
-        <f>IF(記入!B31="","",記入!B31)</f>
-        <v>${num[2].deliverydate}</v>
+      <c r="F44" s="54" t="s">
+        <v>57</v>
       </c>
       <c r="G44" s="55"/>
-      <c r="H44" s="54" t="str">
-        <f>IF(記入!D31="","",記入!D31)</f>
-        <v>${num[2].claimdate}</v>
+      <c r="H44" s="54" t="s">
+        <v>59</v>
       </c>
       <c r="I44" s="55"/>
-      <c r="J44" s="103" t="str">
-        <f>IF(記入!F31="","",記入!F31)</f>
-        <v>${num[2].claimamount}</v>
+      <c r="J44" s="103" t="s">
+        <v>61</v>
       </c>
       <c r="K44" s="103"/>
       <c r="L44" s="103"/>
@@ -5107,24 +5059,20 @@
     <row r="45" ht="23.1" customHeight="1" spans="2:15">
       <c r="B45" s="30"/>
       <c r="C45" s="31"/>
-      <c r="D45" s="34" t="str">
-        <f>IF(F45="","","第四回")</f>
-        <v>第四回</v>
+      <c r="D45" s="34" t="s">
+        <v>62</v>
       </c>
       <c r="E45" s="34"/>
-      <c r="F45" s="54" t="str">
-        <f>IF(記入!B32="","",記入!B32)</f>
-        <v>${num[3].deliverydate}</v>
+      <c r="F45" s="54" t="s">
+        <v>63</v>
       </c>
       <c r="G45" s="55"/>
-      <c r="H45" s="54" t="str">
-        <f>IF(記入!D32="","",記入!D32)</f>
-        <v>${num[3].claimdate}</v>
+      <c r="H45" s="54" t="s">
+        <v>65</v>
       </c>
       <c r="I45" s="55"/>
-      <c r="J45" s="103" t="str">
-        <f>IF(記入!F32="","",記入!F32)</f>
-        <v>${num[3].claimamount}</v>
+      <c r="J45" s="103" t="s">
+        <v>67</v>
       </c>
       <c r="K45" s="103"/>
       <c r="L45" s="103"/>
@@ -5141,9 +5089,7 @@
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
       <c r="I46" s="32"/>
-      <c r="J46" s="109" t="s">
-        <v>34</v>
-      </c>
+      <c r="J46" s="109"/>
       <c r="K46" s="110"/>
       <c r="L46" s="110"/>
       <c r="M46" s="110"/>
@@ -5154,7 +5100,7 @@
       <c r="B47" s="30"/>
       <c r="C47" s="31"/>
       <c r="D47" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E47" s="32"/>
       <c r="F47" s="32"/>
@@ -5173,12 +5119,11 @@
       <c r="C48" s="31"/>
       <c r="D48" s="32"/>
       <c r="E48" s="56" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F48" s="56"/>
-      <c r="G48" s="57" t="str">
-        <f>記入!B40</f>
-        <v>${aw.valuation}</v>
+      <c r="G48" s="57" t="s">
+        <v>87</v>
       </c>
       <c r="H48" s="32"/>
       <c r="I48" s="32"/>
@@ -5194,12 +5139,11 @@
       <c r="C49" s="31"/>
       <c r="D49" s="32"/>
       <c r="E49" s="56" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F49" s="56"/>
-      <c r="G49" s="57" t="str">
-        <f>記入!B41</f>
-        <v>${aw.individual}</v>
+      <c r="G49" s="57" t="s">
+        <v>89</v>
       </c>
       <c r="H49" s="32"/>
       <c r="I49" s="32"/>
@@ -5230,7 +5174,7 @@
       <c r="B51" s="30"/>
       <c r="C51" s="31"/>
       <c r="D51" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E51" s="56"/>
       <c r="F51" s="59" t="str">
@@ -5266,25 +5210,25 @@
     <row r="53" ht="20.1" customHeight="1" spans="2:15">
       <c r="B53" s="30"/>
       <c r="C53" s="62" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D53" s="62"/>
       <c r="E53" s="62"/>
       <c r="F53" s="62" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G53" s="62"/>
       <c r="H53" s="62" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I53" s="62"/>
       <c r="J53" s="62" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K53" s="62"/>
       <c r="L53" s="62"/>
       <c r="M53" s="62" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N53" s="62"/>
       <c r="O53" s="62"/>
@@ -5435,7 +5379,7 @@
     </row>
     <row r="63" ht="15" spans="3:3">
       <c r="C63" s="64" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -5443,6 +5387,7 @@
     <protectedRange sqref="I31:I37" name="範囲3_3"/>
     <protectedRange sqref="J31:J37" name="範囲3_2"/>
     <protectedRange sqref="K31:L32" name="範囲3_2_1"/>
+    <protectedRange sqref="M31:N37" name="範囲3_2_2"/>
   </protectedRanges>
   <mergeCells count="116">
     <mergeCell ref="L3:O3"/>

--- a/controller/src/main/resources/jxls_templates/juecaishu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/juecaishu_shoutuo.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="255">
   <si>
     <t>■以下の内容は契約管理ツールで自動生成</t>
   </si>
@@ -796,13 +796,13 @@
     <t>社員合計人数</t>
   </si>
   <si>
+    <t>${aw.investorspeopor}</t>
+  </si>
+  <si>
+    <t>社員コスト（元）</t>
+  </si>
+  <si>
     <t>${aw.membercost}</t>
-  </si>
-  <si>
-    <t>社員コスト（元）</t>
-  </si>
-  <si>
-    <t>${aw.investorspeopor}</t>
   </si>
   <si>
     <t>合計外注費(元)</t>
@@ -905,49 +905,19 @@
     <t>工数(人月)</t>
   </si>
   <si>
-    <t>${alist[0].companyen}</t>
-  </si>
-  <si>
-    <t>${alist[0].member}</t>
-  </si>
-  <si>
-    <t>${alist[0].outsource}</t>
-  </si>
-  <si>
-    <t>${alist[0].worknumber}</t>
-  </si>
-  <si>
-    <t>${alist[1].companyend}</t>
-  </si>
-  <si>
     <t>${alist[1].worknumber}</t>
   </si>
   <si>
-    <t>${alist[2].companyend}</t>
-  </si>
-  <si>
     <t>${alist[2].worknumber}</t>
   </si>
   <si>
-    <t>${alist[3].companyend}</t>
-  </si>
-  <si>
     <t>${alist[3].worknumber}</t>
   </si>
   <si>
-    <t>${alist[4].companyend}</t>
-  </si>
-  <si>
     <t>${alist[4].worknumber}</t>
   </si>
   <si>
-    <t>${alist[5].companyend}</t>
-  </si>
-  <si>
     <t>${alist[5].worknumber}</t>
-  </si>
-  <si>
-    <t>${alist[6].companyend}</t>
   </si>
   <si>
     <t>${alist[6].worknumber}</t>
@@ -988,14 +958,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="179" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="177" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
     <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="181" formatCode="0_ "/>
   </numFmts>
@@ -1100,23 +1070,16 @@
       <charset val="128"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1129,8 +1092,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1138,6 +1125,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1153,55 +1163,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1213,9 +1177,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1223,15 +1200,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1245,15 +1214,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1264,13 +1234,13 @@
       <b/>
       <sz val="9"/>
       <name val="MS PGothic"/>
-      <charset val="134"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="MS PGothic"/>
-      <charset val="128"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="38">
@@ -1312,49 +1282,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1372,7 +1318,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1384,13 +1384,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1402,7 +1408,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1414,55 +1426,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1474,25 +1462,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1738,45 +1708,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1800,6 +1731,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1815,13 +1770,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1834,165 +1793,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2137,6 +2107,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2302,31 +2275,28 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
@@ -2387,7 +2357,7 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2503,13 +2473,13 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2518,7 +2488,7 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="6" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="14" fillId="6" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2550,6 +2520,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="47" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2923,8 +2896,8 @@
   <sheetPr/>
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5" outlineLevelCol="7"/>
@@ -3520,25 +3493,25 @@
       <c r="A44" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="102" t="s">
+      <c r="C44" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="D44" s="102" t="s">
+      <c r="D44" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="102" t="s">
+      <c r="E44" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="F44" s="102" t="s">
+      <c r="F44" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="G44" s="102" t="s">
+      <c r="G44" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="H44" s="102" t="s">
+      <c r="H44" s="48" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3546,25 +3519,25 @@
       <c r="A45" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="B45" s="48" t="s">
+      <c r="B45" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="C45" s="102" t="s">
+      <c r="C45" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="D45" s="102" t="s">
+      <c r="D45" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="E45" s="102" t="s">
+      <c r="E45" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="F45" s="102" t="s">
+      <c r="F45" s="48" t="s">
         <v>107</v>
       </c>
       <c r="G45" s="169" t="s">
         <v>108</v>
       </c>
-      <c r="H45" s="102" t="s">
+      <c r="H45" s="48" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3572,23 +3545,23 @@
       <c r="A46" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="B46" s="48" t="s">
+      <c r="B46" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="D46" s="102" t="s">
+      <c r="D46" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="E46" s="102" t="s">
+      <c r="E46" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="F46" s="102" t="s">
+      <c r="F46" s="48" t="s">
         <v>115</v>
       </c>
       <c r="G46" s="170"/>
-      <c r="H46" s="102" t="s">
+      <c r="H46" s="48" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3596,23 +3569,23 @@
       <c r="A47" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="B47" s="48" t="s">
+      <c r="B47" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="C47" s="102" t="s">
+      <c r="C47" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="D47" s="102" t="s">
+      <c r="D47" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="E47" s="102" t="s">
+      <c r="E47" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="F47" s="102" t="s">
+      <c r="F47" s="48" t="s">
         <v>122</v>
       </c>
       <c r="G47" s="170"/>
-      <c r="H47" s="102" t="s">
+      <c r="H47" s="48" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3620,23 +3593,23 @@
       <c r="A48" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="C48" s="102" t="s">
+      <c r="C48" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="D48" s="102" t="s">
+      <c r="D48" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="E48" s="102" t="s">
+      <c r="E48" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="F48" s="102" t="s">
+      <c r="F48" s="48" t="s">
         <v>129</v>
       </c>
       <c r="G48" s="170"/>
-      <c r="H48" s="102" t="s">
+      <c r="H48" s="48" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3644,23 +3617,23 @@
       <c r="A49" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="B49" s="48" t="s">
+      <c r="B49" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="C49" s="102" t="s">
+      <c r="C49" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="D49" s="102" t="s">
+      <c r="D49" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="E49" s="102" t="s">
+      <c r="E49" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="F49" s="102" t="s">
+      <c r="F49" s="48" t="s">
         <v>136</v>
       </c>
       <c r="G49" s="170"/>
-      <c r="H49" s="102" t="s">
+      <c r="H49" s="48" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3668,23 +3641,23 @@
       <c r="A50" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="B50" s="48" t="s">
+      <c r="B50" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="C50" s="102" t="s">
+      <c r="C50" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="D50" s="102" t="s">
+      <c r="D50" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="E50" s="102" t="s">
+      <c r="E50" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="F50" s="102" t="s">
+      <c r="F50" s="48" t="s">
         <v>143</v>
       </c>
       <c r="G50" s="171"/>
-      <c r="H50" s="102" t="s">
+      <c r="H50" s="48" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3948,8 +3921,9 @@
       <c r="G69" s="176"/>
       <c r="H69" s="176"/>
     </row>
-    <row r="70" spans="3:8">
-      <c r="C70" s="184" t="s">
+    <row r="70" ht="13" spans="2:8">
+      <c r="B70" s="184"/>
+      <c r="C70" s="185" t="s">
         <v>199</v>
       </c>
       <c r="D70" s="180" t="s">
@@ -3967,7 +3941,7 @@
         <v>202</v>
       </c>
       <c r="D71" s="183"/>
-      <c r="E71" s="185" t="s">
+      <c r="E71" s="186" t="s">
         <v>203</v>
       </c>
       <c r="F71" s="176"/>
@@ -3979,7 +3953,7 @@
         <v>204</v>
       </c>
       <c r="D72" s="162"/>
-      <c r="E72" s="185" t="s">
+      <c r="E72" s="186" t="s">
         <v>205</v>
       </c>
       <c r="F72" s="176"/>
@@ -3987,10 +3961,10 @@
       <c r="H72" s="176"/>
     </row>
     <row r="73" ht="13" spans="2:8">
-      <c r="B73" s="186"/>
-      <c r="C73" s="187"/>
-      <c r="D73" s="188"/>
-      <c r="E73" s="189"/>
+      <c r="B73" s="187"/>
+      <c r="C73" s="188"/>
+      <c r="D73" s="189"/>
+      <c r="E73" s="190"/>
       <c r="F73" s="176"/>
       <c r="G73" s="176"/>
       <c r="H73" s="176"/>
@@ -4000,7 +3974,7 @@
         <v>206</v>
       </c>
       <c r="D74" s="183"/>
-      <c r="E74" s="185" t="s">
+      <c r="E74" s="186" t="s">
         <v>207</v>
       </c>
       <c r="F74" s="176"/>
@@ -4012,7 +3986,7 @@
         <v>208</v>
       </c>
       <c r="D75" s="183"/>
-      <c r="E75" s="185" t="s">
+      <c r="E75" s="186" t="s">
         <v>209</v>
       </c>
       <c r="F75" s="176"/>
@@ -4024,7 +3998,7 @@
         <v>210</v>
       </c>
       <c r="D76" s="183"/>
-      <c r="E76" s="185" t="s">
+      <c r="E76" s="186" t="s">
         <v>211</v>
       </c>
       <c r="F76" s="176"/>
@@ -4036,7 +4010,7 @@
         <v>212</v>
       </c>
       <c r="D77" s="183"/>
-      <c r="E77" s="185" t="s">
+      <c r="E77" s="186" t="s">
         <v>213</v>
       </c>
       <c r="F77" s="176"/>
@@ -4044,9 +4018,9 @@
       <c r="H77" s="176"/>
     </row>
     <row r="78" spans="3:8">
-      <c r="C78" s="187"/>
-      <c r="D78" s="188"/>
-      <c r="E78" s="189"/>
+      <c r="C78" s="188"/>
+      <c r="D78" s="189"/>
+      <c r="E78" s="190"/>
       <c r="G78" s="176"/>
       <c r="H78" s="176"/>
     </row>
@@ -4102,7 +4076,7 @@
   <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4140,10 +4114,10 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="65" t="s">
+      <c r="L2" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="M2" s="65"/>
+      <c r="M2" s="66"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
@@ -4163,13 +4137,13 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="67" t="s">
+      <c r="K3" s="67"/>
+      <c r="L3" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="70"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="2:15">
       <c r="B4" s="2"/>
@@ -4181,13 +4155,13 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="71" t="s">
+      <c r="K4" s="71"/>
+      <c r="L4" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="74"/>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="2:15">
       <c r="B5" s="2"/>
@@ -4199,13 +4173,13 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="67" t="s">
+      <c r="K5" s="71"/>
+      <c r="L5" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="70"/>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="2:15">
       <c r="B6" s="2"/>
@@ -4219,13 +4193,13 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="74" t="s">
+      <c r="K6" s="71"/>
+      <c r="L6" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="77"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="2:15">
       <c r="B7" s="2"/>
@@ -4237,13 +4211,13 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="77" t="s">
+      <c r="K7" s="71"/>
+      <c r="L7" s="78" t="s">
         <v>220</v>
       </c>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="78"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="79"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="2:15">
       <c r="B8" s="2"/>
@@ -4255,11 +4229,11 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="82"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="83"/>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="2:15">
       <c r="B9" s="2"/>
@@ -4279,17 +4253,17 @@
       <c r="J9" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="K9" s="83" t="s">
+      <c r="K9" s="84" t="s">
         <v>224</v>
       </c>
-      <c r="L9" s="67" t="s">
+      <c r="L9" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="M9" s="68"/>
-      <c r="N9" s="84" t="s">
+      <c r="M9" s="69"/>
+      <c r="N9" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="O9" s="85"/>
+      <c r="O9" s="86"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="2:15">
       <c r="B10" s="2"/>
@@ -4303,13 +4277,13 @@
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="67" t="s">
+      <c r="K10" s="84"/>
+      <c r="L10" s="68" t="s">
         <v>225</v>
       </c>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="70"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="2:15">
       <c r="B11" s="2"/>
@@ -4323,17 +4297,17 @@
       <c r="J11" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="86" t="s">
+      <c r="K11" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="L11" s="87" t="s">
+      <c r="L11" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="M11" s="88"/>
-      <c r="N11" s="89" t="s">
+      <c r="M11" s="89"/>
+      <c r="N11" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="90"/>
+      <c r="O11" s="91"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="2:15">
       <c r="B12" s="2"/>
@@ -4347,13 +4321,13 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="91" t="s">
+      <c r="K12" s="87"/>
+      <c r="L12" s="92" t="s">
         <v>227</v>
       </c>
-      <c r="M12" s="92"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="94"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="2:15">
       <c r="B13" s="2"/>
@@ -4367,15 +4341,15 @@
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="87" t="s">
+      <c r="K13" s="87"/>
+      <c r="L13" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="M13" s="88"/>
-      <c r="N13" s="89" t="s">
+      <c r="M13" s="89"/>
+      <c r="N13" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="90"/>
+      <c r="O13" s="91"/>
     </row>
     <row r="14" ht="9" customHeight="1" spans="2:15">
       <c r="B14" s="30" t="s">
@@ -4393,7 +4367,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="94"/>
+      <c r="O14" s="95"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="2:15">
       <c r="B15" s="30"/>
@@ -4411,7 +4385,7 @@
       <c r="L15" s="32"/>
       <c r="M15" s="32"/>
       <c r="N15" s="32"/>
-      <c r="O15" s="95"/>
+      <c r="O15" s="96"/>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="2:15">
       <c r="B16" s="30"/>
@@ -4429,7 +4403,7 @@
       <c r="L16" s="32"/>
       <c r="M16" s="32"/>
       <c r="N16" s="32"/>
-      <c r="O16" s="95"/>
+      <c r="O16" s="96"/>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="2:15">
       <c r="B17" s="30"/>
@@ -4447,7 +4421,7 @@
       <c r="L17" s="32"/>
       <c r="M17" s="32"/>
       <c r="N17" s="32"/>
-      <c r="O17" s="95"/>
+      <c r="O17" s="96"/>
     </row>
     <row r="18" ht="20.1" customHeight="1" spans="2:15">
       <c r="B18" s="30"/>
@@ -4465,7 +4439,7 @@
       <c r="L18" s="32"/>
       <c r="M18" s="32"/>
       <c r="N18" s="32"/>
-      <c r="O18" s="95"/>
+      <c r="O18" s="96"/>
     </row>
     <row r="19" ht="9" customHeight="1" spans="2:15">
       <c r="B19" s="30"/>
@@ -4481,7 +4455,7 @@
       <c r="L19" s="32"/>
       <c r="M19" s="32"/>
       <c r="N19" s="32"/>
-      <c r="O19" s="95"/>
+      <c r="O19" s="96"/>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="2:15">
       <c r="B20" s="30"/>
@@ -4499,7 +4473,7 @@
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
       <c r="N20" s="32"/>
-      <c r="O20" s="95"/>
+      <c r="O20" s="96"/>
     </row>
     <row r="21" ht="15" customHeight="1" spans="2:15">
       <c r="B21" s="30"/>
@@ -4519,7 +4493,7 @@
       <c r="L21" s="35"/>
       <c r="M21" s="35"/>
       <c r="N21" s="35"/>
-      <c r="O21" s="95"/>
+      <c r="O21" s="96"/>
     </row>
     <row r="22" ht="15" customHeight="1" spans="2:15">
       <c r="B22" s="30"/>
@@ -4535,7 +4509,7 @@
       <c r="L22" s="35"/>
       <c r="M22" s="35"/>
       <c r="N22" s="35"/>
-      <c r="O22" s="95"/>
+      <c r="O22" s="96"/>
     </row>
     <row r="23" ht="15" customHeight="1" spans="2:15">
       <c r="B23" s="30"/>
@@ -4555,7 +4529,7 @@
       <c r="L23" s="35"/>
       <c r="M23" s="35"/>
       <c r="N23" s="35"/>
-      <c r="O23" s="95"/>
+      <c r="O23" s="96"/>
     </row>
     <row r="24" ht="15" customHeight="1" spans="2:15">
       <c r="B24" s="30"/>
@@ -4571,7 +4545,7 @@
       <c r="L24" s="35"/>
       <c r="M24" s="35"/>
       <c r="N24" s="35"/>
-      <c r="O24" s="95"/>
+      <c r="O24" s="96"/>
     </row>
     <row r="25" ht="15" customHeight="1" spans="2:15">
       <c r="B25" s="30"/>
@@ -4591,7 +4565,7 @@
       <c r="L25" s="35"/>
       <c r="M25" s="35"/>
       <c r="N25" s="35"/>
-      <c r="O25" s="95"/>
+      <c r="O25" s="96"/>
     </row>
     <row r="26" ht="15" customHeight="1" spans="2:15">
       <c r="B26" s="30"/>
@@ -4607,7 +4581,7 @@
       <c r="L26" s="35"/>
       <c r="M26" s="35"/>
       <c r="N26" s="35"/>
-      <c r="O26" s="95"/>
+      <c r="O26" s="96"/>
     </row>
     <row r="27" ht="15" customHeight="1" spans="2:15">
       <c r="B27" s="30"/>
@@ -4621,17 +4595,17 @@
       </c>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
-      <c r="I27" s="96" t="s">
+      <c r="I27" s="97" t="s">
         <v>237</v>
       </c>
-      <c r="J27" s="97" t="s">
+      <c r="J27" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="K27" s="97"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="97"/>
-      <c r="N27" s="98"/>
-      <c r="O27" s="95"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="96"/>
     </row>
     <row r="28" ht="15" customHeight="1" spans="2:15">
       <c r="B28" s="30"/>
@@ -4641,13 +4615,13 @@
       <c r="F28" s="36"/>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="97"/>
-      <c r="K28" s="97"/>
-      <c r="L28" s="97"/>
-      <c r="M28" s="97"/>
-      <c r="N28" s="98"/>
-      <c r="O28" s="95"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="98"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="96"/>
     </row>
     <row r="29" ht="24.75" customHeight="1" spans="2:15">
       <c r="B29" s="30"/>
@@ -4663,11 +4637,11 @@
       <c r="H29" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="51" t="s">
+      <c r="I29" s="52" t="s">
         <v>238</v>
       </c>
-      <c r="J29" s="52"/>
-      <c r="K29" s="99" t="s">
+      <c r="J29" s="53"/>
+      <c r="K29" s="100" t="s">
         <v>93</v>
       </c>
       <c r="L29" s="39"/>
@@ -4675,7 +4649,7 @@
         <v>94</v>
       </c>
       <c r="N29" s="39"/>
-      <c r="O29" s="95"/>
+      <c r="O29" s="96"/>
     </row>
     <row r="30" ht="24.75" customHeight="1" spans="2:15">
       <c r="B30" s="30"/>
@@ -4693,9 +4667,9 @@
       </c>
       <c r="K30" s="43"/>
       <c r="L30" s="44"/>
-      <c r="M30" s="100"/>
-      <c r="N30" s="101"/>
-      <c r="O30" s="95"/>
+      <c r="M30" s="101"/>
+      <c r="N30" s="102"/>
+      <c r="O30" s="96"/>
     </row>
     <row r="31" ht="24.95" customHeight="1" spans="2:15">
       <c r="B31" s="30"/>
@@ -4707,23 +4681,23 @@
       </c>
       <c r="G31" s="47"/>
       <c r="H31" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="I31" s="102" t="s">
-        <v>240</v>
-      </c>
-      <c r="J31" s="102" t="s">
-        <v>241</v>
-      </c>
-      <c r="K31" s="102" t="s">
-        <v>242</v>
+        <v>100</v>
+      </c>
+      <c r="I31" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="J31" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="K31" s="48" t="s">
+        <v>100</v>
       </c>
       <c r="L31" s="35"/>
       <c r="M31" s="103" t="s">
         <v>101</v>
       </c>
       <c r="N31" s="103"/>
-      <c r="O31" s="95"/>
+      <c r="O31" s="96"/>
     </row>
     <row r="32" ht="24.95" customHeight="1" spans="2:15">
       <c r="B32" s="30"/>
@@ -4734,24 +4708,24 @@
         <v>102</v>
       </c>
       <c r="G32" s="47"/>
-      <c r="H32" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="I32" s="102" t="s">
+      <c r="H32" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="J32" s="102" t="s">
+      <c r="J32" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="K32" s="102" t="s">
-        <v>244</v>
+      <c r="K32" s="48" t="s">
+        <v>239</v>
       </c>
       <c r="L32" s="35"/>
       <c r="M32" s="103" t="s">
         <v>109</v>
       </c>
       <c r="N32" s="103"/>
-      <c r="O32" s="95"/>
+      <c r="O32" s="96"/>
     </row>
     <row r="33" ht="24.95" customHeight="1" spans="2:15">
       <c r="B33" s="30"/>
@@ -4762,24 +4736,24 @@
         <v>110</v>
       </c>
       <c r="G33" s="47"/>
-      <c r="H33" s="48" t="s">
-        <v>245</v>
-      </c>
-      <c r="I33" s="102" t="s">
+      <c r="H33" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="I33" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="J33" s="102" t="s">
+      <c r="J33" s="48" t="s">
         <v>114</v>
       </c>
       <c r="K33" s="104" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L33" s="105"/>
       <c r="M33" s="103" t="s">
         <v>116</v>
       </c>
       <c r="N33" s="103"/>
-      <c r="O33" s="95"/>
+      <c r="O33" s="96"/>
     </row>
     <row r="34" ht="24.95" customHeight="1" spans="2:15">
       <c r="B34" s="30"/>
@@ -4790,24 +4764,24 @@
         <v>117</v>
       </c>
       <c r="G34" s="47"/>
-      <c r="H34" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="I34" s="102" t="s">
+      <c r="H34" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="I34" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="J34" s="102" t="s">
+      <c r="J34" s="48" t="s">
         <v>121</v>
       </c>
       <c r="K34" s="104" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="L34" s="105"/>
       <c r="M34" s="103" t="s">
         <v>123</v>
       </c>
       <c r="N34" s="103"/>
-      <c r="O34" s="95"/>
+      <c r="O34" s="96"/>
     </row>
     <row r="35" ht="24.95" customHeight="1" spans="2:15">
       <c r="B35" s="30"/>
@@ -4818,24 +4792,24 @@
         <v>124</v>
       </c>
       <c r="G35" s="47"/>
-      <c r="H35" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="I35" s="102" t="s">
+      <c r="H35" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="I35" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="J35" s="102" t="s">
+      <c r="J35" s="48" t="s">
         <v>128</v>
       </c>
       <c r="K35" s="104" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="L35" s="105"/>
       <c r="M35" s="103" t="s">
         <v>130</v>
       </c>
       <c r="N35" s="103"/>
-      <c r="O35" s="95"/>
+      <c r="O35" s="96"/>
     </row>
     <row r="36" ht="24.95" customHeight="1" spans="2:15">
       <c r="B36" s="30"/>
@@ -4846,24 +4820,24 @@
         <v>131</v>
       </c>
       <c r="G36" s="47"/>
-      <c r="H36" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="I36" s="102" t="s">
+      <c r="H36" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="I36" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="J36" s="102" t="s">
+      <c r="J36" s="48" t="s">
         <v>135</v>
       </c>
       <c r="K36" s="104" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="L36" s="105"/>
       <c r="M36" s="103" t="s">
         <v>137</v>
       </c>
       <c r="N36" s="103"/>
-      <c r="O36" s="95"/>
+      <c r="O36" s="96"/>
     </row>
     <row r="37" ht="24.95" customHeight="1" spans="2:15">
       <c r="B37" s="30"/>
@@ -4874,24 +4848,24 @@
         <v>138</v>
       </c>
       <c r="G37" s="47"/>
-      <c r="H37" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="I37" s="102" t="s">
+      <c r="H37" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="I37" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="J37" s="102" t="s">
+      <c r="J37" s="48" t="s">
         <v>142</v>
       </c>
       <c r="K37" s="104" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="L37" s="105"/>
       <c r="M37" s="103" t="s">
         <v>144</v>
       </c>
       <c r="N37" s="103"/>
-      <c r="O37" s="95"/>
+      <c r="O37" s="96"/>
     </row>
     <row r="38" ht="24.95" customHeight="1" spans="2:15">
       <c r="B38" s="30"/>
@@ -4917,38 +4891,38 @@
         <v>148</v>
       </c>
       <c r="N38" s="34"/>
-      <c r="O38" s="95"/>
+      <c r="O38" s="96"/>
     </row>
     <row r="39" ht="24.95" customHeight="1" spans="2:15">
       <c r="B39" s="30"/>
       <c r="C39" s="31"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
       <c r="K39" s="107" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="L39" s="107"/>
       <c r="M39" s="108" t="s">
         <v>83</v>
       </c>
       <c r="N39" s="108"/>
-      <c r="O39" s="95"/>
+      <c r="O39" s="96"/>
     </row>
     <row r="40" ht="24.95" customHeight="1" spans="2:15">
       <c r="B40" s="30"/>
       <c r="C40" s="31"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
       <c r="K40" s="107" t="s">
         <v>84</v>
       </c>
@@ -4957,23 +4931,23 @@
         <v>85</v>
       </c>
       <c r="N40" s="108"/>
-      <c r="O40" s="95"/>
+      <c r="O40" s="96"/>
     </row>
     <row r="41" ht="24.95" customHeight="1" spans="2:15">
       <c r="B41" s="30"/>
       <c r="C41" s="31"/>
       <c r="D41" s="34" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="E41" s="34"/>
-      <c r="F41" s="51" t="s">
+      <c r="F41" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="52"/>
-      <c r="H41" s="53" t="s">
+      <c r="G41" s="53"/>
+      <c r="H41" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="I41" s="52"/>
+      <c r="I41" s="53"/>
       <c r="J41" s="34" t="str">
         <f>"請求金額"&amp;"${aw.currencyposition}"</f>
         <v>請求金額${aw.currencyposition}</v>
@@ -4982,7 +4956,7 @@
       <c r="L41" s="34"/>
       <c r="M41" s="34"/>
       <c r="N41" s="34"/>
-      <c r="O41" s="95"/>
+      <c r="O41" s="96"/>
     </row>
     <row r="42" ht="23.1" customHeight="1" spans="2:15">
       <c r="B42" s="30"/>
@@ -4991,14 +4965,14 @@
         <v>44</v>
       </c>
       <c r="E42" s="34"/>
-      <c r="F42" s="54" t="s">
+      <c r="F42" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="G42" s="55"/>
-      <c r="H42" s="54" t="s">
+      <c r="G42" s="56"/>
+      <c r="H42" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="I42" s="55"/>
+      <c r="I42" s="56"/>
       <c r="J42" s="103" t="s">
         <v>49</v>
       </c>
@@ -5006,7 +4980,7 @@
       <c r="L42" s="103"/>
       <c r="M42" s="103"/>
       <c r="N42" s="103"/>
-      <c r="O42" s="95"/>
+      <c r="O42" s="96"/>
     </row>
     <row r="43" ht="23.1" customHeight="1" spans="2:15">
       <c r="B43" s="30"/>
@@ -5015,14 +4989,14 @@
         <v>50</v>
       </c>
       <c r="E43" s="34"/>
-      <c r="F43" s="54" t="s">
+      <c r="F43" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="G43" s="55"/>
-      <c r="H43" s="54" t="s">
+      <c r="G43" s="56"/>
+      <c r="H43" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="I43" s="55"/>
+      <c r="I43" s="56"/>
       <c r="J43" s="103" t="s">
         <v>55</v>
       </c>
@@ -5030,7 +5004,7 @@
       <c r="L43" s="103"/>
       <c r="M43" s="103"/>
       <c r="N43" s="103"/>
-      <c r="O43" s="95"/>
+      <c r="O43" s="96"/>
     </row>
     <row r="44" ht="23.1" customHeight="1" spans="2:15">
       <c r="B44" s="30"/>
@@ -5039,14 +5013,14 @@
         <v>56</v>
       </c>
       <c r="E44" s="34"/>
-      <c r="F44" s="54" t="s">
+      <c r="F44" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="G44" s="55"/>
-      <c r="H44" s="54" t="s">
+      <c r="G44" s="56"/>
+      <c r="H44" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="I44" s="55"/>
+      <c r="I44" s="56"/>
       <c r="J44" s="103" t="s">
         <v>61</v>
       </c>
@@ -5054,7 +5028,7 @@
       <c r="L44" s="103"/>
       <c r="M44" s="103"/>
       <c r="N44" s="103"/>
-      <c r="O44" s="95"/>
+      <c r="O44" s="96"/>
     </row>
     <row r="45" ht="23.1" customHeight="1" spans="2:15">
       <c r="B45" s="30"/>
@@ -5063,14 +5037,14 @@
         <v>62</v>
       </c>
       <c r="E45" s="34"/>
-      <c r="F45" s="54" t="s">
+      <c r="F45" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="G45" s="55"/>
-      <c r="H45" s="54" t="s">
+      <c r="G45" s="56"/>
+      <c r="H45" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="I45" s="55"/>
+      <c r="I45" s="56"/>
       <c r="J45" s="103" t="s">
         <v>67</v>
       </c>
@@ -5078,7 +5052,7 @@
       <c r="L45" s="103"/>
       <c r="M45" s="103"/>
       <c r="N45" s="103"/>
-      <c r="O45" s="95"/>
+      <c r="O45" s="96"/>
     </row>
     <row r="46" ht="21.75" customHeight="1" spans="2:15">
       <c r="B46" s="30"/>
@@ -5089,18 +5063,20 @@
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
       <c r="I46" s="32"/>
-      <c r="J46" s="109"/>
+      <c r="J46" s="109" t="s">
+        <v>34</v>
+      </c>
       <c r="K46" s="110"/>
       <c r="L46" s="110"/>
       <c r="M46" s="110"/>
       <c r="N46" s="111"/>
-      <c r="O46" s="95"/>
+      <c r="O46" s="96"/>
     </row>
     <row r="47" ht="20.1" customHeight="1" spans="2:15">
       <c r="B47" s="30"/>
       <c r="C47" s="31"/>
       <c r="D47" s="32" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="E47" s="32"/>
       <c r="F47" s="32"/>
@@ -5112,17 +5088,17 @@
       <c r="L47" s="32"/>
       <c r="M47" s="32"/>
       <c r="N47" s="32"/>
-      <c r="O47" s="95"/>
+      <c r="O47" s="96"/>
     </row>
     <row r="48" ht="20.1" customHeight="1" spans="2:15">
       <c r="B48" s="30"/>
       <c r="C48" s="31"/>
       <c r="D48" s="32"/>
-      <c r="E48" s="56" t="s">
-        <v>258</v>
-      </c>
-      <c r="F48" s="56"/>
-      <c r="G48" s="57" t="s">
+      <c r="E48" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="F48" s="57"/>
+      <c r="G48" s="58" t="s">
         <v>87</v>
       </c>
       <c r="H48" s="32"/>
@@ -5132,17 +5108,17 @@
       <c r="L48" s="32"/>
       <c r="M48" s="32"/>
       <c r="N48" s="32"/>
-      <c r="O48" s="95"/>
+      <c r="O48" s="96"/>
     </row>
     <row r="49" ht="20.1" customHeight="1" spans="2:15">
       <c r="B49" s="30"/>
       <c r="C49" s="31"/>
       <c r="D49" s="32"/>
-      <c r="E49" s="56" t="s">
-        <v>259</v>
-      </c>
-      <c r="F49" s="56"/>
-      <c r="G49" s="57" t="s">
+      <c r="E49" s="57" t="s">
+        <v>249</v>
+      </c>
+      <c r="F49" s="57"/>
+      <c r="G49" s="58" t="s">
         <v>89</v>
       </c>
       <c r="H49" s="32"/>
@@ -5152,15 +5128,15 @@
       <c r="L49" s="32"/>
       <c r="M49" s="32"/>
       <c r="N49" s="32"/>
-      <c r="O49" s="95"/>
+      <c r="O49" s="96"/>
     </row>
     <row r="50" ht="9.75" customHeight="1" spans="2:15">
       <c r="B50" s="30"/>
       <c r="C50" s="31"/>
       <c r="D50" s="32"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="58"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="59"/>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
@@ -5168,223 +5144,223 @@
       <c r="L50" s="32"/>
       <c r="M50" s="32"/>
       <c r="N50" s="32"/>
-      <c r="O50" s="95"/>
+      <c r="O50" s="96"/>
     </row>
     <row r="51" ht="20.1" customHeight="1" spans="2:15">
       <c r="B51" s="30"/>
       <c r="C51" s="31"/>
       <c r="D51" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="E51" s="56"/>
-      <c r="F51" s="59" t="str">
+        <v>250</v>
+      </c>
+      <c r="E51" s="57"/>
+      <c r="F51" s="60" t="str">
         <f>記入!E35</f>
         <v>${aw.remarks}</v>
       </c>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="59"/>
-      <c r="M51" s="59"/>
-      <c r="N51" s="59"/>
-      <c r="O51" s="95"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="60"/>
+      <c r="N51" s="60"/>
+      <c r="O51" s="96"/>
     </row>
     <row r="52" ht="20.1" customHeight="1" spans="2:15">
       <c r="B52" s="30"/>
       <c r="C52" s="31"/>
       <c r="D52" s="32"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="61"/>
-      <c r="H52" s="61"/>
-      <c r="I52" s="61"/>
-      <c r="J52" s="61"/>
-      <c r="K52" s="61"/>
-      <c r="L52" s="61"/>
-      <c r="M52" s="61"/>
-      <c r="N52" s="61"/>
-      <c r="O52" s="95"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="62"/>
+      <c r="K52" s="62"/>
+      <c r="L52" s="62"/>
+      <c r="M52" s="62"/>
+      <c r="N52" s="62"/>
+      <c r="O52" s="96"/>
     </row>
     <row r="53" ht="20.1" customHeight="1" spans="2:15">
       <c r="B53" s="30"/>
-      <c r="C53" s="62" t="s">
-        <v>261</v>
-      </c>
-      <c r="D53" s="62"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="62" t="s">
-        <v>262</v>
-      </c>
-      <c r="G53" s="62"/>
-      <c r="H53" s="62" t="s">
-        <v>263</v>
-      </c>
-      <c r="I53" s="62"/>
-      <c r="J53" s="62" t="s">
-        <v>262</v>
-      </c>
-      <c r="K53" s="62"/>
-      <c r="L53" s="62"/>
-      <c r="M53" s="62" t="s">
-        <v>263</v>
-      </c>
-      <c r="N53" s="62"/>
-      <c r="O53" s="62"/>
+      <c r="C53" s="63" t="s">
+        <v>251</v>
+      </c>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63" t="s">
+        <v>252</v>
+      </c>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63" t="s">
+        <v>253</v>
+      </c>
+      <c r="I53" s="63"/>
+      <c r="J53" s="63" t="s">
+        <v>252</v>
+      </c>
+      <c r="K53" s="63"/>
+      <c r="L53" s="63"/>
+      <c r="M53" s="63" t="s">
+        <v>253</v>
+      </c>
+      <c r="N53" s="63"/>
+      <c r="O53" s="63"/>
     </row>
     <row r="54" ht="20.1" customHeight="1" spans="2:15">
       <c r="B54" s="30"/>
-      <c r="C54" s="62"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="62"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="63"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="63"/>
-      <c r="K54" s="63"/>
-      <c r="L54" s="63"/>
-      <c r="M54" s="63"/>
-      <c r="N54" s="63"/>
-      <c r="O54" s="63"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="64"/>
+      <c r="K54" s="64"/>
+      <c r="L54" s="64"/>
+      <c r="M54" s="64"/>
+      <c r="N54" s="64"/>
+      <c r="O54" s="64"/>
     </row>
     <row r="55" ht="20.1" customHeight="1" spans="2:15">
       <c r="B55" s="30"/>
-      <c r="C55" s="62"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="63"/>
-      <c r="G55" s="63"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="63"/>
-      <c r="J55" s="63"/>
-      <c r="K55" s="63"/>
-      <c r="L55" s="63"/>
-      <c r="M55" s="63"/>
-      <c r="N55" s="63"/>
-      <c r="O55" s="63"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="64"/>
+      <c r="K55" s="64"/>
+      <c r="L55" s="64"/>
+      <c r="M55" s="64"/>
+      <c r="N55" s="64"/>
+      <c r="O55" s="64"/>
     </row>
     <row r="56" ht="20.1" customHeight="1" spans="2:15">
       <c r="B56" s="30"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="63"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="63"/>
-      <c r="J56" s="63"/>
-      <c r="K56" s="63"/>
-      <c r="L56" s="63"/>
-      <c r="M56" s="63"/>
-      <c r="N56" s="63"/>
-      <c r="O56" s="63"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="64"/>
+      <c r="K56" s="64"/>
+      <c r="L56" s="64"/>
+      <c r="M56" s="64"/>
+      <c r="N56" s="64"/>
+      <c r="O56" s="64"/>
     </row>
     <row r="57" ht="20.1" customHeight="1" spans="2:15">
       <c r="B57" s="30"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="63"/>
-      <c r="H57" s="63"/>
-      <c r="I57" s="63"/>
-      <c r="J57" s="63"/>
-      <c r="K57" s="63"/>
-      <c r="L57" s="63"/>
-      <c r="M57" s="63"/>
-      <c r="N57" s="63"/>
-      <c r="O57" s="63"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="64"/>
+      <c r="J57" s="64"/>
+      <c r="K57" s="64"/>
+      <c r="L57" s="64"/>
+      <c r="M57" s="64"/>
+      <c r="N57" s="64"/>
+      <c r="O57" s="64"/>
     </row>
     <row r="58" ht="20.1" customHeight="1" spans="2:15">
       <c r="B58" s="30"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="62"/>
-      <c r="F58" s="63"/>
-      <c r="G58" s="63"/>
-      <c r="H58" s="63"/>
-      <c r="I58" s="63"/>
-      <c r="J58" s="63"/>
-      <c r="K58" s="63"/>
-      <c r="L58" s="63"/>
-      <c r="M58" s="63"/>
-      <c r="N58" s="63"/>
-      <c r="O58" s="63"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="64"/>
+      <c r="J58" s="64"/>
+      <c r="K58" s="64"/>
+      <c r="L58" s="64"/>
+      <c r="M58" s="64"/>
+      <c r="N58" s="64"/>
+      <c r="O58" s="64"/>
     </row>
     <row r="59" ht="20.1" customHeight="1" spans="2:15">
       <c r="B59" s="30"/>
-      <c r="C59" s="62"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="62"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="63"/>
-      <c r="H59" s="63"/>
-      <c r="I59" s="63"/>
-      <c r="J59" s="63"/>
-      <c r="K59" s="63"/>
-      <c r="L59" s="63"/>
-      <c r="M59" s="63"/>
-      <c r="N59" s="63"/>
-      <c r="O59" s="63"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="64"/>
+      <c r="J59" s="64"/>
+      <c r="K59" s="64"/>
+      <c r="L59" s="64"/>
+      <c r="M59" s="64"/>
+      <c r="N59" s="64"/>
+      <c r="O59" s="64"/>
     </row>
     <row r="60" ht="20.1" customHeight="1" spans="2:15">
       <c r="B60" s="30"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="62"/>
-      <c r="F60" s="63"/>
-      <c r="G60" s="63"/>
-      <c r="H60" s="63"/>
-      <c r="I60" s="63"/>
-      <c r="J60" s="63"/>
-      <c r="K60" s="63"/>
-      <c r="L60" s="63"/>
-      <c r="M60" s="63"/>
-      <c r="N60" s="63"/>
-      <c r="O60" s="63"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="64"/>
+      <c r="K60" s="64"/>
+      <c r="L60" s="64"/>
+      <c r="M60" s="64"/>
+      <c r="N60" s="64"/>
+      <c r="O60" s="64"/>
     </row>
     <row r="61" ht="20.1" customHeight="1" spans="2:15">
       <c r="B61" s="30"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="62"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="63"/>
-      <c r="H61" s="63"/>
-      <c r="I61" s="63"/>
-      <c r="J61" s="63"/>
-      <c r="K61" s="63"/>
-      <c r="L61" s="63"/>
-      <c r="M61" s="63"/>
-      <c r="N61" s="63"/>
-      <c r="O61" s="63"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="64"/>
+      <c r="I61" s="64"/>
+      <c r="J61" s="64"/>
+      <c r="K61" s="64"/>
+      <c r="L61" s="64"/>
+      <c r="M61" s="64"/>
+      <c r="N61" s="64"/>
+      <c r="O61" s="64"/>
     </row>
     <row r="62" ht="20.1" customHeight="1" spans="2:15">
       <c r="B62" s="30"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="62"/>
-      <c r="F62" s="63"/>
-      <c r="G62" s="63"/>
-      <c r="H62" s="63"/>
-      <c r="I62" s="63"/>
-      <c r="J62" s="63"/>
-      <c r="K62" s="63"/>
-      <c r="L62" s="63"/>
-      <c r="M62" s="63"/>
-      <c r="N62" s="63"/>
-      <c r="O62" s="63"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="64"/>
+      <c r="K62" s="64"/>
+      <c r="L62" s="64"/>
+      <c r="M62" s="64"/>
+      <c r="N62" s="64"/>
+      <c r="O62" s="64"/>
     </row>
     <row r="63" ht="15" spans="3:3">
-      <c r="C63" s="64" t="s">
-        <v>264</v>
+      <c r="C63" s="65" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="I31:I37" name="範囲3_3"/>
+    <protectedRange sqref="I31:I37 H31" name="範囲3_3"/>
     <protectedRange sqref="J31:J37" name="範囲3_2"/>
     <protectedRange sqref="K31:L32" name="範囲3_2_1"/>
     <protectedRange sqref="M31:N37" name="範囲3_2_2"/>

--- a/controller/src/main/resources/jxls_templates/juecaishu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/juecaishu_shoutuo.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="256">
   <si>
     <t>■以下の内容は契約管理ツールで自動生成</t>
   </si>
@@ -929,6 +929,9 @@
     <t>納品No.</t>
   </si>
   <si>
+    <t>請求金額${aw.currencyposition}</t>
+  </si>
+  <si>
     <t>3．添付ファイル</t>
   </si>
   <si>
@@ -958,16 +961,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
-    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="181" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -1070,102 +1073,11 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1185,14 +1097,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1206,8 +1118,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1220,7 +1193,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1282,7 +1285,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1300,7 +1315,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1312,55 +1405,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1378,25 +1429,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1408,61 +1453,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1707,21 +1710,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1736,6 +1724,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1770,21 +1788,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1809,160 +1812,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2272,7 +2275,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2281,22 +2284,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
@@ -2488,7 +2491,7 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="14" fillId="6" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="14" fillId="6" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2507,7 +2510,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="10" fillId="2" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="10" fillId="2" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2530,16 +2533,13 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="2" borderId="14" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="14" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2896,8 +2896,8 @@
   <sheetPr/>
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5" outlineLevelCol="7"/>
@@ -3961,10 +3961,10 @@
       <c r="H72" s="176"/>
     </row>
     <row r="73" ht="13" spans="2:8">
-      <c r="B73" s="187"/>
-      <c r="C73" s="188"/>
-      <c r="D73" s="189"/>
-      <c r="E73" s="190"/>
+      <c r="B73" s="184"/>
+      <c r="C73" s="187"/>
+      <c r="D73" s="188"/>
+      <c r="E73" s="189"/>
       <c r="F73" s="176"/>
       <c r="G73" s="176"/>
       <c r="H73" s="176"/>
@@ -4018,9 +4018,9 @@
       <c r="H77" s="176"/>
     </row>
     <row r="78" spans="3:8">
-      <c r="C78" s="188"/>
-      <c r="D78" s="189"/>
-      <c r="E78" s="190"/>
+      <c r="C78" s="187"/>
+      <c r="D78" s="188"/>
+      <c r="E78" s="189"/>
       <c r="G78" s="176"/>
       <c r="H78" s="176"/>
     </row>
@@ -4053,11 +4053,11 @@
     <mergeCell ref="E35:H37"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40:B41">
+      <formula1>"和文1通,無し"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
       <formula1>"内,外"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40:B41">
-      <formula1>"和文1通,無し"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4075,8 +4075,8 @@
   <sheetPr/>
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4667,7 +4667,9 @@
       </c>
       <c r="K30" s="43"/>
       <c r="L30" s="44"/>
-      <c r="M30" s="101"/>
+      <c r="M30" s="101" t="s">
+        <v>32</v>
+      </c>
       <c r="N30" s="102"/>
       <c r="O30" s="96"/>
     </row>
@@ -4948,9 +4950,8 @@
         <v>35</v>
       </c>
       <c r="I41" s="53"/>
-      <c r="J41" s="34" t="str">
-        <f>"請求金額"&amp;"${aw.currencyposition}"</f>
-        <v>請求金額${aw.currencyposition}</v>
+      <c r="J41" s="34" t="s">
+        <v>247</v>
       </c>
       <c r="K41" s="34"/>
       <c r="L41" s="34"/>
@@ -5076,7 +5077,7 @@
       <c r="B47" s="30"/>
       <c r="C47" s="31"/>
       <c r="D47" s="32" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E47" s="32"/>
       <c r="F47" s="32"/>
@@ -5095,7 +5096,7 @@
       <c r="C48" s="31"/>
       <c r="D48" s="32"/>
       <c r="E48" s="57" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F48" s="57"/>
       <c r="G48" s="58" t="s">
@@ -5115,7 +5116,7 @@
       <c r="C49" s="31"/>
       <c r="D49" s="32"/>
       <c r="E49" s="57" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F49" s="57"/>
       <c r="G49" s="58" t="s">
@@ -5150,7 +5151,7 @@
       <c r="B51" s="30"/>
       <c r="C51" s="31"/>
       <c r="D51" s="32" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E51" s="57"/>
       <c r="F51" s="60" t="str">
@@ -5186,25 +5187,25 @@
     <row r="53" ht="20.1" customHeight="1" spans="2:15">
       <c r="B53" s="30"/>
       <c r="C53" s="63" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D53" s="63"/>
       <c r="E53" s="63"/>
       <c r="F53" s="63" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G53" s="63"/>
       <c r="H53" s="63" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I53" s="63"/>
       <c r="J53" s="63" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K53" s="63"/>
       <c r="L53" s="63"/>
       <c r="M53" s="63" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N53" s="63"/>
       <c r="O53" s="63"/>
@@ -5355,7 +5356,7 @@
     </row>
     <row r="63" ht="15" spans="3:3">
       <c r="C63" s="65" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/controller/src/main/resources/jxls_templates/juecaishu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/juecaishu_shoutuo.xlsx
@@ -37,7 +37,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="MS PGothic"/>
-            <charset val="134"/>
+            <family val="3"/>
           </rPr>
           <t>jx:area(lastCell="I84")</t>
         </r>
@@ -50,7 +50,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="MS PGothic"/>
-            <charset val="128"/>
+            <family val="3"/>
           </rPr>
           <t>張 建波:</t>
         </r>
@@ -58,7 +58,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="MS PGothic"/>
-            <charset val="128"/>
+            <family val="3"/>
           </rPr>
           <t xml:space="preserve">
 自分で入力してください。（収支データを参考）</t>
@@ -72,7 +72,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="MS PGothic"/>
-            <charset val="128"/>
+            <family val="3"/>
           </rPr>
           <t>張 建波:</t>
         </r>
@@ -80,7 +80,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="MS PGothic"/>
-            <charset val="128"/>
+            <family val="3"/>
           </rPr>
           <t xml:space="preserve">
 月平均人件費+残業費
@@ -106,7 +106,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="MS PGothic"/>
-            <charset val="134"/>
+            <family val="3"/>
           </rPr>
           <t>jx:area(lastCell="P62")</t>
         </r>
@@ -913,123 +913,122 @@
   </si>
   <si>
     <t>${num[0].deliverydate}</t>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t>${num[0].completiondate}</t>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t>${num[0].claimdate}</t>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t>${num[0].supportdate}</t>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t>${num[1].deliverydate}</t>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t>${num[1].completiondate}</t>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t>${num[1].claimdate}</t>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t>${num[1].supportdate}</t>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t>${num[2].deliverydate}</t>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t>${num[2].completiondate}</t>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t>${num[2].claimdate}</t>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t>${num[2].supportdate}</t>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t>${num[3].deliverydate}</t>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t>${num[3].completiondate}</t>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t>${num[3].claimdate}</t>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t>${num[3].supportdate}</t>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t>${num[0].claimdate}</t>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t>${num[1].deliverydate}</t>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t>${num[1].claimdate}</t>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t>${num[2].claimdate}</t>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t>${claimamo}</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>${draftingdate}</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>${scheduleddate}</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>${draftingdate}</t>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t>${scheduleddate}</t>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t>${claimamo}</t>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
     <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="179" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="180" formatCode="0.00_ "/>
     <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="182" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1143,19 +1142,13 @@
     <font>
       <sz val="9"/>
       <name val="MS PGothic"/>
-      <charset val="128"/>
+      <family val="3"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="MS PGothic"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="MS PGothic"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1627,10 +1620,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="31" fontId="5" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1697,14 +1686,46 @@
     <xf numFmtId="176" fontId="5" fillId="2" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="10" fillId="2" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1767,49 +1788,220 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1818,248 +2010,49 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2371,8 +2364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2389,14 +2382,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="G1" s="81" t="s">
+      <c r="B1" s="77"/>
+      <c r="G1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="82"/>
+      <c r="H1" s="92"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" s="34" t="s">
@@ -2409,8 +2402,8 @@
         <v>4</v>
       </c>
       <c r="D2" s="36"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="84"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" s="37" t="s">
@@ -2420,8 +2413,8 @@
       <c r="C3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="94"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="34" t="s">
@@ -2433,8 +2426,8 @@
       <c r="C4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="83"/>
-      <c r="H4" s="84"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="94"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
       <c r="A5" s="34" t="s">
@@ -2444,8 +2437,8 @@
       <c r="C5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="83"/>
-      <c r="H5" s="84"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="94"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="A6" s="42" t="s">
@@ -2457,8 +2450,8 @@
       <c r="C6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="83"/>
-      <c r="H6" s="84"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="94"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="A7" s="42" t="s">
@@ -2470,8 +2463,8 @@
       <c r="C7" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="84"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="94"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8" s="34" t="s">
@@ -2481,8 +2474,8 @@
       <c r="C8" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="83"/>
-      <c r="H8" s="84"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="94"/>
     </row>
     <row r="9" spans="1:8" s="31" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="37" t="s">
@@ -2494,8 +2487,8 @@
       <c r="C9" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="84"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="94"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="A10" s="34" t="s">
@@ -2507,8 +2500,8 @@
       <c r="C10" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="83"/>
-      <c r="H10" s="84"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="94"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
       <c r="A11" s="34" t="s">
@@ -2520,8 +2513,8 @@
       <c r="C11" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="83"/>
-      <c r="H11" s="84"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="94"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
       <c r="A12" s="34" t="s">
@@ -2533,8 +2526,8 @@
       <c r="C12" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="83"/>
-      <c r="H12" s="84"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="94"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="A13" s="34" t="s">
@@ -2544,34 +2537,34 @@
       <c r="C13" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="83"/>
-      <c r="H13" s="84"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="94"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
       <c r="A14" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="195" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="83"/>
-      <c r="H14" s="84"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="94"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="A15" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="195" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="83"/>
-      <c r="H15" s="84"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="94"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
       <c r="A16" s="34" t="s">
@@ -2581,8 +2574,8 @@
       <c r="C16" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="83"/>
-      <c r="H16" s="84"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="94"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
       <c r="A17" s="34" t="s">
@@ -2592,8 +2585,8 @@
       <c r="C17" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="83"/>
-      <c r="H17" s="84"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="94"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
       <c r="A18" s="34" t="s">
@@ -2603,8 +2596,8 @@
       <c r="C18" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="83"/>
-      <c r="H18" s="84"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="94"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="34" t="s">
@@ -2616,8 +2609,8 @@
       <c r="C19" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="83"/>
-      <c r="H19" s="84"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="94"/>
     </row>
     <row r="20" spans="1:8" s="31" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="34" t="s">
@@ -2629,8 +2622,8 @@
       <c r="C20" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="83"/>
-      <c r="H20" s="84"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="94"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1">
       <c r="A21" s="34" t="s">
@@ -2640,8 +2633,8 @@
       <c r="C21" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="83"/>
-      <c r="H21" s="84"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="94"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1">
       <c r="A22" s="34" t="s">
@@ -2651,8 +2644,8 @@
       <c r="C22" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="83"/>
-      <c r="H22" s="84"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="94"/>
     </row>
     <row r="23" spans="1:8" s="31" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="37" t="s">
@@ -2662,8 +2655,8 @@
       <c r="C23" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="83"/>
-      <c r="H23" s="84"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="94"/>
     </row>
     <row r="24" spans="1:8" s="31" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="37" t="s">
@@ -2673,8 +2666,8 @@
       <c r="C24" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="83"/>
-      <c r="H24" s="84"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="94"/>
     </row>
     <row r="25" spans="1:8" s="31" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="37" t="s">
@@ -2686,8 +2679,8 @@
       <c r="C25" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="83"/>
-      <c r="H25" s="84"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="94"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1">
       <c r="A26" s="37" t="s">
@@ -2699,14 +2692,14 @@
       <c r="C26" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="83"/>
-      <c r="H26" s="84"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="94"/>
     </row>
     <row r="27" spans="1:8" ht="3" customHeight="1">
       <c r="A27" s="48"/>
       <c r="B27" s="33"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="84"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="94"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1">
       <c r="A28" s="49" t="s">
@@ -2727,96 +2720,96 @@
       <c r="F28" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="83"/>
-      <c r="H28" s="84"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="94"/>
     </row>
     <row r="29" spans="1:8" ht="13.5" customHeight="1">
       <c r="A29" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="194" t="s">
         <v>238</v>
       </c>
-      <c r="C29" s="78" t="s">
+      <c r="C29" s="194" t="s">
         <v>239</v>
       </c>
-      <c r="D29" s="78" t="s">
+      <c r="D29" s="194" t="s">
         <v>240</v>
       </c>
-      <c r="E29" s="78" t="s">
+      <c r="E29" s="194" t="s">
         <v>241</v>
       </c>
       <c r="F29" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="83"/>
-      <c r="H29" s="84"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="94"/>
     </row>
     <row r="30" spans="1:8" ht="13.5" customHeight="1">
       <c r="A30" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="194" t="s">
         <v>242</v>
       </c>
-      <c r="C30" s="78" t="s">
+      <c r="C30" s="194" t="s">
         <v>243</v>
       </c>
-      <c r="D30" s="78" t="s">
+      <c r="D30" s="194" t="s">
         <v>244</v>
       </c>
-      <c r="E30" s="78" t="s">
+      <c r="E30" s="194" t="s">
         <v>245</v>
       </c>
       <c r="F30" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="G30" s="83"/>
-      <c r="H30" s="84"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="94"/>
     </row>
     <row r="31" spans="1:8" ht="13.5" customHeight="1">
       <c r="A31" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="78" t="s">
+      <c r="B31" s="194" t="s">
         <v>246</v>
       </c>
-      <c r="C31" s="78" t="s">
+      <c r="C31" s="194" t="s">
         <v>247</v>
       </c>
-      <c r="D31" s="78" t="s">
+      <c r="D31" s="194" t="s">
         <v>248</v>
       </c>
-      <c r="E31" s="78" t="s">
+      <c r="E31" s="194" t="s">
         <v>249</v>
       </c>
       <c r="F31" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="83"/>
-      <c r="H31" s="84"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="94"/>
     </row>
     <row r="32" spans="1:8" ht="14.25" customHeight="1">
       <c r="A32" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="78" t="s">
+      <c r="B32" s="194" t="s">
         <v>250</v>
       </c>
-      <c r="C32" s="78" t="s">
+      <c r="C32" s="194" t="s">
         <v>251</v>
       </c>
-      <c r="D32" s="78" t="s">
+      <c r="D32" s="194" t="s">
         <v>252</v>
       </c>
-      <c r="E32" s="78" t="s">
+      <c r="E32" s="194" t="s">
         <v>253</v>
       </c>
       <c r="F32" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="85"/>
-      <c r="H32" s="86"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="96"/>
     </row>
     <row r="33" spans="1:8" ht="6.75" customHeight="1">
       <c r="A33" s="53"/>
@@ -2833,16 +2826,16 @@
       <c r="B35" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="87" t="s">
+      <c r="C35" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="88"/>
-      <c r="E35" s="93" t="s">
+      <c r="D35" s="98"/>
+      <c r="E35" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="104"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="55" t="s">
@@ -2851,63 +2844,63 @@
       <c r="B36" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="89"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="96"/>
-      <c r="G36" s="96"/>
-      <c r="H36" s="96"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="106"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="196" t="s">
         <v>259</v>
       </c>
-      <c r="C37" s="91"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="98"/>
-      <c r="H37" s="98"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="108"/>
+      <c r="H37" s="108"/>
     </row>
     <row r="38" spans="1:8" ht="13.5">
-      <c r="A38" s="57" t="s">
+      <c r="A38" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="196" t="s">
         <v>260</v>
       </c>
       <c r="C38" s="36"/>
-      <c r="F38" s="58" t="s">
+      <c r="F38" s="57" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="32" customFormat="1" ht="13.5">
-      <c r="A39" s="57" t="s">
+      <c r="A39" s="56" t="s">
         <v>62</v>
       </c>
       <c r="B39" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="104" t="s">
+      <c r="C39" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="105"/>
-      <c r="E39" s="60" t="s">
+      <c r="D39" s="79"/>
+      <c r="E39" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="F39" s="104" t="s">
+      <c r="F39" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="G39" s="104"/>
-      <c r="H39" s="60" t="s">
+      <c r="G39" s="78"/>
+      <c r="H39" s="59" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="32" customFormat="1" ht="13.5">
-      <c r="A40" s="57" t="s">
+      <c r="A40" s="56" t="s">
         <v>68</v>
       </c>
       <c r="B40" s="43" t="s">
@@ -2917,7 +2910,7 @@
       <c r="D40" s="33"/>
     </row>
     <row r="41" spans="1:8" s="32" customFormat="1" ht="13.5">
-      <c r="A41" s="57" t="s">
+      <c r="A41" s="56" t="s">
         <v>70</v>
       </c>
       <c r="B41" s="43" t="s">
@@ -2927,42 +2920,42 @@
       <c r="D41" s="33"/>
     </row>
     <row r="42" spans="1:8" s="32" customFormat="1" ht="14.25">
-      <c r="A42" s="80" t="s">
+      <c r="A42" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="80" t="s">
+      <c r="B42" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="107" t="s">
+      <c r="C42" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="D42" s="108"/>
-      <c r="E42" s="108"/>
-      <c r="F42" s="109"/>
-      <c r="G42" s="100" t="s">
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="H42" s="80" t="s">
+      <c r="H42" s="85" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.25">
-      <c r="A43" s="80"/>
-      <c r="B43" s="80"/>
-      <c r="C43" s="61" t="s">
+      <c r="A43" s="85"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="61" t="s">
+      <c r="D43" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="E43" s="61" t="s">
+      <c r="E43" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="F43" s="61" t="s">
+      <c r="F43" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="G43" s="80"/>
-      <c r="H43" s="80"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="85"/>
     </row>
     <row r="44" spans="1:8" ht="14.25">
       <c r="A44" s="16" t="s">
@@ -3009,7 +3002,7 @@
       <c r="F45" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="G45" s="101" t="s">
+      <c r="G45" s="87" t="s">
         <v>90</v>
       </c>
       <c r="H45" s="17" t="s">
@@ -3035,7 +3028,7 @@
       <c r="F46" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G46" s="102"/>
+      <c r="G46" s="88"/>
       <c r="H46" s="17" t="s">
         <v>98</v>
       </c>
@@ -3059,7 +3052,7 @@
       <c r="F47" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="G47" s="102"/>
+      <c r="G47" s="88"/>
       <c r="H47" s="17" t="s">
         <v>105</v>
       </c>
@@ -3083,7 +3076,7 @@
       <c r="F48" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="G48" s="102"/>
+      <c r="G48" s="88"/>
       <c r="H48" s="17" t="s">
         <v>112</v>
       </c>
@@ -3107,7 +3100,7 @@
       <c r="F49" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="G49" s="102"/>
+      <c r="G49" s="88"/>
       <c r="H49" s="17" t="s">
         <v>119</v>
       </c>
@@ -3131,373 +3124,373 @@
       <c r="F50" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="G50" s="103"/>
+      <c r="G50" s="89"/>
       <c r="H50" s="17" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15">
-      <c r="A51" s="110" t="s">
+      <c r="A51" s="83" t="s">
         <v>127</v>
       </c>
-      <c r="B51" s="111"/>
-      <c r="C51" s="62" t="s">
+      <c r="B51" s="84"/>
+      <c r="C51" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="D51" s="62" t="s">
+      <c r="D51" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="E51" s="62" t="s">
+      <c r="E51" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="F51" s="62" t="s">
+      <c r="F51" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="G51" s="62" t="s">
+      <c r="G51" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="H51" s="62" t="s">
+      <c r="H51" s="61" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="C53" s="59" t="s">
+      <c r="C53" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="63" t="s">
+      <c r="D53" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="E53" s="59" t="s">
+      <c r="E53" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="F53" s="60" t="s">
+      <c r="F53" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="G53" s="64"/>
-      <c r="H53" s="64"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="C54" s="64"/>
-      <c r="D54" s="65" t="s">
+      <c r="C54" s="63"/>
+      <c r="D54" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
     </row>
     <row r="55" spans="1:8" ht="24">
-      <c r="C55" s="66" t="s">
+      <c r="C55" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="D55" s="67" t="s">
+      <c r="D55" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="E55" s="66" t="s">
+      <c r="E55" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="F55" s="64"/>
-      <c r="G55" s="64"/>
-      <c r="H55" s="64"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="C56" s="66" t="s">
+      <c r="C56" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="D56" s="68" t="s">
+      <c r="D56" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="E56" s="69" t="s">
+      <c r="E56" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="F56" s="64"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="C57" s="66" t="s">
+      <c r="C57" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="D57" s="68" t="s">
+      <c r="D57" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="E57" s="69" t="s">
+      <c r="E57" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="F57" s="64"/>
-      <c r="G57" s="64"/>
-      <c r="H57" s="64"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="63"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="C58" s="66" t="s">
+      <c r="C58" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="D58" s="68" t="s">
+      <c r="D58" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="E58" s="69" t="s">
+      <c r="E58" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="F58" s="64"/>
-      <c r="G58" s="64"/>
-      <c r="H58" s="64"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="C59" s="66" t="s">
+      <c r="C59" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="D59" s="68" t="s">
+      <c r="D59" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="E59" s="69" t="s">
+      <c r="E59" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="F59" s="64"/>
-      <c r="G59" s="64"/>
-      <c r="H59" s="64"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="63"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="C60" s="66" t="s">
+      <c r="C60" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="D60" s="68" t="s">
+      <c r="D60" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="E60" s="69" t="s">
+      <c r="E60" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="F60" s="64"/>
-      <c r="G60" s="64"/>
-      <c r="H60" s="64"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="63"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="C61" s="66" t="s">
+      <c r="C61" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="D61" s="68" t="s">
+      <c r="D61" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="E61" s="69" t="s">
+      <c r="E61" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="F61" s="64"/>
-      <c r="G61" s="64"/>
-      <c r="H61" s="64"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="63"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="C62" s="66" t="s">
+      <c r="C62" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="D62" s="68" t="s">
+      <c r="D62" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="E62" s="69" t="s">
+      <c r="E62" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="F62" s="64"/>
-      <c r="G62" s="64"/>
-      <c r="H62" s="64"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="63"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="C63" s="70" t="s">
+      <c r="C63" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="D63" s="68" t="s">
+      <c r="D63" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="E63" s="69" t="s">
+      <c r="E63" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="F63" s="64"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="64"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="63"/>
+      <c r="H63" s="63"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="C64" s="70" t="s">
+      <c r="C64" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="D64" s="68" t="s">
+      <c r="D64" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="E64" s="69" t="s">
+      <c r="E64" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="F64" s="64"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="64"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
     </row>
     <row r="65" spans="2:8">
-      <c r="C65" s="70" t="s">
+      <c r="C65" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="D65" s="68" t="s">
+      <c r="D65" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="E65" s="69" t="s">
+      <c r="E65" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="F65" s="64"/>
-      <c r="G65" s="64"/>
-      <c r="H65" s="64"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="63"/>
     </row>
     <row r="66" spans="2:8">
-      <c r="C66" s="70" t="s">
+      <c r="C66" s="69" t="s">
         <v>169</v>
       </c>
-      <c r="D66" s="68" t="s">
+      <c r="D66" s="67" t="s">
         <v>170</v>
       </c>
-      <c r="E66" s="69" t="s">
+      <c r="E66" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="F66" s="64"/>
-      <c r="G66" s="64"/>
-      <c r="H66" s="64"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
     </row>
     <row r="67" spans="2:8">
-      <c r="C67" s="71" t="s">
+      <c r="C67" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="D67" s="68" t="s">
+      <c r="D67" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="E67" s="69" t="s">
+      <c r="E67" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="F67" s="64"/>
-      <c r="G67" s="64"/>
-      <c r="H67" s="64"/>
+      <c r="F67" s="63"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="63"/>
     </row>
     <row r="68" spans="2:8">
-      <c r="C68" s="70" t="s">
+      <c r="C68" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="D68" s="68" t="s">
+      <c r="D68" s="67" t="s">
         <v>176</v>
       </c>
-      <c r="E68" s="69" t="s">
+      <c r="E68" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="F68" s="64"/>
-      <c r="G68" s="64"/>
-      <c r="H68" s="64"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
     </row>
     <row r="69" spans="2:8">
-      <c r="C69" s="71" t="s">
+      <c r="C69" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="D69" s="68" t="s">
+      <c r="D69" s="67" t="s">
         <v>179</v>
       </c>
-      <c r="E69" s="69" t="s">
+      <c r="E69" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="F69" s="64"/>
-      <c r="G69" s="64"/>
-      <c r="H69" s="64"/>
+      <c r="F69" s="63"/>
+      <c r="G69" s="63"/>
+      <c r="H69" s="63"/>
     </row>
     <row r="70" spans="2:8">
-      <c r="B70" s="72"/>
-      <c r="C70" s="73" t="s">
+      <c r="B70" s="71"/>
+      <c r="C70" s="72" t="s">
         <v>181</v>
       </c>
-      <c r="D70" s="68" t="s">
+      <c r="D70" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="E70" s="69" t="s">
+      <c r="E70" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="F70" s="64"/>
-      <c r="G70" s="64"/>
-      <c r="H70" s="64"/>
+      <c r="F70" s="63"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="63"/>
     </row>
     <row r="71" spans="2:8">
-      <c r="C71" s="99" t="s">
+      <c r="C71" s="90" t="s">
         <v>184</v>
       </c>
-      <c r="D71" s="99"/>
-      <c r="E71" s="74" t="s">
+      <c r="D71" s="90"/>
+      <c r="E71" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="F71" s="64"/>
-      <c r="G71" s="64"/>
-      <c r="H71" s="64"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="63"/>
+      <c r="H71" s="63"/>
     </row>
     <row r="72" spans="2:8">
-      <c r="C72" s="104" t="s">
+      <c r="C72" s="78" t="s">
         <v>186</v>
       </c>
-      <c r="D72" s="105"/>
-      <c r="E72" s="74" t="s">
+      <c r="D72" s="79"/>
+      <c r="E72" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="F72" s="64"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="64"/>
+      <c r="F72" s="63"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="72"/>
-      <c r="C73" s="75"/>
-      <c r="D73" s="76"/>
-      <c r="E73" s="77"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="64"/>
-      <c r="H73" s="64"/>
+      <c r="B73" s="71"/>
+      <c r="C73" s="74"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="76"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="63"/>
+      <c r="H73" s="63"/>
     </row>
     <row r="74" spans="2:8" ht="14.25" customHeight="1">
-      <c r="C74" s="99" t="s">
+      <c r="C74" s="90" t="s">
         <v>188</v>
       </c>
-      <c r="D74" s="99"/>
-      <c r="E74" s="74" t="s">
+      <c r="D74" s="90"/>
+      <c r="E74" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="F74" s="64"/>
-      <c r="G74" s="64"/>
-      <c r="H74" s="64"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
     </row>
     <row r="75" spans="2:8" ht="14.25" customHeight="1">
-      <c r="C75" s="99" t="s">
+      <c r="C75" s="90" t="s">
         <v>190</v>
       </c>
-      <c r="D75" s="99"/>
-      <c r="E75" s="74" t="s">
+      <c r="D75" s="90"/>
+      <c r="E75" s="73" t="s">
         <v>191</v>
       </c>
-      <c r="F75" s="64"/>
-      <c r="G75" s="64"/>
-      <c r="H75" s="64"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="63"/>
+      <c r="H75" s="63"/>
     </row>
     <row r="76" spans="2:8" ht="14.25" customHeight="1">
-      <c r="C76" s="99" t="s">
+      <c r="C76" s="90" t="s">
         <v>192</v>
       </c>
-      <c r="D76" s="99"/>
-      <c r="E76" s="74" t="s">
+      <c r="D76" s="90"/>
+      <c r="E76" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="F76" s="64"/>
-      <c r="G76" s="64"/>
-      <c r="H76" s="64"/>
+      <c r="F76" s="63"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="63"/>
     </row>
     <row r="77" spans="2:8">
-      <c r="C77" s="99" t="s">
+      <c r="C77" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="D77" s="99"/>
-      <c r="E77" s="74" t="s">
+      <c r="D77" s="90"/>
+      <c r="E77" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="F77" s="64"/>
-      <c r="G77" s="64"/>
-      <c r="H77" s="64"/>
+      <c r="F77" s="63"/>
+      <c r="G77" s="63"/>
+      <c r="H77" s="63"/>
     </row>
     <row r="78" spans="2:8">
-      <c r="C78" s="75"/>
-      <c r="D78" s="76"/>
-      <c r="E78" s="77"/>
-      <c r="G78" s="64"/>
-      <c r="H78" s="64"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="75"/>
+      <c r="E78" s="76"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="63"/>
     </row>
     <row r="79" spans="2:8" ht="13.5" customHeight="1"/>
   </sheetData>
@@ -3507,6 +3500,16 @@
     <protectedRange sqref="C44:D50" name="範囲3_3"/>
   </protectedRanges>
   <mergeCells count="19">
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="G1:H32"/>
+    <mergeCell ref="C35:D37"/>
+    <mergeCell ref="E35:H37"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="F39:G39"/>
@@ -3516,18 +3519,8 @@
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="G42:G43"/>
     <mergeCell ref="G45:G50"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="G1:H32"/>
-    <mergeCell ref="C35:D37"/>
-    <mergeCell ref="E35:H37"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
   </mergeCells>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40:B41">
       <formula1>"和文1通,無し"</formula1>
@@ -3551,7 +3544,7 @@
   <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13:M13"/>
+      <selection activeCell="C10" sqref="C10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3597,12 +3590,12 @@
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="2"/>
-      <c r="C3" s="139" t="s">
+      <c r="C3" s="147" t="s">
         <v>198</v>
       </c>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="139" t="s">
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="147" t="s">
         <v>199</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -3612,102 +3605,102 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="27"/>
-      <c r="L3" s="181" t="s">
+      <c r="L3" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="182"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="183"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="111"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="2"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="184" t="s">
+      <c r="C4" s="148"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="162"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="186" t="s">
         <v>261</v>
       </c>
-      <c r="M4" s="185"/>
-      <c r="N4" s="185"/>
-      <c r="O4" s="186"/>
+      <c r="M4" s="187"/>
+      <c r="N4" s="187"/>
+      <c r="O4" s="188"/>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="2"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="181" t="s">
+      <c r="C5" s="148"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="162"/>
+      <c r="I5" s="162"/>
+      <c r="J5" s="162"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="182"/>
-      <c r="N5" s="182"/>
-      <c r="O5" s="183"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="111"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="2"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="139" t="s">
+      <c r="C6" s="148"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="147" t="s">
         <v>201</v>
       </c>
-      <c r="G6" s="116"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="187" t="s">
+      <c r="G6" s="161"/>
+      <c r="H6" s="162"/>
+      <c r="I6" s="162"/>
+      <c r="J6" s="162"/>
+      <c r="K6" s="163"/>
+      <c r="L6" s="183" t="s">
         <v>262</v>
       </c>
-      <c r="M6" s="188"/>
-      <c r="N6" s="188"/>
-      <c r="O6" s="189"/>
+      <c r="M6" s="184"/>
+      <c r="N6" s="184"/>
+      <c r="O6" s="185"/>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="2"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="190" t="s">
+      <c r="C7" s="148"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="112" t="s">
         <v>202</v>
       </c>
-      <c r="M7" s="137"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="191"/>
+      <c r="M7" s="113"/>
+      <c r="N7" s="113"/>
+      <c r="O7" s="114"/>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="2"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="192"/>
-      <c r="M8" s="193"/>
-      <c r="N8" s="193"/>
-      <c r="O8" s="194"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="167"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="191"/>
+      <c r="M8" s="192"/>
+      <c r="N8" s="192"/>
+      <c r="O8" s="193"/>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="2"/>
@@ -3718,70 +3711,70 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="142" t="s">
+      <c r="H9" s="150" t="s">
         <v>204</v>
       </c>
-      <c r="I9" s="142" t="s">
+      <c r="I9" s="150" t="s">
         <v>205</v>
       </c>
-      <c r="J9" s="142" t="s">
+      <c r="J9" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="146" t="s">
+      <c r="K9" s="178" t="s">
         <v>206</v>
       </c>
-      <c r="L9" s="181" t="s">
+      <c r="L9" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="M9" s="182"/>
-      <c r="N9" s="195" t="s">
+      <c r="M9" s="110"/>
+      <c r="N9" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="O9" s="196"/>
+      <c r="O9" s="116"/>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="2"/>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="168" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="142"/>
-      <c r="K10" s="146"/>
-      <c r="L10" s="181" t="s">
+      <c r="D10" s="169"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="170"/>
+      <c r="H10" s="150"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="150"/>
+      <c r="K10" s="178"/>
+      <c r="L10" s="109" t="s">
         <v>207</v>
       </c>
-      <c r="M10" s="182"/>
-      <c r="N10" s="182"/>
-      <c r="O10" s="183"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="111"/>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="2"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="142"/>
-      <c r="I11" s="142"/>
-      <c r="J11" s="142" t="s">
+      <c r="C11" s="171"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="172"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="173"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="147" t="s">
+      <c r="K11" s="179" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="168" t="s">
+      <c r="L11" s="117" t="s">
         <v>263</v>
       </c>
-      <c r="M11" s="169"/>
-      <c r="N11" s="170" t="s">
+      <c r="M11" s="118"/>
+      <c r="N11" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="171"/>
+      <c r="O11" s="120"/>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="2"/>
@@ -3792,41 +3785,41 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="142"/>
-      <c r="J12" s="142"/>
-      <c r="K12" s="147"/>
-      <c r="L12" s="172" t="s">
+      <c r="H12" s="150"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="179"/>
+      <c r="L12" s="121" t="s">
         <v>209</v>
       </c>
-      <c r="M12" s="173"/>
-      <c r="N12" s="173"/>
-      <c r="O12" s="174"/>
+      <c r="M12" s="122"/>
+      <c r="N12" s="122"/>
+      <c r="O12" s="123"/>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="2"/>
-      <c r="C13" s="175" t="s">
+      <c r="C13" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="176"/>
-      <c r="E13" s="176"/>
-      <c r="F13" s="176"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="142"/>
-      <c r="J13" s="142"/>
-      <c r="K13" s="147"/>
-      <c r="L13" s="168" t="s">
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="150"/>
+      <c r="K13" s="179"/>
+      <c r="L13" s="117" t="s">
         <v>263</v>
       </c>
-      <c r="M13" s="169"/>
-      <c r="N13" s="170" t="s">
+      <c r="M13" s="118"/>
+      <c r="N13" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="171"/>
+      <c r="O13" s="120"/>
     </row>
     <row r="14" spans="1:15" ht="9" customHeight="1">
-      <c r="B14" s="138" t="s">
+      <c r="B14" s="146" t="s">
         <v>210</v>
       </c>
       <c r="C14" s="12"/>
@@ -3844,7 +3837,7 @@
       <c r="O14" s="28"/>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="138"/>
+      <c r="B15" s="146"/>
       <c r="C15" s="12"/>
       <c r="D15" s="13" t="s">
         <v>211</v>
@@ -3862,7 +3855,7 @@
       <c r="O15" s="29"/>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="138"/>
+      <c r="B16" s="146"/>
       <c r="C16" s="12"/>
       <c r="D16" s="13"/>
       <c r="E16" s="14" t="s">
@@ -3880,7 +3873,7 @@
       <c r="O16" s="29"/>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="138"/>
+      <c r="B17" s="146"/>
       <c r="C17" s="12"/>
       <c r="D17" s="13"/>
       <c r="E17" s="14" t="s">
@@ -3898,7 +3891,7 @@
       <c r="O17" s="29"/>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="138"/>
+      <c r="B18" s="146"/>
       <c r="C18" s="12"/>
       <c r="D18" s="2"/>
       <c r="E18" s="14" t="s">
@@ -3916,7 +3909,7 @@
       <c r="O18" s="29"/>
     </row>
     <row r="19" spans="2:15" ht="9" customHeight="1">
-      <c r="B19" s="138"/>
+      <c r="B19" s="146"/>
       <c r="C19" s="12"/>
       <c r="D19" s="2"/>
       <c r="E19" s="13"/>
@@ -3932,7 +3925,7 @@
       <c r="O19" s="29"/>
     </row>
     <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="138"/>
+      <c r="B20" s="146"/>
       <c r="C20" s="12"/>
       <c r="D20" s="13" t="s">
         <v>215</v>
@@ -3950,189 +3943,189 @@
       <c r="O20" s="29"/>
     </row>
     <row r="21" spans="2:15" ht="15" customHeight="1">
-      <c r="B21" s="138"/>
+      <c r="B21" s="146"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="129" t="s">
+      <c r="D21" s="143" t="s">
         <v>216</v>
       </c>
-      <c r="E21" s="129"/>
-      <c r="F21" s="136" t="s">
+      <c r="E21" s="143"/>
+      <c r="F21" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="136"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="136"/>
-      <c r="J21" s="136"/>
-      <c r="K21" s="136"/>
-      <c r="L21" s="136"/>
-      <c r="M21" s="136"/>
-      <c r="N21" s="136"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="139"/>
+      <c r="L21" s="139"/>
+      <c r="M21" s="139"/>
+      <c r="N21" s="139"/>
       <c r="O21" s="29"/>
     </row>
     <row r="22" spans="2:15" ht="15" customHeight="1">
-      <c r="B22" s="138"/>
+      <c r="B22" s="146"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="136"/>
-      <c r="K22" s="136"/>
-      <c r="L22" s="136"/>
-      <c r="M22" s="136"/>
-      <c r="N22" s="136"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="139"/>
+      <c r="K22" s="139"/>
+      <c r="L22" s="139"/>
+      <c r="M22" s="139"/>
+      <c r="N22" s="139"/>
       <c r="O22" s="29"/>
     </row>
     <row r="23" spans="2:15" ht="15" customHeight="1">
-      <c r="B23" s="138"/>
+      <c r="B23" s="146"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="129" t="s">
+      <c r="D23" s="143" t="s">
         <v>217</v>
       </c>
-      <c r="E23" s="129"/>
-      <c r="F23" s="136" t="s">
+      <c r="E23" s="143"/>
+      <c r="F23" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="136"/>
-      <c r="J23" s="136"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="136"/>
-      <c r="M23" s="136"/>
-      <c r="N23" s="136"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="139"/>
+      <c r="K23" s="139"/>
+      <c r="L23" s="139"/>
+      <c r="M23" s="139"/>
+      <c r="N23" s="139"/>
       <c r="O23" s="29"/>
     </row>
     <row r="24" spans="2:15" ht="15" customHeight="1">
-      <c r="B24" s="138"/>
+      <c r="B24" s="146"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="129"/>
-      <c r="E24" s="129"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="136"/>
-      <c r="H24" s="136"/>
-      <c r="I24" s="136"/>
-      <c r="J24" s="136"/>
-      <c r="K24" s="136"/>
-      <c r="L24" s="136"/>
-      <c r="M24" s="136"/>
-      <c r="N24" s="136"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="139"/>
+      <c r="J24" s="139"/>
+      <c r="K24" s="139"/>
+      <c r="L24" s="139"/>
+      <c r="M24" s="139"/>
+      <c r="N24" s="139"/>
       <c r="O24" s="29"/>
     </row>
     <row r="25" spans="2:15" ht="15" customHeight="1">
-      <c r="B25" s="138"/>
+      <c r="B25" s="146"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="129" t="s">
+      <c r="D25" s="143" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="129"/>
-      <c r="F25" s="136" t="s">
+      <c r="E25" s="143"/>
+      <c r="F25" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="136"/>
-      <c r="H25" s="136"/>
-      <c r="I25" s="136"/>
-      <c r="J25" s="136"/>
-      <c r="K25" s="136"/>
-      <c r="L25" s="136"/>
-      <c r="M25" s="136"/>
-      <c r="N25" s="136"/>
+      <c r="G25" s="139"/>
+      <c r="H25" s="139"/>
+      <c r="I25" s="139"/>
+      <c r="J25" s="139"/>
+      <c r="K25" s="139"/>
+      <c r="L25" s="139"/>
+      <c r="M25" s="139"/>
+      <c r="N25" s="139"/>
       <c r="O25" s="29"/>
     </row>
     <row r="26" spans="2:15" ht="15" customHeight="1">
-      <c r="B26" s="138"/>
+      <c r="B26" s="146"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="136"/>
-      <c r="G26" s="136"/>
-      <c r="H26" s="136"/>
-      <c r="I26" s="136"/>
-      <c r="J26" s="136"/>
-      <c r="K26" s="136"/>
-      <c r="L26" s="136"/>
-      <c r="M26" s="136"/>
-      <c r="N26" s="136"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="139"/>
+      <c r="K26" s="139"/>
+      <c r="L26" s="139"/>
+      <c r="M26" s="139"/>
+      <c r="N26" s="139"/>
       <c r="O26" s="29"/>
     </row>
     <row r="27" spans="2:15" ht="15" customHeight="1">
-      <c r="B27" s="138"/>
+      <c r="B27" s="146"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="129" t="s">
+      <c r="D27" s="143" t="s">
         <v>218</v>
       </c>
-      <c r="E27" s="129"/>
-      <c r="F27" s="148" t="s">
+      <c r="E27" s="143"/>
+      <c r="F27" s="154" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="145" t="s">
+      <c r="G27" s="155"/>
+      <c r="H27" s="155"/>
+      <c r="I27" s="153" t="s">
         <v>219</v>
       </c>
-      <c r="J27" s="150" t="s">
+      <c r="J27" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
-      <c r="N27" s="151"/>
+      <c r="K27" s="156"/>
+      <c r="L27" s="156"/>
+      <c r="M27" s="156"/>
+      <c r="N27" s="157"/>
       <c r="O27" s="29"/>
     </row>
     <row r="28" spans="2:15" ht="15" customHeight="1">
-      <c r="B28" s="138"/>
+      <c r="B28" s="146"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
-      <c r="N28" s="151"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="156"/>
+      <c r="L28" s="156"/>
+      <c r="M28" s="156"/>
+      <c r="N28" s="157"/>
       <c r="O28" s="29"/>
     </row>
     <row r="29" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B29" s="138"/>
+      <c r="B29" s="146"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="130" t="s">
+      <c r="D29" s="129" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="131"/>
-      <c r="F29" s="130" t="s">
+      <c r="E29" s="130"/>
+      <c r="F29" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="G29" s="131"/>
-      <c r="H29" s="143" t="s">
+      <c r="G29" s="130"/>
+      <c r="H29" s="151" t="s">
         <v>73</v>
       </c>
-      <c r="I29" s="158" t="s">
+      <c r="I29" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="J29" s="159"/>
-      <c r="K29" s="180" t="s">
+      <c r="J29" s="128"/>
+      <c r="K29" s="133" t="s">
         <v>75</v>
       </c>
-      <c r="L29" s="131"/>
-      <c r="M29" s="130" t="s">
+      <c r="L29" s="130"/>
+      <c r="M29" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="N29" s="131"/>
+      <c r="N29" s="130"/>
       <c r="O29" s="29"/>
     </row>
     <row r="30" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B30" s="138"/>
+      <c r="B30" s="146"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="132"/>
-      <c r="E30" s="133"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="176"/>
       <c r="F30" s="134"/>
       <c r="G30" s="135"/>
-      <c r="H30" s="144"/>
+      <c r="H30" s="152"/>
       <c r="I30" s="15" t="s">
         <v>77</v>
       </c>
@@ -4141,21 +4134,21 @@
       </c>
       <c r="K30" s="134"/>
       <c r="L30" s="135"/>
-      <c r="M30" s="178" t="s">
+      <c r="M30" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="N30" s="179"/>
+      <c r="N30" s="132"/>
       <c r="O30" s="29"/>
     </row>
     <row r="31" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B31" s="138"/>
+      <c r="B31" s="146"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="132"/>
-      <c r="E31" s="133"/>
-      <c r="F31" s="161" t="s">
+      <c r="D31" s="175"/>
+      <c r="E31" s="176"/>
+      <c r="F31" s="136" t="s">
         <v>81</v>
       </c>
-      <c r="G31" s="162"/>
+      <c r="G31" s="137"/>
       <c r="H31" s="17" t="s">
         <v>82</v>
       </c>
@@ -4165,25 +4158,25 @@
       <c r="J31" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="K31" s="167" t="s">
+      <c r="K31" s="138" t="s">
         <v>82</v>
       </c>
-      <c r="L31" s="136"/>
-      <c r="M31" s="154" t="s">
+      <c r="L31" s="139"/>
+      <c r="M31" s="140" t="s">
         <v>83</v>
       </c>
-      <c r="N31" s="154"/>
+      <c r="N31" s="140"/>
       <c r="O31" s="29"/>
     </row>
     <row r="32" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B32" s="138"/>
+      <c r="B32" s="146"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="132"/>
-      <c r="E32" s="133"/>
-      <c r="F32" s="161" t="s">
+      <c r="D32" s="175"/>
+      <c r="E32" s="176"/>
+      <c r="F32" s="136" t="s">
         <v>84</v>
       </c>
-      <c r="G32" s="162"/>
+      <c r="G32" s="137"/>
       <c r="H32" s="18" t="s">
         <v>85</v>
       </c>
@@ -4193,25 +4186,25 @@
       <c r="J32" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="K32" s="167" t="s">
+      <c r="K32" s="138" t="s">
         <v>221</v>
       </c>
-      <c r="L32" s="136"/>
-      <c r="M32" s="154" t="s">
+      <c r="L32" s="139"/>
+      <c r="M32" s="140" t="s">
         <v>91</v>
       </c>
-      <c r="N32" s="154"/>
+      <c r="N32" s="140"/>
       <c r="O32" s="29"/>
     </row>
     <row r="33" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B33" s="138"/>
+      <c r="B33" s="146"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="132"/>
-      <c r="E33" s="133"/>
-      <c r="F33" s="161" t="s">
+      <c r="D33" s="175"/>
+      <c r="E33" s="176"/>
+      <c r="F33" s="136" t="s">
         <v>92</v>
       </c>
-      <c r="G33" s="162"/>
+      <c r="G33" s="137"/>
       <c r="H33" s="18" t="s">
         <v>93</v>
       </c>
@@ -4221,25 +4214,25 @@
       <c r="J33" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="K33" s="163" t="s">
+      <c r="K33" s="141" t="s">
         <v>222</v>
       </c>
-      <c r="L33" s="164"/>
-      <c r="M33" s="154" t="s">
+      <c r="L33" s="142"/>
+      <c r="M33" s="140" t="s">
         <v>98</v>
       </c>
-      <c r="N33" s="154"/>
+      <c r="N33" s="140"/>
       <c r="O33" s="29"/>
     </row>
     <row r="34" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B34" s="138"/>
+      <c r="B34" s="146"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="132"/>
-      <c r="E34" s="133"/>
-      <c r="F34" s="161" t="s">
+      <c r="D34" s="175"/>
+      <c r="E34" s="176"/>
+      <c r="F34" s="136" t="s">
         <v>99</v>
       </c>
-      <c r="G34" s="162"/>
+      <c r="G34" s="137"/>
       <c r="H34" s="18" t="s">
         <v>100</v>
       </c>
@@ -4249,25 +4242,25 @@
       <c r="J34" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="K34" s="163" t="s">
+      <c r="K34" s="141" t="s">
         <v>223</v>
       </c>
-      <c r="L34" s="164"/>
-      <c r="M34" s="154" t="s">
+      <c r="L34" s="142"/>
+      <c r="M34" s="140" t="s">
         <v>105</v>
       </c>
-      <c r="N34" s="154"/>
+      <c r="N34" s="140"/>
       <c r="O34" s="29"/>
     </row>
     <row r="35" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B35" s="138"/>
+      <c r="B35" s="146"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="132"/>
-      <c r="E35" s="133"/>
-      <c r="F35" s="161" t="s">
+      <c r="D35" s="175"/>
+      <c r="E35" s="176"/>
+      <c r="F35" s="136" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="162"/>
+      <c r="G35" s="137"/>
       <c r="H35" s="18" t="s">
         <v>107</v>
       </c>
@@ -4277,25 +4270,25 @@
       <c r="J35" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="K35" s="163" t="s">
+      <c r="K35" s="141" t="s">
         <v>224</v>
       </c>
-      <c r="L35" s="164"/>
-      <c r="M35" s="154" t="s">
+      <c r="L35" s="142"/>
+      <c r="M35" s="140" t="s">
         <v>112</v>
       </c>
-      <c r="N35" s="154"/>
+      <c r="N35" s="140"/>
       <c r="O35" s="29"/>
     </row>
     <row r="36" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B36" s="138"/>
+      <c r="B36" s="146"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="132"/>
-      <c r="E36" s="133"/>
-      <c r="F36" s="161" t="s">
+      <c r="D36" s="175"/>
+      <c r="E36" s="176"/>
+      <c r="F36" s="136" t="s">
         <v>113</v>
       </c>
-      <c r="G36" s="162"/>
+      <c r="G36" s="137"/>
       <c r="H36" s="18" t="s">
         <v>114</v>
       </c>
@@ -4305,25 +4298,25 @@
       <c r="J36" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="K36" s="163" t="s">
+      <c r="K36" s="141" t="s">
         <v>225</v>
       </c>
-      <c r="L36" s="164"/>
-      <c r="M36" s="154" t="s">
+      <c r="L36" s="142"/>
+      <c r="M36" s="140" t="s">
         <v>119</v>
       </c>
-      <c r="N36" s="154"/>
+      <c r="N36" s="140"/>
       <c r="O36" s="29"/>
     </row>
     <row r="37" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B37" s="138"/>
+      <c r="B37" s="146"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="132"/>
-      <c r="E37" s="133"/>
-      <c r="F37" s="161" t="s">
+      <c r="D37" s="175"/>
+      <c r="E37" s="176"/>
+      <c r="F37" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="G37" s="162"/>
+      <c r="G37" s="137"/>
       <c r="H37" s="18" t="s">
         <v>121</v>
       </c>
@@ -4333,44 +4326,44 @@
       <c r="J37" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="K37" s="163" t="s">
+      <c r="K37" s="141" t="s">
         <v>226</v>
       </c>
-      <c r="L37" s="164"/>
-      <c r="M37" s="154" t="s">
+      <c r="L37" s="142"/>
+      <c r="M37" s="140" t="s">
         <v>126</v>
       </c>
-      <c r="N37" s="154"/>
+      <c r="N37" s="140"/>
       <c r="O37" s="29"/>
     </row>
     <row r="38" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B38" s="138"/>
+      <c r="B38" s="146"/>
       <c r="C38" s="12"/>
       <c r="D38" s="134"/>
       <c r="E38" s="135"/>
-      <c r="F38" s="129" t="s">
+      <c r="F38" s="143" t="s">
         <v>127</v>
       </c>
-      <c r="G38" s="129"/>
-      <c r="H38" s="129"/>
+      <c r="G38" s="143"/>
+      <c r="H38" s="143"/>
       <c r="I38" s="15" t="s">
         <v>128</v>
       </c>
       <c r="J38" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="K38" s="129" t="s">
+      <c r="K38" s="143" t="s">
         <v>90</v>
       </c>
-      <c r="L38" s="129"/>
-      <c r="M38" s="129" t="s">
+      <c r="L38" s="143"/>
+      <c r="M38" s="143" t="s">
         <v>130</v>
       </c>
-      <c r="N38" s="129"/>
+      <c r="N38" s="143"/>
       <c r="O38" s="29"/>
     </row>
     <row r="39" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B39" s="138"/>
+      <c r="B39" s="146"/>
       <c r="C39" s="12"/>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
@@ -4379,18 +4372,18 @@
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="19"/>
-      <c r="K39" s="165" t="s">
+      <c r="K39" s="144" t="s">
         <v>227</v>
       </c>
-      <c r="L39" s="165"/>
-      <c r="M39" s="166" t="s">
+      <c r="L39" s="144"/>
+      <c r="M39" s="145" t="s">
         <v>65</v>
       </c>
-      <c r="N39" s="166"/>
+      <c r="N39" s="145"/>
       <c r="O39" s="29"/>
     </row>
     <row r="40" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B40" s="138"/>
+      <c r="B40" s="146"/>
       <c r="C40" s="12"/>
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
@@ -4399,138 +4392,138 @@
       <c r="H40" s="20"/>
       <c r="I40" s="20"/>
       <c r="J40" s="20"/>
-      <c r="K40" s="165" t="s">
+      <c r="K40" s="144" t="s">
         <v>66</v>
       </c>
-      <c r="L40" s="165"/>
-      <c r="M40" s="166" t="s">
+      <c r="L40" s="144"/>
+      <c r="M40" s="145" t="s">
         <v>67</v>
       </c>
-      <c r="N40" s="166"/>
+      <c r="N40" s="145"/>
       <c r="O40" s="29"/>
     </row>
     <row r="41" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B41" s="138"/>
+      <c r="B41" s="146"/>
       <c r="C41" s="12"/>
-      <c r="D41" s="129" t="s">
+      <c r="D41" s="143" t="s">
         <v>228</v>
       </c>
-      <c r="E41" s="129"/>
-      <c r="F41" s="158" t="s">
+      <c r="E41" s="143"/>
+      <c r="F41" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="159"/>
-      <c r="H41" s="160" t="s">
+      <c r="G41" s="128"/>
+      <c r="H41" s="180" t="s">
         <v>35</v>
       </c>
-      <c r="I41" s="159"/>
-      <c r="J41" s="129" t="s">
+      <c r="I41" s="128"/>
+      <c r="J41" s="143" t="s">
         <v>229</v>
       </c>
-      <c r="K41" s="129"/>
-      <c r="L41" s="129"/>
-      <c r="M41" s="129"/>
-      <c r="N41" s="129"/>
+      <c r="K41" s="143"/>
+      <c r="L41" s="143"/>
+      <c r="M41" s="143"/>
+      <c r="N41" s="143"/>
       <c r="O41" s="29"/>
     </row>
     <row r="42" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B42" s="138"/>
+      <c r="B42" s="146"/>
       <c r="C42" s="12"/>
-      <c r="D42" s="129" t="s">
+      <c r="D42" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="129"/>
-      <c r="F42" s="152" t="s">
+      <c r="E42" s="143"/>
+      <c r="F42" s="189" t="s">
         <v>238</v>
       </c>
-      <c r="G42" s="153"/>
-      <c r="H42" s="152" t="s">
+      <c r="G42" s="190"/>
+      <c r="H42" s="189" t="s">
         <v>254</v>
       </c>
-      <c r="I42" s="153"/>
-      <c r="J42" s="154" t="s">
+      <c r="I42" s="190"/>
+      <c r="J42" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="K42" s="154"/>
-      <c r="L42" s="154"/>
-      <c r="M42" s="154"/>
-      <c r="N42" s="154"/>
+      <c r="K42" s="140"/>
+      <c r="L42" s="140"/>
+      <c r="M42" s="140"/>
+      <c r="N42" s="140"/>
       <c r="O42" s="29"/>
     </row>
     <row r="43" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B43" s="138"/>
+      <c r="B43" s="146"/>
       <c r="C43" s="12"/>
-      <c r="D43" s="129" t="s">
+      <c r="D43" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="129"/>
-      <c r="F43" s="152" t="s">
+      <c r="E43" s="143"/>
+      <c r="F43" s="189" t="s">
         <v>255</v>
       </c>
-      <c r="G43" s="153"/>
-      <c r="H43" s="152" t="s">
+      <c r="G43" s="190"/>
+      <c r="H43" s="189" t="s">
         <v>256</v>
       </c>
-      <c r="I43" s="153"/>
-      <c r="J43" s="154" t="s">
+      <c r="I43" s="190"/>
+      <c r="J43" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="K43" s="154"/>
-      <c r="L43" s="154"/>
-      <c r="M43" s="154"/>
-      <c r="N43" s="154"/>
+      <c r="K43" s="140"/>
+      <c r="L43" s="140"/>
+      <c r="M43" s="140"/>
+      <c r="N43" s="140"/>
       <c r="O43" s="29"/>
     </row>
     <row r="44" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B44" s="138"/>
+      <c r="B44" s="146"/>
       <c r="C44" s="12"/>
-      <c r="D44" s="129" t="s">
+      <c r="D44" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="E44" s="129"/>
-      <c r="F44" s="152" t="s">
+      <c r="E44" s="143"/>
+      <c r="F44" s="189" t="s">
         <v>246</v>
       </c>
-      <c r="G44" s="153"/>
-      <c r="H44" s="152" t="s">
+      <c r="G44" s="190"/>
+      <c r="H44" s="189" t="s">
         <v>257</v>
       </c>
-      <c r="I44" s="153"/>
-      <c r="J44" s="154" t="s">
+      <c r="I44" s="190"/>
+      <c r="J44" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="K44" s="154"/>
-      <c r="L44" s="154"/>
-      <c r="M44" s="154"/>
-      <c r="N44" s="154"/>
+      <c r="K44" s="140"/>
+      <c r="L44" s="140"/>
+      <c r="M44" s="140"/>
+      <c r="N44" s="140"/>
       <c r="O44" s="29"/>
     </row>
     <row r="45" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B45" s="138"/>
+      <c r="B45" s="146"/>
       <c r="C45" s="12"/>
-      <c r="D45" s="129" t="s">
+      <c r="D45" s="143" t="s">
         <v>50</v>
       </c>
-      <c r="E45" s="129"/>
-      <c r="F45" s="152" t="s">
+      <c r="E45" s="143"/>
+      <c r="F45" s="189" t="s">
         <v>250</v>
       </c>
-      <c r="G45" s="153"/>
-      <c r="H45" s="152" t="s">
+      <c r="G45" s="190"/>
+      <c r="H45" s="189" t="s">
         <v>252</v>
       </c>
-      <c r="I45" s="153"/>
-      <c r="J45" s="154" t="s">
+      <c r="I45" s="190"/>
+      <c r="J45" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="K45" s="154"/>
-      <c r="L45" s="154"/>
-      <c r="M45" s="154"/>
-      <c r="N45" s="154"/>
+      <c r="K45" s="140"/>
+      <c r="L45" s="140"/>
+      <c r="M45" s="140"/>
+      <c r="N45" s="140"/>
       <c r="O45" s="29"/>
     </row>
     <row r="46" spans="2:15" ht="21.75" customHeight="1">
-      <c r="B46" s="138"/>
+      <c r="B46" s="146"/>
       <c r="C46" s="12"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
@@ -4538,17 +4531,17 @@
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
-      <c r="J46" s="155" t="s">
+      <c r="J46" s="158" t="s">
         <v>34</v>
       </c>
-      <c r="K46" s="156"/>
-      <c r="L46" s="156"/>
-      <c r="M46" s="156"/>
-      <c r="N46" s="157"/>
+      <c r="K46" s="159"/>
+      <c r="L46" s="159"/>
+      <c r="M46" s="159"/>
+      <c r="N46" s="160"/>
       <c r="O46" s="29"/>
     </row>
     <row r="47" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="138"/>
+      <c r="B47" s="146"/>
       <c r="C47" s="12"/>
       <c r="D47" s="13" t="s">
         <v>230</v>
@@ -4566,13 +4559,13 @@
       <c r="O47" s="29"/>
     </row>
     <row r="48" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B48" s="138"/>
+      <c r="B48" s="146"/>
       <c r="C48" s="12"/>
       <c r="D48" s="13"/>
-      <c r="E48" s="137" t="s">
+      <c r="E48" s="113" t="s">
         <v>231</v>
       </c>
-      <c r="F48" s="137"/>
+      <c r="F48" s="113"/>
       <c r="G48" s="22" t="s">
         <v>69</v>
       </c>
@@ -4586,13 +4579,13 @@
       <c r="O48" s="29"/>
     </row>
     <row r="49" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="138"/>
+      <c r="B49" s="146"/>
       <c r="C49" s="12"/>
       <c r="D49" s="13"/>
-      <c r="E49" s="137" t="s">
+      <c r="E49" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="F49" s="137"/>
+      <c r="F49" s="113"/>
       <c r="G49" s="22" t="s">
         <v>71</v>
       </c>
@@ -4606,7 +4599,7 @@
       <c r="O49" s="29"/>
     </row>
     <row r="50" spans="2:15" ht="9.75" customHeight="1">
-      <c r="B50" s="138"/>
+      <c r="B50" s="146"/>
       <c r="C50" s="12"/>
       <c r="D50" s="13"/>
       <c r="E50" s="21"/>
@@ -4622,211 +4615,211 @@
       <c r="O50" s="29"/>
     </row>
     <row r="51" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="138"/>
+      <c r="B51" s="146"/>
       <c r="C51" s="12"/>
       <c r="D51" s="13" t="s">
         <v>233</v>
       </c>
       <c r="E51" s="21"/>
-      <c r="F51" s="114" t="str">
+      <c r="F51" s="181" t="str">
         <f>記入!E35</f>
         <v>${aw.remarks}</v>
       </c>
-      <c r="G51" s="114"/>
-      <c r="H51" s="114"/>
-      <c r="I51" s="114"/>
-      <c r="J51" s="114"/>
-      <c r="K51" s="114"/>
-      <c r="L51" s="114"/>
-      <c r="M51" s="114"/>
-      <c r="N51" s="114"/>
+      <c r="G51" s="181"/>
+      <c r="H51" s="181"/>
+      <c r="I51" s="181"/>
+      <c r="J51" s="181"/>
+      <c r="K51" s="181"/>
+      <c r="L51" s="181"/>
+      <c r="M51" s="181"/>
+      <c r="N51" s="181"/>
       <c r="O51" s="29"/>
     </row>
     <row r="52" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B52" s="138"/>
+      <c r="B52" s="146"/>
       <c r="C52" s="12"/>
       <c r="D52" s="13"/>
       <c r="E52" s="24"/>
-      <c r="F52" s="115"/>
-      <c r="G52" s="115"/>
-      <c r="H52" s="115"/>
-      <c r="I52" s="115"/>
-      <c r="J52" s="115"/>
-      <c r="K52" s="115"/>
-      <c r="L52" s="115"/>
-      <c r="M52" s="115"/>
-      <c r="N52" s="115"/>
+      <c r="F52" s="182"/>
+      <c r="G52" s="182"/>
+      <c r="H52" s="182"/>
+      <c r="I52" s="182"/>
+      <c r="J52" s="182"/>
+      <c r="K52" s="182"/>
+      <c r="L52" s="182"/>
+      <c r="M52" s="182"/>
+      <c r="N52" s="182"/>
       <c r="O52" s="29"/>
     </row>
     <row r="53" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B53" s="138"/>
-      <c r="C53" s="113" t="s">
+      <c r="B53" s="146"/>
+      <c r="C53" s="177" t="s">
         <v>234</v>
       </c>
-      <c r="D53" s="113"/>
-      <c r="E53" s="113"/>
-      <c r="F53" s="113" t="s">
+      <c r="D53" s="177"/>
+      <c r="E53" s="177"/>
+      <c r="F53" s="177" t="s">
         <v>235</v>
       </c>
-      <c r="G53" s="113"/>
-      <c r="H53" s="113" t="s">
+      <c r="G53" s="177"/>
+      <c r="H53" s="177" t="s">
         <v>236</v>
       </c>
-      <c r="I53" s="113"/>
-      <c r="J53" s="113" t="s">
+      <c r="I53" s="177"/>
+      <c r="J53" s="177" t="s">
         <v>235</v>
       </c>
-      <c r="K53" s="113"/>
-      <c r="L53" s="113"/>
-      <c r="M53" s="113" t="s">
+      <c r="K53" s="177"/>
+      <c r="L53" s="177"/>
+      <c r="M53" s="177" t="s">
         <v>236</v>
       </c>
-      <c r="N53" s="113"/>
-      <c r="O53" s="113"/>
+      <c r="N53" s="177"/>
+      <c r="O53" s="177"/>
     </row>
     <row r="54" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B54" s="138"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="113"/>
-      <c r="F54" s="112"/>
-      <c r="G54" s="112"/>
-      <c r="H54" s="112"/>
-      <c r="I54" s="112"/>
-      <c r="J54" s="112"/>
-      <c r="K54" s="112"/>
-      <c r="L54" s="112"/>
-      <c r="M54" s="112"/>
-      <c r="N54" s="112"/>
-      <c r="O54" s="112"/>
+      <c r="B54" s="146"/>
+      <c r="C54" s="177"/>
+      <c r="D54" s="177"/>
+      <c r="E54" s="177"/>
+      <c r="F54" s="174"/>
+      <c r="G54" s="174"/>
+      <c r="H54" s="174"/>
+      <c r="I54" s="174"/>
+      <c r="J54" s="174"/>
+      <c r="K54" s="174"/>
+      <c r="L54" s="174"/>
+      <c r="M54" s="174"/>
+      <c r="N54" s="174"/>
+      <c r="O54" s="174"/>
     </row>
     <row r="55" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="138"/>
-      <c r="C55" s="113"/>
-      <c r="D55" s="113"/>
-      <c r="E55" s="113"/>
-      <c r="F55" s="112"/>
-      <c r="G55" s="112"/>
-      <c r="H55" s="112"/>
-      <c r="I55" s="112"/>
-      <c r="J55" s="112"/>
-      <c r="K55" s="112"/>
-      <c r="L55" s="112"/>
-      <c r="M55" s="112"/>
-      <c r="N55" s="112"/>
-      <c r="O55" s="112"/>
+      <c r="B55" s="146"/>
+      <c r="C55" s="177"/>
+      <c r="D55" s="177"/>
+      <c r="E55" s="177"/>
+      <c r="F55" s="174"/>
+      <c r="G55" s="174"/>
+      <c r="H55" s="174"/>
+      <c r="I55" s="174"/>
+      <c r="J55" s="174"/>
+      <c r="K55" s="174"/>
+      <c r="L55" s="174"/>
+      <c r="M55" s="174"/>
+      <c r="N55" s="174"/>
+      <c r="O55" s="174"/>
     </row>
     <row r="56" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B56" s="138"/>
-      <c r="C56" s="113"/>
-      <c r="D56" s="113"/>
-      <c r="E56" s="113"/>
-      <c r="F56" s="112"/>
-      <c r="G56" s="112"/>
-      <c r="H56" s="112"/>
-      <c r="I56" s="112"/>
-      <c r="J56" s="112"/>
-      <c r="K56" s="112"/>
-      <c r="L56" s="112"/>
-      <c r="M56" s="112"/>
-      <c r="N56" s="112"/>
-      <c r="O56" s="112"/>
+      <c r="B56" s="146"/>
+      <c r="C56" s="177"/>
+      <c r="D56" s="177"/>
+      <c r="E56" s="177"/>
+      <c r="F56" s="174"/>
+      <c r="G56" s="174"/>
+      <c r="H56" s="174"/>
+      <c r="I56" s="174"/>
+      <c r="J56" s="174"/>
+      <c r="K56" s="174"/>
+      <c r="L56" s="174"/>
+      <c r="M56" s="174"/>
+      <c r="N56" s="174"/>
+      <c r="O56" s="174"/>
     </row>
     <row r="57" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="138"/>
-      <c r="C57" s="113"/>
-      <c r="D57" s="113"/>
-      <c r="E57" s="113"/>
-      <c r="F57" s="112"/>
-      <c r="G57" s="112"/>
-      <c r="H57" s="112"/>
-      <c r="I57" s="112"/>
-      <c r="J57" s="112"/>
-      <c r="K57" s="112"/>
-      <c r="L57" s="112"/>
-      <c r="M57" s="112"/>
-      <c r="N57" s="112"/>
-      <c r="O57" s="112"/>
+      <c r="B57" s="146"/>
+      <c r="C57" s="177"/>
+      <c r="D57" s="177"/>
+      <c r="E57" s="177"/>
+      <c r="F57" s="174"/>
+      <c r="G57" s="174"/>
+      <c r="H57" s="174"/>
+      <c r="I57" s="174"/>
+      <c r="J57" s="174"/>
+      <c r="K57" s="174"/>
+      <c r="L57" s="174"/>
+      <c r="M57" s="174"/>
+      <c r="N57" s="174"/>
+      <c r="O57" s="174"/>
     </row>
     <row r="58" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B58" s="138"/>
-      <c r="C58" s="113"/>
-      <c r="D58" s="113"/>
-      <c r="E58" s="113"/>
-      <c r="F58" s="112"/>
-      <c r="G58" s="112"/>
-      <c r="H58" s="112"/>
-      <c r="I58" s="112"/>
-      <c r="J58" s="112"/>
-      <c r="K58" s="112"/>
-      <c r="L58" s="112"/>
-      <c r="M58" s="112"/>
-      <c r="N58" s="112"/>
-      <c r="O58" s="112"/>
+      <c r="B58" s="146"/>
+      <c r="C58" s="177"/>
+      <c r="D58" s="177"/>
+      <c r="E58" s="177"/>
+      <c r="F58" s="174"/>
+      <c r="G58" s="174"/>
+      <c r="H58" s="174"/>
+      <c r="I58" s="174"/>
+      <c r="J58" s="174"/>
+      <c r="K58" s="174"/>
+      <c r="L58" s="174"/>
+      <c r="M58" s="174"/>
+      <c r="N58" s="174"/>
+      <c r="O58" s="174"/>
     </row>
     <row r="59" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B59" s="138"/>
-      <c r="C59" s="113"/>
-      <c r="D59" s="113"/>
-      <c r="E59" s="113"/>
-      <c r="F59" s="112"/>
-      <c r="G59" s="112"/>
-      <c r="H59" s="112"/>
-      <c r="I59" s="112"/>
-      <c r="J59" s="112"/>
-      <c r="K59" s="112"/>
-      <c r="L59" s="112"/>
-      <c r="M59" s="112"/>
-      <c r="N59" s="112"/>
-      <c r="O59" s="112"/>
+      <c r="B59" s="146"/>
+      <c r="C59" s="177"/>
+      <c r="D59" s="177"/>
+      <c r="E59" s="177"/>
+      <c r="F59" s="174"/>
+      <c r="G59" s="174"/>
+      <c r="H59" s="174"/>
+      <c r="I59" s="174"/>
+      <c r="J59" s="174"/>
+      <c r="K59" s="174"/>
+      <c r="L59" s="174"/>
+      <c r="M59" s="174"/>
+      <c r="N59" s="174"/>
+      <c r="O59" s="174"/>
     </row>
     <row r="60" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B60" s="138"/>
-      <c r="C60" s="113"/>
-      <c r="D60" s="113"/>
-      <c r="E60" s="113"/>
-      <c r="F60" s="112"/>
-      <c r="G60" s="112"/>
-      <c r="H60" s="112"/>
-      <c r="I60" s="112"/>
-      <c r="J60" s="112"/>
-      <c r="K60" s="112"/>
-      <c r="L60" s="112"/>
-      <c r="M60" s="112"/>
-      <c r="N60" s="112"/>
-      <c r="O60" s="112"/>
+      <c r="B60" s="146"/>
+      <c r="C60" s="177"/>
+      <c r="D60" s="177"/>
+      <c r="E60" s="177"/>
+      <c r="F60" s="174"/>
+      <c r="G60" s="174"/>
+      <c r="H60" s="174"/>
+      <c r="I60" s="174"/>
+      <c r="J60" s="174"/>
+      <c r="K60" s="174"/>
+      <c r="L60" s="174"/>
+      <c r="M60" s="174"/>
+      <c r="N60" s="174"/>
+      <c r="O60" s="174"/>
     </row>
     <row r="61" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B61" s="138"/>
-      <c r="C61" s="113"/>
-      <c r="D61" s="113"/>
-      <c r="E61" s="113"/>
-      <c r="F61" s="112"/>
-      <c r="G61" s="112"/>
-      <c r="H61" s="112"/>
-      <c r="I61" s="112"/>
-      <c r="J61" s="112"/>
-      <c r="K61" s="112"/>
-      <c r="L61" s="112"/>
-      <c r="M61" s="112"/>
-      <c r="N61" s="112"/>
-      <c r="O61" s="112"/>
+      <c r="B61" s="146"/>
+      <c r="C61" s="177"/>
+      <c r="D61" s="177"/>
+      <c r="E61" s="177"/>
+      <c r="F61" s="174"/>
+      <c r="G61" s="174"/>
+      <c r="H61" s="174"/>
+      <c r="I61" s="174"/>
+      <c r="J61" s="174"/>
+      <c r="K61" s="174"/>
+      <c r="L61" s="174"/>
+      <c r="M61" s="174"/>
+      <c r="N61" s="174"/>
+      <c r="O61" s="174"/>
     </row>
     <row r="62" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B62" s="138"/>
-      <c r="C62" s="113"/>
-      <c r="D62" s="113"/>
-      <c r="E62" s="113"/>
-      <c r="F62" s="112"/>
-      <c r="G62" s="112"/>
-      <c r="H62" s="112"/>
-      <c r="I62" s="112"/>
-      <c r="J62" s="112"/>
-      <c r="K62" s="112"/>
-      <c r="L62" s="112"/>
-      <c r="M62" s="112"/>
-      <c r="N62" s="112"/>
-      <c r="O62" s="112"/>
+      <c r="B62" s="146"/>
+      <c r="C62" s="177"/>
+      <c r="D62" s="177"/>
+      <c r="E62" s="177"/>
+      <c r="F62" s="174"/>
+      <c r="G62" s="174"/>
+      <c r="H62" s="174"/>
+      <c r="I62" s="174"/>
+      <c r="J62" s="174"/>
+      <c r="K62" s="174"/>
+      <c r="L62" s="174"/>
+      <c r="M62" s="174"/>
+      <c r="N62" s="174"/>
+      <c r="O62" s="174"/>
     </row>
     <row r="63" spans="2:15" ht="14.25">
       <c r="C63" s="25" t="s">
@@ -4841,62 +4834,42 @@
     <protectedRange sqref="M31:N37" name="範囲3_2_2"/>
   </protectedRanges>
   <mergeCells count="116">
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="K29:L30"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:N43"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="J60:L62"/>
+    <mergeCell ref="M60:O62"/>
+    <mergeCell ref="C53:E62"/>
+    <mergeCell ref="J54:L56"/>
+    <mergeCell ref="M54:O56"/>
+    <mergeCell ref="J57:L59"/>
+    <mergeCell ref="M57:O59"/>
+    <mergeCell ref="F51:N52"/>
+    <mergeCell ref="F60:G62"/>
+    <mergeCell ref="H60:I62"/>
+    <mergeCell ref="F54:G56"/>
+    <mergeCell ref="H54:I56"/>
+    <mergeCell ref="G4:K8"/>
+    <mergeCell ref="D3:E8"/>
+    <mergeCell ref="C10:G11"/>
+    <mergeCell ref="F57:G59"/>
+    <mergeCell ref="H57:I59"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="D27:E28"/>
+    <mergeCell ref="D29:E38"/>
+    <mergeCell ref="F21:N22"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:N41"/>
     <mergeCell ref="B14:B62"/>
     <mergeCell ref="C3:C8"/>
     <mergeCell ref="F3:F5"/>
@@ -4921,44 +4894,64 @@
     <mergeCell ref="J45:N45"/>
     <mergeCell ref="J46:N46"/>
     <mergeCell ref="D41:E41"/>
-    <mergeCell ref="G4:K8"/>
-    <mergeCell ref="D3:E8"/>
-    <mergeCell ref="C10:G11"/>
-    <mergeCell ref="F57:G59"/>
-    <mergeCell ref="H57:I59"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="D27:E28"/>
-    <mergeCell ref="D29:E38"/>
-    <mergeCell ref="F21:N22"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:N41"/>
-    <mergeCell ref="J60:L62"/>
-    <mergeCell ref="M60:O62"/>
-    <mergeCell ref="C53:E62"/>
-    <mergeCell ref="J54:L56"/>
-    <mergeCell ref="M54:O56"/>
-    <mergeCell ref="J57:L59"/>
-    <mergeCell ref="M57:O59"/>
-    <mergeCell ref="F51:N52"/>
-    <mergeCell ref="F60:G62"/>
-    <mergeCell ref="H60:I62"/>
-    <mergeCell ref="F54:G56"/>
-    <mergeCell ref="H54:I56"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:N43"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="K29:L30"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="L10:O10"/>
   </mergeCells>
-  <phoneticPr fontId="22"/>
+  <phoneticPr fontId="21"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="67" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/controller/src/main/resources/jxls_templates/juecaishu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/juecaishu_shoutuo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7140" tabRatio="570" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7140" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -1020,13 +1020,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
     <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="179" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="180" formatCode="0.00_ "/>
     <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="183" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1686,8 +1687,8 @@
     <xf numFmtId="176" fontId="5" fillId="2" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1695,37 +1696,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1788,6 +1759,225 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1800,9 +1990,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1812,245 +1999,59 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="40" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="40" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="10" fillId="2" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="5" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -2364,7 +2365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="B37" sqref="B37:B38"/>
     </sheetView>
   </sheetViews>
@@ -2382,14 +2383,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="G1" s="91" t="s">
+      <c r="B1" s="99"/>
+      <c r="G1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="92"/>
+      <c r="H1" s="82"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" s="34" t="s">
@@ -2402,8 +2403,8 @@
         <v>4</v>
       </c>
       <c r="D2" s="36"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="84"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" s="37" t="s">
@@ -2413,8 +2414,8 @@
       <c r="C3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="93"/>
-      <c r="H3" s="94"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="34" t="s">
@@ -2426,8 +2427,8 @@
       <c r="C4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="93"/>
-      <c r="H4" s="94"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="84"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
       <c r="A5" s="34" t="s">
@@ -2437,8 +2438,8 @@
       <c r="C5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="93"/>
-      <c r="H5" s="94"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="84"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="A6" s="42" t="s">
@@ -2450,8 +2451,8 @@
       <c r="C6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="93"/>
-      <c r="H6" s="94"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="84"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="A7" s="42" t="s">
@@ -2463,8 +2464,8 @@
       <c r="C7" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="93"/>
-      <c r="H7" s="94"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8" s="34" t="s">
@@ -2474,8 +2475,8 @@
       <c r="C8" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="93"/>
-      <c r="H8" s="94"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="84"/>
     </row>
     <row r="9" spans="1:8" s="31" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="37" t="s">
@@ -2487,8 +2488,8 @@
       <c r="C9" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="93"/>
-      <c r="H9" s="94"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="84"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="A10" s="34" t="s">
@@ -2500,8 +2501,8 @@
       <c r="C10" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="93"/>
-      <c r="H10" s="94"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="84"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
       <c r="A11" s="34" t="s">
@@ -2513,8 +2514,8 @@
       <c r="C11" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="93"/>
-      <c r="H11" s="94"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="84"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
       <c r="A12" s="34" t="s">
@@ -2526,8 +2527,8 @@
       <c r="C12" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="93"/>
-      <c r="H12" s="94"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="84"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="A13" s="34" t="s">
@@ -2537,8 +2538,8 @@
       <c r="C13" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="93"/>
-      <c r="H13" s="94"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="84"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
       <c r="A14" s="34" t="s">
@@ -2550,8 +2551,8 @@
       <c r="C14" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="93"/>
-      <c r="H14" s="94"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="84"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="A15" s="34" t="s">
@@ -2563,8 +2564,8 @@
       <c r="C15" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="93"/>
-      <c r="H15" s="94"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="84"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
       <c r="A16" s="34" t="s">
@@ -2574,8 +2575,8 @@
       <c r="C16" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="93"/>
-      <c r="H16" s="94"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="84"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
       <c r="A17" s="34" t="s">
@@ -2585,8 +2586,8 @@
       <c r="C17" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="93"/>
-      <c r="H17" s="94"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="84"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
       <c r="A18" s="34" t="s">
@@ -2596,8 +2597,8 @@
       <c r="C18" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="93"/>
-      <c r="H18" s="94"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="84"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="34" t="s">
@@ -2609,8 +2610,8 @@
       <c r="C19" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="93"/>
-      <c r="H19" s="94"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="84"/>
     </row>
     <row r="20" spans="1:8" s="31" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="34" t="s">
@@ -2622,8 +2623,8 @@
       <c r="C20" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="93"/>
-      <c r="H20" s="94"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="84"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1">
       <c r="A21" s="34" t="s">
@@ -2633,8 +2634,8 @@
       <c r="C21" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="93"/>
-      <c r="H21" s="94"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="84"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1">
       <c r="A22" s="34" t="s">
@@ -2644,8 +2645,8 @@
       <c r="C22" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="93"/>
-      <c r="H22" s="94"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="84"/>
     </row>
     <row r="23" spans="1:8" s="31" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="37" t="s">
@@ -2655,8 +2656,8 @@
       <c r="C23" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="93"/>
-      <c r="H23" s="94"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="84"/>
     </row>
     <row r="24" spans="1:8" s="31" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="37" t="s">
@@ -2666,8 +2667,8 @@
       <c r="C24" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="93"/>
-      <c r="H24" s="94"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="84"/>
     </row>
     <row r="25" spans="1:8" s="31" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="37" t="s">
@@ -2679,8 +2680,8 @@
       <c r="C25" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="93"/>
-      <c r="H25" s="94"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="84"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1">
       <c r="A26" s="37" t="s">
@@ -2692,14 +2693,14 @@
       <c r="C26" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="93"/>
-      <c r="H26" s="94"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="84"/>
     </row>
     <row r="27" spans="1:8" ht="3" customHeight="1">
       <c r="A27" s="48"/>
       <c r="B27" s="33"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="94"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="84"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1">
       <c r="A28" s="49" t="s">
@@ -2720,8 +2721,8 @@
       <c r="F28" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="93"/>
-      <c r="H28" s="94"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="84"/>
     </row>
     <row r="29" spans="1:8" ht="13.5" customHeight="1">
       <c r="A29" s="51" t="s">
@@ -2742,8 +2743,8 @@
       <c r="F29" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="93"/>
-      <c r="H29" s="94"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="84"/>
     </row>
     <row r="30" spans="1:8" ht="13.5" customHeight="1">
       <c r="A30" s="51" t="s">
@@ -2764,8 +2765,8 @@
       <c r="F30" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="G30" s="93"/>
-      <c r="H30" s="94"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="84"/>
     </row>
     <row r="31" spans="1:8" ht="13.5" customHeight="1">
       <c r="A31" s="51" t="s">
@@ -2786,8 +2787,8 @@
       <c r="F31" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="93"/>
-      <c r="H31" s="94"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="84"/>
     </row>
     <row r="32" spans="1:8" ht="14.25" customHeight="1">
       <c r="A32" s="51" t="s">
@@ -2808,8 +2809,8 @@
       <c r="F32" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="95"/>
-      <c r="H32" s="96"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="86"/>
     </row>
     <row r="33" spans="1:8" ht="6.75" customHeight="1">
       <c r="A33" s="53"/>
@@ -2826,16 +2827,16 @@
       <c r="B35" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="97" t="s">
+      <c r="C35" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="98"/>
-      <c r="E35" s="103" t="s">
+      <c r="D35" s="88"/>
+      <c r="E35" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="94"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="55" t="s">
@@ -2844,12 +2845,12 @@
       <c r="B36" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="99"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="106"/>
-      <c r="H36" s="106"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="96"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="55" t="s">
@@ -2858,12 +2859,12 @@
       <c r="B37" s="196" t="s">
         <v>259</v>
       </c>
-      <c r="C37" s="101"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="108"/>
-      <c r="G37" s="108"/>
-      <c r="H37" s="108"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="98"/>
     </row>
     <row r="38" spans="1:8" ht="13.5">
       <c r="A38" s="56" t="s">
@@ -2920,28 +2921,28 @@
       <c r="D41" s="33"/>
     </row>
     <row r="42" spans="1:8" s="32" customFormat="1" ht="14.25">
-      <c r="A42" s="85" t="s">
+      <c r="A42" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="85" t="s">
+      <c r="B42" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="80" t="s">
+      <c r="C42" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="82"/>
-      <c r="G42" s="86" t="s">
+      <c r="D42" s="101"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="H42" s="85" t="s">
+      <c r="H42" s="80" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.25">
-      <c r="A43" s="85"/>
-      <c r="B43" s="85"/>
+      <c r="A43" s="80"/>
+      <c r="B43" s="80"/>
       <c r="C43" s="60" t="s">
         <v>77</v>
       </c>
@@ -2954,8 +2955,8 @@
       <c r="F43" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="80"/>
     </row>
     <row r="44" spans="1:8" ht="14.25">
       <c r="A44" s="16" t="s">
@@ -3002,7 +3003,7 @@
       <c r="F45" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="G45" s="87" t="s">
+      <c r="G45" s="106" t="s">
         <v>90</v>
       </c>
       <c r="H45" s="17" t="s">
@@ -3028,7 +3029,7 @@
       <c r="F46" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G46" s="88"/>
+      <c r="G46" s="107"/>
       <c r="H46" s="17" t="s">
         <v>98</v>
       </c>
@@ -3052,7 +3053,7 @@
       <c r="F47" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="G47" s="88"/>
+      <c r="G47" s="107"/>
       <c r="H47" s="17" t="s">
         <v>105</v>
       </c>
@@ -3076,7 +3077,7 @@
       <c r="F48" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="G48" s="88"/>
+      <c r="G48" s="107"/>
       <c r="H48" s="17" t="s">
         <v>112</v>
       </c>
@@ -3100,7 +3101,7 @@
       <c r="F49" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="G49" s="88"/>
+      <c r="G49" s="107"/>
       <c r="H49" s="17" t="s">
         <v>119</v>
       </c>
@@ -3124,16 +3125,16 @@
       <c r="F50" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="G50" s="89"/>
+      <c r="G50" s="108"/>
       <c r="H50" s="17" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15">
-      <c r="A51" s="83" t="s">
+      <c r="A51" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="B51" s="84"/>
+      <c r="B51" s="104"/>
       <c r="C51" s="61" t="s">
         <v>128</v>
       </c>
@@ -3405,10 +3406,10 @@
       <c r="H70" s="63"/>
     </row>
     <row r="71" spans="2:8">
-      <c r="C71" s="90" t="s">
+      <c r="C71" s="77" t="s">
         <v>184</v>
       </c>
-      <c r="D71" s="90"/>
+      <c r="D71" s="77"/>
       <c r="E71" s="73" t="s">
         <v>185</v>
       </c>
@@ -3438,10 +3439,10 @@
       <c r="H73" s="63"/>
     </row>
     <row r="74" spans="2:8" ht="14.25" customHeight="1">
-      <c r="C74" s="90" t="s">
+      <c r="C74" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="D74" s="90"/>
+      <c r="D74" s="77"/>
       <c r="E74" s="73" t="s">
         <v>189</v>
       </c>
@@ -3450,10 +3451,10 @@
       <c r="H74" s="63"/>
     </row>
     <row r="75" spans="2:8" ht="14.25" customHeight="1">
-      <c r="C75" s="90" t="s">
+      <c r="C75" s="77" t="s">
         <v>190</v>
       </c>
-      <c r="D75" s="90"/>
+      <c r="D75" s="77"/>
       <c r="E75" s="73" t="s">
         <v>191</v>
       </c>
@@ -3462,10 +3463,10 @@
       <c r="H75" s="63"/>
     </row>
     <row r="76" spans="2:8" ht="14.25" customHeight="1">
-      <c r="C76" s="90" t="s">
+      <c r="C76" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="D76" s="90"/>
+      <c r="D76" s="77"/>
       <c r="E76" s="73" t="s">
         <v>193</v>
       </c>
@@ -3474,10 +3475,10 @@
       <c r="H76" s="63"/>
     </row>
     <row r="77" spans="2:8">
-      <c r="C77" s="90" t="s">
+      <c r="C77" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="D77" s="90"/>
+      <c r="D77" s="77"/>
       <c r="E77" s="73" t="s">
         <v>195</v>
       </c>
@@ -3500,16 +3501,6 @@
     <protectedRange sqref="C44:D50" name="範囲3_3"/>
   </protectedRanges>
   <mergeCells count="19">
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="G1:H32"/>
-    <mergeCell ref="C35:D37"/>
-    <mergeCell ref="E35:H37"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="F39:G39"/>
@@ -3519,6 +3510,16 @@
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="G42:G43"/>
     <mergeCell ref="G45:G50"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="G1:H32"/>
+    <mergeCell ref="C35:D37"/>
+    <mergeCell ref="E35:H37"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <dataValidations count="2">
@@ -3543,8 +3544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:G11"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A31" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42:I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3590,12 +3591,12 @@
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="2"/>
-      <c r="C3" s="147" t="s">
+      <c r="C3" s="142" t="s">
         <v>198</v>
       </c>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="147" t="s">
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="142" t="s">
         <v>199</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -3605,102 +3606,102 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="27"/>
-      <c r="L3" s="109" t="s">
+      <c r="L3" s="172" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="111"/>
+      <c r="M3" s="173"/>
+      <c r="N3" s="173"/>
+      <c r="O3" s="174"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="2"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="186" t="s">
+      <c r="C4" s="143"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="179" t="s">
         <v>261</v>
       </c>
-      <c r="M4" s="187"/>
-      <c r="N4" s="187"/>
-      <c r="O4" s="188"/>
+      <c r="M4" s="180"/>
+      <c r="N4" s="180"/>
+      <c r="O4" s="181"/>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="2"/>
-      <c r="C5" s="148"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="162"/>
-      <c r="I5" s="162"/>
-      <c r="J5" s="162"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="109" t="s">
+      <c r="C5" s="143"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="172" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="111"/>
+      <c r="M5" s="173"/>
+      <c r="N5" s="173"/>
+      <c r="O5" s="174"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="2"/>
-      <c r="C6" s="148"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="147" t="s">
+      <c r="C6" s="143"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="142" t="s">
         <v>201</v>
       </c>
-      <c r="G6" s="161"/>
-      <c r="H6" s="162"/>
-      <c r="I6" s="162"/>
-      <c r="J6" s="162"/>
-      <c r="K6" s="163"/>
-      <c r="L6" s="183" t="s">
+      <c r="G6" s="113"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="182" t="s">
         <v>262</v>
       </c>
-      <c r="M6" s="184"/>
-      <c r="N6" s="184"/>
-      <c r="O6" s="185"/>
+      <c r="M6" s="183"/>
+      <c r="N6" s="183"/>
+      <c r="O6" s="184"/>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="2"/>
-      <c r="C7" s="148"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162"/>
-      <c r="K7" s="163"/>
-      <c r="L7" s="112" t="s">
+      <c r="C7" s="143"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="175" t="s">
         <v>202</v>
       </c>
-      <c r="M7" s="113"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="114"/>
+      <c r="M7" s="134"/>
+      <c r="N7" s="134"/>
+      <c r="O7" s="176"/>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="2"/>
-      <c r="C8" s="149"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="167"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="164"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="165"/>
-      <c r="L8" s="191"/>
-      <c r="M8" s="192"/>
-      <c r="N8" s="192"/>
-      <c r="O8" s="193"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="185"/>
+      <c r="M8" s="186"/>
+      <c r="N8" s="186"/>
+      <c r="O8" s="187"/>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="2"/>
@@ -3711,70 +3712,70 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="150" t="s">
+      <c r="H9" s="135" t="s">
         <v>204</v>
       </c>
-      <c r="I9" s="150" t="s">
+      <c r="I9" s="135" t="s">
         <v>205</v>
       </c>
-      <c r="J9" s="150" t="s">
+      <c r="J9" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="178" t="s">
+      <c r="K9" s="136" t="s">
         <v>206</v>
       </c>
-      <c r="L9" s="109" t="s">
+      <c r="L9" s="172" t="s">
         <v>62</v>
       </c>
-      <c r="M9" s="110"/>
-      <c r="N9" s="115" t="s">
+      <c r="M9" s="173"/>
+      <c r="N9" s="177" t="s">
         <v>63</v>
       </c>
-      <c r="O9" s="116"/>
+      <c r="O9" s="178"/>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="2"/>
-      <c r="C10" s="168" t="s">
+      <c r="C10" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="150"/>
-      <c r="I10" s="150"/>
-      <c r="J10" s="150"/>
-      <c r="K10" s="178"/>
-      <c r="L10" s="109" t="s">
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="136"/>
+      <c r="L10" s="172" t="s">
         <v>207</v>
       </c>
-      <c r="M10" s="110"/>
-      <c r="N10" s="110"/>
-      <c r="O10" s="111"/>
+      <c r="M10" s="173"/>
+      <c r="N10" s="173"/>
+      <c r="O10" s="174"/>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="2"/>
-      <c r="C11" s="171"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="172"/>
-      <c r="F11" s="172"/>
-      <c r="G11" s="173"/>
-      <c r="H11" s="150"/>
-      <c r="I11" s="150"/>
-      <c r="J11" s="150" t="s">
+      <c r="C11" s="123"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="135" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="179" t="s">
+      <c r="K11" s="137" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="117" t="s">
+      <c r="L11" s="159" t="s">
         <v>263</v>
       </c>
-      <c r="M11" s="118"/>
-      <c r="N11" s="119" t="s">
+      <c r="M11" s="160"/>
+      <c r="N11" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="120"/>
+      <c r="O11" s="162"/>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="2"/>
@@ -3785,41 +3786,41 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="150"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="179"/>
-      <c r="L12" s="121" t="s">
+      <c r="H12" s="135"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="163" t="s">
         <v>209</v>
       </c>
-      <c r="M12" s="122"/>
-      <c r="N12" s="122"/>
-      <c r="O12" s="123"/>
+      <c r="M12" s="164"/>
+      <c r="N12" s="164"/>
+      <c r="O12" s="165"/>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="2"/>
-      <c r="C13" s="124" t="s">
+      <c r="C13" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="150"/>
-      <c r="I13" s="150"/>
-      <c r="J13" s="150"/>
-      <c r="K13" s="179"/>
-      <c r="L13" s="117" t="s">
+      <c r="D13" s="167"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="168"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="137"/>
+      <c r="L13" s="159" t="s">
         <v>263</v>
       </c>
-      <c r="M13" s="118"/>
-      <c r="N13" s="119" t="s">
+      <c r="M13" s="160"/>
+      <c r="N13" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="120"/>
+      <c r="O13" s="162"/>
     </row>
     <row r="14" spans="1:15" ht="9" customHeight="1">
-      <c r="B14" s="146" t="s">
+      <c r="B14" s="141" t="s">
         <v>210</v>
       </c>
       <c r="C14" s="12"/>
@@ -3837,7 +3838,7 @@
       <c r="O14" s="28"/>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="146"/>
+      <c r="B15" s="141"/>
       <c r="C15" s="12"/>
       <c r="D15" s="13" t="s">
         <v>211</v>
@@ -3855,7 +3856,7 @@
       <c r="O15" s="29"/>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="146"/>
+      <c r="B16" s="141"/>
       <c r="C16" s="12"/>
       <c r="D16" s="13"/>
       <c r="E16" s="14" t="s">
@@ -3873,7 +3874,7 @@
       <c r="O16" s="29"/>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="146"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="12"/>
       <c r="D17" s="13"/>
       <c r="E17" s="14" t="s">
@@ -3891,7 +3892,7 @@
       <c r="O17" s="29"/>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="146"/>
+      <c r="B18" s="141"/>
       <c r="C18" s="12"/>
       <c r="D18" s="2"/>
       <c r="E18" s="14" t="s">
@@ -3909,7 +3910,7 @@
       <c r="O18" s="29"/>
     </row>
     <row r="19" spans="2:15" ht="9" customHeight="1">
-      <c r="B19" s="146"/>
+      <c r="B19" s="141"/>
       <c r="C19" s="12"/>
       <c r="D19" s="2"/>
       <c r="E19" s="13"/>
@@ -3925,7 +3926,7 @@
       <c r="O19" s="29"/>
     </row>
     <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="146"/>
+      <c r="B20" s="141"/>
       <c r="C20" s="12"/>
       <c r="D20" s="13" t="s">
         <v>215</v>
@@ -3943,212 +3944,212 @@
       <c r="O20" s="29"/>
     </row>
     <row r="21" spans="2:15" ht="15" customHeight="1">
-      <c r="B21" s="146"/>
+      <c r="B21" s="141"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="143" t="s">
+      <c r="D21" s="126" t="s">
         <v>216</v>
       </c>
-      <c r="E21" s="143"/>
-      <c r="F21" s="139" t="s">
+      <c r="E21" s="126"/>
+      <c r="F21" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="139"/>
-      <c r="K21" s="139"/>
-      <c r="L21" s="139"/>
-      <c r="M21" s="139"/>
-      <c r="N21" s="139"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="133"/>
+      <c r="K21" s="133"/>
+      <c r="L21" s="133"/>
+      <c r="M21" s="133"/>
+      <c r="N21" s="133"/>
       <c r="O21" s="29"/>
     </row>
     <row r="22" spans="2:15" ht="15" customHeight="1">
-      <c r="B22" s="146"/>
+      <c r="B22" s="141"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="139"/>
-      <c r="J22" s="139"/>
-      <c r="K22" s="139"/>
-      <c r="L22" s="139"/>
-      <c r="M22" s="139"/>
-      <c r="N22" s="139"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="133"/>
+      <c r="K22" s="133"/>
+      <c r="L22" s="133"/>
+      <c r="M22" s="133"/>
+      <c r="N22" s="133"/>
       <c r="O22" s="29"/>
     </row>
     <row r="23" spans="2:15" ht="15" customHeight="1">
-      <c r="B23" s="146"/>
+      <c r="B23" s="141"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="143" t="s">
+      <c r="D23" s="126" t="s">
         <v>217</v>
       </c>
-      <c r="E23" s="143"/>
-      <c r="F23" s="139" t="s">
+      <c r="E23" s="126"/>
+      <c r="F23" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="139"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="139"/>
-      <c r="J23" s="139"/>
-      <c r="K23" s="139"/>
-      <c r="L23" s="139"/>
-      <c r="M23" s="139"/>
-      <c r="N23" s="139"/>
+      <c r="G23" s="133"/>
+      <c r="H23" s="133"/>
+      <c r="I23" s="133"/>
+      <c r="J23" s="133"/>
+      <c r="K23" s="133"/>
+      <c r="L23" s="133"/>
+      <c r="M23" s="133"/>
+      <c r="N23" s="133"/>
       <c r="O23" s="29"/>
     </row>
     <row r="24" spans="2:15" ht="15" customHeight="1">
-      <c r="B24" s="146"/>
+      <c r="B24" s="141"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="143"/>
-      <c r="E24" s="143"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="139"/>
-      <c r="J24" s="139"/>
-      <c r="K24" s="139"/>
-      <c r="L24" s="139"/>
-      <c r="M24" s="139"/>
-      <c r="N24" s="139"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="133"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="133"/>
+      <c r="J24" s="133"/>
+      <c r="K24" s="133"/>
+      <c r="L24" s="133"/>
+      <c r="M24" s="133"/>
+      <c r="N24" s="133"/>
       <c r="O24" s="29"/>
     </row>
     <row r="25" spans="2:15" ht="15" customHeight="1">
-      <c r="B25" s="146"/>
+      <c r="B25" s="141"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="143" t="s">
+      <c r="D25" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="143"/>
-      <c r="F25" s="139" t="s">
+      <c r="E25" s="126"/>
+      <c r="F25" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="139"/>
-      <c r="H25" s="139"/>
-      <c r="I25" s="139"/>
-      <c r="J25" s="139"/>
-      <c r="K25" s="139"/>
-      <c r="L25" s="139"/>
-      <c r="M25" s="139"/>
-      <c r="N25" s="139"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="133"/>
+      <c r="I25" s="133"/>
+      <c r="J25" s="133"/>
+      <c r="K25" s="133"/>
+      <c r="L25" s="133"/>
+      <c r="M25" s="133"/>
+      <c r="N25" s="133"/>
       <c r="O25" s="29"/>
     </row>
     <row r="26" spans="2:15" ht="15" customHeight="1">
-      <c r="B26" s="146"/>
+      <c r="B26" s="141"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="143"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="139"/>
-      <c r="J26" s="139"/>
-      <c r="K26" s="139"/>
-      <c r="L26" s="139"/>
-      <c r="M26" s="139"/>
-      <c r="N26" s="139"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="133"/>
+      <c r="G26" s="133"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="133"/>
+      <c r="K26" s="133"/>
+      <c r="L26" s="133"/>
+      <c r="M26" s="133"/>
+      <c r="N26" s="133"/>
       <c r="O26" s="29"/>
     </row>
     <row r="27" spans="2:15" ht="15" customHeight="1">
-      <c r="B27" s="146"/>
+      <c r="B27" s="141"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="143" t="s">
+      <c r="D27" s="126" t="s">
         <v>218</v>
       </c>
-      <c r="E27" s="143"/>
-      <c r="F27" s="154" t="s">
+      <c r="E27" s="126"/>
+      <c r="F27" s="188" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="155"/>
-      <c r="H27" s="155"/>
-      <c r="I27" s="153" t="s">
+      <c r="G27" s="189"/>
+      <c r="H27" s="189"/>
+      <c r="I27" s="147" t="s">
         <v>219</v>
       </c>
-      <c r="J27" s="156" t="s">
+      <c r="J27" s="190" t="s">
         <v>27</v>
       </c>
-      <c r="K27" s="156"/>
-      <c r="L27" s="156"/>
-      <c r="M27" s="156"/>
-      <c r="N27" s="157"/>
+      <c r="K27" s="190"/>
+      <c r="L27" s="190"/>
+      <c r="M27" s="190"/>
+      <c r="N27" s="191"/>
       <c r="O27" s="29"/>
     </row>
     <row r="28" spans="2:15" ht="15" customHeight="1">
-      <c r="B28" s="146"/>
+      <c r="B28" s="141"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="143"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="153"/>
-      <c r="J28" s="156"/>
-      <c r="K28" s="156"/>
-      <c r="L28" s="156"/>
-      <c r="M28" s="156"/>
-      <c r="N28" s="157"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="188"/>
+      <c r="G28" s="189"/>
+      <c r="H28" s="189"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="190"/>
+      <c r="K28" s="190"/>
+      <c r="L28" s="190"/>
+      <c r="M28" s="190"/>
+      <c r="N28" s="191"/>
       <c r="O28" s="29"/>
     </row>
     <row r="29" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B29" s="146"/>
+      <c r="B29" s="141"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="129" t="s">
+      <c r="D29" s="127" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="130"/>
-      <c r="F29" s="129" t="s">
+      <c r="E29" s="128"/>
+      <c r="F29" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="G29" s="130"/>
-      <c r="H29" s="151" t="s">
+      <c r="G29" s="128"/>
+      <c r="H29" s="145" t="s">
         <v>73</v>
       </c>
-      <c r="I29" s="127" t="s">
+      <c r="I29" s="138" t="s">
         <v>220</v>
       </c>
-      <c r="J29" s="128"/>
-      <c r="K29" s="133" t="s">
+      <c r="J29" s="139"/>
+      <c r="K29" s="171" t="s">
         <v>75</v>
       </c>
-      <c r="L29" s="130"/>
-      <c r="M29" s="129" t="s">
+      <c r="L29" s="128"/>
+      <c r="M29" s="127" t="s">
         <v>76</v>
       </c>
-      <c r="N29" s="130"/>
+      <c r="N29" s="128"/>
       <c r="O29" s="29"/>
     </row>
     <row r="30" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B30" s="146"/>
+      <c r="B30" s="141"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="176"/>
-      <c r="F30" s="134"/>
-      <c r="G30" s="135"/>
-      <c r="H30" s="152"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="131"/>
+      <c r="G30" s="132"/>
+      <c r="H30" s="146"/>
       <c r="I30" s="15" t="s">
         <v>77</v>
       </c>
       <c r="J30" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="K30" s="134"/>
-      <c r="L30" s="135"/>
-      <c r="M30" s="131" t="s">
+      <c r="K30" s="131"/>
+      <c r="L30" s="132"/>
+      <c r="M30" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="N30" s="132"/>
+      <c r="N30" s="170"/>
       <c r="O30" s="29"/>
     </row>
     <row r="31" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B31" s="146"/>
+      <c r="B31" s="141"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="176"/>
-      <c r="F31" s="136" t="s">
+      <c r="D31" s="129"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="152" t="s">
         <v>81</v>
       </c>
-      <c r="G31" s="137"/>
+      <c r="G31" s="153"/>
       <c r="H31" s="17" t="s">
         <v>82</v>
       </c>
@@ -4158,25 +4159,25 @@
       <c r="J31" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="K31" s="138" t="s">
+      <c r="K31" s="158" t="s">
         <v>82</v>
       </c>
-      <c r="L31" s="139"/>
-      <c r="M31" s="140" t="s">
+      <c r="L31" s="133"/>
+      <c r="M31" s="148" t="s">
         <v>83</v>
       </c>
-      <c r="N31" s="140"/>
+      <c r="N31" s="148"/>
       <c r="O31" s="29"/>
     </row>
     <row r="32" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B32" s="146"/>
+      <c r="B32" s="141"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="175"/>
-      <c r="E32" s="176"/>
-      <c r="F32" s="136" t="s">
+      <c r="D32" s="129"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="152" t="s">
         <v>84</v>
       </c>
-      <c r="G32" s="137"/>
+      <c r="G32" s="153"/>
       <c r="H32" s="18" t="s">
         <v>85</v>
       </c>
@@ -4186,25 +4187,25 @@
       <c r="J32" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="K32" s="138" t="s">
+      <c r="K32" s="158" t="s">
         <v>221</v>
       </c>
-      <c r="L32" s="139"/>
-      <c r="M32" s="140" t="s">
+      <c r="L32" s="133"/>
+      <c r="M32" s="148" t="s">
         <v>91</v>
       </c>
-      <c r="N32" s="140"/>
+      <c r="N32" s="148"/>
       <c r="O32" s="29"/>
     </row>
     <row r="33" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B33" s="146"/>
+      <c r="B33" s="141"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="175"/>
-      <c r="E33" s="176"/>
-      <c r="F33" s="136" t="s">
+      <c r="D33" s="129"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="152" t="s">
         <v>92</v>
       </c>
-      <c r="G33" s="137"/>
+      <c r="G33" s="153"/>
       <c r="H33" s="18" t="s">
         <v>93</v>
       </c>
@@ -4214,25 +4215,25 @@
       <c r="J33" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="K33" s="141" t="s">
+      <c r="K33" s="154" t="s">
         <v>222</v>
       </c>
-      <c r="L33" s="142"/>
-      <c r="M33" s="140" t="s">
+      <c r="L33" s="155"/>
+      <c r="M33" s="148" t="s">
         <v>98</v>
       </c>
-      <c r="N33" s="140"/>
+      <c r="N33" s="148"/>
       <c r="O33" s="29"/>
     </row>
     <row r="34" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B34" s="146"/>
+      <c r="B34" s="141"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="175"/>
-      <c r="E34" s="176"/>
-      <c r="F34" s="136" t="s">
+      <c r="D34" s="129"/>
+      <c r="E34" s="130"/>
+      <c r="F34" s="152" t="s">
         <v>99</v>
       </c>
-      <c r="G34" s="137"/>
+      <c r="G34" s="153"/>
       <c r="H34" s="18" t="s">
         <v>100</v>
       </c>
@@ -4242,25 +4243,25 @@
       <c r="J34" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="K34" s="141" t="s">
+      <c r="K34" s="154" t="s">
         <v>223</v>
       </c>
-      <c r="L34" s="142"/>
-      <c r="M34" s="140" t="s">
+      <c r="L34" s="155"/>
+      <c r="M34" s="148" t="s">
         <v>105</v>
       </c>
-      <c r="N34" s="140"/>
+      <c r="N34" s="148"/>
       <c r="O34" s="29"/>
     </row>
     <row r="35" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B35" s="146"/>
+      <c r="B35" s="141"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="175"/>
-      <c r="E35" s="176"/>
-      <c r="F35" s="136" t="s">
+      <c r="D35" s="129"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="152" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="137"/>
+      <c r="G35" s="153"/>
       <c r="H35" s="18" t="s">
         <v>107</v>
       </c>
@@ -4270,25 +4271,25 @@
       <c r="J35" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="K35" s="141" t="s">
+      <c r="K35" s="154" t="s">
         <v>224</v>
       </c>
-      <c r="L35" s="142"/>
-      <c r="M35" s="140" t="s">
+      <c r="L35" s="155"/>
+      <c r="M35" s="148" t="s">
         <v>112</v>
       </c>
-      <c r="N35" s="140"/>
+      <c r="N35" s="148"/>
       <c r="O35" s="29"/>
     </row>
     <row r="36" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B36" s="146"/>
+      <c r="B36" s="141"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="175"/>
-      <c r="E36" s="176"/>
-      <c r="F36" s="136" t="s">
+      <c r="D36" s="129"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="152" t="s">
         <v>113</v>
       </c>
-      <c r="G36" s="137"/>
+      <c r="G36" s="153"/>
       <c r="H36" s="18" t="s">
         <v>114</v>
       </c>
@@ -4298,25 +4299,25 @@
       <c r="J36" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="K36" s="141" t="s">
+      <c r="K36" s="154" t="s">
         <v>225</v>
       </c>
-      <c r="L36" s="142"/>
-      <c r="M36" s="140" t="s">
+      <c r="L36" s="155"/>
+      <c r="M36" s="148" t="s">
         <v>119</v>
       </c>
-      <c r="N36" s="140"/>
+      <c r="N36" s="148"/>
       <c r="O36" s="29"/>
     </row>
     <row r="37" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B37" s="146"/>
+      <c r="B37" s="141"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="175"/>
-      <c r="E37" s="176"/>
-      <c r="F37" s="136" t="s">
+      <c r="D37" s="129"/>
+      <c r="E37" s="130"/>
+      <c r="F37" s="152" t="s">
         <v>120</v>
       </c>
-      <c r="G37" s="137"/>
+      <c r="G37" s="153"/>
       <c r="H37" s="18" t="s">
         <v>121</v>
       </c>
@@ -4326,44 +4327,44 @@
       <c r="J37" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="K37" s="141" t="s">
+      <c r="K37" s="154" t="s">
         <v>226</v>
       </c>
-      <c r="L37" s="142"/>
-      <c r="M37" s="140" t="s">
+      <c r="L37" s="155"/>
+      <c r="M37" s="148" t="s">
         <v>126</v>
       </c>
-      <c r="N37" s="140"/>
+      <c r="N37" s="148"/>
       <c r="O37" s="29"/>
     </row>
     <row r="38" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B38" s="146"/>
+      <c r="B38" s="141"/>
       <c r="C38" s="12"/>
-      <c r="D38" s="134"/>
-      <c r="E38" s="135"/>
-      <c r="F38" s="143" t="s">
+      <c r="D38" s="131"/>
+      <c r="E38" s="132"/>
+      <c r="F38" s="126" t="s">
         <v>127</v>
       </c>
-      <c r="G38" s="143"/>
-      <c r="H38" s="143"/>
+      <c r="G38" s="126"/>
+      <c r="H38" s="126"/>
       <c r="I38" s="15" t="s">
         <v>128</v>
       </c>
       <c r="J38" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="K38" s="143" t="s">
+      <c r="K38" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="L38" s="143"/>
-      <c r="M38" s="143" t="s">
+      <c r="L38" s="126"/>
+      <c r="M38" s="126" t="s">
         <v>130</v>
       </c>
-      <c r="N38" s="143"/>
+      <c r="N38" s="126"/>
       <c r="O38" s="29"/>
     </row>
     <row r="39" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B39" s="146"/>
+      <c r="B39" s="141"/>
       <c r="C39" s="12"/>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
@@ -4372,18 +4373,18 @@
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="19"/>
-      <c r="K39" s="144" t="s">
+      <c r="K39" s="156" t="s">
         <v>227</v>
       </c>
-      <c r="L39" s="144"/>
-      <c r="M39" s="145" t="s">
+      <c r="L39" s="156"/>
+      <c r="M39" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="N39" s="145"/>
+      <c r="N39" s="157"/>
       <c r="O39" s="29"/>
     </row>
     <row r="40" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B40" s="146"/>
+      <c r="B40" s="141"/>
       <c r="C40" s="12"/>
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
@@ -4392,138 +4393,138 @@
       <c r="H40" s="20"/>
       <c r="I40" s="20"/>
       <c r="J40" s="20"/>
-      <c r="K40" s="144" t="s">
+      <c r="K40" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="L40" s="144"/>
-      <c r="M40" s="145" t="s">
+      <c r="L40" s="156"/>
+      <c r="M40" s="157" t="s">
         <v>67</v>
       </c>
-      <c r="N40" s="145"/>
+      <c r="N40" s="157"/>
       <c r="O40" s="29"/>
     </row>
     <row r="41" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B41" s="146"/>
+      <c r="B41" s="141"/>
       <c r="C41" s="12"/>
-      <c r="D41" s="143" t="s">
+      <c r="D41" s="126" t="s">
         <v>228</v>
       </c>
-      <c r="E41" s="143"/>
-      <c r="F41" s="127" t="s">
+      <c r="E41" s="126"/>
+      <c r="F41" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="128"/>
-      <c r="H41" s="180" t="s">
+      <c r="G41" s="139"/>
+      <c r="H41" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="I41" s="128"/>
-      <c r="J41" s="143" t="s">
+      <c r="I41" s="139"/>
+      <c r="J41" s="126" t="s">
         <v>229</v>
       </c>
-      <c r="K41" s="143"/>
-      <c r="L41" s="143"/>
-      <c r="M41" s="143"/>
-      <c r="N41" s="143"/>
+      <c r="K41" s="126"/>
+      <c r="L41" s="126"/>
+      <c r="M41" s="126"/>
+      <c r="N41" s="126"/>
       <c r="O41" s="29"/>
     </row>
     <row r="42" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B42" s="146"/>
+      <c r="B42" s="141"/>
       <c r="C42" s="12"/>
-      <c r="D42" s="143" t="s">
+      <c r="D42" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="143"/>
-      <c r="F42" s="189" t="s">
+      <c r="E42" s="126"/>
+      <c r="F42" s="192" t="s">
         <v>238</v>
       </c>
-      <c r="G42" s="190"/>
-      <c r="H42" s="189" t="s">
+      <c r="G42" s="193"/>
+      <c r="H42" s="192" t="s">
         <v>254</v>
       </c>
-      <c r="I42" s="190"/>
-      <c r="J42" s="140" t="s">
+      <c r="I42" s="193"/>
+      <c r="J42" s="148" t="s">
         <v>45</v>
       </c>
-      <c r="K42" s="140"/>
-      <c r="L42" s="140"/>
-      <c r="M42" s="140"/>
-      <c r="N42" s="140"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
+      <c r="N42" s="148"/>
       <c r="O42" s="29"/>
     </row>
     <row r="43" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B43" s="146"/>
+      <c r="B43" s="141"/>
       <c r="C43" s="12"/>
-      <c r="D43" s="143" t="s">
+      <c r="D43" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="143"/>
-      <c r="F43" s="189" t="s">
+      <c r="E43" s="126"/>
+      <c r="F43" s="192" t="s">
         <v>255</v>
       </c>
-      <c r="G43" s="190"/>
-      <c r="H43" s="189" t="s">
+      <c r="G43" s="193"/>
+      <c r="H43" s="192" t="s">
         <v>256</v>
       </c>
-      <c r="I43" s="190"/>
-      <c r="J43" s="140" t="s">
+      <c r="I43" s="193"/>
+      <c r="J43" s="148" t="s">
         <v>47</v>
       </c>
-      <c r="K43" s="140"/>
-      <c r="L43" s="140"/>
-      <c r="M43" s="140"/>
-      <c r="N43" s="140"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
+      <c r="N43" s="148"/>
       <c r="O43" s="29"/>
     </row>
     <row r="44" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B44" s="146"/>
+      <c r="B44" s="141"/>
       <c r="C44" s="12"/>
-      <c r="D44" s="143" t="s">
+      <c r="D44" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="E44" s="143"/>
-      <c r="F44" s="189" t="s">
+      <c r="E44" s="126"/>
+      <c r="F44" s="192" t="s">
         <v>246</v>
       </c>
-      <c r="G44" s="190"/>
-      <c r="H44" s="189" t="s">
+      <c r="G44" s="193"/>
+      <c r="H44" s="192" t="s">
         <v>257</v>
       </c>
-      <c r="I44" s="190"/>
-      <c r="J44" s="140" t="s">
+      <c r="I44" s="193"/>
+      <c r="J44" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="K44" s="140"/>
-      <c r="L44" s="140"/>
-      <c r="M44" s="140"/>
-      <c r="N44" s="140"/>
+      <c r="K44" s="148"/>
+      <c r="L44" s="148"/>
+      <c r="M44" s="148"/>
+      <c r="N44" s="148"/>
       <c r="O44" s="29"/>
     </row>
     <row r="45" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B45" s="146"/>
+      <c r="B45" s="141"/>
       <c r="C45" s="12"/>
-      <c r="D45" s="143" t="s">
+      <c r="D45" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="E45" s="143"/>
-      <c r="F45" s="189" t="s">
+      <c r="E45" s="126"/>
+      <c r="F45" s="192" t="s">
         <v>250</v>
       </c>
-      <c r="G45" s="190"/>
-      <c r="H45" s="189" t="s">
+      <c r="G45" s="193"/>
+      <c r="H45" s="192" t="s">
         <v>252</v>
       </c>
-      <c r="I45" s="190"/>
-      <c r="J45" s="140" t="s">
+      <c r="I45" s="193"/>
+      <c r="J45" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="K45" s="140"/>
-      <c r="L45" s="140"/>
-      <c r="M45" s="140"/>
-      <c r="N45" s="140"/>
+      <c r="K45" s="148"/>
+      <c r="L45" s="148"/>
+      <c r="M45" s="148"/>
+      <c r="N45" s="148"/>
       <c r="O45" s="29"/>
     </row>
     <row r="46" spans="2:15" ht="21.75" customHeight="1">
-      <c r="B46" s="146"/>
+      <c r="B46" s="141"/>
       <c r="C46" s="12"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
@@ -4531,17 +4532,17 @@
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
-      <c r="J46" s="158" t="s">
+      <c r="J46" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="K46" s="159"/>
-      <c r="L46" s="159"/>
-      <c r="M46" s="159"/>
-      <c r="N46" s="160"/>
+      <c r="K46" s="150"/>
+      <c r="L46" s="150"/>
+      <c r="M46" s="150"/>
+      <c r="N46" s="151"/>
       <c r="O46" s="29"/>
     </row>
     <row r="47" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="146"/>
+      <c r="B47" s="141"/>
       <c r="C47" s="12"/>
       <c r="D47" s="13" t="s">
         <v>230</v>
@@ -4559,13 +4560,13 @@
       <c r="O47" s="29"/>
     </row>
     <row r="48" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B48" s="146"/>
+      <c r="B48" s="141"/>
       <c r="C48" s="12"/>
       <c r="D48" s="13"/>
-      <c r="E48" s="113" t="s">
+      <c r="E48" s="134" t="s">
         <v>231</v>
       </c>
-      <c r="F48" s="113"/>
+      <c r="F48" s="134"/>
       <c r="G48" s="22" t="s">
         <v>69</v>
       </c>
@@ -4579,13 +4580,13 @@
       <c r="O48" s="29"/>
     </row>
     <row r="49" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="146"/>
+      <c r="B49" s="141"/>
       <c r="C49" s="12"/>
       <c r="D49" s="13"/>
-      <c r="E49" s="113" t="s">
+      <c r="E49" s="134" t="s">
         <v>232</v>
       </c>
-      <c r="F49" s="113"/>
+      <c r="F49" s="134"/>
       <c r="G49" s="22" t="s">
         <v>71</v>
       </c>
@@ -4599,7 +4600,7 @@
       <c r="O49" s="29"/>
     </row>
     <row r="50" spans="2:15" ht="9.75" customHeight="1">
-      <c r="B50" s="146"/>
+      <c r="B50" s="141"/>
       <c r="C50" s="12"/>
       <c r="D50" s="13"/>
       <c r="E50" s="21"/>
@@ -4615,211 +4616,211 @@
       <c r="O50" s="29"/>
     </row>
     <row r="51" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="146"/>
+      <c r="B51" s="141"/>
       <c r="C51" s="12"/>
       <c r="D51" s="13" t="s">
         <v>233</v>
       </c>
       <c r="E51" s="21"/>
-      <c r="F51" s="181" t="str">
+      <c r="F51" s="111" t="str">
         <f>記入!E35</f>
         <v>${aw.remarks}</v>
       </c>
-      <c r="G51" s="181"/>
-      <c r="H51" s="181"/>
-      <c r="I51" s="181"/>
-      <c r="J51" s="181"/>
-      <c r="K51" s="181"/>
-      <c r="L51" s="181"/>
-      <c r="M51" s="181"/>
-      <c r="N51" s="181"/>
+      <c r="G51" s="111"/>
+      <c r="H51" s="111"/>
+      <c r="I51" s="111"/>
+      <c r="J51" s="111"/>
+      <c r="K51" s="111"/>
+      <c r="L51" s="111"/>
+      <c r="M51" s="111"/>
+      <c r="N51" s="111"/>
       <c r="O51" s="29"/>
     </row>
     <row r="52" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B52" s="146"/>
+      <c r="B52" s="141"/>
       <c r="C52" s="12"/>
       <c r="D52" s="13"/>
       <c r="E52" s="24"/>
-      <c r="F52" s="182"/>
-      <c r="G52" s="182"/>
-      <c r="H52" s="182"/>
-      <c r="I52" s="182"/>
-      <c r="J52" s="182"/>
-      <c r="K52" s="182"/>
-      <c r="L52" s="182"/>
-      <c r="M52" s="182"/>
-      <c r="N52" s="182"/>
+      <c r="F52" s="112"/>
+      <c r="G52" s="112"/>
+      <c r="H52" s="112"/>
+      <c r="I52" s="112"/>
+      <c r="J52" s="112"/>
+      <c r="K52" s="112"/>
+      <c r="L52" s="112"/>
+      <c r="M52" s="112"/>
+      <c r="N52" s="112"/>
       <c r="O52" s="29"/>
     </row>
     <row r="53" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B53" s="146"/>
-      <c r="C53" s="177" t="s">
+      <c r="B53" s="141"/>
+      <c r="C53" s="110" t="s">
         <v>234</v>
       </c>
-      <c r="D53" s="177"/>
-      <c r="E53" s="177"/>
-      <c r="F53" s="177" t="s">
+      <c r="D53" s="110"/>
+      <c r="E53" s="110"/>
+      <c r="F53" s="110" t="s">
         <v>235</v>
       </c>
-      <c r="G53" s="177"/>
-      <c r="H53" s="177" t="s">
+      <c r="G53" s="110"/>
+      <c r="H53" s="110" t="s">
         <v>236</v>
       </c>
-      <c r="I53" s="177"/>
-      <c r="J53" s="177" t="s">
+      <c r="I53" s="110"/>
+      <c r="J53" s="110" t="s">
         <v>235</v>
       </c>
-      <c r="K53" s="177"/>
-      <c r="L53" s="177"/>
-      <c r="M53" s="177" t="s">
+      <c r="K53" s="110"/>
+      <c r="L53" s="110"/>
+      <c r="M53" s="110" t="s">
         <v>236</v>
       </c>
-      <c r="N53" s="177"/>
-      <c r="O53" s="177"/>
+      <c r="N53" s="110"/>
+      <c r="O53" s="110"/>
     </row>
     <row r="54" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B54" s="146"/>
-      <c r="C54" s="177"/>
-      <c r="D54" s="177"/>
-      <c r="E54" s="177"/>
-      <c r="F54" s="174"/>
-      <c r="G54" s="174"/>
-      <c r="H54" s="174"/>
-      <c r="I54" s="174"/>
-      <c r="J54" s="174"/>
-      <c r="K54" s="174"/>
-      <c r="L54" s="174"/>
-      <c r="M54" s="174"/>
-      <c r="N54" s="174"/>
-      <c r="O54" s="174"/>
+      <c r="B54" s="141"/>
+      <c r="C54" s="110"/>
+      <c r="D54" s="110"/>
+      <c r="E54" s="110"/>
+      <c r="F54" s="109"/>
+      <c r="G54" s="109"/>
+      <c r="H54" s="109"/>
+      <c r="I54" s="109"/>
+      <c r="J54" s="109"/>
+      <c r="K54" s="109"/>
+      <c r="L54" s="109"/>
+      <c r="M54" s="109"/>
+      <c r="N54" s="109"/>
+      <c r="O54" s="109"/>
     </row>
     <row r="55" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="146"/>
-      <c r="C55" s="177"/>
-      <c r="D55" s="177"/>
-      <c r="E55" s="177"/>
-      <c r="F55" s="174"/>
-      <c r="G55" s="174"/>
-      <c r="H55" s="174"/>
-      <c r="I55" s="174"/>
-      <c r="J55" s="174"/>
-      <c r="K55" s="174"/>
-      <c r="L55" s="174"/>
-      <c r="M55" s="174"/>
-      <c r="N55" s="174"/>
-      <c r="O55" s="174"/>
+      <c r="B55" s="141"/>
+      <c r="C55" s="110"/>
+      <c r="D55" s="110"/>
+      <c r="E55" s="110"/>
+      <c r="F55" s="109"/>
+      <c r="G55" s="109"/>
+      <c r="H55" s="109"/>
+      <c r="I55" s="109"/>
+      <c r="J55" s="109"/>
+      <c r="K55" s="109"/>
+      <c r="L55" s="109"/>
+      <c r="M55" s="109"/>
+      <c r="N55" s="109"/>
+      <c r="O55" s="109"/>
     </row>
     <row r="56" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B56" s="146"/>
-      <c r="C56" s="177"/>
-      <c r="D56" s="177"/>
-      <c r="E56" s="177"/>
-      <c r="F56" s="174"/>
-      <c r="G56" s="174"/>
-      <c r="H56" s="174"/>
-      <c r="I56" s="174"/>
-      <c r="J56" s="174"/>
-      <c r="K56" s="174"/>
-      <c r="L56" s="174"/>
-      <c r="M56" s="174"/>
-      <c r="N56" s="174"/>
-      <c r="O56" s="174"/>
+      <c r="B56" s="141"/>
+      <c r="C56" s="110"/>
+      <c r="D56" s="110"/>
+      <c r="E56" s="110"/>
+      <c r="F56" s="109"/>
+      <c r="G56" s="109"/>
+      <c r="H56" s="109"/>
+      <c r="I56" s="109"/>
+      <c r="J56" s="109"/>
+      <c r="K56" s="109"/>
+      <c r="L56" s="109"/>
+      <c r="M56" s="109"/>
+      <c r="N56" s="109"/>
+      <c r="O56" s="109"/>
     </row>
     <row r="57" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="146"/>
-      <c r="C57" s="177"/>
-      <c r="D57" s="177"/>
-      <c r="E57" s="177"/>
-      <c r="F57" s="174"/>
-      <c r="G57" s="174"/>
-      <c r="H57" s="174"/>
-      <c r="I57" s="174"/>
-      <c r="J57" s="174"/>
-      <c r="K57" s="174"/>
-      <c r="L57" s="174"/>
-      <c r="M57" s="174"/>
-      <c r="N57" s="174"/>
-      <c r="O57" s="174"/>
+      <c r="B57" s="141"/>
+      <c r="C57" s="110"/>
+      <c r="D57" s="110"/>
+      <c r="E57" s="110"/>
+      <c r="F57" s="109"/>
+      <c r="G57" s="109"/>
+      <c r="H57" s="109"/>
+      <c r="I57" s="109"/>
+      <c r="J57" s="109"/>
+      <c r="K57" s="109"/>
+      <c r="L57" s="109"/>
+      <c r="M57" s="109"/>
+      <c r="N57" s="109"/>
+      <c r="O57" s="109"/>
     </row>
     <row r="58" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B58" s="146"/>
-      <c r="C58" s="177"/>
-      <c r="D58" s="177"/>
-      <c r="E58" s="177"/>
-      <c r="F58" s="174"/>
-      <c r="G58" s="174"/>
-      <c r="H58" s="174"/>
-      <c r="I58" s="174"/>
-      <c r="J58" s="174"/>
-      <c r="K58" s="174"/>
-      <c r="L58" s="174"/>
-      <c r="M58" s="174"/>
-      <c r="N58" s="174"/>
-      <c r="O58" s="174"/>
+      <c r="B58" s="141"/>
+      <c r="C58" s="110"/>
+      <c r="D58" s="110"/>
+      <c r="E58" s="110"/>
+      <c r="F58" s="109"/>
+      <c r="G58" s="109"/>
+      <c r="H58" s="109"/>
+      <c r="I58" s="109"/>
+      <c r="J58" s="109"/>
+      <c r="K58" s="109"/>
+      <c r="L58" s="109"/>
+      <c r="M58" s="109"/>
+      <c r="N58" s="109"/>
+      <c r="O58" s="109"/>
     </row>
     <row r="59" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B59" s="146"/>
-      <c r="C59" s="177"/>
-      <c r="D59" s="177"/>
-      <c r="E59" s="177"/>
-      <c r="F59" s="174"/>
-      <c r="G59" s="174"/>
-      <c r="H59" s="174"/>
-      <c r="I59" s="174"/>
-      <c r="J59" s="174"/>
-      <c r="K59" s="174"/>
-      <c r="L59" s="174"/>
-      <c r="M59" s="174"/>
-      <c r="N59" s="174"/>
-      <c r="O59" s="174"/>
+      <c r="B59" s="141"/>
+      <c r="C59" s="110"/>
+      <c r="D59" s="110"/>
+      <c r="E59" s="110"/>
+      <c r="F59" s="109"/>
+      <c r="G59" s="109"/>
+      <c r="H59" s="109"/>
+      <c r="I59" s="109"/>
+      <c r="J59" s="109"/>
+      <c r="K59" s="109"/>
+      <c r="L59" s="109"/>
+      <c r="M59" s="109"/>
+      <c r="N59" s="109"/>
+      <c r="O59" s="109"/>
     </row>
     <row r="60" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B60" s="146"/>
-      <c r="C60" s="177"/>
-      <c r="D60" s="177"/>
-      <c r="E60" s="177"/>
-      <c r="F60" s="174"/>
-      <c r="G60" s="174"/>
-      <c r="H60" s="174"/>
-      <c r="I60" s="174"/>
-      <c r="J60" s="174"/>
-      <c r="K60" s="174"/>
-      <c r="L60" s="174"/>
-      <c r="M60" s="174"/>
-      <c r="N60" s="174"/>
-      <c r="O60" s="174"/>
+      <c r="B60" s="141"/>
+      <c r="C60" s="110"/>
+      <c r="D60" s="110"/>
+      <c r="E60" s="110"/>
+      <c r="F60" s="109"/>
+      <c r="G60" s="109"/>
+      <c r="H60" s="109"/>
+      <c r="I60" s="109"/>
+      <c r="J60" s="109"/>
+      <c r="K60" s="109"/>
+      <c r="L60" s="109"/>
+      <c r="M60" s="109"/>
+      <c r="N60" s="109"/>
+      <c r="O60" s="109"/>
     </row>
     <row r="61" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B61" s="146"/>
-      <c r="C61" s="177"/>
-      <c r="D61" s="177"/>
-      <c r="E61" s="177"/>
-      <c r="F61" s="174"/>
-      <c r="G61" s="174"/>
-      <c r="H61" s="174"/>
-      <c r="I61" s="174"/>
-      <c r="J61" s="174"/>
-      <c r="K61" s="174"/>
-      <c r="L61" s="174"/>
-      <c r="M61" s="174"/>
-      <c r="N61" s="174"/>
-      <c r="O61" s="174"/>
+      <c r="B61" s="141"/>
+      <c r="C61" s="110"/>
+      <c r="D61" s="110"/>
+      <c r="E61" s="110"/>
+      <c r="F61" s="109"/>
+      <c r="G61" s="109"/>
+      <c r="H61" s="109"/>
+      <c r="I61" s="109"/>
+      <c r="J61" s="109"/>
+      <c r="K61" s="109"/>
+      <c r="L61" s="109"/>
+      <c r="M61" s="109"/>
+      <c r="N61" s="109"/>
+      <c r="O61" s="109"/>
     </row>
     <row r="62" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B62" s="146"/>
-      <c r="C62" s="177"/>
-      <c r="D62" s="177"/>
-      <c r="E62" s="177"/>
-      <c r="F62" s="174"/>
-      <c r="G62" s="174"/>
-      <c r="H62" s="174"/>
-      <c r="I62" s="174"/>
-      <c r="J62" s="174"/>
-      <c r="K62" s="174"/>
-      <c r="L62" s="174"/>
-      <c r="M62" s="174"/>
-      <c r="N62" s="174"/>
-      <c r="O62" s="174"/>
+      <c r="B62" s="141"/>
+      <c r="C62" s="110"/>
+      <c r="D62" s="110"/>
+      <c r="E62" s="110"/>
+      <c r="F62" s="109"/>
+      <c r="G62" s="109"/>
+      <c r="H62" s="109"/>
+      <c r="I62" s="109"/>
+      <c r="J62" s="109"/>
+      <c r="K62" s="109"/>
+      <c r="L62" s="109"/>
+      <c r="M62" s="109"/>
+      <c r="N62" s="109"/>
+      <c r="O62" s="109"/>
     </row>
     <row r="63" spans="2:15" ht="14.25">
       <c r="C63" s="25" t="s">
@@ -4834,18 +4835,86 @@
     <protectedRange sqref="M31:N37" name="範囲3_2_2"/>
   </protectedRanges>
   <mergeCells count="116">
-    <mergeCell ref="J60:L62"/>
-    <mergeCell ref="M60:O62"/>
-    <mergeCell ref="C53:E62"/>
-    <mergeCell ref="J54:L56"/>
-    <mergeCell ref="M54:O56"/>
-    <mergeCell ref="J57:L59"/>
-    <mergeCell ref="M57:O59"/>
-    <mergeCell ref="F51:N52"/>
-    <mergeCell ref="F60:G62"/>
-    <mergeCell ref="H60:I62"/>
-    <mergeCell ref="F54:G56"/>
-    <mergeCell ref="H54:I56"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="K29:L30"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:N43"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="B14:B62"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="F23:N24"/>
+    <mergeCell ref="F25:N26"/>
+    <mergeCell ref="F27:H28"/>
+    <mergeCell ref="J27:N28"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:N44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:N45"/>
+    <mergeCell ref="J46:N46"/>
+    <mergeCell ref="D41:E41"/>
     <mergeCell ref="G4:K8"/>
     <mergeCell ref="D3:E8"/>
     <mergeCell ref="C10:G11"/>
@@ -4870,86 +4939,18 @@
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="H41:I41"/>
     <mergeCell ref="J41:N41"/>
-    <mergeCell ref="B14:B62"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="F23:N24"/>
-    <mergeCell ref="F25:N26"/>
-    <mergeCell ref="F27:H28"/>
-    <mergeCell ref="J27:N28"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:N44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:N45"/>
-    <mergeCell ref="J46:N46"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:N43"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="K29:L30"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="J60:L62"/>
+    <mergeCell ref="M60:O62"/>
+    <mergeCell ref="C53:E62"/>
+    <mergeCell ref="J54:L56"/>
+    <mergeCell ref="M54:O56"/>
+    <mergeCell ref="J57:L59"/>
+    <mergeCell ref="M57:O59"/>
+    <mergeCell ref="F51:N52"/>
+    <mergeCell ref="F60:G62"/>
+    <mergeCell ref="H60:I62"/>
+    <mergeCell ref="F54:G56"/>
+    <mergeCell ref="H54:I56"/>
   </mergeCells>
   <phoneticPr fontId="21"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
